--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.28096</v>
+                  <v>0.0758843</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.275285</v>
+                  <v>0.0735374</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.260227</v>
+                  <v>0.0747241</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.249344</v>
+                  <v>0.0728557</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.236975</v>
+                  <v>0.0725507</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.225674</v>
+                  <v>0.0714322</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.210202</v>
+                  <v>0.0708246</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.194356</v>
+                  <v>0.0693053</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.334027</v>
+                  <v>0.124614</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.329254</v>
+                  <v>0.123047</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.323249</v>
+                  <v>0.122218</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.318197</v>
+                  <v>0.118435</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.311484</v>
+                  <v>0.116689</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.301987</v>
+                  <v>0.115717</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.293769</v>
+                  <v>0.109993</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.283186</v>
+                  <v>0.107112</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.274789</v>
+                  <v>0.105066</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.264307</v>
+                  <v>0.09945279999999999</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.253335</v>
+                  <v>0.096415</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.240375</v>
+                  <v>0.095169</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.225843</v>
+                  <v>0.0909674</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.209111</v>
+                  <v>0.0868884</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.347854</v>
+                  <v>0.151432</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.342351</v>
+                  <v>0.147713</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.335171</v>
+                  <v>0.144473</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.3287</v>
+                  <v>0.139768</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.321793</v>
+                  <v>0.136365</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.313509</v>
+                  <v>0.132397</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.304099</v>
+                  <v>0.128003</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.294429</v>
+                  <v>0.123668</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.283902</v>
+                  <v>0.11902</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.273734</v>
+                  <v>0.114459</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.261908</v>
+                  <v>0.110177</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.247935</v>
+                  <v>0.105099</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.234331</v>
+                  <v>0.100138</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.21972</v>
+                  <v>0.0948865</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.351019</v>
+                  <v>0.159129</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.347109</v>
+                  <v>0.155682</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.341148</v>
+                  <v>0.151681</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.334155</v>
+                  <v>0.147442</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.326696</v>
+                  <v>0.142735</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.319361</v>
+                  <v>0.138002</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.310476</v>
+                  <v>0.13371</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.301515</v>
+                  <v>0.128795</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.290456</v>
+                  <v>0.124254</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.279872</v>
+                  <v>0.119526</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.268143</v>
+                  <v>0.114363</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.255679</v>
+                  <v>0.109704</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241931</v>
+                  <v>0.104862</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.2267</v>
+                  <v>0.09999089999999999</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.209666</v>
+                  <v>0.0946162</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.349707</v>
+                  <v>0.15835</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.344393</v>
+                  <v>0.15497</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.338195</v>
+                  <v>0.150224</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.330917</v>
+                  <v>0.146313</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.3224</v>
+                  <v>0.141574</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.313751</v>
+                  <v>0.136479</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.304247</v>
+                  <v>0.131705</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.294116</v>
+                  <v>0.126692</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.283229</v>
+                  <v>0.121648</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.27188</v>
+                  <v>0.117033</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.259034</v>
+                  <v>0.11206</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.245623</v>
+                  <v>0.106931</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.230273</v>
+                  <v>0.102032</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.213342</v>
+                  <v>0.09696100000000001</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.352417</v>
+                  <v>0.160578</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.346913</v>
+                  <v>0.156625</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.34069</v>
+                  <v>0.152507</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.33338</v>
+                  <v>0.147923</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.325287</v>
+                  <v>0.143473</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.316404</v>
+                  <v>0.13856</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.30706</v>
+                  <v>0.133469</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.297067</v>
+                  <v>0.128556</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.286289</v>
+                  <v>0.12351</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.275097</v>
+                  <v>0.118643</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.262689</v>
+                  <v>0.113741</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.248989</v>
+                  <v>0.108914</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.234185</v>
+                  <v>0.10394</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.218351</v>
+                  <v>0.0991664</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.353918</v>
+                  <v>0.161075</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.348163</v>
+                  <v>0.157541</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.341876</v>
+                  <v>0.153279</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.334423</v>
+                  <v>0.148419</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.326677</v>
+                  <v>0.143563</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.318483</v>
+                  <v>0.138814</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.309192</v>
+                  <v>0.134187</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.299657</v>
+                  <v>0.129007</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.289052</v>
+                  <v>0.12419</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.277682</v>
+                  <v>0.11903</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.265329</v>
+                  <v>0.114376</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.251956</v>
+                  <v>0.109255</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.237928</v>
+                  <v>0.104203</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.221988</v>
+                  <v>0.0994004</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.355226</v>
+                  <v>0.162128</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.349632</v>
+                  <v>0.158397</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.343221</v>
+                  <v>0.154147</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.336572</v>
+                  <v>0.14983</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.32902</v>
+                  <v>0.144916</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.320108</v>
+                  <v>0.140152</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.311141</v>
+                  <v>0.134967</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.30161</v>
+                  <v>0.13013</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.29136</v>
+                  <v>0.125065</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.280099</v>
+                  <v>0.120187</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.267905</v>
+                  <v>0.11521</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.254834</v>
+                  <v>0.110418</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.241048</v>
+                  <v>0.105437</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.225455</v>
+                  <v>0.100497</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.209024</v>
+                  <v>0.0955758</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.350837</v>
+                  <v>0.159347</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.344389</v>
+                  <v>0.155292</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.33797</v>
+                  <v>0.150618</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.330553</v>
+                  <v>0.145909</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.322178</v>
+                  <v>0.140882</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.313349</v>
+                  <v>0.135883</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.303814</v>
+                  <v>0.130815</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.293692</v>
+                  <v>0.125838</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.282839</v>
+                  <v>0.121049</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.270756</v>
+                  <v>0.115996</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.258147</v>
+                  <v>0.111038</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.244214</v>
+                  <v>0.106266</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.229059</v>
+                  <v>0.101484</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.212331</v>
+                  <v>0.0965124</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.352099</v>
+                  <v>0.16875</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.346249</v>
+                  <v>0.165253</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.339646</v>
+                  <v>0.160171</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.332407</v>
+                  <v>0.155079</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.324287</v>
+                  <v>0.150172</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.315583</v>
+                  <v>0.144364</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.305883</v>
+                  <v>0.13909</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.295897</v>
+                  <v>0.133975</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.285083</v>
+                  <v>0.128653</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.273328</v>
+                  <v>0.123312</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.260703</v>
+                  <v>0.118196</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.246882</v>
+                  <v>0.113081</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.232078</v>
+                  <v>0.107936</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.215942</v>
+                  <v>0.102763</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.352911</v>
+                  <v>0.170695</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.347437</v>
+                  <v>0.16605</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.340815</v>
+                  <v>0.159252</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.333681</v>
+                  <v>0.154279</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.325639</v>
+                  <v>0.149255</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.317122</v>
+                  <v>0.143908</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.195912</v>
+                  <v>0.161517</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.19706</v>
+                  <v>0.161284</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.196006</v>
+                  <v>0.161565</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.196838</v>
+                  <v>0.161071</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.197821</v>
+                  <v>0.160359</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.198401</v>
+                  <v>0.160506</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.198864</v>
+                  <v>0.15986</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.198849</v>
+                  <v>0.159816</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.216994</v>
+                  <v>0.168688</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.216483</v>
+                  <v>0.169131</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.215332</v>
+                  <v>0.168269</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.213636</v>
+                  <v>0.167974</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.212433</v>
+                  <v>0.166866</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.212771</v>
+                  <v>0.165758</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212356</v>
+                  <v>0.165987</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.21158</v>
+                  <v>0.165494</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.211342</v>
+                  <v>0.16521</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.211014</v>
+                  <v>0.164933</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.21131</v>
+                  <v>0.165109</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.211178</v>
+                  <v>0.164374</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.210535</v>
+                  <v>0.16526</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.211058</v>
+                  <v>0.16427</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.225388</v>
+                  <v>0.178874</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.222286</v>
+                  <v>0.177374</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.221108</v>
+                  <v>0.174788</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.218269</v>
+                  <v>0.175042</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.216629</v>
+                  <v>0.173708</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.216104</v>
+                  <v>0.172923</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.215542</v>
+                  <v>0.171732</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.214565</v>
+                  <v>0.171195</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214083</v>
+                  <v>0.170385</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.213151</v>
+                  <v>0.16947</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.212756</v>
+                  <v>0.169146</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.212244</v>
+                  <v>0.167972</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.212313</v>
+                  <v>0.167047</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.212479</v>
+                  <v>0.166171</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.231716</v>
+                  <v>0.182408</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.228089</v>
+                  <v>0.180152</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.225541</v>
+                  <v>0.179135</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.221715</v>
+                  <v>0.177671</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.219716</v>
+                  <v>0.176913</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.217608</v>
+                  <v>0.175601</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.216079</v>
+                  <v>0.175113</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.215361</v>
+                  <v>0.173758</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.214512</v>
+                  <v>0.172944</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.213976</v>
+                  <v>0.172182</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.213395</v>
+                  <v>0.170881</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.213081</v>
+                  <v>0.170105</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.212729</v>
+                  <v>0.169022</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.212137</v>
+                  <v>0.167998</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.211929</v>
+                  <v>0.166696</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.226985</v>
+                  <v>0.182395</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.224765</v>
+                  <v>0.181008</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.221165</v>
+                  <v>0.179806</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.219252</v>
+                  <v>0.17875</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.217853</v>
+                  <v>0.177572</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.216655</v>
+                  <v>0.176431</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.215205</v>
+                  <v>0.175317</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.21459</v>
+                  <v>0.174244</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.213892</v>
+                  <v>0.173258</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.213172</v>
+                  <v>0.172136</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.212503</v>
+                  <v>0.171204</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.212304</v>
+                  <v>0.1701</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.211984</v>
+                  <v>0.168996</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.211979</v>
+                  <v>0.167839</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.230208</v>
+                  <v>0.183252</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.224883</v>
+                  <v>0.181965</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.221567</v>
+                  <v>0.1809</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.219015</v>
+                  <v>0.17956</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.217904</v>
+                  <v>0.178444</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.216587</v>
+                  <v>0.177204</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.215397</v>
+                  <v>0.176229</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.214854</v>
+                  <v>0.175094</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.21402</v>
+                  <v>0.173923</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.21366</v>
+                  <v>0.172914</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.212863</v>
+                  <v>0.171849</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.212404</v>
+                  <v>0.170806</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.212223</v>
+                  <v>0.169616</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.211854</v>
+                  <v>0.168566</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.229933</v>
+                  <v>0.183672</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.224301</v>
+                  <v>0.182468</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.221634</v>
+                  <v>0.181136</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.219343</v>
+                  <v>0.179973</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.218126</v>
+                  <v>0.178796</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.217137</v>
+                  <v>0.177617</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.21601</v>
+                  <v>0.176429</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.214977</v>
+                  <v>0.17535</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.214757</v>
+                  <v>0.174264</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.213529</v>
+                  <v>0.173141</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.212993</v>
+                  <v>0.172009</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.212489</v>
+                  <v>0.17091</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.212003</v>
+                  <v>0.169647</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.21166</v>
+                  <v>0.168518</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.229306</v>
+                  <v>0.184283</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.225598</v>
+                  <v>0.182809</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.222495</v>
+                  <v>0.181471</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.219992</v>
+                  <v>0.18041</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.21844</v>
+                  <v>0.179197</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.217086</v>
+                  <v>0.177969</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.21603</v>
+                  <v>0.176773</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.215118</v>
+                  <v>0.175576</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.214407</v>
+                  <v>0.174482</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.213596</v>
+                  <v>0.173485</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.213057</v>
+                  <v>0.172365</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.212665</v>
+                  <v>0.171213</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.212</v>
+                  <v>0.170121</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.211712</v>
+                  <v>0.168956</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.211438</v>
+                  <v>0.167807</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.225697</v>
+                  <v>0.183413</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.222578</v>
+                  <v>0.181973</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.220709</v>
+                  <v>0.180669</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.21886</v>
+                  <v>0.17938</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.217834</v>
+                  <v>0.178213</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.21669</v>
+                  <v>0.177024</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.215701</v>
+                  <v>0.1759</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.214744</v>
+                  <v>0.174756</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.214672</v>
+                  <v>0.173618</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.213705</v>
+                  <v>0.172618</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.213054</v>
+                  <v>0.171472</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.212576</v>
+                  <v>0.170374</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.211978</v>
+                  <v>0.169252</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.211931</v>
+                  <v>0.167996</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.226236</v>
+                  <v>0.183665</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.222892</v>
+                  <v>0.182248</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.220768</v>
+                  <v>0.180916</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.219005</v>
+                  <v>0.179671</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.21759</v>
+                  <v>0.178468</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.216422</v>
+                  <v>0.177247</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.215617</v>
+                  <v>0.176109</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.214832</v>
+                  <v>0.174977</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.214082</v>
+                  <v>0.173851</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.213471</v>
+                  <v>0.172825</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.212914</v>
+                  <v>0.171717</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.212385</v>
+                  <v>0.170493</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.212004</v>
+                  <v>0.16948</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.212133</v>
+                  <v>0.168276</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.227952</v>
+                  <v>0.194016</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.224209</v>
+                  <v>0.191328</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.221617</v>
+                  <v>0.189598</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.21951</v>
+                  <v>0.188097</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.21815</v>
+                  <v>0.186404</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.217027</v>
+                  <v>0.18492</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.231268</v>
+                  <v>0.160011</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.232151</v>
+                  <v>0.159645</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.233511</v>
+                  <v>0.160429</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.233102</v>
+                  <v>0.16075</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.233692</v>
+                  <v>0.160315</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.234047</v>
+                  <v>0.159973</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.236592</v>
+                  <v>0.160079</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.265773</v>
+                  <v>0.168025</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.256745</v>
+                  <v>0.168796</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.256613</v>
+                  <v>0.167658</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.277037</v>
+                  <v>0.168587</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.253983</v>
+                  <v>0.167476</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.253043</v>
+                  <v>0.167025</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.252393</v>
+                  <v>0.166834</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.274053</v>
+                  <v>0.166437</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.276569</v>
+                  <v>0.165414</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.249118</v>
+                  <v>0.165111</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.246154</v>
+                  <v>0.165088</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.247092</v>
+                  <v>0.165158</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.248933</v>
+                  <v>0.165465</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.247076</v>
+                  <v>0.163999</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.264081</v>
+                  <v>0.183329</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.263005</v>
+                  <v>0.179675</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.262406</v>
+                  <v>0.178149</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.261724</v>
+                  <v>0.177462</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.258214</v>
+                  <v>0.17597</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.256235</v>
+                  <v>0.175113</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.25501</v>
+                  <v>0.174344</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.253997</v>
+                  <v>0.173993</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.253212</v>
+                  <v>0.171814</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.252973</v>
+                  <v>0.170931</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.251955</v>
+                  <v>0.170148</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.250418</v>
+                  <v>0.169615</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.249931</v>
+                  <v>0.168269</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.25125</v>
+                  <v>0.16735</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.267948</v>
+                  <v>0.184032</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.265477</v>
+                  <v>0.182749</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.263563</v>
+                  <v>0.181447</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.261508</v>
+                  <v>0.179598</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.259424</v>
+                  <v>0.178697</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.258308</v>
+                  <v>0.177654</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.257397</v>
+                  <v>0.176255</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.255033</v>
+                  <v>0.175428</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.254953</v>
+                  <v>0.17424</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.252743</v>
+                  <v>0.172949</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.252257</v>
+                  <v>0.171806</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.251358</v>
+                  <v>0.170594</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.250701</v>
+                  <v>0.170093</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.252639</v>
+                  <v>0.168872</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.267618</v>
+                  <v>0.185726</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.26451</v>
+                  <v>0.183999</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.262485</v>
+                  <v>0.182938</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.261372</v>
+                  <v>0.181135</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.259083</v>
+                  <v>0.179973</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.258255</v>
+                  <v>0.178698</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.256473</v>
+                  <v>0.177695</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254751</v>
+                  <v>0.176204</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.253478</v>
+                  <v>0.175252</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.252454</v>
+                  <v>0.174049</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.251959</v>
+                  <v>0.172976</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.251108</v>
+                  <v>0.171947</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.250374</v>
+                  <v>0.170843</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.249696</v>
+                  <v>0.169567</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249233</v>
+                  <v>0.168423</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.267199</v>
+                  <v>0.18501</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.264368</v>
+                  <v>0.183444</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.261476</v>
+                  <v>0.182209</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.259992</v>
+                  <v>0.180939</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.258824</v>
+                  <v>0.179538</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257234</v>
+                  <v>0.178374</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.255778</v>
+                  <v>0.177105</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.254864</v>
+                  <v>0.176068</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.25281</v>
+                  <v>0.17492</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.252056</v>
+                  <v>0.173763</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.251157</v>
+                  <v>0.172585</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.25035</v>
+                  <v>0.171417</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.249625</v>
+                  <v>0.170196</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.249799</v>
+                  <v>0.168965</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.267725</v>
+                  <v>0.185483</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.264639</v>
+                  <v>0.184099</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.26212</v>
+                  <v>0.182697</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.260398</v>
+                  <v>0.181365</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.258807</v>
+                  <v>0.180176</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.257237</v>
+                  <v>0.178976</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.256192</v>
+                  <v>0.177749</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.254682</v>
+                  <v>0.176552</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.253834</v>
+                  <v>0.175408</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.252277</v>
+                  <v>0.174248</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.251467</v>
+                  <v>0.172985</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.25073</v>
+                  <v>0.171824</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.250208</v>
+                  <v>0.170566</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.249795</v>
+                  <v>0.169184</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.268728</v>
+                  <v>0.185985</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.265368</v>
+                  <v>0.184496</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.263136</v>
+                  <v>0.183031</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.261588</v>
+                  <v>0.181718</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.259708</v>
+                  <v>0.180566</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.258439</v>
+                  <v>0.179185</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.257048</v>
+                  <v>0.177916</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.255861</v>
+                  <v>0.176813</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.25506</v>
+                  <v>0.175551</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.253643</v>
+                  <v>0.174353</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.252447</v>
+                  <v>0.173202</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.251631</v>
+                  <v>0.171937</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.25027</v>
+                  <v>0.17075</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.249676</v>
+                  <v>0.169515</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.267902</v>
+                  <v>0.186463</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.265381</v>
+                  <v>0.184955</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.263476</v>
+                  <v>0.18356</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.261695</v>
+                  <v>0.182079</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.259699</v>
+                  <v>0.180726</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.258738</v>
+                  <v>0.17949</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.257442</v>
+                  <v>0.178267</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.255897</v>
+                  <v>0.177074</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.254296</v>
+                  <v>0.175816</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.253976</v>
+                  <v>0.174614</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.253858</v>
+                  <v>0.173493</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.252652</v>
+                  <v>0.172224</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.251436</v>
+                  <v>0.171118</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.251373</v>
+                  <v>0.169817</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.249863</v>
+                  <v>0.168563</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.266506</v>
+                  <v>0.18529</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.26438</v>
+                  <v>0.183782</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.261884</v>
+                  <v>0.182436</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.260327</v>
+                  <v>0.181045</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.25828</v>
+                  <v>0.17969</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.257292</v>
+                  <v>0.178501</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.256414</v>
+                  <v>0.177279</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.255015</v>
+                  <v>0.176081</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.253526</v>
+                  <v>0.174818</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.252946</v>
+                  <v>0.173736</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.252272</v>
+                  <v>0.1725</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.251202</v>
+                  <v>0.17131</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.251597</v>
+                  <v>0.170121</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.251317</v>
+                  <v>0.168793</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.267088</v>
+                  <v>0.194838</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.264928</v>
+                  <v>0.192446</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.263676</v>
+                  <v>0.189943</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.26094</v>
+                  <v>0.188461</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.259854</v>
+                  <v>0.187379</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.258275</v>
+                  <v>0.18564</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.256589</v>
+                  <v>0.184108</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2825,7 +2824,7 @@
         <axId val="163989376"/>
         <scaling>
           <orientation val="minMax"/>
-          <max val="0.5"/>
+          <max val="0.3"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -3223,8 +3222,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="7" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="8" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3249,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.296054</v>
+        <v>0.30265</v>
       </c>
       <c r="C2" t="n">
-        <v>0.232962</v>
+        <v>0.204118</v>
       </c>
       <c r="D2" t="n">
-        <v>0.197097</v>
+        <v>0.203071</v>
       </c>
     </row>
     <row r="3">
@@ -3263,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.288283</v>
+        <v>0.295828</v>
       </c>
       <c r="C3" t="n">
-        <v>0.230008</v>
+        <v>0.203174</v>
       </c>
       <c r="D3" t="n">
-        <v>0.195876</v>
+        <v>0.206605</v>
       </c>
     </row>
     <row r="4">
@@ -3277,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279625</v>
+        <v>0.286726</v>
       </c>
       <c r="C4" t="n">
-        <v>0.230638</v>
+        <v>0.204323</v>
       </c>
       <c r="D4" t="n">
-        <v>0.196223</v>
+        <v>0.206399</v>
       </c>
     </row>
     <row r="5">
@@ -3291,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.269402</v>
+        <v>0.276492</v>
       </c>
       <c r="C5" t="n">
-        <v>0.233361</v>
+        <v>0.206117</v>
       </c>
       <c r="D5" t="n">
-        <v>0.196912</v>
+        <v>0.207023</v>
       </c>
     </row>
     <row r="6">
@@ -3305,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.256975</v>
+        <v>0.264875</v>
       </c>
       <c r="C6" t="n">
-        <v>0.232429</v>
+        <v>0.206215</v>
       </c>
       <c r="D6" t="n">
-        <v>0.197871</v>
+        <v>0.20723</v>
       </c>
     </row>
     <row r="7">
@@ -3319,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.244499</v>
+        <v>0.251376</v>
       </c>
       <c r="C7" t="n">
-        <v>0.233598</v>
+        <v>0.206272</v>
       </c>
       <c r="D7" t="n">
-        <v>0.197936</v>
+        <v>0.208449</v>
       </c>
     </row>
     <row r="8">
@@ -3333,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.231097</v>
+        <v>0.239947</v>
       </c>
       <c r="C8" t="n">
-        <v>0.23525</v>
+        <v>0.207898</v>
       </c>
       <c r="D8" t="n">
-        <v>0.198445</v>
+        <v>0.208226</v>
       </c>
     </row>
     <row r="9">
@@ -3347,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.217765</v>
+        <v>0.226245</v>
       </c>
       <c r="C9" t="n">
-        <v>0.234847</v>
+        <v>0.221505</v>
       </c>
       <c r="D9" t="n">
-        <v>0.218044</v>
+        <v>0.224935</v>
       </c>
     </row>
     <row r="10">
@@ -3361,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.342872</v>
+        <v>0.351551</v>
       </c>
       <c r="C10" t="n">
-        <v>0.254042</v>
+        <v>0.22082</v>
       </c>
       <c r="D10" t="n">
-        <v>0.215486</v>
+        <v>0.224694</v>
       </c>
     </row>
     <row r="11">
@@ -3375,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.33703</v>
+        <v>0.345088</v>
       </c>
       <c r="C11" t="n">
-        <v>0.269934</v>
+        <v>0.219591</v>
       </c>
       <c r="D11" t="n">
-        <v>0.214674</v>
+        <v>0.223451</v>
       </c>
     </row>
     <row r="12">
@@ -3389,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.331896</v>
+        <v>0.339724</v>
       </c>
       <c r="C12" t="n">
-        <v>0.255367</v>
+        <v>0.218336</v>
       </c>
       <c r="D12" t="n">
-        <v>0.213588</v>
+        <v>0.222919</v>
       </c>
     </row>
     <row r="13">
@@ -3403,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.324362</v>
+        <v>0.332533</v>
       </c>
       <c r="C13" t="n">
-        <v>0.253214</v>
+        <v>0.217617</v>
       </c>
       <c r="D13" t="n">
-        <v>0.212181</v>
+        <v>0.221269</v>
       </c>
     </row>
     <row r="14">
@@ -3417,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.321346</v>
+        <v>0.327559</v>
       </c>
       <c r="C14" t="n">
-        <v>0.246864</v>
+        <v>0.215951</v>
       </c>
       <c r="D14" t="n">
-        <v>0.211308</v>
+        <v>0.221173</v>
       </c>
     </row>
     <row r="15">
@@ -3431,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.312429</v>
+        <v>0.318961</v>
       </c>
       <c r="C15" t="n">
-        <v>0.250954</v>
+        <v>0.215671</v>
       </c>
       <c r="D15" t="n">
-        <v>0.210573</v>
+        <v>0.220722</v>
       </c>
     </row>
     <row r="16">
@@ -3445,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.304419</v>
+        <v>0.311553</v>
       </c>
       <c r="C16" t="n">
-        <v>0.25172</v>
+        <v>0.215721</v>
       </c>
       <c r="D16" t="n">
-        <v>0.20965</v>
+        <v>0.220717</v>
       </c>
     </row>
     <row r="17">
@@ -3459,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.300015</v>
+        <v>0.30361</v>
       </c>
       <c r="C17" t="n">
-        <v>0.260186</v>
+        <v>0.214468</v>
       </c>
       <c r="D17" t="n">
-        <v>0.209243</v>
+        <v>0.220803</v>
       </c>
     </row>
     <row r="18">
@@ -3473,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.291071</v>
+        <v>0.294346</v>
       </c>
       <c r="C18" t="n">
-        <v>0.244808</v>
+        <v>0.214351</v>
       </c>
       <c r="D18" t="n">
-        <v>0.208157</v>
+        <v>0.220371</v>
       </c>
     </row>
     <row r="19">
@@ -3487,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.277782</v>
+        <v>0.284958</v>
       </c>
       <c r="C19" t="n">
-        <v>0.244684</v>
+        <v>0.21352</v>
       </c>
       <c r="D19" t="n">
-        <v>0.207838</v>
+        <v>0.220337</v>
       </c>
     </row>
     <row r="20">
@@ -3501,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.27073</v>
+        <v>0.276672</v>
       </c>
       <c r="C20" t="n">
-        <v>0.244838</v>
+        <v>0.22315</v>
       </c>
       <c r="D20" t="n">
-        <v>0.207101</v>
+        <v>0.219553</v>
       </c>
     </row>
     <row r="21">
@@ -3515,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.255163</v>
+        <v>0.263794</v>
       </c>
       <c r="C21" t="n">
-        <v>0.256271</v>
+        <v>0.21314</v>
       </c>
       <c r="D21" t="n">
-        <v>0.207171</v>
+        <v>0.219352</v>
       </c>
     </row>
     <row r="22">
@@ -3529,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.241027</v>
+        <v>0.252708</v>
       </c>
       <c r="C22" t="n">
-        <v>0.249727</v>
+        <v>0.21291</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206565</v>
+        <v>0.218511</v>
       </c>
     </row>
     <row r="23">
@@ -3543,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.226939</v>
+        <v>0.241804</v>
       </c>
       <c r="C23" t="n">
-        <v>0.246205</v>
+        <v>0.225721</v>
       </c>
       <c r="D23" t="n">
-        <v>0.223848</v>
+        <v>0.231012</v>
       </c>
     </row>
     <row r="24">
@@ -3557,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.347623</v>
+        <v>0.357073</v>
       </c>
       <c r="C24" t="n">
-        <v>0.261481</v>
+        <v>0.224136</v>
       </c>
       <c r="D24" t="n">
-        <v>0.221581</v>
+        <v>0.229499</v>
       </c>
     </row>
     <row r="25">
@@ -3571,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.341486</v>
+        <v>0.350838</v>
       </c>
       <c r="C25" t="n">
-        <v>0.258124</v>
+        <v>0.222255</v>
       </c>
       <c r="D25" t="n">
-        <v>0.220685</v>
+        <v>0.228536</v>
       </c>
     </row>
     <row r="26">
@@ -3585,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.33648</v>
+        <v>0.343969</v>
       </c>
       <c r="C26" t="n">
-        <v>0.25643</v>
+        <v>0.221968</v>
       </c>
       <c r="D26" t="n">
-        <v>0.219039</v>
+        <v>0.227857</v>
       </c>
     </row>
     <row r="27">
@@ -3599,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328406</v>
+        <v>0.337711</v>
       </c>
       <c r="C27" t="n">
-        <v>0.253421</v>
+        <v>0.220539</v>
       </c>
       <c r="D27" t="n">
-        <v>0.215716</v>
+        <v>0.227749</v>
       </c>
     </row>
     <row r="28">
@@ -3613,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.321686</v>
+        <v>0.329916</v>
       </c>
       <c r="C28" t="n">
-        <v>0.251856</v>
+        <v>0.219364</v>
       </c>
       <c r="D28" t="n">
-        <v>0.214283</v>
+        <v>0.226717</v>
       </c>
     </row>
     <row r="29">
@@ -3627,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.315082</v>
+        <v>0.323632</v>
       </c>
       <c r="C29" t="n">
-        <v>0.250844</v>
+        <v>0.218911</v>
       </c>
       <c r="D29" t="n">
-        <v>0.213504</v>
+        <v>0.225812</v>
       </c>
     </row>
     <row r="30">
@@ -3641,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.30743</v>
+        <v>0.31467</v>
       </c>
       <c r="C30" t="n">
-        <v>0.249937</v>
+        <v>0.218228</v>
       </c>
       <c r="D30" t="n">
-        <v>0.213113</v>
+        <v>0.224843</v>
       </c>
     </row>
     <row r="31">
@@ -3655,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.298756</v>
+        <v>0.306618</v>
       </c>
       <c r="C31" t="n">
-        <v>0.248227</v>
+        <v>0.217675</v>
       </c>
       <c r="D31" t="n">
-        <v>0.212473</v>
+        <v>0.22369</v>
       </c>
     </row>
     <row r="32">
@@ -3669,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.289948</v>
+        <v>0.297528</v>
       </c>
       <c r="C32" t="n">
-        <v>0.247535</v>
+        <v>0.216839</v>
       </c>
       <c r="D32" t="n">
-        <v>0.211559</v>
+        <v>0.223195</v>
       </c>
     </row>
     <row r="33">
@@ -3683,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.280433</v>
+        <v>0.288046</v>
       </c>
       <c r="C33" t="n">
-        <v>0.247382</v>
+        <v>0.215949</v>
       </c>
       <c r="D33" t="n">
-        <v>0.210895</v>
+        <v>0.222207</v>
       </c>
     </row>
     <row r="34">
@@ -3697,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.270096</v>
+        <v>0.277607</v>
       </c>
       <c r="C34" t="n">
-        <v>0.247353</v>
+        <v>0.215364</v>
       </c>
       <c r="D34" t="n">
-        <v>0.209428</v>
+        <v>0.2218</v>
       </c>
     </row>
     <row r="35">
@@ -3711,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.258836</v>
+        <v>0.266779</v>
       </c>
       <c r="C35" t="n">
-        <v>0.246468</v>
+        <v>0.215307</v>
       </c>
       <c r="D35" t="n">
-        <v>0.209609</v>
+        <v>0.221197</v>
       </c>
     </row>
     <row r="36">
@@ -3725,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.245986</v>
+        <v>0.253205</v>
       </c>
       <c r="C36" t="n">
-        <v>0.246076</v>
+        <v>0.214595</v>
       </c>
       <c r="D36" t="n">
-        <v>0.209113</v>
+        <v>0.220236</v>
       </c>
     </row>
     <row r="37">
@@ -3739,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.231784</v>
+        <v>0.23975</v>
       </c>
       <c r="C37" t="n">
-        <v>0.246337</v>
+        <v>0.226389</v>
       </c>
       <c r="D37" t="n">
-        <v>0.224773</v>
+        <v>0.232632</v>
       </c>
     </row>
     <row r="38">
@@ -3753,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.348395</v>
+        <v>0.357926</v>
       </c>
       <c r="C38" t="n">
-        <v>0.267282</v>
+        <v>0.22477</v>
       </c>
       <c r="D38" t="n">
-        <v>0.222002</v>
+        <v>0.230916</v>
       </c>
     </row>
     <row r="39">
@@ -3767,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.343415</v>
+        <v>0.352606</v>
       </c>
       <c r="C39" t="n">
-        <v>0.263218</v>
+        <v>0.223005</v>
       </c>
       <c r="D39" t="n">
-        <v>0.220226</v>
+        <v>0.229227</v>
       </c>
     </row>
     <row r="40">
@@ -3781,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.33749</v>
+        <v>0.346591</v>
       </c>
       <c r="C40" t="n">
-        <v>0.25933</v>
+        <v>0.222023</v>
       </c>
       <c r="D40" t="n">
-        <v>0.218499</v>
+        <v>0.22817</v>
       </c>
     </row>
     <row r="41">
@@ -3795,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.331005</v>
+        <v>0.339609</v>
       </c>
       <c r="C41" t="n">
-        <v>0.256089</v>
+        <v>0.220769</v>
       </c>
       <c r="D41" t="n">
-        <v>0.216383</v>
+        <v>0.22751</v>
       </c>
     </row>
     <row r="42">
@@ -3809,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.324463</v>
+        <v>0.333123</v>
       </c>
       <c r="C42" t="n">
-        <v>0.254014</v>
+        <v>0.220093</v>
       </c>
       <c r="D42" t="n">
-        <v>0.21528</v>
+        <v>0.22638</v>
       </c>
     </row>
     <row r="43">
@@ -3823,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.317041</v>
+        <v>0.325101</v>
       </c>
       <c r="C43" t="n">
-        <v>0.252611</v>
+        <v>0.219144</v>
       </c>
       <c r="D43" t="n">
-        <v>0.213949</v>
+        <v>0.225172</v>
       </c>
     </row>
     <row r="44">
@@ -3837,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.309891</v>
+        <v>0.317754</v>
       </c>
       <c r="C44" t="n">
-        <v>0.250837</v>
+        <v>0.218316</v>
       </c>
       <c r="D44" t="n">
-        <v>0.212506</v>
+        <v>0.224276</v>
       </c>
     </row>
     <row r="45">
@@ -3851,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301422</v>
+        <v>0.308908</v>
       </c>
       <c r="C45" t="n">
-        <v>0.249912</v>
+        <v>0.217615</v>
       </c>
       <c r="D45" t="n">
-        <v>0.21128</v>
+        <v>0.223471</v>
       </c>
     </row>
     <row r="46">
@@ -3865,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.293029</v>
+        <v>0.299979</v>
       </c>
       <c r="C46" t="n">
-        <v>0.248735</v>
+        <v>0.216438</v>
       </c>
       <c r="D46" t="n">
-        <v>0.211245</v>
+        <v>0.222883</v>
       </c>
     </row>
     <row r="47">
@@ -3879,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.283641</v>
+        <v>0.290513</v>
       </c>
       <c r="C47" t="n">
-        <v>0.24841</v>
+        <v>0.216308</v>
       </c>
       <c r="D47" t="n">
-        <v>0.210612</v>
+        <v>0.222545</v>
       </c>
     </row>
     <row r="48">
@@ -3893,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.273129</v>
+        <v>0.280349</v>
       </c>
       <c r="C48" t="n">
-        <v>0.247941</v>
+        <v>0.215627</v>
       </c>
       <c r="D48" t="n">
-        <v>0.209998</v>
+        <v>0.221749</v>
       </c>
     </row>
     <row r="49">
@@ -3907,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.262175</v>
+        <v>0.269645</v>
       </c>
       <c r="C49" t="n">
-        <v>0.247062</v>
+        <v>0.215228</v>
       </c>
       <c r="D49" t="n">
-        <v>0.209216</v>
+        <v>0.221325</v>
       </c>
     </row>
     <row r="50">
@@ -3921,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.24985</v>
+        <v>0.257994</v>
       </c>
       <c r="C50" t="n">
-        <v>0.246869</v>
+        <v>0.214787</v>
       </c>
       <c r="D50" t="n">
-        <v>0.209076</v>
+        <v>0.220637</v>
       </c>
     </row>
     <row r="51">
@@ -3935,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.23633</v>
+        <v>0.244248</v>
       </c>
       <c r="C51" t="n">
-        <v>0.245885</v>
+        <v>0.228832</v>
       </c>
       <c r="D51" t="n">
-        <v>0.223929</v>
+        <v>0.232887</v>
       </c>
     </row>
     <row r="52">
@@ -3949,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.221467</v>
+        <v>0.229614</v>
       </c>
       <c r="C52" t="n">
-        <v>0.245922</v>
+        <v>0.226209</v>
       </c>
       <c r="D52" t="n">
-        <v>0.221094</v>
+        <v>0.230968</v>
       </c>
     </row>
     <row r="53">
@@ -3963,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.346324</v>
+        <v>0.35537</v>
       </c>
       <c r="C53" t="n">
-        <v>0.26317</v>
+        <v>0.224539</v>
       </c>
       <c r="D53" t="n">
-        <v>0.218735</v>
+        <v>0.229066</v>
       </c>
     </row>
     <row r="54">
@@ -3977,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.340514</v>
+        <v>0.348994</v>
       </c>
       <c r="C54" t="n">
-        <v>0.259761</v>
+        <v>0.222949</v>
       </c>
       <c r="D54" t="n">
-        <v>0.217273</v>
+        <v>0.227887</v>
       </c>
     </row>
     <row r="55">
@@ -3991,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.334965</v>
+        <v>0.343093</v>
       </c>
       <c r="C55" t="n">
-        <v>0.256263</v>
+        <v>0.221304</v>
       </c>
       <c r="D55" t="n">
-        <v>0.216213</v>
+        <v>0.226999</v>
       </c>
     </row>
     <row r="56">
@@ -4005,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.327921</v>
+        <v>0.335836</v>
       </c>
       <c r="C56" t="n">
-        <v>0.254837</v>
+        <v>0.220719</v>
       </c>
       <c r="D56" t="n">
-        <v>0.214588</v>
+        <v>0.226329</v>
       </c>
     </row>
     <row r="57">
@@ -4019,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.321008</v>
+        <v>0.328699</v>
       </c>
       <c r="C57" t="n">
-        <v>0.253086</v>
+        <v>0.219724</v>
       </c>
       <c r="D57" t="n">
-        <v>0.213676</v>
+        <v>0.225285</v>
       </c>
     </row>
     <row r="58">
@@ -4033,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.313587</v>
+        <v>0.321356</v>
       </c>
       <c r="C58" t="n">
-        <v>0.251777</v>
+        <v>0.21857</v>
       </c>
       <c r="D58" t="n">
-        <v>0.21283</v>
+        <v>0.224599</v>
       </c>
     </row>
     <row r="59">
@@ -4047,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305348</v>
+        <v>0.312554</v>
       </c>
       <c r="C59" t="n">
-        <v>0.250624</v>
+        <v>0.21788</v>
       </c>
       <c r="D59" t="n">
-        <v>0.211779</v>
+        <v>0.223805</v>
       </c>
     </row>
     <row r="60">
@@ -4061,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.296085</v>
+        <v>0.303334</v>
       </c>
       <c r="C60" t="n">
-        <v>0.249708</v>
+        <v>0.217088</v>
       </c>
       <c r="D60" t="n">
-        <v>0.210814</v>
+        <v>0.223361</v>
       </c>
     </row>
     <row r="61">
@@ -4075,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.285997</v>
+        <v>0.293087</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2488</v>
+        <v>0.216521</v>
       </c>
       <c r="D61" t="n">
-        <v>0.210684</v>
+        <v>0.222048</v>
       </c>
     </row>
     <row r="62">
@@ -4089,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.275713</v>
+        <v>0.283306</v>
       </c>
       <c r="C62" t="n">
-        <v>0.247966</v>
+        <v>0.216125</v>
       </c>
       <c r="D62" t="n">
-        <v>0.209978</v>
+        <v>0.221758</v>
       </c>
     </row>
     <row r="63">
@@ -4103,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.26429</v>
+        <v>0.272097</v>
       </c>
       <c r="C63" t="n">
-        <v>0.247535</v>
+        <v>0.215231</v>
       </c>
       <c r="D63" t="n">
-        <v>0.209057</v>
+        <v>0.221097</v>
       </c>
     </row>
     <row r="64">
@@ -4117,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.252459</v>
+        <v>0.260656</v>
       </c>
       <c r="C64" t="n">
-        <v>0.246876</v>
+        <v>0.215061</v>
       </c>
       <c r="D64" t="n">
-        <v>0.208348</v>
+        <v>0.22058</v>
       </c>
     </row>
     <row r="65">
@@ -4131,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.239037</v>
+        <v>0.24705</v>
       </c>
       <c r="C65" t="n">
-        <v>0.246314</v>
+        <v>0.214645</v>
       </c>
       <c r="D65" t="n">
-        <v>0.208347</v>
+        <v>0.219878</v>
       </c>
     </row>
     <row r="66">
@@ -4145,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.224543</v>
+        <v>0.232612</v>
       </c>
       <c r="C66" t="n">
-        <v>0.246323</v>
+        <v>0.226012</v>
       </c>
       <c r="D66" t="n">
-        <v>0.22316</v>
+        <v>0.231308</v>
       </c>
     </row>
     <row r="67">
@@ -4159,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.348104</v>
+        <v>0.356958</v>
       </c>
       <c r="C67" t="n">
-        <v>0.266703</v>
+        <v>0.224795</v>
       </c>
       <c r="D67" t="n">
-        <v>0.221023</v>
+        <v>0.230071</v>
       </c>
     </row>
     <row r="68">
@@ -4173,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.342155</v>
+        <v>0.350918</v>
       </c>
       <c r="C68" t="n">
-        <v>0.261297</v>
+        <v>0.223278</v>
       </c>
       <c r="D68" t="n">
-        <v>0.218688</v>
+        <v>0.228901</v>
       </c>
     </row>
     <row r="69">
@@ -4187,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.336954</v>
+        <v>0.344559</v>
       </c>
       <c r="C69" t="n">
-        <v>0.257958</v>
+        <v>0.222222</v>
       </c>
       <c r="D69" t="n">
-        <v>0.217179</v>
+        <v>0.227808</v>
       </c>
     </row>
     <row r="70">
@@ -4201,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.329914</v>
+        <v>0.337874</v>
       </c>
       <c r="C70" t="n">
-        <v>0.255246</v>
+        <v>0.220957</v>
       </c>
       <c r="D70" t="n">
-        <v>0.215877</v>
+        <v>0.226685</v>
       </c>
     </row>
     <row r="71">
@@ -4215,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.323474</v>
+        <v>0.330797</v>
       </c>
       <c r="C71" t="n">
-        <v>0.253678</v>
+        <v>0.219916</v>
       </c>
       <c r="D71" t="n">
-        <v>0.214786</v>
+        <v>0.22572</v>
       </c>
     </row>
     <row r="72">
@@ -4229,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316422</v>
+        <v>0.323345</v>
       </c>
       <c r="C72" t="n">
-        <v>0.252186</v>
+        <v>0.219148</v>
       </c>
       <c r="D72" t="n">
-        <v>0.213663</v>
+        <v>0.224811</v>
       </c>
     </row>
     <row r="73">
@@ -4243,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.308081</v>
+        <v>0.315111</v>
       </c>
       <c r="C73" t="n">
-        <v>0.250912</v>
+        <v>0.218224</v>
       </c>
       <c r="D73" t="n">
-        <v>0.212309</v>
+        <v>0.224125</v>
       </c>
     </row>
     <row r="74">
@@ -4257,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.299521</v>
+        <v>0.307009</v>
       </c>
       <c r="C74" t="n">
-        <v>0.250059</v>
+        <v>0.217617</v>
       </c>
       <c r="D74" t="n">
-        <v>0.211741</v>
+        <v>0.223414</v>
       </c>
     </row>
     <row r="75">
@@ -4271,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.290095</v>
+        <v>0.297314</v>
       </c>
       <c r="C75" t="n">
-        <v>0.249033</v>
+        <v>0.216765</v>
       </c>
       <c r="D75" t="n">
-        <v>0.210624</v>
+        <v>0.222742</v>
       </c>
     </row>
     <row r="76">
@@ -4285,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.279726</v>
+        <v>0.287083</v>
       </c>
       <c r="C76" t="n">
-        <v>0.248418</v>
+        <v>0.216456</v>
       </c>
       <c r="D76" t="n">
-        <v>0.2099</v>
+        <v>0.222117</v>
       </c>
     </row>
     <row r="77">
@@ -4299,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.268611</v>
+        <v>0.276405</v>
       </c>
       <c r="C77" t="n">
-        <v>0.247607</v>
+        <v>0.215764</v>
       </c>
       <c r="D77" t="n">
-        <v>0.209179</v>
+        <v>0.22155</v>
       </c>
     </row>
     <row r="78">
@@ -4313,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.255904</v>
+        <v>0.263997</v>
       </c>
       <c r="C78" t="n">
-        <v>0.24697</v>
+        <v>0.215463</v>
       </c>
       <c r="D78" t="n">
-        <v>0.208952</v>
+        <v>0.221108</v>
       </c>
     </row>
     <row r="79">
@@ -4327,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.243072</v>
+        <v>0.250797</v>
       </c>
       <c r="C79" t="n">
-        <v>0.24674</v>
+        <v>0.215057</v>
       </c>
       <c r="D79" t="n">
-        <v>0.208452</v>
+        <v>0.220788</v>
       </c>
     </row>
     <row r="80">
@@ -4341,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.228327</v>
+        <v>0.236492</v>
       </c>
       <c r="C80" t="n">
-        <v>0.246626</v>
+        <v>0.22804</v>
       </c>
       <c r="D80" t="n">
-        <v>0.22395</v>
+        <v>0.233371</v>
       </c>
     </row>
     <row r="81">
@@ -4355,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.349871</v>
+        <v>0.358633</v>
       </c>
       <c r="C81" t="n">
-        <v>0.266743</v>
+        <v>0.225813</v>
       </c>
       <c r="D81" t="n">
-        <v>0.221649</v>
+        <v>0.231838</v>
       </c>
     </row>
     <row r="82">
@@ -4369,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344573</v>
+        <v>0.353054</v>
       </c>
       <c r="C82" t="n">
-        <v>0.261489</v>
+        <v>0.224272</v>
       </c>
       <c r="D82" t="n">
-        <v>0.219606</v>
+        <v>0.230104</v>
       </c>
     </row>
     <row r="83">
@@ -4383,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.33823</v>
+        <v>0.346074</v>
       </c>
       <c r="C83" t="n">
-        <v>0.258294</v>
+        <v>0.222765</v>
       </c>
       <c r="D83" t="n">
-        <v>0.217779</v>
+        <v>0.228877</v>
       </c>
     </row>
     <row r="84">
@@ -4397,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.332027</v>
+        <v>0.340078</v>
       </c>
       <c r="C84" t="n">
-        <v>0.255815</v>
+        <v>0.221557</v>
       </c>
       <c r="D84" t="n">
-        <v>0.216117</v>
+        <v>0.227592</v>
       </c>
     </row>
     <row r="85">
@@ -4411,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.32537</v>
+        <v>0.332873</v>
       </c>
       <c r="C85" t="n">
-        <v>0.254325</v>
+        <v>0.220516</v>
       </c>
       <c r="D85" t="n">
-        <v>0.21484</v>
+        <v>0.226349</v>
       </c>
     </row>
     <row r="86">
@@ -4425,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.317538</v>
+        <v>0.325026</v>
       </c>
       <c r="C86" t="n">
-        <v>0.252643</v>
+        <v>0.219552</v>
       </c>
       <c r="D86" t="n">
-        <v>0.213726</v>
+        <v>0.225295</v>
       </c>
     </row>
     <row r="87">
@@ -4439,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.310174</v>
+        <v>0.316764</v>
       </c>
       <c r="C87" t="n">
-        <v>0.251614</v>
+        <v>0.21857</v>
       </c>
       <c r="D87" t="n">
-        <v>0.212718</v>
+        <v>0.22441</v>
       </c>
     </row>
     <row r="88">
@@ -4453,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.301112</v>
+        <v>0.308003</v>
       </c>
       <c r="C88" t="n">
-        <v>0.250343</v>
+        <v>0.217772</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211563</v>
+        <v>0.223676</v>
       </c>
     </row>
     <row r="89">
@@ -4467,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.292018</v>
+        <v>0.299172</v>
       </c>
       <c r="C89" t="n">
-        <v>0.249604</v>
+        <v>0.217011</v>
       </c>
       <c r="D89" t="n">
-        <v>0.210708</v>
+        <v>0.222885</v>
       </c>
     </row>
     <row r="90">
@@ -4481,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.282493</v>
+        <v>0.289406</v>
       </c>
       <c r="C90" t="n">
-        <v>0.248509</v>
+        <v>0.216332</v>
       </c>
       <c r="D90" t="n">
-        <v>0.210194</v>
+        <v>0.222258</v>
       </c>
     </row>
     <row r="91">
@@ -4495,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.271039</v>
+        <v>0.278678</v>
       </c>
       <c r="C91" t="n">
-        <v>0.247864</v>
+        <v>0.216004</v>
       </c>
       <c r="D91" t="n">
-        <v>0.209639</v>
+        <v>0.22175</v>
       </c>
     </row>
     <row r="92">
@@ -4509,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.259419</v>
+        <v>0.266894</v>
       </c>
       <c r="C92" t="n">
-        <v>0.247169</v>
+        <v>0.215503</v>
       </c>
       <c r="D92" t="n">
-        <v>0.209168</v>
+        <v>0.220995</v>
       </c>
     </row>
     <row r="93">
@@ -4523,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.246239</v>
+        <v>0.254028</v>
       </c>
       <c r="C93" t="n">
-        <v>0.246829</v>
+        <v>0.215121</v>
       </c>
       <c r="D93" t="n">
-        <v>0.209009</v>
+        <v>0.22068</v>
       </c>
     </row>
     <row r="94">
@@ -4537,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.232258</v>
+        <v>0.240201</v>
       </c>
       <c r="C94" t="n">
-        <v>0.246396</v>
+        <v>0.228873</v>
       </c>
       <c r="D94" t="n">
-        <v>0.224645</v>
+        <v>0.233745</v>
       </c>
     </row>
     <row r="95">
@@ -4551,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.351494</v>
+        <v>0.359967</v>
       </c>
       <c r="C95" t="n">
-        <v>0.266857</v>
+        <v>0.226654</v>
       </c>
       <c r="D95" t="n">
-        <v>0.221674</v>
+        <v>0.231861</v>
       </c>
     </row>
     <row r="96">
@@ -4565,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.34554</v>
+        <v>0.35414</v>
       </c>
       <c r="C96" t="n">
-        <v>0.262016</v>
+        <v>0.225327</v>
       </c>
       <c r="D96" t="n">
-        <v>0.219447</v>
+        <v>0.230325</v>
       </c>
     </row>
     <row r="97">
@@ -4579,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340551</v>
+        <v>0.348123</v>
       </c>
       <c r="C97" t="n">
-        <v>0.258784</v>
+        <v>0.223675</v>
       </c>
       <c r="D97" t="n">
-        <v>0.217756</v>
+        <v>0.228931</v>
       </c>
     </row>
     <row r="98">
@@ -4593,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333698</v>
+        <v>0.341734</v>
       </c>
       <c r="C98" t="n">
-        <v>0.25624</v>
+        <v>0.222099</v>
       </c>
       <c r="D98" t="n">
-        <v>0.21636</v>
+        <v>0.227616</v>
       </c>
     </row>
     <row r="99">
@@ -4607,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.32703</v>
+        <v>0.33455</v>
       </c>
       <c r="C99" t="n">
-        <v>0.254504</v>
+        <v>0.221104</v>
       </c>
       <c r="D99" t="n">
-        <v>0.215085</v>
+        <v>0.22646</v>
       </c>
     </row>
     <row r="100">
@@ -4621,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.319743</v>
+        <v>0.32712</v>
       </c>
       <c r="C100" t="n">
-        <v>0.252964</v>
+        <v>0.220127</v>
       </c>
       <c r="D100" t="n">
-        <v>0.213893</v>
+        <v>0.225462</v>
       </c>
     </row>
     <row r="101">
@@ -4635,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311856</v>
+        <v>0.319364</v>
       </c>
       <c r="C101" t="n">
-        <v>0.251722</v>
+        <v>0.219208</v>
       </c>
       <c r="D101" t="n">
-        <v>0.212886</v>
+        <v>0.22459</v>
       </c>
     </row>
     <row r="102">
@@ -4649,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.303382</v>
+        <v>0.31062</v>
       </c>
       <c r="C102" t="n">
-        <v>0.250671</v>
+        <v>0.218035</v>
       </c>
       <c r="D102" t="n">
-        <v>0.211918</v>
+        <v>0.223802</v>
       </c>
     </row>
     <row r="103">
@@ -4663,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.294232</v>
+        <v>0.301811</v>
       </c>
       <c r="C103" t="n">
-        <v>0.249775</v>
+        <v>0.217326</v>
       </c>
       <c r="D103" t="n">
-        <v>0.211078</v>
+        <v>0.223086</v>
       </c>
     </row>
     <row r="104">
@@ -4677,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.284511</v>
+        <v>0.291588</v>
       </c>
       <c r="C104" t="n">
-        <v>0.248858</v>
+        <v>0.216539</v>
       </c>
       <c r="D104" t="n">
-        <v>0.210264</v>
+        <v>0.222256</v>
       </c>
     </row>
     <row r="105">
@@ -4691,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.273848</v>
+        <v>0.281207</v>
       </c>
       <c r="C105" t="n">
-        <v>0.247957</v>
+        <v>0.216156</v>
       </c>
       <c r="D105" t="n">
-        <v>0.209617</v>
+        <v>0.221803</v>
       </c>
     </row>
     <row r="106">
@@ -4705,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.261749</v>
+        <v>0.269484</v>
       </c>
       <c r="C106" t="n">
-        <v>0.247407</v>
+        <v>0.215477</v>
       </c>
       <c r="D106" t="n">
-        <v>0.209102</v>
+        <v>0.221084</v>
       </c>
     </row>
     <row r="107">
@@ -4719,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.24915</v>
+        <v>0.256821</v>
       </c>
       <c r="C107" t="n">
-        <v>0.246903</v>
+        <v>0.215441</v>
       </c>
       <c r="D107" t="n">
-        <v>0.208593</v>
+        <v>0.220608</v>
       </c>
     </row>
     <row r="108">
@@ -4733,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.235072</v>
+        <v>0.243089</v>
       </c>
       <c r="C108" t="n">
-        <v>0.246594</v>
+        <v>0.230048</v>
       </c>
       <c r="D108" t="n">
-        <v>0.224363</v>
+        <v>0.23411</v>
       </c>
     </row>
     <row r="109">
@@ -4747,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.220314</v>
+        <v>0.228817</v>
       </c>
       <c r="C109" t="n">
-        <v>0.246284</v>
+        <v>0.227765</v>
       </c>
       <c r="D109" t="n">
-        <v>0.221922</v>
+        <v>0.232065</v>
       </c>
     </row>
     <row r="110">
@@ -4761,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347342</v>
+        <v>0.355355</v>
       </c>
       <c r="C110" t="n">
-        <v>0.262702</v>
+        <v>0.226502</v>
       </c>
       <c r="D110" t="n">
-        <v>0.220225</v>
+        <v>0.230353</v>
       </c>
     </row>
     <row r="111">
@@ -4775,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.342027</v>
+        <v>0.3494</v>
       </c>
       <c r="C111" t="n">
-        <v>0.259702</v>
+        <v>0.224222</v>
       </c>
       <c r="D111" t="n">
-        <v>0.218403</v>
+        <v>0.228988</v>
       </c>
     </row>
     <row r="112">
@@ -4789,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.335437</v>
+        <v>0.342889</v>
       </c>
       <c r="C112" t="n">
-        <v>0.257128</v>
+        <v>0.222511</v>
       </c>
       <c r="D112" t="n">
-        <v>0.216693</v>
+        <v>0.227794</v>
       </c>
     </row>
     <row r="113">
@@ -4803,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.328775</v>
+        <v>0.336043</v>
       </c>
       <c r="C113" t="n">
-        <v>0.255455</v>
+        <v>0.220926</v>
       </c>
       <c r="D113" t="n">
-        <v>0.215075</v>
+        <v>0.226876</v>
       </c>
     </row>
     <row r="114">
@@ -4817,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.32136</v>
+        <v>0.328428</v>
       </c>
       <c r="C114" t="n">
-        <v>0.253843</v>
+        <v>0.220459</v>
       </c>
       <c r="D114" t="n">
-        <v>0.213924</v>
+        <v>0.225694</v>
       </c>
     </row>
     <row r="115">
@@ -4831,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313635</v>
+        <v>0.320339</v>
       </c>
       <c r="C115" t="n">
-        <v>0.252702</v>
+        <v>0.219481</v>
       </c>
       <c r="D115" t="n">
-        <v>0.21298</v>
+        <v>0.22479</v>
       </c>
     </row>
     <row r="116">
@@ -4845,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.305388</v>
+        <v>0.312529</v>
       </c>
       <c r="C116" t="n">
-        <v>0.251428</v>
+        <v>0.218127</v>
       </c>
       <c r="D116" t="n">
-        <v>0.212183</v>
+        <v>0.223943</v>
       </c>
     </row>
     <row r="117">
@@ -4859,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.296505</v>
+        <v>0.303283</v>
       </c>
       <c r="C117" t="n">
-        <v>0.250458</v>
+        <v>0.217922</v>
       </c>
       <c r="D117" t="n">
-        <v>0.211455</v>
+        <v>0.223237</v>
       </c>
     </row>
     <row r="118">
@@ -4873,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.286911</v>
+        <v>0.293618</v>
       </c>
       <c r="C118" t="n">
-        <v>0.249648</v>
+        <v>0.216773</v>
       </c>
       <c r="D118" t="n">
-        <v>0.210853</v>
+        <v>0.223067</v>
       </c>
     </row>
     <row r="119">
@@ -4887,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.276297</v>
+        <v>0.283482</v>
       </c>
       <c r="C119" t="n">
-        <v>0.249149</v>
+        <v>0.21662</v>
       </c>
       <c r="D119" t="n">
-        <v>0.210328</v>
+        <v>0.222372</v>
       </c>
     </row>
     <row r="120">
@@ -4901,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.265173</v>
+        <v>0.272307</v>
       </c>
       <c r="C120" t="n">
-        <v>0.248144</v>
+        <v>0.215772</v>
       </c>
       <c r="D120" t="n">
-        <v>0.209784</v>
+        <v>0.221977</v>
       </c>
     </row>
     <row r="121">
@@ -4915,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.252421</v>
+        <v>0.259908</v>
       </c>
       <c r="C121" t="n">
-        <v>0.247943</v>
+        <v>0.216047</v>
       </c>
       <c r="D121" t="n">
-        <v>0.209506</v>
+        <v>0.221088</v>
       </c>
     </row>
     <row r="122">
@@ -4929,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.238758</v>
+        <v>0.246516</v>
       </c>
       <c r="C122" t="n">
-        <v>0.247209</v>
+        <v>0.215463</v>
       </c>
       <c r="D122" t="n">
-        <v>0.209159</v>
+        <v>0.220784</v>
       </c>
     </row>
     <row r="123">
@@ -4943,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.224396</v>
+        <v>0.232338</v>
       </c>
       <c r="C123" t="n">
-        <v>0.247116</v>
+        <v>0.230145</v>
       </c>
       <c r="D123" t="n">
-        <v>0.221666</v>
+        <v>0.233756</v>
       </c>
     </row>
     <row r="124">
@@ -4957,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.349217</v>
+        <v>0.356823</v>
       </c>
       <c r="C124" t="n">
-        <v>0.263538</v>
+        <v>0.22888</v>
       </c>
       <c r="D124" t="n">
-        <v>0.219578</v>
+        <v>0.231909</v>
       </c>
     </row>
     <row r="125">
@@ -4971,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.343322</v>
+        <v>0.350836</v>
       </c>
       <c r="C125" t="n">
-        <v>0.260533</v>
+        <v>0.22676</v>
       </c>
       <c r="D125" t="n">
-        <v>0.217887</v>
+        <v>0.230849</v>
       </c>
     </row>
     <row r="126">
@@ -4985,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.337008</v>
+        <v>0.344762</v>
       </c>
       <c r="C126" t="n">
-        <v>0.258113</v>
+        <v>0.225117</v>
       </c>
       <c r="D126" t="n">
-        <v>0.216504</v>
+        <v>0.229894</v>
       </c>
     </row>
     <row r="127">
@@ -4999,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.330558</v>
+        <v>0.337827</v>
       </c>
       <c r="C127" t="n">
-        <v>0.255469</v>
+        <v>0.22361</v>
       </c>
       <c r="D127" t="n">
-        <v>0.215121</v>
+        <v>0.228252</v>
       </c>
     </row>
     <row r="128">
@@ -5013,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322917</v>
+        <v>0.329989</v>
       </c>
       <c r="C128" t="n">
-        <v>0.254252</v>
+        <v>0.220494</v>
       </c>
       <c r="D128" t="n">
-        <v>0.214049</v>
+        <v>0.226723</v>
       </c>
     </row>
     <row r="129">
@@ -5027,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.31471</v>
+        <v>0.322516</v>
       </c>
       <c r="C129" t="n">
-        <v>0.25277</v>
+        <v>0.220843</v>
       </c>
       <c r="D129" t="n">
-        <v>0.213097</v>
+        <v>0.226524</v>
       </c>
     </row>
     <row r="130">
@@ -5041,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.307023</v>
+        <v>0.314343</v>
       </c>
       <c r="C130" t="n">
-        <v>0.251778</v>
+        <v>0.220429</v>
       </c>
       <c r="D130" t="n">
-        <v>0.212159</v>
+        <v>0.225987</v>
       </c>
     </row>
     <row r="131">
@@ -5055,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.298348</v>
+        <v>0.305335</v>
       </c>
       <c r="C131" t="n">
-        <v>0.25099</v>
+        <v>0.219732</v>
       </c>
       <c r="D131" t="n">
-        <v>0.211381</v>
+        <v>0.224058</v>
       </c>
     </row>
     <row r="132">
@@ -5069,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.288491</v>
+        <v>0.29657</v>
       </c>
       <c r="C132" t="n">
-        <v>0.249876</v>
+        <v>0.219085</v>
       </c>
       <c r="D132" t="n">
-        <v>0.210583</v>
+        <v>0.223136</v>
       </c>
     </row>
     <row r="133">
@@ -5083,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.278164</v>
+        <v>0.286101</v>
       </c>
       <c r="C133" t="n">
-        <v>0.24924</v>
+        <v>0.218292</v>
       </c>
       <c r="D133" t="n">
-        <v>0.209864</v>
+        <v>0.222361</v>
       </c>
     </row>
     <row r="134">
@@ -5097,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.266852</v>
+        <v>0.274883</v>
       </c>
       <c r="C134" t="n">
-        <v>0.248847</v>
+        <v>0.217663</v>
       </c>
       <c r="D134" t="n">
-        <v>0.209392</v>
+        <v>0.221948</v>
       </c>
     </row>
     <row r="135">
@@ -5111,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.254997</v>
+        <v>0.262429</v>
       </c>
       <c r="C135" t="n">
-        <v>0.247904</v>
+        <v>0.217627</v>
       </c>
       <c r="D135" t="n">
-        <v>0.208851</v>
+        <v>0.220918</v>
       </c>
     </row>
     <row r="136">
@@ -5125,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240968</v>
+        <v>0.249579</v>
       </c>
       <c r="C136" t="n">
-        <v>0.248075</v>
+        <v>0.216155</v>
       </c>
       <c r="D136" t="n">
-        <v>0.208529</v>
+        <v>0.220985</v>
       </c>
     </row>
     <row r="137">
@@ -5139,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.227259</v>
+        <v>0.235903</v>
       </c>
       <c r="C137" t="n">
-        <v>0.247658</v>
+        <v>0.231954</v>
       </c>
       <c r="D137" t="n">
-        <v>0.22245</v>
+        <v>0.235472</v>
       </c>
     </row>
     <row r="138">
@@ -5153,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.349681</v>
+        <v>0.358219</v>
       </c>
       <c r="C138" t="n">
-        <v>0.26826</v>
+        <v>0.228768</v>
       </c>
       <c r="D138" t="n">
-        <v>0.220285</v>
+        <v>0.234309</v>
       </c>
     </row>
     <row r="139">
@@ -5167,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.34394</v>
+        <v>0.352417</v>
       </c>
       <c r="C139" t="n">
-        <v>0.262489</v>
+        <v>0.22675</v>
       </c>
       <c r="D139" t="n">
-        <v>0.218892</v>
+        <v>0.233669</v>
       </c>
     </row>
     <row r="140">
@@ -5181,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.337721</v>
+        <v>0.346081</v>
       </c>
       <c r="C140" t="n">
-        <v>0.260053</v>
+        <v>0.226817</v>
       </c>
       <c r="D140" t="n">
-        <v>0.217055</v>
+        <v>0.23056</v>
       </c>
     </row>
     <row r="141">
@@ -5195,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331825</v>
+        <v>0.339645</v>
       </c>
       <c r="C141" t="n">
-        <v>0.258282</v>
+        <v>0.224309</v>
       </c>
       <c r="D141" t="n">
-        <v>0.215872</v>
+        <v>0.230156</v>
       </c>
     </row>
     <row r="142">
@@ -5209,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324303</v>
+        <v>0.33239</v>
       </c>
       <c r="C142" t="n">
-        <v>0.256101</v>
+        <v>0.225132</v>
       </c>
       <c r="D142" t="n">
-        <v>0.214584</v>
+        <v>0.230005</v>
       </c>
     </row>
     <row r="143">
@@ -5223,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317316</v>
+        <v>0.324596</v>
       </c>
       <c r="C143" t="n">
-        <v>0.255681</v>
+        <v>0.223597</v>
       </c>
       <c r="D143" t="n">
-        <v>0.21361</v>
+        <v>0.226968</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.307661</v>
+        <v>0.304502</v>
       </c>
       <c r="C2" t="n">
-        <v>0.203777</v>
+        <v>0.203703</v>
       </c>
       <c r="D2" t="n">
-        <v>0.204103</v>
+        <v>0.203709</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.298506</v>
+        <v>0.296831</v>
       </c>
       <c r="C3" t="n">
-        <v>0.203692</v>
+        <v>0.202756</v>
       </c>
       <c r="D3" t="n">
-        <v>0.20513</v>
+        <v>0.204764</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.286848</v>
+        <v>0.286563</v>
       </c>
       <c r="C4" t="n">
-        <v>0.208551</v>
+        <v>0.204391</v>
       </c>
       <c r="D4" t="n">
-        <v>0.20526</v>
+        <v>0.205906</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.277591</v>
+        <v>0.277547</v>
       </c>
       <c r="C5" t="n">
-        <v>0.219738</v>
+        <v>0.205988</v>
       </c>
       <c r="D5" t="n">
-        <v>0.207175</v>
+        <v>0.206165</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.264896</v>
+        <v>0.264542</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206275</v>
+        <v>0.205906</v>
       </c>
       <c r="D6" t="n">
-        <v>0.207386</v>
+        <v>0.206812</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.251467</v>
+        <v>0.251444</v>
       </c>
       <c r="C7" t="n">
-        <v>0.206031</v>
+        <v>0.205769</v>
       </c>
       <c r="D7" t="n">
-        <v>0.20726</v>
+        <v>0.208144</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.239881</v>
+        <v>0.239529</v>
       </c>
       <c r="C8" t="n">
-        <v>0.220288</v>
+        <v>0.206913</v>
       </c>
       <c r="D8" t="n">
-        <v>0.20916</v>
+        <v>0.209349</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.226198</v>
+        <v>0.225017</v>
       </c>
       <c r="C9" t="n">
-        <v>0.221343</v>
+        <v>0.220951</v>
       </c>
       <c r="D9" t="n">
-        <v>0.232833</v>
+        <v>0.234466</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.351582</v>
+        <v>0.353021</v>
       </c>
       <c r="C10" t="n">
-        <v>0.220839</v>
+        <v>0.227691</v>
       </c>
       <c r="D10" t="n">
-        <v>0.224167</v>
+        <v>0.223914</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.344712</v>
+        <v>0.347701</v>
       </c>
       <c r="C11" t="n">
-        <v>0.219555</v>
+        <v>0.219425</v>
       </c>
       <c r="D11" t="n">
-        <v>0.223708</v>
+        <v>0.223157</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.339556</v>
+        <v>0.340535</v>
       </c>
       <c r="C12" t="n">
-        <v>0.217961</v>
+        <v>0.21875</v>
       </c>
       <c r="D12" t="n">
-        <v>0.222867</v>
+        <v>0.222562</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.332616</v>
+        <v>0.333578</v>
       </c>
       <c r="C13" t="n">
-        <v>0.217428</v>
+        <v>0.217594</v>
       </c>
       <c r="D13" t="n">
-        <v>0.221173</v>
+        <v>0.220449</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.327307</v>
+        <v>0.328074</v>
       </c>
       <c r="C14" t="n">
-        <v>0.216257</v>
+        <v>0.216263</v>
       </c>
       <c r="D14" t="n">
-        <v>0.221161</v>
+        <v>0.220084</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.319541</v>
+        <v>0.320811</v>
       </c>
       <c r="C15" t="n">
-        <v>0.215232</v>
+        <v>0.21569</v>
       </c>
       <c r="D15" t="n">
-        <v>0.220633</v>
+        <v>0.220417</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.311946</v>
+        <v>0.316591</v>
       </c>
       <c r="C16" t="n">
-        <v>0.215771</v>
+        <v>0.215355</v>
       </c>
       <c r="D16" t="n">
-        <v>0.221073</v>
+        <v>0.220481</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.30381</v>
+        <v>0.304387</v>
       </c>
       <c r="C17" t="n">
-        <v>0.214611</v>
+        <v>0.214327</v>
       </c>
       <c r="D17" t="n">
-        <v>0.220376</v>
+        <v>0.220222</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.29385</v>
+        <v>0.295516</v>
       </c>
       <c r="C18" t="n">
-        <v>0.213861</v>
+        <v>0.214333</v>
       </c>
       <c r="D18" t="n">
-        <v>0.220389</v>
+        <v>0.220292</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.284327</v>
+        <v>0.286507</v>
       </c>
       <c r="C19" t="n">
-        <v>0.213781</v>
+        <v>0.213287</v>
       </c>
       <c r="D19" t="n">
-        <v>0.220063</v>
+        <v>0.225247</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.273282</v>
+        <v>0.274704</v>
       </c>
       <c r="C20" t="n">
-        <v>0.213472</v>
+        <v>0.213993</v>
       </c>
       <c r="D20" t="n">
-        <v>0.22838</v>
+        <v>0.219049</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.262084</v>
+        <v>0.268736</v>
       </c>
       <c r="C21" t="n">
-        <v>0.222487</v>
+        <v>0.217466</v>
       </c>
       <c r="D21" t="n">
-        <v>0.219113</v>
+        <v>0.218858</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248957</v>
+        <v>0.248765</v>
       </c>
       <c r="C22" t="n">
-        <v>0.212991</v>
+        <v>0.212684</v>
       </c>
       <c r="D22" t="n">
-        <v>0.218562</v>
+        <v>0.21829</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.235302</v>
+        <v>0.23541</v>
       </c>
       <c r="C23" t="n">
-        <v>0.225609</v>
+        <v>0.224853</v>
       </c>
       <c r="D23" t="n">
-        <v>0.230846</v>
+        <v>0.230014</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.356769</v>
+        <v>0.356226</v>
       </c>
       <c r="C24" t="n">
-        <v>0.224277</v>
+        <v>0.22405</v>
       </c>
       <c r="D24" t="n">
-        <v>0.229234</v>
+        <v>0.229678</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.35097</v>
+        <v>0.350401</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222719</v>
+        <v>0.222554</v>
       </c>
       <c r="D25" t="n">
-        <v>0.228474</v>
+        <v>0.228477</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.344109</v>
+        <v>0.344157</v>
       </c>
       <c r="C26" t="n">
-        <v>0.221915</v>
+        <v>0.221554</v>
       </c>
       <c r="D26" t="n">
-        <v>0.227635</v>
+        <v>0.227954</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.336951</v>
+        <v>0.337351</v>
       </c>
       <c r="C27" t="n">
-        <v>0.220675</v>
+        <v>0.220404</v>
       </c>
       <c r="D27" t="n">
-        <v>0.227439</v>
+        <v>0.227469</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.330091</v>
+        <v>0.329487</v>
       </c>
       <c r="C28" t="n">
-        <v>0.219182</v>
+        <v>0.219527</v>
       </c>
       <c r="D28" t="n">
-        <v>0.226366</v>
+        <v>0.226306</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.323814</v>
+        <v>0.323171</v>
       </c>
       <c r="C29" t="n">
-        <v>0.218722</v>
+        <v>0.218856</v>
       </c>
       <c r="D29" t="n">
-        <v>0.225865</v>
+        <v>0.225783</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.314741</v>
+        <v>0.31461</v>
       </c>
       <c r="C30" t="n">
-        <v>0.218104</v>
+        <v>0.218156</v>
       </c>
       <c r="D30" t="n">
-        <v>0.224513</v>
+        <v>0.224501</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.306458</v>
+        <v>0.306328</v>
       </c>
       <c r="C31" t="n">
-        <v>0.217774</v>
+        <v>0.217526</v>
       </c>
       <c r="D31" t="n">
-        <v>0.223818</v>
+        <v>0.223488</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.297303</v>
+        <v>0.297211</v>
       </c>
       <c r="C32" t="n">
-        <v>0.217012</v>
+        <v>0.216963</v>
       </c>
       <c r="D32" t="n">
-        <v>0.223095</v>
+        <v>0.222987</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.28832</v>
+        <v>0.287936</v>
       </c>
       <c r="C33" t="n">
-        <v>0.216186</v>
+        <v>0.215959</v>
       </c>
       <c r="D33" t="n">
-        <v>0.221975</v>
+        <v>0.221779</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.277445</v>
+        <v>0.277756</v>
       </c>
       <c r="C34" t="n">
-        <v>0.21554</v>
+        <v>0.215326</v>
       </c>
       <c r="D34" t="n">
-        <v>0.221633</v>
+        <v>0.221607</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.266967</v>
+        <v>0.266904</v>
       </c>
       <c r="C35" t="n">
-        <v>0.215001</v>
+        <v>0.215024</v>
       </c>
       <c r="D35" t="n">
-        <v>0.221237</v>
+        <v>0.221242</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.253476</v>
+        <v>0.252865</v>
       </c>
       <c r="C36" t="n">
-        <v>0.214535</v>
+        <v>0.214486</v>
       </c>
       <c r="D36" t="n">
-        <v>0.220122</v>
+        <v>0.219938</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.239896</v>
+        <v>0.239527</v>
       </c>
       <c r="C37" t="n">
-        <v>0.226235</v>
+        <v>0.226154</v>
       </c>
       <c r="D37" t="n">
-        <v>0.232042</v>
+        <v>0.232231</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.357988</v>
+        <v>0.357961</v>
       </c>
       <c r="C38" t="n">
-        <v>0.224787</v>
+        <v>0.224762</v>
       </c>
       <c r="D38" t="n">
-        <v>0.23043</v>
+        <v>0.230175</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.352415</v>
+        <v>0.352482</v>
       </c>
       <c r="C39" t="n">
-        <v>0.222959</v>
+        <v>0.222867</v>
       </c>
       <c r="D39" t="n">
-        <v>0.229235</v>
+        <v>0.2291</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.346006</v>
+        <v>0.346147</v>
       </c>
       <c r="C40" t="n">
-        <v>0.222232</v>
+        <v>0.222026</v>
       </c>
       <c r="D40" t="n">
-        <v>0.228131</v>
+        <v>0.227896</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.339873</v>
+        <v>0.339358</v>
       </c>
       <c r="C41" t="n">
-        <v>0.22089</v>
+        <v>0.220629</v>
       </c>
       <c r="D41" t="n">
-        <v>0.227345</v>
+        <v>0.227329</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.333007</v>
+        <v>0.332756</v>
       </c>
       <c r="C42" t="n">
-        <v>0.220059</v>
+        <v>0.219939</v>
       </c>
       <c r="D42" t="n">
-        <v>0.226272</v>
+        <v>0.225962</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.324703</v>
+        <v>0.324765</v>
       </c>
       <c r="C43" t="n">
-        <v>0.219275</v>
+        <v>0.219156</v>
       </c>
       <c r="D43" t="n">
-        <v>0.225098</v>
+        <v>0.224758</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.317337</v>
+        <v>0.317442</v>
       </c>
       <c r="C44" t="n">
-        <v>0.218324</v>
+        <v>0.218095</v>
       </c>
       <c r="D44" t="n">
-        <v>0.224178</v>
+        <v>0.223973</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.308761</v>
+        <v>0.308676</v>
       </c>
       <c r="C45" t="n">
-        <v>0.217666</v>
+        <v>0.217616</v>
       </c>
       <c r="D45" t="n">
-        <v>0.223481</v>
+        <v>0.2233</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.300082</v>
+        <v>0.299998</v>
       </c>
       <c r="C46" t="n">
-        <v>0.216674</v>
+        <v>0.216201</v>
       </c>
       <c r="D46" t="n">
-        <v>0.222899</v>
+        <v>0.222625</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.290881</v>
+        <v>0.290939</v>
       </c>
       <c r="C47" t="n">
-        <v>0.21628</v>
+        <v>0.21629</v>
       </c>
       <c r="D47" t="n">
-        <v>0.222618</v>
+        <v>0.222379</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.280724</v>
+        <v>0.280206</v>
       </c>
       <c r="C48" t="n">
-        <v>0.215382</v>
+        <v>0.215324</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2219</v>
+        <v>0.221468</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.269706</v>
+        <v>0.269892</v>
       </c>
       <c r="C49" t="n">
-        <v>0.215183</v>
+        <v>0.214899</v>
       </c>
       <c r="D49" t="n">
-        <v>0.221384</v>
+        <v>0.221149</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.257882</v>
+        <v>0.257471</v>
       </c>
       <c r="C50" t="n">
-        <v>0.214612</v>
+        <v>0.214497</v>
       </c>
       <c r="D50" t="n">
-        <v>0.22048</v>
+        <v>0.220194</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.244008</v>
+        <v>0.244315</v>
       </c>
       <c r="C51" t="n">
-        <v>0.228159</v>
+        <v>0.226923</v>
       </c>
       <c r="D51" t="n">
-        <v>0.232427</v>
+        <v>0.232123</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.22966</v>
+        <v>0.229745</v>
       </c>
       <c r="C52" t="n">
-        <v>0.226131</v>
+        <v>0.225112</v>
       </c>
       <c r="D52" t="n">
-        <v>0.231005</v>
+        <v>0.230678</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.355068</v>
+        <v>0.354805</v>
       </c>
       <c r="C53" t="n">
-        <v>0.224251</v>
+        <v>0.223655</v>
       </c>
       <c r="D53" t="n">
-        <v>0.229297</v>
+        <v>0.228928</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.348877</v>
+        <v>0.34886</v>
       </c>
       <c r="C54" t="n">
-        <v>0.222848</v>
+        <v>0.222428</v>
       </c>
       <c r="D54" t="n">
-        <v>0.227786</v>
+        <v>0.227709</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.342853</v>
+        <v>0.342702</v>
       </c>
       <c r="C55" t="n">
-        <v>0.221327</v>
+        <v>0.221115</v>
       </c>
       <c r="D55" t="n">
-        <v>0.227054</v>
+        <v>0.226915</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.335648</v>
+        <v>0.335527</v>
       </c>
       <c r="C56" t="n">
-        <v>0.220412</v>
+        <v>0.22034</v>
       </c>
       <c r="D56" t="n">
-        <v>0.226262</v>
+        <v>0.226118</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.328358</v>
+        <v>0.328265</v>
       </c>
       <c r="C57" t="n">
-        <v>0.219607</v>
+        <v>0.219503</v>
       </c>
       <c r="D57" t="n">
-        <v>0.225276</v>
+        <v>0.225115</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.321191</v>
+        <v>0.321107</v>
       </c>
       <c r="C58" t="n">
-        <v>0.218641</v>
+        <v>0.218269</v>
       </c>
       <c r="D58" t="n">
-        <v>0.224554</v>
+        <v>0.224486</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.312302</v>
+        <v>0.312296</v>
       </c>
       <c r="C59" t="n">
-        <v>0.217806</v>
+        <v>0.217589</v>
       </c>
       <c r="D59" t="n">
-        <v>0.223864</v>
+        <v>0.223657</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.30315</v>
+        <v>0.303026</v>
       </c>
       <c r="C60" t="n">
-        <v>0.217117</v>
+        <v>0.216832</v>
       </c>
       <c r="D60" t="n">
-        <v>0.22336</v>
+        <v>0.223104</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.293129</v>
+        <v>0.293233</v>
       </c>
       <c r="C61" t="n">
-        <v>0.216495</v>
+        <v>0.21628</v>
       </c>
       <c r="D61" t="n">
-        <v>0.222253</v>
+        <v>0.222123</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.283052</v>
+        <v>0.282925</v>
       </c>
       <c r="C62" t="n">
-        <v>0.215984</v>
+        <v>0.215758</v>
       </c>
       <c r="D62" t="n">
-        <v>0.221824</v>
+        <v>0.2215</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.271871</v>
+        <v>0.271766</v>
       </c>
       <c r="C63" t="n">
-        <v>0.215119</v>
+        <v>0.214887</v>
       </c>
       <c r="D63" t="n">
-        <v>0.220986</v>
+        <v>0.22071</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.259773</v>
+        <v>0.260111</v>
       </c>
       <c r="C64" t="n">
-        <v>0.215031</v>
+        <v>0.214751</v>
       </c>
       <c r="D64" t="n">
-        <v>0.220479</v>
+        <v>0.220315</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.246751</v>
+        <v>0.246923</v>
       </c>
       <c r="C65" t="n">
-        <v>0.214623</v>
+        <v>0.214377</v>
       </c>
       <c r="D65" t="n">
-        <v>0.220055</v>
+        <v>0.219716</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.232448</v>
+        <v>0.232538</v>
       </c>
       <c r="C66" t="n">
-        <v>0.226439</v>
+        <v>0.225945</v>
       </c>
       <c r="D66" t="n">
-        <v>0.231623</v>
+        <v>0.23125</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.356724</v>
+        <v>0.356263</v>
       </c>
       <c r="C67" t="n">
-        <v>0.224968</v>
+        <v>0.224782</v>
       </c>
       <c r="D67" t="n">
-        <v>0.230268</v>
+        <v>0.230055</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350575</v>
+        <v>0.350493</v>
       </c>
       <c r="C68" t="n">
-        <v>0.223412</v>
+        <v>0.223271</v>
       </c>
       <c r="D68" t="n">
-        <v>0.229006</v>
+        <v>0.228757</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.344531</v>
+        <v>0.344135</v>
       </c>
       <c r="C69" t="n">
-        <v>0.222163</v>
+        <v>0.222055</v>
       </c>
       <c r="D69" t="n">
-        <v>0.227893</v>
+        <v>0.227682</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.33775</v>
+        <v>0.337544</v>
       </c>
       <c r="C70" t="n">
-        <v>0.220989</v>
+        <v>0.220827</v>
       </c>
       <c r="D70" t="n">
-        <v>0.226692</v>
+        <v>0.226534</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.330511</v>
+        <v>0.330196</v>
       </c>
       <c r="C71" t="n">
-        <v>0.219983</v>
+        <v>0.21988</v>
       </c>
       <c r="D71" t="n">
-        <v>0.225641</v>
+        <v>0.225541</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.323342</v>
+        <v>0.323369</v>
       </c>
       <c r="C72" t="n">
-        <v>0.219192</v>
+        <v>0.218995</v>
       </c>
       <c r="D72" t="n">
-        <v>0.224893</v>
+        <v>0.224741</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.31525</v>
+        <v>0.314773</v>
       </c>
       <c r="C73" t="n">
-        <v>0.218337</v>
+        <v>0.218087</v>
       </c>
       <c r="D73" t="n">
-        <v>0.224185</v>
+        <v>0.223973</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.306511</v>
+        <v>0.30621</v>
       </c>
       <c r="C74" t="n">
-        <v>0.217606</v>
+        <v>0.217393</v>
       </c>
       <c r="D74" t="n">
-        <v>0.223361</v>
+        <v>0.223222</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.297102</v>
+        <v>0.297096</v>
       </c>
       <c r="C75" t="n">
-        <v>0.216646</v>
+        <v>0.216546</v>
       </c>
       <c r="D75" t="n">
-        <v>0.222618</v>
+        <v>0.222506</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.28693</v>
+        <v>0.287135</v>
       </c>
       <c r="C76" t="n">
-        <v>0.216323</v>
+        <v>0.216205</v>
       </c>
       <c r="D76" t="n">
-        <v>0.222166</v>
+        <v>0.222037</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.27628</v>
+        <v>0.276339</v>
       </c>
       <c r="C77" t="n">
-        <v>0.21574</v>
+        <v>0.215515</v>
       </c>
       <c r="D77" t="n">
-        <v>0.221537</v>
+        <v>0.221408</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.263747</v>
+        <v>0.263677</v>
       </c>
       <c r="C78" t="n">
-        <v>0.215395</v>
+        <v>0.215168</v>
       </c>
       <c r="D78" t="n">
-        <v>0.221128</v>
+        <v>0.220907</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.251075</v>
+        <v>0.251159</v>
       </c>
       <c r="C79" t="n">
-        <v>0.215055</v>
+        <v>0.214828</v>
       </c>
       <c r="D79" t="n">
-        <v>0.22097</v>
+        <v>0.220604</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.236828</v>
+        <v>0.236573</v>
       </c>
       <c r="C80" t="n">
-        <v>0.227645</v>
+        <v>0.227784</v>
       </c>
       <c r="D80" t="n">
-        <v>0.232928</v>
+        <v>0.233421</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.358194</v>
+        <v>0.358508</v>
       </c>
       <c r="C81" t="n">
-        <v>0.225538</v>
+        <v>0.225704</v>
       </c>
       <c r="D81" t="n">
-        <v>0.231305</v>
+        <v>0.231537</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.35241</v>
+        <v>0.35262</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224093</v>
+        <v>0.224069</v>
       </c>
       <c r="D82" t="n">
-        <v>0.229843</v>
+        <v>0.230038</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.346009</v>
+        <v>0.346125</v>
       </c>
       <c r="C83" t="n">
-        <v>0.222601</v>
+        <v>0.222651</v>
       </c>
       <c r="D83" t="n">
-        <v>0.228559</v>
+        <v>0.228656</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.339327</v>
+        <v>0.339518</v>
       </c>
       <c r="C84" t="n">
-        <v>0.221285</v>
+        <v>0.221324</v>
       </c>
       <c r="D84" t="n">
-        <v>0.227373</v>
+        <v>0.227537</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.332487</v>
+        <v>0.332468</v>
       </c>
       <c r="C85" t="n">
-        <v>0.220391</v>
+        <v>0.220278</v>
       </c>
       <c r="D85" t="n">
-        <v>0.226167</v>
+        <v>0.226237</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.324756</v>
+        <v>0.324973</v>
       </c>
       <c r="C86" t="n">
-        <v>0.219504</v>
+        <v>0.219383</v>
       </c>
       <c r="D86" t="n">
-        <v>0.225149</v>
+        <v>0.225155</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.316684</v>
+        <v>0.316615</v>
       </c>
       <c r="C87" t="n">
-        <v>0.218491</v>
+        <v>0.218336</v>
       </c>
       <c r="D87" t="n">
-        <v>0.224339</v>
+        <v>0.224324</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.308284</v>
+        <v>0.308087</v>
       </c>
       <c r="C88" t="n">
-        <v>0.21766</v>
+        <v>0.217514</v>
       </c>
       <c r="D88" t="n">
-        <v>0.223678</v>
+        <v>0.223612</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.299039</v>
+        <v>0.298761</v>
       </c>
       <c r="C89" t="n">
-        <v>0.216942</v>
+        <v>0.21683</v>
       </c>
       <c r="D89" t="n">
-        <v>0.222812</v>
+        <v>0.222761</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.288979</v>
+        <v>0.289122</v>
       </c>
       <c r="C90" t="n">
-        <v>0.216249</v>
+        <v>0.216074</v>
       </c>
       <c r="D90" t="n">
-        <v>0.222153</v>
+        <v>0.222135</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.278282</v>
+        <v>0.278162</v>
       </c>
       <c r="C91" t="n">
-        <v>0.215882</v>
+        <v>0.215742</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221692</v>
+        <v>0.221525</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.266736</v>
+        <v>0.266296</v>
       </c>
       <c r="C92" t="n">
-        <v>0.215401</v>
+        <v>0.215258</v>
       </c>
       <c r="D92" t="n">
-        <v>0.221057</v>
+        <v>0.220927</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.253876</v>
+        <v>0.253809</v>
       </c>
       <c r="C93" t="n">
-        <v>0.215043</v>
+        <v>0.214925</v>
       </c>
       <c r="D93" t="n">
-        <v>0.220659</v>
+        <v>0.220706</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.239946</v>
+        <v>0.240128</v>
       </c>
       <c r="C94" t="n">
-        <v>0.228598</v>
+        <v>0.228729</v>
       </c>
       <c r="D94" t="n">
-        <v>0.233617</v>
+        <v>0.233735</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.36009</v>
+        <v>0.359908</v>
       </c>
       <c r="C95" t="n">
-        <v>0.226575</v>
+        <v>0.226378</v>
       </c>
       <c r="D95" t="n">
-        <v>0.231794</v>
+        <v>0.231838</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.35418</v>
+        <v>0.353754</v>
       </c>
       <c r="C96" t="n">
-        <v>0.224889</v>
+        <v>0.224908</v>
       </c>
       <c r="D96" t="n">
-        <v>0.2303</v>
+        <v>0.230242</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.348205</v>
+        <v>0.348081</v>
       </c>
       <c r="C97" t="n">
-        <v>0.223576</v>
+        <v>0.223383</v>
       </c>
       <c r="D97" t="n">
-        <v>0.228896</v>
+        <v>0.228908</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.341617</v>
+        <v>0.34168</v>
       </c>
       <c r="C98" t="n">
-        <v>0.22233</v>
+        <v>0.222013</v>
       </c>
       <c r="D98" t="n">
-        <v>0.227721</v>
+        <v>0.227605</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.334448</v>
+        <v>0.334595</v>
       </c>
       <c r="C99" t="n">
-        <v>0.220932</v>
+        <v>0.220799</v>
       </c>
       <c r="D99" t="n">
-        <v>0.226461</v>
+        <v>0.226324</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.327011</v>
+        <v>0.326872</v>
       </c>
       <c r="C100" t="n">
-        <v>0.219839</v>
+        <v>0.219742</v>
       </c>
       <c r="D100" t="n">
-        <v>0.225488</v>
+        <v>0.225361</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.319022</v>
+        <v>0.318931</v>
       </c>
       <c r="C101" t="n">
-        <v>0.218958</v>
+        <v>0.218816</v>
       </c>
       <c r="D101" t="n">
-        <v>0.224548</v>
+        <v>0.224552</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.310284</v>
+        <v>0.310242</v>
       </c>
       <c r="C102" t="n">
-        <v>0.218083</v>
+        <v>0.217805</v>
       </c>
       <c r="D102" t="n">
-        <v>0.223681</v>
+        <v>0.223695</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.301308</v>
+        <v>0.300987</v>
       </c>
       <c r="C103" t="n">
-        <v>0.217186</v>
+        <v>0.217008</v>
       </c>
       <c r="D103" t="n">
-        <v>0.222975</v>
+        <v>0.222963</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.291393</v>
+        <v>0.291282</v>
       </c>
       <c r="C104" t="n">
-        <v>0.216503</v>
+        <v>0.216567</v>
       </c>
       <c r="D104" t="n">
-        <v>0.222251</v>
+        <v>0.222201</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.281158</v>
+        <v>0.280707</v>
       </c>
       <c r="C105" t="n">
-        <v>0.215948</v>
+        <v>0.215945</v>
       </c>
       <c r="D105" t="n">
-        <v>0.221685</v>
+        <v>0.221657</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.269561</v>
+        <v>0.269144</v>
       </c>
       <c r="C106" t="n">
-        <v>0.215514</v>
+        <v>0.215304</v>
       </c>
       <c r="D106" t="n">
-        <v>0.221256</v>
+        <v>0.221101</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.257044</v>
+        <v>0.256643</v>
       </c>
       <c r="C107" t="n">
-        <v>0.215279</v>
+        <v>0.215112</v>
       </c>
       <c r="D107" t="n">
-        <v>0.220657</v>
+        <v>0.22055</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.243209</v>
+        <v>0.242954</v>
       </c>
       <c r="C108" t="n">
-        <v>0.229557</v>
+        <v>0.229512</v>
       </c>
       <c r="D108" t="n">
-        <v>0.234023</v>
+        <v>0.234109</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.228376</v>
+        <v>0.228461</v>
       </c>
       <c r="C109" t="n">
-        <v>0.227584</v>
+        <v>0.227378</v>
       </c>
       <c r="D109" t="n">
-        <v>0.231954</v>
+        <v>0.231908</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355383</v>
+        <v>0.355453</v>
       </c>
       <c r="C110" t="n">
-        <v>0.225672</v>
+        <v>0.225452</v>
       </c>
       <c r="D110" t="n">
-        <v>0.230696</v>
+        <v>0.23031</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.349383</v>
+        <v>0.349212</v>
       </c>
       <c r="C111" t="n">
-        <v>0.22449</v>
+        <v>0.22364</v>
       </c>
       <c r="D111" t="n">
-        <v>0.229041</v>
+        <v>0.229036</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342887</v>
+        <v>0.34311</v>
       </c>
       <c r="C112" t="n">
-        <v>0.222452</v>
+        <v>0.222899</v>
       </c>
       <c r="D112" t="n">
-        <v>0.227812</v>
+        <v>0.227646</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.336015</v>
+        <v>0.335702</v>
       </c>
       <c r="C113" t="n">
-        <v>0.221413</v>
+        <v>0.221374</v>
       </c>
       <c r="D113" t="n">
-        <v>0.227136</v>
+        <v>0.226816</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.328476</v>
+        <v>0.328646</v>
       </c>
       <c r="C114" t="n">
-        <v>0.220238</v>
+        <v>0.220389</v>
       </c>
       <c r="D114" t="n">
-        <v>0.225702</v>
+        <v>0.225781</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.320683</v>
+        <v>0.320542</v>
       </c>
       <c r="C115" t="n">
-        <v>0.21918</v>
+        <v>0.219831</v>
       </c>
       <c r="D115" t="n">
-        <v>0.224906</v>
+        <v>0.224812</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.312276</v>
+        <v>0.31234</v>
       </c>
       <c r="C116" t="n">
-        <v>0.21813</v>
+        <v>0.218593</v>
       </c>
       <c r="D116" t="n">
-        <v>0.224109</v>
+        <v>0.224039</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.303261</v>
+        <v>0.303236</v>
       </c>
       <c r="C117" t="n">
-        <v>0.217182</v>
+        <v>0.217368</v>
       </c>
       <c r="D117" t="n">
-        <v>0.223687</v>
+        <v>0.22366</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.293726</v>
+        <v>0.293363</v>
       </c>
       <c r="C118" t="n">
-        <v>0.216926</v>
+        <v>0.216443</v>
       </c>
       <c r="D118" t="n">
-        <v>0.223089</v>
+        <v>0.22299</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.283464</v>
+        <v>0.283205</v>
       </c>
       <c r="C119" t="n">
-        <v>0.215992</v>
+        <v>0.216042</v>
       </c>
       <c r="D119" t="n">
-        <v>0.222388</v>
+        <v>0.222209</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.272061</v>
+        <v>0.27185</v>
       </c>
       <c r="C120" t="n">
-        <v>0.215809</v>
+        <v>0.215594</v>
       </c>
       <c r="D120" t="n">
-        <v>0.221831</v>
+        <v>0.221765</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.259988</v>
+        <v>0.260132</v>
       </c>
       <c r="C121" t="n">
-        <v>0.215696</v>
+        <v>0.215293</v>
       </c>
       <c r="D121" t="n">
-        <v>0.221021</v>
+        <v>0.221117</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.246766</v>
+        <v>0.246586</v>
       </c>
       <c r="C122" t="n">
-        <v>0.215162</v>
+        <v>0.214988</v>
       </c>
       <c r="D122" t="n">
-        <v>0.220678</v>
+        <v>0.220681</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.231934</v>
+        <v>0.231893</v>
       </c>
       <c r="C123" t="n">
-        <v>0.228964</v>
+        <v>0.229181</v>
       </c>
       <c r="D123" t="n">
-        <v>0.233398</v>
+        <v>0.232659</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356865</v>
+        <v>0.356436</v>
       </c>
       <c r="C124" t="n">
-        <v>0.226803</v>
+        <v>0.227687</v>
       </c>
       <c r="D124" t="n">
-        <v>0.231763</v>
+        <v>0.231982</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.351036</v>
+        <v>0.350772</v>
       </c>
       <c r="C125" t="n">
-        <v>0.224773</v>
+        <v>0.225638</v>
       </c>
       <c r="D125" t="n">
-        <v>0.230493</v>
+        <v>0.229829</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.344532</v>
+        <v>0.344079</v>
       </c>
       <c r="C126" t="n">
-        <v>0.224558</v>
+        <v>0.22526</v>
       </c>
       <c r="D126" t="n">
-        <v>0.228733</v>
+        <v>0.228508</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.337944</v>
+        <v>0.337868</v>
       </c>
       <c r="C127" t="n">
-        <v>0.222203</v>
+        <v>0.223563</v>
       </c>
       <c r="D127" t="n">
-        <v>0.227636</v>
+        <v>0.227739</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.330496</v>
+        <v>0.330192</v>
       </c>
       <c r="C128" t="n">
-        <v>0.222403</v>
+        <v>0.222065</v>
       </c>
       <c r="D128" t="n">
-        <v>0.226497</v>
+        <v>0.226267</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.322617</v>
+        <v>0.322435</v>
       </c>
       <c r="C129" t="n">
-        <v>0.220139</v>
+        <v>0.221422</v>
       </c>
       <c r="D129" t="n">
-        <v>0.225724</v>
+        <v>0.225851</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.314481</v>
+        <v>0.314274</v>
       </c>
       <c r="C130" t="n">
-        <v>0.21929</v>
+        <v>0.219275</v>
       </c>
       <c r="D130" t="n">
-        <v>0.224236</v>
+        <v>0.224053</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.305394</v>
+        <v>0.305561</v>
       </c>
       <c r="C131" t="n">
-        <v>0.218303</v>
+        <v>0.217797</v>
       </c>
       <c r="D131" t="n">
-        <v>0.223516</v>
+        <v>0.22433</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.296016</v>
+        <v>0.296246</v>
       </c>
       <c r="C132" t="n">
-        <v>0.218897</v>
+        <v>0.217802</v>
       </c>
       <c r="D132" t="n">
-        <v>0.223378</v>
+        <v>0.223116</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.285955</v>
+        <v>0.285546</v>
       </c>
       <c r="C133" t="n">
-        <v>0.217216</v>
+        <v>0.217518</v>
       </c>
       <c r="D133" t="n">
-        <v>0.222788</v>
+        <v>0.222759</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.274935</v>
+        <v>0.274082</v>
       </c>
       <c r="C134" t="n">
-        <v>0.218028</v>
+        <v>0.216735</v>
       </c>
       <c r="D134" t="n">
-        <v>0.221715</v>
+        <v>0.221514</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.262543</v>
+        <v>0.262831</v>
       </c>
       <c r="C135" t="n">
-        <v>0.21668</v>
+        <v>0.2162</v>
       </c>
       <c r="D135" t="n">
-        <v>0.220986</v>
+        <v>0.221122</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.249516</v>
+        <v>0.249628</v>
       </c>
       <c r="C136" t="n">
-        <v>0.217683</v>
+        <v>0.216393</v>
       </c>
       <c r="D136" t="n">
-        <v>0.220908</v>
+        <v>0.222246</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235544</v>
+        <v>0.235345</v>
       </c>
       <c r="C137" t="n">
-        <v>0.230531</v>
+        <v>0.231813</v>
       </c>
       <c r="D137" t="n">
-        <v>0.236324</v>
+        <v>0.236443</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.358187</v>
+        <v>0.358592</v>
       </c>
       <c r="C138" t="n">
-        <v>0.230159</v>
+        <v>0.231774</v>
       </c>
       <c r="D138" t="n">
-        <v>0.235001</v>
+        <v>0.233006</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.352716</v>
+        <v>0.352383</v>
       </c>
       <c r="C139" t="n">
-        <v>0.226908</v>
+        <v>0.228601</v>
       </c>
       <c r="D139" t="n">
-        <v>0.233667</v>
+        <v>0.233032</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.346284</v>
+        <v>0.346236</v>
       </c>
       <c r="C140" t="n">
-        <v>0.226955</v>
+        <v>0.227138</v>
       </c>
       <c r="D140" t="n">
-        <v>0.231719</v>
+        <v>0.230777</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.339588</v>
+        <v>0.339502</v>
       </c>
       <c r="C141" t="n">
-        <v>0.226234</v>
+        <v>0.225116</v>
       </c>
       <c r="D141" t="n">
-        <v>0.230725</v>
+        <v>0.231349</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.332263</v>
+        <v>0.332122</v>
       </c>
       <c r="C142" t="n">
-        <v>0.224497</v>
+        <v>0.225296</v>
       </c>
       <c r="D142" t="n">
-        <v>0.228847</v>
+        <v>0.230088</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.324612</v>
+        <v>0.324172</v>
       </c>
       <c r="C143" t="n">
-        <v>0.221287</v>
+        <v>0.225816</v>
       </c>
       <c r="D143" t="n">
-        <v>0.228231</v>
+        <v>0.228168</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.304502</v>
+        <v>0.298563</v>
       </c>
       <c r="C2" t="n">
-        <v>0.203703</v>
+        <v>0.203048</v>
       </c>
       <c r="D2" t="n">
-        <v>0.203709</v>
+        <v>0.417144</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.296831</v>
+        <v>0.288956</v>
       </c>
       <c r="C3" t="n">
-        <v>0.202756</v>
+        <v>0.202898</v>
       </c>
       <c r="D3" t="n">
-        <v>0.204764</v>
+        <v>0.420599</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.286563</v>
+        <v>0.277927</v>
       </c>
       <c r="C4" t="n">
-        <v>0.204391</v>
+        <v>0.204559</v>
       </c>
       <c r="D4" t="n">
-        <v>0.205906</v>
+        <v>0.419695</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.277547</v>
+        <v>0.267469</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205988</v>
+        <v>0.205457</v>
       </c>
       <c r="D5" t="n">
-        <v>0.206165</v>
+        <v>0.420206</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.264542</v>
+        <v>0.257215</v>
       </c>
       <c r="C6" t="n">
-        <v>0.205906</v>
+        <v>0.205997</v>
       </c>
       <c r="D6" t="n">
-        <v>0.206812</v>
+        <v>0.421962</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.251444</v>
+        <v>0.240792</v>
       </c>
       <c r="C7" t="n">
-        <v>0.205769</v>
+        <v>0.205923</v>
       </c>
       <c r="D7" t="n">
-        <v>0.208144</v>
+        <v>0.417774</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.239529</v>
+        <v>0.229192</v>
       </c>
       <c r="C8" t="n">
-        <v>0.206913</v>
+        <v>0.207664</v>
       </c>
       <c r="D8" t="n">
-        <v>0.209349</v>
+        <v>0.419264</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.225017</v>
+        <v>0.217317</v>
       </c>
       <c r="C9" t="n">
-        <v>0.220951</v>
+        <v>0.221188</v>
       </c>
       <c r="D9" t="n">
-        <v>0.234466</v>
+        <v>0.422776</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.353021</v>
+        <v>0.343186</v>
       </c>
       <c r="C10" t="n">
-        <v>0.227691</v>
+        <v>0.220784</v>
       </c>
       <c r="D10" t="n">
-        <v>0.223914</v>
+        <v>0.421519</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.347701</v>
+        <v>0.338872</v>
       </c>
       <c r="C11" t="n">
-        <v>0.219425</v>
+        <v>0.219332</v>
       </c>
       <c r="D11" t="n">
-        <v>0.223157</v>
+        <v>0.422242</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.340535</v>
+        <v>0.332757</v>
       </c>
       <c r="C12" t="n">
-        <v>0.21875</v>
+        <v>0.218593</v>
       </c>
       <c r="D12" t="n">
-        <v>0.222562</v>
+        <v>0.42352</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.333578</v>
+        <v>0.326813</v>
       </c>
       <c r="C13" t="n">
-        <v>0.217594</v>
+        <v>0.2179</v>
       </c>
       <c r="D13" t="n">
-        <v>0.220449</v>
+        <v>0.422614</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.328074</v>
+        <v>0.318754</v>
       </c>
       <c r="C14" t="n">
-        <v>0.216263</v>
+        <v>0.216447</v>
       </c>
       <c r="D14" t="n">
-        <v>0.220084</v>
+        <v>0.424071</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.320811</v>
+        <v>0.311397</v>
       </c>
       <c r="C15" t="n">
-        <v>0.21569</v>
+        <v>0.216687</v>
       </c>
       <c r="D15" t="n">
-        <v>0.220417</v>
+        <v>0.427056</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.316591</v>
+        <v>0.304823</v>
       </c>
       <c r="C16" t="n">
-        <v>0.215355</v>
+        <v>0.21625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.220481</v>
+        <v>0.427747</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.304387</v>
+        <v>0.295454</v>
       </c>
       <c r="C17" t="n">
-        <v>0.214327</v>
+        <v>0.214903</v>
       </c>
       <c r="D17" t="n">
-        <v>0.220222</v>
+        <v>0.428388</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.295516</v>
+        <v>0.286497</v>
       </c>
       <c r="C18" t="n">
-        <v>0.214333</v>
+        <v>0.214858</v>
       </c>
       <c r="D18" t="n">
-        <v>0.220292</v>
+        <v>0.427807</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.286507</v>
+        <v>0.277423</v>
       </c>
       <c r="C19" t="n">
-        <v>0.213287</v>
+        <v>0.214033</v>
       </c>
       <c r="D19" t="n">
-        <v>0.225247</v>
+        <v>0.427951</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.274704</v>
+        <v>0.267038</v>
       </c>
       <c r="C20" t="n">
-        <v>0.213993</v>
+        <v>0.213898</v>
       </c>
       <c r="D20" t="n">
-        <v>0.219049</v>
+        <v>0.43194</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.268736</v>
+        <v>0.254914</v>
       </c>
       <c r="C21" t="n">
-        <v>0.217466</v>
+        <v>0.213608</v>
       </c>
       <c r="D21" t="n">
-        <v>0.218858</v>
+        <v>0.42607</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248765</v>
+        <v>0.240077</v>
       </c>
       <c r="C22" t="n">
-        <v>0.212684</v>
+        <v>0.212988</v>
       </c>
       <c r="D22" t="n">
-        <v>0.21829</v>
+        <v>0.42647</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.23541</v>
+        <v>0.224565</v>
       </c>
       <c r="C23" t="n">
-        <v>0.224853</v>
+        <v>0.224373</v>
       </c>
       <c r="D23" t="n">
-        <v>0.230014</v>
+        <v>0.425704</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.356226</v>
+        <v>0.346649</v>
       </c>
       <c r="C24" t="n">
-        <v>0.22405</v>
+        <v>0.223346</v>
       </c>
       <c r="D24" t="n">
-        <v>0.229678</v>
+        <v>0.42788</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.350401</v>
+        <v>0.341632</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222554</v>
+        <v>0.222144</v>
       </c>
       <c r="D25" t="n">
-        <v>0.228477</v>
+        <v>0.428929</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.344157</v>
+        <v>0.336223</v>
       </c>
       <c r="C26" t="n">
-        <v>0.221554</v>
+        <v>0.22153</v>
       </c>
       <c r="D26" t="n">
-        <v>0.227954</v>
+        <v>0.430309</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.337351</v>
+        <v>0.3295</v>
       </c>
       <c r="C27" t="n">
-        <v>0.220404</v>
+        <v>0.220252</v>
       </c>
       <c r="D27" t="n">
-        <v>0.227469</v>
+        <v>0.430029</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.329487</v>
+        <v>0.32134</v>
       </c>
       <c r="C28" t="n">
-        <v>0.219527</v>
+        <v>0.218875</v>
       </c>
       <c r="D28" t="n">
-        <v>0.226306</v>
+        <v>0.428711</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.323171</v>
+        <v>0.315</v>
       </c>
       <c r="C29" t="n">
-        <v>0.218856</v>
+        <v>0.218867</v>
       </c>
       <c r="D29" t="n">
-        <v>0.225783</v>
+        <v>0.429452</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.31461</v>
+        <v>0.307137</v>
       </c>
       <c r="C30" t="n">
-        <v>0.218156</v>
+        <v>0.217962</v>
       </c>
       <c r="D30" t="n">
-        <v>0.224501</v>
+        <v>0.428527</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.306328</v>
+        <v>0.298933</v>
       </c>
       <c r="C31" t="n">
-        <v>0.217526</v>
+        <v>0.21743</v>
       </c>
       <c r="D31" t="n">
-        <v>0.223488</v>
+        <v>0.429028</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.297211</v>
+        <v>0.290006</v>
       </c>
       <c r="C32" t="n">
-        <v>0.216963</v>
+        <v>0.216671</v>
       </c>
       <c r="D32" t="n">
-        <v>0.222987</v>
+        <v>0.429148</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.287936</v>
+        <v>0.280482</v>
       </c>
       <c r="C33" t="n">
-        <v>0.215959</v>
+        <v>0.21592</v>
       </c>
       <c r="D33" t="n">
-        <v>0.221779</v>
+        <v>0.430362</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.277756</v>
+        <v>0.269477</v>
       </c>
       <c r="C34" t="n">
-        <v>0.215326</v>
+        <v>0.21557</v>
       </c>
       <c r="D34" t="n">
-        <v>0.221607</v>
+        <v>0.429706</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.266904</v>
+        <v>0.258937</v>
       </c>
       <c r="C35" t="n">
-        <v>0.215024</v>
+        <v>0.214706</v>
       </c>
       <c r="D35" t="n">
-        <v>0.221242</v>
+        <v>0.428895</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.252865</v>
+        <v>0.246175</v>
       </c>
       <c r="C36" t="n">
-        <v>0.214486</v>
+        <v>0.214157</v>
       </c>
       <c r="D36" t="n">
-        <v>0.219938</v>
+        <v>0.428171</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.239527</v>
+        <v>0.232121</v>
       </c>
       <c r="C37" t="n">
-        <v>0.226154</v>
+        <v>0.226458</v>
       </c>
       <c r="D37" t="n">
-        <v>0.232231</v>
+        <v>0.4285</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.357961</v>
+        <v>0.348705</v>
       </c>
       <c r="C38" t="n">
-        <v>0.224762</v>
+        <v>0.224462</v>
       </c>
       <c r="D38" t="n">
-        <v>0.230175</v>
+        <v>0.428525</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.352482</v>
+        <v>0.344147</v>
       </c>
       <c r="C39" t="n">
-        <v>0.222867</v>
+        <v>0.222954</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2291</v>
+        <v>0.428693</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.346147</v>
+        <v>0.338168</v>
       </c>
       <c r="C40" t="n">
-        <v>0.222026</v>
+        <v>0.221875</v>
       </c>
       <c r="D40" t="n">
-        <v>0.227896</v>
+        <v>0.431286</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.339358</v>
+        <v>0.332494</v>
       </c>
       <c r="C41" t="n">
-        <v>0.220629</v>
+        <v>0.220854</v>
       </c>
       <c r="D41" t="n">
-        <v>0.227329</v>
+        <v>0.433261</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.332756</v>
+        <v>0.32584</v>
       </c>
       <c r="C42" t="n">
-        <v>0.219939</v>
+        <v>0.220104</v>
       </c>
       <c r="D42" t="n">
-        <v>0.225962</v>
+        <v>0.431645</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.324765</v>
+        <v>0.318969</v>
       </c>
       <c r="C43" t="n">
-        <v>0.219156</v>
+        <v>0.21929</v>
       </c>
       <c r="D43" t="n">
-        <v>0.224758</v>
+        <v>0.430074</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.317442</v>
+        <v>0.31116</v>
       </c>
       <c r="C44" t="n">
-        <v>0.218095</v>
+        <v>0.218391</v>
       </c>
       <c r="D44" t="n">
-        <v>0.223973</v>
+        <v>0.431193</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.308676</v>
+        <v>0.302816</v>
       </c>
       <c r="C45" t="n">
-        <v>0.217616</v>
+        <v>0.217513</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2233</v>
+        <v>0.431303</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.299998</v>
+        <v>0.293809</v>
       </c>
       <c r="C46" t="n">
-        <v>0.216201</v>
+        <v>0.216278</v>
       </c>
       <c r="D46" t="n">
-        <v>0.222625</v>
+        <v>0.431928</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.290939</v>
+        <v>0.284698</v>
       </c>
       <c r="C47" t="n">
-        <v>0.21629</v>
+        <v>0.215877</v>
       </c>
       <c r="D47" t="n">
-        <v>0.222379</v>
+        <v>0.433289</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.280206</v>
+        <v>0.274096</v>
       </c>
       <c r="C48" t="n">
-        <v>0.215324</v>
+        <v>0.215332</v>
       </c>
       <c r="D48" t="n">
-        <v>0.221468</v>
+        <v>0.434071</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.269892</v>
+        <v>0.262677</v>
       </c>
       <c r="C49" t="n">
-        <v>0.214899</v>
+        <v>0.214794</v>
       </c>
       <c r="D49" t="n">
-        <v>0.221149</v>
+        <v>0.435376</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.257471</v>
+        <v>0.248995</v>
       </c>
       <c r="C50" t="n">
-        <v>0.214497</v>
+        <v>0.214406</v>
       </c>
       <c r="D50" t="n">
-        <v>0.220194</v>
+        <v>0.435088</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.244315</v>
+        <v>0.235357</v>
       </c>
       <c r="C51" t="n">
-        <v>0.226923</v>
+        <v>0.226124</v>
       </c>
       <c r="D51" t="n">
-        <v>0.232123</v>
+        <v>0.436238</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.229745</v>
+        <v>0.220895</v>
       </c>
       <c r="C52" t="n">
-        <v>0.225112</v>
+        <v>0.224738</v>
       </c>
       <c r="D52" t="n">
-        <v>0.230678</v>
+        <v>0.434167</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.354805</v>
+        <v>0.345905</v>
       </c>
       <c r="C53" t="n">
-        <v>0.223655</v>
+        <v>0.223236</v>
       </c>
       <c r="D53" t="n">
-        <v>0.228928</v>
+        <v>0.437048</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.34886</v>
+        <v>0.341309</v>
       </c>
       <c r="C54" t="n">
-        <v>0.222428</v>
+        <v>0.222336</v>
       </c>
       <c r="D54" t="n">
-        <v>0.227709</v>
+        <v>0.435075</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.342702</v>
+        <v>0.335053</v>
       </c>
       <c r="C55" t="n">
-        <v>0.221115</v>
+        <v>0.220983</v>
       </c>
       <c r="D55" t="n">
-        <v>0.226915</v>
+        <v>0.437483</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.335527</v>
+        <v>0.328295</v>
       </c>
       <c r="C56" t="n">
-        <v>0.22034</v>
+        <v>0.220454</v>
       </c>
       <c r="D56" t="n">
-        <v>0.226118</v>
+        <v>0.436902</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.328265</v>
+        <v>0.321158</v>
       </c>
       <c r="C57" t="n">
-        <v>0.219503</v>
+        <v>0.219325</v>
       </c>
       <c r="D57" t="n">
-        <v>0.225115</v>
+        <v>0.438143</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.321107</v>
+        <v>0.313504</v>
       </c>
       <c r="C58" t="n">
-        <v>0.218269</v>
+        <v>0.218486</v>
       </c>
       <c r="D58" t="n">
-        <v>0.224486</v>
+        <v>0.441375</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.312296</v>
+        <v>0.305438</v>
       </c>
       <c r="C59" t="n">
-        <v>0.217589</v>
+        <v>0.217605</v>
       </c>
       <c r="D59" t="n">
-        <v>0.223657</v>
+        <v>0.445565</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.303026</v>
+        <v>0.296289</v>
       </c>
       <c r="C60" t="n">
-        <v>0.216832</v>
+        <v>0.216923</v>
       </c>
       <c r="D60" t="n">
-        <v>0.223104</v>
+        <v>0.446199</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.293233</v>
+        <v>0.287292</v>
       </c>
       <c r="C61" t="n">
-        <v>0.21628</v>
+        <v>0.21617</v>
       </c>
       <c r="D61" t="n">
-        <v>0.222123</v>
+        <v>0.450668</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.282925</v>
+        <v>0.276992</v>
       </c>
       <c r="C62" t="n">
-        <v>0.215758</v>
+        <v>0.215569</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2215</v>
+        <v>0.453591</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.271766</v>
+        <v>0.265152</v>
       </c>
       <c r="C63" t="n">
-        <v>0.214887</v>
+        <v>0.214882</v>
       </c>
       <c r="D63" t="n">
-        <v>0.22071</v>
+        <v>0.458413</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.260111</v>
+        <v>0.252514</v>
       </c>
       <c r="C64" t="n">
-        <v>0.214751</v>
+        <v>0.214757</v>
       </c>
       <c r="D64" t="n">
-        <v>0.220315</v>
+        <v>0.495585</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.246923</v>
+        <v>0.238979</v>
       </c>
       <c r="C65" t="n">
-        <v>0.214377</v>
+        <v>0.214236</v>
       </c>
       <c r="D65" t="n">
-        <v>0.219716</v>
+        <v>0.495604</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.232538</v>
+        <v>0.224441</v>
       </c>
       <c r="C66" t="n">
-        <v>0.225945</v>
+        <v>0.22568</v>
       </c>
       <c r="D66" t="n">
-        <v>0.23125</v>
+        <v>0.504256</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.356263</v>
+        <v>0.347613</v>
       </c>
       <c r="C67" t="n">
-        <v>0.224782</v>
+        <v>0.224292</v>
       </c>
       <c r="D67" t="n">
-        <v>0.230055</v>
+        <v>0.513347</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350493</v>
+        <v>0.342173</v>
       </c>
       <c r="C68" t="n">
-        <v>0.223271</v>
+        <v>0.223231</v>
       </c>
       <c r="D68" t="n">
-        <v>0.228757</v>
+        <v>0.515778</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.344135</v>
+        <v>0.336169</v>
       </c>
       <c r="C69" t="n">
-        <v>0.222055</v>
+        <v>0.222103</v>
       </c>
       <c r="D69" t="n">
-        <v>0.227682</v>
+        <v>0.522733</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.337544</v>
+        <v>0.329964</v>
       </c>
       <c r="C70" t="n">
-        <v>0.220827</v>
+        <v>0.220729</v>
       </c>
       <c r="D70" t="n">
-        <v>0.226534</v>
+        <v>0.53225</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.330196</v>
+        <v>0.322778</v>
       </c>
       <c r="C71" t="n">
-        <v>0.21988</v>
+        <v>0.219843</v>
       </c>
       <c r="D71" t="n">
-        <v>0.225541</v>
+        <v>0.5300010000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.323369</v>
+        <v>0.315295</v>
       </c>
       <c r="C72" t="n">
-        <v>0.218995</v>
+        <v>0.219047</v>
       </c>
       <c r="D72" t="n">
-        <v>0.224741</v>
+        <v>0.539917</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.314773</v>
+        <v>0.307689</v>
       </c>
       <c r="C73" t="n">
-        <v>0.218087</v>
+        <v>0.218245</v>
       </c>
       <c r="D73" t="n">
-        <v>0.223973</v>
+        <v>0.53961</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.30621</v>
+        <v>0.298791</v>
       </c>
       <c r="C74" t="n">
-        <v>0.217393</v>
+        <v>0.217418</v>
       </c>
       <c r="D74" t="n">
-        <v>0.223222</v>
+        <v>0.544136</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.297096</v>
+        <v>0.289626</v>
       </c>
       <c r="C75" t="n">
-        <v>0.216546</v>
+        <v>0.216463</v>
       </c>
       <c r="D75" t="n">
-        <v>0.222506</v>
+        <v>0.545542</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.287135</v>
+        <v>0.2799</v>
       </c>
       <c r="C76" t="n">
-        <v>0.216205</v>
+        <v>0.216063</v>
       </c>
       <c r="D76" t="n">
-        <v>0.222037</v>
+        <v>0.546274</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.276339</v>
+        <v>0.268267</v>
       </c>
       <c r="C77" t="n">
-        <v>0.215515</v>
+        <v>0.215267</v>
       </c>
       <c r="D77" t="n">
-        <v>0.221408</v>
+        <v>0.54718</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.263677</v>
+        <v>0.255632</v>
       </c>
       <c r="C78" t="n">
-        <v>0.215168</v>
+        <v>0.214877</v>
       </c>
       <c r="D78" t="n">
-        <v>0.220907</v>
+        <v>0.621348</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.251159</v>
+        <v>0.242569</v>
       </c>
       <c r="C79" t="n">
-        <v>0.214828</v>
+        <v>0.214515</v>
       </c>
       <c r="D79" t="n">
-        <v>0.220604</v>
+        <v>0.622739</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.236573</v>
+        <v>0.228592</v>
       </c>
       <c r="C80" t="n">
-        <v>0.227784</v>
+        <v>0.227224</v>
       </c>
       <c r="D80" t="n">
-        <v>0.233421</v>
+        <v>0.623234</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.358508</v>
+        <v>0.349197</v>
       </c>
       <c r="C81" t="n">
-        <v>0.225704</v>
+        <v>0.225385</v>
       </c>
       <c r="D81" t="n">
-        <v>0.231537</v>
+        <v>0.620845</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.35262</v>
+        <v>0.344003</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224069</v>
+        <v>0.223949</v>
       </c>
       <c r="D82" t="n">
-        <v>0.230038</v>
+        <v>0.624318</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.346125</v>
+        <v>0.338064</v>
       </c>
       <c r="C83" t="n">
-        <v>0.222651</v>
+        <v>0.222576</v>
       </c>
       <c r="D83" t="n">
-        <v>0.228656</v>
+        <v>0.621333</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.339518</v>
+        <v>0.331666</v>
       </c>
       <c r="C84" t="n">
-        <v>0.221324</v>
+        <v>0.221291</v>
       </c>
       <c r="D84" t="n">
-        <v>0.227537</v>
+        <v>0.613935</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.332468</v>
+        <v>0.324952</v>
       </c>
       <c r="C85" t="n">
-        <v>0.220278</v>
+        <v>0.220367</v>
       </c>
       <c r="D85" t="n">
-        <v>0.226237</v>
+        <v>0.614377</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.324973</v>
+        <v>0.317632</v>
       </c>
       <c r="C86" t="n">
-        <v>0.219383</v>
+        <v>0.219446</v>
       </c>
       <c r="D86" t="n">
-        <v>0.225155</v>
+        <v>0.606775</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.316615</v>
+        <v>0.309773</v>
       </c>
       <c r="C87" t="n">
-        <v>0.218336</v>
+        <v>0.218339</v>
       </c>
       <c r="D87" t="n">
-        <v>0.224324</v>
+        <v>0.606263</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.308087</v>
+        <v>0.301346</v>
       </c>
       <c r="C88" t="n">
-        <v>0.217514</v>
+        <v>0.217484</v>
       </c>
       <c r="D88" t="n">
-        <v>0.223612</v>
+        <v>0.598285</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.298761</v>
+        <v>0.292123</v>
       </c>
       <c r="C89" t="n">
-        <v>0.21683</v>
+        <v>0.216809</v>
       </c>
       <c r="D89" t="n">
-        <v>0.222761</v>
+        <v>0.595686</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.289122</v>
+        <v>0.282457</v>
       </c>
       <c r="C90" t="n">
-        <v>0.216074</v>
+        <v>0.216079</v>
       </c>
       <c r="D90" t="n">
-        <v>0.222135</v>
+        <v>0.590787</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.278162</v>
+        <v>0.271731</v>
       </c>
       <c r="C91" t="n">
-        <v>0.215742</v>
+        <v>0.215547</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221525</v>
+        <v>0.587129</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.266296</v>
+        <v>0.259583</v>
       </c>
       <c r="C92" t="n">
-        <v>0.215258</v>
+        <v>0.215145</v>
       </c>
       <c r="D92" t="n">
-        <v>0.220927</v>
+        <v>0.6243570000000001</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.253809</v>
+        <v>0.246704</v>
       </c>
       <c r="C93" t="n">
-        <v>0.214925</v>
+        <v>0.214678</v>
       </c>
       <c r="D93" t="n">
-        <v>0.220706</v>
+        <v>0.616333</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.240128</v>
+        <v>0.232785</v>
       </c>
       <c r="C94" t="n">
-        <v>0.228729</v>
+        <v>0.228351</v>
       </c>
       <c r="D94" t="n">
-        <v>0.233735</v>
+        <v>0.615322</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.359908</v>
+        <v>0.350914</v>
       </c>
       <c r="C95" t="n">
-        <v>0.226378</v>
+        <v>0.226261</v>
       </c>
       <c r="D95" t="n">
-        <v>0.231838</v>
+        <v>0.613605</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.353754</v>
+        <v>0.346151</v>
       </c>
       <c r="C96" t="n">
-        <v>0.224908</v>
+        <v>0.224694</v>
       </c>
       <c r="D96" t="n">
-        <v>0.230242</v>
+        <v>0.609723</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.348081</v>
+        <v>0.340174</v>
       </c>
       <c r="C97" t="n">
-        <v>0.223383</v>
+        <v>0.223306</v>
       </c>
       <c r="D97" t="n">
-        <v>0.228908</v>
+        <v>0.606992</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.34168</v>
+        <v>0.333674</v>
       </c>
       <c r="C98" t="n">
-        <v>0.222013</v>
+        <v>0.221897</v>
       </c>
       <c r="D98" t="n">
-        <v>0.227605</v>
+        <v>0.60355</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.334595</v>
+        <v>0.326758</v>
       </c>
       <c r="C99" t="n">
-        <v>0.220799</v>
+        <v>0.220761</v>
       </c>
       <c r="D99" t="n">
-        <v>0.226324</v>
+        <v>0.599823</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.326872</v>
+        <v>0.319524</v>
       </c>
       <c r="C100" t="n">
-        <v>0.219742</v>
+        <v>0.219645</v>
       </c>
       <c r="D100" t="n">
-        <v>0.225361</v>
+        <v>0.595185</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.318931</v>
+        <v>0.31174</v>
       </c>
       <c r="C101" t="n">
-        <v>0.218816</v>
+        <v>0.218614</v>
       </c>
       <c r="D101" t="n">
-        <v>0.224552</v>
+        <v>0.59179</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.310242</v>
+        <v>0.303383</v>
       </c>
       <c r="C102" t="n">
-        <v>0.217805</v>
+        <v>0.217643</v>
       </c>
       <c r="D102" t="n">
-        <v>0.223695</v>
+        <v>0.5868370000000001</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.300987</v>
+        <v>0.294476</v>
       </c>
       <c r="C103" t="n">
-        <v>0.217008</v>
+        <v>0.21694</v>
       </c>
       <c r="D103" t="n">
-        <v>0.222963</v>
+        <v>0.582052</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.291282</v>
+        <v>0.284664</v>
       </c>
       <c r="C104" t="n">
-        <v>0.216567</v>
+        <v>0.216257</v>
       </c>
       <c r="D104" t="n">
-        <v>0.222201</v>
+        <v>0.579027</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.280707</v>
+        <v>0.273981</v>
       </c>
       <c r="C105" t="n">
-        <v>0.215945</v>
+        <v>0.215667</v>
       </c>
       <c r="D105" t="n">
-        <v>0.221657</v>
+        <v>0.5741889999999999</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.269144</v>
+        <v>0.262596</v>
       </c>
       <c r="C106" t="n">
-        <v>0.215304</v>
+        <v>0.215714</v>
       </c>
       <c r="D106" t="n">
-        <v>0.221101</v>
+        <v>0.569767</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.256643</v>
+        <v>0.249789</v>
       </c>
       <c r="C107" t="n">
-        <v>0.215112</v>
+        <v>0.214737</v>
       </c>
       <c r="D107" t="n">
-        <v>0.22055</v>
+        <v>0.61417</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.242954</v>
+        <v>0.23563</v>
       </c>
       <c r="C108" t="n">
-        <v>0.229512</v>
+        <v>0.228906</v>
       </c>
       <c r="D108" t="n">
-        <v>0.234109</v>
+        <v>0.613588</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.228461</v>
+        <v>0.220538</v>
       </c>
       <c r="C109" t="n">
-        <v>0.227378</v>
+        <v>0.2268</v>
       </c>
       <c r="D109" t="n">
-        <v>0.231908</v>
+        <v>0.612128</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355453</v>
+        <v>0.346801</v>
       </c>
       <c r="C110" t="n">
-        <v>0.225452</v>
+        <v>0.225006</v>
       </c>
       <c r="D110" t="n">
-        <v>0.23031</v>
+        <v>0.609947</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.349212</v>
+        <v>0.340941</v>
       </c>
       <c r="C111" t="n">
-        <v>0.22364</v>
+        <v>0.223488</v>
       </c>
       <c r="D111" t="n">
-        <v>0.229036</v>
+        <v>0.606221</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.34311</v>
+        <v>0.33456</v>
       </c>
       <c r="C112" t="n">
-        <v>0.222899</v>
+        <v>0.221997</v>
       </c>
       <c r="D112" t="n">
-        <v>0.227646</v>
+        <v>0.602808</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.335702</v>
+        <v>0.328019</v>
       </c>
       <c r="C113" t="n">
-        <v>0.221374</v>
+        <v>0.220853</v>
       </c>
       <c r="D113" t="n">
-        <v>0.226816</v>
+        <v>0.599898</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.328646</v>
+        <v>0.320631</v>
       </c>
       <c r="C114" t="n">
-        <v>0.220389</v>
+        <v>0.219843</v>
       </c>
       <c r="D114" t="n">
-        <v>0.225781</v>
+        <v>0.596159</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.320542</v>
+        <v>0.313205</v>
       </c>
       <c r="C115" t="n">
-        <v>0.219831</v>
+        <v>0.218837</v>
       </c>
       <c r="D115" t="n">
-        <v>0.224812</v>
+        <v>0.589666</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.31234</v>
+        <v>0.305055</v>
       </c>
       <c r="C116" t="n">
-        <v>0.218593</v>
+        <v>0.217847</v>
       </c>
       <c r="D116" t="n">
-        <v>0.224039</v>
+        <v>0.5857830000000001</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.303236</v>
+        <v>0.296463</v>
       </c>
       <c r="C117" t="n">
-        <v>0.217368</v>
+        <v>0.217015</v>
       </c>
       <c r="D117" t="n">
-        <v>0.22366</v>
+        <v>0.581808</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.293363</v>
+        <v>0.286836</v>
       </c>
       <c r="C118" t="n">
-        <v>0.216443</v>
+        <v>0.216341</v>
       </c>
       <c r="D118" t="n">
-        <v>0.22299</v>
+        <v>0.577623</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.283205</v>
+        <v>0.276215</v>
       </c>
       <c r="C119" t="n">
-        <v>0.216042</v>
+        <v>0.215737</v>
       </c>
       <c r="D119" t="n">
-        <v>0.222209</v>
+        <v>0.57473</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.27185</v>
+        <v>0.264798</v>
       </c>
       <c r="C120" t="n">
-        <v>0.215594</v>
+        <v>0.215289</v>
       </c>
       <c r="D120" t="n">
-        <v>0.221765</v>
+        <v>0.569601</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.260132</v>
+        <v>0.252458</v>
       </c>
       <c r="C121" t="n">
-        <v>0.215293</v>
+        <v>0.214779</v>
       </c>
       <c r="D121" t="n">
-        <v>0.221117</v>
+        <v>0.631279</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.246586</v>
+        <v>0.238915</v>
       </c>
       <c r="C122" t="n">
-        <v>0.214988</v>
+        <v>0.214544</v>
       </c>
       <c r="D122" t="n">
-        <v>0.220681</v>
+        <v>0.630203</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.231893</v>
+        <v>0.224106</v>
       </c>
       <c r="C123" t="n">
-        <v>0.229181</v>
+        <v>0.227042</v>
       </c>
       <c r="D123" t="n">
-        <v>0.232659</v>
+        <v>0.627745</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356436</v>
+        <v>0.347933</v>
       </c>
       <c r="C124" t="n">
-        <v>0.227687</v>
+        <v>0.225239</v>
       </c>
       <c r="D124" t="n">
-        <v>0.231982</v>
+        <v>0.623787</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350772</v>
+        <v>0.342249</v>
       </c>
       <c r="C125" t="n">
-        <v>0.225638</v>
+        <v>0.223713</v>
       </c>
       <c r="D125" t="n">
-        <v>0.229829</v>
+        <v>0.619806</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.344079</v>
+        <v>0.336036</v>
       </c>
       <c r="C126" t="n">
-        <v>0.22526</v>
+        <v>0.222241</v>
       </c>
       <c r="D126" t="n">
-        <v>0.228508</v>
+        <v>0.615963</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.337868</v>
+        <v>0.329373</v>
       </c>
       <c r="C127" t="n">
-        <v>0.223563</v>
+        <v>0.22138</v>
       </c>
       <c r="D127" t="n">
-        <v>0.227739</v>
+        <v>0.611246</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.330192</v>
+        <v>0.322737</v>
       </c>
       <c r="C128" t="n">
-        <v>0.222065</v>
+        <v>0.220068</v>
       </c>
       <c r="D128" t="n">
-        <v>0.226267</v>
+        <v>0.605436</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.322435</v>
+        <v>0.314983</v>
       </c>
       <c r="C129" t="n">
-        <v>0.221422</v>
+        <v>0.220137</v>
       </c>
       <c r="D129" t="n">
-        <v>0.225851</v>
+        <v>0.599643</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.314274</v>
+        <v>0.306653</v>
       </c>
       <c r="C130" t="n">
-        <v>0.219275</v>
+        <v>0.218013</v>
       </c>
       <c r="D130" t="n">
-        <v>0.224053</v>
+        <v>0.5952460000000001</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.305561</v>
+        <v>0.297923</v>
       </c>
       <c r="C131" t="n">
-        <v>0.217797</v>
+        <v>0.217234</v>
       </c>
       <c r="D131" t="n">
-        <v>0.22433</v>
+        <v>0.589668</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.296246</v>
+        <v>0.288327</v>
       </c>
       <c r="C132" t="n">
-        <v>0.217802</v>
+        <v>0.216486</v>
       </c>
       <c r="D132" t="n">
-        <v>0.223116</v>
+        <v>0.585406</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.285546</v>
+        <v>0.278638</v>
       </c>
       <c r="C133" t="n">
-        <v>0.217518</v>
+        <v>0.216366</v>
       </c>
       <c r="D133" t="n">
-        <v>0.222759</v>
+        <v>0.58042</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.274082</v>
+        <v>0.266936</v>
       </c>
       <c r="C134" t="n">
-        <v>0.216735</v>
+        <v>0.215281</v>
       </c>
       <c r="D134" t="n">
-        <v>0.221514</v>
+        <v>0.575999</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.262831</v>
+        <v>0.25458</v>
       </c>
       <c r="C135" t="n">
-        <v>0.2162</v>
+        <v>0.214945</v>
       </c>
       <c r="D135" t="n">
-        <v>0.221122</v>
+        <v>0.637466</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.249628</v>
+        <v>0.241779</v>
       </c>
       <c r="C136" t="n">
-        <v>0.216393</v>
+        <v>0.214751</v>
       </c>
       <c r="D136" t="n">
-        <v>0.222246</v>
+        <v>0.634567</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235345</v>
+        <v>0.227204</v>
       </c>
       <c r="C137" t="n">
-        <v>0.231813</v>
+        <v>0.228332</v>
       </c>
       <c r="D137" t="n">
-        <v>0.236443</v>
+        <v>0.633003</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.358592</v>
+        <v>0.349733</v>
       </c>
       <c r="C138" t="n">
-        <v>0.231774</v>
+        <v>0.225685</v>
       </c>
       <c r="D138" t="n">
-        <v>0.233006</v>
+        <v>0.628744</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.352383</v>
+        <v>0.344008</v>
       </c>
       <c r="C139" t="n">
-        <v>0.228601</v>
+        <v>0.224483</v>
       </c>
       <c r="D139" t="n">
-        <v>0.233032</v>
+        <v>0.6255810000000001</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.346236</v>
+        <v>0.338327</v>
       </c>
       <c r="C140" t="n">
-        <v>0.227138</v>
+        <v>0.222547</v>
       </c>
       <c r="D140" t="n">
-        <v>0.230777</v>
+        <v>0.620743</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.339502</v>
+        <v>0.332599</v>
       </c>
       <c r="C141" t="n">
-        <v>0.225116</v>
+        <v>0.22197</v>
       </c>
       <c r="D141" t="n">
-        <v>0.231349</v>
+        <v>0.615663</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.332122</v>
+        <v>0.324981</v>
       </c>
       <c r="C142" t="n">
-        <v>0.225296</v>
+        <v>0.221169</v>
       </c>
       <c r="D142" t="n">
-        <v>0.230088</v>
+        <v>0.6100719999999999</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.324172</v>
+        <v>0.317083</v>
       </c>
       <c r="C143" t="n">
-        <v>0.225816</v>
+        <v>0.221599</v>
       </c>
       <c r="D143" t="n">
-        <v>0.228168</v>
+        <v>0.606993</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.304502</v>
+        <v>0.298981</v>
       </c>
       <c r="C2" t="n">
-        <v>0.203703</v>
+        <v>0.203818</v>
       </c>
       <c r="D2" t="n">
-        <v>0.203709</v>
+        <v>0.202823</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.296831</v>
+        <v>0.289583</v>
       </c>
       <c r="C3" t="n">
-        <v>0.202756</v>
+        <v>0.204457</v>
       </c>
       <c r="D3" t="n">
-        <v>0.204764</v>
+        <v>0.202964</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.286563</v>
+        <v>0.279511</v>
       </c>
       <c r="C4" t="n">
-        <v>0.204391</v>
+        <v>0.204665</v>
       </c>
       <c r="D4" t="n">
-        <v>0.205906</v>
+        <v>0.203468</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.277547</v>
+        <v>0.269834</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205988</v>
+        <v>0.205992</v>
       </c>
       <c r="D5" t="n">
-        <v>0.206165</v>
+        <v>0.204834</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.264542</v>
+        <v>0.257262</v>
       </c>
       <c r="C6" t="n">
-        <v>0.205906</v>
+        <v>0.208364</v>
       </c>
       <c r="D6" t="n">
-        <v>0.206812</v>
+        <v>0.204702</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.251444</v>
+        <v>0.243143</v>
       </c>
       <c r="C7" t="n">
-        <v>0.205769</v>
+        <v>0.206469</v>
       </c>
       <c r="D7" t="n">
-        <v>0.208144</v>
+        <v>0.206327</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.239529</v>
+        <v>0.231589</v>
       </c>
       <c r="C8" t="n">
-        <v>0.206913</v>
+        <v>0.208547</v>
       </c>
       <c r="D8" t="n">
-        <v>0.209349</v>
+        <v>0.20684</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.225017</v>
+        <v>0.221424</v>
       </c>
       <c r="C9" t="n">
-        <v>0.220951</v>
+        <v>0.222252</v>
       </c>
       <c r="D9" t="n">
-        <v>0.234466</v>
+        <v>0.224336</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.353021</v>
+        <v>0.345938</v>
       </c>
       <c r="C10" t="n">
-        <v>0.227691</v>
+        <v>0.221324</v>
       </c>
       <c r="D10" t="n">
-        <v>0.223914</v>
+        <v>0.223096</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.347701</v>
+        <v>0.338139</v>
       </c>
       <c r="C11" t="n">
-        <v>0.219425</v>
+        <v>0.220299</v>
       </c>
       <c r="D11" t="n">
-        <v>0.223157</v>
+        <v>0.229027</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.340535</v>
+        <v>0.334036</v>
       </c>
       <c r="C12" t="n">
-        <v>0.21875</v>
+        <v>0.219305</v>
       </c>
       <c r="D12" t="n">
-        <v>0.222562</v>
+        <v>0.231371</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.333578</v>
+        <v>0.327354</v>
       </c>
       <c r="C13" t="n">
-        <v>0.217594</v>
+        <v>0.229042</v>
       </c>
       <c r="D13" t="n">
-        <v>0.220449</v>
+        <v>0.229774</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.328074</v>
+        <v>0.321501</v>
       </c>
       <c r="C14" t="n">
-        <v>0.216263</v>
+        <v>0.224408</v>
       </c>
       <c r="D14" t="n">
-        <v>0.220084</v>
+        <v>0.221404</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.320811</v>
+        <v>0.312843</v>
       </c>
       <c r="C15" t="n">
-        <v>0.21569</v>
+        <v>0.217211</v>
       </c>
       <c r="D15" t="n">
-        <v>0.220417</v>
+        <v>0.220244</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.316591</v>
+        <v>0.30643</v>
       </c>
       <c r="C16" t="n">
-        <v>0.215355</v>
+        <v>0.215535</v>
       </c>
       <c r="D16" t="n">
-        <v>0.220481</v>
+        <v>0.220151</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.304387</v>
+        <v>0.298652</v>
       </c>
       <c r="C17" t="n">
-        <v>0.214327</v>
+        <v>0.216038</v>
       </c>
       <c r="D17" t="n">
-        <v>0.220222</v>
+        <v>0.221218</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.295516</v>
+        <v>0.288264</v>
       </c>
       <c r="C18" t="n">
-        <v>0.214333</v>
+        <v>0.215095</v>
       </c>
       <c r="D18" t="n">
-        <v>0.220292</v>
+        <v>0.219699</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.286507</v>
+        <v>0.282339</v>
       </c>
       <c r="C19" t="n">
-        <v>0.213287</v>
+        <v>0.219645</v>
       </c>
       <c r="D19" t="n">
-        <v>0.225247</v>
+        <v>0.231083</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.274704</v>
+        <v>0.268045</v>
       </c>
       <c r="C20" t="n">
-        <v>0.213993</v>
+        <v>0.214984</v>
       </c>
       <c r="D20" t="n">
-        <v>0.219049</v>
+        <v>0.219185</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.268736</v>
+        <v>0.255012</v>
       </c>
       <c r="C21" t="n">
-        <v>0.217466</v>
+        <v>0.224624</v>
       </c>
       <c r="D21" t="n">
-        <v>0.218858</v>
+        <v>0.217362</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248765</v>
+        <v>0.247462</v>
       </c>
       <c r="C22" t="n">
-        <v>0.212684</v>
+        <v>0.223774</v>
       </c>
       <c r="D22" t="n">
-        <v>0.21829</v>
+        <v>0.229605</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.23541</v>
+        <v>0.228005</v>
       </c>
       <c r="C23" t="n">
-        <v>0.224853</v>
+        <v>0.225963</v>
       </c>
       <c r="D23" t="n">
-        <v>0.230014</v>
+        <v>0.228381</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.356226</v>
+        <v>0.348797</v>
       </c>
       <c r="C24" t="n">
-        <v>0.22405</v>
+        <v>0.224311</v>
       </c>
       <c r="D24" t="n">
-        <v>0.229678</v>
+        <v>0.227655</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.350401</v>
+        <v>0.342988</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222554</v>
+        <v>0.223544</v>
       </c>
       <c r="D25" t="n">
-        <v>0.228477</v>
+        <v>0.226219</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.344157</v>
+        <v>0.33675</v>
       </c>
       <c r="C26" t="n">
-        <v>0.221554</v>
+        <v>0.222269</v>
       </c>
       <c r="D26" t="n">
-        <v>0.227954</v>
+        <v>0.22498</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.337351</v>
+        <v>0.329727</v>
       </c>
       <c r="C27" t="n">
-        <v>0.220404</v>
+        <v>0.221153</v>
       </c>
       <c r="D27" t="n">
-        <v>0.227469</v>
+        <v>0.22429</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.329487</v>
+        <v>0.323603</v>
       </c>
       <c r="C28" t="n">
-        <v>0.219527</v>
+        <v>0.219963</v>
       </c>
       <c r="D28" t="n">
-        <v>0.226306</v>
+        <v>0.223512</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.323171</v>
+        <v>0.315996</v>
       </c>
       <c r="C29" t="n">
-        <v>0.218856</v>
+        <v>0.218781</v>
       </c>
       <c r="D29" t="n">
-        <v>0.225783</v>
+        <v>0.221999</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.31461</v>
+        <v>0.30836</v>
       </c>
       <c r="C30" t="n">
-        <v>0.218156</v>
+        <v>0.218709</v>
       </c>
       <c r="D30" t="n">
-        <v>0.224501</v>
+        <v>0.221748</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.306328</v>
+        <v>0.299552</v>
       </c>
       <c r="C31" t="n">
-        <v>0.217526</v>
+        <v>0.217953</v>
       </c>
       <c r="D31" t="n">
-        <v>0.223488</v>
+        <v>0.221237</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.297211</v>
+        <v>0.290364</v>
       </c>
       <c r="C32" t="n">
-        <v>0.216963</v>
+        <v>0.217585</v>
       </c>
       <c r="D32" t="n">
-        <v>0.222987</v>
+        <v>0.22093</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.287936</v>
+        <v>0.280581</v>
       </c>
       <c r="C33" t="n">
-        <v>0.215959</v>
+        <v>0.216395</v>
       </c>
       <c r="D33" t="n">
-        <v>0.221779</v>
+        <v>0.219509</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.277756</v>
+        <v>0.270247</v>
       </c>
       <c r="C34" t="n">
-        <v>0.215326</v>
+        <v>0.215771</v>
       </c>
       <c r="D34" t="n">
-        <v>0.221607</v>
+        <v>0.218871</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.266904</v>
+        <v>0.259431</v>
       </c>
       <c r="C35" t="n">
-        <v>0.215024</v>
+        <v>0.215178</v>
       </c>
       <c r="D35" t="n">
-        <v>0.221242</v>
+        <v>0.21868</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.252865</v>
+        <v>0.24644</v>
       </c>
       <c r="C36" t="n">
-        <v>0.214486</v>
+        <v>0.214962</v>
       </c>
       <c r="D36" t="n">
-        <v>0.219938</v>
+        <v>0.217989</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.239527</v>
+        <v>0.232142</v>
       </c>
       <c r="C37" t="n">
-        <v>0.226154</v>
+        <v>0.226849</v>
       </c>
       <c r="D37" t="n">
-        <v>0.232231</v>
+        <v>0.229279</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.357961</v>
+        <v>0.350375</v>
       </c>
       <c r="C38" t="n">
-        <v>0.224762</v>
+        <v>0.225445</v>
       </c>
       <c r="D38" t="n">
-        <v>0.230175</v>
+        <v>0.228204</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.352482</v>
+        <v>0.345297</v>
       </c>
       <c r="C39" t="n">
-        <v>0.222867</v>
+        <v>0.223438</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2291</v>
+        <v>0.226693</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.346147</v>
+        <v>0.33899</v>
       </c>
       <c r="C40" t="n">
-        <v>0.222026</v>
+        <v>0.222153</v>
       </c>
       <c r="D40" t="n">
-        <v>0.227896</v>
+        <v>0.225725</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.339358</v>
+        <v>0.332576</v>
       </c>
       <c r="C41" t="n">
-        <v>0.220629</v>
+        <v>0.221331</v>
       </c>
       <c r="D41" t="n">
-        <v>0.227329</v>
+        <v>0.224631</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.332756</v>
+        <v>0.325776</v>
       </c>
       <c r="C42" t="n">
-        <v>0.219939</v>
+        <v>0.220228</v>
       </c>
       <c r="D42" t="n">
-        <v>0.225962</v>
+        <v>0.223908</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.324765</v>
+        <v>0.317722</v>
       </c>
       <c r="C43" t="n">
-        <v>0.219156</v>
+        <v>0.219567</v>
       </c>
       <c r="D43" t="n">
-        <v>0.224758</v>
+        <v>0.222926</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.317442</v>
+        <v>0.310466</v>
       </c>
       <c r="C44" t="n">
-        <v>0.218095</v>
+        <v>0.218566</v>
       </c>
       <c r="D44" t="n">
-        <v>0.223973</v>
+        <v>0.222231</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.308676</v>
+        <v>0.301909</v>
       </c>
       <c r="C45" t="n">
-        <v>0.217616</v>
+        <v>0.217932</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2233</v>
+        <v>0.221308</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.299998</v>
+        <v>0.293697</v>
       </c>
       <c r="C46" t="n">
-        <v>0.216201</v>
+        <v>0.217049</v>
       </c>
       <c r="D46" t="n">
-        <v>0.222625</v>
+        <v>0.220667</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.290939</v>
+        <v>0.284433</v>
       </c>
       <c r="C47" t="n">
-        <v>0.21629</v>
+        <v>0.216836</v>
       </c>
       <c r="D47" t="n">
-        <v>0.222379</v>
+        <v>0.219882</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.280206</v>
+        <v>0.273729</v>
       </c>
       <c r="C48" t="n">
-        <v>0.215324</v>
+        <v>0.216142</v>
       </c>
       <c r="D48" t="n">
-        <v>0.221468</v>
+        <v>0.21943</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.269892</v>
+        <v>0.262444</v>
       </c>
       <c r="C49" t="n">
-        <v>0.214899</v>
+        <v>0.215467</v>
       </c>
       <c r="D49" t="n">
-        <v>0.221149</v>
+        <v>0.218562</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.257471</v>
+        <v>0.249834</v>
       </c>
       <c r="C50" t="n">
-        <v>0.214497</v>
+        <v>0.215235</v>
       </c>
       <c r="D50" t="n">
-        <v>0.220194</v>
+        <v>0.218183</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.244315</v>
+        <v>0.236699</v>
       </c>
       <c r="C51" t="n">
-        <v>0.226923</v>
+        <v>0.227182</v>
       </c>
       <c r="D51" t="n">
-        <v>0.232123</v>
+        <v>0.229808</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.229745</v>
+        <v>0.221779</v>
       </c>
       <c r="C52" t="n">
-        <v>0.225112</v>
+        <v>0.225635</v>
       </c>
       <c r="D52" t="n">
-        <v>0.230678</v>
+        <v>0.228639</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.354805</v>
+        <v>0.347738</v>
       </c>
       <c r="C53" t="n">
-        <v>0.223655</v>
+        <v>0.223512</v>
       </c>
       <c r="D53" t="n">
-        <v>0.228928</v>
+        <v>0.227238</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.34886</v>
+        <v>0.342033</v>
       </c>
       <c r="C54" t="n">
-        <v>0.222428</v>
+        <v>0.222375</v>
       </c>
       <c r="D54" t="n">
-        <v>0.227709</v>
+        <v>0.226193</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.342702</v>
+        <v>0.336104</v>
       </c>
       <c r="C55" t="n">
-        <v>0.221115</v>
+        <v>0.221527</v>
       </c>
       <c r="D55" t="n">
-        <v>0.226915</v>
+        <v>0.225241</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.335527</v>
+        <v>0.328842</v>
       </c>
       <c r="C56" t="n">
-        <v>0.22034</v>
+        <v>0.220358</v>
       </c>
       <c r="D56" t="n">
-        <v>0.226118</v>
+        <v>0.224333</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.328265</v>
+        <v>0.321507</v>
       </c>
       <c r="C57" t="n">
-        <v>0.219503</v>
+        <v>0.219488</v>
       </c>
       <c r="D57" t="n">
-        <v>0.225115</v>
+        <v>0.223102</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.321107</v>
+        <v>0.314048</v>
       </c>
       <c r="C58" t="n">
-        <v>0.218269</v>
+        <v>0.218797</v>
       </c>
       <c r="D58" t="n">
-        <v>0.224486</v>
+        <v>0.222175</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.312296</v>
+        <v>0.305272</v>
       </c>
       <c r="C59" t="n">
-        <v>0.217589</v>
+        <v>0.218225</v>
       </c>
       <c r="D59" t="n">
-        <v>0.223657</v>
+        <v>0.221518</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.303026</v>
+        <v>0.295678</v>
       </c>
       <c r="C60" t="n">
-        <v>0.216832</v>
+        <v>0.21751</v>
       </c>
       <c r="D60" t="n">
-        <v>0.223104</v>
+        <v>0.220963</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.293233</v>
+        <v>0.286184</v>
       </c>
       <c r="C61" t="n">
-        <v>0.21628</v>
+        <v>0.216761</v>
       </c>
       <c r="D61" t="n">
-        <v>0.222123</v>
+        <v>0.219954</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.282925</v>
+        <v>0.275744</v>
       </c>
       <c r="C62" t="n">
-        <v>0.215758</v>
+        <v>0.216</v>
       </c>
       <c r="D62" t="n">
-        <v>0.2215</v>
+        <v>0.219594</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.271766</v>
+        <v>0.264378</v>
       </c>
       <c r="C63" t="n">
-        <v>0.214887</v>
+        <v>0.215606</v>
       </c>
       <c r="D63" t="n">
-        <v>0.22071</v>
+        <v>0.218768</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.260111</v>
+        <v>0.252389</v>
       </c>
       <c r="C64" t="n">
-        <v>0.214751</v>
+        <v>0.215219</v>
       </c>
       <c r="D64" t="n">
-        <v>0.220315</v>
+        <v>0.218186</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.246923</v>
+        <v>0.239432</v>
       </c>
       <c r="C65" t="n">
-        <v>0.214377</v>
+        <v>0.21465</v>
       </c>
       <c r="D65" t="n">
-        <v>0.219716</v>
+        <v>0.21788</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.232538</v>
+        <v>0.225123</v>
       </c>
       <c r="C66" t="n">
-        <v>0.225945</v>
+        <v>0.225981</v>
       </c>
       <c r="D66" t="n">
-        <v>0.23125</v>
+        <v>0.229618</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.356263</v>
+        <v>0.349596</v>
       </c>
       <c r="C67" t="n">
-        <v>0.224782</v>
+        <v>0.224817</v>
       </c>
       <c r="D67" t="n">
-        <v>0.230055</v>
+        <v>0.227898</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.350493</v>
+        <v>0.343842</v>
       </c>
       <c r="C68" t="n">
-        <v>0.223271</v>
+        <v>0.223012</v>
       </c>
       <c r="D68" t="n">
-        <v>0.228757</v>
+        <v>0.226713</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.344135</v>
+        <v>0.337715</v>
       </c>
       <c r="C69" t="n">
-        <v>0.222055</v>
+        <v>0.221751</v>
       </c>
       <c r="D69" t="n">
-        <v>0.227682</v>
+        <v>0.225441</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.337544</v>
+        <v>0.331058</v>
       </c>
       <c r="C70" t="n">
-        <v>0.220827</v>
+        <v>0.220739</v>
       </c>
       <c r="D70" t="n">
-        <v>0.226534</v>
+        <v>0.224352</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.330196</v>
+        <v>0.323325</v>
       </c>
       <c r="C71" t="n">
-        <v>0.21988</v>
+        <v>0.22004</v>
       </c>
       <c r="D71" t="n">
-        <v>0.225541</v>
+        <v>0.223702</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.323369</v>
+        <v>0.316199</v>
       </c>
       <c r="C72" t="n">
-        <v>0.218995</v>
+        <v>0.218898</v>
       </c>
       <c r="D72" t="n">
-        <v>0.224741</v>
+        <v>0.222837</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.314773</v>
+        <v>0.307828</v>
       </c>
       <c r="C73" t="n">
-        <v>0.218087</v>
+        <v>0.218414</v>
       </c>
       <c r="D73" t="n">
-        <v>0.223973</v>
+        <v>0.22192</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.30621</v>
+        <v>0.299413</v>
       </c>
       <c r="C74" t="n">
-        <v>0.217393</v>
+        <v>0.217642</v>
       </c>
       <c r="D74" t="n">
-        <v>0.223222</v>
+        <v>0.221129</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.297096</v>
+        <v>0.289936</v>
       </c>
       <c r="C75" t="n">
-        <v>0.216546</v>
+        <v>0.216811</v>
       </c>
       <c r="D75" t="n">
-        <v>0.222506</v>
+        <v>0.220478</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.287135</v>
+        <v>0.280202</v>
       </c>
       <c r="C76" t="n">
-        <v>0.216205</v>
+        <v>0.216358</v>
       </c>
       <c r="D76" t="n">
-        <v>0.222037</v>
+        <v>0.219925</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.276339</v>
+        <v>0.268752</v>
       </c>
       <c r="C77" t="n">
-        <v>0.215515</v>
+        <v>0.215779</v>
       </c>
       <c r="D77" t="n">
-        <v>0.221408</v>
+        <v>0.219341</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.263677</v>
+        <v>0.256206</v>
       </c>
       <c r="C78" t="n">
-        <v>0.215168</v>
+        <v>0.21548</v>
       </c>
       <c r="D78" t="n">
-        <v>0.220907</v>
+        <v>0.218984</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.251159</v>
+        <v>0.243373</v>
       </c>
       <c r="C79" t="n">
-        <v>0.214828</v>
+        <v>0.214958</v>
       </c>
       <c r="D79" t="n">
-        <v>0.220604</v>
+        <v>0.218409</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.236573</v>
+        <v>0.229125</v>
       </c>
       <c r="C80" t="n">
-        <v>0.227784</v>
+        <v>0.22893</v>
       </c>
       <c r="D80" t="n">
-        <v>0.233421</v>
+        <v>0.231267</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.358508</v>
+        <v>0.351345</v>
       </c>
       <c r="C81" t="n">
-        <v>0.225704</v>
+        <v>0.226137</v>
       </c>
       <c r="D81" t="n">
-        <v>0.231537</v>
+        <v>0.229382</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.35262</v>
+        <v>0.345657</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224069</v>
+        <v>0.224269</v>
       </c>
       <c r="D82" t="n">
-        <v>0.230038</v>
+        <v>0.227787</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.346125</v>
+        <v>0.339542</v>
       </c>
       <c r="C83" t="n">
-        <v>0.222651</v>
+        <v>0.222818</v>
       </c>
       <c r="D83" t="n">
-        <v>0.228656</v>
+        <v>0.226376</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.339518</v>
+        <v>0.332843</v>
       </c>
       <c r="C84" t="n">
-        <v>0.221324</v>
+        <v>0.221713</v>
       </c>
       <c r="D84" t="n">
-        <v>0.227537</v>
+        <v>0.225247</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.332468</v>
+        <v>0.325569</v>
       </c>
       <c r="C85" t="n">
-        <v>0.220278</v>
+        <v>0.220495</v>
       </c>
       <c r="D85" t="n">
-        <v>0.226237</v>
+        <v>0.224273</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.324973</v>
+        <v>0.317819</v>
       </c>
       <c r="C86" t="n">
-        <v>0.219383</v>
+        <v>0.21962</v>
       </c>
       <c r="D86" t="n">
-        <v>0.225155</v>
+        <v>0.223111</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.316615</v>
+        <v>0.310113</v>
       </c>
       <c r="C87" t="n">
-        <v>0.218336</v>
+        <v>0.218602</v>
       </c>
       <c r="D87" t="n">
-        <v>0.224324</v>
+        <v>0.222326</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.308087</v>
+        <v>0.30117</v>
       </c>
       <c r="C88" t="n">
-        <v>0.217514</v>
+        <v>0.217835</v>
       </c>
       <c r="D88" t="n">
-        <v>0.223612</v>
+        <v>0.221606</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.298761</v>
+        <v>0.292142</v>
       </c>
       <c r="C89" t="n">
-        <v>0.21683</v>
+        <v>0.216992</v>
       </c>
       <c r="D89" t="n">
-        <v>0.222761</v>
+        <v>0.220784</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.289122</v>
+        <v>0.281975</v>
       </c>
       <c r="C90" t="n">
-        <v>0.216074</v>
+        <v>0.216313</v>
       </c>
       <c r="D90" t="n">
-        <v>0.222135</v>
+        <v>0.220099</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.278162</v>
+        <v>0.271004</v>
       </c>
       <c r="C91" t="n">
-        <v>0.215742</v>
+        <v>0.215762</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221525</v>
+        <v>0.219693</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.266296</v>
+        <v>0.259286</v>
       </c>
       <c r="C92" t="n">
-        <v>0.215258</v>
+        <v>0.215386</v>
       </c>
       <c r="D92" t="n">
-        <v>0.220927</v>
+        <v>0.219102</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.253809</v>
+        <v>0.246515</v>
       </c>
       <c r="C93" t="n">
-        <v>0.214925</v>
+        <v>0.215363</v>
       </c>
       <c r="D93" t="n">
-        <v>0.220706</v>
+        <v>0.218737</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.240128</v>
+        <v>0.232507</v>
       </c>
       <c r="C94" t="n">
-        <v>0.228729</v>
+        <v>0.228328</v>
       </c>
       <c r="D94" t="n">
-        <v>0.233735</v>
+        <v>0.232006</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.359908</v>
+        <v>0.352801</v>
       </c>
       <c r="C95" t="n">
-        <v>0.226378</v>
+        <v>0.226464</v>
       </c>
       <c r="D95" t="n">
-        <v>0.231838</v>
+        <v>0.230171</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.353754</v>
+        <v>0.347348</v>
       </c>
       <c r="C96" t="n">
-        <v>0.224908</v>
+        <v>0.224698</v>
       </c>
       <c r="D96" t="n">
-        <v>0.230242</v>
+        <v>0.228347</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.348081</v>
+        <v>0.341184</v>
       </c>
       <c r="C97" t="n">
-        <v>0.223383</v>
+        <v>0.223285</v>
       </c>
       <c r="D97" t="n">
-        <v>0.228908</v>
+        <v>0.226846</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.34168</v>
+        <v>0.334845</v>
       </c>
       <c r="C98" t="n">
-        <v>0.222013</v>
+        <v>0.221908</v>
       </c>
       <c r="D98" t="n">
-        <v>0.227605</v>
+        <v>0.225813</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.334595</v>
+        <v>0.327461</v>
       </c>
       <c r="C99" t="n">
-        <v>0.220799</v>
+        <v>0.22088</v>
       </c>
       <c r="D99" t="n">
-        <v>0.226324</v>
+        <v>0.224602</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.326872</v>
+        <v>0.320127</v>
       </c>
       <c r="C100" t="n">
-        <v>0.219742</v>
+        <v>0.219595</v>
       </c>
       <c r="D100" t="n">
-        <v>0.225361</v>
+        <v>0.223652</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.318931</v>
+        <v>0.312344</v>
       </c>
       <c r="C101" t="n">
-        <v>0.218816</v>
+        <v>0.219281</v>
       </c>
       <c r="D101" t="n">
-        <v>0.224552</v>
+        <v>0.222623</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.310242</v>
+        <v>0.303414</v>
       </c>
       <c r="C102" t="n">
-        <v>0.217805</v>
+        <v>0.218102</v>
       </c>
       <c r="D102" t="n">
-        <v>0.223695</v>
+        <v>0.221844</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.300987</v>
+        <v>0.293882</v>
       </c>
       <c r="C103" t="n">
-        <v>0.217008</v>
+        <v>0.21779</v>
       </c>
       <c r="D103" t="n">
-        <v>0.222963</v>
+        <v>0.220994</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.291282</v>
+        <v>0.284238</v>
       </c>
       <c r="C104" t="n">
-        <v>0.216567</v>
+        <v>0.216678</v>
       </c>
       <c r="D104" t="n">
-        <v>0.222201</v>
+        <v>0.22029</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.280707</v>
+        <v>0.273887</v>
       </c>
       <c r="C105" t="n">
-        <v>0.215945</v>
+        <v>0.216119</v>
       </c>
       <c r="D105" t="n">
-        <v>0.221657</v>
+        <v>0.219817</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.269144</v>
+        <v>0.262028</v>
       </c>
       <c r="C106" t="n">
-        <v>0.215304</v>
+        <v>0.215794</v>
       </c>
       <c r="D106" t="n">
-        <v>0.221101</v>
+        <v>0.21918</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.256643</v>
+        <v>0.249307</v>
       </c>
       <c r="C107" t="n">
-        <v>0.215112</v>
+        <v>0.215548</v>
       </c>
       <c r="D107" t="n">
-        <v>0.22055</v>
+        <v>0.218719</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.242954</v>
+        <v>0.235634</v>
       </c>
       <c r="C108" t="n">
-        <v>0.229512</v>
+        <v>0.229344</v>
       </c>
       <c r="D108" t="n">
-        <v>0.234109</v>
+        <v>0.233049</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.228461</v>
+        <v>0.220855</v>
       </c>
       <c r="C109" t="n">
-        <v>0.227378</v>
+        <v>0.227416</v>
       </c>
       <c r="D109" t="n">
-        <v>0.231908</v>
+        <v>0.230832</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355453</v>
+        <v>0.348558</v>
       </c>
       <c r="C110" t="n">
-        <v>0.225452</v>
+        <v>0.22549</v>
       </c>
       <c r="D110" t="n">
-        <v>0.23031</v>
+        <v>0.228989</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.349212</v>
+        <v>0.343174</v>
       </c>
       <c r="C111" t="n">
-        <v>0.22364</v>
+        <v>0.223864</v>
       </c>
       <c r="D111" t="n">
-        <v>0.229036</v>
+        <v>0.228103</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.34311</v>
+        <v>0.336183</v>
       </c>
       <c r="C112" t="n">
-        <v>0.222899</v>
+        <v>0.222317</v>
       </c>
       <c r="D112" t="n">
-        <v>0.227646</v>
+        <v>0.226535</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.335702</v>
+        <v>0.329132</v>
       </c>
       <c r="C113" t="n">
-        <v>0.221374</v>
+        <v>0.221502</v>
       </c>
       <c r="D113" t="n">
-        <v>0.226816</v>
+        <v>0.225496</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.328646</v>
+        <v>0.322041</v>
       </c>
       <c r="C114" t="n">
-        <v>0.220389</v>
+        <v>0.220398</v>
       </c>
       <c r="D114" t="n">
-        <v>0.225781</v>
+        <v>0.224059</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.320542</v>
+        <v>0.313812</v>
       </c>
       <c r="C115" t="n">
-        <v>0.219831</v>
+        <v>0.219472</v>
       </c>
       <c r="D115" t="n">
-        <v>0.224812</v>
+        <v>0.223382</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.31234</v>
+        <v>0.30536</v>
       </c>
       <c r="C116" t="n">
-        <v>0.218593</v>
+        <v>0.218963</v>
       </c>
       <c r="D116" t="n">
-        <v>0.224039</v>
+        <v>0.222885</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.303236</v>
+        <v>0.295867</v>
       </c>
       <c r="C117" t="n">
-        <v>0.217368</v>
+        <v>0.21819</v>
       </c>
       <c r="D117" t="n">
-        <v>0.22366</v>
+        <v>0.222111</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.293363</v>
+        <v>0.286811</v>
       </c>
       <c r="C118" t="n">
-        <v>0.216443</v>
+        <v>0.217079</v>
       </c>
       <c r="D118" t="n">
-        <v>0.22299</v>
+        <v>0.220903</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.283205</v>
+        <v>0.275651</v>
       </c>
       <c r="C119" t="n">
-        <v>0.216042</v>
+        <v>0.216536</v>
       </c>
       <c r="D119" t="n">
-        <v>0.222209</v>
+        <v>0.220418</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.27185</v>
+        <v>0.2647</v>
       </c>
       <c r="C120" t="n">
-        <v>0.215594</v>
+        <v>0.216462</v>
       </c>
       <c r="D120" t="n">
-        <v>0.221765</v>
+        <v>0.220169</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.260132</v>
+        <v>0.252282</v>
       </c>
       <c r="C121" t="n">
-        <v>0.215293</v>
+        <v>0.215946</v>
       </c>
       <c r="D121" t="n">
-        <v>0.221117</v>
+        <v>0.219626</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.246586</v>
+        <v>0.238623</v>
       </c>
       <c r="C122" t="n">
-        <v>0.214988</v>
+        <v>0.215523</v>
       </c>
       <c r="D122" t="n">
-        <v>0.220681</v>
+        <v>0.218935</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.231893</v>
+        <v>0.224517</v>
       </c>
       <c r="C123" t="n">
-        <v>0.229181</v>
+        <v>0.228335</v>
       </c>
       <c r="D123" t="n">
-        <v>0.232659</v>
+        <v>0.232782</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356436</v>
+        <v>0.350325</v>
       </c>
       <c r="C124" t="n">
-        <v>0.227687</v>
+        <v>0.226561</v>
       </c>
       <c r="D124" t="n">
-        <v>0.231982</v>
+        <v>0.230318</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350772</v>
+        <v>0.344013</v>
       </c>
       <c r="C125" t="n">
-        <v>0.225638</v>
+        <v>0.224855</v>
       </c>
       <c r="D125" t="n">
-        <v>0.229829</v>
+        <v>0.229169</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.344079</v>
+        <v>0.338573</v>
       </c>
       <c r="C126" t="n">
-        <v>0.22526</v>
+        <v>0.223276</v>
       </c>
       <c r="D126" t="n">
-        <v>0.228508</v>
+        <v>0.228372</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.337868</v>
+        <v>0.331255</v>
       </c>
       <c r="C127" t="n">
-        <v>0.223563</v>
+        <v>0.222225</v>
       </c>
       <c r="D127" t="n">
-        <v>0.227739</v>
+        <v>0.227156</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.330192</v>
+        <v>0.323257</v>
       </c>
       <c r="C128" t="n">
-        <v>0.222065</v>
+        <v>0.22093</v>
       </c>
       <c r="D128" t="n">
-        <v>0.226267</v>
+        <v>0.225842</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.322435</v>
+        <v>0.316257</v>
       </c>
       <c r="C129" t="n">
-        <v>0.221422</v>
+        <v>0.220062</v>
       </c>
       <c r="D129" t="n">
-        <v>0.225851</v>
+        <v>0.225037</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.314274</v>
+        <v>0.307429</v>
       </c>
       <c r="C130" t="n">
-        <v>0.219275</v>
+        <v>0.219842</v>
       </c>
       <c r="D130" t="n">
-        <v>0.224053</v>
+        <v>0.225189</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.305561</v>
+        <v>0.298378</v>
       </c>
       <c r="C131" t="n">
-        <v>0.217797</v>
+        <v>0.218478</v>
       </c>
       <c r="D131" t="n">
-        <v>0.22433</v>
+        <v>0.222776</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.296246</v>
+        <v>0.288942</v>
       </c>
       <c r="C132" t="n">
-        <v>0.217802</v>
+        <v>0.218616</v>
       </c>
       <c r="D132" t="n">
-        <v>0.223116</v>
+        <v>0.22292</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.285546</v>
+        <v>0.278438</v>
       </c>
       <c r="C133" t="n">
-        <v>0.217518</v>
+        <v>0.218114</v>
       </c>
       <c r="D133" t="n">
-        <v>0.222759</v>
+        <v>0.221887</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.274082</v>
+        <v>0.266972</v>
       </c>
       <c r="C134" t="n">
-        <v>0.216735</v>
+        <v>0.218019</v>
       </c>
       <c r="D134" t="n">
-        <v>0.221514</v>
+        <v>0.220852</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.262831</v>
+        <v>0.254933</v>
       </c>
       <c r="C135" t="n">
-        <v>0.2162</v>
+        <v>0.216636</v>
       </c>
       <c r="D135" t="n">
-        <v>0.221122</v>
+        <v>0.220155</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.249628</v>
+        <v>0.241839</v>
       </c>
       <c r="C136" t="n">
-        <v>0.216393</v>
+        <v>0.215923</v>
       </c>
       <c r="D136" t="n">
-        <v>0.222246</v>
+        <v>0.220691</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235345</v>
+        <v>0.227202</v>
       </c>
       <c r="C137" t="n">
-        <v>0.231813</v>
+        <v>0.231071</v>
       </c>
       <c r="D137" t="n">
-        <v>0.236443</v>
+        <v>0.236199</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.358592</v>
+        <v>0.351548</v>
       </c>
       <c r="C138" t="n">
-        <v>0.231774</v>
+        <v>0.230533</v>
       </c>
       <c r="D138" t="n">
-        <v>0.233006</v>
+        <v>0.233191</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.352383</v>
+        <v>0.346195</v>
       </c>
       <c r="C139" t="n">
-        <v>0.228601</v>
+        <v>0.226975</v>
       </c>
       <c r="D139" t="n">
-        <v>0.233032</v>
+        <v>0.231368</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.346236</v>
+        <v>0.339659</v>
       </c>
       <c r="C140" t="n">
-        <v>0.227138</v>
+        <v>0.226231</v>
       </c>
       <c r="D140" t="n">
-        <v>0.230777</v>
+        <v>0.230858</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.339502</v>
+        <v>0.333243</v>
       </c>
       <c r="C141" t="n">
-        <v>0.225116</v>
+        <v>0.224564</v>
       </c>
       <c r="D141" t="n">
-        <v>0.231349</v>
+        <v>0.230287</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.332122</v>
+        <v>0.325475</v>
       </c>
       <c r="C142" t="n">
-        <v>0.225296</v>
+        <v>0.224756</v>
       </c>
       <c r="D142" t="n">
-        <v>0.230088</v>
+        <v>0.229271</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.324172</v>
+        <v>0.318241</v>
       </c>
       <c r="C143" t="n">
-        <v>0.225816</v>
+        <v>0.223389</v>
       </c>
       <c r="D143" t="n">
-        <v>0.228168</v>
+        <v>0.227318</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.298981</v>
+        <v>0.298412</v>
       </c>
       <c r="C2" t="n">
-        <v>0.203818</v>
+        <v>0.205152</v>
       </c>
       <c r="D2" t="n">
-        <v>0.202823</v>
+        <v>0.200434</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.289583</v>
+        <v>0.28938</v>
       </c>
       <c r="C3" t="n">
-        <v>0.204457</v>
+        <v>0.214738</v>
       </c>
       <c r="D3" t="n">
-        <v>0.202964</v>
+        <v>0.201757</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279511</v>
+        <v>0.279528</v>
       </c>
       <c r="C4" t="n">
-        <v>0.204665</v>
+        <v>0.216711</v>
       </c>
       <c r="D4" t="n">
-        <v>0.203468</v>
+        <v>0.204459</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.269834</v>
+        <v>0.270562</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205992</v>
+        <v>0.206597</v>
       </c>
       <c r="D5" t="n">
-        <v>0.204834</v>
+        <v>0.204285</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.257262</v>
+        <v>0.258763</v>
       </c>
       <c r="C6" t="n">
-        <v>0.208364</v>
+        <v>0.217406</v>
       </c>
       <c r="D6" t="n">
-        <v>0.204702</v>
+        <v>0.205001</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.243143</v>
+        <v>0.245836</v>
       </c>
       <c r="C7" t="n">
-        <v>0.206469</v>
+        <v>0.206309</v>
       </c>
       <c r="D7" t="n">
-        <v>0.206327</v>
+        <v>0.205404</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.231589</v>
+        <v>0.231899</v>
       </c>
       <c r="C8" t="n">
-        <v>0.208547</v>
+        <v>0.208063</v>
       </c>
       <c r="D8" t="n">
-        <v>0.20684</v>
+        <v>0.206295</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.221424</v>
+        <v>0.218355</v>
       </c>
       <c r="C9" t="n">
-        <v>0.222252</v>
+        <v>0.222789</v>
       </c>
       <c r="D9" t="n">
-        <v>0.224336</v>
+        <v>0.225629</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.345938</v>
+        <v>0.346236</v>
       </c>
       <c r="C10" t="n">
-        <v>0.221324</v>
+        <v>0.22147</v>
       </c>
       <c r="D10" t="n">
-        <v>0.223096</v>
+        <v>0.223747</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.338139</v>
+        <v>0.339849</v>
       </c>
       <c r="C11" t="n">
-        <v>0.220299</v>
+        <v>0.225774</v>
       </c>
       <c r="D11" t="n">
-        <v>0.229027</v>
+        <v>0.22485</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.334036</v>
+        <v>0.335748</v>
       </c>
       <c r="C12" t="n">
-        <v>0.219305</v>
+        <v>0.229368</v>
       </c>
       <c r="D12" t="n">
-        <v>0.231371</v>
+        <v>0.221584</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.327354</v>
+        <v>0.325097</v>
       </c>
       <c r="C13" t="n">
-        <v>0.229042</v>
+        <v>0.217758</v>
       </c>
       <c r="D13" t="n">
-        <v>0.229774</v>
+        <v>0.220738</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.321501</v>
+        <v>0.323263</v>
       </c>
       <c r="C14" t="n">
-        <v>0.224408</v>
+        <v>0.217122</v>
       </c>
       <c r="D14" t="n">
-        <v>0.221404</v>
+        <v>0.224112</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.312843</v>
+        <v>0.316066</v>
       </c>
       <c r="C15" t="n">
-        <v>0.217211</v>
+        <v>0.2279</v>
       </c>
       <c r="D15" t="n">
-        <v>0.220244</v>
+        <v>0.219842</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.30643</v>
+        <v>0.308245</v>
       </c>
       <c r="C16" t="n">
-        <v>0.215535</v>
+        <v>0.215829</v>
       </c>
       <c r="D16" t="n">
-        <v>0.220151</v>
+        <v>0.220854</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.298652</v>
+        <v>0.300566</v>
       </c>
       <c r="C17" t="n">
-        <v>0.216038</v>
+        <v>0.21596</v>
       </c>
       <c r="D17" t="n">
-        <v>0.221218</v>
+        <v>0.221153</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.288264</v>
+        <v>0.289326</v>
       </c>
       <c r="C18" t="n">
-        <v>0.215095</v>
+        <v>0.215617</v>
       </c>
       <c r="D18" t="n">
-        <v>0.219699</v>
+        <v>0.219972</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.282339</v>
+        <v>0.278112</v>
       </c>
       <c r="C19" t="n">
-        <v>0.219645</v>
+        <v>0.22522</v>
       </c>
       <c r="D19" t="n">
-        <v>0.231083</v>
+        <v>0.218551</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.268045</v>
+        <v>0.269747</v>
       </c>
       <c r="C20" t="n">
-        <v>0.214984</v>
+        <v>0.214871</v>
       </c>
       <c r="D20" t="n">
-        <v>0.219185</v>
+        <v>0.219434</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.255012</v>
+        <v>0.260044</v>
       </c>
       <c r="C21" t="n">
-        <v>0.224624</v>
+        <v>0.220204</v>
       </c>
       <c r="D21" t="n">
-        <v>0.217362</v>
+        <v>0.218116</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.247462</v>
+        <v>0.249269</v>
       </c>
       <c r="C22" t="n">
-        <v>0.223774</v>
+        <v>0.223877</v>
       </c>
       <c r="D22" t="n">
-        <v>0.229605</v>
+        <v>0.21816</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.228005</v>
+        <v>0.228586</v>
       </c>
       <c r="C23" t="n">
-        <v>0.225963</v>
+        <v>0.22575</v>
       </c>
       <c r="D23" t="n">
-        <v>0.228381</v>
+        <v>0.22847</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348797</v>
+        <v>0.349759</v>
       </c>
       <c r="C24" t="n">
-        <v>0.224311</v>
+        <v>0.223613</v>
       </c>
       <c r="D24" t="n">
-        <v>0.227655</v>
+        <v>0.227657</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342988</v>
+        <v>0.343428</v>
       </c>
       <c r="C25" t="n">
-        <v>0.223544</v>
+        <v>0.222636</v>
       </c>
       <c r="D25" t="n">
-        <v>0.226219</v>
+        <v>0.225841</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.33675</v>
+        <v>0.337364</v>
       </c>
       <c r="C26" t="n">
-        <v>0.222269</v>
+        <v>0.22226</v>
       </c>
       <c r="D26" t="n">
-        <v>0.22498</v>
+        <v>0.225045</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.329727</v>
+        <v>0.330393</v>
       </c>
       <c r="C27" t="n">
-        <v>0.221153</v>
+        <v>0.221316</v>
       </c>
       <c r="D27" t="n">
-        <v>0.22429</v>
+        <v>0.224425</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.323603</v>
+        <v>0.324014</v>
       </c>
       <c r="C28" t="n">
-        <v>0.219963</v>
+        <v>0.219504</v>
       </c>
       <c r="D28" t="n">
-        <v>0.223512</v>
+        <v>0.223523</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.315996</v>
+        <v>0.316625</v>
       </c>
       <c r="C29" t="n">
-        <v>0.218781</v>
+        <v>0.218685</v>
       </c>
       <c r="D29" t="n">
-        <v>0.221999</v>
+        <v>0.222034</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.30836</v>
+        <v>0.308943</v>
       </c>
       <c r="C30" t="n">
-        <v>0.218709</v>
+        <v>0.21853</v>
       </c>
       <c r="D30" t="n">
-        <v>0.221748</v>
+        <v>0.221732</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.299552</v>
+        <v>0.299816</v>
       </c>
       <c r="C31" t="n">
-        <v>0.217953</v>
+        <v>0.217739</v>
       </c>
       <c r="D31" t="n">
-        <v>0.221237</v>
+        <v>0.221251</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.290364</v>
+        <v>0.291012</v>
       </c>
       <c r="C32" t="n">
-        <v>0.217585</v>
+        <v>0.2174</v>
       </c>
       <c r="D32" t="n">
-        <v>0.22093</v>
+        <v>0.221355</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.280581</v>
+        <v>0.281367</v>
       </c>
       <c r="C33" t="n">
-        <v>0.216395</v>
+        <v>0.216315</v>
       </c>
       <c r="D33" t="n">
-        <v>0.219509</v>
+        <v>0.219811</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.270247</v>
+        <v>0.271274</v>
       </c>
       <c r="C34" t="n">
-        <v>0.215771</v>
+        <v>0.215629</v>
       </c>
       <c r="D34" t="n">
-        <v>0.218871</v>
+        <v>0.219265</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.259431</v>
+        <v>0.259732</v>
       </c>
       <c r="C35" t="n">
-        <v>0.215178</v>
+        <v>0.215372</v>
       </c>
       <c r="D35" t="n">
-        <v>0.21868</v>
+        <v>0.218756</v>
       </c>
     </row>
     <row r="36">
@@ -3723,10 +3723,10 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.24644</v>
+        <v>0.246064</v>
       </c>
       <c r="C36" t="n">
-        <v>0.214962</v>
+        <v>0.214906</v>
       </c>
       <c r="D36" t="n">
         <v>0.217989</v>
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.232142</v>
+        <v>0.232095</v>
       </c>
       <c r="C37" t="n">
-        <v>0.226849</v>
+        <v>0.226309</v>
       </c>
       <c r="D37" t="n">
-        <v>0.229279</v>
+        <v>0.229188</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.350375</v>
+        <v>0.350288</v>
       </c>
       <c r="C38" t="n">
-        <v>0.225445</v>
+        <v>0.225337</v>
       </c>
       <c r="D38" t="n">
-        <v>0.228204</v>
+        <v>0.228128</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.345297</v>
+        <v>0.345232</v>
       </c>
       <c r="C39" t="n">
-        <v>0.223438</v>
+        <v>0.223211</v>
       </c>
       <c r="D39" t="n">
-        <v>0.226693</v>
+        <v>0.226711</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.33899</v>
+        <v>0.339139</v>
       </c>
       <c r="C40" t="n">
-        <v>0.222153</v>
+        <v>0.222007</v>
       </c>
       <c r="D40" t="n">
-        <v>0.225725</v>
+        <v>0.225771</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.332576</v>
+        <v>0.332823</v>
       </c>
       <c r="C41" t="n">
-        <v>0.221331</v>
+        <v>0.221019</v>
       </c>
       <c r="D41" t="n">
-        <v>0.224631</v>
+        <v>0.224701</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.325776</v>
+        <v>0.325614</v>
       </c>
       <c r="C42" t="n">
-        <v>0.220228</v>
+        <v>0.219945</v>
       </c>
       <c r="D42" t="n">
-        <v>0.223908</v>
+        <v>0.223627</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.317722</v>
+        <v>0.31811</v>
       </c>
       <c r="C43" t="n">
-        <v>0.219567</v>
+        <v>0.219622</v>
       </c>
       <c r="D43" t="n">
-        <v>0.222926</v>
+        <v>0.222883</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.310466</v>
+        <v>0.31036</v>
       </c>
       <c r="C44" t="n">
-        <v>0.218566</v>
+        <v>0.218498</v>
       </c>
       <c r="D44" t="n">
-        <v>0.222231</v>
+        <v>0.222237</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.301909</v>
+        <v>0.302202</v>
       </c>
       <c r="C45" t="n">
-        <v>0.217932</v>
+        <v>0.217946</v>
       </c>
       <c r="D45" t="n">
-        <v>0.221308</v>
+        <v>0.2214</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.293697</v>
+        <v>0.293309</v>
       </c>
       <c r="C46" t="n">
-        <v>0.217049</v>
+        <v>0.216856</v>
       </c>
       <c r="D46" t="n">
-        <v>0.220667</v>
+        <v>0.2208</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.284433</v>
+        <v>0.284041</v>
       </c>
       <c r="C47" t="n">
-        <v>0.216836</v>
+        <v>0.216434</v>
       </c>
       <c r="D47" t="n">
-        <v>0.219882</v>
+        <v>0.220057</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.273729</v>
+        <v>0.273951</v>
       </c>
       <c r="C48" t="n">
-        <v>0.216142</v>
+        <v>0.215752</v>
       </c>
       <c r="D48" t="n">
-        <v>0.21943</v>
+        <v>0.219517</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.262444</v>
+        <v>0.262719</v>
       </c>
       <c r="C49" t="n">
-        <v>0.215467</v>
+        <v>0.21514</v>
       </c>
       <c r="D49" t="n">
-        <v>0.218562</v>
+        <v>0.218743</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.249834</v>
+        <v>0.250145</v>
       </c>
       <c r="C50" t="n">
-        <v>0.215235</v>
+        <v>0.214875</v>
       </c>
       <c r="D50" t="n">
-        <v>0.218183</v>
+        <v>0.218153</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.236699</v>
+        <v>0.236731</v>
       </c>
       <c r="C51" t="n">
-        <v>0.227182</v>
+        <v>0.226747</v>
       </c>
       <c r="D51" t="n">
-        <v>0.229808</v>
+        <v>0.229816</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.221779</v>
+        <v>0.221976</v>
       </c>
       <c r="C52" t="n">
-        <v>0.225635</v>
+        <v>0.224942</v>
       </c>
       <c r="D52" t="n">
-        <v>0.228639</v>
+        <v>0.228598</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347738</v>
+        <v>0.347704</v>
       </c>
       <c r="C53" t="n">
-        <v>0.223512</v>
+        <v>0.223296</v>
       </c>
       <c r="D53" t="n">
-        <v>0.227238</v>
+        <v>0.227183</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.342033</v>
+        <v>0.341999</v>
       </c>
       <c r="C54" t="n">
-        <v>0.222375</v>
+        <v>0.222277</v>
       </c>
       <c r="D54" t="n">
-        <v>0.226193</v>
+        <v>0.226112</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.336104</v>
+        <v>0.335978</v>
       </c>
       <c r="C55" t="n">
-        <v>0.221527</v>
+        <v>0.22131</v>
       </c>
       <c r="D55" t="n">
-        <v>0.225241</v>
+        <v>0.225261</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.328842</v>
+        <v>0.328988</v>
       </c>
       <c r="C56" t="n">
-        <v>0.220358</v>
+        <v>0.220214</v>
       </c>
       <c r="D56" t="n">
-        <v>0.224333</v>
+        <v>0.224324</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.321507</v>
+        <v>0.32175</v>
       </c>
       <c r="C57" t="n">
-        <v>0.219488</v>
+        <v>0.219287</v>
       </c>
       <c r="D57" t="n">
-        <v>0.223102</v>
+        <v>0.223118</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314048</v>
+        <v>0.314408</v>
       </c>
       <c r="C58" t="n">
-        <v>0.218797</v>
+        <v>0.21874</v>
       </c>
       <c r="D58" t="n">
-        <v>0.222175</v>
+        <v>0.222195</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305272</v>
+        <v>0.305808</v>
       </c>
       <c r="C59" t="n">
-        <v>0.218225</v>
+        <v>0.217955</v>
       </c>
       <c r="D59" t="n">
-        <v>0.221518</v>
+        <v>0.221414</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.295678</v>
+        <v>0.296017</v>
       </c>
       <c r="C60" t="n">
-        <v>0.21751</v>
+        <v>0.217063</v>
       </c>
       <c r="D60" t="n">
-        <v>0.220963</v>
+        <v>0.220907</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.286184</v>
+        <v>0.286693</v>
       </c>
       <c r="C61" t="n">
-        <v>0.216761</v>
+        <v>0.216508</v>
       </c>
       <c r="D61" t="n">
-        <v>0.219954</v>
+        <v>0.220065</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.275744</v>
+        <v>0.276087</v>
       </c>
       <c r="C62" t="n">
-        <v>0.216</v>
+        <v>0.215744</v>
       </c>
       <c r="D62" t="n">
-        <v>0.219594</v>
+        <v>0.21961</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.264378</v>
+        <v>0.264759</v>
       </c>
       <c r="C63" t="n">
-        <v>0.215606</v>
+        <v>0.215292</v>
       </c>
       <c r="D63" t="n">
-        <v>0.218768</v>
+        <v>0.218703</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.252389</v>
+        <v>0.252844</v>
       </c>
       <c r="C64" t="n">
-        <v>0.215219</v>
+        <v>0.214938</v>
       </c>
       <c r="D64" t="n">
-        <v>0.218186</v>
+        <v>0.218247</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.239432</v>
+        <v>0.239663</v>
       </c>
       <c r="C65" t="n">
-        <v>0.21465</v>
+        <v>0.214459</v>
       </c>
       <c r="D65" t="n">
-        <v>0.21788</v>
+        <v>0.217975</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.225123</v>
+        <v>0.225355</v>
       </c>
       <c r="C66" t="n">
-        <v>0.225981</v>
+        <v>0.225623</v>
       </c>
       <c r="D66" t="n">
-        <v>0.229618</v>
+        <v>0.229546</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349596</v>
+        <v>0.349576</v>
       </c>
       <c r="C67" t="n">
-        <v>0.224817</v>
+        <v>0.224987</v>
       </c>
       <c r="D67" t="n">
-        <v>0.227898</v>
+        <v>0.227938</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.343842</v>
+        <v>0.344039</v>
       </c>
       <c r="C68" t="n">
-        <v>0.223012</v>
+        <v>0.223391</v>
       </c>
       <c r="D68" t="n">
-        <v>0.226713</v>
+        <v>0.226637</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.337715</v>
+        <v>0.337784</v>
       </c>
       <c r="C69" t="n">
-        <v>0.221751</v>
+        <v>0.22173</v>
       </c>
       <c r="D69" t="n">
-        <v>0.225441</v>
+        <v>0.225413</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.331058</v>
+        <v>0.331225</v>
       </c>
       <c r="C70" t="n">
-        <v>0.220739</v>
+        <v>0.220391</v>
       </c>
       <c r="D70" t="n">
-        <v>0.224352</v>
+        <v>0.22439</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.323325</v>
+        <v>0.323539</v>
       </c>
       <c r="C71" t="n">
-        <v>0.22004</v>
+        <v>0.219452</v>
       </c>
       <c r="D71" t="n">
-        <v>0.223702</v>
+        <v>0.223521</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316199</v>
+        <v>0.316592</v>
       </c>
       <c r="C72" t="n">
-        <v>0.218898</v>
+        <v>0.21885</v>
       </c>
       <c r="D72" t="n">
-        <v>0.222837</v>
+        <v>0.222725</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307828</v>
+        <v>0.308175</v>
       </c>
       <c r="C73" t="n">
-        <v>0.218414</v>
+        <v>0.218319</v>
       </c>
       <c r="D73" t="n">
-        <v>0.22192</v>
+        <v>0.22189</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.299413</v>
+        <v>0.299354</v>
       </c>
       <c r="C74" t="n">
-        <v>0.217642</v>
+        <v>0.217005</v>
       </c>
       <c r="D74" t="n">
-        <v>0.221129</v>
+        <v>0.221261</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.289936</v>
+        <v>0.289926</v>
       </c>
       <c r="C75" t="n">
-        <v>0.216811</v>
+        <v>0.216506</v>
       </c>
       <c r="D75" t="n">
-        <v>0.220478</v>
+        <v>0.220569</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.280202</v>
+        <v>0.28</v>
       </c>
       <c r="C76" t="n">
-        <v>0.216358</v>
+        <v>0.216158</v>
       </c>
       <c r="D76" t="n">
-        <v>0.219925</v>
+        <v>0.219908</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.268752</v>
+        <v>0.268686</v>
       </c>
       <c r="C77" t="n">
-        <v>0.215779</v>
+        <v>0.215276</v>
       </c>
       <c r="D77" t="n">
-        <v>0.219341</v>
+        <v>0.219196</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.256206</v>
+        <v>0.256372</v>
       </c>
       <c r="C78" t="n">
-        <v>0.21548</v>
+        <v>0.21502</v>
       </c>
       <c r="D78" t="n">
-        <v>0.218984</v>
+        <v>0.21892</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.243373</v>
+        <v>0.243542</v>
       </c>
       <c r="C79" t="n">
-        <v>0.214958</v>
+        <v>0.214754</v>
       </c>
       <c r="D79" t="n">
-        <v>0.218409</v>
+        <v>0.21842</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.229125</v>
+        <v>0.229174</v>
       </c>
       <c r="C80" t="n">
-        <v>0.22893</v>
+        <v>0.227886</v>
       </c>
       <c r="D80" t="n">
-        <v>0.231267</v>
+        <v>0.231218</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.351345</v>
+        <v>0.351548</v>
       </c>
       <c r="C81" t="n">
-        <v>0.226137</v>
+        <v>0.225891</v>
       </c>
       <c r="D81" t="n">
-        <v>0.229382</v>
+        <v>0.229268</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.345657</v>
+        <v>0.345811</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224269</v>
+        <v>0.223972</v>
       </c>
       <c r="D82" t="n">
-        <v>0.227787</v>
+        <v>0.227628</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.339542</v>
+        <v>0.339185</v>
       </c>
       <c r="C83" t="n">
-        <v>0.222818</v>
+        <v>0.222548</v>
       </c>
       <c r="D83" t="n">
-        <v>0.226376</v>
+        <v>0.226228</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.332843</v>
+        <v>0.33294</v>
       </c>
       <c r="C84" t="n">
-        <v>0.221713</v>
+        <v>0.221411</v>
       </c>
       <c r="D84" t="n">
-        <v>0.225247</v>
+        <v>0.225079</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.325569</v>
+        <v>0.325976</v>
       </c>
       <c r="C85" t="n">
-        <v>0.220495</v>
+        <v>0.22014</v>
       </c>
       <c r="D85" t="n">
-        <v>0.224273</v>
+        <v>0.224136</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.317819</v>
+        <v>0.318121</v>
       </c>
       <c r="C86" t="n">
-        <v>0.21962</v>
+        <v>0.219361</v>
       </c>
       <c r="D86" t="n">
-        <v>0.223111</v>
+        <v>0.223064</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.310113</v>
+        <v>0.310133</v>
       </c>
       <c r="C87" t="n">
-        <v>0.218602</v>
+        <v>0.218292</v>
       </c>
       <c r="D87" t="n">
-        <v>0.222326</v>
+        <v>0.222222</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.30117</v>
+        <v>0.301134</v>
       </c>
       <c r="C88" t="n">
-        <v>0.217835</v>
+        <v>0.217516</v>
       </c>
       <c r="D88" t="n">
-        <v>0.221606</v>
+        <v>0.221413</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.292142</v>
+        <v>0.292193</v>
       </c>
       <c r="C89" t="n">
-        <v>0.216992</v>
+        <v>0.216721</v>
       </c>
       <c r="D89" t="n">
-        <v>0.220784</v>
+        <v>0.22072</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.281975</v>
+        <v>0.281959</v>
       </c>
       <c r="C90" t="n">
-        <v>0.216313</v>
+        <v>0.216049</v>
       </c>
       <c r="D90" t="n">
-        <v>0.220099</v>
+        <v>0.220132</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.271004</v>
+        <v>0.271047</v>
       </c>
       <c r="C91" t="n">
-        <v>0.215762</v>
+        <v>0.215538</v>
       </c>
       <c r="D91" t="n">
-        <v>0.219693</v>
+        <v>0.219639</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.259286</v>
+        <v>0.259288</v>
       </c>
       <c r="C92" t="n">
-        <v>0.215386</v>
+        <v>0.215226</v>
       </c>
       <c r="D92" t="n">
-        <v>0.219102</v>
+        <v>0.21905</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.246515</v>
+        <v>0.24673</v>
       </c>
       <c r="C93" t="n">
-        <v>0.215363</v>
+        <v>0.215025</v>
       </c>
       <c r="D93" t="n">
-        <v>0.218737</v>
+        <v>0.218682</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.232507</v>
+        <v>0.232532</v>
       </c>
       <c r="C94" t="n">
-        <v>0.228328</v>
+        <v>0.228547</v>
       </c>
       <c r="D94" t="n">
-        <v>0.232006</v>
+        <v>0.231698</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.352801</v>
+        <v>0.352887</v>
       </c>
       <c r="C95" t="n">
-        <v>0.226464</v>
+        <v>0.227356</v>
       </c>
       <c r="D95" t="n">
-        <v>0.230171</v>
+        <v>0.229926</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.347348</v>
+        <v>0.347067</v>
       </c>
       <c r="C96" t="n">
-        <v>0.224698</v>
+        <v>0.224492</v>
       </c>
       <c r="D96" t="n">
-        <v>0.228347</v>
+        <v>0.228182</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.341184</v>
+        <v>0.341186</v>
       </c>
       <c r="C97" t="n">
-        <v>0.223285</v>
+        <v>0.223246</v>
       </c>
       <c r="D97" t="n">
-        <v>0.226846</v>
+        <v>0.22669</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.334845</v>
+        <v>0.334769</v>
       </c>
       <c r="C98" t="n">
-        <v>0.221908</v>
+        <v>0.221592</v>
       </c>
       <c r="D98" t="n">
-        <v>0.225813</v>
+        <v>0.225624</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.327461</v>
+        <v>0.327291</v>
       </c>
       <c r="C99" t="n">
-        <v>0.22088</v>
+        <v>0.220634</v>
       </c>
       <c r="D99" t="n">
-        <v>0.224602</v>
+        <v>0.224427</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320127</v>
+        <v>0.320101</v>
       </c>
       <c r="C100" t="n">
-        <v>0.219595</v>
+        <v>0.21992</v>
       </c>
       <c r="D100" t="n">
-        <v>0.223652</v>
+        <v>0.223375</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.312344</v>
+        <v>0.312349</v>
       </c>
       <c r="C101" t="n">
-        <v>0.219281</v>
+        <v>0.21871</v>
       </c>
       <c r="D101" t="n">
-        <v>0.222623</v>
+        <v>0.222502</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.303414</v>
+        <v>0.303407</v>
       </c>
       <c r="C102" t="n">
-        <v>0.218102</v>
+        <v>0.217829</v>
       </c>
       <c r="D102" t="n">
-        <v>0.221844</v>
+        <v>0.221736</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293882</v>
+        <v>0.294054</v>
       </c>
       <c r="C103" t="n">
-        <v>0.21779</v>
+        <v>0.217492</v>
       </c>
       <c r="D103" t="n">
-        <v>0.220994</v>
+        <v>0.220985</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.284238</v>
+        <v>0.28422</v>
       </c>
       <c r="C104" t="n">
-        <v>0.216678</v>
+        <v>0.216507</v>
       </c>
       <c r="D104" t="n">
-        <v>0.22029</v>
+        <v>0.22022</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.273887</v>
+        <v>0.273599</v>
       </c>
       <c r="C105" t="n">
-        <v>0.216119</v>
+        <v>0.215956</v>
       </c>
       <c r="D105" t="n">
-        <v>0.219817</v>
+        <v>0.219616</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.262028</v>
+        <v>0.262111</v>
       </c>
       <c r="C106" t="n">
-        <v>0.215794</v>
+        <v>0.215334</v>
       </c>
       <c r="D106" t="n">
-        <v>0.21918</v>
+        <v>0.219016</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.249307</v>
+        <v>0.24936</v>
       </c>
       <c r="C107" t="n">
-        <v>0.215548</v>
+        <v>0.215162</v>
       </c>
       <c r="D107" t="n">
-        <v>0.218719</v>
+        <v>0.218597</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.235634</v>
+        <v>0.235559</v>
       </c>
       <c r="C108" t="n">
-        <v>0.229344</v>
+        <v>0.228868</v>
       </c>
       <c r="D108" t="n">
-        <v>0.233049</v>
+        <v>0.232138</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.220855</v>
+        <v>0.220764</v>
       </c>
       <c r="C109" t="n">
-        <v>0.227416</v>
+        <v>0.227045</v>
       </c>
       <c r="D109" t="n">
-        <v>0.230832</v>
+        <v>0.230254</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.348558</v>
+        <v>0.348641</v>
       </c>
       <c r="C110" t="n">
-        <v>0.22549</v>
+        <v>0.225361</v>
       </c>
       <c r="D110" t="n">
-        <v>0.228989</v>
+        <v>0.228527</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.343174</v>
+        <v>0.343101</v>
       </c>
       <c r="C111" t="n">
-        <v>0.223864</v>
+        <v>0.223717</v>
       </c>
       <c r="D111" t="n">
-        <v>0.228103</v>
+        <v>0.227411</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.336183</v>
+        <v>0.335852</v>
       </c>
       <c r="C112" t="n">
-        <v>0.222317</v>
+        <v>0.222324</v>
       </c>
       <c r="D112" t="n">
-        <v>0.226535</v>
+        <v>0.225731</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.329132</v>
+        <v>0.329101</v>
       </c>
       <c r="C113" t="n">
-        <v>0.221502</v>
+        <v>0.221217</v>
       </c>
       <c r="D113" t="n">
-        <v>0.225496</v>
+        <v>0.224661</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.322041</v>
+        <v>0.321955</v>
       </c>
       <c r="C114" t="n">
-        <v>0.220398</v>
+        <v>0.220081</v>
       </c>
       <c r="D114" t="n">
-        <v>0.224059</v>
+        <v>0.223647</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313812</v>
+        <v>0.313993</v>
       </c>
       <c r="C115" t="n">
-        <v>0.219472</v>
+        <v>0.219135</v>
       </c>
       <c r="D115" t="n">
-        <v>0.223382</v>
+        <v>0.222638</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.30536</v>
+        <v>0.305642</v>
       </c>
       <c r="C116" t="n">
-        <v>0.218963</v>
+        <v>0.218531</v>
       </c>
       <c r="D116" t="n">
-        <v>0.222885</v>
+        <v>0.222089</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295867</v>
+        <v>0.297022</v>
       </c>
       <c r="C117" t="n">
-        <v>0.21819</v>
+        <v>0.217418</v>
       </c>
       <c r="D117" t="n">
-        <v>0.222111</v>
+        <v>0.221401</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.286811</v>
+        <v>0.286679</v>
       </c>
       <c r="C118" t="n">
-        <v>0.217079</v>
+        <v>0.216956</v>
       </c>
       <c r="D118" t="n">
-        <v>0.220903</v>
+        <v>0.220929</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.275651</v>
+        <v>0.275843</v>
       </c>
       <c r="C119" t="n">
-        <v>0.216536</v>
+        <v>0.216236</v>
       </c>
       <c r="D119" t="n">
-        <v>0.220418</v>
+        <v>0.220173</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.2647</v>
+        <v>0.26475</v>
       </c>
       <c r="C120" t="n">
-        <v>0.216462</v>
+        <v>0.216233</v>
       </c>
       <c r="D120" t="n">
-        <v>0.220169</v>
+        <v>0.219511</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.252282</v>
+        <v>0.252717</v>
       </c>
       <c r="C121" t="n">
-        <v>0.215946</v>
+        <v>0.215403</v>
       </c>
       <c r="D121" t="n">
-        <v>0.219626</v>
+        <v>0.219078</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.238623</v>
+        <v>0.238948</v>
       </c>
       <c r="C122" t="n">
-        <v>0.215523</v>
+        <v>0.215059</v>
       </c>
       <c r="D122" t="n">
-        <v>0.218935</v>
+        <v>0.218715</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.224517</v>
+        <v>0.22452</v>
       </c>
       <c r="C123" t="n">
-        <v>0.228335</v>
+        <v>0.229274</v>
       </c>
       <c r="D123" t="n">
-        <v>0.232782</v>
+        <v>0.231612</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.350325</v>
+        <v>0.349897</v>
       </c>
       <c r="C124" t="n">
-        <v>0.226561</v>
+        <v>0.226112</v>
       </c>
       <c r="D124" t="n">
-        <v>0.230318</v>
+        <v>0.229639</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.344013</v>
+        <v>0.344183</v>
       </c>
       <c r="C125" t="n">
-        <v>0.224855</v>
+        <v>0.224749</v>
       </c>
       <c r="D125" t="n">
-        <v>0.229169</v>
+        <v>0.22818</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.338573</v>
+        <v>0.337763</v>
       </c>
       <c r="C126" t="n">
-        <v>0.223276</v>
+        <v>0.22334</v>
       </c>
       <c r="D126" t="n">
-        <v>0.228372</v>
+        <v>0.226379</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.331255</v>
+        <v>0.331216</v>
       </c>
       <c r="C127" t="n">
-        <v>0.222225</v>
+        <v>0.222939</v>
       </c>
       <c r="D127" t="n">
-        <v>0.227156</v>
+        <v>0.225548</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.323257</v>
+        <v>0.323976</v>
       </c>
       <c r="C128" t="n">
-        <v>0.22093</v>
+        <v>0.221358</v>
       </c>
       <c r="D128" t="n">
-        <v>0.225842</v>
+        <v>0.224559</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.316257</v>
+        <v>0.316125</v>
       </c>
       <c r="C129" t="n">
-        <v>0.220062</v>
+        <v>0.220416</v>
       </c>
       <c r="D129" t="n">
-        <v>0.225037</v>
+        <v>0.222812</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.307429</v>
+        <v>0.307305</v>
       </c>
       <c r="C130" t="n">
-        <v>0.219842</v>
+        <v>0.218731</v>
       </c>
       <c r="D130" t="n">
-        <v>0.225189</v>
+        <v>0.222932</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.298378</v>
+        <v>0.298449</v>
       </c>
       <c r="C131" t="n">
-        <v>0.218478</v>
+        <v>0.218122</v>
       </c>
       <c r="D131" t="n">
-        <v>0.222776</v>
+        <v>0.221809</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.288942</v>
+        <v>0.288705</v>
       </c>
       <c r="C132" t="n">
-        <v>0.218616</v>
+        <v>0.217344</v>
       </c>
       <c r="D132" t="n">
-        <v>0.22292</v>
+        <v>0.220493</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.278438</v>
+        <v>0.278377</v>
       </c>
       <c r="C133" t="n">
-        <v>0.218114</v>
+        <v>0.216654</v>
       </c>
       <c r="D133" t="n">
-        <v>0.221887</v>
+        <v>0.219773</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.266972</v>
+        <v>0.267532</v>
       </c>
       <c r="C134" t="n">
-        <v>0.218019</v>
+        <v>0.217246</v>
       </c>
       <c r="D134" t="n">
-        <v>0.220852</v>
+        <v>0.219421</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.254933</v>
+        <v>0.255494</v>
       </c>
       <c r="C135" t="n">
-        <v>0.216636</v>
+        <v>0.216911</v>
       </c>
       <c r="D135" t="n">
-        <v>0.220155</v>
+        <v>0.21898</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.241839</v>
+        <v>0.241753</v>
       </c>
       <c r="C136" t="n">
-        <v>0.215923</v>
+        <v>0.216034</v>
       </c>
       <c r="D136" t="n">
-        <v>0.220691</v>
+        <v>0.218683</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.227202</v>
+        <v>0.227492</v>
       </c>
       <c r="C137" t="n">
-        <v>0.231071</v>
+        <v>0.230718</v>
       </c>
       <c r="D137" t="n">
-        <v>0.236199</v>
+        <v>0.233868</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.351548</v>
+        <v>0.351662</v>
       </c>
       <c r="C138" t="n">
-        <v>0.230533</v>
+        <v>0.228378</v>
       </c>
       <c r="D138" t="n">
-        <v>0.233191</v>
+        <v>0.232069</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.346195</v>
+        <v>0.34588</v>
       </c>
       <c r="C139" t="n">
-        <v>0.226975</v>
+        <v>0.22745</v>
       </c>
       <c r="D139" t="n">
-        <v>0.231368</v>
+        <v>0.231713</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.339659</v>
+        <v>0.339487</v>
       </c>
       <c r="C140" t="n">
-        <v>0.226231</v>
+        <v>0.226356</v>
       </c>
       <c r="D140" t="n">
-        <v>0.230858</v>
+        <v>0.228706</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.333243</v>
+        <v>0.333191</v>
       </c>
       <c r="C141" t="n">
-        <v>0.224564</v>
+        <v>0.224367</v>
       </c>
       <c r="D141" t="n">
-        <v>0.230287</v>
+        <v>0.227519</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.325475</v>
+        <v>0.326129</v>
       </c>
       <c r="C142" t="n">
-        <v>0.224756</v>
+        <v>0.223709</v>
       </c>
       <c r="D142" t="n">
-        <v>0.229271</v>
+        <v>0.226293</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.318241</v>
+        <v>0.318487</v>
       </c>
       <c r="C143" t="n">
-        <v>0.223389</v>
+        <v>0.222427</v>
       </c>
       <c r="D143" t="n">
-        <v>0.227318</v>
+        <v>0.225375</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.298412</v>
+        <v>0.300507</v>
       </c>
       <c r="C2" t="n">
-        <v>0.205152</v>
+        <v>0.216399</v>
       </c>
       <c r="D2" t="n">
-        <v>0.200434</v>
+        <v>0.202082</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.28938</v>
+        <v>0.290747</v>
       </c>
       <c r="C3" t="n">
-        <v>0.214738</v>
+        <v>0.216454</v>
       </c>
       <c r="D3" t="n">
-        <v>0.201757</v>
+        <v>0.202175</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.279528</v>
+        <v>0.280627</v>
       </c>
       <c r="C4" t="n">
-        <v>0.216711</v>
+        <v>0.20447</v>
       </c>
       <c r="D4" t="n">
-        <v>0.204459</v>
+        <v>0.204542</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.270562</v>
+        <v>0.270268</v>
       </c>
       <c r="C5" t="n">
-        <v>0.206597</v>
+        <v>0.206284</v>
       </c>
       <c r="D5" t="n">
-        <v>0.204285</v>
+        <v>0.204251</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.258763</v>
+        <v>0.257171</v>
       </c>
       <c r="C6" t="n">
-        <v>0.217406</v>
+        <v>0.206228</v>
       </c>
       <c r="D6" t="n">
-        <v>0.205001</v>
+        <v>0.205505</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.245836</v>
+        <v>0.243999</v>
       </c>
       <c r="C7" t="n">
-        <v>0.206309</v>
+        <v>0.212722</v>
       </c>
       <c r="D7" t="n">
-        <v>0.205404</v>
+        <v>0.205455</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.231899</v>
+        <v>0.232142</v>
       </c>
       <c r="C8" t="n">
-        <v>0.208063</v>
+        <v>0.207821</v>
       </c>
       <c r="D8" t="n">
-        <v>0.206295</v>
+        <v>0.206655</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.218355</v>
+        <v>0.218206</v>
       </c>
       <c r="C9" t="n">
-        <v>0.222789</v>
+        <v>0.22283</v>
       </c>
       <c r="D9" t="n">
-        <v>0.225629</v>
+        <v>0.224401</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.346236</v>
+        <v>0.346876</v>
       </c>
       <c r="C10" t="n">
-        <v>0.22147</v>
+        <v>0.232249</v>
       </c>
       <c r="D10" t="n">
-        <v>0.223747</v>
+        <v>0.22421</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.339849</v>
+        <v>0.33945</v>
       </c>
       <c r="C11" t="n">
-        <v>0.225774</v>
+        <v>0.220834</v>
       </c>
       <c r="D11" t="n">
-        <v>0.22485</v>
+        <v>0.222667</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.335748</v>
+        <v>0.334351</v>
       </c>
       <c r="C12" t="n">
-        <v>0.229368</v>
+        <v>0.218185</v>
       </c>
       <c r="D12" t="n">
-        <v>0.221584</v>
+        <v>0.234136</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.325097</v>
+        <v>0.328377</v>
       </c>
       <c r="C13" t="n">
-        <v>0.217758</v>
+        <v>0.221069</v>
       </c>
       <c r="D13" t="n">
-        <v>0.220738</v>
+        <v>0.231246</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.323263</v>
+        <v>0.323763</v>
       </c>
       <c r="C14" t="n">
-        <v>0.217122</v>
+        <v>0.219051</v>
       </c>
       <c r="D14" t="n">
-        <v>0.224112</v>
+        <v>0.220207</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.316066</v>
+        <v>0.318767</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2279</v>
+        <v>0.227177</v>
       </c>
       <c r="D15" t="n">
-        <v>0.219842</v>
+        <v>0.219335</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.308245</v>
+        <v>0.30601</v>
       </c>
       <c r="C16" t="n">
-        <v>0.215829</v>
+        <v>0.217116</v>
       </c>
       <c r="D16" t="n">
-        <v>0.220854</v>
+        <v>0.219157</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.300566</v>
+        <v>0.297786</v>
       </c>
       <c r="C17" t="n">
-        <v>0.21596</v>
+        <v>0.225996</v>
       </c>
       <c r="D17" t="n">
-        <v>0.221153</v>
+        <v>0.219202</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.289326</v>
+        <v>0.289555</v>
       </c>
       <c r="C18" t="n">
-        <v>0.215617</v>
+        <v>0.215337</v>
       </c>
       <c r="D18" t="n">
-        <v>0.219972</v>
+        <v>0.219305</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.278112</v>
+        <v>0.27894</v>
       </c>
       <c r="C19" t="n">
-        <v>0.22522</v>
+        <v>0.225018</v>
       </c>
       <c r="D19" t="n">
-        <v>0.218551</v>
+        <v>0.218783</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.269747</v>
+        <v>0.27446</v>
       </c>
       <c r="C20" t="n">
-        <v>0.214871</v>
+        <v>0.214614</v>
       </c>
       <c r="D20" t="n">
-        <v>0.219434</v>
+        <v>0.220653</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.260044</v>
+        <v>0.259649</v>
       </c>
       <c r="C21" t="n">
-        <v>0.220204</v>
+        <v>0.214508</v>
       </c>
       <c r="D21" t="n">
-        <v>0.218116</v>
+        <v>0.218304</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.249269</v>
+        <v>0.245182</v>
       </c>
       <c r="C22" t="n">
-        <v>0.223877</v>
+        <v>0.223897</v>
       </c>
       <c r="D22" t="n">
-        <v>0.21816</v>
+        <v>0.21874</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.228586</v>
+        <v>0.22974</v>
       </c>
       <c r="C23" t="n">
-        <v>0.22575</v>
+        <v>0.224829</v>
       </c>
       <c r="D23" t="n">
-        <v>0.22847</v>
+        <v>0.228595</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.349759</v>
+        <v>0.349229</v>
       </c>
       <c r="C24" t="n">
-        <v>0.223613</v>
+        <v>0.224318</v>
       </c>
       <c r="D24" t="n">
-        <v>0.227657</v>
+        <v>0.227269</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.343428</v>
+        <v>0.343408</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222636</v>
+        <v>0.223262</v>
       </c>
       <c r="D25" t="n">
-        <v>0.225841</v>
+        <v>0.225857</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.337364</v>
+        <v>0.337544</v>
       </c>
       <c r="C26" t="n">
-        <v>0.22226</v>
+        <v>0.222236</v>
       </c>
       <c r="D26" t="n">
-        <v>0.225045</v>
+        <v>0.224869</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.330393</v>
+        <v>0.330682</v>
       </c>
       <c r="C27" t="n">
-        <v>0.221316</v>
+        <v>0.221185</v>
       </c>
       <c r="D27" t="n">
-        <v>0.224425</v>
+        <v>0.224031</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.324014</v>
+        <v>0.32413</v>
       </c>
       <c r="C28" t="n">
-        <v>0.219504</v>
+        <v>0.218957</v>
       </c>
       <c r="D28" t="n">
-        <v>0.223523</v>
+        <v>0.223476</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.316625</v>
+        <v>0.316861</v>
       </c>
       <c r="C29" t="n">
-        <v>0.218685</v>
+        <v>0.218789</v>
       </c>
       <c r="D29" t="n">
-        <v>0.222034</v>
+        <v>0.222058</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.308943</v>
+        <v>0.308969</v>
       </c>
       <c r="C30" t="n">
-        <v>0.21853</v>
+        <v>0.218713</v>
       </c>
       <c r="D30" t="n">
-        <v>0.221732</v>
+        <v>0.221686</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.299816</v>
+        <v>0.300098</v>
       </c>
       <c r="C31" t="n">
-        <v>0.217739</v>
+        <v>0.217894</v>
       </c>
       <c r="D31" t="n">
-        <v>0.221251</v>
+        <v>0.22136</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.291012</v>
+        <v>0.29094</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2174</v>
+        <v>0.217319</v>
       </c>
       <c r="D32" t="n">
-        <v>0.221355</v>
+        <v>0.221</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.281367</v>
+        <v>0.281667</v>
       </c>
       <c r="C33" t="n">
-        <v>0.216315</v>
+        <v>0.215977</v>
       </c>
       <c r="D33" t="n">
-        <v>0.219811</v>
+        <v>0.219563</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.271274</v>
+        <v>0.271084</v>
       </c>
       <c r="C34" t="n">
-        <v>0.215629</v>
+        <v>0.215719</v>
       </c>
       <c r="D34" t="n">
-        <v>0.219265</v>
+        <v>0.218874</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.259732</v>
+        <v>0.260333</v>
       </c>
       <c r="C35" t="n">
-        <v>0.215372</v>
+        <v>0.215265</v>
       </c>
       <c r="D35" t="n">
-        <v>0.218756</v>
+        <v>0.218789</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.246064</v>
+        <v>0.246736</v>
       </c>
       <c r="C36" t="n">
-        <v>0.214906</v>
+        <v>0.214786</v>
       </c>
       <c r="D36" t="n">
-        <v>0.217989</v>
+        <v>0.217793</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.232095</v>
+        <v>0.232608</v>
       </c>
       <c r="C37" t="n">
-        <v>0.226309</v>
+        <v>0.225968</v>
       </c>
       <c r="D37" t="n">
-        <v>0.229188</v>
+        <v>0.229044</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.350288</v>
+        <v>0.350975</v>
       </c>
       <c r="C38" t="n">
-        <v>0.225337</v>
+        <v>0.224971</v>
       </c>
       <c r="D38" t="n">
-        <v>0.228128</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.345232</v>
+        <v>0.346036</v>
       </c>
       <c r="C39" t="n">
-        <v>0.223211</v>
+        <v>0.223224</v>
       </c>
       <c r="D39" t="n">
-        <v>0.226711</v>
+        <v>0.226686</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.339139</v>
+        <v>0.339807</v>
       </c>
       <c r="C40" t="n">
-        <v>0.222007</v>
+        <v>0.222169</v>
       </c>
       <c r="D40" t="n">
-        <v>0.225771</v>
+        <v>0.225674</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.332823</v>
+        <v>0.33342</v>
       </c>
       <c r="C41" t="n">
-        <v>0.221019</v>
+        <v>0.22115</v>
       </c>
       <c r="D41" t="n">
-        <v>0.224701</v>
+        <v>0.224524</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.325614</v>
+        <v>0.326692</v>
       </c>
       <c r="C42" t="n">
-        <v>0.219945</v>
+        <v>0.219866</v>
       </c>
       <c r="D42" t="n">
-        <v>0.223627</v>
+        <v>0.223669</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.31811</v>
+        <v>0.31859</v>
       </c>
       <c r="C43" t="n">
-        <v>0.219622</v>
+        <v>0.219448</v>
       </c>
       <c r="D43" t="n">
-        <v>0.222883</v>
+        <v>0.223019</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.31036</v>
+        <v>0.310856</v>
       </c>
       <c r="C44" t="n">
-        <v>0.218498</v>
+        <v>0.218458</v>
       </c>
       <c r="D44" t="n">
-        <v>0.222237</v>
+        <v>0.222214</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.302202</v>
+        <v>0.302789</v>
       </c>
       <c r="C45" t="n">
-        <v>0.217946</v>
+        <v>0.217722</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2214</v>
+        <v>0.221188</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.293309</v>
+        <v>0.294248</v>
       </c>
       <c r="C46" t="n">
-        <v>0.216856</v>
+        <v>0.216952</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2208</v>
+        <v>0.220657</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.284041</v>
+        <v>0.284653</v>
       </c>
       <c r="C47" t="n">
-        <v>0.216434</v>
+        <v>0.216575</v>
       </c>
       <c r="D47" t="n">
-        <v>0.220057</v>
+        <v>0.220065</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.273951</v>
+        <v>0.274311</v>
       </c>
       <c r="C48" t="n">
-        <v>0.215752</v>
+        <v>0.215881</v>
       </c>
       <c r="D48" t="n">
-        <v>0.219517</v>
+        <v>0.219396</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.262719</v>
+        <v>0.26321</v>
       </c>
       <c r="C49" t="n">
-        <v>0.21514</v>
+        <v>0.215315</v>
       </c>
       <c r="D49" t="n">
-        <v>0.218743</v>
+        <v>0.218599</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.250145</v>
+        <v>0.250591</v>
       </c>
       <c r="C50" t="n">
-        <v>0.214875</v>
+        <v>0.215063</v>
       </c>
       <c r="D50" t="n">
-        <v>0.218153</v>
+        <v>0.218232</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.236731</v>
+        <v>0.236805</v>
       </c>
       <c r="C51" t="n">
-        <v>0.226747</v>
+        <v>0.228721</v>
       </c>
       <c r="D51" t="n">
-        <v>0.229816</v>
+        <v>0.229766</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.221976</v>
+        <v>0.222257</v>
       </c>
       <c r="C52" t="n">
-        <v>0.224942</v>
+        <v>0.226021</v>
       </c>
       <c r="D52" t="n">
-        <v>0.228598</v>
+        <v>0.228426</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347704</v>
+        <v>0.348596</v>
       </c>
       <c r="C53" t="n">
-        <v>0.223296</v>
+        <v>0.223388</v>
       </c>
       <c r="D53" t="n">
-        <v>0.227183</v>
+        <v>0.227131</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.341999</v>
+        <v>0.343059</v>
       </c>
       <c r="C54" t="n">
-        <v>0.222277</v>
+        <v>0.222559</v>
       </c>
       <c r="D54" t="n">
-        <v>0.226112</v>
+        <v>0.226082</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.335978</v>
+        <v>0.33654</v>
       </c>
       <c r="C55" t="n">
-        <v>0.22131</v>
+        <v>0.221453</v>
       </c>
       <c r="D55" t="n">
-        <v>0.225261</v>
+        <v>0.225138</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.328988</v>
+        <v>0.329566</v>
       </c>
       <c r="C56" t="n">
-        <v>0.220214</v>
+        <v>0.220105</v>
       </c>
       <c r="D56" t="n">
-        <v>0.224324</v>
+        <v>0.224274</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.32175</v>
+        <v>0.321948</v>
       </c>
       <c r="C57" t="n">
-        <v>0.219287</v>
+        <v>0.219356</v>
       </c>
       <c r="D57" t="n">
-        <v>0.223118</v>
+        <v>0.22296</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314408</v>
+        <v>0.314753</v>
       </c>
       <c r="C58" t="n">
-        <v>0.21874</v>
+        <v>0.218742</v>
       </c>
       <c r="D58" t="n">
-        <v>0.222195</v>
+        <v>0.222264</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305808</v>
+        <v>0.306479</v>
       </c>
       <c r="C59" t="n">
-        <v>0.217955</v>
+        <v>0.218108</v>
       </c>
       <c r="D59" t="n">
-        <v>0.221414</v>
+        <v>0.221489</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.296017</v>
+        <v>0.296922</v>
       </c>
       <c r="C60" t="n">
-        <v>0.217063</v>
+        <v>0.217121</v>
       </c>
       <c r="D60" t="n">
-        <v>0.220907</v>
+        <v>0.220815</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.286693</v>
+        <v>0.286077</v>
       </c>
       <c r="C61" t="n">
-        <v>0.216508</v>
+        <v>0.216416</v>
       </c>
       <c r="D61" t="n">
-        <v>0.220065</v>
+        <v>0.219966</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.276087</v>
+        <v>0.276102</v>
       </c>
       <c r="C62" t="n">
-        <v>0.215744</v>
+        <v>0.215725</v>
       </c>
       <c r="D62" t="n">
-        <v>0.21961</v>
+        <v>0.219564</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.264759</v>
+        <v>0.264707</v>
       </c>
       <c r="C63" t="n">
-        <v>0.215292</v>
+        <v>0.215377</v>
       </c>
       <c r="D63" t="n">
-        <v>0.218703</v>
+        <v>0.218724</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.252844</v>
+        <v>0.252681</v>
       </c>
       <c r="C64" t="n">
-        <v>0.214938</v>
+        <v>0.214969</v>
       </c>
       <c r="D64" t="n">
-        <v>0.218247</v>
+        <v>0.21821</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.239663</v>
+        <v>0.239565</v>
       </c>
       <c r="C65" t="n">
-        <v>0.214459</v>
+        <v>0.214424</v>
       </c>
       <c r="D65" t="n">
-        <v>0.217975</v>
+        <v>0.217926</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.225355</v>
+        <v>0.22496</v>
       </c>
       <c r="C66" t="n">
-        <v>0.225623</v>
+        <v>0.22552</v>
       </c>
       <c r="D66" t="n">
-        <v>0.229546</v>
+        <v>0.229427</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349576</v>
+        <v>0.349513</v>
       </c>
       <c r="C67" t="n">
-        <v>0.224987</v>
+        <v>0.224257</v>
       </c>
       <c r="D67" t="n">
-        <v>0.227938</v>
+        <v>0.22781</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.344039</v>
+        <v>0.343939</v>
       </c>
       <c r="C68" t="n">
-        <v>0.223391</v>
+        <v>0.223175</v>
       </c>
       <c r="D68" t="n">
-        <v>0.226637</v>
+        <v>0.226612</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.337784</v>
+        <v>0.337155</v>
       </c>
       <c r="C69" t="n">
-        <v>0.22173</v>
+        <v>0.221807</v>
       </c>
       <c r="D69" t="n">
-        <v>0.225413</v>
+        <v>0.225502</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.331225</v>
+        <v>0.330569</v>
       </c>
       <c r="C70" t="n">
         <v>0.220391</v>
       </c>
       <c r="D70" t="n">
-        <v>0.22439</v>
+        <v>0.224526</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.323539</v>
+        <v>0.323174</v>
       </c>
       <c r="C71" t="n">
-        <v>0.219452</v>
+        <v>0.219857</v>
       </c>
       <c r="D71" t="n">
-        <v>0.223521</v>
+        <v>0.223708</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316592</v>
+        <v>0.315925</v>
       </c>
       <c r="C72" t="n">
-        <v>0.21885</v>
+        <v>0.218741</v>
       </c>
       <c r="D72" t="n">
-        <v>0.222725</v>
+        <v>0.222822</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.308175</v>
+        <v>0.307985</v>
       </c>
       <c r="C73" t="n">
-        <v>0.218319</v>
+        <v>0.218204</v>
       </c>
       <c r="D73" t="n">
-        <v>0.22189</v>
+        <v>0.221961</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.299354</v>
+        <v>0.299064</v>
       </c>
       <c r="C74" t="n">
-        <v>0.217005</v>
+        <v>0.217118</v>
       </c>
       <c r="D74" t="n">
-        <v>0.221261</v>
+        <v>0.221189</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.289926</v>
+        <v>0.289673</v>
       </c>
       <c r="C75" t="n">
-        <v>0.216506</v>
+        <v>0.216485</v>
       </c>
       <c r="D75" t="n">
-        <v>0.220569</v>
+        <v>0.220568</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.28</v>
+        <v>0.279482</v>
       </c>
       <c r="C76" t="n">
-        <v>0.216158</v>
+        <v>0.215886</v>
       </c>
       <c r="D76" t="n">
-        <v>0.219908</v>
+        <v>0.219975</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.268686</v>
+        <v>0.2687</v>
       </c>
       <c r="C77" t="n">
-        <v>0.215276</v>
+        <v>0.215449</v>
       </c>
       <c r="D77" t="n">
-        <v>0.219196</v>
+        <v>0.219295</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.256372</v>
+        <v>0.255958</v>
       </c>
       <c r="C78" t="n">
-        <v>0.21502</v>
+        <v>0.215053</v>
       </c>
       <c r="D78" t="n">
-        <v>0.21892</v>
+        <v>0.218936</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.243542</v>
+        <v>0.243226</v>
       </c>
       <c r="C79" t="n">
-        <v>0.214754</v>
+        <v>0.214813</v>
       </c>
       <c r="D79" t="n">
-        <v>0.21842</v>
+        <v>0.218438</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.229174</v>
+        <v>0.22892</v>
       </c>
       <c r="C80" t="n">
-        <v>0.227886</v>
+        <v>0.228355</v>
       </c>
       <c r="D80" t="n">
-        <v>0.231218</v>
+        <v>0.231241</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.351548</v>
+        <v>0.350988</v>
       </c>
       <c r="C81" t="n">
-        <v>0.225891</v>
+        <v>0.226214</v>
       </c>
       <c r="D81" t="n">
-        <v>0.229268</v>
+        <v>0.229263</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.345811</v>
+        <v>0.345508</v>
       </c>
       <c r="C82" t="n">
-        <v>0.223972</v>
+        <v>0.224154</v>
       </c>
       <c r="D82" t="n">
-        <v>0.227628</v>
+        <v>0.227616</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.339185</v>
+        <v>0.339168</v>
       </c>
       <c r="C83" t="n">
-        <v>0.222548</v>
+        <v>0.222879</v>
       </c>
       <c r="D83" t="n">
-        <v>0.226228</v>
+        <v>0.226224</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.33294</v>
+        <v>0.333126</v>
       </c>
       <c r="C84" t="n">
-        <v>0.221411</v>
+        <v>0.221389</v>
       </c>
       <c r="D84" t="n">
-        <v>0.225079</v>
+        <v>0.22512</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.325976</v>
+        <v>0.326547</v>
       </c>
       <c r="C85" t="n">
-        <v>0.22014</v>
+        <v>0.220334</v>
       </c>
       <c r="D85" t="n">
-        <v>0.224136</v>
+        <v>0.224125</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318121</v>
+        <v>0.317768</v>
       </c>
       <c r="C86" t="n">
-        <v>0.219361</v>
+        <v>0.219307</v>
       </c>
       <c r="D86" t="n">
-        <v>0.223064</v>
+        <v>0.223134</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.310133</v>
+        <v>0.310169</v>
       </c>
       <c r="C87" t="n">
-        <v>0.218292</v>
+        <v>0.218325</v>
       </c>
       <c r="D87" t="n">
-        <v>0.222222</v>
+        <v>0.222153</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.301134</v>
+        <v>0.300987</v>
       </c>
       <c r="C88" t="n">
-        <v>0.217516</v>
+        <v>0.217639</v>
       </c>
       <c r="D88" t="n">
-        <v>0.221413</v>
+        <v>0.221474</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.292193</v>
+        <v>0.291804</v>
       </c>
       <c r="C89" t="n">
-        <v>0.216721</v>
+        <v>0.216795</v>
       </c>
       <c r="D89" t="n">
-        <v>0.22072</v>
+        <v>0.22078</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.281959</v>
+        <v>0.282084</v>
       </c>
       <c r="C90" t="n">
-        <v>0.216049</v>
+        <v>0.216128</v>
       </c>
       <c r="D90" t="n">
-        <v>0.220132</v>
+        <v>0.220153</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.271047</v>
+        <v>0.271515</v>
       </c>
       <c r="C91" t="n">
-        <v>0.215538</v>
+        <v>0.215667</v>
       </c>
       <c r="D91" t="n">
-        <v>0.219639</v>
+        <v>0.219641</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.259288</v>
+        <v>0.259085</v>
       </c>
       <c r="C92" t="n">
-        <v>0.215226</v>
+        <v>0.215178</v>
       </c>
       <c r="D92" t="n">
-        <v>0.21905</v>
+        <v>0.219095</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.24673</v>
+        <v>0.246263</v>
       </c>
       <c r="C93" t="n">
-        <v>0.215025</v>
+        <v>0.214822</v>
       </c>
       <c r="D93" t="n">
-        <v>0.218682</v>
+        <v>0.218712</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.232532</v>
+        <v>0.232616</v>
       </c>
       <c r="C94" t="n">
-        <v>0.228547</v>
+        <v>0.228139</v>
       </c>
       <c r="D94" t="n">
-        <v>0.231698</v>
+        <v>0.231527</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.352887</v>
+        <v>0.352572</v>
       </c>
       <c r="C95" t="n">
-        <v>0.227356</v>
+        <v>0.226224</v>
       </c>
       <c r="D95" t="n">
-        <v>0.229926</v>
+        <v>0.229767</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.347067</v>
+        <v>0.347133</v>
       </c>
       <c r="C96" t="n">
-        <v>0.224492</v>
+        <v>0.224427</v>
       </c>
       <c r="D96" t="n">
-        <v>0.228182</v>
+        <v>0.228218</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.341186</v>
+        <v>0.341154</v>
       </c>
       <c r="C97" t="n">
-        <v>0.223246</v>
+        <v>0.222955</v>
       </c>
       <c r="D97" t="n">
-        <v>0.22669</v>
+        <v>0.226645</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.334769</v>
+        <v>0.334576</v>
       </c>
       <c r="C98" t="n">
-        <v>0.221592</v>
+        <v>0.221528</v>
       </c>
       <c r="D98" t="n">
-        <v>0.225624</v>
+        <v>0.225553</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.327291</v>
+        <v>0.327984</v>
       </c>
       <c r="C99" t="n">
-        <v>0.220634</v>
+        <v>0.220556</v>
       </c>
       <c r="D99" t="n">
-        <v>0.224427</v>
+        <v>0.224362</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320101</v>
+        <v>0.320152</v>
       </c>
       <c r="C100" t="n">
-        <v>0.21992</v>
+        <v>0.219469</v>
       </c>
       <c r="D100" t="n">
-        <v>0.223375</v>
+        <v>0.223401</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.312349</v>
+        <v>0.31215</v>
       </c>
       <c r="C101" t="n">
-        <v>0.21871</v>
+        <v>0.21869</v>
       </c>
       <c r="D101" t="n">
-        <v>0.222502</v>
+        <v>0.222441</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.303407</v>
+        <v>0.303115</v>
       </c>
       <c r="C102" t="n">
-        <v>0.217829</v>
+        <v>0.21779</v>
       </c>
       <c r="D102" t="n">
-        <v>0.221736</v>
+        <v>0.221699</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.294054</v>
+        <v>0.293877</v>
       </c>
       <c r="C103" t="n">
-        <v>0.217492</v>
+        <v>0.217409</v>
       </c>
       <c r="D103" t="n">
-        <v>0.220985</v>
+        <v>0.220918</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.28422</v>
+        <v>0.284067</v>
       </c>
       <c r="C104" t="n">
-        <v>0.216507</v>
+        <v>0.216449</v>
       </c>
       <c r="D104" t="n">
-        <v>0.22022</v>
+        <v>0.220162</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.273599</v>
+        <v>0.273361</v>
       </c>
       <c r="C105" t="n">
-        <v>0.215956</v>
+        <v>0.215989</v>
       </c>
       <c r="D105" t="n">
-        <v>0.219616</v>
+        <v>0.219607</v>
       </c>
     </row>
     <row r="106">
@@ -4703,10 +4703,10 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.262111</v>
+        <v>0.26177</v>
       </c>
       <c r="C106" t="n">
-        <v>0.215334</v>
+        <v>0.215566</v>
       </c>
       <c r="D106" t="n">
         <v>0.219016</v>
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.24936</v>
+        <v>0.249258</v>
       </c>
       <c r="C107" t="n">
-        <v>0.215162</v>
+        <v>0.215288</v>
       </c>
       <c r="D107" t="n">
-        <v>0.218597</v>
+        <v>0.21859</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.235559</v>
+        <v>0.235391</v>
       </c>
       <c r="C108" t="n">
-        <v>0.228868</v>
+        <v>0.228865</v>
       </c>
       <c r="D108" t="n">
-        <v>0.232138</v>
+        <v>0.232324</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.220764</v>
+        <v>0.220749</v>
       </c>
       <c r="C109" t="n">
-        <v>0.227045</v>
+        <v>0.227021</v>
       </c>
       <c r="D109" t="n">
-        <v>0.230254</v>
+        <v>0.230262</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.348641</v>
+        <v>0.348731</v>
       </c>
       <c r="C110" t="n">
-        <v>0.225361</v>
+        <v>0.225206</v>
       </c>
       <c r="D110" t="n">
-        <v>0.228527</v>
+        <v>0.228618</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.343101</v>
+        <v>0.342694</v>
       </c>
       <c r="C111" t="n">
-        <v>0.223717</v>
+        <v>0.223753</v>
       </c>
       <c r="D111" t="n">
-        <v>0.227411</v>
+        <v>0.227165</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.335852</v>
+        <v>0.336262</v>
       </c>
       <c r="C112" t="n">
-        <v>0.222324</v>
+        <v>0.222357</v>
       </c>
       <c r="D112" t="n">
-        <v>0.225731</v>
+        <v>0.225632</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.329101</v>
+        <v>0.329121</v>
       </c>
       <c r="C113" t="n">
-        <v>0.221217</v>
+        <v>0.221135</v>
       </c>
       <c r="D113" t="n">
-        <v>0.224661</v>
+        <v>0.224744</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.321955</v>
+        <v>0.321757</v>
       </c>
       <c r="C114" t="n">
-        <v>0.220081</v>
+        <v>0.220029</v>
       </c>
       <c r="D114" t="n">
-        <v>0.223647</v>
+        <v>0.223538</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313993</v>
+        <v>0.314058</v>
       </c>
       <c r="C115" t="n">
-        <v>0.219135</v>
+        <v>0.219111</v>
       </c>
       <c r="D115" t="n">
-        <v>0.222638</v>
+        <v>0.22259</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.305642</v>
+        <v>0.305545</v>
       </c>
       <c r="C116" t="n">
-        <v>0.218531</v>
+        <v>0.218121</v>
       </c>
       <c r="D116" t="n">
-        <v>0.222089</v>
+        <v>0.22186</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.297022</v>
+        <v>0.296607</v>
       </c>
       <c r="C117" t="n">
-        <v>0.217418</v>
+        <v>0.217641</v>
       </c>
       <c r="D117" t="n">
-        <v>0.221401</v>
+        <v>0.221267</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.286679</v>
+        <v>0.286765</v>
       </c>
       <c r="C118" t="n">
-        <v>0.216956</v>
+        <v>0.216991</v>
       </c>
       <c r="D118" t="n">
-        <v>0.220929</v>
+        <v>0.220718</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.275843</v>
+        <v>0.276151</v>
       </c>
       <c r="C119" t="n">
-        <v>0.216236</v>
+        <v>0.2164</v>
       </c>
       <c r="D119" t="n">
-        <v>0.220173</v>
+        <v>0.22027</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.26475</v>
+        <v>0.265318</v>
       </c>
       <c r="C120" t="n">
-        <v>0.216233</v>
+        <v>0.215754</v>
       </c>
       <c r="D120" t="n">
-        <v>0.219511</v>
+        <v>0.219514</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.252717</v>
+        <v>0.252772</v>
       </c>
       <c r="C121" t="n">
-        <v>0.215403</v>
+        <v>0.215512</v>
       </c>
       <c r="D121" t="n">
-        <v>0.219078</v>
+        <v>0.219027</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.238948</v>
+        <v>0.23895</v>
       </c>
       <c r="C122" t="n">
-        <v>0.215059</v>
+        <v>0.215104</v>
       </c>
       <c r="D122" t="n">
-        <v>0.218715</v>
+        <v>0.218656</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.22452</v>
+        <v>0.224312</v>
       </c>
       <c r="C123" t="n">
-        <v>0.229274</v>
+        <v>0.228558</v>
       </c>
       <c r="D123" t="n">
-        <v>0.231612</v>
+        <v>0.232179</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.349897</v>
+        <v>0.349963</v>
       </c>
       <c r="C124" t="n">
-        <v>0.226112</v>
+        <v>0.227402</v>
       </c>
       <c r="D124" t="n">
-        <v>0.229639</v>
+        <v>0.229565</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.344183</v>
+        <v>0.344121</v>
       </c>
       <c r="C125" t="n">
-        <v>0.224749</v>
+        <v>0.224785</v>
       </c>
       <c r="D125" t="n">
-        <v>0.22818</v>
+        <v>0.22838</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.337763</v>
+        <v>0.337892</v>
       </c>
       <c r="C126" t="n">
-        <v>0.22334</v>
+        <v>0.223777</v>
       </c>
       <c r="D126" t="n">
-        <v>0.226379</v>
+        <v>0.227557</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.331216</v>
+        <v>0.330834</v>
       </c>
       <c r="C127" t="n">
-        <v>0.222939</v>
+        <v>0.222578</v>
       </c>
       <c r="D127" t="n">
-        <v>0.225548</v>
+        <v>0.225405</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.323976</v>
+        <v>0.3245</v>
       </c>
       <c r="C128" t="n">
-        <v>0.221358</v>
+        <v>0.221785</v>
       </c>
       <c r="D128" t="n">
-        <v>0.224559</v>
+        <v>0.22462</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.316125</v>
+        <v>0.315604</v>
       </c>
       <c r="C129" t="n">
-        <v>0.220416</v>
+        <v>0.219638</v>
       </c>
       <c r="D129" t="n">
-        <v>0.222812</v>
+        <v>0.223407</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.307305</v>
+        <v>0.307601</v>
       </c>
       <c r="C130" t="n">
-        <v>0.218731</v>
+        <v>0.219348</v>
       </c>
       <c r="D130" t="n">
-        <v>0.222932</v>
+        <v>0.222484</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.298449</v>
+        <v>0.298888</v>
       </c>
       <c r="C131" t="n">
-        <v>0.218122</v>
+        <v>0.219329</v>
       </c>
       <c r="D131" t="n">
-        <v>0.221809</v>
+        <v>0.22146</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.288705</v>
+        <v>0.288604</v>
       </c>
       <c r="C132" t="n">
-        <v>0.217344</v>
+        <v>0.21738</v>
       </c>
       <c r="D132" t="n">
-        <v>0.220493</v>
+        <v>0.221182</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.278377</v>
+        <v>0.278436</v>
       </c>
       <c r="C133" t="n">
-        <v>0.216654</v>
+        <v>0.217439</v>
       </c>
       <c r="D133" t="n">
-        <v>0.219773</v>
+        <v>0.220041</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.267532</v>
+        <v>0.267246</v>
       </c>
       <c r="C134" t="n">
-        <v>0.217246</v>
+        <v>0.217785</v>
       </c>
       <c r="D134" t="n">
-        <v>0.219421</v>
+        <v>0.219387</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.255494</v>
+        <v>0.255031</v>
       </c>
       <c r="C135" t="n">
-        <v>0.216911</v>
+        <v>0.2168</v>
       </c>
       <c r="D135" t="n">
-        <v>0.21898</v>
+        <v>0.218696</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.241753</v>
+        <v>0.241943</v>
       </c>
       <c r="C136" t="n">
-        <v>0.216034</v>
+        <v>0.216678</v>
       </c>
       <c r="D136" t="n">
-        <v>0.218683</v>
+        <v>0.21891</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.227492</v>
+        <v>0.227731</v>
       </c>
       <c r="C137" t="n">
-        <v>0.230718</v>
+        <v>0.230864</v>
       </c>
       <c r="D137" t="n">
-        <v>0.233868</v>
+        <v>0.234445</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.351662</v>
+        <v>0.351421</v>
       </c>
       <c r="C138" t="n">
-        <v>0.228378</v>
+        <v>0.227223</v>
       </c>
       <c r="D138" t="n">
-        <v>0.232069</v>
+        <v>0.231661</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.34588</v>
+        <v>0.345916</v>
       </c>
       <c r="C139" t="n">
-        <v>0.22745</v>
+        <v>0.227497</v>
       </c>
       <c r="D139" t="n">
-        <v>0.231713</v>
+        <v>0.229635</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.339487</v>
+        <v>0.339712</v>
       </c>
       <c r="C140" t="n">
-        <v>0.226356</v>
+        <v>0.226479</v>
       </c>
       <c r="D140" t="n">
-        <v>0.228706</v>
+        <v>0.228342</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.333191</v>
+        <v>0.333048</v>
       </c>
       <c r="C141" t="n">
-        <v>0.224367</v>
+        <v>0.224699</v>
       </c>
       <c r="D141" t="n">
-        <v>0.227519</v>
+        <v>0.22669</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.326129</v>
+        <v>0.32614</v>
       </c>
       <c r="C142" t="n">
-        <v>0.223709</v>
+        <v>0.226481</v>
       </c>
       <c r="D142" t="n">
-        <v>0.226293</v>
+        <v>0.226373</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.318487</v>
+        <v>0.318167</v>
       </c>
       <c r="C143" t="n">
-        <v>0.222427</v>
+        <v>0.222965</v>
       </c>
       <c r="D143" t="n">
-        <v>0.225375</v>
+        <v>0.22527</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.294147</v>
+        <v>0.305596</v>
       </c>
       <c r="C2" t="n">
-        <v>0.203634</v>
+        <v>0.202907</v>
       </c>
       <c r="D2" t="n">
-        <v>0.414156</v>
+        <v>0.41073</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.28906</v>
+        <v>0.299069</v>
       </c>
       <c r="C3" t="n">
-        <v>0.20382</v>
+        <v>0.203054</v>
       </c>
       <c r="D3" t="n">
-        <v>0.414453</v>
+        <v>0.410355</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.277788</v>
+        <v>0.287054</v>
       </c>
       <c r="C4" t="n">
-        <v>0.203884</v>
+        <v>0.204818</v>
       </c>
       <c r="D4" t="n">
-        <v>0.417445</v>
+        <v>0.411505</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.268524</v>
+        <v>0.274658</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205469</v>
+        <v>0.205832</v>
       </c>
       <c r="D5" t="n">
-        <v>0.418387</v>
+        <v>0.412799</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.25762</v>
+        <v>0.265777</v>
       </c>
       <c r="C6" t="n">
-        <v>0.205999</v>
+        <v>0.206166</v>
       </c>
       <c r="D6" t="n">
-        <v>0.420064</v>
+        <v>0.417867</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.243739</v>
+        <v>0.250439</v>
       </c>
       <c r="C7" t="n">
-        <v>0.20658</v>
+        <v>0.206845</v>
       </c>
       <c r="D7" t="n">
-        <v>0.415338</v>
+        <v>0.411668</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.231092</v>
+        <v>0.238723</v>
       </c>
       <c r="C8" t="n">
-        <v>0.207738</v>
+        <v>0.208655</v>
       </c>
       <c r="D8" t="n">
-        <v>0.417924</v>
+        <v>0.411665</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.219412</v>
+        <v>0.228107</v>
       </c>
       <c r="C9" t="n">
-        <v>0.227806</v>
+        <v>0.220022</v>
       </c>
       <c r="D9" t="n">
-        <v>0.417015</v>
+        <v>0.412007</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.345704</v>
+        <v>0.351362</v>
       </c>
       <c r="C10" t="n">
-        <v>0.220703</v>
+        <v>0.220277</v>
       </c>
       <c r="D10" t="n">
-        <v>0.416996</v>
+        <v>0.410546</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.340035</v>
+        <v>0.345673</v>
       </c>
       <c r="C11" t="n">
-        <v>0.219969</v>
+        <v>0.218558</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4174</v>
+        <v>0.412004</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.334695</v>
+        <v>0.341872</v>
       </c>
       <c r="C12" t="n">
-        <v>0.218835</v>
+        <v>0.217984</v>
       </c>
       <c r="D12" t="n">
-        <v>0.414919</v>
+        <v>0.417293</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.327346</v>
+        <v>0.33519</v>
       </c>
       <c r="C13" t="n">
-        <v>0.217767</v>
+        <v>0.216319</v>
       </c>
       <c r="D13" t="n">
-        <v>0.416059</v>
+        <v>0.413731</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.320115</v>
+        <v>0.32729</v>
       </c>
       <c r="C14" t="n">
-        <v>0.217189</v>
+        <v>0.216353</v>
       </c>
       <c r="D14" t="n">
-        <v>0.417051</v>
+        <v>0.414561</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.312073</v>
+        <v>0.319576</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2171</v>
+        <v>0.214583</v>
       </c>
       <c r="D15" t="n">
-        <v>0.41803</v>
+        <v>0.418171</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.305184</v>
+        <v>0.313363</v>
       </c>
       <c r="C16" t="n">
-        <v>0.215956</v>
+        <v>0.214968</v>
       </c>
       <c r="D16" t="n">
-        <v>0.419546</v>
+        <v>0.418059</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.296216</v>
+        <v>0.303026</v>
       </c>
       <c r="C17" t="n">
-        <v>0.215834</v>
+        <v>0.214176</v>
       </c>
       <c r="D17" t="n">
-        <v>0.421968</v>
+        <v>0.417853</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.28713</v>
+        <v>0.294705</v>
       </c>
       <c r="C18" t="n">
-        <v>0.216008</v>
+        <v>0.214471</v>
       </c>
       <c r="D18" t="n">
-        <v>0.42274</v>
+        <v>0.420411</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.277512</v>
+        <v>0.284844</v>
       </c>
       <c r="C19" t="n">
-        <v>0.215241</v>
+        <v>0.2129</v>
       </c>
       <c r="D19" t="n">
-        <v>0.424627</v>
+        <v>0.421125</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.266386</v>
+        <v>0.274345</v>
       </c>
       <c r="C20" t="n">
-        <v>0.214057</v>
+        <v>0.213983</v>
       </c>
       <c r="D20" t="n">
-        <v>0.424832</v>
+        <v>0.42098</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.253366</v>
+        <v>0.260735</v>
       </c>
       <c r="C21" t="n">
-        <v>0.214637</v>
+        <v>0.213611</v>
       </c>
       <c r="D21" t="n">
-        <v>0.419696</v>
+        <v>0.416447</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.240809</v>
+        <v>0.248872</v>
       </c>
       <c r="C22" t="n">
-        <v>0.214511</v>
+        <v>0.213827</v>
       </c>
       <c r="D22" t="n">
-        <v>0.418319</v>
+        <v>0.416005</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.226574</v>
+        <v>0.234995</v>
       </c>
       <c r="C23" t="n">
-        <v>0.224647</v>
+        <v>0.224795</v>
       </c>
       <c r="D23" t="n">
-        <v>0.419911</v>
+        <v>0.424574</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348534</v>
+        <v>0.356359</v>
       </c>
       <c r="C24" t="n">
-        <v>0.223601</v>
+        <v>0.223109</v>
       </c>
       <c r="D24" t="n">
-        <v>0.419687</v>
+        <v>0.421473</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.343228</v>
+        <v>0.350609</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222696</v>
+        <v>0.221424</v>
       </c>
       <c r="D25" t="n">
-        <v>0.421213</v>
+        <v>0.419233</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.337032</v>
+        <v>0.344798</v>
       </c>
       <c r="C26" t="n">
-        <v>0.221287</v>
+        <v>0.220543</v>
       </c>
       <c r="D26" t="n">
-        <v>0.420701</v>
+        <v>0.419844</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.330977</v>
+        <v>0.33791</v>
       </c>
       <c r="C27" t="n">
-        <v>0.220516</v>
+        <v>0.220277</v>
       </c>
       <c r="D27" t="n">
-        <v>0.422562</v>
+        <v>0.422876</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.32437</v>
+        <v>0.33068</v>
       </c>
       <c r="C28" t="n">
-        <v>0.219302</v>
+        <v>0.219202</v>
       </c>
       <c r="D28" t="n">
-        <v>0.423223</v>
+        <v>0.42595</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.317453</v>
+        <v>0.324005</v>
       </c>
       <c r="C29" t="n">
-        <v>0.218541</v>
+        <v>0.218244</v>
       </c>
       <c r="D29" t="n">
-        <v>0.424907</v>
+        <v>0.422068</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.310181</v>
+        <v>0.315534</v>
       </c>
       <c r="C30" t="n">
-        <v>0.218109</v>
+        <v>0.217305</v>
       </c>
       <c r="D30" t="n">
-        <v>0.425716</v>
+        <v>0.424117</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.299566</v>
+        <v>0.307123</v>
       </c>
       <c r="C31" t="n">
-        <v>0.217269</v>
+        <v>0.216275</v>
       </c>
       <c r="D31" t="n">
-        <v>0.426606</v>
+        <v>0.422258</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.291069</v>
+        <v>0.297662</v>
       </c>
       <c r="C32" t="n">
-        <v>0.217356</v>
+        <v>0.21577</v>
       </c>
       <c r="D32" t="n">
-        <v>0.428541</v>
+        <v>0.423765</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.281076</v>
+        <v>0.288391</v>
       </c>
       <c r="C33" t="n">
-        <v>0.215615</v>
+        <v>0.214949</v>
       </c>
       <c r="D33" t="n">
-        <v>0.428592</v>
+        <v>0.424625</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.270007</v>
+        <v>0.276621</v>
       </c>
       <c r="C34" t="n">
-        <v>0.215254</v>
+        <v>0.214704</v>
       </c>
       <c r="D34" t="n">
-        <v>0.429662</v>
+        <v>0.425582</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.258373</v>
+        <v>0.266848</v>
       </c>
       <c r="C35" t="n">
-        <v>0.215171</v>
+        <v>0.213872</v>
       </c>
       <c r="D35" t="n">
-        <v>0.42609</v>
+        <v>0.423938</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.246677</v>
+        <v>0.254539</v>
       </c>
       <c r="C36" t="n">
-        <v>0.214694</v>
+        <v>0.213123</v>
       </c>
       <c r="D36" t="n">
-        <v>0.426976</v>
+        <v>0.423723</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.233223</v>
+        <v>0.240438</v>
       </c>
       <c r="C37" t="n">
-        <v>0.236633</v>
+        <v>0.226179</v>
       </c>
       <c r="D37" t="n">
-        <v>0.427106</v>
+        <v>0.424051</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.350572</v>
+        <v>0.357594</v>
       </c>
       <c r="C38" t="n">
-        <v>0.224452</v>
+        <v>0.224819</v>
       </c>
       <c r="D38" t="n">
-        <v>0.426395</v>
+        <v>0.423912</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.345353</v>
+        <v>0.353367</v>
       </c>
       <c r="C39" t="n">
-        <v>0.233361</v>
+        <v>0.223037</v>
       </c>
       <c r="D39" t="n">
-        <v>0.425937</v>
+        <v>0.423482</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.339934</v>
+        <v>0.346831</v>
       </c>
       <c r="C40" t="n">
-        <v>0.222196</v>
+        <v>0.221847</v>
       </c>
       <c r="D40" t="n">
-        <v>0.426192</v>
+        <v>0.423332</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.333324</v>
+        <v>0.340298</v>
       </c>
       <c r="C41" t="n">
-        <v>0.220942</v>
+        <v>0.220481</v>
       </c>
       <c r="D41" t="n">
-        <v>0.426282</v>
+        <v>0.424041</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.326742</v>
+        <v>0.333893</v>
       </c>
       <c r="C42" t="n">
-        <v>0.219959</v>
+        <v>0.219319</v>
       </c>
       <c r="D42" t="n">
-        <v>0.427736</v>
+        <v>0.426037</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.31952</v>
+        <v>0.327338</v>
       </c>
       <c r="C43" t="n">
-        <v>0.219701</v>
+        <v>0.219035</v>
       </c>
       <c r="D43" t="n">
-        <v>0.428257</v>
+        <v>0.425556</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.311742</v>
+        <v>0.319097</v>
       </c>
       <c r="C44" t="n">
-        <v>0.218571</v>
+        <v>0.217543</v>
       </c>
       <c r="D44" t="n">
-        <v>0.427987</v>
+        <v>0.425509</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.303678</v>
+        <v>0.310387</v>
       </c>
       <c r="C45" t="n">
-        <v>0.218034</v>
+        <v>0.216762</v>
       </c>
       <c r="D45" t="n">
-        <v>0.429342</v>
+        <v>0.42631</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.295205</v>
+        <v>0.301713</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2169</v>
+        <v>0.216095</v>
       </c>
       <c r="D46" t="n">
-        <v>0.430102</v>
+        <v>0.426232</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.285308</v>
+        <v>0.292764</v>
       </c>
       <c r="C47" t="n">
-        <v>0.216561</v>
+        <v>0.215308</v>
       </c>
       <c r="D47" t="n">
-        <v>0.430642</v>
+        <v>0.427443</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.275333</v>
+        <v>0.281953</v>
       </c>
       <c r="C48" t="n">
-        <v>0.215919</v>
+        <v>0.214841</v>
       </c>
       <c r="D48" t="n">
-        <v>0.432338</v>
+        <v>0.4294</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.263397</v>
+        <v>0.270844</v>
       </c>
       <c r="C49" t="n">
-        <v>0.215103</v>
+        <v>0.214497</v>
       </c>
       <c r="D49" t="n">
-        <v>0.434034</v>
+        <v>0.431127</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.251397</v>
+        <v>0.258606</v>
       </c>
       <c r="C50" t="n">
-        <v>0.215173</v>
+        <v>0.213988</v>
       </c>
       <c r="D50" t="n">
-        <v>0.430864</v>
+        <v>0.429291</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.236822</v>
+        <v>0.24411</v>
       </c>
       <c r="C51" t="n">
-        <v>0.226198</v>
+        <v>0.225716</v>
       </c>
       <c r="D51" t="n">
-        <v>0.431288</v>
+        <v>0.437484</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.222304</v>
+        <v>0.22944</v>
       </c>
       <c r="C52" t="n">
-        <v>0.224656</v>
+        <v>0.224984</v>
       </c>
       <c r="D52" t="n">
-        <v>0.432513</v>
+        <v>0.431134</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.34739</v>
+        <v>0.354732</v>
       </c>
       <c r="C53" t="n">
-        <v>0.223683</v>
+        <v>0.223277</v>
       </c>
       <c r="D53" t="n">
-        <v>0.431089</v>
+        <v>0.430373</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.341234</v>
+        <v>0.349078</v>
       </c>
       <c r="C54" t="n">
-        <v>0.222785</v>
+        <v>0.222345</v>
       </c>
       <c r="D54" t="n">
-        <v>0.432234</v>
+        <v>0.431442</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.335359</v>
+        <v>0.342429</v>
       </c>
       <c r="C55" t="n">
-        <v>0.221712</v>
+        <v>0.220858</v>
       </c>
       <c r="D55" t="n">
-        <v>0.434448</v>
+        <v>0.432082</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.328418</v>
+        <v>0.336242</v>
       </c>
       <c r="C56" t="n">
-        <v>0.22038</v>
+        <v>0.219984</v>
       </c>
       <c r="D56" t="n">
-        <v>0.436405</v>
+        <v>0.435206</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.321155</v>
+        <v>0.328637</v>
       </c>
       <c r="C57" t="n">
-        <v>0.219527</v>
+        <v>0.219588</v>
       </c>
       <c r="D57" t="n">
-        <v>0.437567</v>
+        <v>0.436581</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314011</v>
+        <v>0.32088</v>
       </c>
       <c r="C58" t="n">
-        <v>0.218426</v>
+        <v>0.218315</v>
       </c>
       <c r="D58" t="n">
-        <v>0.437836</v>
+        <v>0.431634</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.306034</v>
+        <v>0.3127</v>
       </c>
       <c r="C59" t="n">
-        <v>0.218012</v>
+        <v>0.2175</v>
       </c>
       <c r="D59" t="n">
-        <v>0.440014</v>
+        <v>0.435005</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.297292</v>
+        <v>0.304</v>
       </c>
       <c r="C60" t="n">
-        <v>0.21734</v>
+        <v>0.216669</v>
       </c>
       <c r="D60" t="n">
-        <v>0.442998</v>
+        <v>0.440125</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.287928</v>
+        <v>0.294746</v>
       </c>
       <c r="C61" t="n">
-        <v>0.216678</v>
+        <v>0.215993</v>
       </c>
       <c r="D61" t="n">
-        <v>0.445335</v>
+        <v>0.441869</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.27769</v>
+        <v>0.284748</v>
       </c>
       <c r="C62" t="n">
-        <v>0.215943</v>
+        <v>0.215158</v>
       </c>
       <c r="D62" t="n">
-        <v>0.448721</v>
+        <v>0.446321</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.266251</v>
+        <v>0.27309</v>
       </c>
       <c r="C63" t="n">
-        <v>0.215431</v>
+        <v>0.214467</v>
       </c>
       <c r="D63" t="n">
-        <v>0.453936</v>
+        <v>0.451627</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.254511</v>
+        <v>0.261396</v>
       </c>
       <c r="C64" t="n">
-        <v>0.215119</v>
+        <v>0.214122</v>
       </c>
       <c r="D64" t="n">
-        <v>0.482804</v>
+        <v>0.482554</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.239766</v>
+        <v>0.24743</v>
       </c>
       <c r="C65" t="n">
-        <v>0.214359</v>
+        <v>0.213762</v>
       </c>
       <c r="D65" t="n">
-        <v>0.492414</v>
+        <v>0.49052</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.225622</v>
+        <v>0.233174</v>
       </c>
       <c r="C66" t="n">
-        <v>0.225487</v>
+        <v>0.225466</v>
       </c>
       <c r="D66" t="n">
-        <v>0.498197</v>
+        <v>0.498959</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349566</v>
+        <v>0.35685</v>
       </c>
       <c r="C67" t="n">
-        <v>0.224102</v>
+        <v>0.224033</v>
       </c>
       <c r="D67" t="n">
-        <v>0.515826</v>
+        <v>0.511875</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.343155</v>
+        <v>0.351114</v>
       </c>
       <c r="C68" t="n">
-        <v>0.223078</v>
+        <v>0.223098</v>
       </c>
       <c r="D68" t="n">
-        <v>0.514968</v>
+        <v>0.513467</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.337286</v>
+        <v>0.344586</v>
       </c>
       <c r="C69" t="n">
-        <v>0.221725</v>
+        <v>0.221731</v>
       </c>
       <c r="D69" t="n">
-        <v>0.519101</v>
+        <v>0.518187</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.330835</v>
+        <v>0.337873</v>
       </c>
       <c r="C70" t="n">
-        <v>0.220582</v>
+        <v>0.220602</v>
       </c>
       <c r="D70" t="n">
-        <v>0.529709</v>
+        <v>0.527071</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.323604</v>
+        <v>0.330657</v>
       </c>
       <c r="C71" t="n">
-        <v>0.219832</v>
+        <v>0.219668</v>
       </c>
       <c r="D71" t="n">
-        <v>0.529197</v>
+        <v>0.5249819999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316279</v>
+        <v>0.323055</v>
       </c>
       <c r="C72" t="n">
-        <v>0.218957</v>
+        <v>0.218831</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5384139999999999</v>
+        <v>0.533591</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.30839</v>
+        <v>0.315123</v>
       </c>
       <c r="C73" t="n">
-        <v>0.21816</v>
+        <v>0.2178</v>
       </c>
       <c r="D73" t="n">
-        <v>0.54039</v>
+        <v>0.5356610000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.299711</v>
+        <v>0.306687</v>
       </c>
       <c r="C74" t="n">
-        <v>0.21742</v>
+        <v>0.216798</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5457340000000001</v>
+        <v>0.541108</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.28997</v>
+        <v>0.29727</v>
       </c>
       <c r="C75" t="n">
-        <v>0.216613</v>
+        <v>0.216117</v>
       </c>
       <c r="D75" t="n">
-        <v>0.543266</v>
+        <v>0.539144</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.280183</v>
+        <v>0.287548</v>
       </c>
       <c r="C76" t="n">
-        <v>0.216153</v>
+        <v>0.215585</v>
       </c>
       <c r="D76" t="n">
-        <v>0.547226</v>
+        <v>0.542739</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.268907</v>
+        <v>0.275493</v>
       </c>
       <c r="C77" t="n">
-        <v>0.215516</v>
+        <v>0.214819</v>
       </c>
       <c r="D77" t="n">
-        <v>0.54678</v>
+        <v>0.542438</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.256619</v>
+        <v>0.264496</v>
       </c>
       <c r="C78" t="n">
-        <v>0.215085</v>
+        <v>0.214405</v>
       </c>
       <c r="D78" t="n">
-        <v>0.621158</v>
+        <v>0.619017</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.243504</v>
+        <v>0.250653</v>
       </c>
       <c r="C79" t="n">
-        <v>0.214584</v>
+        <v>0.214069</v>
       </c>
       <c r="D79" t="n">
-        <v>0.622844</v>
+        <v>0.620335</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.229447</v>
+        <v>0.237144</v>
       </c>
       <c r="C80" t="n">
-        <v>0.227577</v>
+        <v>0.227169</v>
       </c>
       <c r="D80" t="n">
-        <v>0.622515</v>
+        <v>0.620687</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350573</v>
+        <v>0.358866</v>
       </c>
       <c r="C81" t="n">
-        <v>0.225645</v>
+        <v>0.225559</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6187589999999999</v>
+        <v>0.616723</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.34537</v>
+        <v>0.352531</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224143</v>
+        <v>0.22396</v>
       </c>
       <c r="D82" t="n">
-        <v>0.626865</v>
+        <v>0.623797</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.339714</v>
+        <v>0.346353</v>
       </c>
       <c r="C83" t="n">
-        <v>0.222665</v>
+        <v>0.222688</v>
       </c>
       <c r="D83" t="n">
-        <v>0.622627</v>
+        <v>0.619838</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.332758</v>
+        <v>0.33933</v>
       </c>
       <c r="C84" t="n">
-        <v>0.221477</v>
+        <v>0.221354</v>
       </c>
       <c r="D84" t="n">
-        <v>0.614849</v>
+        <v>0.613489</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.325644</v>
+        <v>0.332377</v>
       </c>
       <c r="C85" t="n">
-        <v>0.220466</v>
+        <v>0.220084</v>
       </c>
       <c r="D85" t="n">
-        <v>0.614872</v>
+        <v>0.610532</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318443</v>
+        <v>0.324664</v>
       </c>
       <c r="C86" t="n">
-        <v>0.219447</v>
+        <v>0.219072</v>
       </c>
       <c r="D86" t="n">
-        <v>0.607217</v>
+        <v>0.603332</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309818</v>
+        <v>0.316734</v>
       </c>
       <c r="C87" t="n">
-        <v>0.218558</v>
+        <v>0.218057</v>
       </c>
       <c r="D87" t="n">
-        <v>0.605569</v>
+        <v>0.6008250000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.302236</v>
+        <v>0.308947</v>
       </c>
       <c r="C88" t="n">
-        <v>0.217827</v>
+        <v>0.217321</v>
       </c>
       <c r="D88" t="n">
-        <v>0.598922</v>
+        <v>0.5949179999999999</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.29289</v>
+        <v>0.299439</v>
       </c>
       <c r="C89" t="n">
-        <v>0.216989</v>
+        <v>0.216433</v>
       </c>
       <c r="D89" t="n">
-        <v>0.596002</v>
+        <v>0.59179</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.282995</v>
+        <v>0.289644</v>
       </c>
       <c r="C90" t="n">
-        <v>0.216404</v>
+        <v>0.215649</v>
       </c>
       <c r="D90" t="n">
-        <v>0.590786</v>
+        <v>0.587191</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.272421</v>
+        <v>0.278834</v>
       </c>
       <c r="C91" t="n">
-        <v>0.215783</v>
+        <v>0.21517</v>
       </c>
       <c r="D91" t="n">
-        <v>0.586024</v>
+        <v>0.581699</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.260442</v>
+        <v>0.267667</v>
       </c>
       <c r="C92" t="n">
-        <v>0.215353</v>
+        <v>0.21461</v>
       </c>
       <c r="D92" t="n">
-        <v>0.618909</v>
+        <v>0.619209</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.247406</v>
+        <v>0.254966</v>
       </c>
       <c r="C93" t="n">
-        <v>0.214889</v>
+        <v>0.214197</v>
       </c>
       <c r="D93" t="n">
-        <v>0.613708</v>
+        <v>0.612587</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.233483</v>
+        <v>0.241704</v>
       </c>
       <c r="C94" t="n">
-        <v>0.228124</v>
+        <v>0.227765</v>
       </c>
       <c r="D94" t="n">
-        <v>0.611771</v>
+        <v>0.611017</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.35163</v>
+        <v>0.360004</v>
       </c>
       <c r="C95" t="n">
-        <v>0.226354</v>
+        <v>0.225872</v>
       </c>
       <c r="D95" t="n">
-        <v>0.60694</v>
+        <v>0.606853</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.346518</v>
+        <v>0.354316</v>
       </c>
       <c r="C96" t="n">
-        <v>0.224818</v>
+        <v>0.224411</v>
       </c>
       <c r="D96" t="n">
-        <v>0.60608</v>
+        <v>0.605546</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340745</v>
+        <v>0.348514</v>
       </c>
       <c r="C97" t="n">
-        <v>0.223209</v>
+        <v>0.222849</v>
       </c>
       <c r="D97" t="n">
-        <v>0.603208</v>
+        <v>0.600546</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.33411</v>
+        <v>0.341503</v>
       </c>
       <c r="C98" t="n">
-        <v>0.221896</v>
+        <v>0.221684</v>
       </c>
       <c r="D98" t="n">
-        <v>0.599664</v>
+        <v>0.598498</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.327293</v>
+        <v>0.334476</v>
       </c>
       <c r="C99" t="n">
-        <v>0.220846</v>
+        <v>0.220375</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5957519999999999</v>
+        <v>0.595272</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320054</v>
+        <v>0.326663</v>
       </c>
       <c r="C100" t="n">
-        <v>0.219709</v>
+        <v>0.219312</v>
       </c>
       <c r="D100" t="n">
-        <v>0.592119</v>
+        <v>0.590825</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311927</v>
+        <v>0.319009</v>
       </c>
       <c r="C101" t="n">
-        <v>0.218906</v>
+        <v>0.218243</v>
       </c>
       <c r="D101" t="n">
-        <v>0.588027</v>
+        <v>0.586055</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.303677</v>
+        <v>0.31037</v>
       </c>
       <c r="C102" t="n">
-        <v>0.217975</v>
+        <v>0.217409</v>
       </c>
       <c r="D102" t="n">
-        <v>0.583827</v>
+        <v>0.582319</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.294568</v>
+        <v>0.301319</v>
       </c>
       <c r="C103" t="n">
-        <v>0.217334</v>
+        <v>0.216683</v>
       </c>
       <c r="D103" t="n">
-        <v>0.580332</v>
+        <v>0.57874</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.285009</v>
+        <v>0.291528</v>
       </c>
       <c r="C104" t="n">
-        <v>0.216617</v>
+        <v>0.2159</v>
       </c>
       <c r="D104" t="n">
-        <v>0.576563</v>
+        <v>0.573217</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.274469</v>
+        <v>0.281479</v>
       </c>
       <c r="C105" t="n">
-        <v>0.216024</v>
+        <v>0.215303</v>
       </c>
       <c r="D105" t="n">
-        <v>0.572819</v>
+        <v>0.572273</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.262804</v>
+        <v>0.270111</v>
       </c>
       <c r="C106" t="n">
-        <v>0.215555</v>
+        <v>0.214786</v>
       </c>
       <c r="D106" t="n">
-        <v>0.569311</v>
+        <v>0.572374</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.250465</v>
+        <v>0.25775</v>
       </c>
       <c r="C107" t="n">
-        <v>0.215202</v>
+        <v>0.214348</v>
       </c>
       <c r="D107" t="n">
-        <v>0.609621</v>
+        <v>0.611282</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.236342</v>
+        <v>0.243661</v>
       </c>
       <c r="C108" t="n">
-        <v>0.228856</v>
+        <v>0.228751</v>
       </c>
       <c r="D108" t="n">
-        <v>0.609708</v>
+        <v>0.627513</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.221537</v>
+        <v>0.229481</v>
       </c>
       <c r="C109" t="n">
-        <v>0.226795</v>
+        <v>0.22661</v>
       </c>
       <c r="D109" t="n">
-        <v>0.608653</v>
+        <v>0.6113730000000001</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347587</v>
+        <v>0.355909</v>
       </c>
       <c r="C110" t="n">
-        <v>0.225232</v>
+        <v>0.224815</v>
       </c>
       <c r="D110" t="n">
-        <v>0.606697</v>
+        <v>0.603979</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341633</v>
+        <v>0.349719</v>
       </c>
       <c r="C111" t="n">
-        <v>0.223479</v>
+        <v>0.223006</v>
       </c>
       <c r="D111" t="n">
-        <v>0.602698</v>
+        <v>0.602313</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.335663</v>
+        <v>0.342966</v>
       </c>
       <c r="C112" t="n">
-        <v>0.222075</v>
+        <v>0.221811</v>
       </c>
       <c r="D112" t="n">
-        <v>0.599947</v>
+        <v>0.598973</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.328194</v>
+        <v>0.335984</v>
       </c>
       <c r="C113" t="n">
-        <v>0.220898</v>
+        <v>0.220547</v>
       </c>
       <c r="D113" t="n">
-        <v>0.595715</v>
+        <v>0.593345</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.321055</v>
+        <v>0.3286</v>
       </c>
       <c r="C114" t="n">
-        <v>0.219778</v>
+        <v>0.219352</v>
       </c>
       <c r="D114" t="n">
-        <v>0.591198</v>
+        <v>0.5915049999999999</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.31329</v>
+        <v>0.320621</v>
       </c>
       <c r="C115" t="n">
-        <v>0.218935</v>
+        <v>0.218375</v>
       </c>
       <c r="D115" t="n">
-        <v>0.587627</v>
+        <v>0.585373</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.305382</v>
+        <v>0.312116</v>
       </c>
       <c r="C116" t="n">
-        <v>0.21839</v>
+        <v>0.217611</v>
       </c>
       <c r="D116" t="n">
-        <v>0.58274</v>
+        <v>0.579998</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.296334</v>
+        <v>0.30359</v>
       </c>
       <c r="C117" t="n">
-        <v>0.217583</v>
+        <v>0.216756</v>
       </c>
       <c r="D117" t="n">
-        <v>0.579746</v>
+        <v>0.578759</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.286703</v>
+        <v>0.29386</v>
       </c>
       <c r="C118" t="n">
-        <v>0.21698</v>
+        <v>0.216022</v>
       </c>
       <c r="D118" t="n">
-        <v>0.574487</v>
+        <v>0.574002</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.276608</v>
+        <v>0.283682</v>
       </c>
       <c r="C119" t="n">
-        <v>0.216241</v>
+        <v>0.215522</v>
       </c>
       <c r="D119" t="n">
-        <v>0.570609</v>
+        <v>0.571488</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.265307</v>
+        <v>0.27312</v>
       </c>
       <c r="C120" t="n">
-        <v>0.21579</v>
+        <v>0.214971</v>
       </c>
       <c r="D120" t="n">
-        <v>0.566855</v>
+        <v>0.566018</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.25335</v>
+        <v>0.26142</v>
       </c>
       <c r="C121" t="n">
-        <v>0.215471</v>
+        <v>0.214531</v>
       </c>
       <c r="D121" t="n">
-        <v>0.625455</v>
+        <v>0.625791</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.239485</v>
+        <v>0.248355</v>
       </c>
       <c r="C122" t="n">
-        <v>0.214914</v>
+        <v>0.214166</v>
       </c>
       <c r="D122" t="n">
-        <v>0.624301</v>
+        <v>0.624574</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.225248</v>
+        <v>0.233669</v>
       </c>
       <c r="C123" t="n">
-        <v>0.22719</v>
+        <v>0.227106</v>
       </c>
       <c r="D123" t="n">
-        <v>0.622906</v>
+        <v>0.623296</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.348556</v>
+        <v>0.357652</v>
       </c>
       <c r="C124" t="n">
-        <v>0.227029</v>
+        <v>0.225001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.619545</v>
+        <v>0.6175389999999999</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.343333</v>
+        <v>0.351341</v>
       </c>
       <c r="C125" t="n">
-        <v>0.224608</v>
+        <v>0.223522</v>
       </c>
       <c r="D125" t="n">
-        <v>0.615862</v>
+        <v>0.614899</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336996</v>
+        <v>0.344272</v>
       </c>
       <c r="C126" t="n">
-        <v>0.225157</v>
+        <v>0.22218</v>
       </c>
       <c r="D126" t="n">
-        <v>0.611094</v>
+        <v>0.61042</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.33006</v>
+        <v>0.337405</v>
       </c>
       <c r="C127" t="n">
-        <v>0.223555</v>
+        <v>0.22072</v>
       </c>
       <c r="D127" t="n">
-        <v>0.606313</v>
+        <v>0.605477</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.323054</v>
+        <v>0.330582</v>
       </c>
       <c r="C128" t="n">
-        <v>0.220693</v>
+        <v>0.219631</v>
       </c>
       <c r="D128" t="n">
-        <v>0.601258</v>
+        <v>0.600376</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315214</v>
+        <v>0.322715</v>
       </c>
       <c r="C129" t="n">
-        <v>0.219695</v>
+        <v>0.218609</v>
       </c>
       <c r="D129" t="n">
-        <v>0.595495</v>
+        <v>0.594783</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306996</v>
+        <v>0.314019</v>
       </c>
       <c r="C130" t="n">
-        <v>0.219226</v>
+        <v>0.21772</v>
       </c>
       <c r="D130" t="n">
-        <v>0.592002</v>
+        <v>0.590755</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297651</v>
+        <v>0.305484</v>
       </c>
       <c r="C131" t="n">
-        <v>0.21767</v>
+        <v>0.217311</v>
       </c>
       <c r="D131" t="n">
-        <v>0.587122</v>
+        <v>0.585601</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.288237</v>
+        <v>0.295748</v>
       </c>
       <c r="C132" t="n">
-        <v>0.217083</v>
+        <v>0.216226</v>
       </c>
       <c r="D132" t="n">
-        <v>0.583443</v>
+        <v>0.580053</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.277972</v>
+        <v>0.285964</v>
       </c>
       <c r="C133" t="n">
-        <v>0.216409</v>
+        <v>0.215613</v>
       </c>
       <c r="D133" t="n">
-        <v>0.578816</v>
+        <v>0.576765</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.267317</v>
+        <v>0.274594</v>
       </c>
       <c r="C134" t="n">
-        <v>0.215949</v>
+        <v>0.215065</v>
       </c>
       <c r="D134" t="n">
-        <v>0.574456</v>
+        <v>0.57172</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.255085</v>
+        <v>0.262951</v>
       </c>
       <c r="C135" t="n">
-        <v>0.215586</v>
+        <v>0.21459</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6354610000000001</v>
+        <v>0.628433</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.242916</v>
+        <v>0.250074</v>
       </c>
       <c r="C136" t="n">
-        <v>0.216706</v>
+        <v>0.214243</v>
       </c>
       <c r="D136" t="n">
-        <v>0.6340209999999999</v>
+        <v>0.636132</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.228119</v>
+        <v>0.237572</v>
       </c>
       <c r="C137" t="n">
-        <v>0.229093</v>
+        <v>0.227437</v>
       </c>
       <c r="D137" t="n">
-        <v>0.633416</v>
+        <v>0.625938</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.349812</v>
+        <v>0.359228</v>
       </c>
       <c r="C138" t="n">
-        <v>0.228432</v>
+        <v>0.226107</v>
       </c>
       <c r="D138" t="n">
-        <v>0.627903</v>
+        <v>0.624765</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344178</v>
+        <v>0.353223</v>
       </c>
       <c r="C139" t="n">
-        <v>0.224901</v>
+        <v>0.223887</v>
       </c>
       <c r="D139" t="n">
-        <v>0.62404</v>
+        <v>0.6187859999999999</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338076</v>
+        <v>0.34674</v>
       </c>
       <c r="C140" t="n">
-        <v>0.224382</v>
+        <v>0.222475</v>
       </c>
       <c r="D140" t="n">
-        <v>0.619646</v>
+        <v>0.613289</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331729</v>
+        <v>0.340162</v>
       </c>
       <c r="C141" t="n">
-        <v>0.223063</v>
+        <v>0.221387</v>
       </c>
       <c r="D141" t="n">
-        <v>0.613262</v>
+        <v>0.609415</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324461</v>
+        <v>0.332853</v>
       </c>
       <c r="C142" t="n">
-        <v>0.223115</v>
+        <v>0.219817</v>
       </c>
       <c r="D142" t="n">
-        <v>0.607635</v>
+        <v>0.606777</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.31704</v>
+        <v>0.325292</v>
       </c>
       <c r="C143" t="n">
-        <v>0.222044</v>
+        <v>0.219086</v>
       </c>
       <c r="D143" t="n">
-        <v>0.602422</v>
+        <v>0.600728</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.294147</v>
+        <v>0.297753</v>
       </c>
       <c r="C2" t="n">
-        <v>0.203634</v>
+        <v>0.203467</v>
       </c>
       <c r="D2" t="n">
-        <v>0.414156</v>
+        <v>0.413968</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.28906</v>
+        <v>0.289091</v>
       </c>
       <c r="C3" t="n">
-        <v>0.20382</v>
+        <v>0.204556</v>
       </c>
       <c r="D3" t="n">
-        <v>0.414453</v>
+        <v>0.414806</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.277788</v>
+        <v>0.279826</v>
       </c>
       <c r="C4" t="n">
-        <v>0.203884</v>
+        <v>0.204792</v>
       </c>
       <c r="D4" t="n">
-        <v>0.417445</v>
+        <v>0.417925</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.268524</v>
+        <v>0.270149</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205469</v>
+        <v>0.205613</v>
       </c>
       <c r="D5" t="n">
-        <v>0.418387</v>
+        <v>0.419489</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.25762</v>
+        <v>0.257902</v>
       </c>
       <c r="C6" t="n">
-        <v>0.205999</v>
+        <v>0.206443</v>
       </c>
       <c r="D6" t="n">
-        <v>0.420064</v>
+        <v>0.419865</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.243739</v>
+        <v>0.24477</v>
       </c>
       <c r="C7" t="n">
-        <v>0.20658</v>
+        <v>0.216478</v>
       </c>
       <c r="D7" t="n">
-        <v>0.415338</v>
+        <v>0.416134</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.231092</v>
+        <v>0.232637</v>
       </c>
       <c r="C8" t="n">
-        <v>0.207738</v>
+        <v>0.207999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.417924</v>
+        <v>0.418838</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.219412</v>
+        <v>0.219922</v>
       </c>
       <c r="C9" t="n">
-        <v>0.227806</v>
+        <v>0.23469</v>
       </c>
       <c r="D9" t="n">
-        <v>0.417015</v>
+        <v>0.417833</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.345704</v>
+        <v>0.345192</v>
       </c>
       <c r="C10" t="n">
-        <v>0.220703</v>
+        <v>0.231801</v>
       </c>
       <c r="D10" t="n">
-        <v>0.416996</v>
+        <v>0.417824</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.340035</v>
+        <v>0.339399</v>
       </c>
       <c r="C11" t="n">
-        <v>0.219969</v>
+        <v>0.223178</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4174</v>
+        <v>0.418596</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.334695</v>
+        <v>0.335387</v>
       </c>
       <c r="C12" t="n">
-        <v>0.218835</v>
+        <v>0.218702</v>
       </c>
       <c r="D12" t="n">
-        <v>0.414919</v>
+        <v>0.416325</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.327346</v>
+        <v>0.328574</v>
       </c>
       <c r="C13" t="n">
-        <v>0.217767</v>
+        <v>0.217945</v>
       </c>
       <c r="D13" t="n">
-        <v>0.416059</v>
+        <v>0.417617</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.320115</v>
+        <v>0.320843</v>
       </c>
       <c r="C14" t="n">
-        <v>0.217189</v>
+        <v>0.217729</v>
       </c>
       <c r="D14" t="n">
-        <v>0.417051</v>
+        <v>0.417758</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.312073</v>
+        <v>0.312632</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2171</v>
+        <v>0.217546</v>
       </c>
       <c r="D15" t="n">
-        <v>0.41803</v>
+        <v>0.419134</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.305184</v>
+        <v>0.305339</v>
       </c>
       <c r="C16" t="n">
-        <v>0.215956</v>
+        <v>0.216559</v>
       </c>
       <c r="D16" t="n">
-        <v>0.419546</v>
+        <v>0.419901</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.296216</v>
+        <v>0.296305</v>
       </c>
       <c r="C17" t="n">
-        <v>0.215834</v>
+        <v>0.216143</v>
       </c>
       <c r="D17" t="n">
-        <v>0.421968</v>
+        <v>0.42246</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.28713</v>
+        <v>0.287559</v>
       </c>
       <c r="C18" t="n">
-        <v>0.216008</v>
+        <v>0.216494</v>
       </c>
       <c r="D18" t="n">
-        <v>0.42274</v>
+        <v>0.423772</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.277512</v>
+        <v>0.278055</v>
       </c>
       <c r="C19" t="n">
-        <v>0.215241</v>
+        <v>0.215735</v>
       </c>
       <c r="D19" t="n">
-        <v>0.424627</v>
+        <v>0.425241</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.266386</v>
+        <v>0.266492</v>
       </c>
       <c r="C20" t="n">
-        <v>0.214057</v>
+        <v>0.215085</v>
       </c>
       <c r="D20" t="n">
-        <v>0.424832</v>
+        <v>0.426223</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.253366</v>
+        <v>0.255026</v>
       </c>
       <c r="C21" t="n">
-        <v>0.214637</v>
+        <v>0.215749</v>
       </c>
       <c r="D21" t="n">
-        <v>0.419696</v>
+        <v>0.419422</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.240809</v>
+        <v>0.240425</v>
       </c>
       <c r="C22" t="n">
-        <v>0.214511</v>
+        <v>0.21515</v>
       </c>
       <c r="D22" t="n">
-        <v>0.418319</v>
+        <v>0.419259</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.226574</v>
+        <v>0.226171</v>
       </c>
       <c r="C23" t="n">
-        <v>0.224647</v>
+        <v>0.224551</v>
       </c>
       <c r="D23" t="n">
-        <v>0.419911</v>
+        <v>0.420364</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348534</v>
+        <v>0.348285</v>
       </c>
       <c r="C24" t="n">
-        <v>0.223601</v>
+        <v>0.223847</v>
       </c>
       <c r="D24" t="n">
-        <v>0.419687</v>
+        <v>0.420479</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.343228</v>
+        <v>0.343659</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222696</v>
+        <v>0.222519</v>
       </c>
       <c r="D25" t="n">
-        <v>0.421213</v>
+        <v>0.421514</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.337032</v>
+        <v>0.337667</v>
       </c>
       <c r="C26" t="n">
-        <v>0.221287</v>
+        <v>0.221724</v>
       </c>
       <c r="D26" t="n">
-        <v>0.420701</v>
+        <v>0.421591</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.330977</v>
+        <v>0.329935</v>
       </c>
       <c r="C27" t="n">
-        <v>0.220516</v>
+        <v>0.220653</v>
       </c>
       <c r="D27" t="n">
-        <v>0.422562</v>
+        <v>0.423096</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.32437</v>
+        <v>0.323121</v>
       </c>
       <c r="C28" t="n">
-        <v>0.219302</v>
+        <v>0.219537</v>
       </c>
       <c r="D28" t="n">
-        <v>0.423223</v>
+        <v>0.42389</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.317453</v>
+        <v>0.316099</v>
       </c>
       <c r="C29" t="n">
-        <v>0.218541</v>
+        <v>0.218914</v>
       </c>
       <c r="D29" t="n">
-        <v>0.424907</v>
+        <v>0.424947</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.310181</v>
+        <v>0.308017</v>
       </c>
       <c r="C30" t="n">
-        <v>0.218109</v>
+        <v>0.218501</v>
       </c>
       <c r="D30" t="n">
-        <v>0.425716</v>
+        <v>0.425667</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.299566</v>
+        <v>0.299114</v>
       </c>
       <c r="C31" t="n">
-        <v>0.217269</v>
+        <v>0.217642</v>
       </c>
       <c r="D31" t="n">
-        <v>0.426606</v>
+        <v>0.427143</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.291069</v>
+        <v>0.290158</v>
       </c>
       <c r="C32" t="n">
-        <v>0.217356</v>
+        <v>0.217442</v>
       </c>
       <c r="D32" t="n">
-        <v>0.428541</v>
+        <v>0.428432</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.281076</v>
+        <v>0.280724</v>
       </c>
       <c r="C33" t="n">
-        <v>0.215615</v>
+        <v>0.216192</v>
       </c>
       <c r="D33" t="n">
-        <v>0.428592</v>
+        <v>0.429477</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.270007</v>
+        <v>0.269865</v>
       </c>
       <c r="C34" t="n">
-        <v>0.215254</v>
+        <v>0.21615</v>
       </c>
       <c r="D34" t="n">
-        <v>0.429662</v>
+        <v>0.430451</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.258373</v>
+        <v>0.258262</v>
       </c>
       <c r="C35" t="n">
-        <v>0.215171</v>
+        <v>0.21589</v>
       </c>
       <c r="D35" t="n">
-        <v>0.42609</v>
+        <v>0.426118</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.246677</v>
+        <v>0.246767</v>
       </c>
       <c r="C36" t="n">
-        <v>0.214694</v>
+        <v>0.214817</v>
       </c>
       <c r="D36" t="n">
-        <v>0.426976</v>
+        <v>0.426944</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.233223</v>
+        <v>0.232964</v>
       </c>
       <c r="C37" t="n">
-        <v>0.236633</v>
+        <v>0.225934</v>
       </c>
       <c r="D37" t="n">
-        <v>0.427106</v>
+        <v>0.427095</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.350572</v>
+        <v>0.350848</v>
       </c>
       <c r="C38" t="n">
-        <v>0.224452</v>
+        <v>0.224985</v>
       </c>
       <c r="D38" t="n">
-        <v>0.426395</v>
+        <v>0.427109</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.345353</v>
+        <v>0.345756</v>
       </c>
       <c r="C39" t="n">
-        <v>0.233361</v>
+        <v>0.22346</v>
       </c>
       <c r="D39" t="n">
-        <v>0.425937</v>
+        <v>0.425983</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.339934</v>
+        <v>0.340026</v>
       </c>
       <c r="C40" t="n">
-        <v>0.222196</v>
+        <v>0.222237</v>
       </c>
       <c r="D40" t="n">
-        <v>0.426192</v>
+        <v>0.427196</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.333324</v>
+        <v>0.333857</v>
       </c>
       <c r="C41" t="n">
-        <v>0.220942</v>
+        <v>0.221569</v>
       </c>
       <c r="D41" t="n">
-        <v>0.426282</v>
+        <v>0.42671</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.326742</v>
+        <v>0.326345</v>
       </c>
       <c r="C42" t="n">
-        <v>0.219959</v>
+        <v>0.22035</v>
       </c>
       <c r="D42" t="n">
-        <v>0.427736</v>
+        <v>0.427598</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.31952</v>
+        <v>0.319545</v>
       </c>
       <c r="C43" t="n">
-        <v>0.219701</v>
+        <v>0.219965</v>
       </c>
       <c r="D43" t="n">
-        <v>0.428257</v>
+        <v>0.42876</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.311742</v>
+        <v>0.311185</v>
       </c>
       <c r="C44" t="n">
-        <v>0.218571</v>
+        <v>0.2189</v>
       </c>
       <c r="D44" t="n">
-        <v>0.427987</v>
+        <v>0.428931</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.303678</v>
+        <v>0.303218</v>
       </c>
       <c r="C45" t="n">
-        <v>0.218034</v>
+        <v>0.218169</v>
       </c>
       <c r="D45" t="n">
-        <v>0.429342</v>
+        <v>0.429764</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.295205</v>
+        <v>0.294777</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2169</v>
+        <v>0.21703</v>
       </c>
       <c r="D46" t="n">
-        <v>0.430102</v>
+        <v>0.430141</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.285308</v>
+        <v>0.285101</v>
       </c>
       <c r="C47" t="n">
-        <v>0.216561</v>
+        <v>0.216764</v>
       </c>
       <c r="D47" t="n">
-        <v>0.430642</v>
+        <v>0.431777</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.275333</v>
+        <v>0.274465</v>
       </c>
       <c r="C48" t="n">
-        <v>0.215919</v>
+        <v>0.216047</v>
       </c>
       <c r="D48" t="n">
-        <v>0.432338</v>
+        <v>0.433773</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.263397</v>
+        <v>0.263404</v>
       </c>
       <c r="C49" t="n">
-        <v>0.215103</v>
+        <v>0.21544</v>
       </c>
       <c r="D49" t="n">
-        <v>0.434034</v>
+        <v>0.435141</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.251397</v>
+        <v>0.249353</v>
       </c>
       <c r="C50" t="n">
-        <v>0.215173</v>
+        <v>0.21531</v>
       </c>
       <c r="D50" t="n">
-        <v>0.430864</v>
+        <v>0.434741</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.236822</v>
+        <v>0.236524</v>
       </c>
       <c r="C51" t="n">
-        <v>0.226198</v>
+        <v>0.226414</v>
       </c>
       <c r="D51" t="n">
-        <v>0.431288</v>
+        <v>0.433381</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.222304</v>
+        <v>0.221951</v>
       </c>
       <c r="C52" t="n">
-        <v>0.224656</v>
+        <v>0.225154</v>
       </c>
       <c r="D52" t="n">
-        <v>0.432513</v>
+        <v>0.435706</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.34739</v>
+        <v>0.347308</v>
       </c>
       <c r="C53" t="n">
-        <v>0.223683</v>
+        <v>0.223964</v>
       </c>
       <c r="D53" t="n">
-        <v>0.431089</v>
+        <v>0.436088</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.341234</v>
+        <v>0.341499</v>
       </c>
       <c r="C54" t="n">
-        <v>0.222785</v>
+        <v>0.222894</v>
       </c>
       <c r="D54" t="n">
-        <v>0.432234</v>
+        <v>0.436928</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.335359</v>
+        <v>0.336302</v>
       </c>
       <c r="C55" t="n">
-        <v>0.221712</v>
+        <v>0.221751</v>
       </c>
       <c r="D55" t="n">
-        <v>0.434448</v>
+        <v>0.438285</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.328418</v>
+        <v>0.32943</v>
       </c>
       <c r="C56" t="n">
-        <v>0.22038</v>
+        <v>0.220844</v>
       </c>
       <c r="D56" t="n">
-        <v>0.436405</v>
+        <v>0.438578</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.321155</v>
+        <v>0.322038</v>
       </c>
       <c r="C57" t="n">
-        <v>0.219527</v>
+        <v>0.21979</v>
       </c>
       <c r="D57" t="n">
-        <v>0.437567</v>
+        <v>0.440889</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314011</v>
+        <v>0.314334</v>
       </c>
       <c r="C58" t="n">
-        <v>0.218426</v>
+        <v>0.218868</v>
       </c>
       <c r="D58" t="n">
-        <v>0.437836</v>
+        <v>0.444476</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.306034</v>
+        <v>0.305928</v>
       </c>
       <c r="C59" t="n">
-        <v>0.218012</v>
+        <v>0.218124</v>
       </c>
       <c r="D59" t="n">
-        <v>0.440014</v>
+        <v>0.448446</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.297292</v>
+        <v>0.297097</v>
       </c>
       <c r="C60" t="n">
-        <v>0.21734</v>
+        <v>0.217608</v>
       </c>
       <c r="D60" t="n">
-        <v>0.442998</v>
+        <v>0.4514</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.287928</v>
+        <v>0.287762</v>
       </c>
       <c r="C61" t="n">
-        <v>0.216678</v>
+        <v>0.216887</v>
       </c>
       <c r="D61" t="n">
-        <v>0.445335</v>
+        <v>0.454873</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.27769</v>
+        <v>0.277469</v>
       </c>
       <c r="C62" t="n">
-        <v>0.215943</v>
+        <v>0.216205</v>
       </c>
       <c r="D62" t="n">
-        <v>0.448721</v>
+        <v>0.451379</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.266251</v>
+        <v>0.265636</v>
       </c>
       <c r="C63" t="n">
-        <v>0.215431</v>
+        <v>0.215441</v>
       </c>
       <c r="D63" t="n">
-        <v>0.453936</v>
+        <v>0.457104</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.254511</v>
+        <v>0.253336</v>
       </c>
       <c r="C64" t="n">
-        <v>0.215119</v>
+        <v>0.215078</v>
       </c>
       <c r="D64" t="n">
-        <v>0.482804</v>
+        <v>0.500144</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.239766</v>
+        <v>0.240011</v>
       </c>
       <c r="C65" t="n">
-        <v>0.214359</v>
+        <v>0.214504</v>
       </c>
       <c r="D65" t="n">
-        <v>0.492414</v>
+        <v>0.500111</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.225622</v>
+        <v>0.225391</v>
       </c>
       <c r="C66" t="n">
-        <v>0.225487</v>
+        <v>0.225887</v>
       </c>
       <c r="D66" t="n">
-        <v>0.498197</v>
+        <v>0.506751</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349566</v>
+        <v>0.349468</v>
       </c>
       <c r="C67" t="n">
-        <v>0.224102</v>
+        <v>0.22444</v>
       </c>
       <c r="D67" t="n">
-        <v>0.515826</v>
+        <v>0.520286</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.343155</v>
+        <v>0.343145</v>
       </c>
       <c r="C68" t="n">
-        <v>0.223078</v>
+        <v>0.223398</v>
       </c>
       <c r="D68" t="n">
-        <v>0.514968</v>
+        <v>0.519407</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.337286</v>
+        <v>0.33753</v>
       </c>
       <c r="C69" t="n">
-        <v>0.221725</v>
+        <v>0.222087</v>
       </c>
       <c r="D69" t="n">
-        <v>0.519101</v>
+        <v>0.523567</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.330835</v>
+        <v>0.331178</v>
       </c>
       <c r="C70" t="n">
-        <v>0.220582</v>
+        <v>0.220854</v>
       </c>
       <c r="D70" t="n">
-        <v>0.529709</v>
+        <v>0.532901</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.323604</v>
+        <v>0.324092</v>
       </c>
       <c r="C71" t="n">
-        <v>0.219832</v>
+        <v>0.220133</v>
       </c>
       <c r="D71" t="n">
-        <v>0.529197</v>
+        <v>0.5300049999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316279</v>
+        <v>0.316315</v>
       </c>
       <c r="C72" t="n">
-        <v>0.218957</v>
+        <v>0.219222</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5384139999999999</v>
+        <v>0.539557</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.30839</v>
+        <v>0.308191</v>
       </c>
       <c r="C73" t="n">
-        <v>0.21816</v>
+        <v>0.218365</v>
       </c>
       <c r="D73" t="n">
-        <v>0.54039</v>
+        <v>0.5407110000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.299711</v>
+        <v>0.299975</v>
       </c>
       <c r="C74" t="n">
-        <v>0.21742</v>
+        <v>0.217596</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5457340000000001</v>
+        <v>0.547377</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.28997</v>
+        <v>0.289857</v>
       </c>
       <c r="C75" t="n">
-        <v>0.216613</v>
+        <v>0.216928</v>
       </c>
       <c r="D75" t="n">
-        <v>0.543266</v>
+        <v>0.54492</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.280183</v>
+        <v>0.280302</v>
       </c>
       <c r="C76" t="n">
-        <v>0.216153</v>
+        <v>0.216415</v>
       </c>
       <c r="D76" t="n">
-        <v>0.547226</v>
+        <v>0.549289</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.268907</v>
+        <v>0.269068</v>
       </c>
       <c r="C77" t="n">
-        <v>0.215516</v>
+        <v>0.215983</v>
       </c>
       <c r="D77" t="n">
-        <v>0.54678</v>
+        <v>0.550226</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.256619</v>
+        <v>0.257417</v>
       </c>
       <c r="C78" t="n">
-        <v>0.215085</v>
+        <v>0.215588</v>
       </c>
       <c r="D78" t="n">
-        <v>0.621158</v>
+        <v>0.628885</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.243504</v>
+        <v>0.243199</v>
       </c>
       <c r="C79" t="n">
-        <v>0.214584</v>
+        <v>0.21485</v>
       </c>
       <c r="D79" t="n">
-        <v>0.622844</v>
+        <v>0.63463</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.229447</v>
+        <v>0.229596</v>
       </c>
       <c r="C80" t="n">
-        <v>0.227577</v>
+        <v>0.228053</v>
       </c>
       <c r="D80" t="n">
-        <v>0.622515</v>
+        <v>0.635045</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350573</v>
+        <v>0.3508</v>
       </c>
       <c r="C81" t="n">
-        <v>0.225645</v>
+        <v>0.226028</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6187589999999999</v>
+        <v>0.624879</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.34537</v>
+        <v>0.345936</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224143</v>
+        <v>0.224436</v>
       </c>
       <c r="D82" t="n">
-        <v>0.626865</v>
+        <v>0.631378</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.339714</v>
+        <v>0.339742</v>
       </c>
       <c r="C83" t="n">
-        <v>0.222665</v>
+        <v>0.222927</v>
       </c>
       <c r="D83" t="n">
-        <v>0.622627</v>
+        <v>0.626618</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.332758</v>
+        <v>0.333014</v>
       </c>
       <c r="C84" t="n">
-        <v>0.221477</v>
+        <v>0.221732</v>
       </c>
       <c r="D84" t="n">
-        <v>0.614849</v>
+        <v>0.618764</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.325644</v>
+        <v>0.326</v>
       </c>
       <c r="C85" t="n">
-        <v>0.220466</v>
+        <v>0.220697</v>
       </c>
       <c r="D85" t="n">
-        <v>0.614872</v>
+        <v>0.618633</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318443</v>
+        <v>0.31835</v>
       </c>
       <c r="C86" t="n">
-        <v>0.219447</v>
+        <v>0.219629</v>
       </c>
       <c r="D86" t="n">
-        <v>0.607217</v>
+        <v>0.611594</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309818</v>
+        <v>0.31046</v>
       </c>
       <c r="C87" t="n">
-        <v>0.218558</v>
+        <v>0.218784</v>
       </c>
       <c r="D87" t="n">
-        <v>0.605569</v>
+        <v>0.610065</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.302236</v>
+        <v>0.302239</v>
       </c>
       <c r="C88" t="n">
-        <v>0.217827</v>
+        <v>0.218099</v>
       </c>
       <c r="D88" t="n">
-        <v>0.598922</v>
+        <v>0.603303</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.29289</v>
+        <v>0.292655</v>
       </c>
       <c r="C89" t="n">
-        <v>0.216989</v>
+        <v>0.217164</v>
       </c>
       <c r="D89" t="n">
-        <v>0.596002</v>
+        <v>0.600563</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.282995</v>
+        <v>0.283117</v>
       </c>
       <c r="C90" t="n">
-        <v>0.216404</v>
+        <v>0.21655</v>
       </c>
       <c r="D90" t="n">
-        <v>0.590786</v>
+        <v>0.59568</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.272421</v>
+        <v>0.272575</v>
       </c>
       <c r="C91" t="n">
-        <v>0.215783</v>
+        <v>0.21602</v>
       </c>
       <c r="D91" t="n">
-        <v>0.586024</v>
+        <v>0.590603</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.260442</v>
+        <v>0.260633</v>
       </c>
       <c r="C92" t="n">
-        <v>0.215353</v>
+        <v>0.215643</v>
       </c>
       <c r="D92" t="n">
-        <v>0.618909</v>
+        <v>0.624597</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.247406</v>
+        <v>0.247673</v>
       </c>
       <c r="C93" t="n">
-        <v>0.214889</v>
+        <v>0.21527</v>
       </c>
       <c r="D93" t="n">
-        <v>0.613708</v>
+        <v>0.618192</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.233483</v>
+        <v>0.233713</v>
       </c>
       <c r="C94" t="n">
-        <v>0.228124</v>
+        <v>0.228484</v>
       </c>
       <c r="D94" t="n">
-        <v>0.611771</v>
+        <v>0.61597</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.35163</v>
+        <v>0.351579</v>
       </c>
       <c r="C95" t="n">
-        <v>0.226354</v>
+        <v>0.226755</v>
       </c>
       <c r="D95" t="n">
-        <v>0.60694</v>
+        <v>0.612301</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.346518</v>
+        <v>0.346662</v>
       </c>
       <c r="C96" t="n">
-        <v>0.224818</v>
+        <v>0.22495</v>
       </c>
       <c r="D96" t="n">
-        <v>0.60608</v>
+        <v>0.611688</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340745</v>
+        <v>0.340888</v>
       </c>
       <c r="C97" t="n">
-        <v>0.223209</v>
+        <v>0.223507</v>
       </c>
       <c r="D97" t="n">
-        <v>0.603208</v>
+        <v>0.608491</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.33411</v>
+        <v>0.334532</v>
       </c>
       <c r="C98" t="n">
-        <v>0.221896</v>
+        <v>0.222061</v>
       </c>
       <c r="D98" t="n">
-        <v>0.599664</v>
+        <v>0.604966</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.327293</v>
+        <v>0.32738</v>
       </c>
       <c r="C99" t="n">
-        <v>0.220846</v>
+        <v>0.220861</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5957519999999999</v>
+        <v>0.601404</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320054</v>
+        <v>0.320228</v>
       </c>
       <c r="C100" t="n">
-        <v>0.219709</v>
+        <v>0.219802</v>
       </c>
       <c r="D100" t="n">
-        <v>0.592119</v>
+        <v>0.597563</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311927</v>
+        <v>0.312041</v>
       </c>
       <c r="C101" t="n">
-        <v>0.218906</v>
+        <v>0.218943</v>
       </c>
       <c r="D101" t="n">
-        <v>0.588027</v>
+        <v>0.593546</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.303677</v>
+        <v>0.303707</v>
       </c>
       <c r="C102" t="n">
-        <v>0.217975</v>
+        <v>0.218113</v>
       </c>
       <c r="D102" t="n">
-        <v>0.583827</v>
+        <v>0.589162</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.294568</v>
+        <v>0.294957</v>
       </c>
       <c r="C103" t="n">
-        <v>0.217334</v>
+        <v>0.217528</v>
       </c>
       <c r="D103" t="n">
-        <v>0.580332</v>
+        <v>0.5848719999999999</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.285009</v>
+        <v>0.284771</v>
       </c>
       <c r="C104" t="n">
-        <v>0.216617</v>
+        <v>0.216804</v>
       </c>
       <c r="D104" t="n">
-        <v>0.576563</v>
+        <v>0.581221</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.274469</v>
+        <v>0.274287</v>
       </c>
       <c r="C105" t="n">
-        <v>0.216024</v>
+        <v>0.216219</v>
       </c>
       <c r="D105" t="n">
-        <v>0.572819</v>
+        <v>0.577461</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.262804</v>
+        <v>0.262944</v>
       </c>
       <c r="C106" t="n">
-        <v>0.215555</v>
+        <v>0.215837</v>
       </c>
       <c r="D106" t="n">
-        <v>0.569311</v>
+        <v>0.573668</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.250465</v>
+        <v>0.250376</v>
       </c>
       <c r="C107" t="n">
-        <v>0.215202</v>
+        <v>0.215614</v>
       </c>
       <c r="D107" t="n">
-        <v>0.609621</v>
+        <v>0.613522</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.236342</v>
+        <v>0.236415</v>
       </c>
       <c r="C108" t="n">
-        <v>0.228856</v>
+        <v>0.229236</v>
       </c>
       <c r="D108" t="n">
-        <v>0.609708</v>
+        <v>0.614383</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.221537</v>
+        <v>0.221366</v>
       </c>
       <c r="C109" t="n">
-        <v>0.226795</v>
+        <v>0.227113</v>
       </c>
       <c r="D109" t="n">
-        <v>0.608653</v>
+        <v>0.614497</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347587</v>
+        <v>0.348371</v>
       </c>
       <c r="C110" t="n">
-        <v>0.225232</v>
+        <v>0.225277</v>
       </c>
       <c r="D110" t="n">
-        <v>0.606697</v>
+        <v>0.611464</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341633</v>
+        <v>0.341996</v>
       </c>
       <c r="C111" t="n">
-        <v>0.223479</v>
+        <v>0.223755</v>
       </c>
       <c r="D111" t="n">
-        <v>0.602698</v>
+        <v>0.608725</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.335663</v>
+        <v>0.335812</v>
       </c>
       <c r="C112" t="n">
-        <v>0.222075</v>
+        <v>0.222271</v>
       </c>
       <c r="D112" t="n">
-        <v>0.599947</v>
+        <v>0.605909</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.328194</v>
+        <v>0.328758</v>
       </c>
       <c r="C113" t="n">
-        <v>0.220898</v>
+        <v>0.221204</v>
       </c>
       <c r="D113" t="n">
-        <v>0.595715</v>
+        <v>0.602553</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.321055</v>
+        <v>0.321678</v>
       </c>
       <c r="C114" t="n">
-        <v>0.219778</v>
+        <v>0.220054</v>
       </c>
       <c r="D114" t="n">
-        <v>0.591198</v>
+        <v>0.597729</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.31329</v>
+        <v>0.313717</v>
       </c>
       <c r="C115" t="n">
-        <v>0.218935</v>
+        <v>0.219153</v>
       </c>
       <c r="D115" t="n">
-        <v>0.587627</v>
+        <v>0.593279</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.305382</v>
+        <v>0.30549</v>
       </c>
       <c r="C116" t="n">
-        <v>0.21839</v>
+        <v>0.218377</v>
       </c>
       <c r="D116" t="n">
-        <v>0.58274</v>
+        <v>0.589239</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.296334</v>
+        <v>0.296261</v>
       </c>
       <c r="C117" t="n">
-        <v>0.217583</v>
+        <v>0.217698</v>
       </c>
       <c r="D117" t="n">
-        <v>0.579746</v>
+        <v>0.585651</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.286703</v>
+        <v>0.286688</v>
       </c>
       <c r="C118" t="n">
-        <v>0.21698</v>
+        <v>0.216945</v>
       </c>
       <c r="D118" t="n">
-        <v>0.574487</v>
+        <v>0.581115</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.276608</v>
+        <v>0.276742</v>
       </c>
       <c r="C119" t="n">
-        <v>0.216241</v>
+        <v>0.216569</v>
       </c>
       <c r="D119" t="n">
-        <v>0.570609</v>
+        <v>0.577461</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.265307</v>
+        <v>0.26529</v>
       </c>
       <c r="C120" t="n">
-        <v>0.21579</v>
+        <v>0.21589</v>
       </c>
       <c r="D120" t="n">
-        <v>0.566855</v>
+        <v>0.573501</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.25335</v>
+        <v>0.253284</v>
       </c>
       <c r="C121" t="n">
-        <v>0.215471</v>
+        <v>0.215615</v>
       </c>
       <c r="D121" t="n">
-        <v>0.625455</v>
+        <v>0.633789</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.239485</v>
+        <v>0.239893</v>
       </c>
       <c r="C122" t="n">
-        <v>0.214914</v>
+        <v>0.21522</v>
       </c>
       <c r="D122" t="n">
-        <v>0.624301</v>
+        <v>0.633155</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.225248</v>
+        <v>0.225773</v>
       </c>
       <c r="C123" t="n">
-        <v>0.22719</v>
+        <v>0.2287</v>
       </c>
       <c r="D123" t="n">
-        <v>0.622906</v>
+        <v>0.631264</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.348556</v>
+        <v>0.349105</v>
       </c>
       <c r="C124" t="n">
-        <v>0.227029</v>
+        <v>0.226644</v>
       </c>
       <c r="D124" t="n">
-        <v>0.619545</v>
+        <v>0.627624</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.343333</v>
+        <v>0.343231</v>
       </c>
       <c r="C125" t="n">
-        <v>0.224608</v>
+        <v>0.224422</v>
       </c>
       <c r="D125" t="n">
-        <v>0.615862</v>
+        <v>0.624972</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336996</v>
+        <v>0.336913</v>
       </c>
       <c r="C126" t="n">
-        <v>0.225157</v>
+        <v>0.223793</v>
       </c>
       <c r="D126" t="n">
-        <v>0.611094</v>
+        <v>0.620312</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.33006</v>
+        <v>0.330351</v>
       </c>
       <c r="C127" t="n">
-        <v>0.223555</v>
+        <v>0.221661</v>
       </c>
       <c r="D127" t="n">
-        <v>0.606313</v>
+        <v>0.615189</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.323054</v>
+        <v>0.323006</v>
       </c>
       <c r="C128" t="n">
-        <v>0.220693</v>
+        <v>0.221772</v>
       </c>
       <c r="D128" t="n">
-        <v>0.601258</v>
+        <v>0.60988</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315214</v>
+        <v>0.315266</v>
       </c>
       <c r="C129" t="n">
-        <v>0.219695</v>
+        <v>0.219446</v>
       </c>
       <c r="D129" t="n">
-        <v>0.595495</v>
+        <v>0.6043500000000001</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306996</v>
+        <v>0.307113</v>
       </c>
       <c r="C130" t="n">
-        <v>0.219226</v>
+        <v>0.218914</v>
       </c>
       <c r="D130" t="n">
-        <v>0.592002</v>
+        <v>0.600567</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297651</v>
+        <v>0.298101</v>
       </c>
       <c r="C131" t="n">
-        <v>0.21767</v>
+        <v>0.217848</v>
       </c>
       <c r="D131" t="n">
-        <v>0.587122</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.288237</v>
+        <v>0.288456</v>
       </c>
       <c r="C132" t="n">
-        <v>0.217083</v>
+        <v>0.217361</v>
       </c>
       <c r="D132" t="n">
-        <v>0.583443</v>
+        <v>0.592072</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.277972</v>
+        <v>0.278187</v>
       </c>
       <c r="C133" t="n">
-        <v>0.216409</v>
+        <v>0.21723</v>
       </c>
       <c r="D133" t="n">
-        <v>0.578816</v>
+        <v>0.587264</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.267317</v>
+        <v>0.267409</v>
       </c>
       <c r="C134" t="n">
-        <v>0.215949</v>
+        <v>0.216569</v>
       </c>
       <c r="D134" t="n">
-        <v>0.574456</v>
+        <v>0.582012</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.255085</v>
+        <v>0.255114</v>
       </c>
       <c r="C135" t="n">
-        <v>0.215586</v>
+        <v>0.215706</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6354610000000001</v>
+        <v>0.64052</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.242916</v>
+        <v>0.242659</v>
       </c>
       <c r="C136" t="n">
-        <v>0.216706</v>
+        <v>0.215687</v>
       </c>
       <c r="D136" t="n">
-        <v>0.6340209999999999</v>
+        <v>0.638455</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.228119</v>
+        <v>0.228665</v>
       </c>
       <c r="C137" t="n">
-        <v>0.229093</v>
+        <v>0.23153</v>
       </c>
       <c r="D137" t="n">
-        <v>0.633416</v>
+        <v>0.637888</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.349812</v>
+        <v>0.35029</v>
       </c>
       <c r="C138" t="n">
-        <v>0.228432</v>
+        <v>0.230133</v>
       </c>
       <c r="D138" t="n">
-        <v>0.627903</v>
+        <v>0.632752</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344178</v>
+        <v>0.344459</v>
       </c>
       <c r="C139" t="n">
-        <v>0.224901</v>
+        <v>0.226134</v>
       </c>
       <c r="D139" t="n">
-        <v>0.62404</v>
+        <v>0.629617</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338076</v>
+        <v>0.338677</v>
       </c>
       <c r="C140" t="n">
-        <v>0.224382</v>
+        <v>0.225057</v>
       </c>
       <c r="D140" t="n">
-        <v>0.619646</v>
+        <v>0.623953</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331729</v>
+        <v>0.332396</v>
       </c>
       <c r="C141" t="n">
-        <v>0.223063</v>
+        <v>0.223948</v>
       </c>
       <c r="D141" t="n">
-        <v>0.613262</v>
+        <v>0.619511</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324461</v>
+        <v>0.324926</v>
       </c>
       <c r="C142" t="n">
-        <v>0.223115</v>
+        <v>0.221506</v>
       </c>
       <c r="D142" t="n">
-        <v>0.607635</v>
+        <v>0.6157280000000001</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.31704</v>
+        <v>0.317228</v>
       </c>
       <c r="C143" t="n">
-        <v>0.222044</v>
+        <v>0.22119</v>
       </c>
       <c r="D143" t="n">
-        <v>0.602422</v>
+        <v>0.60906</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.294147</v>
+        <v>0.294657</v>
       </c>
       <c r="C2" t="n">
-        <v>0.203634</v>
+        <v>0.206281</v>
       </c>
       <c r="D2" t="n">
-        <v>0.414156</v>
+        <v>0.415078</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.28906</v>
+        <v>0.285599</v>
       </c>
       <c r="C3" t="n">
-        <v>0.20382</v>
+        <v>0.209584</v>
       </c>
       <c r="D3" t="n">
-        <v>0.414453</v>
+        <v>0.414853</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.277788</v>
+        <v>0.276163</v>
       </c>
       <c r="C4" t="n">
-        <v>0.203884</v>
+        <v>0.213554</v>
       </c>
       <c r="D4" t="n">
-        <v>0.417445</v>
+        <v>0.415974</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.268524</v>
+        <v>0.268465</v>
       </c>
       <c r="C5" t="n">
-        <v>0.205469</v>
+        <v>0.213431</v>
       </c>
       <c r="D5" t="n">
-        <v>0.418387</v>
+        <v>0.418701</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.25762</v>
+        <v>0.257229</v>
       </c>
       <c r="C6" t="n">
-        <v>0.205999</v>
+        <v>0.215267</v>
       </c>
       <c r="D6" t="n">
-        <v>0.420064</v>
+        <v>0.419559</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.243739</v>
+        <v>0.240959</v>
       </c>
       <c r="C7" t="n">
-        <v>0.20658</v>
+        <v>0.215462</v>
       </c>
       <c r="D7" t="n">
-        <v>0.415338</v>
+        <v>0.414527</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.231092</v>
+        <v>0.228804</v>
       </c>
       <c r="C8" t="n">
-        <v>0.207738</v>
+        <v>0.216714</v>
       </c>
       <c r="D8" t="n">
-        <v>0.417924</v>
+        <v>0.415409</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.219412</v>
+        <v>0.216217</v>
       </c>
       <c r="C9" t="n">
-        <v>0.227806</v>
+        <v>0.225137</v>
       </c>
       <c r="D9" t="n">
-        <v>0.417015</v>
+        <v>0.415855</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.345704</v>
+        <v>0.343046</v>
       </c>
       <c r="C10" t="n">
-        <v>0.220703</v>
+        <v>0.224355</v>
       </c>
       <c r="D10" t="n">
-        <v>0.416996</v>
+        <v>0.414968</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.340035</v>
+        <v>0.341389</v>
       </c>
       <c r="C11" t="n">
-        <v>0.219969</v>
+        <v>0.230516</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4174</v>
+        <v>0.416896</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.334695</v>
+        <v>0.334122</v>
       </c>
       <c r="C12" t="n">
-        <v>0.218835</v>
+        <v>0.230357</v>
       </c>
       <c r="D12" t="n">
-        <v>0.414919</v>
+        <v>0.417506</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.327346</v>
+        <v>0.327976</v>
       </c>
       <c r="C13" t="n">
-        <v>0.217767</v>
+        <v>0.229296</v>
       </c>
       <c r="D13" t="n">
-        <v>0.416059</v>
+        <v>0.41697</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.320115</v>
+        <v>0.319974</v>
       </c>
       <c r="C14" t="n">
-        <v>0.217189</v>
+        <v>0.228714</v>
       </c>
       <c r="D14" t="n">
-        <v>0.417051</v>
+        <v>0.418719</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.312073</v>
+        <v>0.312091</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2171</v>
+        <v>0.228416</v>
       </c>
       <c r="D15" t="n">
-        <v>0.41803</v>
+        <v>0.420528</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.305184</v>
+        <v>0.305049</v>
       </c>
       <c r="C16" t="n">
-        <v>0.215956</v>
+        <v>0.228113</v>
       </c>
       <c r="D16" t="n">
-        <v>0.419546</v>
+        <v>0.421388</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.296216</v>
+        <v>0.296146</v>
       </c>
       <c r="C17" t="n">
-        <v>0.215834</v>
+        <v>0.226747</v>
       </c>
       <c r="D17" t="n">
-        <v>0.421968</v>
+        <v>0.422859</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.28713</v>
+        <v>0.28639</v>
       </c>
       <c r="C18" t="n">
-        <v>0.216008</v>
+        <v>0.226198</v>
       </c>
       <c r="D18" t="n">
-        <v>0.42274</v>
+        <v>0.425185</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.277512</v>
+        <v>0.276453</v>
       </c>
       <c r="C19" t="n">
-        <v>0.215241</v>
+        <v>0.226127</v>
       </c>
       <c r="D19" t="n">
-        <v>0.424627</v>
+        <v>0.427407</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.266386</v>
+        <v>0.265995</v>
       </c>
       <c r="C20" t="n">
-        <v>0.214057</v>
+        <v>0.225862</v>
       </c>
       <c r="D20" t="n">
-        <v>0.424832</v>
+        <v>0.427527</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.253366</v>
+        <v>0.253814</v>
       </c>
       <c r="C21" t="n">
-        <v>0.214637</v>
+        <v>0.225345</v>
       </c>
       <c r="D21" t="n">
-        <v>0.419696</v>
+        <v>0.419583</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.240809</v>
+        <v>0.239384</v>
       </c>
       <c r="C22" t="n">
-        <v>0.214511</v>
+        <v>0.224682</v>
       </c>
       <c r="D22" t="n">
-        <v>0.418319</v>
+        <v>0.419935</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.226574</v>
+        <v>0.224992</v>
       </c>
       <c r="C23" t="n">
-        <v>0.224647</v>
+        <v>0.230356</v>
       </c>
       <c r="D23" t="n">
-        <v>0.419911</v>
+        <v>0.422094</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348534</v>
+        <v>0.348618</v>
       </c>
       <c r="C24" t="n">
-        <v>0.223601</v>
+        <v>0.240124</v>
       </c>
       <c r="D24" t="n">
-        <v>0.419687</v>
+        <v>0.422774</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.343228</v>
+        <v>0.343209</v>
       </c>
       <c r="C25" t="n">
-        <v>0.222696</v>
+        <v>0.238787</v>
       </c>
       <c r="D25" t="n">
-        <v>0.421213</v>
+        <v>0.422452</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.337032</v>
+        <v>0.336429</v>
       </c>
       <c r="C26" t="n">
-        <v>0.221287</v>
+        <v>0.236245</v>
       </c>
       <c r="D26" t="n">
-        <v>0.420701</v>
+        <v>0.422358</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.330977</v>
+        <v>0.330881</v>
       </c>
       <c r="C27" t="n">
-        <v>0.220516</v>
+        <v>0.235115</v>
       </c>
       <c r="D27" t="n">
-        <v>0.422562</v>
+        <v>0.423808</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.32437</v>
+        <v>0.323678</v>
       </c>
       <c r="C28" t="n">
-        <v>0.219302</v>
+        <v>0.233094</v>
       </c>
       <c r="D28" t="n">
-        <v>0.423223</v>
+        <v>0.425252</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.317453</v>
+        <v>0.316126</v>
       </c>
       <c r="C29" t="n">
-        <v>0.218541</v>
+        <v>0.232043</v>
       </c>
       <c r="D29" t="n">
-        <v>0.424907</v>
+        <v>0.425742</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.310181</v>
+        <v>0.308248</v>
       </c>
       <c r="C30" t="n">
-        <v>0.218109</v>
+        <v>0.230481</v>
       </c>
       <c r="D30" t="n">
-        <v>0.425716</v>
+        <v>0.427061</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.299566</v>
+        <v>0.299479</v>
       </c>
       <c r="C31" t="n">
-        <v>0.217269</v>
+        <v>0.230374</v>
       </c>
       <c r="D31" t="n">
-        <v>0.426606</v>
+        <v>0.427467</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.291069</v>
+        <v>0.290496</v>
       </c>
       <c r="C32" t="n">
-        <v>0.217356</v>
+        <v>0.22883</v>
       </c>
       <c r="D32" t="n">
-        <v>0.428541</v>
+        <v>0.429674</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.281076</v>
+        <v>0.280004</v>
       </c>
       <c r="C33" t="n">
-        <v>0.215615</v>
+        <v>0.227734</v>
       </c>
       <c r="D33" t="n">
-        <v>0.428592</v>
+        <v>0.431105</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.270007</v>
+        <v>0.269952</v>
       </c>
       <c r="C34" t="n">
-        <v>0.215254</v>
+        <v>0.2278</v>
       </c>
       <c r="D34" t="n">
-        <v>0.429662</v>
+        <v>0.431221</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.258373</v>
+        <v>0.257957</v>
       </c>
       <c r="C35" t="n">
-        <v>0.215171</v>
+        <v>0.227511</v>
       </c>
       <c r="D35" t="n">
-        <v>0.42609</v>
+        <v>0.427022</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.246677</v>
+        <v>0.24521</v>
       </c>
       <c r="C36" t="n">
-        <v>0.214694</v>
+        <v>0.226639</v>
       </c>
       <c r="D36" t="n">
-        <v>0.426976</v>
+        <v>0.428623</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.233223</v>
+        <v>0.231825</v>
       </c>
       <c r="C37" t="n">
-        <v>0.236633</v>
+        <v>0.232968</v>
       </c>
       <c r="D37" t="n">
-        <v>0.427106</v>
+        <v>0.42707</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.350572</v>
+        <v>0.350426</v>
       </c>
       <c r="C38" t="n">
-        <v>0.224452</v>
+        <v>0.231123</v>
       </c>
       <c r="D38" t="n">
-        <v>0.426395</v>
+        <v>0.427614</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.345353</v>
+        <v>0.345965</v>
       </c>
       <c r="C39" t="n">
-        <v>0.233361</v>
+        <v>0.232739</v>
       </c>
       <c r="D39" t="n">
-        <v>0.425937</v>
+        <v>0.427698</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.339934</v>
+        <v>0.339192</v>
       </c>
       <c r="C40" t="n">
-        <v>0.222196</v>
+        <v>0.233133</v>
       </c>
       <c r="D40" t="n">
-        <v>0.426192</v>
+        <v>0.42824</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.333324</v>
+        <v>0.333571</v>
       </c>
       <c r="C41" t="n">
-        <v>0.220942</v>
+        <v>0.233031</v>
       </c>
       <c r="D41" t="n">
-        <v>0.426282</v>
+        <v>0.428206</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.326742</v>
+        <v>0.326671</v>
       </c>
       <c r="C42" t="n">
-        <v>0.219959</v>
+        <v>0.231695</v>
       </c>
       <c r="D42" t="n">
-        <v>0.427736</v>
+        <v>0.429199</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.31952</v>
+        <v>0.319847</v>
       </c>
       <c r="C43" t="n">
-        <v>0.219701</v>
+        <v>0.231287</v>
       </c>
       <c r="D43" t="n">
-        <v>0.428257</v>
+        <v>0.429945</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.311742</v>
+        <v>0.311715</v>
       </c>
       <c r="C44" t="n">
-        <v>0.218571</v>
+        <v>0.230887</v>
       </c>
       <c r="D44" t="n">
-        <v>0.427987</v>
+        <v>0.430232</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.303678</v>
+        <v>0.303118</v>
       </c>
       <c r="C45" t="n">
-        <v>0.218034</v>
+        <v>0.229693</v>
       </c>
       <c r="D45" t="n">
-        <v>0.429342</v>
+        <v>0.431019</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.295205</v>
+        <v>0.293436</v>
       </c>
       <c r="C46" t="n">
-        <v>0.2169</v>
+        <v>0.229266</v>
       </c>
       <c r="D46" t="n">
-        <v>0.430102</v>
+        <v>0.432056</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.285308</v>
+        <v>0.284337</v>
       </c>
       <c r="C47" t="n">
-        <v>0.216561</v>
+        <v>0.228339</v>
       </c>
       <c r="D47" t="n">
-        <v>0.430642</v>
+        <v>0.432575</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.275333</v>
+        <v>0.273657</v>
       </c>
       <c r="C48" t="n">
-        <v>0.215919</v>
+        <v>0.228012</v>
       </c>
       <c r="D48" t="n">
-        <v>0.432338</v>
+        <v>0.433879</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.263397</v>
+        <v>0.262059</v>
       </c>
       <c r="C49" t="n">
-        <v>0.215103</v>
+        <v>0.227733</v>
       </c>
       <c r="D49" t="n">
-        <v>0.434034</v>
+        <v>0.434872</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.251397</v>
+        <v>0.249992</v>
       </c>
       <c r="C50" t="n">
-        <v>0.215173</v>
+        <v>0.22702</v>
       </c>
       <c r="D50" t="n">
-        <v>0.430864</v>
+        <v>0.431545</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.236822</v>
+        <v>0.235571</v>
       </c>
       <c r="C51" t="n">
-        <v>0.226198</v>
+        <v>0.244473</v>
       </c>
       <c r="D51" t="n">
-        <v>0.431288</v>
+        <v>0.432202</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.222304</v>
+        <v>0.220562</v>
       </c>
       <c r="C52" t="n">
-        <v>0.224656</v>
+        <v>0.236199</v>
       </c>
       <c r="D52" t="n">
-        <v>0.432513</v>
+        <v>0.433774</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.34739</v>
+        <v>0.346721</v>
       </c>
       <c r="C53" t="n">
-        <v>0.223683</v>
+        <v>0.232849</v>
       </c>
       <c r="D53" t="n">
-        <v>0.431089</v>
+        <v>0.43211</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.341234</v>
+        <v>0.343486</v>
       </c>
       <c r="C54" t="n">
-        <v>0.222785</v>
+        <v>0.232229</v>
       </c>
       <c r="D54" t="n">
-        <v>0.432234</v>
+        <v>0.433144</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.335359</v>
+        <v>0.336637</v>
       </c>
       <c r="C55" t="n">
-        <v>0.221712</v>
+        <v>0.231833</v>
       </c>
       <c r="D55" t="n">
-        <v>0.434448</v>
+        <v>0.433748</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.328418</v>
+        <v>0.329109</v>
       </c>
       <c r="C56" t="n">
-        <v>0.22038</v>
+        <v>0.231102</v>
       </c>
       <c r="D56" t="n">
-        <v>0.436405</v>
+        <v>0.434938</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.321155</v>
+        <v>0.322018</v>
       </c>
       <c r="C57" t="n">
-        <v>0.219527</v>
+        <v>0.230825</v>
       </c>
       <c r="D57" t="n">
-        <v>0.437567</v>
+        <v>0.437963</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314011</v>
+        <v>0.313918</v>
       </c>
       <c r="C58" t="n">
-        <v>0.218426</v>
+        <v>0.230646</v>
       </c>
       <c r="D58" t="n">
-        <v>0.437836</v>
+        <v>0.440104</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.306034</v>
+        <v>0.3055</v>
       </c>
       <c r="C59" t="n">
-        <v>0.218012</v>
+        <v>0.230113</v>
       </c>
       <c r="D59" t="n">
-        <v>0.440014</v>
+        <v>0.444332</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.297292</v>
+        <v>0.296931</v>
       </c>
       <c r="C60" t="n">
-        <v>0.21734</v>
+        <v>0.22933</v>
       </c>
       <c r="D60" t="n">
-        <v>0.442998</v>
+        <v>0.448264</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.287928</v>
+        <v>0.287368</v>
       </c>
       <c r="C61" t="n">
-        <v>0.216678</v>
+        <v>0.228635</v>
       </c>
       <c r="D61" t="n">
-        <v>0.445335</v>
+        <v>0.452105</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.27769</v>
+        <v>0.276823</v>
       </c>
       <c r="C62" t="n">
-        <v>0.215943</v>
+        <v>0.228069</v>
       </c>
       <c r="D62" t="n">
-        <v>0.448721</v>
+        <v>0.448235</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.266251</v>
+        <v>0.264451</v>
       </c>
       <c r="C63" t="n">
-        <v>0.215431</v>
+        <v>0.22824</v>
       </c>
       <c r="D63" t="n">
-        <v>0.453936</v>
+        <v>0.452396</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.254511</v>
+        <v>0.25188</v>
       </c>
       <c r="C64" t="n">
-        <v>0.215119</v>
+        <v>0.227278</v>
       </c>
       <c r="D64" t="n">
-        <v>0.482804</v>
+        <v>0.493095</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.239766</v>
+        <v>0.238582</v>
       </c>
       <c r="C65" t="n">
-        <v>0.214359</v>
+        <v>0.226682</v>
       </c>
       <c r="D65" t="n">
-        <v>0.492414</v>
+        <v>0.491864</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.225622</v>
+        <v>0.223896</v>
       </c>
       <c r="C66" t="n">
-        <v>0.225487</v>
+        <v>0.242064</v>
       </c>
       <c r="D66" t="n">
-        <v>0.498197</v>
+        <v>0.499669</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349566</v>
+        <v>0.350331</v>
       </c>
       <c r="C67" t="n">
-        <v>0.224102</v>
+        <v>0.239728</v>
       </c>
       <c r="D67" t="n">
-        <v>0.515826</v>
+        <v>0.514891</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.343155</v>
+        <v>0.344815</v>
       </c>
       <c r="C68" t="n">
-        <v>0.223078</v>
+        <v>0.233721</v>
       </c>
       <c r="D68" t="n">
-        <v>0.514968</v>
+        <v>0.516423</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.337286</v>
+        <v>0.338547</v>
       </c>
       <c r="C69" t="n">
-        <v>0.221725</v>
+        <v>0.232098</v>
       </c>
       <c r="D69" t="n">
-        <v>0.519101</v>
+        <v>0.52024</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.330835</v>
+        <v>0.331131</v>
       </c>
       <c r="C70" t="n">
-        <v>0.220582</v>
+        <v>0.231673</v>
       </c>
       <c r="D70" t="n">
-        <v>0.529709</v>
+        <v>0.529662</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.323604</v>
+        <v>0.323898</v>
       </c>
       <c r="C71" t="n">
-        <v>0.219832</v>
+        <v>0.231242</v>
       </c>
       <c r="D71" t="n">
-        <v>0.529197</v>
+        <v>0.5272210000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316279</v>
+        <v>0.316051</v>
       </c>
       <c r="C72" t="n">
-        <v>0.218957</v>
+        <v>0.230605</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5384139999999999</v>
+        <v>0.536355</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.30839</v>
+        <v>0.307838</v>
       </c>
       <c r="C73" t="n">
-        <v>0.21816</v>
+        <v>0.229887</v>
       </c>
       <c r="D73" t="n">
-        <v>0.54039</v>
+        <v>0.538876</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.299711</v>
+        <v>0.299273</v>
       </c>
       <c r="C74" t="n">
-        <v>0.21742</v>
+        <v>0.229121</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5457340000000001</v>
+        <v>0.544594</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.28997</v>
+        <v>0.289449</v>
       </c>
       <c r="C75" t="n">
-        <v>0.216613</v>
+        <v>0.228495</v>
       </c>
       <c r="D75" t="n">
-        <v>0.543266</v>
+        <v>0.542476</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.280183</v>
+        <v>0.279446</v>
       </c>
       <c r="C76" t="n">
-        <v>0.216153</v>
+        <v>0.227978</v>
       </c>
       <c r="D76" t="n">
-        <v>0.547226</v>
+        <v>0.546882</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.268907</v>
+        <v>0.267488</v>
       </c>
       <c r="C77" t="n">
-        <v>0.215516</v>
+        <v>0.227863</v>
       </c>
       <c r="D77" t="n">
-        <v>0.54678</v>
+        <v>0.545264</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.256619</v>
+        <v>0.255291</v>
       </c>
       <c r="C78" t="n">
-        <v>0.215085</v>
+        <v>0.227381</v>
       </c>
       <c r="D78" t="n">
-        <v>0.621158</v>
+        <v>0.619834</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.243504</v>
+        <v>0.242044</v>
       </c>
       <c r="C79" t="n">
-        <v>0.214584</v>
+        <v>0.226873</v>
       </c>
       <c r="D79" t="n">
-        <v>0.622844</v>
+        <v>0.621646</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.229447</v>
+        <v>0.228305</v>
       </c>
       <c r="C80" t="n">
-        <v>0.227577</v>
+        <v>0.233662</v>
       </c>
       <c r="D80" t="n">
-        <v>0.622515</v>
+        <v>0.621093</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350573</v>
+        <v>0.35085</v>
       </c>
       <c r="C81" t="n">
-        <v>0.225645</v>
+        <v>0.241659</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6187589999999999</v>
+        <v>0.6160910000000001</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.34537</v>
+        <v>0.346758</v>
       </c>
       <c r="C82" t="n">
-        <v>0.224143</v>
+        <v>0.234647</v>
       </c>
       <c r="D82" t="n">
-        <v>0.626865</v>
+        <v>0.6238899999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.339714</v>
+        <v>0.339901</v>
       </c>
       <c r="C83" t="n">
-        <v>0.222665</v>
+        <v>0.233588</v>
       </c>
       <c r="D83" t="n">
-        <v>0.622627</v>
+        <v>0.61921</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.332758</v>
+        <v>0.333126</v>
       </c>
       <c r="C84" t="n">
-        <v>0.221477</v>
+        <v>0.232797</v>
       </c>
       <c r="D84" t="n">
-        <v>0.614849</v>
+        <v>0.610955</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.325644</v>
+        <v>0.3258</v>
       </c>
       <c r="C85" t="n">
-        <v>0.220466</v>
+        <v>0.231973</v>
       </c>
       <c r="D85" t="n">
-        <v>0.614872</v>
+        <v>0.6113499999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318443</v>
+        <v>0.318337</v>
       </c>
       <c r="C86" t="n">
-        <v>0.219447</v>
+        <v>0.230819</v>
       </c>
       <c r="D86" t="n">
-        <v>0.607217</v>
+        <v>0.6045700000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309818</v>
+        <v>0.31052</v>
       </c>
       <c r="C87" t="n">
-        <v>0.218558</v>
+        <v>0.230243</v>
       </c>
       <c r="D87" t="n">
-        <v>0.605569</v>
+        <v>0.602379</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.302236</v>
+        <v>0.302402</v>
       </c>
       <c r="C88" t="n">
-        <v>0.217827</v>
+        <v>0.229746</v>
       </c>
       <c r="D88" t="n">
-        <v>0.598922</v>
+        <v>0.596668</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.29289</v>
+        <v>0.292161</v>
       </c>
       <c r="C89" t="n">
-        <v>0.216989</v>
+        <v>0.228923</v>
       </c>
       <c r="D89" t="n">
-        <v>0.596002</v>
+        <v>0.5931959999999999</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.282995</v>
+        <v>0.281926</v>
       </c>
       <c r="C90" t="n">
-        <v>0.216404</v>
+        <v>0.228192</v>
       </c>
       <c r="D90" t="n">
-        <v>0.590786</v>
+        <v>0.588293</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.272421</v>
+        <v>0.27135</v>
       </c>
       <c r="C91" t="n">
-        <v>0.215783</v>
+        <v>0.228013</v>
       </c>
       <c r="D91" t="n">
-        <v>0.586024</v>
+        <v>0.5831769999999999</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.260442</v>
+        <v>0.259382</v>
       </c>
       <c r="C92" t="n">
-        <v>0.215353</v>
+        <v>0.227446</v>
       </c>
       <c r="D92" t="n">
-        <v>0.618909</v>
+        <v>0.615056</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.247406</v>
+        <v>0.246468</v>
       </c>
       <c r="C93" t="n">
-        <v>0.214889</v>
+        <v>0.226683</v>
       </c>
       <c r="D93" t="n">
-        <v>0.613708</v>
+        <v>0.609143</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.233483</v>
+        <v>0.233206</v>
       </c>
       <c r="C94" t="n">
-        <v>0.228124</v>
+        <v>0.243711</v>
       </c>
       <c r="D94" t="n">
-        <v>0.611771</v>
+        <v>0.6069099999999999</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.35163</v>
+        <v>0.353073</v>
       </c>
       <c r="C95" t="n">
-        <v>0.226354</v>
+        <v>0.241038</v>
       </c>
       <c r="D95" t="n">
-        <v>0.60694</v>
+        <v>0.604499</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.346518</v>
+        <v>0.347751</v>
       </c>
       <c r="C96" t="n">
-        <v>0.224818</v>
+        <v>0.235291</v>
       </c>
       <c r="D96" t="n">
-        <v>0.60608</v>
+        <v>0.603093</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340745</v>
+        <v>0.341801</v>
       </c>
       <c r="C97" t="n">
-        <v>0.223209</v>
+        <v>0.233703</v>
       </c>
       <c r="D97" t="n">
-        <v>0.603208</v>
+        <v>0.599413</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.33411</v>
+        <v>0.335046</v>
       </c>
       <c r="C98" t="n">
-        <v>0.221896</v>
+        <v>0.23244</v>
       </c>
       <c r="D98" t="n">
-        <v>0.599664</v>
+        <v>0.595907</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.327293</v>
+        <v>0.327954</v>
       </c>
       <c r="C99" t="n">
-        <v>0.220846</v>
+        <v>0.232157</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5957519999999999</v>
+        <v>0.592409</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320054</v>
+        <v>0.320786</v>
       </c>
       <c r="C100" t="n">
-        <v>0.219709</v>
+        <v>0.231402</v>
       </c>
       <c r="D100" t="n">
-        <v>0.592119</v>
+        <v>0.588908</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311927</v>
+        <v>0.312733</v>
       </c>
       <c r="C101" t="n">
-        <v>0.218906</v>
+        <v>0.230333</v>
       </c>
       <c r="D101" t="n">
-        <v>0.588027</v>
+        <v>0.584942</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.303677</v>
+        <v>0.303703</v>
       </c>
       <c r="C102" t="n">
-        <v>0.217975</v>
+        <v>0.229709</v>
       </c>
       <c r="D102" t="n">
-        <v>0.583827</v>
+        <v>0.581052</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.294568</v>
+        <v>0.29414</v>
       </c>
       <c r="C103" t="n">
-        <v>0.217334</v>
+        <v>0.228791</v>
       </c>
       <c r="D103" t="n">
-        <v>0.580332</v>
+        <v>0.577866</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.285009</v>
+        <v>0.284219</v>
       </c>
       <c r="C104" t="n">
-        <v>0.216617</v>
+        <v>0.229537</v>
       </c>
       <c r="D104" t="n">
-        <v>0.576563</v>
+        <v>0.573783</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.274469</v>
+        <v>0.273573</v>
       </c>
       <c r="C105" t="n">
-        <v>0.216024</v>
+        <v>0.228324</v>
       </c>
       <c r="D105" t="n">
-        <v>0.572819</v>
+        <v>0.570111</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.262804</v>
+        <v>0.262056</v>
       </c>
       <c r="C106" t="n">
-        <v>0.215555</v>
+        <v>0.227377</v>
       </c>
       <c r="D106" t="n">
-        <v>0.569311</v>
+        <v>0.566296</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.250465</v>
+        <v>0.249218</v>
       </c>
       <c r="C107" t="n">
-        <v>0.215202</v>
+        <v>0.227137</v>
       </c>
       <c r="D107" t="n">
-        <v>0.609621</v>
+        <v>0.6051299999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.236342</v>
+        <v>0.236476</v>
       </c>
       <c r="C108" t="n">
-        <v>0.228856</v>
+        <v>0.243297</v>
       </c>
       <c r="D108" t="n">
-        <v>0.609708</v>
+        <v>0.604745</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.221537</v>
+        <v>0.221266</v>
       </c>
       <c r="C109" t="n">
-        <v>0.226795</v>
+        <v>0.241167</v>
       </c>
       <c r="D109" t="n">
-        <v>0.608653</v>
+        <v>0.604203</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347587</v>
+        <v>0.34892</v>
       </c>
       <c r="C110" t="n">
-        <v>0.225232</v>
+        <v>0.239155</v>
       </c>
       <c r="D110" t="n">
-        <v>0.606697</v>
+        <v>0.601333</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341633</v>
+        <v>0.342648</v>
       </c>
       <c r="C111" t="n">
-        <v>0.223479</v>
+        <v>0.23741</v>
       </c>
       <c r="D111" t="n">
-        <v>0.602698</v>
+        <v>0.5978329999999999</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.335663</v>
+        <v>0.336138</v>
       </c>
       <c r="C112" t="n">
-        <v>0.222075</v>
+        <v>0.235817</v>
       </c>
       <c r="D112" t="n">
-        <v>0.599947</v>
+        <v>0.595955</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.328194</v>
+        <v>0.32957</v>
       </c>
       <c r="C113" t="n">
-        <v>0.220898</v>
+        <v>0.232693</v>
       </c>
       <c r="D113" t="n">
-        <v>0.595715</v>
+        <v>0.592129</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.321055</v>
+        <v>0.321384</v>
       </c>
       <c r="C114" t="n">
-        <v>0.219778</v>
+        <v>0.23321</v>
       </c>
       <c r="D114" t="n">
-        <v>0.591198</v>
+        <v>0.5889180000000001</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.31329</v>
+        <v>0.314106</v>
       </c>
       <c r="C115" t="n">
-        <v>0.218935</v>
+        <v>0.231789</v>
       </c>
       <c r="D115" t="n">
-        <v>0.587627</v>
+        <v>0.585098</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.305382</v>
+        <v>0.3052</v>
       </c>
       <c r="C116" t="n">
-        <v>0.21839</v>
+        <v>0.229814</v>
       </c>
       <c r="D116" t="n">
-        <v>0.58274</v>
+        <v>0.579786</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.296334</v>
+        <v>0.295809</v>
       </c>
       <c r="C117" t="n">
-        <v>0.217583</v>
+        <v>0.228883</v>
       </c>
       <c r="D117" t="n">
-        <v>0.579746</v>
+        <v>0.576453</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.286703</v>
+        <v>0.286622</v>
       </c>
       <c r="C118" t="n">
-        <v>0.21698</v>
+        <v>0.228177</v>
       </c>
       <c r="D118" t="n">
-        <v>0.574487</v>
+        <v>0.572804</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.276608</v>
+        <v>0.27615</v>
       </c>
       <c r="C119" t="n">
-        <v>0.216241</v>
+        <v>0.227821</v>
       </c>
       <c r="D119" t="n">
-        <v>0.570609</v>
+        <v>0.568651</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.265307</v>
+        <v>0.264356</v>
       </c>
       <c r="C120" t="n">
-        <v>0.21579</v>
+        <v>0.227589</v>
       </c>
       <c r="D120" t="n">
-        <v>0.566855</v>
+        <v>0.564713</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.25335</v>
+        <v>0.251963</v>
       </c>
       <c r="C121" t="n">
-        <v>0.215471</v>
+        <v>0.227157</v>
       </c>
       <c r="D121" t="n">
-        <v>0.625455</v>
+        <v>0.622197</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.239485</v>
+        <v>0.240458</v>
       </c>
       <c r="C122" t="n">
-        <v>0.214914</v>
+        <v>0.226832</v>
       </c>
       <c r="D122" t="n">
-        <v>0.624301</v>
+        <v>0.621757</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.225248</v>
+        <v>0.225419</v>
       </c>
       <c r="C123" t="n">
-        <v>0.22719</v>
+        <v>0.241569</v>
       </c>
       <c r="D123" t="n">
-        <v>0.622906</v>
+        <v>0.619273</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.348556</v>
+        <v>0.349671</v>
       </c>
       <c r="C124" t="n">
-        <v>0.227029</v>
+        <v>0.239428</v>
       </c>
       <c r="D124" t="n">
-        <v>0.619545</v>
+        <v>0.615382</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.343333</v>
+        <v>0.343874</v>
       </c>
       <c r="C125" t="n">
-        <v>0.224608</v>
+        <v>0.237624</v>
       </c>
       <c r="D125" t="n">
-        <v>0.615862</v>
+        <v>0.612799</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336996</v>
+        <v>0.337581</v>
       </c>
       <c r="C126" t="n">
-        <v>0.225157</v>
+        <v>0.236096</v>
       </c>
       <c r="D126" t="n">
-        <v>0.611094</v>
+        <v>0.608062</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.33006</v>
+        <v>0.330245</v>
       </c>
       <c r="C127" t="n">
-        <v>0.223555</v>
+        <v>0.234635</v>
       </c>
       <c r="D127" t="n">
-        <v>0.606313</v>
+        <v>0.603742</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.323054</v>
+        <v>0.323324</v>
       </c>
       <c r="C128" t="n">
-        <v>0.220693</v>
+        <v>0.229791</v>
       </c>
       <c r="D128" t="n">
-        <v>0.601258</v>
+        <v>0.598859</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315214</v>
+        <v>0.315226</v>
       </c>
       <c r="C129" t="n">
-        <v>0.219695</v>
+        <v>0.229416</v>
       </c>
       <c r="D129" t="n">
-        <v>0.595495</v>
+        <v>0.5942770000000001</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306996</v>
+        <v>0.307033</v>
       </c>
       <c r="C130" t="n">
-        <v>0.219226</v>
+        <v>0.229872</v>
       </c>
       <c r="D130" t="n">
-        <v>0.592002</v>
+        <v>0.589727</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297651</v>
+        <v>0.29839</v>
       </c>
       <c r="C131" t="n">
-        <v>0.21767</v>
+        <v>0.229339</v>
       </c>
       <c r="D131" t="n">
-        <v>0.587122</v>
+        <v>0.5851189999999999</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.288237</v>
+        <v>0.288525</v>
       </c>
       <c r="C132" t="n">
-        <v>0.217083</v>
+        <v>0.228638</v>
       </c>
       <c r="D132" t="n">
-        <v>0.583443</v>
+        <v>0.581051</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.277972</v>
+        <v>0.278253</v>
       </c>
       <c r="C133" t="n">
-        <v>0.216409</v>
+        <v>0.227921</v>
       </c>
       <c r="D133" t="n">
-        <v>0.578816</v>
+        <v>0.576556</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.267317</v>
+        <v>0.266742</v>
       </c>
       <c r="C134" t="n">
-        <v>0.215949</v>
+        <v>0.227481</v>
       </c>
       <c r="D134" t="n">
-        <v>0.574456</v>
+        <v>0.572792</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.255085</v>
+        <v>0.254863</v>
       </c>
       <c r="C135" t="n">
-        <v>0.215586</v>
+        <v>0.227356</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6354610000000001</v>
+        <v>0.626959</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.242916</v>
+        <v>0.242155</v>
       </c>
       <c r="C136" t="n">
-        <v>0.216706</v>
+        <v>0.226571</v>
       </c>
       <c r="D136" t="n">
-        <v>0.6340209999999999</v>
+        <v>0.626096</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.228119</v>
+        <v>0.226606</v>
       </c>
       <c r="C137" t="n">
-        <v>0.229093</v>
+        <v>0.242034</v>
       </c>
       <c r="D137" t="n">
-        <v>0.633416</v>
+        <v>0.625203</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.349812</v>
+        <v>0.351714</v>
       </c>
       <c r="C138" t="n">
-        <v>0.228432</v>
+        <v>0.239588</v>
       </c>
       <c r="D138" t="n">
-        <v>0.627903</v>
+        <v>0.621346</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344178</v>
+        <v>0.346002</v>
       </c>
       <c r="C139" t="n">
-        <v>0.224901</v>
+        <v>0.23797</v>
       </c>
       <c r="D139" t="n">
-        <v>0.62404</v>
+        <v>0.617245</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338076</v>
+        <v>0.33952</v>
       </c>
       <c r="C140" t="n">
-        <v>0.224382</v>
+        <v>0.235479</v>
       </c>
       <c r="D140" t="n">
-        <v>0.619646</v>
+        <v>0.612502</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331729</v>
+        <v>0.33272</v>
       </c>
       <c r="C141" t="n">
-        <v>0.223063</v>
+        <v>0.230271</v>
       </c>
       <c r="D141" t="n">
-        <v>0.613262</v>
+        <v>0.609194</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324461</v>
+        <v>0.325286</v>
       </c>
       <c r="C142" t="n">
-        <v>0.223115</v>
+        <v>0.233499</v>
       </c>
       <c r="D142" t="n">
-        <v>0.607635</v>
+        <v>0.604824</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.31704</v>
+        <v>0.317971</v>
       </c>
       <c r="C143" t="n">
-        <v>0.222044</v>
+        <v>0.232395</v>
       </c>
       <c r="D143" t="n">
-        <v>0.602422</v>
+        <v>0.598279</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3247,13 +3247,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.294657</v>
+        <v>0.293639</v>
       </c>
       <c r="C2" t="n">
-        <v>0.206281</v>
+        <v>0.21047</v>
       </c>
       <c r="D2" t="n">
-        <v>0.415078</v>
+        <v>0.414845</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3261,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.285599</v>
+        <v>0.286403</v>
       </c>
       <c r="C3" t="n">
-        <v>0.209584</v>
+        <v>0.209158</v>
       </c>
       <c r="D3" t="n">
-        <v>0.414853</v>
+        <v>0.418339</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3275,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.276163</v>
+        <v>0.276251</v>
       </c>
       <c r="C4" t="n">
-        <v>0.213554</v>
+        <v>0.21292</v>
       </c>
       <c r="D4" t="n">
-        <v>0.415974</v>
+        <v>0.418927</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3289,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.268465</v>
+        <v>0.26611</v>
       </c>
       <c r="C5" t="n">
-        <v>0.213431</v>
+        <v>0.212224</v>
       </c>
       <c r="D5" t="n">
-        <v>0.418701</v>
+        <v>0.422264</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3303,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.257229</v>
+        <v>0.254647</v>
       </c>
       <c r="C6" t="n">
-        <v>0.215267</v>
+        <v>0.213203</v>
       </c>
       <c r="D6" t="n">
-        <v>0.419559</v>
+        <v>0.421583</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3317,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.240959</v>
+        <v>0.242754</v>
       </c>
       <c r="C7" t="n">
-        <v>0.215462</v>
+        <v>0.214238</v>
       </c>
       <c r="D7" t="n">
-        <v>0.414527</v>
+        <v>0.417734</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3331,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.228804</v>
+        <v>0.230063</v>
       </c>
       <c r="C8" t="n">
-        <v>0.216714</v>
+        <v>0.21628</v>
       </c>
       <c r="D8" t="n">
-        <v>0.415409</v>
+        <v>0.417886</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3345,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.216217</v>
+        <v>0.217485</v>
       </c>
       <c r="C9" t="n">
-        <v>0.225137</v>
+        <v>0.232569</v>
       </c>
       <c r="D9" t="n">
-        <v>0.415855</v>
+        <v>0.418498</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3359,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.343046</v>
+        <v>0.343822</v>
       </c>
       <c r="C10" t="n">
-        <v>0.224355</v>
+        <v>0.231805</v>
       </c>
       <c r="D10" t="n">
-        <v>0.414968</v>
+        <v>0.418106</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3373,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.341389</v>
+        <v>0.337885</v>
       </c>
       <c r="C11" t="n">
-        <v>0.230516</v>
+        <v>0.230326</v>
       </c>
       <c r="D11" t="n">
-        <v>0.416896</v>
+        <v>0.419947</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3387,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.334122</v>
+        <v>0.331365</v>
       </c>
       <c r="C12" t="n">
-        <v>0.230357</v>
+        <v>0.230463</v>
       </c>
       <c r="D12" t="n">
-        <v>0.417506</v>
+        <v>0.419468</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3401,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.327976</v>
+        <v>0.324532</v>
       </c>
       <c r="C13" t="n">
-        <v>0.229296</v>
+        <v>0.229372</v>
       </c>
       <c r="D13" t="n">
-        <v>0.41697</v>
+        <v>0.419379</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3415,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.319974</v>
+        <v>0.320396</v>
       </c>
       <c r="C14" t="n">
-        <v>0.228714</v>
+        <v>0.228867</v>
       </c>
       <c r="D14" t="n">
-        <v>0.418719</v>
+        <v>0.420518</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3429,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.312091</v>
+        <v>0.311452</v>
       </c>
       <c r="C15" t="n">
-        <v>0.228416</v>
+        <v>0.228282</v>
       </c>
       <c r="D15" t="n">
-        <v>0.420528</v>
+        <v>0.419834</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3443,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.305049</v>
+        <v>0.304382</v>
       </c>
       <c r="C16" t="n">
-        <v>0.228113</v>
+        <v>0.228175</v>
       </c>
       <c r="D16" t="n">
-        <v>0.421388</v>
+        <v>0.421304</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3457,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.296146</v>
+        <v>0.296091</v>
       </c>
       <c r="C17" t="n">
-        <v>0.226747</v>
+        <v>0.226552</v>
       </c>
       <c r="D17" t="n">
-        <v>0.422859</v>
+        <v>0.422911</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3471,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.28639</v>
+        <v>0.286587</v>
       </c>
       <c r="C18" t="n">
-        <v>0.226198</v>
+        <v>0.226213</v>
       </c>
       <c r="D18" t="n">
-        <v>0.425185</v>
+        <v>0.424521</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3485,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.276453</v>
+        <v>0.277143</v>
       </c>
       <c r="C19" t="n">
-        <v>0.226127</v>
+        <v>0.226376</v>
       </c>
       <c r="D19" t="n">
-        <v>0.427407</v>
+        <v>0.427455</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3499,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.265995</v>
+        <v>0.265047</v>
       </c>
       <c r="C20" t="n">
-        <v>0.225862</v>
+        <v>0.22623</v>
       </c>
       <c r="D20" t="n">
-        <v>0.427527</v>
+        <v>0.427283</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3513,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.253814</v>
+        <v>0.253775</v>
       </c>
       <c r="C21" t="n">
-        <v>0.225345</v>
+        <v>0.225032</v>
       </c>
       <c r="D21" t="n">
-        <v>0.419583</v>
+        <v>0.41968</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3527,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.239384</v>
+        <v>0.239536</v>
       </c>
       <c r="C22" t="n">
-        <v>0.224682</v>
+        <v>0.224293</v>
       </c>
       <c r="D22" t="n">
-        <v>0.419935</v>
+        <v>0.419765</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3541,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.224992</v>
+        <v>0.225374</v>
       </c>
       <c r="C23" t="n">
-        <v>0.230356</v>
+        <v>0.232691</v>
       </c>
       <c r="D23" t="n">
-        <v>0.422094</v>
+        <v>0.422222</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3555,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348618</v>
+        <v>0.348024</v>
       </c>
       <c r="C24" t="n">
-        <v>0.240124</v>
+        <v>0.240113</v>
       </c>
       <c r="D24" t="n">
-        <v>0.422774</v>
+        <v>0.422306</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3569,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.343209</v>
+        <v>0.34338</v>
       </c>
       <c r="C25" t="n">
-        <v>0.238787</v>
+        <v>0.237912</v>
       </c>
       <c r="D25" t="n">
-        <v>0.422452</v>
+        <v>0.423107</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3583,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336429</v>
+        <v>0.337218</v>
       </c>
       <c r="C26" t="n">
-        <v>0.236245</v>
+        <v>0.23587</v>
       </c>
       <c r="D26" t="n">
-        <v>0.422358</v>
+        <v>0.422974</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3597,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.330881</v>
+        <v>0.330714</v>
       </c>
       <c r="C27" t="n">
-        <v>0.235115</v>
+        <v>0.235219</v>
       </c>
       <c r="D27" t="n">
-        <v>0.423808</v>
+        <v>0.424102</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3611,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.323678</v>
+        <v>0.323446</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233094</v>
+        <v>0.233443</v>
       </c>
       <c r="D28" t="n">
-        <v>0.425252</v>
+        <v>0.425404</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3625,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.316126</v>
+        <v>0.316713</v>
       </c>
       <c r="C29" t="n">
-        <v>0.232043</v>
+        <v>0.232327</v>
       </c>
       <c r="D29" t="n">
-        <v>0.425742</v>
+        <v>0.425832</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3639,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.308248</v>
+        <v>0.308444</v>
       </c>
       <c r="C30" t="n">
-        <v>0.230481</v>
+        <v>0.230589</v>
       </c>
       <c r="D30" t="n">
-        <v>0.427061</v>
+        <v>0.426686</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3653,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.299479</v>
+        <v>0.299254</v>
       </c>
       <c r="C31" t="n">
-        <v>0.230374</v>
+        <v>0.229803</v>
       </c>
       <c r="D31" t="n">
-        <v>0.427467</v>
+        <v>0.427282</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3667,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.290496</v>
+        <v>0.289796</v>
       </c>
       <c r="C32" t="n">
-        <v>0.22883</v>
+        <v>0.228637</v>
       </c>
       <c r="D32" t="n">
-        <v>0.429674</v>
+        <v>0.429611</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3681,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.280004</v>
+        <v>0.280168</v>
       </c>
       <c r="C33" t="n">
-        <v>0.227734</v>
+        <v>0.228136</v>
       </c>
       <c r="D33" t="n">
-        <v>0.431105</v>
+        <v>0.430629</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3695,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.269952</v>
+        <v>0.269329</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2278</v>
+        <v>0.227826</v>
       </c>
       <c r="D34" t="n">
-        <v>0.431221</v>
+        <v>0.430951</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3709,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.257957</v>
+        <v>0.257702</v>
       </c>
       <c r="C35" t="n">
-        <v>0.227511</v>
+        <v>0.227464</v>
       </c>
       <c r="D35" t="n">
-        <v>0.427022</v>
+        <v>0.427454</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3723,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.24521</v>
+        <v>0.244986</v>
       </c>
       <c r="C36" t="n">
-        <v>0.226639</v>
+        <v>0.226478</v>
       </c>
       <c r="D36" t="n">
-        <v>0.428623</v>
+        <v>0.427931</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3737,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.231825</v>
+        <v>0.231435</v>
       </c>
       <c r="C37" t="n">
-        <v>0.232968</v>
+        <v>0.242793</v>
       </c>
       <c r="D37" t="n">
-        <v>0.42707</v>
+        <v>0.42753</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3751,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.350426</v>
+        <v>0.35047</v>
       </c>
       <c r="C38" t="n">
-        <v>0.231123</v>
+        <v>0.240662</v>
       </c>
       <c r="D38" t="n">
-        <v>0.427614</v>
+        <v>0.427896</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3765,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.345965</v>
+        <v>0.344635</v>
       </c>
       <c r="C39" t="n">
-        <v>0.232739</v>
+        <v>0.238828</v>
       </c>
       <c r="D39" t="n">
-        <v>0.427698</v>
+        <v>0.427341</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3779,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.339192</v>
+        <v>0.339656</v>
       </c>
       <c r="C40" t="n">
-        <v>0.233133</v>
+        <v>0.229914</v>
       </c>
       <c r="D40" t="n">
-        <v>0.42824</v>
+        <v>0.428013</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3793,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.333571</v>
+        <v>0.33371</v>
       </c>
       <c r="C41" t="n">
-        <v>0.233031</v>
+        <v>0.230599</v>
       </c>
       <c r="D41" t="n">
-        <v>0.428206</v>
+        <v>0.428474</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3807,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.326671</v>
+        <v>0.326407</v>
       </c>
       <c r="C42" t="n">
-        <v>0.231695</v>
+        <v>0.229287</v>
       </c>
       <c r="D42" t="n">
-        <v>0.429199</v>
+        <v>0.430372</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3821,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319847</v>
+        <v>0.318616</v>
       </c>
       <c r="C43" t="n">
-        <v>0.231287</v>
+        <v>0.233145</v>
       </c>
       <c r="D43" t="n">
-        <v>0.429945</v>
+        <v>0.430256</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3835,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.311715</v>
+        <v>0.31193</v>
       </c>
       <c r="C44" t="n">
-        <v>0.230887</v>
+        <v>0.230886</v>
       </c>
       <c r="D44" t="n">
-        <v>0.430232</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3849,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.303118</v>
+        <v>0.303216</v>
       </c>
       <c r="C45" t="n">
-        <v>0.229693</v>
+        <v>0.229991</v>
       </c>
       <c r="D45" t="n">
-        <v>0.431019</v>
+        <v>0.431934</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3863,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.293436</v>
+        <v>0.294285</v>
       </c>
       <c r="C46" t="n">
-        <v>0.229266</v>
+        <v>0.229088</v>
       </c>
       <c r="D46" t="n">
-        <v>0.432056</v>
+        <v>0.433275</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +3877,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.284337</v>
+        <v>0.284382</v>
       </c>
       <c r="C47" t="n">
-        <v>0.228339</v>
+        <v>0.228366</v>
       </c>
       <c r="D47" t="n">
-        <v>0.432575</v>
+        <v>0.433809</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +3891,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.273657</v>
+        <v>0.273796</v>
       </c>
       <c r="C48" t="n">
-        <v>0.228012</v>
+        <v>0.228071</v>
       </c>
       <c r="D48" t="n">
-        <v>0.433879</v>
+        <v>0.436181</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +3905,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.262059</v>
+        <v>0.262123</v>
       </c>
       <c r="C49" t="n">
-        <v>0.227733</v>
+        <v>0.227844</v>
       </c>
       <c r="D49" t="n">
-        <v>0.434872</v>
+        <v>0.436291</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +3919,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.249992</v>
+        <v>0.249917</v>
       </c>
       <c r="C50" t="n">
-        <v>0.22702</v>
+        <v>0.227119</v>
       </c>
       <c r="D50" t="n">
-        <v>0.431545</v>
+        <v>0.433681</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +3933,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235571</v>
+        <v>0.235429</v>
       </c>
       <c r="C51" t="n">
-        <v>0.244473</v>
+        <v>0.250915</v>
       </c>
       <c r="D51" t="n">
-        <v>0.432202</v>
+        <v>0.434928</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +3947,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220562</v>
+        <v>0.220675</v>
       </c>
       <c r="C52" t="n">
-        <v>0.236199</v>
+        <v>0.231713</v>
       </c>
       <c r="D52" t="n">
-        <v>0.433774</v>
+        <v>0.436331</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +3961,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.346721</v>
+        <v>0.349475</v>
       </c>
       <c r="C53" t="n">
-        <v>0.232849</v>
+        <v>0.232278</v>
       </c>
       <c r="D53" t="n">
-        <v>0.43211</v>
+        <v>0.434473</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +3975,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.343486</v>
+        <v>0.343378</v>
       </c>
       <c r="C54" t="n">
-        <v>0.232229</v>
+        <v>0.232314</v>
       </c>
       <c r="D54" t="n">
-        <v>0.433144</v>
+        <v>0.436645</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +3989,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.336637</v>
+        <v>0.336654</v>
       </c>
       <c r="C55" t="n">
-        <v>0.231833</v>
+        <v>0.232024</v>
       </c>
       <c r="D55" t="n">
-        <v>0.433748</v>
+        <v>0.439112</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4003,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.329109</v>
+        <v>0.3294</v>
       </c>
       <c r="C56" t="n">
-        <v>0.231102</v>
+        <v>0.231248</v>
       </c>
       <c r="D56" t="n">
-        <v>0.434938</v>
+        <v>0.439025</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4017,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.322018</v>
+        <v>0.321913</v>
       </c>
       <c r="C57" t="n">
-        <v>0.230825</v>
+        <v>0.230702</v>
       </c>
       <c r="D57" t="n">
-        <v>0.437963</v>
+        <v>0.4408</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4031,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.313918</v>
+        <v>0.314059</v>
       </c>
       <c r="C58" t="n">
-        <v>0.230646</v>
+        <v>0.230705</v>
       </c>
       <c r="D58" t="n">
-        <v>0.440104</v>
+        <v>0.442005</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4045,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.3055</v>
+        <v>0.305761</v>
       </c>
       <c r="C59" t="n">
-        <v>0.230113</v>
+        <v>0.230006</v>
       </c>
       <c r="D59" t="n">
-        <v>0.444332</v>
+        <v>0.445642</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4059,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.296931</v>
+        <v>0.296663</v>
       </c>
       <c r="C60" t="n">
-        <v>0.22933</v>
+        <v>0.229419</v>
       </c>
       <c r="D60" t="n">
-        <v>0.448264</v>
+        <v>0.445109</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4073,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.287368</v>
+        <v>0.287196</v>
       </c>
       <c r="C61" t="n">
-        <v>0.228635</v>
+        <v>0.228668</v>
       </c>
       <c r="D61" t="n">
-        <v>0.452105</v>
+        <v>0.447584</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4087,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.276823</v>
+        <v>0.276754</v>
       </c>
       <c r="C62" t="n">
-        <v>0.228069</v>
+        <v>0.229013</v>
       </c>
       <c r="D62" t="n">
-        <v>0.448235</v>
+        <v>0.450212</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4101,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.264451</v>
+        <v>0.265062</v>
       </c>
       <c r="C63" t="n">
-        <v>0.22824</v>
+        <v>0.227998</v>
       </c>
       <c r="D63" t="n">
-        <v>0.452396</v>
+        <v>0.455056</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4115,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.25188</v>
+        <v>0.252993</v>
       </c>
       <c r="C64" t="n">
-        <v>0.227278</v>
+        <v>0.227592</v>
       </c>
       <c r="D64" t="n">
-        <v>0.493095</v>
+        <v>0.496999</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4129,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.238582</v>
+        <v>0.238436</v>
       </c>
       <c r="C65" t="n">
-        <v>0.226682</v>
+        <v>0.227077</v>
       </c>
       <c r="D65" t="n">
-        <v>0.491864</v>
+        <v>0.493794</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4143,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223896</v>
+        <v>0.223948</v>
       </c>
       <c r="C66" t="n">
-        <v>0.242064</v>
+        <v>0.24245</v>
       </c>
       <c r="D66" t="n">
-        <v>0.499669</v>
+        <v>0.502028</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4157,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.350331</v>
+        <v>0.349452</v>
       </c>
       <c r="C67" t="n">
-        <v>0.239728</v>
+        <v>0.230649</v>
       </c>
       <c r="D67" t="n">
-        <v>0.514891</v>
+        <v>0.516286</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4171,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.344815</v>
+        <v>0.344961</v>
       </c>
       <c r="C68" t="n">
-        <v>0.233721</v>
+        <v>0.233567</v>
       </c>
       <c r="D68" t="n">
-        <v>0.516423</v>
+        <v>0.517723</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4185,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.338547</v>
+        <v>0.338255</v>
       </c>
       <c r="C69" t="n">
-        <v>0.232098</v>
+        <v>0.232345</v>
       </c>
       <c r="D69" t="n">
-        <v>0.52024</v>
+        <v>0.520799</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4199,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.331131</v>
+        <v>0.33111</v>
       </c>
       <c r="C70" t="n">
-        <v>0.231673</v>
+        <v>0.231525</v>
       </c>
       <c r="D70" t="n">
-        <v>0.529662</v>
+        <v>0.529706</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4213,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.323898</v>
+        <v>0.323975</v>
       </c>
       <c r="C71" t="n">
-        <v>0.231242</v>
+        <v>0.231424</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5272210000000001</v>
+        <v>0.528234</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4227,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316051</v>
+        <v>0.316109</v>
       </c>
       <c r="C72" t="n">
-        <v>0.230605</v>
+        <v>0.230818</v>
       </c>
       <c r="D72" t="n">
-        <v>0.536355</v>
+        <v>0.5360549999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4241,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307838</v>
+        <v>0.307955</v>
       </c>
       <c r="C73" t="n">
-        <v>0.229887</v>
+        <v>0.229875</v>
       </c>
       <c r="D73" t="n">
-        <v>0.538876</v>
+        <v>0.538502</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4255,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.299273</v>
+        <v>0.298996</v>
       </c>
       <c r="C74" t="n">
-        <v>0.229121</v>
+        <v>0.229113</v>
       </c>
       <c r="D74" t="n">
-        <v>0.544594</v>
+        <v>0.544237</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4269,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.289449</v>
+        <v>0.289384</v>
       </c>
       <c r="C75" t="n">
-        <v>0.228495</v>
+        <v>0.228305</v>
       </c>
       <c r="D75" t="n">
-        <v>0.542476</v>
+        <v>0.541644</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4283,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.279446</v>
+        <v>0.279325</v>
       </c>
       <c r="C76" t="n">
-        <v>0.227978</v>
+        <v>0.227926</v>
       </c>
       <c r="D76" t="n">
-        <v>0.546882</v>
+        <v>0.545586</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4297,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267488</v>
+        <v>0.267598</v>
       </c>
       <c r="C77" t="n">
-        <v>0.227863</v>
+        <v>0.227722</v>
       </c>
       <c r="D77" t="n">
-        <v>0.545264</v>
+        <v>0.545036</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4311,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.255291</v>
+        <v>0.254965</v>
       </c>
       <c r="C78" t="n">
-        <v>0.227381</v>
+        <v>0.226869</v>
       </c>
       <c r="D78" t="n">
-        <v>0.619834</v>
+        <v>0.618437</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4325,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.242044</v>
+        <v>0.242061</v>
       </c>
       <c r="C79" t="n">
-        <v>0.226873</v>
+        <v>0.226501</v>
       </c>
       <c r="D79" t="n">
-        <v>0.621646</v>
+        <v>0.620704</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4339,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.228305</v>
+        <v>0.228474</v>
       </c>
       <c r="C80" t="n">
-        <v>0.233662</v>
+        <v>0.239729</v>
       </c>
       <c r="D80" t="n">
-        <v>0.621093</v>
+        <v>0.620046</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4353,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.35085</v>
+        <v>0.351653</v>
       </c>
       <c r="C81" t="n">
-        <v>0.241659</v>
+        <v>0.241274</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6160910000000001</v>
+        <v>0.615551</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4367,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.346758</v>
+        <v>0.346368</v>
       </c>
       <c r="C82" t="n">
-        <v>0.234647</v>
+        <v>0.234136</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6238899999999999</v>
+        <v>0.623273</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4381,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.339901</v>
+        <v>0.340444</v>
       </c>
       <c r="C83" t="n">
-        <v>0.233588</v>
+        <v>0.233405</v>
       </c>
       <c r="D83" t="n">
-        <v>0.61921</v>
+        <v>0.618904</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4395,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.333126</v>
+        <v>0.333489</v>
       </c>
       <c r="C84" t="n">
-        <v>0.232797</v>
+        <v>0.232412</v>
       </c>
       <c r="D84" t="n">
-        <v>0.610955</v>
+        <v>0.611123</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4409,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.3258</v>
+        <v>0.325938</v>
       </c>
       <c r="C85" t="n">
-        <v>0.231973</v>
+        <v>0.231783</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6113499999999999</v>
+        <v>0.611322</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4423,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318337</v>
+        <v>0.318612</v>
       </c>
       <c r="C86" t="n">
-        <v>0.230819</v>
+        <v>0.230748</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6045700000000001</v>
+        <v>0.604351</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4437,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.31052</v>
+        <v>0.310223</v>
       </c>
       <c r="C87" t="n">
-        <v>0.230243</v>
+        <v>0.230059</v>
       </c>
       <c r="D87" t="n">
-        <v>0.602379</v>
+        <v>0.602302</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4451,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.302402</v>
+        <v>0.301681</v>
       </c>
       <c r="C88" t="n">
-        <v>0.229746</v>
+        <v>0.229557</v>
       </c>
       <c r="D88" t="n">
-        <v>0.596668</v>
+        <v>0.596424</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4465,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.292161</v>
+        <v>0.291964</v>
       </c>
       <c r="C89" t="n">
-        <v>0.228923</v>
+        <v>0.228838</v>
       </c>
       <c r="D89" t="n">
-        <v>0.5931959999999999</v>
+        <v>0.593316</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4479,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.281926</v>
+        <v>0.281811</v>
       </c>
       <c r="C90" t="n">
-        <v>0.228192</v>
+        <v>0.228107</v>
       </c>
       <c r="D90" t="n">
-        <v>0.588293</v>
+        <v>0.588224</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4493,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.27135</v>
+        <v>0.271305</v>
       </c>
       <c r="C91" t="n">
-        <v>0.228013</v>
+        <v>0.228078</v>
       </c>
       <c r="D91" t="n">
-        <v>0.5831769999999999</v>
+        <v>0.583238</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4507,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.259382</v>
+        <v>0.259232</v>
       </c>
       <c r="C92" t="n">
-        <v>0.227446</v>
+        <v>0.22706</v>
       </c>
       <c r="D92" t="n">
-        <v>0.615056</v>
+        <v>0.616058</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4521,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.246468</v>
+        <v>0.246653</v>
       </c>
       <c r="C93" t="n">
-        <v>0.226683</v>
+        <v>0.226589</v>
       </c>
       <c r="D93" t="n">
-        <v>0.609143</v>
+        <v>0.609524</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4535,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.233206</v>
+        <v>0.232464</v>
       </c>
       <c r="C94" t="n">
-        <v>0.243711</v>
+        <v>0.233614</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6069099999999999</v>
+        <v>0.607322</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4549,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.353073</v>
+        <v>0.353177</v>
       </c>
       <c r="C95" t="n">
-        <v>0.241038</v>
+        <v>0.241018</v>
       </c>
       <c r="D95" t="n">
-        <v>0.604499</v>
+        <v>0.6050179999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4563,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.347751</v>
+        <v>0.347926</v>
       </c>
       <c r="C96" t="n">
-        <v>0.235291</v>
+        <v>0.235262</v>
       </c>
       <c r="D96" t="n">
-        <v>0.603093</v>
+        <v>0.6032999999999999</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4577,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.341801</v>
+        <v>0.341926</v>
       </c>
       <c r="C97" t="n">
-        <v>0.233703</v>
+        <v>0.233841</v>
       </c>
       <c r="D97" t="n">
-        <v>0.599413</v>
+        <v>0.599678</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4591,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.335046</v>
+        <v>0.335082</v>
       </c>
       <c r="C98" t="n">
-        <v>0.23244</v>
+        <v>0.232535</v>
       </c>
       <c r="D98" t="n">
-        <v>0.595907</v>
+        <v>0.596254</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4605,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.327954</v>
+        <v>0.328463</v>
       </c>
       <c r="C99" t="n">
-        <v>0.232157</v>
+        <v>0.232043</v>
       </c>
       <c r="D99" t="n">
-        <v>0.592409</v>
+        <v>0.592782</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4619,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320786</v>
+        <v>0.320193</v>
       </c>
       <c r="C100" t="n">
-        <v>0.231402</v>
+        <v>0.23126</v>
       </c>
       <c r="D100" t="n">
-        <v>0.588908</v>
+        <v>0.589309</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4633,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.312733</v>
+        <v>0.312049</v>
       </c>
       <c r="C101" t="n">
-        <v>0.230333</v>
+        <v>0.230414</v>
       </c>
       <c r="D101" t="n">
-        <v>0.584942</v>
+        <v>0.585592</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4647,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.303703</v>
+        <v>0.303539</v>
       </c>
       <c r="C102" t="n">
-        <v>0.229709</v>
+        <v>0.229734</v>
       </c>
       <c r="D102" t="n">
-        <v>0.581052</v>
+        <v>0.581657</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4661,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.29414</v>
+        <v>0.29438</v>
       </c>
       <c r="C103" t="n">
-        <v>0.228791</v>
+        <v>0.229017</v>
       </c>
       <c r="D103" t="n">
-        <v>0.577866</v>
+        <v>0.578396</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4675,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.284219</v>
+        <v>0.283875</v>
       </c>
       <c r="C104" t="n">
-        <v>0.229537</v>
+        <v>0.229573</v>
       </c>
       <c r="D104" t="n">
-        <v>0.573783</v>
+        <v>0.5740960000000001</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4689,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.273573</v>
+        <v>0.273581</v>
       </c>
       <c r="C105" t="n">
-        <v>0.228324</v>
+        <v>0.228922</v>
       </c>
       <c r="D105" t="n">
-        <v>0.570111</v>
+        <v>0.570643</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +4703,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.262056</v>
+        <v>0.262298</v>
       </c>
       <c r="C106" t="n">
-        <v>0.227377</v>
+        <v>0.228034</v>
       </c>
       <c r="D106" t="n">
-        <v>0.566296</v>
+        <v>0.56695</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +4717,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.249218</v>
+        <v>0.249508</v>
       </c>
       <c r="C107" t="n">
-        <v>0.227137</v>
+        <v>0.227766</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6051299999999999</v>
+        <v>0.608008</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +4731,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.236476</v>
+        <v>0.235731</v>
       </c>
       <c r="C108" t="n">
-        <v>0.243297</v>
+        <v>0.243489</v>
       </c>
       <c r="D108" t="n">
-        <v>0.604745</v>
+        <v>0.606406</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +4745,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.221266</v>
+        <v>0.221114</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241167</v>
+        <v>0.241252</v>
       </c>
       <c r="D109" t="n">
-        <v>0.604203</v>
+        <v>0.605441</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +4759,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.34892</v>
+        <v>0.349014</v>
       </c>
       <c r="C110" t="n">
-        <v>0.239155</v>
+        <v>0.231061</v>
       </c>
       <c r="D110" t="n">
-        <v>0.601333</v>
+        <v>0.602854</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +4773,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.342648</v>
+        <v>0.343205</v>
       </c>
       <c r="C111" t="n">
-        <v>0.23741</v>
+        <v>0.237415</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5978329999999999</v>
+        <v>0.599531</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +4787,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.336138</v>
+        <v>0.336851</v>
       </c>
       <c r="C112" t="n">
-        <v>0.235817</v>
+        <v>0.235845</v>
       </c>
       <c r="D112" t="n">
-        <v>0.595955</v>
+        <v>0.597174</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +4801,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.32957</v>
+        <v>0.329799</v>
       </c>
       <c r="C113" t="n">
-        <v>0.232693</v>
+        <v>0.234087</v>
       </c>
       <c r="D113" t="n">
-        <v>0.592129</v>
+        <v>0.592655</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +4815,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.321384</v>
+        <v>0.321927</v>
       </c>
       <c r="C114" t="n">
-        <v>0.23321</v>
+        <v>0.233245</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5889180000000001</v>
+        <v>0.589252</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +4829,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.314106</v>
+        <v>0.313989</v>
       </c>
       <c r="C115" t="n">
-        <v>0.231789</v>
+        <v>0.231824</v>
       </c>
       <c r="D115" t="n">
-        <v>0.585098</v>
+        <v>0.585486</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +4843,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.3052</v>
+        <v>0.305308</v>
       </c>
       <c r="C116" t="n">
-        <v>0.229814</v>
+        <v>0.229919</v>
       </c>
       <c r="D116" t="n">
-        <v>0.579786</v>
+        <v>0.580449</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +4857,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295809</v>
+        <v>0.296422</v>
       </c>
       <c r="C117" t="n">
-        <v>0.228883</v>
+        <v>0.228999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.576453</v>
+        <v>0.576976</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +4871,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.286622</v>
+        <v>0.286498</v>
       </c>
       <c r="C118" t="n">
-        <v>0.228177</v>
+        <v>0.228362</v>
       </c>
       <c r="D118" t="n">
-        <v>0.572804</v>
+        <v>0.573507</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +4885,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.27615</v>
+        <v>0.276317</v>
       </c>
       <c r="C119" t="n">
-        <v>0.227821</v>
+        <v>0.227864</v>
       </c>
       <c r="D119" t="n">
-        <v>0.568651</v>
+        <v>0.569167</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +4899,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.264356</v>
+        <v>0.264523</v>
       </c>
       <c r="C120" t="n">
-        <v>0.227589</v>
+        <v>0.227567</v>
       </c>
       <c r="D120" t="n">
-        <v>0.564713</v>
+        <v>0.565117</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +4913,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.251963</v>
+        <v>0.252334</v>
       </c>
       <c r="C121" t="n">
-        <v>0.227157</v>
+        <v>0.227175</v>
       </c>
       <c r="D121" t="n">
-        <v>0.622197</v>
+        <v>0.621576</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +4927,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.240458</v>
+        <v>0.239991</v>
       </c>
       <c r="C122" t="n">
-        <v>0.226832</v>
+        <v>0.226723</v>
       </c>
       <c r="D122" t="n">
-        <v>0.621757</v>
+        <v>0.620862</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +4941,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.225419</v>
+        <v>0.224877</v>
       </c>
       <c r="C123" t="n">
-        <v>0.241569</v>
+        <v>0.241806</v>
       </c>
       <c r="D123" t="n">
-        <v>0.619273</v>
+        <v>0.619499</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +4955,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.349671</v>
+        <v>0.350055</v>
       </c>
       <c r="C124" t="n">
-        <v>0.239428</v>
+        <v>0.238568</v>
       </c>
       <c r="D124" t="n">
-        <v>0.615382</v>
+        <v>0.615289</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +4969,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.343874</v>
+        <v>0.344364</v>
       </c>
       <c r="C125" t="n">
-        <v>0.237624</v>
+        <v>0.23756</v>
       </c>
       <c r="D125" t="n">
-        <v>0.612799</v>
+        <v>0.61298</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +4983,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.337581</v>
+        <v>0.33707</v>
       </c>
       <c r="C126" t="n">
-        <v>0.236096</v>
+        <v>0.236119</v>
       </c>
       <c r="D126" t="n">
-        <v>0.608062</v>
+        <v>0.608086</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +4997,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.330245</v>
+        <v>0.330546</v>
       </c>
       <c r="C127" t="n">
-        <v>0.234635</v>
+        <v>0.245946</v>
       </c>
       <c r="D127" t="n">
-        <v>0.603742</v>
+        <v>0.604343</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5011,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.323324</v>
+        <v>0.322787</v>
       </c>
       <c r="C128" t="n">
-        <v>0.229791</v>
+        <v>0.231251</v>
       </c>
       <c r="D128" t="n">
-        <v>0.598859</v>
+        <v>0.598904</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5025,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315226</v>
+        <v>0.315134</v>
       </c>
       <c r="C129" t="n">
-        <v>0.229416</v>
+        <v>0.232286</v>
       </c>
       <c r="D129" t="n">
-        <v>0.5942770000000001</v>
+        <v>0.593665</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5039,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.307033</v>
+        <v>0.306946</v>
       </c>
       <c r="C130" t="n">
-        <v>0.229872</v>
+        <v>0.230089</v>
       </c>
       <c r="D130" t="n">
-        <v>0.589727</v>
+        <v>0.589631</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5053,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.29839</v>
+        <v>0.298778</v>
       </c>
       <c r="C131" t="n">
-        <v>0.229339</v>
+        <v>0.22914</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5851189999999999</v>
+        <v>0.5881459999999999</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5067,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.288525</v>
+        <v>0.288989</v>
       </c>
       <c r="C132" t="n">
-        <v>0.228638</v>
+        <v>0.228725</v>
       </c>
       <c r="D132" t="n">
-        <v>0.581051</v>
+        <v>0.580767</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5081,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.278253</v>
+        <v>0.278428</v>
       </c>
       <c r="C133" t="n">
-        <v>0.227921</v>
+        <v>0.228037</v>
       </c>
       <c r="D133" t="n">
-        <v>0.576556</v>
+        <v>0.576798</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5095,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.266742</v>
+        <v>0.267175</v>
       </c>
       <c r="C134" t="n">
-        <v>0.227481</v>
+        <v>0.227402</v>
       </c>
       <c r="D134" t="n">
-        <v>0.572792</v>
+        <v>0.572471</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5109,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.254863</v>
+        <v>0.254614</v>
       </c>
       <c r="C135" t="n">
-        <v>0.227356</v>
+        <v>0.22731</v>
       </c>
       <c r="D135" t="n">
-        <v>0.626959</v>
+        <v>0.626968</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5123,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.242155</v>
+        <v>0.2428</v>
       </c>
       <c r="C136" t="n">
-        <v>0.226571</v>
+        <v>0.22684</v>
       </c>
       <c r="D136" t="n">
-        <v>0.626096</v>
+        <v>0.6280520000000001</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5137,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226606</v>
+        <v>0.228655</v>
       </c>
       <c r="C137" t="n">
-        <v>0.242034</v>
+        <v>0.242016</v>
       </c>
       <c r="D137" t="n">
-        <v>0.625203</v>
+        <v>0.624159</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5151,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.351714</v>
+        <v>0.351608</v>
       </c>
       <c r="C138" t="n">
-        <v>0.239588</v>
+        <v>0.239703</v>
       </c>
       <c r="D138" t="n">
-        <v>0.621346</v>
+        <v>0.621022</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5165,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.346002</v>
+        <v>0.346195</v>
       </c>
       <c r="C139" t="n">
-        <v>0.23797</v>
+        <v>0.230657</v>
       </c>
       <c r="D139" t="n">
-        <v>0.617245</v>
+        <v>0.6173920000000001</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5179,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.33952</v>
+        <v>0.339372</v>
       </c>
       <c r="C140" t="n">
-        <v>0.235479</v>
+        <v>0.236098</v>
       </c>
       <c r="D140" t="n">
-        <v>0.612502</v>
+        <v>0.612334</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5193,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.33272</v>
+        <v>0.333384</v>
       </c>
       <c r="C141" t="n">
-        <v>0.230271</v>
+        <v>0.234894</v>
       </c>
       <c r="D141" t="n">
-        <v>0.609194</v>
+        <v>0.607662</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5207,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.325286</v>
+        <v>0.325265</v>
       </c>
       <c r="C142" t="n">
-        <v>0.233499</v>
+        <v>0.233324</v>
       </c>
       <c r="D142" t="n">
-        <v>0.604824</v>
+        <v>0.603799</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5221,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317971</v>
+        <v>0.317488</v>
       </c>
       <c r="C143" t="n">
-        <v>0.232395</v>
+        <v>0.232537</v>
       </c>
       <c r="D143" t="n">
-        <v>0.598279</v>
+        <v>0.59939</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -3214,7 +3214,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3247,13 +3247,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.293639</v>
+        <v>0.298413</v>
       </c>
       <c r="C2" t="n">
-        <v>0.21047</v>
+        <v>0.411609</v>
       </c>
       <c r="D2" t="n">
-        <v>0.414845</v>
+        <v>0.207165</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.436157</v>
       </c>
     </row>
     <row r="3">
@@ -3261,13 +3264,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.286403</v>
+        <v>0.288034</v>
       </c>
       <c r="C3" t="n">
-        <v>0.209158</v>
+        <v>0.411977</v>
       </c>
       <c r="D3" t="n">
-        <v>0.418339</v>
+        <v>0.210195</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.435756</v>
       </c>
     </row>
     <row r="4">
@@ -3275,13 +3281,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.276251</v>
+        <v>0.278789</v>
       </c>
       <c r="C4" t="n">
-        <v>0.21292</v>
+        <v>0.411772</v>
       </c>
       <c r="D4" t="n">
-        <v>0.418927</v>
+        <v>0.214327</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.433597</v>
       </c>
     </row>
     <row r="5">
@@ -3289,13 +3298,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.26611</v>
+        <v>0.269933</v>
       </c>
       <c r="C5" t="n">
-        <v>0.212224</v>
+        <v>0.416951</v>
       </c>
       <c r="D5" t="n">
-        <v>0.422264</v>
+        <v>0.214251</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.433654</v>
       </c>
     </row>
     <row r="6">
@@ -3303,13 +3315,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.254647</v>
+        <v>0.257662</v>
       </c>
       <c r="C6" t="n">
-        <v>0.213203</v>
+        <v>0.418027</v>
       </c>
       <c r="D6" t="n">
-        <v>0.421583</v>
+        <v>0.213044</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.433921</v>
       </c>
     </row>
     <row r="7">
@@ -3317,13 +3332,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.242754</v>
+        <v>0.247278</v>
       </c>
       <c r="C7" t="n">
-        <v>0.214238</v>
+        <v>0.415876</v>
       </c>
       <c r="D7" t="n">
-        <v>0.417734</v>
+        <v>0.214821</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.431052</v>
       </c>
     </row>
     <row r="8">
@@ -3331,13 +3349,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.230063</v>
+        <v>0.237657</v>
       </c>
       <c r="C8" t="n">
-        <v>0.21628</v>
+        <v>0.416749</v>
       </c>
       <c r="D8" t="n">
-        <v>0.417886</v>
+        <v>0.216882</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.429652</v>
       </c>
     </row>
     <row r="9">
@@ -3345,13 +3366,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.217485</v>
+        <v>0.219518</v>
       </c>
       <c r="C9" t="n">
-        <v>0.232569</v>
+        <v>0.421715</v>
       </c>
       <c r="D9" t="n">
-        <v>0.418498</v>
+        <v>0.231912</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.451401</v>
       </c>
     </row>
     <row r="10">
@@ -3359,13 +3383,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.343822</v>
+        <v>0.346375</v>
       </c>
       <c r="C10" t="n">
-        <v>0.231805</v>
+        <v>0.422559</v>
       </c>
       <c r="D10" t="n">
-        <v>0.418106</v>
+        <v>0.232268</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.450108</v>
       </c>
     </row>
     <row r="11">
@@ -3373,13 +3400,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.337885</v>
+        <v>0.340133</v>
       </c>
       <c r="C11" t="n">
-        <v>0.230326</v>
+        <v>0.422451</v>
       </c>
       <c r="D11" t="n">
-        <v>0.419947</v>
+        <v>0.2317</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.449534</v>
       </c>
     </row>
     <row r="12">
@@ -3387,13 +3417,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.331365</v>
+        <v>0.335329</v>
       </c>
       <c r="C12" t="n">
-        <v>0.230463</v>
+        <v>0.422003</v>
       </c>
       <c r="D12" t="n">
-        <v>0.419468</v>
+        <v>0.231128</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.449211</v>
       </c>
     </row>
     <row r="13">
@@ -3401,13 +3434,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.324532</v>
+        <v>0.327844</v>
       </c>
       <c r="C13" t="n">
-        <v>0.229372</v>
+        <v>0.422252</v>
       </c>
       <c r="D13" t="n">
-        <v>0.419379</v>
+        <v>0.230494</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.446397</v>
       </c>
     </row>
     <row r="14">
@@ -3415,13 +3451,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.320396</v>
+        <v>0.321876</v>
       </c>
       <c r="C14" t="n">
-        <v>0.228867</v>
+        <v>0.422761</v>
       </c>
       <c r="D14" t="n">
-        <v>0.420518</v>
+        <v>0.229564</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.445493</v>
       </c>
     </row>
     <row r="15">
@@ -3429,13 +3468,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.311452</v>
+        <v>0.313361</v>
       </c>
       <c r="C15" t="n">
-        <v>0.228282</v>
+        <v>0.422773</v>
       </c>
       <c r="D15" t="n">
-        <v>0.419834</v>
+        <v>0.229128</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.44529</v>
       </c>
     </row>
     <row r="16">
@@ -3443,13 +3485,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.304382</v>
+        <v>0.30571</v>
       </c>
       <c r="C16" t="n">
-        <v>0.228175</v>
+        <v>0.421197</v>
       </c>
       <c r="D16" t="n">
-        <v>0.421304</v>
+        <v>0.228525</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.443445</v>
       </c>
     </row>
     <row r="17">
@@ -3457,13 +3502,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.296091</v>
+        <v>0.298597</v>
       </c>
       <c r="C17" t="n">
-        <v>0.226552</v>
+        <v>0.424083</v>
       </c>
       <c r="D17" t="n">
-        <v>0.422911</v>
+        <v>0.227161</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.442772</v>
       </c>
     </row>
     <row r="18">
@@ -3471,13 +3519,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.286587</v>
+        <v>0.287369</v>
       </c>
       <c r="C18" t="n">
-        <v>0.226213</v>
+        <v>0.425123</v>
       </c>
       <c r="D18" t="n">
-        <v>0.424521</v>
+        <v>0.226236</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.441791</v>
       </c>
     </row>
     <row r="19">
@@ -3485,13 +3536,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.277143</v>
+        <v>0.277925</v>
       </c>
       <c r="C19" t="n">
-        <v>0.226376</v>
+        <v>0.429464</v>
       </c>
       <c r="D19" t="n">
-        <v>0.427455</v>
+        <v>0.225108</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.441673</v>
       </c>
     </row>
     <row r="20">
@@ -3499,13 +3553,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.265047</v>
+        <v>0.266344</v>
       </c>
       <c r="C20" t="n">
-        <v>0.22623</v>
+        <v>0.427366</v>
       </c>
       <c r="D20" t="n">
-        <v>0.427283</v>
+        <v>0.224976</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.4415</v>
       </c>
     </row>
     <row r="21">
@@ -3513,13 +3570,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.253775</v>
+        <v>0.254837</v>
       </c>
       <c r="C21" t="n">
-        <v>0.225032</v>
+        <v>0.423426</v>
       </c>
       <c r="D21" t="n">
-        <v>0.41968</v>
+        <v>0.225056</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.439573</v>
       </c>
     </row>
     <row r="22">
@@ -3527,13 +3587,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.239536</v>
+        <v>0.241773</v>
       </c>
       <c r="C22" t="n">
-        <v>0.224293</v>
+        <v>0.424178</v>
       </c>
       <c r="D22" t="n">
-        <v>0.419765</v>
+        <v>0.22441</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.440005</v>
       </c>
     </row>
     <row r="23">
@@ -3541,13 +3604,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.225374</v>
+        <v>0.228243</v>
       </c>
       <c r="C23" t="n">
-        <v>0.232691</v>
+        <v>0.423874</v>
       </c>
       <c r="D23" t="n">
-        <v>0.422222</v>
+        <v>0.24818</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.456351</v>
       </c>
     </row>
     <row r="24">
@@ -3555,13 +3621,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348024</v>
+        <v>0.349328</v>
       </c>
       <c r="C24" t="n">
-        <v>0.240113</v>
+        <v>0.426062</v>
       </c>
       <c r="D24" t="n">
-        <v>0.422306</v>
+        <v>0.242812</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.45536</v>
       </c>
     </row>
     <row r="25">
@@ -3569,13 +3638,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.34338</v>
+        <v>0.343276</v>
       </c>
       <c r="C25" t="n">
-        <v>0.237912</v>
+        <v>0.423422</v>
       </c>
       <c r="D25" t="n">
-        <v>0.423107</v>
+        <v>0.238308</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.454595</v>
       </c>
     </row>
     <row r="26">
@@ -3583,13 +3655,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.337218</v>
+        <v>0.337186</v>
       </c>
       <c r="C26" t="n">
-        <v>0.23587</v>
+        <v>0.42468</v>
       </c>
       <c r="D26" t="n">
-        <v>0.422974</v>
+        <v>0.236974</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.452192</v>
       </c>
     </row>
     <row r="27">
@@ -3597,13 +3672,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.330714</v>
+        <v>0.330804</v>
       </c>
       <c r="C27" t="n">
-        <v>0.235219</v>
+        <v>0.424679</v>
       </c>
       <c r="D27" t="n">
-        <v>0.424102</v>
+        <v>0.235294</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.450145</v>
       </c>
     </row>
     <row r="28">
@@ -3611,13 +3689,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.323446</v>
+        <v>0.3235</v>
       </c>
       <c r="C28" t="n">
-        <v>0.233443</v>
+        <v>0.42473</v>
       </c>
       <c r="D28" t="n">
-        <v>0.425404</v>
+        <v>0.233242</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.449534</v>
       </c>
     </row>
     <row r="29">
@@ -3625,13 +3706,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.316713</v>
+        <v>0.316977</v>
       </c>
       <c r="C29" t="n">
-        <v>0.232327</v>
+        <v>0.427744</v>
       </c>
       <c r="D29" t="n">
-        <v>0.425832</v>
+        <v>0.232321</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.447784</v>
       </c>
     </row>
     <row r="30">
@@ -3639,13 +3723,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.308444</v>
+        <v>0.30768</v>
       </c>
       <c r="C30" t="n">
-        <v>0.230589</v>
+        <v>0.42783</v>
       </c>
       <c r="D30" t="n">
-        <v>0.426686</v>
+        <v>0.231257</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.44713</v>
       </c>
     </row>
     <row r="31">
@@ -3653,13 +3740,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.299254</v>
+        <v>0.299252</v>
       </c>
       <c r="C31" t="n">
-        <v>0.229803</v>
+        <v>0.428255</v>
       </c>
       <c r="D31" t="n">
-        <v>0.427282</v>
+        <v>0.230327</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.445492</v>
       </c>
     </row>
     <row r="32">
@@ -3667,13 +3757,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.289796</v>
+        <v>0.291588</v>
       </c>
       <c r="C32" t="n">
-        <v>0.228637</v>
+        <v>0.430547</v>
       </c>
       <c r="D32" t="n">
-        <v>0.429611</v>
+        <v>0.231206</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.445061</v>
       </c>
     </row>
     <row r="33">
@@ -3681,13 +3774,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.280168</v>
+        <v>0.282393</v>
       </c>
       <c r="C33" t="n">
-        <v>0.228136</v>
+        <v>0.429405</v>
       </c>
       <c r="D33" t="n">
-        <v>0.430629</v>
+        <v>0.227639</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.4434</v>
       </c>
     </row>
     <row r="34">
@@ -3695,13 +3791,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.269329</v>
+        <v>0.270276</v>
       </c>
       <c r="C34" t="n">
-        <v>0.227826</v>
+        <v>0.432236</v>
       </c>
       <c r="D34" t="n">
-        <v>0.430951</v>
+        <v>0.227153</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.4434</v>
       </c>
     </row>
     <row r="35">
@@ -3709,13 +3808,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.257702</v>
+        <v>0.260408</v>
       </c>
       <c r="C35" t="n">
-        <v>0.227464</v>
+        <v>0.430854</v>
       </c>
       <c r="D35" t="n">
-        <v>0.427454</v>
+        <v>0.226736</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.440929</v>
       </c>
     </row>
     <row r="36">
@@ -3723,13 +3825,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244986</v>
+        <v>0.247188</v>
       </c>
       <c r="C36" t="n">
-        <v>0.226478</v>
+        <v>0.432112</v>
       </c>
       <c r="D36" t="n">
-        <v>0.427931</v>
+        <v>0.226481</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.441816</v>
       </c>
     </row>
     <row r="37">
@@ -3737,13 +3842,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.231435</v>
+        <v>0.232125</v>
       </c>
       <c r="C37" t="n">
-        <v>0.242793</v>
+        <v>0.432886</v>
       </c>
       <c r="D37" t="n">
-        <v>0.42753</v>
+        <v>0.236893</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.457177</v>
       </c>
     </row>
     <row r="38">
@@ -3751,13 +3859,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.35047</v>
+        <v>0.350187</v>
       </c>
       <c r="C38" t="n">
-        <v>0.240662</v>
+        <v>0.435808</v>
       </c>
       <c r="D38" t="n">
-        <v>0.427896</v>
+        <v>0.236548</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.455291</v>
       </c>
     </row>
     <row r="39">
@@ -3765,13 +3876,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.344635</v>
+        <v>0.345144</v>
       </c>
       <c r="C39" t="n">
-        <v>0.238828</v>
+        <v>0.432315</v>
       </c>
       <c r="D39" t="n">
-        <v>0.427341</v>
+        <v>0.234186</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.453556</v>
       </c>
     </row>
     <row r="40">
@@ -3779,13 +3893,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.339656</v>
+        <v>0.339513</v>
       </c>
       <c r="C40" t="n">
-        <v>0.229914</v>
+        <v>0.431213</v>
       </c>
       <c r="D40" t="n">
-        <v>0.428013</v>
+        <v>0.234022</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.452749</v>
       </c>
     </row>
     <row r="41">
@@ -3793,13 +3910,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.33371</v>
+        <v>0.332753</v>
       </c>
       <c r="C41" t="n">
-        <v>0.230599</v>
+        <v>0.42977</v>
       </c>
       <c r="D41" t="n">
-        <v>0.428474</v>
+        <v>0.232676</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.451916</v>
       </c>
     </row>
     <row r="42">
@@ -3807,13 +3927,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.326407</v>
+        <v>0.32665</v>
       </c>
       <c r="C42" t="n">
-        <v>0.229287</v>
+        <v>0.428895</v>
       </c>
       <c r="D42" t="n">
-        <v>0.430372</v>
+        <v>0.231308</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.450624</v>
       </c>
     </row>
     <row r="43">
@@ -3821,13 +3944,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.318616</v>
+        <v>0.318169</v>
       </c>
       <c r="C43" t="n">
-        <v>0.233145</v>
+        <v>0.43367</v>
       </c>
       <c r="D43" t="n">
-        <v>0.430256</v>
+        <v>0.230823</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.448877</v>
       </c>
     </row>
     <row r="44">
@@ -3835,13 +3961,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.31193</v>
+        <v>0.311481</v>
       </c>
       <c r="C44" t="n">
-        <v>0.230886</v>
+        <v>0.433385</v>
       </c>
       <c r="D44" t="n">
-        <v>0.431</v>
+        <v>0.230255</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.447284</v>
       </c>
     </row>
     <row r="45">
@@ -3849,13 +3978,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.303216</v>
+        <v>0.303545</v>
       </c>
       <c r="C45" t="n">
-        <v>0.229991</v>
+        <v>0.431565</v>
       </c>
       <c r="D45" t="n">
-        <v>0.431934</v>
+        <v>0.229768</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.445932</v>
       </c>
     </row>
     <row r="46">
@@ -3863,13 +3995,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.294285</v>
+        <v>0.294798</v>
       </c>
       <c r="C46" t="n">
-        <v>0.229088</v>
+        <v>0.432556</v>
       </c>
       <c r="D46" t="n">
-        <v>0.433275</v>
+        <v>0.228679</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.445601</v>
       </c>
     </row>
     <row r="47">
@@ -3877,13 +4012,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.284382</v>
+        <v>0.285317</v>
       </c>
       <c r="C47" t="n">
-        <v>0.228366</v>
+        <v>0.433181</v>
       </c>
       <c r="D47" t="n">
-        <v>0.433809</v>
+        <v>0.229101</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.444708</v>
       </c>
     </row>
     <row r="48">
@@ -3891,13 +4029,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.273796</v>
+        <v>0.274202</v>
       </c>
       <c r="C48" t="n">
-        <v>0.228071</v>
+        <v>0.436153</v>
       </c>
       <c r="D48" t="n">
-        <v>0.436181</v>
+        <v>0.227914</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.443912</v>
       </c>
     </row>
     <row r="49">
@@ -3905,13 +4046,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.262123</v>
+        <v>0.262268</v>
       </c>
       <c r="C49" t="n">
-        <v>0.227844</v>
+        <v>0.435149</v>
       </c>
       <c r="D49" t="n">
-        <v>0.436291</v>
+        <v>0.228034</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.443038</v>
       </c>
     </row>
     <row r="50">
@@ -3919,13 +4063,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.249917</v>
+        <v>0.249809</v>
       </c>
       <c r="C50" t="n">
-        <v>0.227119</v>
+        <v>0.435236</v>
       </c>
       <c r="D50" t="n">
-        <v>0.433681</v>
+        <v>0.236479</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.441659</v>
       </c>
     </row>
     <row r="51">
@@ -3933,13 +4080,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235429</v>
+        <v>0.237113</v>
       </c>
       <c r="C51" t="n">
-        <v>0.250915</v>
+        <v>0.434708</v>
       </c>
       <c r="D51" t="n">
-        <v>0.434928</v>
+        <v>0.240971</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.45759</v>
       </c>
     </row>
     <row r="52">
@@ -3947,13 +4097,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220675</v>
+        <v>0.221109</v>
       </c>
       <c r="C52" t="n">
-        <v>0.231713</v>
+        <v>0.437158</v>
       </c>
       <c r="D52" t="n">
-        <v>0.436331</v>
+        <v>0.235475</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.456115</v>
       </c>
     </row>
     <row r="53">
@@ -3961,13 +4114,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.349475</v>
+        <v>0.347352</v>
       </c>
       <c r="C53" t="n">
-        <v>0.232278</v>
+        <v>0.440263</v>
       </c>
       <c r="D53" t="n">
-        <v>0.434473</v>
+        <v>0.234737</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.454915</v>
       </c>
     </row>
     <row r="54">
@@ -3975,13 +4131,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.343378</v>
+        <v>0.342509</v>
       </c>
       <c r="C54" t="n">
-        <v>0.232314</v>
+        <v>0.437786</v>
       </c>
       <c r="D54" t="n">
-        <v>0.436645</v>
+        <v>0.233257</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.453853</v>
       </c>
     </row>
     <row r="55">
@@ -3989,13 +4148,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.336654</v>
+        <v>0.336153</v>
       </c>
       <c r="C55" t="n">
-        <v>0.232024</v>
+        <v>0.439816</v>
       </c>
       <c r="D55" t="n">
-        <v>0.439112</v>
+        <v>0.232552</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.452078</v>
       </c>
     </row>
     <row r="56">
@@ -4003,13 +4165,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.3294</v>
+        <v>0.328808</v>
       </c>
       <c r="C56" t="n">
-        <v>0.231248</v>
+        <v>0.439977</v>
       </c>
       <c r="D56" t="n">
-        <v>0.439025</v>
+        <v>0.231263</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.450578</v>
       </c>
     </row>
     <row r="57">
@@ -4017,13 +4182,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.321913</v>
+        <v>0.321373</v>
       </c>
       <c r="C57" t="n">
-        <v>0.230702</v>
+        <v>0.442471</v>
       </c>
       <c r="D57" t="n">
-        <v>0.4408</v>
+        <v>0.230742</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.449688</v>
       </c>
     </row>
     <row r="58">
@@ -4031,13 +4199,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314059</v>
+        <v>0.314241</v>
       </c>
       <c r="C58" t="n">
-        <v>0.230705</v>
+        <v>0.444021</v>
       </c>
       <c r="D58" t="n">
-        <v>0.442005</v>
+        <v>0.230593</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.447677</v>
       </c>
     </row>
     <row r="59">
@@ -4045,13 +4216,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305761</v>
+        <v>0.305585</v>
       </c>
       <c r="C59" t="n">
-        <v>0.230006</v>
+        <v>0.445818</v>
       </c>
       <c r="D59" t="n">
-        <v>0.445642</v>
+        <v>0.229914</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.447248</v>
       </c>
     </row>
     <row r="60">
@@ -4059,13 +4233,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.296663</v>
+        <v>0.296438</v>
       </c>
       <c r="C60" t="n">
-        <v>0.229419</v>
+        <v>0.449223</v>
       </c>
       <c r="D60" t="n">
-        <v>0.445109</v>
+        <v>0.229283</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.446416</v>
       </c>
     </row>
     <row r="61">
@@ -4073,13 +4250,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.287196</v>
+        <v>0.287585</v>
       </c>
       <c r="C61" t="n">
-        <v>0.228668</v>
+        <v>0.452434</v>
       </c>
       <c r="D61" t="n">
-        <v>0.447584</v>
+        <v>0.227853</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.445424</v>
       </c>
     </row>
     <row r="62">
@@ -4087,13 +4267,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.276754</v>
+        <v>0.276811</v>
       </c>
       <c r="C62" t="n">
-        <v>0.229013</v>
+        <v>0.456366</v>
       </c>
       <c r="D62" t="n">
-        <v>0.450212</v>
+        <v>0.227629</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.443623</v>
       </c>
     </row>
     <row r="63">
@@ -4101,13 +4284,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.265062</v>
+        <v>0.26616</v>
       </c>
       <c r="C63" t="n">
-        <v>0.227998</v>
+        <v>0.458246</v>
       </c>
       <c r="D63" t="n">
-        <v>0.455056</v>
+        <v>0.227912</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.443154</v>
       </c>
     </row>
     <row r="64">
@@ -4115,13 +4301,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.252993</v>
+        <v>0.25371</v>
       </c>
       <c r="C64" t="n">
-        <v>0.227592</v>
+        <v>0.498799</v>
       </c>
       <c r="D64" t="n">
-        <v>0.496999</v>
+        <v>0.227594</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.442308</v>
       </c>
     </row>
     <row r="65">
@@ -4129,13 +4318,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.238436</v>
+        <v>0.240653</v>
       </c>
       <c r="C65" t="n">
-        <v>0.227077</v>
+        <v>0.5029130000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>0.493794</v>
+        <v>0.227137</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.441904</v>
       </c>
     </row>
     <row r="66">
@@ -4143,13 +4335,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.223948</v>
+        <v>0.225887</v>
       </c>
       <c r="C66" t="n">
-        <v>0.24245</v>
+        <v>0.511957</v>
       </c>
       <c r="D66" t="n">
-        <v>0.502028</v>
+        <v>0.241196</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.45762</v>
       </c>
     </row>
     <row r="67">
@@ -4157,13 +4352,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349452</v>
+        <v>0.349202</v>
       </c>
       <c r="C67" t="n">
-        <v>0.230649</v>
+        <v>0.514965</v>
       </c>
       <c r="D67" t="n">
-        <v>0.516286</v>
+        <v>0.238097</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.456184</v>
       </c>
     </row>
     <row r="68">
@@ -4171,13 +4369,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.344961</v>
+        <v>0.344229</v>
       </c>
       <c r="C68" t="n">
-        <v>0.233567</v>
+        <v>0.524957</v>
       </c>
       <c r="D68" t="n">
-        <v>0.517723</v>
+        <v>0.236494</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.454339</v>
       </c>
     </row>
     <row r="69">
@@ -4185,13 +4386,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.338255</v>
+        <v>0.338547</v>
       </c>
       <c r="C69" t="n">
-        <v>0.232345</v>
+        <v>0.534544</v>
       </c>
       <c r="D69" t="n">
-        <v>0.520799</v>
+        <v>0.234559</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.452838</v>
       </c>
     </row>
     <row r="70">
@@ -4199,13 +4403,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.33111</v>
+        <v>0.331412</v>
       </c>
       <c r="C70" t="n">
-        <v>0.231525</v>
+        <v>0.538811</v>
       </c>
       <c r="D70" t="n">
-        <v>0.529706</v>
+        <v>0.233478</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.451259</v>
       </c>
     </row>
     <row r="71">
@@ -4213,13 +4420,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.323975</v>
+        <v>0.323835</v>
       </c>
       <c r="C71" t="n">
-        <v>0.231424</v>
+        <v>0.544359</v>
       </c>
       <c r="D71" t="n">
-        <v>0.528234</v>
+        <v>0.232525</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.45011</v>
       </c>
     </row>
     <row r="72">
@@ -4227,13 +4437,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316109</v>
+        <v>0.316334</v>
       </c>
       <c r="C72" t="n">
-        <v>0.230818</v>
+        <v>0.548325</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5360549999999999</v>
+        <v>0.231683</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.448958</v>
       </c>
     </row>
     <row r="73">
@@ -4241,13 +4454,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307955</v>
+        <v>0.308239</v>
       </c>
       <c r="C73" t="n">
-        <v>0.229875</v>
+        <v>0.5532010000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.538502</v>
+        <v>0.230502</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.447944</v>
       </c>
     </row>
     <row r="74">
@@ -4255,13 +4471,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298996</v>
+        <v>0.299843</v>
       </c>
       <c r="C74" t="n">
-        <v>0.229113</v>
+        <v>0.555992</v>
       </c>
       <c r="D74" t="n">
-        <v>0.544237</v>
+        <v>0.229665</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.446919</v>
       </c>
     </row>
     <row r="75">
@@ -4269,13 +4488,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.289384</v>
+        <v>0.290084</v>
       </c>
       <c r="C75" t="n">
-        <v>0.228305</v>
+        <v>0.557736</v>
       </c>
       <c r="D75" t="n">
-        <v>0.541644</v>
+        <v>0.229284</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.446065</v>
       </c>
     </row>
     <row r="76">
@@ -4283,13 +4505,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.279325</v>
+        <v>0.279749</v>
       </c>
       <c r="C76" t="n">
-        <v>0.227926</v>
+        <v>0.563326</v>
       </c>
       <c r="D76" t="n">
-        <v>0.545586</v>
+        <v>0.227695</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.444861</v>
       </c>
     </row>
     <row r="77">
@@ -4297,13 +4522,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267598</v>
+        <v>0.269023</v>
       </c>
       <c r="C77" t="n">
-        <v>0.227722</v>
+        <v>0.56404</v>
       </c>
       <c r="D77" t="n">
-        <v>0.545036</v>
+        <v>0.243184</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.443984</v>
       </c>
     </row>
     <row r="78">
@@ -4311,13 +4539,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.254965</v>
+        <v>0.256666</v>
       </c>
       <c r="C78" t="n">
-        <v>0.226869</v>
+        <v>0.653254</v>
       </c>
       <c r="D78" t="n">
-        <v>0.618437</v>
+        <v>0.226986</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.442706</v>
       </c>
     </row>
     <row r="79">
@@ -4325,13 +4556,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.242061</v>
+        <v>0.243481</v>
       </c>
       <c r="C79" t="n">
-        <v>0.226501</v>
+        <v>0.660412</v>
       </c>
       <c r="D79" t="n">
-        <v>0.620704</v>
+        <v>0.227027</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.442363</v>
       </c>
     </row>
     <row r="80">
@@ -4339,13 +4573,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.228474</v>
+        <v>0.229881</v>
       </c>
       <c r="C80" t="n">
-        <v>0.239729</v>
+        <v>0.658581</v>
       </c>
       <c r="D80" t="n">
-        <v>0.620046</v>
+        <v>0.240792</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.456936</v>
       </c>
     </row>
     <row r="81">
@@ -4353,13 +4590,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.351653</v>
+        <v>0.35152</v>
       </c>
       <c r="C81" t="n">
-        <v>0.241274</v>
+        <v>0.657954</v>
       </c>
       <c r="D81" t="n">
-        <v>0.615551</v>
+        <v>0.237641</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.455533</v>
       </c>
     </row>
     <row r="82">
@@ -4367,13 +4607,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.346368</v>
+        <v>0.345973</v>
       </c>
       <c r="C82" t="n">
-        <v>0.234136</v>
+        <v>0.658157</v>
       </c>
       <c r="D82" t="n">
-        <v>0.623273</v>
+        <v>0.235841</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.453649</v>
       </c>
     </row>
     <row r="83">
@@ -4381,13 +4624,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.340444</v>
+        <v>0.339541</v>
       </c>
       <c r="C83" t="n">
-        <v>0.233405</v>
+        <v>0.6551979999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.618904</v>
+        <v>0.234166</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.452278</v>
       </c>
     </row>
     <row r="84">
@@ -4395,13 +4641,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.333489</v>
+        <v>0.333117</v>
       </c>
       <c r="C84" t="n">
-        <v>0.232412</v>
+        <v>0.645533</v>
       </c>
       <c r="D84" t="n">
-        <v>0.611123</v>
+        <v>0.233585</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.450611</v>
       </c>
     </row>
     <row r="85">
@@ -4409,13 +4658,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.325938</v>
+        <v>0.325987</v>
       </c>
       <c r="C85" t="n">
-        <v>0.231783</v>
+        <v>0.641848</v>
       </c>
       <c r="D85" t="n">
-        <v>0.611322</v>
+        <v>0.232636</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.449588</v>
       </c>
     </row>
     <row r="86">
@@ -4423,13 +4675,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318612</v>
+        <v>0.318604</v>
       </c>
       <c r="C86" t="n">
-        <v>0.230748</v>
+        <v>0.63461</v>
       </c>
       <c r="D86" t="n">
-        <v>0.604351</v>
+        <v>0.231404</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.448884</v>
       </c>
     </row>
     <row r="87">
@@ -4437,13 +4692,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.310223</v>
+        <v>0.31032</v>
       </c>
       <c r="C87" t="n">
-        <v>0.230059</v>
+        <v>0.629529</v>
       </c>
       <c r="D87" t="n">
-        <v>0.602302</v>
+        <v>0.230561</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.447027</v>
       </c>
     </row>
     <row r="88">
@@ -4451,13 +4709,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.301681</v>
+        <v>0.301421</v>
       </c>
       <c r="C88" t="n">
-        <v>0.229557</v>
+        <v>0.6232220000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.596424</v>
+        <v>0.22987</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.445619</v>
       </c>
     </row>
     <row r="89">
@@ -4465,13 +4726,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.291964</v>
+        <v>0.292327</v>
       </c>
       <c r="C89" t="n">
-        <v>0.228838</v>
+        <v>0.619605</v>
       </c>
       <c r="D89" t="n">
-        <v>0.593316</v>
+        <v>0.22989</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.445092</v>
       </c>
     </row>
     <row r="90">
@@ -4479,13 +4743,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.281811</v>
+        <v>0.282041</v>
       </c>
       <c r="C90" t="n">
-        <v>0.228107</v>
+        <v>0.613752</v>
       </c>
       <c r="D90" t="n">
-        <v>0.588224</v>
+        <v>0.228296</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.44379</v>
       </c>
     </row>
     <row r="91">
@@ -4493,13 +4760,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.271305</v>
+        <v>0.271533</v>
       </c>
       <c r="C91" t="n">
-        <v>0.228078</v>
+        <v>0.60766</v>
       </c>
       <c r="D91" t="n">
-        <v>0.583238</v>
+        <v>0.226945</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.442904</v>
       </c>
     </row>
     <row r="92">
@@ -4507,13 +4777,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.259232</v>
+        <v>0.25944</v>
       </c>
       <c r="C92" t="n">
-        <v>0.22706</v>
+        <v>0.658497</v>
       </c>
       <c r="D92" t="n">
-        <v>0.616058</v>
+        <v>0.227676</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.442478</v>
       </c>
     </row>
     <row r="93">
@@ -4521,13 +4794,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.246653</v>
+        <v>0.24667</v>
       </c>
       <c r="C93" t="n">
-        <v>0.226589</v>
+        <v>0.663013</v>
       </c>
       <c r="D93" t="n">
-        <v>0.609524</v>
+        <v>0.226896</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.441677</v>
       </c>
     </row>
     <row r="94">
@@ -4535,13 +4811,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.232464</v>
+        <v>0.233503</v>
       </c>
       <c r="C94" t="n">
-        <v>0.233614</v>
+        <v>0.657873</v>
       </c>
       <c r="D94" t="n">
-        <v>0.607322</v>
+        <v>0.240586</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.457646</v>
       </c>
     </row>
     <row r="95">
@@ -4549,13 +4828,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.353177</v>
+        <v>0.352631</v>
       </c>
       <c r="C95" t="n">
-        <v>0.241018</v>
+        <v>0.654489</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6050179999999999</v>
+        <v>0.232662</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.456127</v>
       </c>
     </row>
     <row r="96">
@@ -4563,13 +4845,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.347926</v>
+        <v>0.347226</v>
       </c>
       <c r="C96" t="n">
-        <v>0.235262</v>
+        <v>0.649574</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6032999999999999</v>
+        <v>0.235757</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.454454</v>
       </c>
     </row>
     <row r="97">
@@ -4577,13 +4862,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.341926</v>
+        <v>0.341693</v>
       </c>
       <c r="C97" t="n">
-        <v>0.233841</v>
+        <v>0.64694</v>
       </c>
       <c r="D97" t="n">
-        <v>0.599678</v>
+        <v>0.234638</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.453131</v>
       </c>
     </row>
     <row r="98">
@@ -4591,13 +4879,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.335082</v>
+        <v>0.334804</v>
       </c>
       <c r="C98" t="n">
-        <v>0.232535</v>
+        <v>0.639351</v>
       </c>
       <c r="D98" t="n">
-        <v>0.596254</v>
+        <v>0.232964</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.451853</v>
       </c>
     </row>
     <row r="99">
@@ -4605,13 +4896,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.328463</v>
+        <v>0.326765</v>
       </c>
       <c r="C99" t="n">
-        <v>0.232043</v>
+        <v>0.620764</v>
       </c>
       <c r="D99" t="n">
-        <v>0.592782</v>
+        <v>0.232349</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.450277</v>
       </c>
     </row>
     <row r="100">
@@ -4619,13 +4913,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.320193</v>
+        <v>0.31927</v>
       </c>
       <c r="C100" t="n">
-        <v>0.23126</v>
+        <v>0.616088</v>
       </c>
       <c r="D100" t="n">
-        <v>0.589309</v>
+        <v>0.231618</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.449006</v>
       </c>
     </row>
     <row r="101">
@@ -4633,13 +4930,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.312049</v>
+        <v>0.311446</v>
       </c>
       <c r="C101" t="n">
-        <v>0.230414</v>
+        <v>0.614525</v>
       </c>
       <c r="D101" t="n">
-        <v>0.585592</v>
+        <v>0.230662</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.447938</v>
       </c>
     </row>
     <row r="102">
@@ -4647,13 +4947,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.303539</v>
+        <v>0.303093</v>
       </c>
       <c r="C102" t="n">
-        <v>0.229734</v>
+        <v>0.607548</v>
       </c>
       <c r="D102" t="n">
-        <v>0.581657</v>
+        <v>0.229995</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.446857</v>
       </c>
     </row>
     <row r="103">
@@ -4661,13 +4964,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.29438</v>
+        <v>0.293615</v>
       </c>
       <c r="C103" t="n">
-        <v>0.229017</v>
+        <v>0.601038</v>
       </c>
       <c r="D103" t="n">
-        <v>0.578396</v>
+        <v>0.230504</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.445734</v>
       </c>
     </row>
     <row r="104">
@@ -4675,13 +4981,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.283875</v>
+        <v>0.284288</v>
       </c>
       <c r="C104" t="n">
-        <v>0.229573</v>
+        <v>0.596801</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5740960000000001</v>
+        <v>0.228729</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.444905</v>
       </c>
     </row>
     <row r="105">
@@ -4689,13 +4998,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.273581</v>
+        <v>0.273767</v>
       </c>
       <c r="C105" t="n">
-        <v>0.228922</v>
+        <v>0.591697</v>
       </c>
       <c r="D105" t="n">
-        <v>0.570643</v>
+        <v>0.22823</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.443424</v>
       </c>
     </row>
     <row r="106">
@@ -4703,13 +5015,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.262298</v>
+        <v>0.262891</v>
       </c>
       <c r="C106" t="n">
-        <v>0.228034</v>
+        <v>0.587694</v>
       </c>
       <c r="D106" t="n">
-        <v>0.56695</v>
+        <v>0.22774</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.443013</v>
       </c>
     </row>
     <row r="107">
@@ -4717,13 +5032,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.249508</v>
+        <v>0.250343</v>
       </c>
       <c r="C107" t="n">
-        <v>0.227766</v>
+        <v>0.640188</v>
       </c>
       <c r="D107" t="n">
-        <v>0.608008</v>
+        <v>0.227789</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.442383</v>
       </c>
     </row>
     <row r="108">
@@ -4731,13 +5049,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.235731</v>
+        <v>0.236228</v>
       </c>
       <c r="C108" t="n">
-        <v>0.243489</v>
+        <v>0.638332</v>
       </c>
       <c r="D108" t="n">
-        <v>0.606406</v>
+        <v>0.24068</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.458514</v>
       </c>
     </row>
     <row r="109">
@@ -4745,13 +5066,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.221114</v>
+        <v>0.221288</v>
       </c>
       <c r="C109" t="n">
-        <v>0.241252</v>
+        <v>0.6339129999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>0.605441</v>
+        <v>0.241256</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.457071</v>
       </c>
     </row>
     <row r="110">
@@ -4759,13 +5083,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.349014</v>
+        <v>0.348031</v>
       </c>
       <c r="C110" t="n">
-        <v>0.231061</v>
+        <v>0.632704</v>
       </c>
       <c r="D110" t="n">
-        <v>0.602854</v>
+        <v>0.236318</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.455267</v>
       </c>
     </row>
     <row r="111">
@@ -4773,13 +5100,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.343205</v>
+        <v>0.341979</v>
       </c>
       <c r="C111" t="n">
-        <v>0.237415</v>
+        <v>0.627268</v>
       </c>
       <c r="D111" t="n">
-        <v>0.599531</v>
+        <v>0.23463</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.453791</v>
       </c>
     </row>
     <row r="112">
@@ -4787,13 +5117,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.336851</v>
+        <v>0.335679</v>
       </c>
       <c r="C112" t="n">
-        <v>0.235845</v>
+        <v>0.622659</v>
       </c>
       <c r="D112" t="n">
-        <v>0.597174</v>
+        <v>0.233818</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.45239</v>
       </c>
     </row>
     <row r="113">
@@ -4801,13 +5134,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.329799</v>
+        <v>0.328737</v>
       </c>
       <c r="C113" t="n">
-        <v>0.234087</v>
+        <v>0.633715</v>
       </c>
       <c r="D113" t="n">
-        <v>0.592655</v>
+        <v>0.232762</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.451266</v>
       </c>
     </row>
     <row r="114">
@@ -4815,13 +5151,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.321927</v>
+        <v>0.321719</v>
       </c>
       <c r="C114" t="n">
-        <v>0.233245</v>
+        <v>0.628261</v>
       </c>
       <c r="D114" t="n">
-        <v>0.589252</v>
+        <v>0.231901</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.449917</v>
       </c>
     </row>
     <row r="115">
@@ -4829,13 +5168,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313989</v>
+        <v>0.313808</v>
       </c>
       <c r="C115" t="n">
-        <v>0.231824</v>
+        <v>0.619938</v>
       </c>
       <c r="D115" t="n">
-        <v>0.585486</v>
+        <v>0.230949</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.448684</v>
       </c>
     </row>
     <row r="116">
@@ -4843,13 +5185,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.305308</v>
+        <v>0.305442</v>
       </c>
       <c r="C116" t="n">
-        <v>0.229919</v>
+        <v>0.613422</v>
       </c>
       <c r="D116" t="n">
-        <v>0.580449</v>
+        <v>0.230455</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.447792</v>
       </c>
     </row>
     <row r="117">
@@ -4857,13 +5202,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.296422</v>
+        <v>0.296396</v>
       </c>
       <c r="C117" t="n">
-        <v>0.228999</v>
+        <v>0.605618</v>
       </c>
       <c r="D117" t="n">
-        <v>0.576976</v>
+        <v>0.229614</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.446418</v>
       </c>
     </row>
     <row r="118">
@@ -4871,13 +5219,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.286498</v>
+        <v>0.286686</v>
       </c>
       <c r="C118" t="n">
-        <v>0.228362</v>
+        <v>0.598843</v>
       </c>
       <c r="D118" t="n">
-        <v>0.573507</v>
+        <v>0.229358</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.445246</v>
       </c>
     </row>
     <row r="119">
@@ -4885,13 +5236,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.276317</v>
+        <v>0.276739</v>
       </c>
       <c r="C119" t="n">
-        <v>0.227864</v>
+        <v>0.592942</v>
       </c>
       <c r="D119" t="n">
-        <v>0.569167</v>
+        <v>0.228511</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.44434</v>
       </c>
     </row>
     <row r="120">
@@ -4899,13 +5253,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.264523</v>
+        <v>0.264944</v>
       </c>
       <c r="C120" t="n">
-        <v>0.227567</v>
+        <v>0.585945</v>
       </c>
       <c r="D120" t="n">
-        <v>0.565117</v>
+        <v>0.227408</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.443472</v>
       </c>
     </row>
     <row r="121">
@@ -4913,13 +5270,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.252334</v>
+        <v>0.252693</v>
       </c>
       <c r="C121" t="n">
-        <v>0.227175</v>
+        <v>0.681295</v>
       </c>
       <c r="D121" t="n">
-        <v>0.621576</v>
+        <v>0.22702</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.442547</v>
       </c>
     </row>
     <row r="122">
@@ -4927,13 +5287,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.239991</v>
+        <v>0.239622</v>
       </c>
       <c r="C122" t="n">
-        <v>0.226723</v>
+        <v>0.6775949999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>0.620862</v>
+        <v>0.2293</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.441681</v>
       </c>
     </row>
     <row r="123">
@@ -4941,13 +5304,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.224877</v>
+        <v>0.225119</v>
       </c>
       <c r="C123" t="n">
-        <v>0.241806</v>
+        <v>0.673036</v>
       </c>
       <c r="D123" t="n">
-        <v>0.619499</v>
+        <v>0.238918</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.45723</v>
       </c>
     </row>
     <row r="124">
@@ -4955,13 +5321,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.350055</v>
+        <v>0.349508</v>
       </c>
       <c r="C124" t="n">
-        <v>0.238568</v>
+        <v>0.6675450000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.615289</v>
+        <v>0.236223</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.455557</v>
       </c>
     </row>
     <row r="125">
@@ -4969,13 +5338,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.344364</v>
+        <v>0.343503</v>
       </c>
       <c r="C125" t="n">
-        <v>0.23756</v>
+        <v>0.660743</v>
       </c>
       <c r="D125" t="n">
-        <v>0.61298</v>
+        <v>0.23412</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.454194</v>
       </c>
     </row>
     <row r="126">
@@ -4983,13 +5355,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.33707</v>
+        <v>0.337546</v>
       </c>
       <c r="C126" t="n">
-        <v>0.236119</v>
+        <v>0.654674</v>
       </c>
       <c r="D126" t="n">
-        <v>0.608086</v>
+        <v>0.233083</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.452569</v>
       </c>
     </row>
     <row r="127">
@@ -4997,13 +5372,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.330546</v>
+        <v>0.330175</v>
       </c>
       <c r="C127" t="n">
-        <v>0.245946</v>
+        <v>0.633206</v>
       </c>
       <c r="D127" t="n">
-        <v>0.604343</v>
+        <v>0.232062</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.451199</v>
       </c>
     </row>
     <row r="128">
@@ -5011,13 +5389,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322787</v>
+        <v>0.322878</v>
       </c>
       <c r="C128" t="n">
-        <v>0.231251</v>
+        <v>0.62645</v>
       </c>
       <c r="D128" t="n">
-        <v>0.598904</v>
+        <v>0.231311</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.449943</v>
       </c>
     </row>
     <row r="129">
@@ -5025,13 +5406,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315134</v>
+        <v>0.31518</v>
       </c>
       <c r="C129" t="n">
-        <v>0.232286</v>
+        <v>0.620229</v>
       </c>
       <c r="D129" t="n">
-        <v>0.593665</v>
+        <v>0.230271</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.448835</v>
       </c>
     </row>
     <row r="130">
@@ -5039,13 +5423,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306946</v>
+        <v>0.30687</v>
       </c>
       <c r="C130" t="n">
-        <v>0.230089</v>
+        <v>0.61448</v>
       </c>
       <c r="D130" t="n">
-        <v>0.589631</v>
+        <v>0.230555</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.447724</v>
       </c>
     </row>
     <row r="131">
@@ -5053,13 +5440,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.298778</v>
+        <v>0.29799</v>
       </c>
       <c r="C131" t="n">
-        <v>0.22914</v>
+        <v>0.609698</v>
       </c>
       <c r="D131" t="n">
-        <v>0.5881459999999999</v>
+        <v>0.229355</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.4467</v>
       </c>
     </row>
     <row r="132">
@@ -5067,13 +5457,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.288989</v>
+        <v>0.288627</v>
       </c>
       <c r="C132" t="n">
-        <v>0.228725</v>
+        <v>0.604922</v>
       </c>
       <c r="D132" t="n">
-        <v>0.580767</v>
+        <v>0.237792</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.445671</v>
       </c>
     </row>
     <row r="133">
@@ -5081,13 +5474,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.278428</v>
+        <v>0.278746</v>
       </c>
       <c r="C133" t="n">
-        <v>0.228037</v>
+        <v>0.598563</v>
       </c>
       <c r="D133" t="n">
-        <v>0.576798</v>
+        <v>0.227335</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.444547</v>
       </c>
     </row>
     <row r="134">
@@ -5095,13 +5491,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.267175</v>
+        <v>0.267232</v>
       </c>
       <c r="C134" t="n">
-        <v>0.227402</v>
+        <v>0.594102</v>
       </c>
       <c r="D134" t="n">
-        <v>0.572471</v>
+        <v>0.237807</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.44371</v>
       </c>
     </row>
     <row r="135">
@@ -5109,13 +5508,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.254614</v>
+        <v>0.255283</v>
       </c>
       <c r="C135" t="n">
-        <v>0.22731</v>
+        <v>0.669145</v>
       </c>
       <c r="D135" t="n">
-        <v>0.626968</v>
+        <v>0.242724</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.442892</v>
       </c>
     </row>
     <row r="136">
@@ -5123,13 +5525,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.2428</v>
+        <v>0.242626</v>
       </c>
       <c r="C136" t="n">
-        <v>0.22684</v>
+        <v>0.6596689999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>0.6280520000000001</v>
+        <v>0.241328</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.442082</v>
       </c>
     </row>
     <row r="137">
@@ -5137,13 +5542,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.228655</v>
+        <v>0.228118</v>
       </c>
       <c r="C137" t="n">
-        <v>0.242016</v>
+        <v>0.65676</v>
       </c>
       <c r="D137" t="n">
-        <v>0.624159</v>
+        <v>0.238703</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.457914</v>
       </c>
     </row>
     <row r="138">
@@ -5151,13 +5559,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.351608</v>
+        <v>0.349994</v>
       </c>
       <c r="C138" t="n">
-        <v>0.239703</v>
+        <v>0.649668</v>
       </c>
       <c r="D138" t="n">
-        <v>0.621022</v>
+        <v>0.239879</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.456222</v>
       </c>
     </row>
     <row r="139">
@@ -5165,13 +5576,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.346195</v>
+        <v>0.345145</v>
       </c>
       <c r="C139" t="n">
-        <v>0.230657</v>
+        <v>0.645827</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6173920000000001</v>
+        <v>0.235794</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.454824</v>
       </c>
     </row>
     <row r="140">
@@ -5179,13 +5593,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.339372</v>
+        <v>0.338491</v>
       </c>
       <c r="C140" t="n">
-        <v>0.236098</v>
+        <v>0.641247</v>
       </c>
       <c r="D140" t="n">
-        <v>0.612334</v>
+        <v>0.234127</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.453369</v>
       </c>
     </row>
     <row r="141">
@@ -5193,13 +5610,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.333384</v>
+        <v>0.33188</v>
       </c>
       <c r="C141" t="n">
-        <v>0.234894</v>
+        <v>0.6528350000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.607662</v>
+        <v>0.234207</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.452085</v>
       </c>
     </row>
     <row r="142">
@@ -5207,13 +5627,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.325265</v>
+        <v>0.324902</v>
       </c>
       <c r="C142" t="n">
-        <v>0.233324</v>
+        <v>0.646197</v>
       </c>
       <c r="D142" t="n">
-        <v>0.603799</v>
+        <v>0.232149</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.450735</v>
       </c>
     </row>
     <row r="143">
@@ -5221,13 +5644,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317488</v>
+        <v>0.316669</v>
       </c>
       <c r="C143" t="n">
-        <v>0.232537</v>
+        <v>0.636951</v>
       </c>
       <c r="D143" t="n">
-        <v>0.59939</v>
+        <v>0.23146</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.449397</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -4139,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4177,16 +4177,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.297219</v>
+        <v>0.304371</v>
       </c>
       <c r="C2" t="n">
-        <v>0.41313</v>
+        <v>0.506654</v>
       </c>
       <c r="D2" t="n">
-        <v>0.204739</v>
+        <v>0.421298</v>
       </c>
       <c r="E2" t="n">
-        <v>0.436807</v>
+        <v>0.212626</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.436004</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4197,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.288771</v>
+        <v>0.295031</v>
       </c>
       <c r="C3" t="n">
-        <v>0.415792</v>
+        <v>0.50215</v>
       </c>
       <c r="D3" t="n">
-        <v>0.208338</v>
+        <v>0.419952</v>
       </c>
       <c r="E3" t="n">
-        <v>0.437708</v>
+        <v>0.214984</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.436454</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4217,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.277408</v>
+        <v>0.284917</v>
       </c>
       <c r="C4" t="n">
-        <v>0.417833</v>
+        <v>0.488342</v>
       </c>
       <c r="D4" t="n">
-        <v>0.214493</v>
+        <v>0.420682</v>
       </c>
       <c r="E4" t="n">
-        <v>0.434322</v>
+        <v>0.21509</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.43566</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4237,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.268654</v>
+        <v>0.275537</v>
       </c>
       <c r="C5" t="n">
-        <v>0.419777</v>
+        <v>0.48453</v>
       </c>
       <c r="D5" t="n">
-        <v>0.214198</v>
+        <v>0.422915</v>
       </c>
       <c r="E5" t="n">
-        <v>0.437258</v>
+        <v>0.20113</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.43648</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4257,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.256821</v>
+        <v>0.262501</v>
       </c>
       <c r="C6" t="n">
-        <v>0.420749</v>
+        <v>0.472894</v>
       </c>
       <c r="D6" t="n">
-        <v>0.214659</v>
+        <v>0.423573</v>
       </c>
       <c r="E6" t="n">
-        <v>0.433148</v>
+        <v>0.219794</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.43624</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4277,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.247613</v>
+        <v>0.250121</v>
       </c>
       <c r="C7" t="n">
-        <v>0.422775</v>
+        <v>0.462148</v>
       </c>
       <c r="D7" t="n">
-        <v>0.215614</v>
+        <v>0.420496</v>
       </c>
       <c r="E7" t="n">
-        <v>0.434073</v>
+        <v>0.220184</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.437452</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4297,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.235411</v>
+        <v>0.239745</v>
       </c>
       <c r="C8" t="n">
-        <v>0.423311</v>
+        <v>0.444593</v>
       </c>
       <c r="D8" t="n">
-        <v>0.216142</v>
+        <v>0.42011</v>
       </c>
       <c r="E8" t="n">
-        <v>0.430225</v>
+        <v>0.20299</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.434218</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4317,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.220597</v>
+        <v>0.223555</v>
       </c>
       <c r="C9" t="n">
-        <v>0.421688</v>
+        <v>0.433347</v>
       </c>
       <c r="D9" t="n">
-        <v>0.232058</v>
+        <v>0.420845</v>
       </c>
       <c r="E9" t="n">
-        <v>0.451795</v>
+        <v>0.235621</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.449235</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4337,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.344933</v>
+        <v>0.351222</v>
       </c>
       <c r="C10" t="n">
-        <v>0.418444</v>
+        <v>0.55304</v>
       </c>
       <c r="D10" t="n">
-        <v>0.231575</v>
+        <v>0.4201</v>
       </c>
       <c r="E10" t="n">
-        <v>0.450193</v>
+        <v>0.22065</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.449175</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4357,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.339063</v>
+        <v>0.345501</v>
       </c>
       <c r="C11" t="n">
-        <v>0.421778</v>
+        <v>0.550527</v>
       </c>
       <c r="D11" t="n">
-        <v>0.230203</v>
+        <v>0.42087</v>
       </c>
       <c r="E11" t="n">
-        <v>0.449685</v>
+        <v>0.219409</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.448639</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4377,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.333666</v>
+        <v>0.341381</v>
       </c>
       <c r="C12" t="n">
-        <v>0.422447</v>
+        <v>0.546631</v>
       </c>
       <c r="D12" t="n">
-        <v>0.23004</v>
+        <v>0.421585</v>
       </c>
       <c r="E12" t="n">
-        <v>0.449396</v>
+        <v>0.233696</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.447914</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4397,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.327736</v>
+        <v>0.332991</v>
       </c>
       <c r="C13" t="n">
-        <v>0.422696</v>
+        <v>0.540646</v>
       </c>
       <c r="D13" t="n">
-        <v>0.22911</v>
+        <v>0.422056</v>
       </c>
       <c r="E13" t="n">
-        <v>0.446344</v>
+        <v>0.225092</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.445731</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4417,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.320159</v>
+        <v>0.327263</v>
       </c>
       <c r="C14" t="n">
-        <v>0.422989</v>
+        <v>0.533587</v>
       </c>
       <c r="D14" t="n">
-        <v>0.228945</v>
+        <v>0.423963</v>
       </c>
       <c r="E14" t="n">
-        <v>0.445678</v>
+        <v>0.219124</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.44315</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4437,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.311325</v>
+        <v>0.320084</v>
       </c>
       <c r="C15" t="n">
-        <v>0.423246</v>
+        <v>0.526484</v>
       </c>
       <c r="D15" t="n">
-        <v>0.228133</v>
+        <v>0.422738</v>
       </c>
       <c r="E15" t="n">
-        <v>0.445597</v>
+        <v>0.217411</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.445027</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4457,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.304343</v>
+        <v>0.311357</v>
       </c>
       <c r="C16" t="n">
-        <v>0.425099</v>
+        <v>0.518077</v>
       </c>
       <c r="D16" t="n">
-        <v>0.228055</v>
+        <v>0.42458</v>
       </c>
       <c r="E16" t="n">
-        <v>0.44366</v>
+        <v>0.218082</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.440087</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4477,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.296168</v>
+        <v>0.303976</v>
       </c>
       <c r="C17" t="n">
-        <v>0.423611</v>
+        <v>0.511826</v>
       </c>
       <c r="D17" t="n">
-        <v>0.227288</v>
+        <v>0.427067</v>
       </c>
       <c r="E17" t="n">
-        <v>0.442889</v>
+        <v>0.234036</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.442653</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4497,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.286936</v>
+        <v>0.293581</v>
       </c>
       <c r="C18" t="n">
-        <v>0.427788</v>
+        <v>0.50102</v>
       </c>
       <c r="D18" t="n">
-        <v>0.225946</v>
+        <v>0.428607</v>
       </c>
       <c r="E18" t="n">
-        <v>0.439168</v>
+        <v>0.216283</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.439492</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4517,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.277073</v>
+        <v>0.28342</v>
       </c>
       <c r="C19" t="n">
-        <v>0.428919</v>
+        <v>0.490095</v>
       </c>
       <c r="D19" t="n">
-        <v>0.226035</v>
+        <v>0.430277</v>
       </c>
       <c r="E19" t="n">
-        <v>0.440135</v>
+        <v>0.216054</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.438842</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4537,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.266224</v>
+        <v>0.273086</v>
       </c>
       <c r="C20" t="n">
-        <v>0.428134</v>
+        <v>0.479483</v>
       </c>
       <c r="D20" t="n">
-        <v>0.225913</v>
+        <v>0.429895</v>
       </c>
       <c r="E20" t="n">
-        <v>0.440238</v>
+        <v>0.216596</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.439404</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4557,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.25431</v>
+        <v>0.263106</v>
       </c>
       <c r="C21" t="n">
-        <v>0.422135</v>
+        <v>0.462333</v>
       </c>
       <c r="D21" t="n">
-        <v>0.225395</v>
+        <v>0.423466</v>
       </c>
       <c r="E21" t="n">
-        <v>0.436942</v>
+        <v>0.22349</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.438552</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4577,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.241306</v>
+        <v>0.24849</v>
       </c>
       <c r="C22" t="n">
-        <v>0.422617</v>
+        <v>0.456075</v>
       </c>
       <c r="D22" t="n">
-        <v>0.224658</v>
+        <v>0.424</v>
       </c>
       <c r="E22" t="n">
-        <v>0.439759</v>
+        <v>0.230876</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.43883</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4597,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.227971</v>
+        <v>0.236755</v>
       </c>
       <c r="C23" t="n">
-        <v>0.422809</v>
+        <v>0.434848</v>
       </c>
       <c r="D23" t="n">
-        <v>0.236585</v>
+        <v>0.42532</v>
       </c>
       <c r="E23" t="n">
-        <v>0.456649</v>
+        <v>0.245968</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.454845</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4617,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.349171</v>
+        <v>0.355884</v>
       </c>
       <c r="C24" t="n">
-        <v>0.425594</v>
+        <v>0.555904</v>
       </c>
       <c r="D24" t="n">
-        <v>0.238803</v>
+        <v>0.426161</v>
       </c>
       <c r="E24" t="n">
-        <v>0.45484</v>
+        <v>0.234735</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.452068</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4637,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.34302</v>
+        <v>0.349467</v>
       </c>
       <c r="C25" t="n">
-        <v>0.423297</v>
+        <v>0.5534829999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.236875</v>
+        <v>0.427655</v>
       </c>
       <c r="E25" t="n">
-        <v>0.452995</v>
+        <v>0.227349</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.449972</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4657,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.336672</v>
+        <v>0.345003</v>
       </c>
       <c r="C26" t="n">
-        <v>0.42333</v>
+        <v>0.547705</v>
       </c>
       <c r="D26" t="n">
-        <v>0.235753</v>
+        <v>0.427185</v>
       </c>
       <c r="E26" t="n">
-        <v>0.452225</v>
+        <v>0.225532</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.449709</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4677,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.33109</v>
+        <v>0.339665</v>
       </c>
       <c r="C27" t="n">
-        <v>0.426172</v>
+        <v>0.540248</v>
       </c>
       <c r="D27" t="n">
-        <v>0.235011</v>
+        <v>0.429011</v>
       </c>
       <c r="E27" t="n">
-        <v>0.450283</v>
+        <v>0.253259</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.447564</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4697,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.323509</v>
+        <v>0.331543</v>
       </c>
       <c r="C28" t="n">
-        <v>0.42648</v>
+        <v>0.532802</v>
       </c>
       <c r="D28" t="n">
-        <v>0.233206</v>
+        <v>0.428615</v>
       </c>
       <c r="E28" t="n">
-        <v>0.449899</v>
+        <v>0.2233</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.446285</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4717,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.317644</v>
+        <v>0.323645</v>
       </c>
       <c r="C29" t="n">
-        <v>0.426114</v>
+        <v>0.5322210000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.232536</v>
+        <v>0.429487</v>
       </c>
       <c r="E29" t="n">
-        <v>0.448106</v>
+        <v>0.222302</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.44434</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4737,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.30797</v>
+        <v>0.315105</v>
       </c>
       <c r="C30" t="n">
-        <v>0.427164</v>
+        <v>0.521279</v>
       </c>
       <c r="D30" t="n">
-        <v>0.230886</v>
+        <v>0.430495</v>
       </c>
       <c r="E30" t="n">
-        <v>0.447502</v>
+        <v>0.221272</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.444063</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4757,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.300271</v>
+        <v>0.307562</v>
       </c>
       <c r="C31" t="n">
-        <v>0.427383</v>
+        <v>0.505707</v>
       </c>
       <c r="D31" t="n">
-        <v>0.230086</v>
+        <v>0.432634</v>
       </c>
       <c r="E31" t="n">
-        <v>0.44603</v>
+        <v>0.220361</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.442231</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4777,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.291521</v>
+        <v>0.297846</v>
       </c>
       <c r="C32" t="n">
-        <v>0.428922</v>
+        <v>0.5061369999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.22828</v>
+        <v>0.432936</v>
       </c>
       <c r="E32" t="n">
-        <v>0.445833</v>
+        <v>0.219766</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.440894</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4797,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.282539</v>
+        <v>0.288986</v>
       </c>
       <c r="C33" t="n">
-        <v>0.430158</v>
+        <v>0.491651</v>
       </c>
       <c r="D33" t="n">
-        <v>0.227252</v>
+        <v>0.43371</v>
       </c>
       <c r="E33" t="n">
-        <v>0.443799</v>
+        <v>0.219191</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.440639</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4817,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.270708</v>
+        <v>0.278358</v>
       </c>
       <c r="C34" t="n">
-        <v>0.430728</v>
+        <v>0.477669</v>
       </c>
       <c r="D34" t="n">
-        <v>0.227243</v>
+        <v>0.434963</v>
       </c>
       <c r="E34" t="n">
-        <v>0.443377</v>
+        <v>0.23452</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.440589</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4837,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.260664</v>
+        <v>0.266202</v>
       </c>
       <c r="C35" t="n">
-        <v>0.429482</v>
+        <v>0.46752</v>
       </c>
       <c r="D35" t="n">
-        <v>0.226501</v>
+        <v>0.43242</v>
       </c>
       <c r="E35" t="n">
-        <v>0.441101</v>
+        <v>0.233706</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.44014</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4857,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.247499</v>
+        <v>0.253784</v>
       </c>
       <c r="C36" t="n">
-        <v>0.430262</v>
+        <v>0.454027</v>
       </c>
       <c r="D36" t="n">
-        <v>0.226487</v>
+        <v>0.432196</v>
       </c>
       <c r="E36" t="n">
-        <v>0.441938</v>
+        <v>0.246461</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.440125</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4877,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.232301</v>
+        <v>0.240122</v>
       </c>
       <c r="C37" t="n">
-        <v>0.433357</v>
+        <v>0.449264</v>
       </c>
       <c r="D37" t="n">
-        <v>0.234126</v>
+        <v>0.433016</v>
       </c>
       <c r="E37" t="n">
-        <v>0.456689</v>
+        <v>0.249286</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.454911</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4897,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.350756</v>
+        <v>0.357762</v>
       </c>
       <c r="C38" t="n">
-        <v>0.431324</v>
+        <v>0.554921</v>
       </c>
       <c r="D38" t="n">
-        <v>0.233458</v>
+        <v>0.432176</v>
       </c>
       <c r="E38" t="n">
-        <v>0.454654</v>
+        <v>0.229982</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.452604</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4917,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.345353</v>
+        <v>0.35285</v>
       </c>
       <c r="C39" t="n">
-        <v>0.431855</v>
+        <v>0.55033</v>
       </c>
       <c r="D39" t="n">
-        <v>0.232551</v>
+        <v>0.43146</v>
       </c>
       <c r="E39" t="n">
-        <v>0.453208</v>
+        <v>0.22774</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.45098</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4937,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.339163</v>
+        <v>0.347125</v>
       </c>
       <c r="C40" t="n">
-        <v>0.43004</v>
+        <v>0.545076</v>
       </c>
       <c r="D40" t="n">
-        <v>0.232265</v>
+        <v>0.43113</v>
       </c>
       <c r="E40" t="n">
-        <v>0.452875</v>
+        <v>0.226948</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.449518</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4957,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.333119</v>
+        <v>0.341003</v>
       </c>
       <c r="C41" t="n">
-        <v>0.430776</v>
+        <v>0.538236</v>
       </c>
       <c r="D41" t="n">
-        <v>0.231961</v>
+        <v>0.431969</v>
       </c>
       <c r="E41" t="n">
-        <v>0.450703</v>
+        <v>0.225516</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.448445</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4977,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.326377</v>
+        <v>0.333796</v>
       </c>
       <c r="C42" t="n">
-        <v>0.433063</v>
+        <v>0.534287</v>
       </c>
       <c r="D42" t="n">
-        <v>0.230683</v>
+        <v>0.431909</v>
       </c>
       <c r="E42" t="n">
-        <v>0.450263</v>
+        <v>0.224179</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.446763</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4997,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.318543</v>
+        <v>0.326292</v>
       </c>
       <c r="C43" t="n">
-        <v>0.432641</v>
+        <v>0.526761</v>
       </c>
       <c r="D43" t="n">
-        <v>0.230451</v>
+        <v>0.432636</v>
       </c>
       <c r="E43" t="n">
-        <v>0.448855</v>
+        <v>0.223401</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.445374</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +5017,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.311529</v>
+        <v>0.319265</v>
       </c>
       <c r="C44" t="n">
-        <v>0.432792</v>
+        <v>0.5224490000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.230149</v>
+        <v>0.433106</v>
       </c>
       <c r="E44" t="n">
-        <v>0.447387</v>
+        <v>0.222631</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.444028</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +5037,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.303358</v>
+        <v>0.310607</v>
       </c>
       <c r="C45" t="n">
-        <v>0.433583</v>
+        <v>0.511124</v>
       </c>
       <c r="D45" t="n">
-        <v>0.229351</v>
+        <v>0.434592</v>
       </c>
       <c r="E45" t="n">
-        <v>0.446198</v>
+        <v>0.221183</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.442774</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +5057,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.294099</v>
+        <v>0.301706</v>
       </c>
       <c r="C46" t="n">
-        <v>0.431587</v>
+        <v>0.506965</v>
       </c>
       <c r="D46" t="n">
-        <v>0.228585</v>
+        <v>0.435411</v>
       </c>
       <c r="E46" t="n">
-        <v>0.445683</v>
+        <v>0.220074</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.442286</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +5077,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.284464</v>
+        <v>0.291815</v>
       </c>
       <c r="C47" t="n">
-        <v>0.431614</v>
+        <v>0.497444</v>
       </c>
       <c r="D47" t="n">
-        <v>0.228461</v>
+        <v>0.435796</v>
       </c>
       <c r="E47" t="n">
-        <v>0.44435</v>
+        <v>0.220305</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.441693</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +5097,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.27447</v>
+        <v>0.281752</v>
       </c>
       <c r="C48" t="n">
-        <v>0.435373</v>
+        <v>0.486593</v>
       </c>
       <c r="D48" t="n">
-        <v>0.227867</v>
+        <v>0.43738</v>
       </c>
       <c r="E48" t="n">
-        <v>0.443644</v>
+        <v>0.224034</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.440931</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +5117,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.262347</v>
+        <v>0.270986</v>
       </c>
       <c r="C49" t="n">
-        <v>0.436072</v>
+        <v>0.470839</v>
       </c>
       <c r="D49" t="n">
-        <v>0.227482</v>
+        <v>0.438499</v>
       </c>
       <c r="E49" t="n">
-        <v>0.442703</v>
+        <v>0.223038</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.441305</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +5137,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.250196</v>
+        <v>0.257126</v>
       </c>
       <c r="C50" t="n">
-        <v>0.436354</v>
+        <v>0.46345</v>
       </c>
       <c r="D50" t="n">
-        <v>0.226507</v>
+        <v>0.438616</v>
       </c>
       <c r="E50" t="n">
-        <v>0.44115</v>
+        <v>0.218704</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.440817</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5157,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.237121</v>
+        <v>0.243224</v>
       </c>
       <c r="C51" t="n">
-        <v>0.434896</v>
+        <v>0.448198</v>
       </c>
       <c r="D51" t="n">
-        <v>0.236017</v>
+        <v>0.438257</v>
       </c>
       <c r="E51" t="n">
-        <v>0.457389</v>
+        <v>0.234155</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.456185</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5177,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.221332</v>
+        <v>0.228771</v>
       </c>
       <c r="C52" t="n">
-        <v>0.434173</v>
+        <v>0.434002</v>
       </c>
       <c r="D52" t="n">
-        <v>0.241242</v>
+        <v>0.439713</v>
       </c>
       <c r="E52" t="n">
-        <v>0.456141</v>
+        <v>0.231101</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.45447</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5197,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347012</v>
+        <v>0.354427</v>
       </c>
       <c r="C53" t="n">
-        <v>0.434402</v>
+        <v>0.558423</v>
       </c>
       <c r="D53" t="n">
-        <v>0.232672</v>
+        <v>0.439222</v>
       </c>
       <c r="E53" t="n">
-        <v>0.454888</v>
+        <v>0.229155</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.451956</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5217,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.342612</v>
+        <v>0.349232</v>
       </c>
       <c r="C54" t="n">
-        <v>0.437217</v>
+        <v>0.55179</v>
       </c>
       <c r="D54" t="n">
-        <v>0.232096</v>
+        <v>0.453804</v>
       </c>
       <c r="E54" t="n">
-        <v>0.453967</v>
+        <v>0.226922</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.453166</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5237,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.335949</v>
+        <v>0.343318</v>
       </c>
       <c r="C55" t="n">
-        <v>0.436075</v>
+        <v>0.561003</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231757</v>
+        <v>0.454566</v>
       </c>
       <c r="E55" t="n">
-        <v>0.452176</v>
+        <v>0.226214</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.451718</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5257,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.328957</v>
+        <v>0.335848</v>
       </c>
       <c r="C56" t="n">
-        <v>0.43842</v>
+        <v>0.550256</v>
       </c>
       <c r="D56" t="n">
-        <v>0.230838</v>
+        <v>0.455911</v>
       </c>
       <c r="E56" t="n">
-        <v>0.45073</v>
+        <v>0.226047</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.450042</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5277,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.322276</v>
+        <v>0.328263</v>
       </c>
       <c r="C57" t="n">
-        <v>0.44067</v>
+        <v>0.553038</v>
       </c>
       <c r="D57" t="n">
-        <v>0.230565</v>
+        <v>0.457104</v>
       </c>
       <c r="E57" t="n">
-        <v>0.449838</v>
+        <v>0.223889</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.448851</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5297,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314406</v>
+        <v>0.321926</v>
       </c>
       <c r="C58" t="n">
-        <v>0.442437</v>
+        <v>0.54948</v>
       </c>
       <c r="D58" t="n">
-        <v>0.23032</v>
+        <v>0.462783</v>
       </c>
       <c r="E58" t="n">
-        <v>0.448105</v>
+        <v>0.223718</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.447412</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5317,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305274</v>
+        <v>0.312672</v>
       </c>
       <c r="C59" t="n">
-        <v>0.444216</v>
+        <v>0.546733</v>
       </c>
       <c r="D59" t="n">
-        <v>0.229749</v>
+        <v>0.460078</v>
       </c>
       <c r="E59" t="n">
-        <v>0.44743</v>
+        <v>0.222203</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.44631</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5337,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.296435</v>
+        <v>0.303478</v>
       </c>
       <c r="C60" t="n">
-        <v>0.445527</v>
+        <v>0.521427</v>
       </c>
       <c r="D60" t="n">
-        <v>0.229035</v>
+        <v>0.463537</v>
       </c>
       <c r="E60" t="n">
-        <v>0.446642</v>
+        <v>0.222136</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.442989</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5357,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.287659</v>
+        <v>0.294632</v>
       </c>
       <c r="C61" t="n">
-        <v>0.451524</v>
+        <v>0.535142</v>
       </c>
       <c r="D61" t="n">
-        <v>0.229389</v>
+        <v>0.451533</v>
       </c>
       <c r="E61" t="n">
-        <v>0.445221</v>
+        <v>0.235621</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.441692</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5377,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.276854</v>
+        <v>0.284439</v>
       </c>
       <c r="C62" t="n">
-        <v>0.454398</v>
+        <v>0.502904</v>
       </c>
       <c r="D62" t="n">
-        <v>0.228689</v>
+        <v>0.455199</v>
       </c>
       <c r="E62" t="n">
-        <v>0.443698</v>
+        <v>0.220396</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.440929</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5397,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.266119</v>
+        <v>0.273184</v>
       </c>
       <c r="C63" t="n">
-        <v>0.45556</v>
+        <v>0.516694</v>
       </c>
       <c r="D63" t="n">
-        <v>0.227332</v>
+        <v>0.457775</v>
       </c>
       <c r="E63" t="n">
-        <v>0.442693</v>
+        <v>0.219544</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.440425</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5417,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.253753</v>
+        <v>0.260823</v>
       </c>
       <c r="C64" t="n">
-        <v>0.489966</v>
+        <v>0.498166</v>
       </c>
       <c r="D64" t="n">
-        <v>0.227042</v>
+        <v>0.495312</v>
       </c>
       <c r="E64" t="n">
-        <v>0.441725</v>
+        <v>0.218501</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.440366</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5437,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.241533</v>
+        <v>0.247689</v>
       </c>
       <c r="C65" t="n">
-        <v>0.498528</v>
+        <v>0.490264</v>
       </c>
       <c r="D65" t="n">
-        <v>0.226936</v>
+        <v>0.492602</v>
       </c>
       <c r="E65" t="n">
-        <v>0.441157</v>
+        <v>0.233035</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.440035</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5457,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.225967</v>
+        <v>0.233566</v>
       </c>
       <c r="C66" t="n">
-        <v>0.503287</v>
+        <v>0.469681</v>
       </c>
       <c r="D66" t="n">
-        <v>0.236269</v>
+        <v>0.49525</v>
       </c>
       <c r="E66" t="n">
-        <v>0.457398</v>
+        <v>0.245432</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.454831</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5477,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349394</v>
+        <v>0.35622</v>
       </c>
       <c r="C67" t="n">
-        <v>0.503479</v>
+        <v>0.633176</v>
       </c>
       <c r="D67" t="n">
-        <v>0.234368</v>
+        <v>0.507919</v>
       </c>
       <c r="E67" t="n">
-        <v>0.456016</v>
+        <v>0.231904</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.453316</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5497,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.344349</v>
+        <v>0.351166</v>
       </c>
       <c r="C68" t="n">
-        <v>0.515525</v>
+        <v>0.583539</v>
       </c>
       <c r="D68" t="n">
-        <v>0.233212</v>
+        <v>0.5184569999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>0.453948</v>
+        <v>0.230822</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.451454</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5517,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.338457</v>
+        <v>0.344921</v>
       </c>
       <c r="C69" t="n">
-        <v>0.517699</v>
+        <v>0.577754</v>
       </c>
       <c r="D69" t="n">
-        <v>0.232096</v>
+        <v>0.520193</v>
       </c>
       <c r="E69" t="n">
-        <v>0.452637</v>
+        <v>0.229404</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.449569</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5537,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.332857</v>
+        <v>0.338021</v>
       </c>
       <c r="C70" t="n">
-        <v>0.524034</v>
+        <v>0.671334</v>
       </c>
       <c r="D70" t="n">
-        <v>0.231517</v>
+        <v>0.527458</v>
       </c>
       <c r="E70" t="n">
-        <v>0.451012</v>
+        <v>0.228029</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.44772</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5557,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.324136</v>
+        <v>0.331175</v>
       </c>
       <c r="C71" t="n">
-        <v>0.528632</v>
+        <v>0.652548</v>
       </c>
       <c r="D71" t="n">
-        <v>0.231143</v>
+        <v>0.532347</v>
       </c>
       <c r="E71" t="n">
-        <v>0.450052</v>
+        <v>0.226696</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.446489</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5577,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316975</v>
+        <v>0.323417</v>
       </c>
       <c r="C72" t="n">
-        <v>0.534004</v>
+        <v>0.66098</v>
       </c>
       <c r="D72" t="n">
-        <v>0.23062</v>
+        <v>0.537696</v>
       </c>
       <c r="E72" t="n">
-        <v>0.448775</v>
+        <v>0.225254</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.44499</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5597,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.308805</v>
+        <v>0.315422</v>
       </c>
       <c r="C73" t="n">
-        <v>0.537348</v>
+        <v>0.6153380000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.229989</v>
+        <v>0.542574</v>
       </c>
       <c r="E73" t="n">
-        <v>0.447563</v>
+        <v>0.22565</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.443594</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5617,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.299603</v>
+        <v>0.306722</v>
       </c>
       <c r="C74" t="n">
-        <v>0.53942</v>
+        <v>0.61896</v>
       </c>
       <c r="D74" t="n">
-        <v>0.229066</v>
+        <v>0.544343</v>
       </c>
       <c r="E74" t="n">
-        <v>0.446678</v>
+        <v>0.224902</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.443575</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5637,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.290354</v>
+        <v>0.296953</v>
       </c>
       <c r="C75" t="n">
-        <v>0.540686</v>
+        <v>0.6575299999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.228728</v>
+        <v>0.54484</v>
       </c>
       <c r="E75" t="n">
-        <v>0.445787</v>
+        <v>0.234719</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.442238</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5657,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.28041</v>
+        <v>0.287853</v>
       </c>
       <c r="C76" t="n">
-        <v>0.545218</v>
+        <v>0.592041</v>
       </c>
       <c r="D76" t="n">
-        <v>0.227484</v>
+        <v>0.548659</v>
       </c>
       <c r="E76" t="n">
-        <v>0.44466</v>
+        <v>0.222955</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.441259</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5677,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.268892</v>
+        <v>0.27672</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5465100000000001</v>
+        <v>0.626704</v>
       </c>
       <c r="D77" t="n">
-        <v>0.227007</v>
+        <v>0.54971</v>
       </c>
       <c r="E77" t="n">
-        <v>0.443753</v>
+        <v>0.222621</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.441251</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5697,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.257074</v>
+        <v>0.264389</v>
       </c>
       <c r="C78" t="n">
-        <v>0.624337</v>
+        <v>0.615424</v>
       </c>
       <c r="D78" t="n">
-        <v>0.227217</v>
+        <v>0.61983</v>
       </c>
       <c r="E78" t="n">
-        <v>0.442641</v>
+        <v>0.233591</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.441104</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5717,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.243837</v>
+        <v>0.251714</v>
       </c>
       <c r="C79" t="n">
-        <v>0.631153</v>
+        <v>0.545651</v>
       </c>
       <c r="D79" t="n">
-        <v>0.226573</v>
+        <v>0.6299630000000001</v>
       </c>
       <c r="E79" t="n">
-        <v>0.440596</v>
+        <v>0.233262</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.440658</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5737,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.229872</v>
+        <v>0.238236</v>
       </c>
       <c r="C80" t="n">
-        <v>0.628671</v>
+        <v>0.500311</v>
       </c>
       <c r="D80" t="n">
-        <v>0.237317</v>
+        <v>0.633503</v>
       </c>
       <c r="E80" t="n">
-        <v>0.456364</v>
+        <v>0.24966</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.455567</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5757,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.351492</v>
+        <v>0.358121</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6300210000000001</v>
+        <v>0.651335</v>
       </c>
       <c r="D81" t="n">
-        <v>0.235429</v>
+        <v>0.638954</v>
       </c>
       <c r="E81" t="n">
-        <v>0.454894</v>
+        <v>0.236141</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.456642</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5777,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.345762</v>
+        <v>0.352857</v>
       </c>
       <c r="C82" t="n">
-        <v>0.629943</v>
+        <v>0.67153</v>
       </c>
       <c r="D82" t="n">
-        <v>0.23434</v>
+        <v>0.635583</v>
       </c>
       <c r="E82" t="n">
-        <v>0.453281</v>
+        <v>0.234364</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.454581</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5797,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.339219</v>
+        <v>0.346191</v>
       </c>
       <c r="C83" t="n">
-        <v>0.624149</v>
+        <v>0.637837</v>
       </c>
       <c r="D83" t="n">
-        <v>0.232938</v>
+        <v>0.63191</v>
       </c>
       <c r="E83" t="n">
-        <v>0.451907</v>
+        <v>0.232397</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.45296</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5817,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.332522</v>
+        <v>0.339807</v>
       </c>
       <c r="C84" t="n">
-        <v>0.618327</v>
+        <v>0.722647</v>
       </c>
       <c r="D84" t="n">
-        <v>0.232346</v>
+        <v>0.622075</v>
       </c>
       <c r="E84" t="n">
-        <v>0.450568</v>
+        <v>0.230706</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.451166</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5837,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.326076</v>
+        <v>0.332715</v>
       </c>
       <c r="C85" t="n">
-        <v>0.613088</v>
+        <v>0.676119</v>
       </c>
       <c r="D85" t="n">
-        <v>0.231879</v>
+        <v>0.624816</v>
       </c>
       <c r="E85" t="n">
-        <v>0.449285</v>
+        <v>0.230974</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.449888</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5857,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318791</v>
+        <v>0.325098</v>
       </c>
       <c r="C86" t="n">
-        <v>0.607731</v>
+        <v>0.707666</v>
       </c>
       <c r="D86" t="n">
-        <v>0.230659</v>
+        <v>0.620545</v>
       </c>
       <c r="E86" t="n">
-        <v>0.447144</v>
+        <v>0.238435</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.448855</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5877,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.310149</v>
+        <v>0.317255</v>
       </c>
       <c r="C87" t="n">
-        <v>0.603342</v>
+        <v>0.713676</v>
       </c>
       <c r="D87" t="n">
-        <v>0.230133</v>
+        <v>0.6185349999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>0.446446</v>
+        <v>0.237387</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.447658</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5897,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.301649</v>
+        <v>0.308947</v>
       </c>
       <c r="C88" t="n">
-        <v>0.597956</v>
+        <v>0.588422</v>
       </c>
       <c r="D88" t="n">
-        <v>0.229584</v>
+        <v>0.595915</v>
       </c>
       <c r="E88" t="n">
-        <v>0.445709</v>
+        <v>0.226356</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.443279</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5917,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.292638</v>
+        <v>0.29965</v>
       </c>
       <c r="C89" t="n">
-        <v>0.593432</v>
+        <v>0.680476</v>
       </c>
       <c r="D89" t="n">
-        <v>0.229471</v>
+        <v>0.594676</v>
       </c>
       <c r="E89" t="n">
-        <v>0.4444</v>
+        <v>0.220505</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.442475</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5937,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.281878</v>
+        <v>0.289642</v>
       </c>
       <c r="C90" t="n">
-        <v>0.5890069999999999</v>
+        <v>0.561833</v>
       </c>
       <c r="D90" t="n">
-        <v>0.228495</v>
+        <v>0.592426</v>
       </c>
       <c r="E90" t="n">
-        <v>0.443205</v>
+        <v>0.235597</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.441752</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5957,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.271215</v>
+        <v>0.27873</v>
       </c>
       <c r="C91" t="n">
-        <v>0.584329</v>
+        <v>0.567867</v>
       </c>
       <c r="D91" t="n">
-        <v>0.227813</v>
+        <v>0.586166</v>
       </c>
       <c r="E91" t="n">
-        <v>0.442779</v>
+        <v>0.227622</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.44139</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5977,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.259441</v>
+        <v>0.267449</v>
       </c>
       <c r="C92" t="n">
-        <v>0.626093</v>
+        <v>0.495412</v>
       </c>
       <c r="D92" t="n">
-        <v>0.226744</v>
+        <v>0.635459</v>
       </c>
       <c r="E92" t="n">
-        <v>0.442274</v>
+        <v>0.233948</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.442326</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5997,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.246709</v>
+        <v>0.254385</v>
       </c>
       <c r="C93" t="n">
-        <v>0.627533</v>
+        <v>0.594733</v>
       </c>
       <c r="D93" t="n">
-        <v>0.225943</v>
+        <v>0.613611</v>
       </c>
       <c r="E93" t="n">
-        <v>0.442326</v>
+        <v>0.233508</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.441022</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +6017,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.23317</v>
+        <v>0.240359</v>
       </c>
       <c r="C94" t="n">
-        <v>0.627757</v>
+        <v>0.569233</v>
       </c>
       <c r="D94" t="n">
-        <v>0.238165</v>
+        <v>0.625737</v>
       </c>
       <c r="E94" t="n">
-        <v>0.457082</v>
+        <v>0.248819</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.455771</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +6037,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.352907</v>
+        <v>0.359418</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6253649999999999</v>
+        <v>0.7536079999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.240422</v>
+        <v>0.621842</v>
       </c>
       <c r="E95" t="n">
-        <v>0.45578</v>
+        <v>0.238634</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.453978</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +6057,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.346861</v>
+        <v>0.354408</v>
       </c>
       <c r="C96" t="n">
-        <v>0.618526</v>
+        <v>0.707273</v>
       </c>
       <c r="D96" t="n">
-        <v>0.236076</v>
+        <v>0.617573</v>
       </c>
       <c r="E96" t="n">
-        <v>0.454337</v>
+        <v>0.235415</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.452439</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +6077,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.341285</v>
+        <v>0.348142</v>
       </c>
       <c r="C97" t="n">
-        <v>0.614008</v>
+        <v>0.728878</v>
       </c>
       <c r="D97" t="n">
-        <v>0.233438</v>
+        <v>0.61448</v>
       </c>
       <c r="E97" t="n">
-        <v>0.452758</v>
+        <v>0.234424</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.450615</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +6097,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.334344</v>
+        <v>0.341606</v>
       </c>
       <c r="C98" t="n">
-        <v>0.6088440000000001</v>
+        <v>0.662196</v>
       </c>
       <c r="D98" t="n">
-        <v>0.232149</v>
+        <v>0.608847</v>
       </c>
       <c r="E98" t="n">
-        <v>0.451254</v>
+        <v>0.233094</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.448911</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +6117,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.327098</v>
+        <v>0.335122</v>
       </c>
       <c r="C99" t="n">
-        <v>0.59287</v>
+        <v>0.667401</v>
       </c>
       <c r="D99" t="n">
-        <v>0.231894</v>
+        <v>0.595245</v>
       </c>
       <c r="E99" t="n">
-        <v>0.450185</v>
+        <v>0.232068</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.447279</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +6137,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.319331</v>
+        <v>0.32688</v>
       </c>
       <c r="C100" t="n">
-        <v>0.588013</v>
+        <v>0.569846</v>
       </c>
       <c r="D100" t="n">
-        <v>0.231014</v>
+        <v>0.594584</v>
       </c>
       <c r="E100" t="n">
-        <v>0.448689</v>
+        <v>0.224142</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.445785</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +6157,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311491</v>
+        <v>0.319161</v>
       </c>
       <c r="C101" t="n">
-        <v>0.584296</v>
+        <v>0.59679</v>
       </c>
       <c r="D101" t="n">
-        <v>0.230318</v>
+        <v>0.587452</v>
       </c>
       <c r="E101" t="n">
-        <v>0.447298</v>
+        <v>0.228602</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.444837</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +6177,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.303049</v>
+        <v>0.310593</v>
       </c>
       <c r="C102" t="n">
-        <v>0.579148</v>
+        <v>0.639213</v>
       </c>
       <c r="D102" t="n">
-        <v>0.229741</v>
+        <v>0.590192</v>
       </c>
       <c r="E102" t="n">
-        <v>0.446585</v>
+        <v>0.23753</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.444488</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +6197,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.293746</v>
+        <v>0.301731</v>
       </c>
       <c r="C103" t="n">
-        <v>0.574844</v>
+        <v>0.581727</v>
       </c>
       <c r="D103" t="n">
-        <v>0.241786</v>
+        <v>0.584137</v>
       </c>
       <c r="E103" t="n">
-        <v>0.44534</v>
+        <v>0.228367</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.442509</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +6217,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.283989</v>
+        <v>0.292168</v>
       </c>
       <c r="C104" t="n">
-        <v>0.571715</v>
+        <v>0.584404</v>
       </c>
       <c r="D104" t="n">
-        <v>0.229458</v>
+        <v>0.576299</v>
       </c>
       <c r="E104" t="n">
-        <v>0.444494</v>
+        <v>0.235673</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.442071</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +6237,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.273744</v>
+        <v>0.281923</v>
       </c>
       <c r="C105" t="n">
-        <v>0.568051</v>
+        <v>0.586583</v>
       </c>
       <c r="D105" t="n">
-        <v>0.227931</v>
+        <v>0.573657</v>
       </c>
       <c r="E105" t="n">
-        <v>0.443233</v>
+        <v>0.232198</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.441491</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +6257,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.262377</v>
+        <v>0.270044</v>
       </c>
       <c r="C106" t="n">
-        <v>0.564271</v>
+        <v>0.5981959999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.227527</v>
+        <v>0.5684439999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>0.442385</v>
+        <v>0.234546</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.441501</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +6277,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.249858</v>
+        <v>0.257501</v>
       </c>
       <c r="C107" t="n">
-        <v>0.606757</v>
+        <v>0.5909</v>
       </c>
       <c r="D107" t="n">
-        <v>0.226823</v>
+        <v>0.630432</v>
       </c>
       <c r="E107" t="n">
-        <v>0.442781</v>
+        <v>0.232756</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.441362</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +6297,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.236287</v>
+        <v>0.243888</v>
       </c>
       <c r="C108" t="n">
-        <v>0.604234</v>
+        <v>0.561461</v>
       </c>
       <c r="D108" t="n">
-        <v>0.239282</v>
+        <v>0.625678</v>
       </c>
       <c r="E108" t="n">
-        <v>0.458117</v>
+        <v>0.240714</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.456424</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +6317,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.221123</v>
+        <v>0.228938</v>
       </c>
       <c r="C109" t="n">
-        <v>0.600239</v>
+        <v>0.507443</v>
       </c>
       <c r="D109" t="n">
-        <v>0.232233</v>
+        <v>0.61115</v>
       </c>
       <c r="E109" t="n">
-        <v>0.456696</v>
+        <v>0.238588</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.454422</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6337,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.34767</v>
+        <v>0.355435</v>
       </c>
       <c r="C110" t="n">
-        <v>0.598608</v>
+        <v>0.695802</v>
       </c>
       <c r="D110" t="n">
-        <v>0.235132</v>
+        <v>0.605983</v>
       </c>
       <c r="E110" t="n">
-        <v>0.454826</v>
+        <v>0.236792</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.452436</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6357,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341633</v>
+        <v>0.349528</v>
       </c>
       <c r="C111" t="n">
-        <v>0.595858</v>
+        <v>0.63386</v>
       </c>
       <c r="D111" t="n">
-        <v>0.233312</v>
+        <v>0.602438</v>
       </c>
       <c r="E111" t="n">
-        <v>0.453368</v>
+        <v>0.236375</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.45051</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6377,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.335704</v>
+        <v>0.343524</v>
       </c>
       <c r="C112" t="n">
-        <v>0.593226</v>
+        <v>0.582477</v>
       </c>
       <c r="D112" t="n">
-        <v>0.232833</v>
+        <v>0.598047</v>
       </c>
       <c r="E112" t="n">
-        <v>0.451892</v>
+        <v>0.23794</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.448908</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6397,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.328586</v>
+        <v>0.336503</v>
       </c>
       <c r="C113" t="n">
-        <v>0.604468</v>
+        <v>0.601111</v>
       </c>
       <c r="D113" t="n">
-        <v>0.231779</v>
+        <v>0.608137</v>
       </c>
       <c r="E113" t="n">
-        <v>0.450997</v>
+        <v>0.232569</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.447571</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6417,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.321376</v>
+        <v>0.328809</v>
       </c>
       <c r="C114" t="n">
-        <v>0.597368</v>
+        <v>0.599199</v>
       </c>
       <c r="D114" t="n">
-        <v>0.231335</v>
+        <v>0.5999370000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>0.449704</v>
+        <v>0.232288</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.446487</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6437,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313586</v>
+        <v>0.321306</v>
       </c>
       <c r="C115" t="n">
-        <v>0.593426</v>
+        <v>0.580524</v>
       </c>
       <c r="D115" t="n">
-        <v>0.230643</v>
+        <v>0.595041</v>
       </c>
       <c r="E115" t="n">
-        <v>0.448323</v>
+        <v>0.230767</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.445031</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6457,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.305221</v>
+        <v>0.313036</v>
       </c>
       <c r="C116" t="n">
-        <v>0.586877</v>
+        <v>0.714125</v>
       </c>
       <c r="D116" t="n">
-        <v>0.229597</v>
+        <v>0.588955</v>
       </c>
       <c r="E116" t="n">
-        <v>0.447289</v>
+        <v>0.24907</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.443833</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6477,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.296011</v>
+        <v>0.303632</v>
       </c>
       <c r="C117" t="n">
-        <v>0.580384</v>
+        <v>0.615312</v>
       </c>
       <c r="D117" t="n">
-        <v>0.229139</v>
+        <v>0.577801</v>
       </c>
       <c r="E117" t="n">
-        <v>0.446159</v>
+        <v>0.227644</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.442732</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6497,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.286654</v>
+        <v>0.294068</v>
       </c>
       <c r="C118" t="n">
-        <v>0.574218</v>
+        <v>0.580098</v>
       </c>
       <c r="D118" t="n">
-        <v>0.22802</v>
+        <v>0.577994</v>
       </c>
       <c r="E118" t="n">
-        <v>0.445194</v>
+        <v>0.248365</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.442021</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6517,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.276245</v>
+        <v>0.283452</v>
       </c>
       <c r="C119" t="n">
-        <v>0.568939</v>
+        <v>0.57523</v>
       </c>
       <c r="D119" t="n">
-        <v>0.228143</v>
+        <v>0.569451</v>
       </c>
       <c r="E119" t="n">
-        <v>0.443919</v>
+        <v>0.235065</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.441593</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6537,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.264667</v>
+        <v>0.27255</v>
       </c>
       <c r="C120" t="n">
-        <v>0.563777</v>
+        <v>0.568601</v>
       </c>
       <c r="D120" t="n">
-        <v>0.243116</v>
+        <v>0.56651</v>
       </c>
       <c r="E120" t="n">
-        <v>0.443122</v>
+        <v>0.234144</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.441656</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6557,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.252418</v>
+        <v>0.260491</v>
       </c>
       <c r="C121" t="n">
-        <v>0.642865</v>
+        <v>0.554258</v>
       </c>
       <c r="D121" t="n">
-        <v>0.226847</v>
+        <v>0.643342</v>
       </c>
       <c r="E121" t="n">
-        <v>0.442335</v>
+        <v>0.233708</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.441326</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6577,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.239498</v>
+        <v>0.247064</v>
       </c>
       <c r="C122" t="n">
-        <v>0.641834</v>
+        <v>0.511433</v>
       </c>
       <c r="D122" t="n">
-        <v>0.226547</v>
+        <v>0.626093</v>
       </c>
       <c r="E122" t="n">
-        <v>0.442219</v>
+        <v>0.234073</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.440826</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6597,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.225263</v>
+        <v>0.2329</v>
       </c>
       <c r="C123" t="n">
-        <v>0.638679</v>
+        <v>0.542605</v>
       </c>
       <c r="D123" t="n">
-        <v>0.237959</v>
+        <v>0.637931</v>
       </c>
       <c r="E123" t="n">
-        <v>0.45704</v>
+        <v>0.245799</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.455103</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6617,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.34951</v>
+        <v>0.357137</v>
       </c>
       <c r="C124" t="n">
-        <v>0.632491</v>
+        <v>0.560743</v>
       </c>
       <c r="D124" t="n">
-        <v>0.236048</v>
+        <v>0.630927</v>
       </c>
       <c r="E124" t="n">
-        <v>0.455138</v>
+        <v>0.238531</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.45315</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6637,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.343717</v>
+        <v>0.351008</v>
       </c>
       <c r="C125" t="n">
-        <v>0.630809</v>
+        <v>0.740413</v>
       </c>
       <c r="D125" t="n">
-        <v>0.234057</v>
+        <v>0.630867</v>
       </c>
       <c r="E125" t="n">
-        <v>0.453814</v>
+        <v>0.237395</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.451249</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6657,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.337284</v>
+        <v>0.344666</v>
       </c>
       <c r="C126" t="n">
-        <v>0.621821</v>
+        <v>0.723315</v>
       </c>
       <c r="D126" t="n">
-        <v>0.233287</v>
+        <v>0.62296</v>
       </c>
       <c r="E126" t="n">
-        <v>0.452015</v>
+        <v>0.235391</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.449732</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6677,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.330316</v>
+        <v>0.337901</v>
       </c>
       <c r="C127" t="n">
-        <v>0.603274</v>
+        <v>0.591306</v>
       </c>
       <c r="D127" t="n">
-        <v>0.232358</v>
+        <v>0.60992</v>
       </c>
       <c r="E127" t="n">
-        <v>0.45105</v>
+        <v>0.234971</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.448646</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6697,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.323051</v>
+        <v>0.330696</v>
       </c>
       <c r="C128" t="n">
-        <v>0.598797</v>
+        <v>0.612433</v>
       </c>
       <c r="D128" t="n">
-        <v>0.230931</v>
+        <v>0.60225</v>
       </c>
       <c r="E128" t="n">
-        <v>0.449845</v>
+        <v>0.233726</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.446604</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6717,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315239</v>
+        <v>0.322713</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5920530000000001</v>
+        <v>0.560978</v>
       </c>
       <c r="D129" t="n">
-        <v>0.230775</v>
+        <v>0.595704</v>
       </c>
       <c r="E129" t="n">
-        <v>0.448577</v>
+        <v>0.230017</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.445392</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6737,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.307101</v>
+        <v>0.314243</v>
       </c>
       <c r="C130" t="n">
-        <v>0.586734</v>
+        <v>0.566422</v>
       </c>
       <c r="D130" t="n">
-        <v>0.229869</v>
+        <v>0.591913</v>
       </c>
       <c r="E130" t="n">
-        <v>0.447479</v>
+        <v>0.231407</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.444362</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6757,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.29829</v>
+        <v>0.305607</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5857019999999999</v>
+        <v>0.560028</v>
       </c>
       <c r="D131" t="n">
-        <v>0.229258</v>
+        <v>0.585982</v>
       </c>
       <c r="E131" t="n">
-        <v>0.446419</v>
+        <v>0.228394</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.443326</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6777,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.288455</v>
+        <v>0.296725</v>
       </c>
       <c r="C132" t="n">
-        <v>0.578364</v>
+        <v>0.667566</v>
       </c>
       <c r="D132" t="n">
-        <v>0.244773</v>
+        <v>0.585726</v>
       </c>
       <c r="E132" t="n">
-        <v>0.445381</v>
+        <v>0.220374</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.442891</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6797,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.278787</v>
+        <v>0.285547</v>
       </c>
       <c r="C133" t="n">
-        <v>0.575453</v>
+        <v>0.596849</v>
       </c>
       <c r="D133" t="n">
-        <v>0.227428</v>
+        <v>0.57803</v>
       </c>
       <c r="E133" t="n">
-        <v>0.443912</v>
+        <v>0.234359</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.441871</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6817,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.267823</v>
+        <v>0.274602</v>
       </c>
       <c r="C134" t="n">
-        <v>0.570339</v>
+        <v>0.584661</v>
       </c>
       <c r="D134" t="n">
-        <v>0.227091</v>
+        <v>0.574554</v>
       </c>
       <c r="E134" t="n">
-        <v>0.44344</v>
+        <v>0.219474</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.441262</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6837,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.255611</v>
+        <v>0.26285</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6327430000000001</v>
+        <v>0.529852</v>
       </c>
       <c r="D135" t="n">
-        <v>0.227563</v>
+        <v>0.648446</v>
       </c>
       <c r="E135" t="n">
-        <v>0.442437</v>
+        <v>0.218631</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.441386</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6857,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.242553</v>
+        <v>0.250505</v>
       </c>
       <c r="C136" t="n">
-        <v>0.632077</v>
+        <v>0.518417</v>
       </c>
       <c r="D136" t="n">
-        <v>0.226409</v>
+        <v>0.628976</v>
       </c>
       <c r="E136" t="n">
-        <v>0.442085</v>
+        <v>0.245382</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.441496</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6877,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.227977</v>
+        <v>0.235665</v>
       </c>
       <c r="C137" t="n">
-        <v>0.622901</v>
+        <v>0.494522</v>
       </c>
       <c r="D137" t="n">
-        <v>0.239449</v>
+        <v>0.641946</v>
       </c>
       <c r="E137" t="n">
-        <v>0.45781</v>
+        <v>0.247811</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.455344</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6897,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350207</v>
+        <v>0.359747</v>
       </c>
       <c r="C138" t="n">
-        <v>0.619112</v>
+        <v>0.6454</v>
       </c>
       <c r="D138" t="n">
-        <v>0.239175</v>
+        <v>0.622491</v>
       </c>
       <c r="E138" t="n">
-        <v>0.455968</v>
+        <v>0.242552</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.453403</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6917,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344573</v>
+        <v>0.352982</v>
       </c>
       <c r="C139" t="n">
-        <v>0.615723</v>
+        <v>0.603999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.235094</v>
+        <v>0.622466</v>
       </c>
       <c r="E139" t="n">
-        <v>0.454926</v>
+        <v>0.239293</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.45162</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6937,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338504</v>
+        <v>0.346731</v>
       </c>
       <c r="C140" t="n">
-        <v>0.610954</v>
+        <v>0.634634</v>
       </c>
       <c r="D140" t="n">
-        <v>0.234078</v>
+        <v>0.616791</v>
       </c>
       <c r="E140" t="n">
-        <v>0.452986</v>
+        <v>0.234864</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.450057</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6957,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331917</v>
+        <v>0.34037</v>
       </c>
       <c r="C141" t="n">
-        <v>0.62593</v>
+        <v>0.589194</v>
       </c>
       <c r="D141" t="n">
-        <v>0.232698</v>
+        <v>0.621877</v>
       </c>
       <c r="E141" t="n">
-        <v>0.451959</v>
+        <v>0.235683</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.448343</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6977,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324853</v>
+        <v>0.332305</v>
       </c>
       <c r="C142" t="n">
-        <v>0.616523</v>
+        <v>0.568538</v>
       </c>
       <c r="D142" t="n">
-        <v>0.231938</v>
+        <v>0.616235</v>
       </c>
       <c r="E142" t="n">
-        <v>0.450451</v>
+        <v>0.236717</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.446919</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6997,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.31702</v>
+        <v>0.32498</v>
       </c>
       <c r="C143" t="n">
-        <v>0.610204</v>
+        <v>0.618482</v>
       </c>
       <c r="D143" t="n">
-        <v>0.230983</v>
+        <v>0.608569</v>
       </c>
       <c r="E143" t="n">
-        <v>0.449331</v>
+        <v>0.23373</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.445611</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.298413</v>
+                  <v>0.304371</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.288034</v>
+                  <v>0.295031</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.278789</v>
+                  <v>0.284917</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.269933</v>
+                  <v>0.275537</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.257662</v>
+                  <v>0.262501</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.247278</v>
+                  <v>0.250121</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.237657</v>
+                  <v>0.239745</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.219518</v>
+                  <v>0.223555</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.346375</v>
+                  <v>0.351222</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.340133</v>
+                  <v>0.345501</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.335329</v>
+                  <v>0.341381</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.327844</v>
+                  <v>0.332991</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.321876</v>
+                  <v>0.327263</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.313361</v>
+                  <v>0.320084</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.30571</v>
+                  <v>0.311357</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.298597</v>
+                  <v>0.303976</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.287369</v>
+                  <v>0.293581</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.277925</v>
+                  <v>0.28342</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.266344</v>
+                  <v>0.273086</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.254837</v>
+                  <v>0.263106</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.241773</v>
+                  <v>0.24849</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.228243</v>
+                  <v>0.236755</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.349328</v>
+                  <v>0.355884</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.343276</v>
+                  <v>0.349467</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.337186</v>
+                  <v>0.345003</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.330804</v>
+                  <v>0.339665</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.3235</v>
+                  <v>0.331543</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.316977</v>
+                  <v>0.323645</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.30768</v>
+                  <v>0.315105</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.299252</v>
+                  <v>0.307562</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.291588</v>
+                  <v>0.297846</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.282393</v>
+                  <v>0.288986</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.270276</v>
+                  <v>0.278358</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.260408</v>
+                  <v>0.266202</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.247188</v>
+                  <v>0.253784</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.232125</v>
+                  <v>0.240122</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.350187</v>
+                  <v>0.357762</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.345144</v>
+                  <v>0.35285</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.339513</v>
+                  <v>0.347125</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.332753</v>
+                  <v>0.341003</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.32665</v>
+                  <v>0.333796</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.318169</v>
+                  <v>0.326292</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.311481</v>
+                  <v>0.319265</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.303545</v>
+                  <v>0.310607</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.294798</v>
+                  <v>0.301706</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.285317</v>
+                  <v>0.291815</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.274202</v>
+                  <v>0.281752</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.262268</v>
+                  <v>0.270986</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.249809</v>
+                  <v>0.257126</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.237113</v>
+                  <v>0.243224</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.221109</v>
+                  <v>0.228771</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.347352</v>
+                  <v>0.354427</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.342509</v>
+                  <v>0.349232</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.336153</v>
+                  <v>0.343318</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.328808</v>
+                  <v>0.335848</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.321373</v>
+                  <v>0.328263</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.314241</v>
+                  <v>0.321926</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.305585</v>
+                  <v>0.312672</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.296438</v>
+                  <v>0.303478</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.287585</v>
+                  <v>0.294632</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.276811</v>
+                  <v>0.284439</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.26616</v>
+                  <v>0.273184</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.25371</v>
+                  <v>0.260823</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.240653</v>
+                  <v>0.247689</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.225887</v>
+                  <v>0.233566</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.349202</v>
+                  <v>0.35622</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.344229</v>
+                  <v>0.351166</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.338547</v>
+                  <v>0.344921</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.331412</v>
+                  <v>0.338021</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.323835</v>
+                  <v>0.331175</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.316334</v>
+                  <v>0.323417</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.308239</v>
+                  <v>0.315422</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.299843</v>
+                  <v>0.306722</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.290084</v>
+                  <v>0.296953</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.279749</v>
+                  <v>0.287853</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.269023</v>
+                  <v>0.27672</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.256666</v>
+                  <v>0.264389</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.243481</v>
+                  <v>0.251714</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.229881</v>
+                  <v>0.238236</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.35152</v>
+                  <v>0.358121</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.345973</v>
+                  <v>0.352857</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.339541</v>
+                  <v>0.346191</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.333117</v>
+                  <v>0.339807</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.325987</v>
+                  <v>0.332715</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.318604</v>
+                  <v>0.325098</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.31032</v>
+                  <v>0.317255</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.301421</v>
+                  <v>0.308947</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.292327</v>
+                  <v>0.29965</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.282041</v>
+                  <v>0.289642</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.271533</v>
+                  <v>0.27873</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.25944</v>
+                  <v>0.267449</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.24667</v>
+                  <v>0.254385</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.233503</v>
+                  <v>0.240359</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.352631</v>
+                  <v>0.359418</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.347226</v>
+                  <v>0.354408</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.341693</v>
+                  <v>0.348142</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.334804</v>
+                  <v>0.341606</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.326765</v>
+                  <v>0.335122</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.31927</v>
+                  <v>0.32688</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.311446</v>
+                  <v>0.319161</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.303093</v>
+                  <v>0.310593</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.293615</v>
+                  <v>0.301731</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.284288</v>
+                  <v>0.292168</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.273767</v>
+                  <v>0.281923</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.262891</v>
+                  <v>0.270044</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.250343</v>
+                  <v>0.257501</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.236228</v>
+                  <v>0.243888</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.221288</v>
+                  <v>0.228938</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.348031</v>
+                  <v>0.355435</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.341979</v>
+                  <v>0.349528</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.335679</v>
+                  <v>0.343524</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.328737</v>
+                  <v>0.336503</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.321719</v>
+                  <v>0.328809</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.313808</v>
+                  <v>0.321306</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.305442</v>
+                  <v>0.313036</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.296396</v>
+                  <v>0.303632</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.286686</v>
+                  <v>0.294068</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.276739</v>
+                  <v>0.283452</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.264944</v>
+                  <v>0.27255</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.252693</v>
+                  <v>0.260491</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.239622</v>
+                  <v>0.247064</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.225119</v>
+                  <v>0.2329</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.349508</v>
+                  <v>0.357137</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.343503</v>
+                  <v>0.351008</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.337546</v>
+                  <v>0.344666</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.330175</v>
+                  <v>0.337901</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.322878</v>
+                  <v>0.330696</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.31518</v>
+                  <v>0.322713</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.30687</v>
+                  <v>0.314243</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.29799</v>
+                  <v>0.305607</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.288627</v>
+                  <v>0.296725</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.278746</v>
+                  <v>0.285547</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.267232</v>
+                  <v>0.274602</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.255283</v>
+                  <v>0.26285</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.242626</v>
+                  <v>0.250505</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.228118</v>
+                  <v>0.235665</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.349994</v>
+                  <v>0.359747</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.345145</v>
+                  <v>0.352982</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.338491</v>
+                  <v>0.346731</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.33188</v>
+                  <v>0.34037</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.324902</v>
+                  <v>0.332305</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.316669</v>
+                  <v>0.32498</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.411609</v>
+                  <v>0.506654</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.411977</v>
+                  <v>0.50215</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.411772</v>
+                  <v>0.488342</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.416951</v>
+                  <v>0.48453</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.418027</v>
+                  <v>0.472894</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.415876</v>
+                  <v>0.462148</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.416749</v>
+                  <v>0.444593</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.421715</v>
+                  <v>0.433347</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.422559</v>
+                  <v>0.55304</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.422451</v>
+                  <v>0.550527</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.422003</v>
+                  <v>0.546631</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.422252</v>
+                  <v>0.540646</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.422761</v>
+                  <v>0.533587</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.422773</v>
+                  <v>0.526484</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.421197</v>
+                  <v>0.518077</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.424083</v>
+                  <v>0.511826</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.425123</v>
+                  <v>0.50102</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.429464</v>
+                  <v>0.490095</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.427366</v>
+                  <v>0.479483</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.423426</v>
+                  <v>0.462333</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.424178</v>
+                  <v>0.456075</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.423874</v>
+                  <v>0.434848</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.426062</v>
+                  <v>0.555904</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.423422</v>
+                  <v>0.5534829999999999</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.42468</v>
+                  <v>0.547705</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.424679</v>
+                  <v>0.540248</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.42473</v>
+                  <v>0.532802</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.427744</v>
+                  <v>0.5322210000000001</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.42783</v>
+                  <v>0.521279</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.428255</v>
+                  <v>0.505707</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.430547</v>
+                  <v>0.5061369999999999</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.429405</v>
+                  <v>0.491651</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.432236</v>
+                  <v>0.477669</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.430854</v>
+                  <v>0.46752</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.432112</v>
+                  <v>0.454027</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.432886</v>
+                  <v>0.449264</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.435808</v>
+                  <v>0.554921</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.432315</v>
+                  <v>0.55033</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.431213</v>
+                  <v>0.545076</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.42977</v>
+                  <v>0.538236</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.428895</v>
+                  <v>0.534287</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.43367</v>
+                  <v>0.526761</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.433385</v>
+                  <v>0.5224490000000001</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.431565</v>
+                  <v>0.511124</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.432556</v>
+                  <v>0.506965</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.433181</v>
+                  <v>0.497444</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.436153</v>
+                  <v>0.486593</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.435149</v>
+                  <v>0.470839</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.435236</v>
+                  <v>0.46345</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.434708</v>
+                  <v>0.448198</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.437158</v>
+                  <v>0.434002</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.440263</v>
+                  <v>0.558423</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.437786</v>
+                  <v>0.55179</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.439816</v>
+                  <v>0.561003</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.439977</v>
+                  <v>0.550256</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.442471</v>
+                  <v>0.553038</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.444021</v>
+                  <v>0.54948</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.445818</v>
+                  <v>0.546733</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.449223</v>
+                  <v>0.521427</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.452434</v>
+                  <v>0.535142</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.456366</v>
+                  <v>0.502904</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.458246</v>
+                  <v>0.516694</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.498799</v>
+                  <v>0.498166</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.5029130000000001</v>
+                  <v>0.490264</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.511957</v>
+                  <v>0.469681</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.514965</v>
+                  <v>0.633176</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.524957</v>
+                  <v>0.583539</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.534544</v>
+                  <v>0.577754</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.538811</v>
+                  <v>0.671334</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.544359</v>
+                  <v>0.652548</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.548325</v>
+                  <v>0.66098</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.5532010000000001</v>
+                  <v>0.6153380000000001</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.555992</v>
+                  <v>0.61896</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.557736</v>
+                  <v>0.6575299999999999</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.563326</v>
+                  <v>0.592041</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.56404</v>
+                  <v>0.626704</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.653254</v>
+                  <v>0.615424</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.660412</v>
+                  <v>0.545651</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.658581</v>
+                  <v>0.500311</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.657954</v>
+                  <v>0.651335</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.658157</v>
+                  <v>0.67153</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.6551979999999999</v>
+                  <v>0.637837</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.645533</v>
+                  <v>0.722647</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.641848</v>
+                  <v>0.676119</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.63461</v>
+                  <v>0.707666</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.629529</v>
+                  <v>0.713676</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.6232220000000001</v>
+                  <v>0.588422</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.619605</v>
+                  <v>0.680476</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.613752</v>
+                  <v>0.561833</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.60766</v>
+                  <v>0.567867</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.658497</v>
+                  <v>0.495412</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.663013</v>
+                  <v>0.594733</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.657873</v>
+                  <v>0.569233</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.654489</v>
+                  <v>0.7536079999999999</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.649574</v>
+                  <v>0.707273</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.64694</v>
+                  <v>0.728878</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.639351</v>
+                  <v>0.662196</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.620764</v>
+                  <v>0.667401</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.616088</v>
+                  <v>0.569846</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.614525</v>
+                  <v>0.59679</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.607548</v>
+                  <v>0.639213</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.601038</v>
+                  <v>0.581727</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.596801</v>
+                  <v>0.584404</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.591697</v>
+                  <v>0.586583</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.587694</v>
+                  <v>0.5981959999999999</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.640188</v>
+                  <v>0.5909</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.638332</v>
+                  <v>0.561461</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.6339129999999999</v>
+                  <v>0.507443</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.632704</v>
+                  <v>0.695802</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.627268</v>
+                  <v>0.63386</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.622659</v>
+                  <v>0.582477</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.633715</v>
+                  <v>0.601111</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.628261</v>
+                  <v>0.599199</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.619938</v>
+                  <v>0.580524</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.613422</v>
+                  <v>0.714125</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.605618</v>
+                  <v>0.615312</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.598843</v>
+                  <v>0.580098</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.592942</v>
+                  <v>0.57523</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.585945</v>
+                  <v>0.568601</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.681295</v>
+                  <v>0.554258</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.6775949999999999</v>
+                  <v>0.511433</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.673036</v>
+                  <v>0.542605</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.6675450000000001</v>
+                  <v>0.560743</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.660743</v>
+                  <v>0.740413</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.654674</v>
+                  <v>0.723315</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.633206</v>
+                  <v>0.591306</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.62645</v>
+                  <v>0.612433</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.620229</v>
+                  <v>0.560978</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.61448</v>
+                  <v>0.566422</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.609698</v>
+                  <v>0.560028</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.604922</v>
+                  <v>0.667566</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.598563</v>
+                  <v>0.596849</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.594102</v>
+                  <v>0.584661</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.669145</v>
+                  <v>0.529852</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.6596689999999999</v>
+                  <v>0.518417</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.65676</v>
+                  <v>0.494522</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.649668</v>
+                  <v>0.6454</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.645827</v>
+                  <v>0.603999</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.641247</v>
+                  <v>0.634634</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.6528350000000001</v>
+                  <v>0.589194</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.646197</v>
+                  <v>0.568538</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.636951</v>
+                  <v>0.618482</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.207165</v>
+                  <v>0.421298</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.210195</v>
+                  <v>0.419952</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.214327</v>
+                  <v>0.420682</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.214251</v>
+                  <v>0.422915</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.213044</v>
+                  <v>0.423573</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.214821</v>
+                  <v>0.420496</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.216882</v>
+                  <v>0.42011</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.231912</v>
+                  <v>0.420845</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.232268</v>
+                  <v>0.4201</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.2317</v>
+                  <v>0.42087</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.231128</v>
+                  <v>0.421585</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.230494</v>
+                  <v>0.422056</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.229564</v>
+                  <v>0.423963</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.229128</v>
+                  <v>0.422738</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.228525</v>
+                  <v>0.42458</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.227161</v>
+                  <v>0.427067</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.226236</v>
+                  <v>0.428607</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.225108</v>
+                  <v>0.430277</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.224976</v>
+                  <v>0.429895</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.225056</v>
+                  <v>0.423466</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.22441</v>
+                  <v>0.424</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.24818</v>
+                  <v>0.42532</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.242812</v>
+                  <v>0.426161</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.238308</v>
+                  <v>0.427655</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.236974</v>
+                  <v>0.427185</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.235294</v>
+                  <v>0.429011</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.233242</v>
+                  <v>0.428615</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.232321</v>
+                  <v>0.429487</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.231257</v>
+                  <v>0.430495</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.230327</v>
+                  <v>0.432634</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.231206</v>
+                  <v>0.432936</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.227639</v>
+                  <v>0.43371</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.227153</v>
+                  <v>0.434963</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.226736</v>
+                  <v>0.43242</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.226481</v>
+                  <v>0.432196</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.236893</v>
+                  <v>0.433016</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.236548</v>
+                  <v>0.432176</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.234186</v>
+                  <v>0.43146</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.234022</v>
+                  <v>0.43113</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.232676</v>
+                  <v>0.431969</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.231308</v>
+                  <v>0.431909</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.230823</v>
+                  <v>0.432636</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.230255</v>
+                  <v>0.433106</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.229768</v>
+                  <v>0.434592</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.228679</v>
+                  <v>0.435411</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.229101</v>
+                  <v>0.435796</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.227914</v>
+                  <v>0.43738</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.228034</v>
+                  <v>0.438499</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.236479</v>
+                  <v>0.438616</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.240971</v>
+                  <v>0.438257</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.235475</v>
+                  <v>0.439713</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.234737</v>
+                  <v>0.439222</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.233257</v>
+                  <v>0.453804</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.232552</v>
+                  <v>0.454566</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.231263</v>
+                  <v>0.455911</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.230742</v>
+                  <v>0.457104</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.230593</v>
+                  <v>0.462783</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.229914</v>
+                  <v>0.460078</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.229283</v>
+                  <v>0.463537</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.227853</v>
+                  <v>0.451533</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.227629</v>
+                  <v>0.455199</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.227912</v>
+                  <v>0.457775</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.227594</v>
+                  <v>0.495312</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.227137</v>
+                  <v>0.492602</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.241196</v>
+                  <v>0.49525</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.238097</v>
+                  <v>0.507919</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.236494</v>
+                  <v>0.5184569999999999</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.234559</v>
+                  <v>0.520193</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.233478</v>
+                  <v>0.527458</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.232525</v>
+                  <v>0.532347</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.231683</v>
+                  <v>0.537696</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.230502</v>
+                  <v>0.542574</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.229665</v>
+                  <v>0.544343</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.229284</v>
+                  <v>0.54484</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.227695</v>
+                  <v>0.548659</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.243184</v>
+                  <v>0.54971</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.226986</v>
+                  <v>0.61983</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.227027</v>
+                  <v>0.6299630000000001</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.240792</v>
+                  <v>0.633503</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.237641</v>
+                  <v>0.638954</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.235841</v>
+                  <v>0.635583</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.234166</v>
+                  <v>0.63191</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.233585</v>
+                  <v>0.622075</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.232636</v>
+                  <v>0.624816</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.231404</v>
+                  <v>0.620545</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.230561</v>
+                  <v>0.6185349999999999</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.22987</v>
+                  <v>0.595915</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.22989</v>
+                  <v>0.594676</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.228296</v>
+                  <v>0.592426</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.226945</v>
+                  <v>0.586166</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.227676</v>
+                  <v>0.635459</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.226896</v>
+                  <v>0.613611</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.240586</v>
+                  <v>0.625737</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.232662</v>
+                  <v>0.621842</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.235757</v>
+                  <v>0.617573</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.234638</v>
+                  <v>0.61448</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.232964</v>
+                  <v>0.608847</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.232349</v>
+                  <v>0.595245</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.231618</v>
+                  <v>0.594584</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.230662</v>
+                  <v>0.587452</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.229995</v>
+                  <v>0.590192</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.230504</v>
+                  <v>0.584137</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.228729</v>
+                  <v>0.576299</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.22823</v>
+                  <v>0.573657</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.22774</v>
+                  <v>0.5684439999999999</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.227789</v>
+                  <v>0.630432</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.24068</v>
+                  <v>0.625678</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.241256</v>
+                  <v>0.61115</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.236318</v>
+                  <v>0.605983</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.23463</v>
+                  <v>0.602438</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.233818</v>
+                  <v>0.598047</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.232762</v>
+                  <v>0.608137</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.231901</v>
+                  <v>0.5999370000000001</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.230949</v>
+                  <v>0.595041</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.230455</v>
+                  <v>0.588955</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.229614</v>
+                  <v>0.577801</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.229358</v>
+                  <v>0.577994</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.228511</v>
+                  <v>0.569451</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.227408</v>
+                  <v>0.56651</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.22702</v>
+                  <v>0.643342</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.2293</v>
+                  <v>0.626093</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.238918</v>
+                  <v>0.637931</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.236223</v>
+                  <v>0.630927</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.23412</v>
+                  <v>0.630867</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.233083</v>
+                  <v>0.62296</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.232062</v>
+                  <v>0.60992</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.231311</v>
+                  <v>0.60225</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.230271</v>
+                  <v>0.595704</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.230555</v>
+                  <v>0.591913</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.229355</v>
+                  <v>0.585982</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.237792</v>
+                  <v>0.585726</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.227335</v>
+                  <v>0.57803</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.237807</v>
+                  <v>0.574554</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.242724</v>
+                  <v>0.648446</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.241328</v>
+                  <v>0.628976</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.238703</v>
+                  <v>0.641946</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.239879</v>
+                  <v>0.622491</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.235794</v>
+                  <v>0.622466</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.234127</v>
+                  <v>0.616791</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.234207</v>
+                  <v>0.621877</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.232149</v>
+                  <v>0.616235</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.23146</v>
+                  <v>0.608569</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.436157</v>
+                  <v>0.212626</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.435756</v>
+                  <v>0.214984</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.433597</v>
+                  <v>0.21509</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.433654</v>
+                  <v>0.20113</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.433921</v>
+                  <v>0.219794</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.431052</v>
+                  <v>0.220184</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.429652</v>
+                  <v>0.20299</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.451401</v>
+                  <v>0.235621</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.450108</v>
+                  <v>0.22065</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.449534</v>
+                  <v>0.219409</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.449211</v>
+                  <v>0.233696</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.446397</v>
+                  <v>0.225092</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.445493</v>
+                  <v>0.219124</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.44529</v>
+                  <v>0.217411</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.443445</v>
+                  <v>0.218082</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.442772</v>
+                  <v>0.234036</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.441791</v>
+                  <v>0.216283</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.441673</v>
+                  <v>0.216054</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.4415</v>
+                  <v>0.216596</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.439573</v>
+                  <v>0.22349</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.440005</v>
+                  <v>0.230876</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.456351</v>
+                  <v>0.245968</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.45536</v>
+                  <v>0.234735</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.454595</v>
+                  <v>0.227349</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.452192</v>
+                  <v>0.225532</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.450145</v>
+                  <v>0.253259</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.449534</v>
+                  <v>0.2233</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.447784</v>
+                  <v>0.222302</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.44713</v>
+                  <v>0.221272</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.445492</v>
+                  <v>0.220361</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.445061</v>
+                  <v>0.219766</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.4434</v>
+                  <v>0.219191</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.4434</v>
+                  <v>0.23452</v>
                 </pt>
                 <pt idx="33">
+                  <v>0.233706</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.246461</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.249286</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.229982</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.22774</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.226948</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.225516</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.224179</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.223401</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.222631</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.221183</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.220074</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.220305</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.224034</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.223038</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.218704</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.234155</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.231101</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.229155</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.226922</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.226214</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.226047</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.223889</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.223718</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.222203</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.222136</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.235621</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.220396</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.219544</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.218501</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.233035</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.245432</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.231904</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.230822</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.229404</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.228029</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.226696</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.225254</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.22565</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.224902</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.234719</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.222955</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.222621</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.233591</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.233262</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.24966</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.236141</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.234364</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.232397</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.230706</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.230974</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.238435</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.237387</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.226356</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.220505</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.235597</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.227622</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.233948</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.233508</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.248819</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.238634</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.235415</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.234424</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.233094</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.232068</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.224142</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.228602</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.23753</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.228367</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.235673</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.232198</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.234546</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.232756</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.240714</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.238588</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.236792</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.236375</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.23794</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.232569</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.232288</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.230767</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.24907</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.227644</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.248365</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.235065</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.234144</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.233708</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.234073</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.245799</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.238531</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.237395</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.235391</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.234971</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.233726</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.230017</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.231407</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.228394</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.220374</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.234359</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.219474</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.218631</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.245382</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.247811</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.242552</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.239293</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.234864</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.235683</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.236717</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.23373</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.436004</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.436454</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.43566</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.43648</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.43624</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.437452</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.434218</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.449235</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.449175</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.448639</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.447914</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.445731</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.44315</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.445027</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.440087</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.442653</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.439492</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.438842</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.439404</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.438552</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.43883</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.454845</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.452068</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.449972</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.449709</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.447564</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.446285</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.44434</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.444063</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.442231</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.440894</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.440639</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.440589</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.44014</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.440125</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.454911</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.452604</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.45098</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.449518</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.448445</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.446763</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.445374</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.444028</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.442774</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.442286</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.441693</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.440931</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.441305</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.440817</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.456185</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.45447</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.451956</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.453166</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.451718</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.450042</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.448851</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.447412</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.44631</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.442989</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.441692</v>
+                </pt>
+                <pt idx="60">
                   <v>0.440929</v>
                 </pt>
-                <pt idx="34">
-                  <v>0.441816</v>
-                </pt>
-                <pt idx="35">
-                  <v>0.457177</v>
-                </pt>
-                <pt idx="36">
-                  <v>0.455291</v>
-                </pt>
-                <pt idx="37">
-                  <v>0.453556</v>
-                </pt>
-                <pt idx="38">
-                  <v>0.452749</v>
-                </pt>
-                <pt idx="39">
-                  <v>0.451916</v>
-                </pt>
-                <pt idx="40">
-                  <v>0.450624</v>
-                </pt>
-                <pt idx="41">
-                  <v>0.448877</v>
-                </pt>
-                <pt idx="42">
-                  <v>0.447284</v>
-                </pt>
-                <pt idx="43">
-                  <v>0.445932</v>
-                </pt>
-                <pt idx="44">
-                  <v>0.445601</v>
-                </pt>
-                <pt idx="45">
-                  <v>0.444708</v>
-                </pt>
-                <pt idx="46">
-                  <v>0.443912</v>
-                </pt>
-                <pt idx="47">
-                  <v>0.443038</v>
-                </pt>
-                <pt idx="48">
-                  <v>0.441659</v>
-                </pt>
-                <pt idx="49">
-                  <v>0.45759</v>
-                </pt>
-                <pt idx="50">
-                  <v>0.456115</v>
-                </pt>
-                <pt idx="51">
-                  <v>0.454915</v>
-                </pt>
-                <pt idx="52">
-                  <v>0.453853</v>
-                </pt>
-                <pt idx="53">
-                  <v>0.452078</v>
-                </pt>
-                <pt idx="54">
-                  <v>0.450578</v>
-                </pt>
-                <pt idx="55">
-                  <v>0.449688</v>
-                </pt>
-                <pt idx="56">
-                  <v>0.447677</v>
-                </pt>
-                <pt idx="57">
-                  <v>0.447248</v>
-                </pt>
-                <pt idx="58">
-                  <v>0.446416</v>
-                </pt>
-                <pt idx="59">
-                  <v>0.445424</v>
-                </pt>
-                <pt idx="60">
-                  <v>0.443623</v>
-                </pt>
                 <pt idx="61">
-                  <v>0.443154</v>
+                  <v>0.440425</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.442308</v>
+                  <v>0.440366</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.441904</v>
+                  <v>0.440035</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.45762</v>
+                  <v>0.454831</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.456184</v>
+                  <v>0.453316</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.454339</v>
+                  <v>0.451454</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.452838</v>
+                  <v>0.449569</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.451259</v>
+                  <v>0.44772</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.45011</v>
+                  <v>0.446489</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.448958</v>
+                  <v>0.44499</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.447944</v>
+                  <v>0.443594</v>
                 </pt>
                 <pt idx="72">
+                  <v>0.443575</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.442238</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.441259</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.441251</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.441104</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.440658</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.455567</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.456642</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.454581</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.45296</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.451166</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.449888</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.448855</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.447658</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.443279</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.442475</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.441752</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.44139</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.442326</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.441022</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.455771</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.453978</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.452439</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.450615</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.448911</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.447279</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.445785</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.444837</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.444488</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.442509</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.442071</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.441491</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.441501</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.441362</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.456424</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.454422</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.452436</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.45051</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.448908</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.447571</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.446487</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.445031</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.443833</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.442732</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.442021</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.441593</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.441656</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.441326</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.440826</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.455103</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.45315</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.451249</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.449732</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.448646</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.446604</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.445392</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.444362</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.443326</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.442891</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.441871</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.441262</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.441386</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.441496</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.455344</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.453403</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.45162</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.450057</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.448343</v>
+                </pt>
+                <pt idx="140">
                   <v>0.446919</v>
                 </pt>
-                <pt idx="73">
-                  <v>0.446065</v>
-                </pt>
-                <pt idx="74">
-                  <v>0.444861</v>
-                </pt>
-                <pt idx="75">
-                  <v>0.443984</v>
-                </pt>
-                <pt idx="76">
-                  <v>0.442706</v>
-                </pt>
-                <pt idx="77">
-                  <v>0.442363</v>
-                </pt>
-                <pt idx="78">
-                  <v>0.456936</v>
-                </pt>
-                <pt idx="79">
-                  <v>0.455533</v>
-                </pt>
-                <pt idx="80">
-                  <v>0.453649</v>
-                </pt>
-                <pt idx="81">
-                  <v>0.452278</v>
-                </pt>
-                <pt idx="82">
-                  <v>0.450611</v>
-                </pt>
-                <pt idx="83">
-                  <v>0.449588</v>
-                </pt>
-                <pt idx="84">
-                  <v>0.448884</v>
-                </pt>
-                <pt idx="85">
-                  <v>0.447027</v>
-                </pt>
-                <pt idx="86">
-                  <v>0.445619</v>
-                </pt>
-                <pt idx="87">
-                  <v>0.445092</v>
-                </pt>
-                <pt idx="88">
-                  <v>0.44379</v>
-                </pt>
-                <pt idx="89">
-                  <v>0.442904</v>
-                </pt>
-                <pt idx="90">
-                  <v>0.442478</v>
-                </pt>
-                <pt idx="91">
-                  <v>0.441677</v>
-                </pt>
-                <pt idx="92">
-                  <v>0.457646</v>
-                </pt>
-                <pt idx="93">
-                  <v>0.456127</v>
-                </pt>
-                <pt idx="94">
-                  <v>0.454454</v>
-                </pt>
-                <pt idx="95">
-                  <v>0.453131</v>
-                </pt>
-                <pt idx="96">
-                  <v>0.451853</v>
-                </pt>
-                <pt idx="97">
-                  <v>0.450277</v>
-                </pt>
-                <pt idx="98">
-                  <v>0.449006</v>
-                </pt>
-                <pt idx="99">
-                  <v>0.447938</v>
-                </pt>
-                <pt idx="100">
-                  <v>0.446857</v>
-                </pt>
-                <pt idx="101">
-                  <v>0.445734</v>
-                </pt>
-                <pt idx="102">
-                  <v>0.444905</v>
-                </pt>
-                <pt idx="103">
-                  <v>0.443424</v>
-                </pt>
-                <pt idx="104">
-                  <v>0.443013</v>
-                </pt>
-                <pt idx="105">
-                  <v>0.442383</v>
-                </pt>
-                <pt idx="106">
-                  <v>0.458514</v>
-                </pt>
-                <pt idx="107">
-                  <v>0.457071</v>
-                </pt>
-                <pt idx="108">
-                  <v>0.455267</v>
-                </pt>
-                <pt idx="109">
-                  <v>0.453791</v>
-                </pt>
-                <pt idx="110">
-                  <v>0.45239</v>
-                </pt>
-                <pt idx="111">
-                  <v>0.451266</v>
-                </pt>
-                <pt idx="112">
-                  <v>0.449917</v>
-                </pt>
-                <pt idx="113">
-                  <v>0.448684</v>
-                </pt>
-                <pt idx="114">
-                  <v>0.447792</v>
-                </pt>
-                <pt idx="115">
-                  <v>0.446418</v>
-                </pt>
-                <pt idx="116">
-                  <v>0.445246</v>
-                </pt>
-                <pt idx="117">
-                  <v>0.44434</v>
-                </pt>
-                <pt idx="118">
-                  <v>0.443472</v>
-                </pt>
-                <pt idx="119">
-                  <v>0.442547</v>
-                </pt>
-                <pt idx="120">
-                  <v>0.441681</v>
-                </pt>
-                <pt idx="121">
-                  <v>0.45723</v>
-                </pt>
-                <pt idx="122">
-                  <v>0.455557</v>
-                </pt>
-                <pt idx="123">
-                  <v>0.454194</v>
-                </pt>
-                <pt idx="124">
-                  <v>0.452569</v>
-                </pt>
-                <pt idx="125">
-                  <v>0.451199</v>
-                </pt>
-                <pt idx="126">
-                  <v>0.449943</v>
-                </pt>
-                <pt idx="127">
-                  <v>0.448835</v>
-                </pt>
-                <pt idx="128">
-                  <v>0.447724</v>
-                </pt>
-                <pt idx="129">
-                  <v>0.4467</v>
-                </pt>
-                <pt idx="130">
-                  <v>0.445671</v>
-                </pt>
-                <pt idx="131">
-                  <v>0.444547</v>
-                </pt>
-                <pt idx="132">
-                  <v>0.44371</v>
-                </pt>
-                <pt idx="133">
-                  <v>0.442892</v>
-                </pt>
-                <pt idx="134">
-                  <v>0.442082</v>
-                </pt>
-                <pt idx="135">
-                  <v>0.457914</v>
-                </pt>
-                <pt idx="136">
-                  <v>0.456222</v>
-                </pt>
-                <pt idx="137">
-                  <v>0.454824</v>
-                </pt>
-                <pt idx="138">
-                  <v>0.453369</v>
-                </pt>
-                <pt idx="139">
-                  <v>0.452085</v>
-                </pt>
-                <pt idx="140">
-                  <v>0.450735</v>
-                </pt>
                 <pt idx="141">
-                  <v>0.449397</v>
+                  <v>0.445611</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3750,6 +4652,7 @@
         <axId val="163989376"/>
         <scaling>
           <orientation val="minMax"/>
+          <max val="0.9"/>
         </scaling>
         <delete val="0"/>
         <axPos val="l"/>
@@ -3792,7 +4695,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4142,7 +5045,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4158,15 +5061,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.304371</v>
+        <v>0.306067</v>
       </c>
       <c r="C2" t="n">
-        <v>0.506654</v>
+        <v>0.507233</v>
       </c>
       <c r="D2" t="n">
-        <v>0.421298</v>
+        <v>0.421132</v>
       </c>
       <c r="E2" t="n">
-        <v>0.212626</v>
+        <v>0.195118</v>
       </c>
       <c r="F2" t="n">
-        <v>0.436004</v>
+        <v>0.438061</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.295031</v>
+        <v>0.29674</v>
       </c>
       <c r="C3" t="n">
-        <v>0.50215</v>
+        <v>0.506038</v>
       </c>
       <c r="D3" t="n">
-        <v>0.419952</v>
+        <v>0.423251</v>
       </c>
       <c r="E3" t="n">
-        <v>0.214984</v>
+        <v>0.205844</v>
       </c>
       <c r="F3" t="n">
-        <v>0.436454</v>
+        <v>0.437845</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.284917</v>
+        <v>0.28715</v>
       </c>
       <c r="C4" t="n">
-        <v>0.488342</v>
+        <v>0.492411</v>
       </c>
       <c r="D4" t="n">
-        <v>0.420682</v>
+        <v>0.424878</v>
       </c>
       <c r="E4" t="n">
-        <v>0.21509</v>
+        <v>0.217056</v>
       </c>
       <c r="F4" t="n">
-        <v>0.43566</v>
+        <v>0.434018</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.275537</v>
+        <v>0.277282</v>
       </c>
       <c r="C5" t="n">
-        <v>0.48453</v>
+        <v>0.483968</v>
       </c>
       <c r="D5" t="n">
-        <v>0.422915</v>
+        <v>0.42218</v>
       </c>
       <c r="E5" t="n">
-        <v>0.20113</v>
+        <v>0.215554</v>
       </c>
       <c r="F5" t="n">
-        <v>0.43648</v>
+        <v>0.435577</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.262501</v>
+        <v>0.263738</v>
       </c>
       <c r="C6" t="n">
-        <v>0.472894</v>
+        <v>0.473678</v>
       </c>
       <c r="D6" t="n">
-        <v>0.423573</v>
+        <v>0.424403</v>
       </c>
       <c r="E6" t="n">
-        <v>0.219794</v>
+        <v>0.215516</v>
       </c>
       <c r="F6" t="n">
-        <v>0.43624</v>
+        <v>0.435228</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.250121</v>
+        <v>0.253144</v>
       </c>
       <c r="C7" t="n">
-        <v>0.462148</v>
+        <v>0.462446</v>
       </c>
       <c r="D7" t="n">
-        <v>0.420496</v>
+        <v>0.418593</v>
       </c>
       <c r="E7" t="n">
-        <v>0.220184</v>
+        <v>0.219323</v>
       </c>
       <c r="F7" t="n">
-        <v>0.437452</v>
+        <v>0.433829</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.239745</v>
+        <v>0.24292</v>
       </c>
       <c r="C8" t="n">
-        <v>0.444593</v>
+        <v>0.443706</v>
       </c>
       <c r="D8" t="n">
-        <v>0.42011</v>
+        <v>0.420944</v>
       </c>
       <c r="E8" t="n">
-        <v>0.20299</v>
+        <v>0.219583</v>
       </c>
       <c r="F8" t="n">
-        <v>0.434218</v>
+        <v>0.434078</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.223555</v>
+        <v>0.226379</v>
       </c>
       <c r="C9" t="n">
-        <v>0.433347</v>
+        <v>0.432832</v>
       </c>
       <c r="D9" t="n">
-        <v>0.420845</v>
+        <v>0.420356</v>
       </c>
       <c r="E9" t="n">
-        <v>0.235621</v>
+        <v>0.235845</v>
       </c>
       <c r="F9" t="n">
-        <v>0.449235</v>
+        <v>0.448911</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.351222</v>
+        <v>0.351562</v>
       </c>
       <c r="C10" t="n">
-        <v>0.55304</v>
+        <v>0.553217</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4201</v>
+        <v>0.420242</v>
       </c>
       <c r="E10" t="n">
-        <v>0.22065</v>
+        <v>0.220185</v>
       </c>
       <c r="F10" t="n">
-        <v>0.449175</v>
+        <v>0.449246</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.345501</v>
+        <v>0.345524</v>
       </c>
       <c r="C11" t="n">
-        <v>0.550527</v>
+        <v>0.550604</v>
       </c>
       <c r="D11" t="n">
-        <v>0.42087</v>
+        <v>0.42241</v>
       </c>
       <c r="E11" t="n">
-        <v>0.219409</v>
+        <v>0.219174</v>
       </c>
       <c r="F11" t="n">
-        <v>0.448639</v>
+        <v>0.449992</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.341381</v>
+        <v>0.342008</v>
       </c>
       <c r="C12" t="n">
-        <v>0.546631</v>
+        <v>0.547091</v>
       </c>
       <c r="D12" t="n">
-        <v>0.421585</v>
+        <v>0.421526</v>
       </c>
       <c r="E12" t="n">
-        <v>0.233696</v>
+        <v>0.220208</v>
       </c>
       <c r="F12" t="n">
-        <v>0.447914</v>
+        <v>0.447233</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.332991</v>
+        <v>0.332861</v>
       </c>
       <c r="C13" t="n">
-        <v>0.540646</v>
+        <v>0.541168</v>
       </c>
       <c r="D13" t="n">
-        <v>0.422056</v>
+        <v>0.422313</v>
       </c>
       <c r="E13" t="n">
-        <v>0.225092</v>
+        <v>0.218843</v>
       </c>
       <c r="F13" t="n">
-        <v>0.445731</v>
+        <v>0.446291</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.327263</v>
+        <v>0.327336</v>
       </c>
       <c r="C14" t="n">
-        <v>0.533587</v>
+        <v>0.5340009999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.423963</v>
+        <v>0.42396</v>
       </c>
       <c r="E14" t="n">
-        <v>0.219124</v>
+        <v>0.219234</v>
       </c>
       <c r="F14" t="n">
-        <v>0.44315</v>
+        <v>0.443406</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.320084</v>
+        <v>0.320536</v>
       </c>
       <c r="C15" t="n">
-        <v>0.526484</v>
+        <v>0.527021</v>
       </c>
       <c r="D15" t="n">
-        <v>0.422738</v>
+        <v>0.423767</v>
       </c>
       <c r="E15" t="n">
-        <v>0.217411</v>
+        <v>0.234323</v>
       </c>
       <c r="F15" t="n">
-        <v>0.445027</v>
+        <v>0.443436</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.311357</v>
+        <v>0.312176</v>
       </c>
       <c r="C16" t="n">
-        <v>0.518077</v>
+        <v>0.518384</v>
       </c>
       <c r="D16" t="n">
-        <v>0.42458</v>
+        <v>0.425385</v>
       </c>
       <c r="E16" t="n">
-        <v>0.218082</v>
+        <v>0.219083</v>
       </c>
       <c r="F16" t="n">
-        <v>0.440087</v>
+        <v>0.442998</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.303976</v>
+        <v>0.304322</v>
       </c>
       <c r="C17" t="n">
-        <v>0.511826</v>
+        <v>0.5122370000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.427067</v>
+        <v>0.427721</v>
       </c>
       <c r="E17" t="n">
-        <v>0.234036</v>
+        <v>0.233776</v>
       </c>
       <c r="F17" t="n">
-        <v>0.442653</v>
+        <v>0.4423</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.293581</v>
+        <v>0.293847</v>
       </c>
       <c r="C18" t="n">
-        <v>0.50102</v>
+        <v>0.50142</v>
       </c>
       <c r="D18" t="n">
-        <v>0.428607</v>
+        <v>0.429317</v>
       </c>
       <c r="E18" t="n">
-        <v>0.216283</v>
+        <v>0.215801</v>
       </c>
       <c r="F18" t="n">
-        <v>0.439492</v>
+        <v>0.439241</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.28342</v>
+        <v>0.283186</v>
       </c>
       <c r="C19" t="n">
-        <v>0.490095</v>
+        <v>0.490914</v>
       </c>
       <c r="D19" t="n">
-        <v>0.430277</v>
+        <v>0.430708</v>
       </c>
       <c r="E19" t="n">
-        <v>0.216054</v>
+        <v>0.216104</v>
       </c>
       <c r="F19" t="n">
-        <v>0.438842</v>
+        <v>0.439595</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.273086</v>
+        <v>0.273339</v>
       </c>
       <c r="C20" t="n">
-        <v>0.479483</v>
+        <v>0.479402</v>
       </c>
       <c r="D20" t="n">
-        <v>0.429895</v>
+        <v>0.430473</v>
       </c>
       <c r="E20" t="n">
-        <v>0.216596</v>
+        <v>0.216604</v>
       </c>
       <c r="F20" t="n">
-        <v>0.439404</v>
+        <v>0.439313</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.263106</v>
+        <v>0.262964</v>
       </c>
       <c r="C21" t="n">
-        <v>0.462333</v>
+        <v>0.462699</v>
       </c>
       <c r="D21" t="n">
-        <v>0.423466</v>
+        <v>0.424299</v>
       </c>
       <c r="E21" t="n">
-        <v>0.22349</v>
+        <v>0.21512</v>
       </c>
       <c r="F21" t="n">
-        <v>0.438552</v>
+        <v>0.438441</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.24849</v>
+        <v>0.248808</v>
       </c>
       <c r="C22" t="n">
-        <v>0.456075</v>
+        <v>0.456161</v>
       </c>
       <c r="D22" t="n">
-        <v>0.424</v>
+        <v>0.425374</v>
       </c>
       <c r="E22" t="n">
-        <v>0.230876</v>
+        <v>0.21618</v>
       </c>
       <c r="F22" t="n">
-        <v>0.43883</v>
+        <v>0.438631</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.236755</v>
+        <v>0.23495</v>
       </c>
       <c r="C23" t="n">
-        <v>0.434848</v>
+        <v>0.435405</v>
       </c>
       <c r="D23" t="n">
-        <v>0.42532</v>
+        <v>0.426984</v>
       </c>
       <c r="E23" t="n">
-        <v>0.245968</v>
+        <v>0.247137</v>
       </c>
       <c r="F23" t="n">
-        <v>0.454845</v>
+        <v>0.454694</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.355884</v>
+        <v>0.355974</v>
       </c>
       <c r="C24" t="n">
-        <v>0.555904</v>
+        <v>0.555665</v>
       </c>
       <c r="D24" t="n">
-        <v>0.426161</v>
+        <v>0.426518</v>
       </c>
       <c r="E24" t="n">
-        <v>0.234735</v>
+        <v>0.244979</v>
       </c>
       <c r="F24" t="n">
-        <v>0.452068</v>
+        <v>0.451889</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.349467</v>
+        <v>0.350524</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5534829999999999</v>
+        <v>0.553266</v>
       </c>
       <c r="D25" t="n">
-        <v>0.427655</v>
+        <v>0.427929</v>
       </c>
       <c r="E25" t="n">
-        <v>0.227349</v>
+        <v>0.256639</v>
       </c>
       <c r="F25" t="n">
-        <v>0.449972</v>
+        <v>0.450091</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.345003</v>
+        <v>0.344269</v>
       </c>
       <c r="C26" t="n">
-        <v>0.547705</v>
+        <v>0.547397</v>
       </c>
       <c r="D26" t="n">
-        <v>0.427185</v>
+        <v>0.4277</v>
       </c>
       <c r="E26" t="n">
-        <v>0.225532</v>
+        <v>0.226076</v>
       </c>
       <c r="F26" t="n">
-        <v>0.449709</v>
+        <v>0.449682</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.339665</v>
+        <v>0.339022</v>
       </c>
       <c r="C27" t="n">
-        <v>0.540248</v>
+        <v>0.540594</v>
       </c>
       <c r="D27" t="n">
-        <v>0.429011</v>
+        <v>0.429134</v>
       </c>
       <c r="E27" t="n">
-        <v>0.253259</v>
+        <v>0.22546</v>
       </c>
       <c r="F27" t="n">
-        <v>0.447564</v>
+        <v>0.446791</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.331543</v>
+        <v>0.331456</v>
       </c>
       <c r="C28" t="n">
-        <v>0.532802</v>
+        <v>0.531946</v>
       </c>
       <c r="D28" t="n">
-        <v>0.428615</v>
+        <v>0.429076</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2233</v>
+        <v>0.238767</v>
       </c>
       <c r="F28" t="n">
-        <v>0.446285</v>
+        <v>0.446781</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.323645</v>
+        <v>0.323602</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5322210000000001</v>
+        <v>0.532497</v>
       </c>
       <c r="D29" t="n">
-        <v>0.429487</v>
+        <v>0.429634</v>
       </c>
       <c r="E29" t="n">
-        <v>0.222302</v>
+        <v>0.222284</v>
       </c>
       <c r="F29" t="n">
-        <v>0.44434</v>
+        <v>0.444391</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.315105</v>
+        <v>0.315096</v>
       </c>
       <c r="C30" t="n">
-        <v>0.521279</v>
+        <v>0.521379</v>
       </c>
       <c r="D30" t="n">
-        <v>0.430495</v>
+        <v>0.430843</v>
       </c>
       <c r="E30" t="n">
-        <v>0.221272</v>
+        <v>0.221135</v>
       </c>
       <c r="F30" t="n">
-        <v>0.444063</v>
+        <v>0.443997</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.307562</v>
+        <v>0.307135</v>
       </c>
       <c r="C31" t="n">
-        <v>0.505707</v>
+        <v>0.506593</v>
       </c>
       <c r="D31" t="n">
-        <v>0.432634</v>
+        <v>0.432898</v>
       </c>
       <c r="E31" t="n">
-        <v>0.220361</v>
+        <v>0.220841</v>
       </c>
       <c r="F31" t="n">
-        <v>0.442231</v>
+        <v>0.442282</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.297846</v>
+        <v>0.297721</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5061369999999999</v>
+        <v>0.50623</v>
       </c>
       <c r="D32" t="n">
-        <v>0.432936</v>
+        <v>0.433458</v>
       </c>
       <c r="E32" t="n">
-        <v>0.219766</v>
+        <v>0.219929</v>
       </c>
       <c r="F32" t="n">
-        <v>0.440894</v>
+        <v>0.440802</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.288986</v>
+        <v>0.288769</v>
       </c>
       <c r="C33" t="n">
-        <v>0.491651</v>
+        <v>0.491855</v>
       </c>
       <c r="D33" t="n">
-        <v>0.43371</v>
+        <v>0.433962</v>
       </c>
       <c r="E33" t="n">
-        <v>0.219191</v>
+        <v>0.219525</v>
       </c>
       <c r="F33" t="n">
-        <v>0.440639</v>
+        <v>0.440695</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.278358</v>
+        <v>0.278191</v>
       </c>
       <c r="C34" t="n">
-        <v>0.477669</v>
+        <v>0.478133</v>
       </c>
       <c r="D34" t="n">
-        <v>0.434963</v>
+        <v>0.435487</v>
       </c>
       <c r="E34" t="n">
-        <v>0.23452</v>
+        <v>0.219489</v>
       </c>
       <c r="F34" t="n">
-        <v>0.440589</v>
+        <v>0.440285</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.266202</v>
+        <v>0.266191</v>
       </c>
       <c r="C35" t="n">
-        <v>0.46752</v>
+        <v>0.468009</v>
       </c>
       <c r="D35" t="n">
-        <v>0.43242</v>
+        <v>0.432048</v>
       </c>
       <c r="E35" t="n">
-        <v>0.233706</v>
+        <v>0.234457</v>
       </c>
       <c r="F35" t="n">
-        <v>0.44014</v>
+        <v>0.440029</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.253784</v>
+        <v>0.254145</v>
       </c>
       <c r="C36" t="n">
-        <v>0.454027</v>
+        <v>0.454508</v>
       </c>
       <c r="D36" t="n">
-        <v>0.432196</v>
+        <v>0.432262</v>
       </c>
       <c r="E36" t="n">
-        <v>0.246461</v>
+        <v>0.220858</v>
       </c>
       <c r="F36" t="n">
-        <v>0.440125</v>
+        <v>0.440289</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.240122</v>
+        <v>0.240171</v>
       </c>
       <c r="C37" t="n">
-        <v>0.449264</v>
+        <v>0.449608</v>
       </c>
       <c r="D37" t="n">
-        <v>0.433016</v>
+        <v>0.433049</v>
       </c>
       <c r="E37" t="n">
-        <v>0.249286</v>
+        <v>0.234607</v>
       </c>
       <c r="F37" t="n">
-        <v>0.454911</v>
+        <v>0.454768</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.357762</v>
+        <v>0.357993</v>
       </c>
       <c r="C38" t="n">
-        <v>0.554921</v>
+        <v>0.555253</v>
       </c>
       <c r="D38" t="n">
-        <v>0.432176</v>
+        <v>0.432702</v>
       </c>
       <c r="E38" t="n">
-        <v>0.229982</v>
+        <v>0.230491</v>
       </c>
       <c r="F38" t="n">
-        <v>0.452604</v>
+        <v>0.452478</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.35285</v>
+        <v>0.35316</v>
       </c>
       <c r="C39" t="n">
-        <v>0.55033</v>
+        <v>0.550766</v>
       </c>
       <c r="D39" t="n">
-        <v>0.43146</v>
+        <v>0.432178</v>
       </c>
       <c r="E39" t="n">
-        <v>0.22774</v>
+        <v>0.227704</v>
       </c>
       <c r="F39" t="n">
-        <v>0.45098</v>
+        <v>0.45073</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.347125</v>
+        <v>0.347378</v>
       </c>
       <c r="C40" t="n">
-        <v>0.545076</v>
+        <v>0.545557</v>
       </c>
       <c r="D40" t="n">
-        <v>0.43113</v>
+        <v>0.432654</v>
       </c>
       <c r="E40" t="n">
-        <v>0.226948</v>
+        <v>0.226853</v>
       </c>
       <c r="F40" t="n">
-        <v>0.449518</v>
+        <v>0.449602</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.341003</v>
+        <v>0.341203</v>
       </c>
       <c r="C41" t="n">
-        <v>0.538236</v>
+        <v>0.538771</v>
       </c>
       <c r="D41" t="n">
-        <v>0.431969</v>
+        <v>0.432295</v>
       </c>
       <c r="E41" t="n">
-        <v>0.225516</v>
+        <v>0.225537</v>
       </c>
       <c r="F41" t="n">
-        <v>0.448445</v>
+        <v>0.448431</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.333796</v>
+        <v>0.333895</v>
       </c>
       <c r="C42" t="n">
-        <v>0.534287</v>
+        <v>0.534544</v>
       </c>
       <c r="D42" t="n">
-        <v>0.431909</v>
+        <v>0.43196</v>
       </c>
       <c r="E42" t="n">
-        <v>0.224179</v>
+        <v>0.22395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.446763</v>
+        <v>0.446641</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.326292</v>
+        <v>0.326435</v>
       </c>
       <c r="C43" t="n">
-        <v>0.526761</v>
+        <v>0.52694</v>
       </c>
       <c r="D43" t="n">
-        <v>0.432636</v>
+        <v>0.433471</v>
       </c>
       <c r="E43" t="n">
-        <v>0.223401</v>
+        <v>0.223337</v>
       </c>
       <c r="F43" t="n">
-        <v>0.445374</v>
+        <v>0.445238</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.319265</v>
+        <v>0.319343</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5224490000000001</v>
+        <v>0.522638</v>
       </c>
       <c r="D44" t="n">
-        <v>0.433106</v>
+        <v>0.434341</v>
       </c>
       <c r="E44" t="n">
-        <v>0.222631</v>
+        <v>0.222335</v>
       </c>
       <c r="F44" t="n">
-        <v>0.444028</v>
+        <v>0.444083</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.310607</v>
+        <v>0.310746</v>
       </c>
       <c r="C45" t="n">
-        <v>0.511124</v>
+        <v>0.511251</v>
       </c>
       <c r="D45" t="n">
-        <v>0.434592</v>
+        <v>0.434708</v>
       </c>
       <c r="E45" t="n">
-        <v>0.221183</v>
+        <v>0.221313</v>
       </c>
       <c r="F45" t="n">
-        <v>0.442774</v>
+        <v>0.442573</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.301706</v>
+        <v>0.301953</v>
       </c>
       <c r="C46" t="n">
-        <v>0.506965</v>
+        <v>0.506641</v>
       </c>
       <c r="D46" t="n">
-        <v>0.435411</v>
+        <v>0.43603</v>
       </c>
       <c r="E46" t="n">
-        <v>0.220074</v>
+        <v>0.220079</v>
       </c>
       <c r="F46" t="n">
-        <v>0.442286</v>
+        <v>0.442071</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.291815</v>
+        <v>0.291472</v>
       </c>
       <c r="C47" t="n">
-        <v>0.497444</v>
+        <v>0.497505</v>
       </c>
       <c r="D47" t="n">
-        <v>0.435796</v>
+        <v>0.43641</v>
       </c>
       <c r="E47" t="n">
-        <v>0.220305</v>
+        <v>0.220206</v>
       </c>
       <c r="F47" t="n">
-        <v>0.441693</v>
+        <v>0.441277</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.281752</v>
+        <v>0.281786</v>
       </c>
       <c r="C48" t="n">
-        <v>0.486593</v>
+        <v>0.486522</v>
       </c>
       <c r="D48" t="n">
-        <v>0.43738</v>
+        <v>0.437884</v>
       </c>
       <c r="E48" t="n">
-        <v>0.224034</v>
+        <v>0.219502</v>
       </c>
       <c r="F48" t="n">
-        <v>0.440931</v>
+        <v>0.441037</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.270986</v>
+        <v>0.270637</v>
       </c>
       <c r="C49" t="n">
-        <v>0.470839</v>
+        <v>0.470771</v>
       </c>
       <c r="D49" t="n">
-        <v>0.438499</v>
+        <v>0.438689</v>
       </c>
       <c r="E49" t="n">
-        <v>0.223038</v>
+        <v>0.218755</v>
       </c>
       <c r="F49" t="n">
-        <v>0.441305</v>
+        <v>0.441025</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.257126</v>
+        <v>0.257101</v>
       </c>
       <c r="C50" t="n">
-        <v>0.46345</v>
+        <v>0.463986</v>
       </c>
       <c r="D50" t="n">
-        <v>0.438616</v>
+        <v>0.43872</v>
       </c>
       <c r="E50" t="n">
-        <v>0.218704</v>
+        <v>0.218485</v>
       </c>
       <c r="F50" t="n">
-        <v>0.440817</v>
+        <v>0.440705</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.243224</v>
+        <v>0.243749</v>
       </c>
       <c r="C51" t="n">
-        <v>0.448198</v>
+        <v>0.448185</v>
       </c>
       <c r="D51" t="n">
-        <v>0.438257</v>
+        <v>0.437899</v>
       </c>
       <c r="E51" t="n">
-        <v>0.234155</v>
+        <v>0.257677</v>
       </c>
       <c r="F51" t="n">
-        <v>0.456185</v>
+        <v>0.455968</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.228771</v>
+        <v>0.228999</v>
       </c>
       <c r="C52" t="n">
-        <v>0.434002</v>
+        <v>0.43348</v>
       </c>
       <c r="D52" t="n">
-        <v>0.439713</v>
+        <v>0.437388</v>
       </c>
       <c r="E52" t="n">
-        <v>0.231101</v>
+        <v>0.246849</v>
       </c>
       <c r="F52" t="n">
-        <v>0.45447</v>
+        <v>0.454226</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.354427</v>
+        <v>0.354676</v>
       </c>
       <c r="C53" t="n">
-        <v>0.558423</v>
+        <v>0.557912</v>
       </c>
       <c r="D53" t="n">
-        <v>0.439222</v>
+        <v>0.438724</v>
       </c>
       <c r="E53" t="n">
-        <v>0.229155</v>
+        <v>0.229216</v>
       </c>
       <c r="F53" t="n">
-        <v>0.451956</v>
+        <v>0.451926</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.349232</v>
+        <v>0.349511</v>
       </c>
       <c r="C54" t="n">
-        <v>0.55179</v>
+        <v>0.552605</v>
       </c>
       <c r="D54" t="n">
-        <v>0.453804</v>
+        <v>0.439103</v>
       </c>
       <c r="E54" t="n">
-        <v>0.226922</v>
+        <v>0.227825</v>
       </c>
       <c r="F54" t="n">
-        <v>0.453166</v>
+        <v>0.450223</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.343318</v>
+        <v>0.343358</v>
       </c>
       <c r="C55" t="n">
-        <v>0.561003</v>
+        <v>0.552316</v>
       </c>
       <c r="D55" t="n">
-        <v>0.454566</v>
+        <v>0.439531</v>
       </c>
       <c r="E55" t="n">
-        <v>0.226214</v>
+        <v>0.227007</v>
       </c>
       <c r="F55" t="n">
-        <v>0.451718</v>
+        <v>0.448816</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.335848</v>
+        <v>0.336288</v>
       </c>
       <c r="C56" t="n">
-        <v>0.550256</v>
+        <v>0.545589</v>
       </c>
       <c r="D56" t="n">
-        <v>0.455911</v>
+        <v>0.442759</v>
       </c>
       <c r="E56" t="n">
-        <v>0.226047</v>
+        <v>0.225184</v>
       </c>
       <c r="F56" t="n">
-        <v>0.450042</v>
+        <v>0.446693</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.328263</v>
+        <v>0.328264</v>
       </c>
       <c r="C57" t="n">
-        <v>0.553038</v>
+        <v>0.549889</v>
       </c>
       <c r="D57" t="n">
-        <v>0.457104</v>
+        <v>0.443666</v>
       </c>
       <c r="E57" t="n">
-        <v>0.223889</v>
+        <v>0.224039</v>
       </c>
       <c r="F57" t="n">
-        <v>0.448851</v>
+        <v>0.445735</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.321926</v>
+        <v>0.321174</v>
       </c>
       <c r="C58" t="n">
-        <v>0.54948</v>
+        <v>0.549763</v>
       </c>
       <c r="D58" t="n">
-        <v>0.462783</v>
+        <v>0.446316</v>
       </c>
       <c r="E58" t="n">
-        <v>0.223718</v>
+        <v>0.224007</v>
       </c>
       <c r="F58" t="n">
-        <v>0.447412</v>
+        <v>0.444542</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.312672</v>
+        <v>0.313408</v>
       </c>
       <c r="C59" t="n">
-        <v>0.546733</v>
+        <v>0.548049</v>
       </c>
       <c r="D59" t="n">
-        <v>0.460078</v>
+        <v>0.446292</v>
       </c>
       <c r="E59" t="n">
-        <v>0.222203</v>
+        <v>0.222341</v>
       </c>
       <c r="F59" t="n">
-        <v>0.44631</v>
+        <v>0.443198</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.303478</v>
+        <v>0.30384</v>
       </c>
       <c r="C60" t="n">
-        <v>0.521427</v>
+        <v>0.5179510000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.463537</v>
+        <v>0.451566</v>
       </c>
       <c r="E60" t="n">
-        <v>0.222136</v>
+        <v>0.221668</v>
       </c>
       <c r="F60" t="n">
-        <v>0.442989</v>
+        <v>0.443136</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.294632</v>
+        <v>0.294672</v>
       </c>
       <c r="C61" t="n">
-        <v>0.535142</v>
+        <v>0.545999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.451533</v>
+        <v>0.454026</v>
       </c>
       <c r="E61" t="n">
-        <v>0.235621</v>
+        <v>0.235061</v>
       </c>
       <c r="F61" t="n">
-        <v>0.441692</v>
+        <v>0.44193</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.284439</v>
+        <v>0.284351</v>
       </c>
       <c r="C62" t="n">
-        <v>0.502904</v>
+        <v>0.506702</v>
       </c>
       <c r="D62" t="n">
-        <v>0.455199</v>
+        <v>0.458282</v>
       </c>
       <c r="E62" t="n">
-        <v>0.220396</v>
+        <v>0.220399</v>
       </c>
       <c r="F62" t="n">
-        <v>0.440929</v>
+        <v>0.441274</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.273184</v>
+        <v>0.273459</v>
       </c>
       <c r="C63" t="n">
-        <v>0.516694</v>
+        <v>0.526907</v>
       </c>
       <c r="D63" t="n">
-        <v>0.457775</v>
+        <v>0.461203</v>
       </c>
       <c r="E63" t="n">
-        <v>0.219544</v>
+        <v>0.233857</v>
       </c>
       <c r="F63" t="n">
-        <v>0.440425</v>
+        <v>0.44077</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.260823</v>
+        <v>0.261438</v>
       </c>
       <c r="C64" t="n">
-        <v>0.498166</v>
+        <v>0.505038</v>
       </c>
       <c r="D64" t="n">
-        <v>0.495312</v>
+        <v>0.496446</v>
       </c>
       <c r="E64" t="n">
-        <v>0.218501</v>
+        <v>0.218402</v>
       </c>
       <c r="F64" t="n">
-        <v>0.440366</v>
+        <v>0.440613</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.247689</v>
+        <v>0.247621</v>
       </c>
       <c r="C65" t="n">
-        <v>0.490264</v>
+        <v>0.494754</v>
       </c>
       <c r="D65" t="n">
-        <v>0.492602</v>
+        <v>0.498652</v>
       </c>
       <c r="E65" t="n">
-        <v>0.233035</v>
+        <v>0.232902</v>
       </c>
       <c r="F65" t="n">
-        <v>0.440035</v>
+        <v>0.440305</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.233566</v>
+        <v>0.233755</v>
       </c>
       <c r="C66" t="n">
-        <v>0.469681</v>
+        <v>0.47368</v>
       </c>
       <c r="D66" t="n">
-        <v>0.49525</v>
+        <v>0.504701</v>
       </c>
       <c r="E66" t="n">
-        <v>0.245432</v>
+        <v>0.233561</v>
       </c>
       <c r="F66" t="n">
-        <v>0.454831</v>
+        <v>0.454796</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.35622</v>
+        <v>0.356239</v>
       </c>
       <c r="C67" t="n">
-        <v>0.633176</v>
+        <v>0.642048</v>
       </c>
       <c r="D67" t="n">
-        <v>0.507919</v>
+        <v>0.513491</v>
       </c>
       <c r="E67" t="n">
-        <v>0.231904</v>
+        <v>0.231965</v>
       </c>
       <c r="F67" t="n">
-        <v>0.453316</v>
+        <v>0.453168</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.351166</v>
+        <v>0.351175</v>
       </c>
       <c r="C68" t="n">
-        <v>0.583539</v>
+        <v>0.584124</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5184569999999999</v>
+        <v>0.519584</v>
       </c>
       <c r="E68" t="n">
-        <v>0.230822</v>
+        <v>0.231299</v>
       </c>
       <c r="F68" t="n">
-        <v>0.451454</v>
+        <v>0.451157</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.344921</v>
+        <v>0.345116</v>
       </c>
       <c r="C69" t="n">
-        <v>0.577754</v>
+        <v>0.57798</v>
       </c>
       <c r="D69" t="n">
-        <v>0.520193</v>
+        <v>0.520583</v>
       </c>
       <c r="E69" t="n">
-        <v>0.229404</v>
+        <v>0.22824</v>
       </c>
       <c r="F69" t="n">
-        <v>0.449569</v>
+        <v>0.44924</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.338021</v>
+        <v>0.338563</v>
       </c>
       <c r="C70" t="n">
-        <v>0.671334</v>
+        <v>0.671011</v>
       </c>
       <c r="D70" t="n">
-        <v>0.527458</v>
+        <v>0.529114</v>
       </c>
       <c r="E70" t="n">
-        <v>0.228029</v>
+        <v>0.227821</v>
       </c>
       <c r="F70" t="n">
-        <v>0.44772</v>
+        <v>0.447535</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.331175</v>
+        <v>0.330673</v>
       </c>
       <c r="C71" t="n">
-        <v>0.652548</v>
+        <v>0.65249</v>
       </c>
       <c r="D71" t="n">
-        <v>0.532347</v>
+        <v>0.530274</v>
       </c>
       <c r="E71" t="n">
-        <v>0.226696</v>
+        <v>0.228335</v>
       </c>
       <c r="F71" t="n">
-        <v>0.446489</v>
+        <v>0.446322</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.323417</v>
+        <v>0.323635</v>
       </c>
       <c r="C72" t="n">
-        <v>0.66098</v>
+        <v>0.660048</v>
       </c>
       <c r="D72" t="n">
-        <v>0.537696</v>
+        <v>0.537904</v>
       </c>
       <c r="E72" t="n">
-        <v>0.225254</v>
+        <v>0.226045</v>
       </c>
       <c r="F72" t="n">
-        <v>0.44499</v>
+        <v>0.444793</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.315422</v>
+        <v>0.315093</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6153380000000001</v>
+        <v>0.615187</v>
       </c>
       <c r="D73" t="n">
-        <v>0.542574</v>
+        <v>0.542844</v>
       </c>
       <c r="E73" t="n">
-        <v>0.22565</v>
+        <v>0.224666</v>
       </c>
       <c r="F73" t="n">
-        <v>0.443594</v>
+        <v>0.443429</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.306722</v>
+        <v>0.30766</v>
       </c>
       <c r="C74" t="n">
-        <v>0.61896</v>
+        <v>0.618752</v>
       </c>
       <c r="D74" t="n">
-        <v>0.544343</v>
+        <v>0.544247</v>
       </c>
       <c r="E74" t="n">
-        <v>0.224902</v>
+        <v>0.224119</v>
       </c>
       <c r="F74" t="n">
-        <v>0.443575</v>
+        <v>0.442774</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.296953</v>
+        <v>0.297514</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6575299999999999</v>
+        <v>0.656592</v>
       </c>
       <c r="D75" t="n">
-        <v>0.54484</v>
+        <v>0.5440120000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>0.234719</v>
+        <v>0.235115</v>
       </c>
       <c r="F75" t="n">
-        <v>0.442238</v>
+        <v>0.442064</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.287853</v>
+        <v>0.287767</v>
       </c>
       <c r="C76" t="n">
-        <v>0.592041</v>
+        <v>0.590279</v>
       </c>
       <c r="D76" t="n">
-        <v>0.548659</v>
+        <v>0.54806</v>
       </c>
       <c r="E76" t="n">
-        <v>0.222955</v>
+        <v>0.223774</v>
       </c>
       <c r="F76" t="n">
-        <v>0.441259</v>
+        <v>0.441067</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.27672</v>
+        <v>0.276777</v>
       </c>
       <c r="C77" t="n">
-        <v>0.626704</v>
+        <v>0.624619</v>
       </c>
       <c r="D77" t="n">
-        <v>0.54971</v>
+        <v>0.562908</v>
       </c>
       <c r="E77" t="n">
-        <v>0.222621</v>
+        <v>0.222657</v>
       </c>
       <c r="F77" t="n">
-        <v>0.441251</v>
+        <v>0.444147</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.264389</v>
+        <v>0.264849</v>
       </c>
       <c r="C78" t="n">
-        <v>0.615424</v>
+        <v>0.619879</v>
       </c>
       <c r="D78" t="n">
-        <v>0.61983</v>
+        <v>0.633128</v>
       </c>
       <c r="E78" t="n">
-        <v>0.233591</v>
+        <v>0.233214</v>
       </c>
       <c r="F78" t="n">
-        <v>0.441104</v>
+        <v>0.444092</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.251714</v>
+        <v>0.25184</v>
       </c>
       <c r="C79" t="n">
-        <v>0.545651</v>
+        <v>0.549004</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6299630000000001</v>
+        <v>0.641773</v>
       </c>
       <c r="E79" t="n">
-        <v>0.233262</v>
+        <v>0.231456</v>
       </c>
       <c r="F79" t="n">
-        <v>0.440658</v>
+        <v>0.443567</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.238236</v>
+        <v>0.238528</v>
       </c>
       <c r="C80" t="n">
-        <v>0.500311</v>
+        <v>0.504408</v>
       </c>
       <c r="D80" t="n">
-        <v>0.633503</v>
+        <v>0.643896</v>
       </c>
       <c r="E80" t="n">
-        <v>0.24966</v>
+        <v>0.234076</v>
       </c>
       <c r="F80" t="n">
-        <v>0.455567</v>
+        <v>0.455514</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.358121</v>
+        <v>0.357617</v>
       </c>
       <c r="C81" t="n">
-        <v>0.651335</v>
+        <v>0.650861</v>
       </c>
       <c r="D81" t="n">
-        <v>0.638954</v>
+        <v>0.62524</v>
       </c>
       <c r="E81" t="n">
-        <v>0.236141</v>
+        <v>0.236678</v>
       </c>
       <c r="F81" t="n">
-        <v>0.456642</v>
+        <v>0.453326</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.352857</v>
+        <v>0.352585</v>
       </c>
       <c r="C82" t="n">
-        <v>0.67153</v>
+        <v>0.664992</v>
       </c>
       <c r="D82" t="n">
-        <v>0.635583</v>
+        <v>0.621694</v>
       </c>
       <c r="E82" t="n">
-        <v>0.234364</v>
+        <v>0.233907</v>
       </c>
       <c r="F82" t="n">
-        <v>0.454581</v>
+        <v>0.451335</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.346191</v>
+        <v>0.34603</v>
       </c>
       <c r="C83" t="n">
-        <v>0.637837</v>
+        <v>0.630783</v>
       </c>
       <c r="D83" t="n">
-        <v>0.63191</v>
+        <v>0.61803</v>
       </c>
       <c r="E83" t="n">
-        <v>0.232397</v>
+        <v>0.232679</v>
       </c>
       <c r="F83" t="n">
-        <v>0.45296</v>
+        <v>0.449766</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.339807</v>
+        <v>0.339559</v>
       </c>
       <c r="C84" t="n">
-        <v>0.722647</v>
+        <v>0.716208</v>
       </c>
       <c r="D84" t="n">
-        <v>0.622075</v>
+        <v>0.607405</v>
       </c>
       <c r="E84" t="n">
-        <v>0.230706</v>
+        <v>0.231287</v>
       </c>
       <c r="F84" t="n">
-        <v>0.451166</v>
+        <v>0.447969</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.332715</v>
+        <v>0.332896</v>
       </c>
       <c r="C85" t="n">
-        <v>0.676119</v>
+        <v>0.669366</v>
       </c>
       <c r="D85" t="n">
-        <v>0.624816</v>
+        <v>0.610995</v>
       </c>
       <c r="E85" t="n">
-        <v>0.230974</v>
+        <v>0.231221</v>
       </c>
       <c r="F85" t="n">
-        <v>0.449888</v>
+        <v>0.446717</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.325098</v>
+        <v>0.324987</v>
       </c>
       <c r="C86" t="n">
-        <v>0.707666</v>
+        <v>0.700754</v>
       </c>
       <c r="D86" t="n">
-        <v>0.620545</v>
+        <v>0.606955</v>
       </c>
       <c r="E86" t="n">
-        <v>0.238435</v>
+        <v>0.229014</v>
       </c>
       <c r="F86" t="n">
-        <v>0.448855</v>
+        <v>0.445678</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.317255</v>
+        <v>0.317427</v>
       </c>
       <c r="C87" t="n">
-        <v>0.713676</v>
+        <v>0.595724</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6185349999999999</v>
+        <v>0.615592</v>
       </c>
       <c r="E87" t="n">
-        <v>0.237387</v>
+        <v>0.222037</v>
       </c>
       <c r="F87" t="n">
-        <v>0.447658</v>
+        <v>0.447473</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.308947</v>
+        <v>0.30898</v>
       </c>
       <c r="C88" t="n">
-        <v>0.588422</v>
+        <v>0.593021</v>
       </c>
       <c r="D88" t="n">
-        <v>0.595915</v>
+        <v>0.609438</v>
       </c>
       <c r="E88" t="n">
-        <v>0.226356</v>
+        <v>0.227145</v>
       </c>
       <c r="F88" t="n">
-        <v>0.443279</v>
+        <v>0.446286</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.29965</v>
+        <v>0.300124</v>
       </c>
       <c r="C89" t="n">
-        <v>0.680476</v>
+        <v>0.685037</v>
       </c>
       <c r="D89" t="n">
-        <v>0.594676</v>
+        <v>0.607576</v>
       </c>
       <c r="E89" t="n">
-        <v>0.220505</v>
+        <v>0.220398</v>
       </c>
       <c r="F89" t="n">
-        <v>0.442475</v>
+        <v>0.44559</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.289642</v>
+        <v>0.289454</v>
       </c>
       <c r="C90" t="n">
-        <v>0.561833</v>
+        <v>0.566475</v>
       </c>
       <c r="D90" t="n">
-        <v>0.592426</v>
+        <v>0.604585</v>
       </c>
       <c r="E90" t="n">
-        <v>0.235597</v>
+        <v>0.234892</v>
       </c>
       <c r="F90" t="n">
-        <v>0.441752</v>
+        <v>0.444733</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.27873</v>
+        <v>0.278894</v>
       </c>
       <c r="C91" t="n">
-        <v>0.567867</v>
+        <v>0.57163</v>
       </c>
       <c r="D91" t="n">
-        <v>0.586166</v>
+        <v>0.599526</v>
       </c>
       <c r="E91" t="n">
-        <v>0.227622</v>
+        <v>0.246872</v>
       </c>
       <c r="F91" t="n">
-        <v>0.44139</v>
+        <v>0.444205</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.267449</v>
+        <v>0.267214</v>
       </c>
       <c r="C92" t="n">
-        <v>0.495412</v>
+        <v>0.497328</v>
       </c>
       <c r="D92" t="n">
-        <v>0.635459</v>
+        <v>0.644582</v>
       </c>
       <c r="E92" t="n">
-        <v>0.233948</v>
+        <v>0.219406</v>
       </c>
       <c r="F92" t="n">
-        <v>0.442326</v>
+        <v>0.444209</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.254385</v>
+        <v>0.254496</v>
       </c>
       <c r="C93" t="n">
-        <v>0.594733</v>
+        <v>0.597928</v>
       </c>
       <c r="D93" t="n">
-        <v>0.613611</v>
+        <v>0.627717</v>
       </c>
       <c r="E93" t="n">
-        <v>0.233508</v>
+        <v>0.219147</v>
       </c>
       <c r="F93" t="n">
-        <v>0.441022</v>
+        <v>0.443845</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.240359</v>
+        <v>0.240424</v>
       </c>
       <c r="C94" t="n">
-        <v>0.569233</v>
+        <v>0.572816</v>
       </c>
       <c r="D94" t="n">
-        <v>0.625737</v>
+        <v>0.629984</v>
       </c>
       <c r="E94" t="n">
-        <v>0.248819</v>
+        <v>0.239101</v>
       </c>
       <c r="F94" t="n">
-        <v>0.455771</v>
+        <v>0.459096</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.359418</v>
+        <v>0.359145</v>
       </c>
       <c r="C95" t="n">
-        <v>0.7536079999999999</v>
+        <v>0.758361</v>
       </c>
       <c r="D95" t="n">
-        <v>0.621842</v>
+        <v>0.634856</v>
       </c>
       <c r="E95" t="n">
-        <v>0.238634</v>
+        <v>0.238052</v>
       </c>
       <c r="F95" t="n">
-        <v>0.453978</v>
+        <v>0.457499</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.354408</v>
+        <v>0.353616</v>
       </c>
       <c r="C96" t="n">
-        <v>0.707273</v>
+        <v>0.712862</v>
       </c>
       <c r="D96" t="n">
-        <v>0.617573</v>
+        <v>0.6308820000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>0.235415</v>
+        <v>0.236034</v>
       </c>
       <c r="F96" t="n">
-        <v>0.452439</v>
+        <v>0.457968</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.348142</v>
+        <v>0.34818</v>
       </c>
       <c r="C97" t="n">
-        <v>0.728878</v>
+        <v>0.733605</v>
       </c>
       <c r="D97" t="n">
-        <v>0.61448</v>
+        <v>0.627763</v>
       </c>
       <c r="E97" t="n">
-        <v>0.234424</v>
+        <v>0.234392</v>
       </c>
       <c r="F97" t="n">
-        <v>0.450615</v>
+        <v>0.454017</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.341606</v>
+        <v>0.341047</v>
       </c>
       <c r="C98" t="n">
-        <v>0.662196</v>
+        <v>0.667435</v>
       </c>
       <c r="D98" t="n">
-        <v>0.608847</v>
+        <v>0.6220560000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>0.233094</v>
+        <v>0.230886</v>
       </c>
       <c r="F98" t="n">
-        <v>0.448911</v>
+        <v>0.452262</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.335122</v>
+        <v>0.334224</v>
       </c>
       <c r="C99" t="n">
-        <v>0.667401</v>
+        <v>0.672494</v>
       </c>
       <c r="D99" t="n">
-        <v>0.595245</v>
+        <v>0.610067</v>
       </c>
       <c r="E99" t="n">
-        <v>0.232068</v>
+        <v>0.232119</v>
       </c>
       <c r="F99" t="n">
-        <v>0.447279</v>
+        <v>0.45052</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.32688</v>
+        <v>0.326928</v>
       </c>
       <c r="C100" t="n">
-        <v>0.569846</v>
+        <v>0.573646</v>
       </c>
       <c r="D100" t="n">
-        <v>0.594584</v>
+        <v>0.605467</v>
       </c>
       <c r="E100" t="n">
-        <v>0.224142</v>
+        <v>0.23085</v>
       </c>
       <c r="F100" t="n">
-        <v>0.445785</v>
+        <v>0.449151</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.319161</v>
+        <v>0.31958</v>
       </c>
       <c r="C101" t="n">
-        <v>0.59679</v>
+        <v>0.601214</v>
       </c>
       <c r="D101" t="n">
-        <v>0.587452</v>
+        <v>0.601705</v>
       </c>
       <c r="E101" t="n">
-        <v>0.228602</v>
+        <v>0.22859</v>
       </c>
       <c r="F101" t="n">
-        <v>0.444837</v>
+        <v>0.44805</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.310593</v>
+        <v>0.310671</v>
       </c>
       <c r="C102" t="n">
-        <v>0.639213</v>
+        <v>0.642671</v>
       </c>
       <c r="D102" t="n">
-        <v>0.590192</v>
+        <v>0.6020799999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>0.23753</v>
+        <v>0.237515</v>
       </c>
       <c r="F102" t="n">
-        <v>0.444488</v>
+        <v>0.446859</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.301731</v>
+        <v>0.30216</v>
       </c>
       <c r="C103" t="n">
-        <v>0.581727</v>
+        <v>0.585201</v>
       </c>
       <c r="D103" t="n">
-        <v>0.584137</v>
+        <v>0.59712</v>
       </c>
       <c r="E103" t="n">
-        <v>0.228367</v>
+        <v>0.227301</v>
       </c>
       <c r="F103" t="n">
-        <v>0.442509</v>
+        <v>0.445715</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.292168</v>
+        <v>0.291915</v>
       </c>
       <c r="C104" t="n">
-        <v>0.584404</v>
+        <v>0.5882849999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.576299</v>
+        <v>0.590074</v>
       </c>
       <c r="E104" t="n">
-        <v>0.235673</v>
+        <v>0.235584</v>
       </c>
       <c r="F104" t="n">
-        <v>0.442071</v>
+        <v>0.445195</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.281923</v>
+        <v>0.281541</v>
       </c>
       <c r="C105" t="n">
-        <v>0.586583</v>
+        <v>0.590625</v>
       </c>
       <c r="D105" t="n">
-        <v>0.573657</v>
+        <v>0.586809</v>
       </c>
       <c r="E105" t="n">
-        <v>0.232198</v>
+        <v>0.228527</v>
       </c>
       <c r="F105" t="n">
-        <v>0.441491</v>
+        <v>0.444618</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.270044</v>
+        <v>0.270312</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5981959999999999</v>
+        <v>0.60172</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5684439999999999</v>
+        <v>0.582771</v>
       </c>
       <c r="E106" t="n">
-        <v>0.234546</v>
+        <v>0.234431</v>
       </c>
       <c r="F106" t="n">
-        <v>0.441501</v>
+        <v>0.444583</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.257501</v>
+        <v>0.25797</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5909</v>
+        <v>0.596035</v>
       </c>
       <c r="D107" t="n">
-        <v>0.630432</v>
+        <v>0.646147</v>
       </c>
       <c r="E107" t="n">
-        <v>0.232756</v>
+        <v>0.218508</v>
       </c>
       <c r="F107" t="n">
-        <v>0.441362</v>
+        <v>0.444329</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.243888</v>
+        <v>0.244058</v>
       </c>
       <c r="C108" t="n">
-        <v>0.561461</v>
+        <v>0.565011</v>
       </c>
       <c r="D108" t="n">
-        <v>0.625678</v>
+        <v>0.638907</v>
       </c>
       <c r="E108" t="n">
-        <v>0.240714</v>
+        <v>0.24166</v>
       </c>
       <c r="F108" t="n">
-        <v>0.456424</v>
+        <v>0.459846</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.228938</v>
+        <v>0.228569</v>
       </c>
       <c r="C109" t="n">
-        <v>0.507443</v>
+        <v>0.510483</v>
       </c>
       <c r="D109" t="n">
-        <v>0.61115</v>
+        <v>0.626796</v>
       </c>
       <c r="E109" t="n">
-        <v>0.238588</v>
+        <v>0.238383</v>
       </c>
       <c r="F109" t="n">
-        <v>0.454422</v>
+        <v>0.457796</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355435</v>
+        <v>0.355072</v>
       </c>
       <c r="C110" t="n">
-        <v>0.695802</v>
+        <v>0.700623</v>
       </c>
       <c r="D110" t="n">
-        <v>0.605983</v>
+        <v>0.621146</v>
       </c>
       <c r="E110" t="n">
-        <v>0.236792</v>
+        <v>0.236151</v>
       </c>
       <c r="F110" t="n">
-        <v>0.452436</v>
+        <v>0.455799</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.349528</v>
+        <v>0.349187</v>
       </c>
       <c r="C111" t="n">
-        <v>0.63386</v>
+        <v>0.639348</v>
       </c>
       <c r="D111" t="n">
-        <v>0.602438</v>
+        <v>0.617588</v>
       </c>
       <c r="E111" t="n">
-        <v>0.236375</v>
+        <v>0.236906</v>
       </c>
       <c r="F111" t="n">
-        <v>0.45051</v>
+        <v>0.453741</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.343524</v>
+        <v>0.342909</v>
       </c>
       <c r="C112" t="n">
-        <v>0.582477</v>
+        <v>0.588646</v>
       </c>
       <c r="D112" t="n">
-        <v>0.598047</v>
+        <v>0.614019</v>
       </c>
       <c r="E112" t="n">
-        <v>0.23794</v>
+        <v>0.233466</v>
       </c>
       <c r="F112" t="n">
-        <v>0.448908</v>
+        <v>0.452146</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.336503</v>
+        <v>0.336019</v>
       </c>
       <c r="C113" t="n">
-        <v>0.601111</v>
+        <v>0.606259</v>
       </c>
       <c r="D113" t="n">
-        <v>0.608137</v>
+        <v>0.620444</v>
       </c>
       <c r="E113" t="n">
-        <v>0.232569</v>
+        <v>0.232875</v>
       </c>
       <c r="F113" t="n">
-        <v>0.447571</v>
+        <v>0.450915</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.328809</v>
+        <v>0.328322</v>
       </c>
       <c r="C114" t="n">
-        <v>0.599199</v>
+        <v>0.6029099999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.5999370000000001</v>
+        <v>0.613096</v>
       </c>
       <c r="E114" t="n">
-        <v>0.232288</v>
+        <v>0.23182</v>
       </c>
       <c r="F114" t="n">
-        <v>0.446487</v>
+        <v>0.44936</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.321306</v>
+        <v>0.320667</v>
       </c>
       <c r="C115" t="n">
-        <v>0.580524</v>
+        <v>0.584519</v>
       </c>
       <c r="D115" t="n">
-        <v>0.595041</v>
+        <v>0.6070449999999999</v>
       </c>
       <c r="E115" t="n">
-        <v>0.230767</v>
+        <v>0.231689</v>
       </c>
       <c r="F115" t="n">
-        <v>0.445031</v>
+        <v>0.448154</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.313036</v>
+        <v>0.312572</v>
       </c>
       <c r="C116" t="n">
-        <v>0.714125</v>
+        <v>0.717984</v>
       </c>
       <c r="D116" t="n">
-        <v>0.588955</v>
+        <v>0.601351</v>
       </c>
       <c r="E116" t="n">
-        <v>0.24907</v>
+        <v>0.237702</v>
       </c>
       <c r="F116" t="n">
-        <v>0.443833</v>
+        <v>0.447014</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.303632</v>
+        <v>0.303259</v>
       </c>
       <c r="C117" t="n">
-        <v>0.615312</v>
+        <v>0.619549</v>
       </c>
       <c r="D117" t="n">
-        <v>0.577801</v>
+        <v>0.59179</v>
       </c>
       <c r="E117" t="n">
-        <v>0.227644</v>
+        <v>0.229002</v>
       </c>
       <c r="F117" t="n">
-        <v>0.442732</v>
+        <v>0.445824</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.294068</v>
+        <v>0.294208</v>
       </c>
       <c r="C118" t="n">
-        <v>0.580098</v>
+        <v>0.584071</v>
       </c>
       <c r="D118" t="n">
-        <v>0.577994</v>
+        <v>0.590936</v>
       </c>
       <c r="E118" t="n">
-        <v>0.248365</v>
+        <v>0.244597</v>
       </c>
       <c r="F118" t="n">
-        <v>0.442021</v>
+        <v>0.445245</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.283452</v>
+        <v>0.283399</v>
       </c>
       <c r="C119" t="n">
-        <v>0.57523</v>
+        <v>0.579153</v>
       </c>
       <c r="D119" t="n">
-        <v>0.569451</v>
+        <v>0.584249</v>
       </c>
       <c r="E119" t="n">
-        <v>0.235065</v>
+        <v>0.233458</v>
       </c>
       <c r="F119" t="n">
-        <v>0.441593</v>
+        <v>0.444586</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.27255</v>
+        <v>0.272465</v>
       </c>
       <c r="C120" t="n">
-        <v>0.568601</v>
+        <v>0.572576</v>
       </c>
       <c r="D120" t="n">
-        <v>0.56651</v>
+        <v>0.579804</v>
       </c>
       <c r="E120" t="n">
-        <v>0.234144</v>
+        <v>0.234027</v>
       </c>
       <c r="F120" t="n">
-        <v>0.441656</v>
+        <v>0.444496</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.260491</v>
+        <v>0.260366</v>
       </c>
       <c r="C121" t="n">
-        <v>0.554258</v>
+        <v>0.558433</v>
       </c>
       <c r="D121" t="n">
-        <v>0.643342</v>
+        <v>0.656732</v>
       </c>
       <c r="E121" t="n">
-        <v>0.233708</v>
+        <v>0.237345</v>
       </c>
       <c r="F121" t="n">
-        <v>0.441326</v>
+        <v>0.444471</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.247064</v>
+        <v>0.24696</v>
       </c>
       <c r="C122" t="n">
-        <v>0.511433</v>
+        <v>0.515079</v>
       </c>
       <c r="D122" t="n">
-        <v>0.626093</v>
+        <v>0.638721</v>
       </c>
       <c r="E122" t="n">
-        <v>0.234073</v>
+        <v>0.244481</v>
       </c>
       <c r="F122" t="n">
-        <v>0.440826</v>
+        <v>0.444013</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.2329</v>
+        <v>0.232615</v>
       </c>
       <c r="C123" t="n">
-        <v>0.542605</v>
+        <v>0.546163</v>
       </c>
       <c r="D123" t="n">
-        <v>0.637931</v>
+        <v>0.651054</v>
       </c>
       <c r="E123" t="n">
-        <v>0.245799</v>
+        <v>0.252253</v>
       </c>
       <c r="F123" t="n">
-        <v>0.455103</v>
+        <v>0.458298</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.357137</v>
+        <v>0.356869</v>
       </c>
       <c r="C124" t="n">
-        <v>0.560743</v>
+        <v>0.565904</v>
       </c>
       <c r="D124" t="n">
-        <v>0.630927</v>
+        <v>0.644531</v>
       </c>
       <c r="E124" t="n">
-        <v>0.238531</v>
+        <v>0.237199</v>
       </c>
       <c r="F124" t="n">
-        <v>0.45315</v>
+        <v>0.456465</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.351008</v>
+        <v>0.350546</v>
       </c>
       <c r="C125" t="n">
-        <v>0.740413</v>
+        <v>0.7464499999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.630867</v>
+        <v>0.641839</v>
       </c>
       <c r="E125" t="n">
-        <v>0.237395</v>
+        <v>0.237824</v>
       </c>
       <c r="F125" t="n">
-        <v>0.451249</v>
+        <v>0.454691</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.344666</v>
+        <v>0.344706</v>
       </c>
       <c r="C126" t="n">
-        <v>0.723315</v>
+        <v>0.72926</v>
       </c>
       <c r="D126" t="n">
-        <v>0.62296</v>
+        <v>0.635655</v>
       </c>
       <c r="E126" t="n">
-        <v>0.235391</v>
+        <v>0.236593</v>
       </c>
       <c r="F126" t="n">
-        <v>0.449732</v>
+        <v>0.452949</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.337901</v>
+        <v>0.337639</v>
       </c>
       <c r="C127" t="n">
-        <v>0.591306</v>
+        <v>0.595921</v>
       </c>
       <c r="D127" t="n">
-        <v>0.60992</v>
+        <v>0.620214</v>
       </c>
       <c r="E127" t="n">
-        <v>0.234971</v>
+        <v>0.233676</v>
       </c>
       <c r="F127" t="n">
-        <v>0.448646</v>
+        <v>0.451319</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.330696</v>
+        <v>0.330073</v>
       </c>
       <c r="C128" t="n">
-        <v>0.612433</v>
+        <v>0.617182</v>
       </c>
       <c r="D128" t="n">
-        <v>0.60225</v>
+        <v>0.616246</v>
       </c>
       <c r="E128" t="n">
-        <v>0.233726</v>
+        <v>0.232085</v>
       </c>
       <c r="F128" t="n">
-        <v>0.446604</v>
+        <v>0.449977</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.322713</v>
+        <v>0.322148</v>
       </c>
       <c r="C129" t="n">
-        <v>0.560978</v>
+        <v>0.564544</v>
       </c>
       <c r="D129" t="n">
-        <v>0.595704</v>
+        <v>0.6101799999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>0.230017</v>
+        <v>0.233155</v>
       </c>
       <c r="F129" t="n">
-        <v>0.445392</v>
+        <v>0.448653</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.314243</v>
+        <v>0.313872</v>
       </c>
       <c r="C130" t="n">
-        <v>0.566422</v>
+        <v>0.570111</v>
       </c>
       <c r="D130" t="n">
-        <v>0.591913</v>
+        <v>0.605934</v>
       </c>
       <c r="E130" t="n">
-        <v>0.231407</v>
+        <v>0.230341</v>
       </c>
       <c r="F130" t="n">
-        <v>0.444362</v>
+        <v>0.447514</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.305607</v>
+        <v>0.305218</v>
       </c>
       <c r="C131" t="n">
-        <v>0.560028</v>
+        <v>0.56391</v>
       </c>
       <c r="D131" t="n">
-        <v>0.585982</v>
+        <v>0.603168</v>
       </c>
       <c r="E131" t="n">
-        <v>0.228394</v>
+        <v>0.229969</v>
       </c>
       <c r="F131" t="n">
-        <v>0.443326</v>
+        <v>0.446333</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.296725</v>
+        <v>0.296143</v>
       </c>
       <c r="C132" t="n">
-        <v>0.667566</v>
+        <v>0.670454</v>
       </c>
       <c r="D132" t="n">
-        <v>0.585726</v>
+        <v>0.598248</v>
       </c>
       <c r="E132" t="n">
-        <v>0.220374</v>
+        <v>0.248783</v>
       </c>
       <c r="F132" t="n">
-        <v>0.442891</v>
+        <v>0.445444</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.285547</v>
+        <v>0.28627</v>
       </c>
       <c r="C133" t="n">
-        <v>0.596849</v>
+        <v>0.601449</v>
       </c>
       <c r="D133" t="n">
-        <v>0.57803</v>
+        <v>0.59333</v>
       </c>
       <c r="E133" t="n">
-        <v>0.234359</v>
+        <v>0.233445</v>
       </c>
       <c r="F133" t="n">
-        <v>0.441871</v>
+        <v>0.444963</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.274602</v>
+        <v>0.274728</v>
       </c>
       <c r="C134" t="n">
-        <v>0.584661</v>
+        <v>0.588744</v>
       </c>
       <c r="D134" t="n">
-        <v>0.574554</v>
+        <v>0.5870379999999999</v>
       </c>
       <c r="E134" t="n">
-        <v>0.219474</v>
+        <v>0.219231</v>
       </c>
       <c r="F134" t="n">
-        <v>0.441262</v>
+        <v>0.444416</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.26285</v>
+        <v>0.262558</v>
       </c>
       <c r="C135" t="n">
-        <v>0.529852</v>
+        <v>0.533492</v>
       </c>
       <c r="D135" t="n">
-        <v>0.648446</v>
+        <v>0.662348</v>
       </c>
       <c r="E135" t="n">
-        <v>0.218631</v>
+        <v>0.233573</v>
       </c>
       <c r="F135" t="n">
-        <v>0.441386</v>
+        <v>0.444441</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.250505</v>
+        <v>0.250134</v>
       </c>
       <c r="C136" t="n">
-        <v>0.518417</v>
+        <v>0.522764</v>
       </c>
       <c r="D136" t="n">
-        <v>0.628976</v>
+        <v>0.642319</v>
       </c>
       <c r="E136" t="n">
-        <v>0.245382</v>
+        <v>0.233066</v>
       </c>
       <c r="F136" t="n">
-        <v>0.441496</v>
+        <v>0.444278</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235665</v>
+        <v>0.235556</v>
       </c>
       <c r="C137" t="n">
-        <v>0.494522</v>
+        <v>0.498534</v>
       </c>
       <c r="D137" t="n">
-        <v>0.641946</v>
+        <v>0.659345</v>
       </c>
       <c r="E137" t="n">
-        <v>0.247811</v>
+        <v>0.260787</v>
       </c>
       <c r="F137" t="n">
-        <v>0.455344</v>
+        <v>0.458794</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.359747</v>
+        <v>0.358593</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6454</v>
+        <v>0.65064</v>
       </c>
       <c r="D138" t="n">
-        <v>0.622491</v>
+        <v>0.639424</v>
       </c>
       <c r="E138" t="n">
-        <v>0.242552</v>
+        <v>0.237778</v>
       </c>
       <c r="F138" t="n">
-        <v>0.453403</v>
+        <v>0.456681</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.352982</v>
+        <v>0.352763</v>
       </c>
       <c r="C139" t="n">
-        <v>0.603999</v>
+        <v>0.608495</v>
       </c>
       <c r="D139" t="n">
-        <v>0.622466</v>
+        <v>0.634568</v>
       </c>
       <c r="E139" t="n">
-        <v>0.239293</v>
+        <v>0.237203</v>
       </c>
       <c r="F139" t="n">
-        <v>0.45162</v>
+        <v>0.454828</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.346731</v>
+        <v>0.346229</v>
       </c>
       <c r="C140" t="n">
-        <v>0.634634</v>
+        <v>0.639911</v>
       </c>
       <c r="D140" t="n">
-        <v>0.616791</v>
+        <v>0.631765</v>
       </c>
       <c r="E140" t="n">
-        <v>0.234864</v>
+        <v>0.238659</v>
       </c>
       <c r="F140" t="n">
-        <v>0.450057</v>
+        <v>0.45319</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.34037</v>
+        <v>0.339163</v>
       </c>
       <c r="C141" t="n">
-        <v>0.589194</v>
+        <v>0.59406</v>
       </c>
       <c r="D141" t="n">
-        <v>0.621877</v>
+        <v>0.636479</v>
       </c>
       <c r="E141" t="n">
-        <v>0.235683</v>
+        <v>0.239105</v>
       </c>
       <c r="F141" t="n">
-        <v>0.448343</v>
+        <v>0.451641</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.332305</v>
+        <v>0.333328</v>
       </c>
       <c r="C142" t="n">
-        <v>0.568538</v>
+        <v>0.572743</v>
       </c>
       <c r="D142" t="n">
-        <v>0.616235</v>
+        <v>0.628772</v>
       </c>
       <c r="E142" t="n">
-        <v>0.236717</v>
+        <v>0.232898</v>
       </c>
       <c r="F142" t="n">
-        <v>0.446919</v>
+        <v>0.450052</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.32498</v>
+        <v>0.325233</v>
       </c>
       <c r="C143" t="n">
-        <v>0.618482</v>
+        <v>0.623072</v>
       </c>
       <c r="D143" t="n">
-        <v>0.608569</v>
+        <v>0.622481</v>
       </c>
       <c r="E143" t="n">
-        <v>0.23373</v>
+        <v>0.230978</v>
       </c>
       <c r="F143" t="n">
-        <v>0.445611</v>
+        <v>0.448789</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.306067</v>
+        <v>0.307357</v>
       </c>
       <c r="C2" t="n">
-        <v>0.507233</v>
+        <v>0.505935</v>
       </c>
       <c r="D2" t="n">
-        <v>0.421132</v>
+        <v>0.421788</v>
       </c>
       <c r="E2" t="n">
-        <v>0.195118</v>
+        <v>0.209867</v>
       </c>
       <c r="F2" t="n">
-        <v>0.438061</v>
+        <v>0.437801</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.29674</v>
+        <v>0.294884</v>
       </c>
       <c r="C3" t="n">
-        <v>0.506038</v>
+        <v>0.50613</v>
       </c>
       <c r="D3" t="n">
-        <v>0.423251</v>
+        <v>0.421834</v>
       </c>
       <c r="E3" t="n">
-        <v>0.205844</v>
+        <v>0.208426</v>
       </c>
       <c r="F3" t="n">
-        <v>0.437845</v>
+        <v>0.438354</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.28715</v>
+        <v>0.287026</v>
       </c>
       <c r="C4" t="n">
-        <v>0.492411</v>
+        <v>0.496868</v>
       </c>
       <c r="D4" t="n">
-        <v>0.424878</v>
+        <v>0.424036</v>
       </c>
       <c r="E4" t="n">
-        <v>0.217056</v>
+        <v>0.198072</v>
       </c>
       <c r="F4" t="n">
-        <v>0.434018</v>
+        <v>0.438747</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.277282</v>
+        <v>0.27574</v>
       </c>
       <c r="C5" t="n">
-        <v>0.483968</v>
+        <v>0.487646</v>
       </c>
       <c r="D5" t="n">
-        <v>0.42218</v>
+        <v>0.426024</v>
       </c>
       <c r="E5" t="n">
-        <v>0.215554</v>
+        <v>0.202082</v>
       </c>
       <c r="F5" t="n">
-        <v>0.435577</v>
+        <v>0.435465</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.263738</v>
+        <v>0.264507</v>
       </c>
       <c r="C6" t="n">
-        <v>0.473678</v>
+        <v>0.472801</v>
       </c>
       <c r="D6" t="n">
-        <v>0.424403</v>
+        <v>0.422825</v>
       </c>
       <c r="E6" t="n">
-        <v>0.215516</v>
+        <v>0.201928</v>
       </c>
       <c r="F6" t="n">
-        <v>0.435228</v>
+        <v>0.436253</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.253144</v>
+        <v>0.25178</v>
       </c>
       <c r="C7" t="n">
-        <v>0.462446</v>
+        <v>0.462411</v>
       </c>
       <c r="D7" t="n">
-        <v>0.418593</v>
+        <v>0.420266</v>
       </c>
       <c r="E7" t="n">
-        <v>0.219323</v>
+        <v>0.219589</v>
       </c>
       <c r="F7" t="n">
-        <v>0.433829</v>
+        <v>0.437727</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.24292</v>
+        <v>0.239786</v>
       </c>
       <c r="C8" t="n">
-        <v>0.443706</v>
+        <v>0.444585</v>
       </c>
       <c r="D8" t="n">
-        <v>0.420944</v>
+        <v>0.420064</v>
       </c>
       <c r="E8" t="n">
-        <v>0.219583</v>
+        <v>0.219515</v>
       </c>
       <c r="F8" t="n">
-        <v>0.434078</v>
+        <v>0.434271</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.226379</v>
+        <v>0.224164</v>
       </c>
       <c r="C9" t="n">
-        <v>0.432832</v>
+        <v>0.432879</v>
       </c>
       <c r="D9" t="n">
-        <v>0.420356</v>
+        <v>0.420103</v>
       </c>
       <c r="E9" t="n">
-        <v>0.235845</v>
+        <v>0.235787</v>
       </c>
       <c r="F9" t="n">
-        <v>0.448911</v>
+        <v>0.449092</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.351562</v>
+        <v>0.351516</v>
       </c>
       <c r="C10" t="n">
-        <v>0.553217</v>
+        <v>0.551961</v>
       </c>
       <c r="D10" t="n">
-        <v>0.420242</v>
+        <v>0.420406</v>
       </c>
       <c r="E10" t="n">
-        <v>0.220185</v>
+        <v>0.235685</v>
       </c>
       <c r="F10" t="n">
-        <v>0.449246</v>
+        <v>0.44855</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.345524</v>
+        <v>0.34519</v>
       </c>
       <c r="C11" t="n">
-        <v>0.550604</v>
+        <v>0.5509579999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.42241</v>
+        <v>0.421252</v>
       </c>
       <c r="E11" t="n">
-        <v>0.219174</v>
+        <v>0.232285</v>
       </c>
       <c r="F11" t="n">
-        <v>0.449992</v>
+        <v>0.447444</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.342008</v>
+        <v>0.342182</v>
       </c>
       <c r="C12" t="n">
-        <v>0.547091</v>
+        <v>0.546829</v>
       </c>
       <c r="D12" t="n">
-        <v>0.421526</v>
+        <v>0.421235</v>
       </c>
       <c r="E12" t="n">
-        <v>0.220208</v>
+        <v>0.21932</v>
       </c>
       <c r="F12" t="n">
-        <v>0.447233</v>
+        <v>0.447689</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.332861</v>
+        <v>0.33263</v>
       </c>
       <c r="C13" t="n">
-        <v>0.541168</v>
+        <v>0.540493</v>
       </c>
       <c r="D13" t="n">
-        <v>0.422313</v>
+        <v>0.421585</v>
       </c>
       <c r="E13" t="n">
-        <v>0.218843</v>
+        <v>0.218264</v>
       </c>
       <c r="F13" t="n">
-        <v>0.446291</v>
+        <v>0.447106</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.327336</v>
+        <v>0.327007</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5340009999999999</v>
+        <v>0.533005</v>
       </c>
       <c r="D14" t="n">
-        <v>0.42396</v>
+        <v>0.423483</v>
       </c>
       <c r="E14" t="n">
-        <v>0.219234</v>
+        <v>0.217997</v>
       </c>
       <c r="F14" t="n">
-        <v>0.443406</v>
+        <v>0.445765</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.320536</v>
+        <v>0.320275</v>
       </c>
       <c r="C15" t="n">
-        <v>0.527021</v>
+        <v>0.525844</v>
       </c>
       <c r="D15" t="n">
-        <v>0.423767</v>
+        <v>0.423993</v>
       </c>
       <c r="E15" t="n">
-        <v>0.234323</v>
+        <v>0.233362</v>
       </c>
       <c r="F15" t="n">
-        <v>0.443436</v>
+        <v>0.443843</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.312176</v>
+        <v>0.312986</v>
       </c>
       <c r="C16" t="n">
-        <v>0.518384</v>
+        <v>0.518171</v>
       </c>
       <c r="D16" t="n">
-        <v>0.425385</v>
+        <v>0.424571</v>
       </c>
       <c r="E16" t="n">
-        <v>0.219083</v>
+        <v>0.218525</v>
       </c>
       <c r="F16" t="n">
-        <v>0.442998</v>
+        <v>0.442495</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.304322</v>
+        <v>0.304811</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5122370000000001</v>
+        <v>0.511825</v>
       </c>
       <c r="D17" t="n">
-        <v>0.427721</v>
+        <v>0.427154</v>
       </c>
       <c r="E17" t="n">
-        <v>0.233776</v>
+        <v>0.218091</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4423</v>
+        <v>0.441902</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.293847</v>
+        <v>0.294292</v>
       </c>
       <c r="C18" t="n">
-        <v>0.50142</v>
+        <v>0.500208</v>
       </c>
       <c r="D18" t="n">
-        <v>0.429317</v>
+        <v>0.428461</v>
       </c>
       <c r="E18" t="n">
-        <v>0.215801</v>
+        <v>0.216666</v>
       </c>
       <c r="F18" t="n">
-        <v>0.439241</v>
+        <v>0.439406</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.283186</v>
+        <v>0.283692</v>
       </c>
       <c r="C19" t="n">
-        <v>0.490914</v>
+        <v>0.49046</v>
       </c>
       <c r="D19" t="n">
-        <v>0.430708</v>
+        <v>0.430571</v>
       </c>
       <c r="E19" t="n">
-        <v>0.216104</v>
+        <v>0.217286</v>
       </c>
       <c r="F19" t="n">
-        <v>0.439595</v>
+        <v>0.43953</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.273339</v>
+        <v>0.274199</v>
       </c>
       <c r="C20" t="n">
-        <v>0.479402</v>
+        <v>0.478953</v>
       </c>
       <c r="D20" t="n">
-        <v>0.430473</v>
+        <v>0.43026</v>
       </c>
       <c r="E20" t="n">
-        <v>0.216604</v>
+        <v>0.218253</v>
       </c>
       <c r="F20" t="n">
-        <v>0.439313</v>
+        <v>0.439797</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.262964</v>
+        <v>0.263034</v>
       </c>
       <c r="C21" t="n">
-        <v>0.462699</v>
+        <v>0.465383</v>
       </c>
       <c r="D21" t="n">
-        <v>0.424299</v>
+        <v>0.427183</v>
       </c>
       <c r="E21" t="n">
-        <v>0.21512</v>
+        <v>0.230616</v>
       </c>
       <c r="F21" t="n">
-        <v>0.438441</v>
+        <v>0.440493</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248808</v>
+        <v>0.249187</v>
       </c>
       <c r="C22" t="n">
-        <v>0.456161</v>
+        <v>0.458717</v>
       </c>
       <c r="D22" t="n">
-        <v>0.425374</v>
+        <v>0.427933</v>
       </c>
       <c r="E22" t="n">
-        <v>0.21618</v>
+        <v>0.230352</v>
       </c>
       <c r="F22" t="n">
-        <v>0.438631</v>
+        <v>0.441151</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.23495</v>
+        <v>0.23523</v>
       </c>
       <c r="C23" t="n">
-        <v>0.435405</v>
+        <v>0.437921</v>
       </c>
       <c r="D23" t="n">
-        <v>0.426984</v>
+        <v>0.431557</v>
       </c>
       <c r="E23" t="n">
-        <v>0.247137</v>
+        <v>0.232772</v>
       </c>
       <c r="F23" t="n">
-        <v>0.454694</v>
+        <v>0.456936</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.355974</v>
+        <v>0.356343</v>
       </c>
       <c r="C24" t="n">
-        <v>0.555665</v>
+        <v>0.558853</v>
       </c>
       <c r="D24" t="n">
-        <v>0.426518</v>
+        <v>0.430244</v>
       </c>
       <c r="E24" t="n">
-        <v>0.244979</v>
+        <v>0.230222</v>
       </c>
       <c r="F24" t="n">
-        <v>0.451889</v>
+        <v>0.453896</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.350524</v>
+        <v>0.349538</v>
       </c>
       <c r="C25" t="n">
-        <v>0.553266</v>
+        <v>0.556406</v>
       </c>
       <c r="D25" t="n">
-        <v>0.427929</v>
+        <v>0.431613</v>
       </c>
       <c r="E25" t="n">
-        <v>0.256639</v>
+        <v>0.242304</v>
       </c>
       <c r="F25" t="n">
-        <v>0.450091</v>
+        <v>0.452813</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.344269</v>
+        <v>0.344652</v>
       </c>
       <c r="C26" t="n">
-        <v>0.547397</v>
+        <v>0.551145</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4277</v>
+        <v>0.430815</v>
       </c>
       <c r="E26" t="n">
-        <v>0.226076</v>
+        <v>0.240899</v>
       </c>
       <c r="F26" t="n">
-        <v>0.449682</v>
+        <v>0.452354</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.339022</v>
+        <v>0.341136</v>
       </c>
       <c r="C27" t="n">
-        <v>0.540594</v>
+        <v>0.542761</v>
       </c>
       <c r="D27" t="n">
-        <v>0.429134</v>
+        <v>0.432597</v>
       </c>
       <c r="E27" t="n">
-        <v>0.22546</v>
+        <v>0.224728</v>
       </c>
       <c r="F27" t="n">
-        <v>0.446791</v>
+        <v>0.448897</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.331456</v>
+        <v>0.332154</v>
       </c>
       <c r="C28" t="n">
-        <v>0.531946</v>
+        <v>0.535714</v>
       </c>
       <c r="D28" t="n">
-        <v>0.429076</v>
+        <v>0.432475</v>
       </c>
       <c r="E28" t="n">
-        <v>0.238767</v>
+        <v>0.223222</v>
       </c>
       <c r="F28" t="n">
-        <v>0.446781</v>
+        <v>0.448794</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.323602</v>
+        <v>0.333959</v>
       </c>
       <c r="C29" t="n">
-        <v>0.532497</v>
+        <v>0.535402</v>
       </c>
       <c r="D29" t="n">
-        <v>0.429634</v>
+        <v>0.433416</v>
       </c>
       <c r="E29" t="n">
-        <v>0.222284</v>
+        <v>0.222481</v>
       </c>
       <c r="F29" t="n">
-        <v>0.444391</v>
+        <v>0.446164</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.315096</v>
+        <v>0.315211</v>
       </c>
       <c r="C30" t="n">
-        <v>0.521379</v>
+        <v>0.523923</v>
       </c>
       <c r="D30" t="n">
-        <v>0.430843</v>
+        <v>0.434138</v>
       </c>
       <c r="E30" t="n">
-        <v>0.221135</v>
+        <v>0.221247</v>
       </c>
       <c r="F30" t="n">
-        <v>0.443997</v>
+        <v>0.445863</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.307135</v>
+        <v>0.309986</v>
       </c>
       <c r="C31" t="n">
-        <v>0.506593</v>
+        <v>0.508827</v>
       </c>
       <c r="D31" t="n">
-        <v>0.432898</v>
+        <v>0.435535</v>
       </c>
       <c r="E31" t="n">
-        <v>0.220841</v>
+        <v>0.220041</v>
       </c>
       <c r="F31" t="n">
-        <v>0.442282</v>
+        <v>0.444089</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.297721</v>
+        <v>0.298383</v>
       </c>
       <c r="C32" t="n">
-        <v>0.50623</v>
+        <v>0.509062</v>
       </c>
       <c r="D32" t="n">
-        <v>0.433458</v>
+        <v>0.436572</v>
       </c>
       <c r="E32" t="n">
-        <v>0.219929</v>
+        <v>0.219866</v>
       </c>
       <c r="F32" t="n">
-        <v>0.440802</v>
+        <v>0.442876</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.288769</v>
+        <v>0.288474</v>
       </c>
       <c r="C33" t="n">
-        <v>0.491855</v>
+        <v>0.494345</v>
       </c>
       <c r="D33" t="n">
-        <v>0.433962</v>
+        <v>0.438036</v>
       </c>
       <c r="E33" t="n">
-        <v>0.219525</v>
+        <v>0.21903</v>
       </c>
       <c r="F33" t="n">
-        <v>0.440695</v>
+        <v>0.44269</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.278191</v>
+        <v>0.278669</v>
       </c>
       <c r="C34" t="n">
-        <v>0.478133</v>
+        <v>0.480771</v>
       </c>
       <c r="D34" t="n">
-        <v>0.435487</v>
+        <v>0.438609</v>
       </c>
       <c r="E34" t="n">
-        <v>0.219489</v>
+        <v>0.23433</v>
       </c>
       <c r="F34" t="n">
-        <v>0.440285</v>
+        <v>0.442123</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.266191</v>
+        <v>0.266699</v>
       </c>
       <c r="C35" t="n">
-        <v>0.468009</v>
+        <v>0.467274</v>
       </c>
       <c r="D35" t="n">
-        <v>0.432048</v>
+        <v>0.432179</v>
       </c>
       <c r="E35" t="n">
-        <v>0.234457</v>
+        <v>0.225908</v>
       </c>
       <c r="F35" t="n">
-        <v>0.440029</v>
+        <v>0.440044</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.254145</v>
+        <v>0.254194</v>
       </c>
       <c r="C36" t="n">
-        <v>0.454508</v>
+        <v>0.454112</v>
       </c>
       <c r="D36" t="n">
-        <v>0.432262</v>
+        <v>0.43238</v>
       </c>
       <c r="E36" t="n">
-        <v>0.220858</v>
+        <v>0.218897</v>
       </c>
       <c r="F36" t="n">
-        <v>0.440289</v>
+        <v>0.440187</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.240171</v>
+        <v>0.24022</v>
       </c>
       <c r="C37" t="n">
-        <v>0.449608</v>
+        <v>0.449165</v>
       </c>
       <c r="D37" t="n">
-        <v>0.433049</v>
+        <v>0.432989</v>
       </c>
       <c r="E37" t="n">
-        <v>0.234607</v>
+        <v>0.234405</v>
       </c>
       <c r="F37" t="n">
-        <v>0.454768</v>
+        <v>0.454624</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.357993</v>
+        <v>0.358179</v>
       </c>
       <c r="C38" t="n">
-        <v>0.555253</v>
+        <v>0.5550580000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.432702</v>
+        <v>0.43281</v>
       </c>
       <c r="E38" t="n">
-        <v>0.230491</v>
+        <v>0.230234</v>
       </c>
       <c r="F38" t="n">
-        <v>0.452478</v>
+        <v>0.452641</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.35316</v>
+        <v>0.353051</v>
       </c>
       <c r="C39" t="n">
-        <v>0.550766</v>
+        <v>0.550453</v>
       </c>
       <c r="D39" t="n">
-        <v>0.432178</v>
+        <v>0.431673</v>
       </c>
       <c r="E39" t="n">
-        <v>0.227704</v>
+        <v>0.227791</v>
       </c>
       <c r="F39" t="n">
-        <v>0.45073</v>
+        <v>0.450769</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.347378</v>
+        <v>0.346975</v>
       </c>
       <c r="C40" t="n">
-        <v>0.545557</v>
+        <v>0.545316</v>
       </c>
       <c r="D40" t="n">
-        <v>0.432654</v>
+        <v>0.431126</v>
       </c>
       <c r="E40" t="n">
-        <v>0.226853</v>
+        <v>0.226732</v>
       </c>
       <c r="F40" t="n">
-        <v>0.449602</v>
+        <v>0.449665</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.341203</v>
+        <v>0.341181</v>
       </c>
       <c r="C41" t="n">
-        <v>0.538771</v>
+        <v>0.5386840000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.432295</v>
+        <v>0.431993</v>
       </c>
       <c r="E41" t="n">
-        <v>0.225537</v>
+        <v>0.225662</v>
       </c>
       <c r="F41" t="n">
-        <v>0.448431</v>
+        <v>0.448401</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.333895</v>
+        <v>0.334264</v>
       </c>
       <c r="C42" t="n">
-        <v>0.534544</v>
+        <v>0.534293</v>
       </c>
       <c r="D42" t="n">
-        <v>0.43196</v>
+        <v>0.431941</v>
       </c>
       <c r="E42" t="n">
-        <v>0.22395</v>
+        <v>0.224279</v>
       </c>
       <c r="F42" t="n">
-        <v>0.446641</v>
+        <v>0.446645</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.326435</v>
+        <v>0.326848</v>
       </c>
       <c r="C43" t="n">
-        <v>0.52694</v>
+        <v>0.526674</v>
       </c>
       <c r="D43" t="n">
-        <v>0.433471</v>
+        <v>0.433076</v>
       </c>
       <c r="E43" t="n">
-        <v>0.223337</v>
+        <v>0.223617</v>
       </c>
       <c r="F43" t="n">
-        <v>0.445238</v>
+        <v>0.44541</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.319343</v>
+        <v>0.318705</v>
       </c>
       <c r="C44" t="n">
-        <v>0.522638</v>
+        <v>0.522223</v>
       </c>
       <c r="D44" t="n">
-        <v>0.434341</v>
+        <v>0.433416</v>
       </c>
       <c r="E44" t="n">
-        <v>0.222335</v>
+        <v>0.222238</v>
       </c>
       <c r="F44" t="n">
-        <v>0.444083</v>
+        <v>0.443892</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.310746</v>
+        <v>0.309976</v>
       </c>
       <c r="C45" t="n">
-        <v>0.511251</v>
+        <v>0.510719</v>
       </c>
       <c r="D45" t="n">
-        <v>0.434708</v>
+        <v>0.434773</v>
       </c>
       <c r="E45" t="n">
-        <v>0.221313</v>
+        <v>0.221137</v>
       </c>
       <c r="F45" t="n">
-        <v>0.442573</v>
+        <v>0.442713</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.301953</v>
+        <v>0.301865</v>
       </c>
       <c r="C46" t="n">
-        <v>0.506641</v>
+        <v>0.5064340000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.43603</v>
+        <v>0.435663</v>
       </c>
       <c r="E46" t="n">
-        <v>0.220079</v>
+        <v>0.220349</v>
       </c>
       <c r="F46" t="n">
-        <v>0.442071</v>
+        <v>0.441958</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.291472</v>
+        <v>0.292892</v>
       </c>
       <c r="C47" t="n">
-        <v>0.497505</v>
+        <v>0.497111</v>
       </c>
       <c r="D47" t="n">
-        <v>0.43641</v>
+        <v>0.436011</v>
       </c>
       <c r="E47" t="n">
-        <v>0.220206</v>
+        <v>0.219339</v>
       </c>
       <c r="F47" t="n">
-        <v>0.441277</v>
+        <v>0.441494</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.281786</v>
+        <v>0.281304</v>
       </c>
       <c r="C48" t="n">
-        <v>0.486522</v>
+        <v>0.486092</v>
       </c>
       <c r="D48" t="n">
-        <v>0.437884</v>
+        <v>0.437996</v>
       </c>
       <c r="E48" t="n">
-        <v>0.219502</v>
+        <v>0.234998</v>
       </c>
       <c r="F48" t="n">
-        <v>0.441037</v>
+        <v>0.440793</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.270637</v>
+        <v>0.270789</v>
       </c>
       <c r="C49" t="n">
-        <v>0.470771</v>
+        <v>0.470328</v>
       </c>
       <c r="D49" t="n">
-        <v>0.438689</v>
+        <v>0.438501</v>
       </c>
       <c r="E49" t="n">
-        <v>0.218755</v>
+        <v>0.21947</v>
       </c>
       <c r="F49" t="n">
-        <v>0.441025</v>
+        <v>0.440931</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.257101</v>
+        <v>0.257338</v>
       </c>
       <c r="C50" t="n">
-        <v>0.463986</v>
+        <v>0.463851</v>
       </c>
       <c r="D50" t="n">
-        <v>0.43872</v>
+        <v>0.43739</v>
       </c>
       <c r="E50" t="n">
-        <v>0.218485</v>
+        <v>0.233349</v>
       </c>
       <c r="F50" t="n">
-        <v>0.440705</v>
+        <v>0.44028</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.243749</v>
+        <v>0.243957</v>
       </c>
       <c r="C51" t="n">
-        <v>0.448185</v>
+        <v>0.44525</v>
       </c>
       <c r="D51" t="n">
-        <v>0.437899</v>
+        <v>0.439033</v>
       </c>
       <c r="E51" t="n">
-        <v>0.257677</v>
+        <v>0.248204</v>
       </c>
       <c r="F51" t="n">
-        <v>0.455968</v>
+        <v>0.45601</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.228999</v>
+        <v>0.229266</v>
       </c>
       <c r="C52" t="n">
-        <v>0.43348</v>
+        <v>0.433174</v>
       </c>
       <c r="D52" t="n">
-        <v>0.437388</v>
+        <v>0.437977</v>
       </c>
       <c r="E52" t="n">
-        <v>0.246849</v>
+        <v>0.239521</v>
       </c>
       <c r="F52" t="n">
-        <v>0.454226</v>
+        <v>0.454066</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.354676</v>
+        <v>0.354766</v>
       </c>
       <c r="C53" t="n">
-        <v>0.557912</v>
+        <v>0.559173</v>
       </c>
       <c r="D53" t="n">
-        <v>0.438724</v>
+        <v>0.437954</v>
       </c>
       <c r="E53" t="n">
-        <v>0.229216</v>
+        <v>0.229676</v>
       </c>
       <c r="F53" t="n">
-        <v>0.451926</v>
+        <v>0.451957</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.349511</v>
+        <v>0.34908</v>
       </c>
       <c r="C54" t="n">
-        <v>0.552605</v>
+        <v>0.552768</v>
       </c>
       <c r="D54" t="n">
-        <v>0.439103</v>
+        <v>0.44193</v>
       </c>
       <c r="E54" t="n">
-        <v>0.227825</v>
+        <v>0.227369</v>
       </c>
       <c r="F54" t="n">
-        <v>0.450223</v>
+        <v>0.450057</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.343358</v>
+        <v>0.343699</v>
       </c>
       <c r="C55" t="n">
-        <v>0.552316</v>
+        <v>0.55507</v>
       </c>
       <c r="D55" t="n">
-        <v>0.439531</v>
+        <v>0.441753</v>
       </c>
       <c r="E55" t="n">
-        <v>0.227007</v>
+        <v>0.226641</v>
       </c>
       <c r="F55" t="n">
-        <v>0.448816</v>
+        <v>0.448767</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.336288</v>
+        <v>0.336076</v>
       </c>
       <c r="C56" t="n">
-        <v>0.545589</v>
+        <v>0.5476529999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.442759</v>
+        <v>0.442496</v>
       </c>
       <c r="E56" t="n">
-        <v>0.225184</v>
+        <v>0.225328</v>
       </c>
       <c r="F56" t="n">
-        <v>0.446693</v>
+        <v>0.446858</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.328264</v>
+        <v>0.328774</v>
       </c>
       <c r="C57" t="n">
-        <v>0.549889</v>
+        <v>0.551503</v>
       </c>
       <c r="D57" t="n">
-        <v>0.443666</v>
+        <v>0.443706</v>
       </c>
       <c r="E57" t="n">
-        <v>0.224039</v>
+        <v>0.224141</v>
       </c>
       <c r="F57" t="n">
-        <v>0.445735</v>
+        <v>0.445726</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.321174</v>
+        <v>0.321202</v>
       </c>
       <c r="C58" t="n">
-        <v>0.549763</v>
+        <v>0.5489579999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.446316</v>
+        <v>0.445533</v>
       </c>
       <c r="E58" t="n">
-        <v>0.224007</v>
+        <v>0.223781</v>
       </c>
       <c r="F58" t="n">
-        <v>0.444542</v>
+        <v>0.444433</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.313408</v>
+        <v>0.312742</v>
       </c>
       <c r="C59" t="n">
-        <v>0.548049</v>
+        <v>0.548328</v>
       </c>
       <c r="D59" t="n">
-        <v>0.446292</v>
+        <v>0.448587</v>
       </c>
       <c r="E59" t="n">
-        <v>0.222341</v>
+        <v>0.22292</v>
       </c>
       <c r="F59" t="n">
-        <v>0.443198</v>
+        <v>0.443331</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.30384</v>
+        <v>0.304019</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5179510000000001</v>
+        <v>0.519209</v>
       </c>
       <c r="D60" t="n">
-        <v>0.451566</v>
+        <v>0.452503</v>
       </c>
       <c r="E60" t="n">
-        <v>0.221668</v>
+        <v>0.222679</v>
       </c>
       <c r="F60" t="n">
-        <v>0.443136</v>
+        <v>0.442892</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.294672</v>
+        <v>0.295098</v>
       </c>
       <c r="C61" t="n">
-        <v>0.545999</v>
+        <v>0.543224</v>
       </c>
       <c r="D61" t="n">
-        <v>0.454026</v>
+        <v>0.453198</v>
       </c>
       <c r="E61" t="n">
-        <v>0.235061</v>
+        <v>0.220209</v>
       </c>
       <c r="F61" t="n">
-        <v>0.44193</v>
+        <v>0.441701</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.284351</v>
+        <v>0.284526</v>
       </c>
       <c r="C62" t="n">
-        <v>0.506702</v>
+        <v>0.508768</v>
       </c>
       <c r="D62" t="n">
-        <v>0.458282</v>
+        <v>0.459373</v>
       </c>
       <c r="E62" t="n">
-        <v>0.220399</v>
+        <v>0.220716</v>
       </c>
       <c r="F62" t="n">
-        <v>0.441274</v>
+        <v>0.441046</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.273459</v>
+        <v>0.273551</v>
       </c>
       <c r="C63" t="n">
-        <v>0.526907</v>
+        <v>0.524972</v>
       </c>
       <c r="D63" t="n">
-        <v>0.461203</v>
+        <v>0.459993</v>
       </c>
       <c r="E63" t="n">
-        <v>0.233857</v>
+        <v>0.234109</v>
       </c>
       <c r="F63" t="n">
-        <v>0.44077</v>
+        <v>0.44056</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.261438</v>
+        <v>0.262037</v>
       </c>
       <c r="C64" t="n">
-        <v>0.505038</v>
+        <v>0.503728</v>
       </c>
       <c r="D64" t="n">
-        <v>0.496446</v>
+        <v>0.497599</v>
       </c>
       <c r="E64" t="n">
-        <v>0.218402</v>
+        <v>0.232973</v>
       </c>
       <c r="F64" t="n">
-        <v>0.440613</v>
+        <v>0.440461</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.247621</v>
+        <v>0.247641</v>
       </c>
       <c r="C65" t="n">
-        <v>0.494754</v>
+        <v>0.495125</v>
       </c>
       <c r="D65" t="n">
-        <v>0.498652</v>
+        <v>0.494812</v>
       </c>
       <c r="E65" t="n">
-        <v>0.232902</v>
+        <v>0.230565</v>
       </c>
       <c r="F65" t="n">
-        <v>0.440305</v>
+        <v>0.440513</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.233755</v>
+        <v>0.233591</v>
       </c>
       <c r="C66" t="n">
-        <v>0.47368</v>
+        <v>0.474385</v>
       </c>
       <c r="D66" t="n">
-        <v>0.504701</v>
+        <v>0.503109</v>
       </c>
       <c r="E66" t="n">
-        <v>0.233561</v>
+        <v>0.234006</v>
       </c>
       <c r="F66" t="n">
-        <v>0.454796</v>
+        <v>0.455076</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.356239</v>
+        <v>0.356657</v>
       </c>
       <c r="C67" t="n">
-        <v>0.642048</v>
+        <v>0.639425</v>
       </c>
       <c r="D67" t="n">
-        <v>0.513491</v>
+        <v>0.509773</v>
       </c>
       <c r="E67" t="n">
-        <v>0.231965</v>
+        <v>0.232236</v>
       </c>
       <c r="F67" t="n">
-        <v>0.453168</v>
+        <v>0.453409</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.351175</v>
+        <v>0.351223</v>
       </c>
       <c r="C68" t="n">
-        <v>0.584124</v>
+        <v>0.584464</v>
       </c>
       <c r="D68" t="n">
-        <v>0.519584</v>
+        <v>0.51825</v>
       </c>
       <c r="E68" t="n">
-        <v>0.231299</v>
+        <v>0.230196</v>
       </c>
       <c r="F68" t="n">
-        <v>0.451157</v>
+        <v>0.451523</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.345116</v>
+        <v>0.3452</v>
       </c>
       <c r="C69" t="n">
-        <v>0.57798</v>
+        <v>0.578916</v>
       </c>
       <c r="D69" t="n">
-        <v>0.520583</v>
+        <v>0.522576</v>
       </c>
       <c r="E69" t="n">
-        <v>0.22824</v>
+        <v>0.229012</v>
       </c>
       <c r="F69" t="n">
-        <v>0.44924</v>
+        <v>0.44958</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.338563</v>
+        <v>0.3383</v>
       </c>
       <c r="C70" t="n">
-        <v>0.671011</v>
+        <v>0.678186</v>
       </c>
       <c r="D70" t="n">
-        <v>0.529114</v>
+        <v>0.538175</v>
       </c>
       <c r="E70" t="n">
-        <v>0.227821</v>
+        <v>0.229031</v>
       </c>
       <c r="F70" t="n">
-        <v>0.447535</v>
+        <v>0.451132</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.330673</v>
+        <v>0.330792</v>
       </c>
       <c r="C71" t="n">
-        <v>0.65249</v>
+        <v>0.659236</v>
       </c>
       <c r="D71" t="n">
-        <v>0.530274</v>
+        <v>0.54545</v>
       </c>
       <c r="E71" t="n">
-        <v>0.228335</v>
+        <v>0.227657</v>
       </c>
       <c r="F71" t="n">
-        <v>0.446322</v>
+        <v>0.449707</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.323635</v>
+        <v>0.323223</v>
       </c>
       <c r="C72" t="n">
-        <v>0.660048</v>
+        <v>0.665878</v>
       </c>
       <c r="D72" t="n">
-        <v>0.537904</v>
+        <v>0.551732</v>
       </c>
       <c r="E72" t="n">
-        <v>0.226045</v>
+        <v>0.226122</v>
       </c>
       <c r="F72" t="n">
-        <v>0.444793</v>
+        <v>0.448094</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.315093</v>
+        <v>0.315458</v>
       </c>
       <c r="C73" t="n">
-        <v>0.615187</v>
+        <v>0.614668</v>
       </c>
       <c r="D73" t="n">
-        <v>0.542844</v>
+        <v>0.542512</v>
       </c>
       <c r="E73" t="n">
-        <v>0.224666</v>
+        <v>0.225101</v>
       </c>
       <c r="F73" t="n">
-        <v>0.443429</v>
+        <v>0.44355</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.30766</v>
+        <v>0.307098</v>
       </c>
       <c r="C74" t="n">
-        <v>0.618752</v>
+        <v>0.619672</v>
       </c>
       <c r="D74" t="n">
-        <v>0.544247</v>
+        <v>0.543368</v>
       </c>
       <c r="E74" t="n">
-        <v>0.224119</v>
+        <v>0.224874</v>
       </c>
       <c r="F74" t="n">
-        <v>0.442774</v>
+        <v>0.443011</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.297514</v>
+        <v>0.297508</v>
       </c>
       <c r="C75" t="n">
-        <v>0.656592</v>
+        <v>0.657143</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5440120000000001</v>
+        <v>0.543152</v>
       </c>
       <c r="E75" t="n">
-        <v>0.235115</v>
+        <v>0.235343</v>
       </c>
       <c r="F75" t="n">
-        <v>0.442064</v>
+        <v>0.442141</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.287767</v>
+        <v>0.287402</v>
       </c>
       <c r="C76" t="n">
-        <v>0.590279</v>
+        <v>0.590809</v>
       </c>
       <c r="D76" t="n">
-        <v>0.54806</v>
+        <v>0.547345</v>
       </c>
       <c r="E76" t="n">
-        <v>0.223774</v>
+        <v>0.223202</v>
       </c>
       <c r="F76" t="n">
-        <v>0.441067</v>
+        <v>0.441123</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.276777</v>
+        <v>0.276276</v>
       </c>
       <c r="C77" t="n">
-        <v>0.624619</v>
+        <v>0.624511</v>
       </c>
       <c r="D77" t="n">
-        <v>0.562908</v>
+        <v>0.548335</v>
       </c>
       <c r="E77" t="n">
-        <v>0.222657</v>
+        <v>0.222905</v>
       </c>
       <c r="F77" t="n">
-        <v>0.444147</v>
+        <v>0.441358</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.264849</v>
+        <v>0.264914</v>
       </c>
       <c r="C78" t="n">
-        <v>0.619879</v>
+        <v>0.615131</v>
       </c>
       <c r="D78" t="n">
-        <v>0.633128</v>
+        <v>0.619702</v>
       </c>
       <c r="E78" t="n">
-        <v>0.233214</v>
+        <v>0.246117</v>
       </c>
       <c r="F78" t="n">
-        <v>0.444092</v>
+        <v>0.441019</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.25184</v>
+        <v>0.251665</v>
       </c>
       <c r="C79" t="n">
-        <v>0.549004</v>
+        <v>0.544404</v>
       </c>
       <c r="D79" t="n">
-        <v>0.641773</v>
+        <v>0.629903</v>
       </c>
       <c r="E79" t="n">
-        <v>0.231456</v>
+        <v>0.218213</v>
       </c>
       <c r="F79" t="n">
-        <v>0.443567</v>
+        <v>0.440701</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.238528</v>
+        <v>0.23799</v>
       </c>
       <c r="C80" t="n">
-        <v>0.504408</v>
+        <v>0.503076</v>
       </c>
       <c r="D80" t="n">
-        <v>0.643896</v>
+        <v>0.632893</v>
       </c>
       <c r="E80" t="n">
-        <v>0.234076</v>
+        <v>0.248063</v>
       </c>
       <c r="F80" t="n">
-        <v>0.455514</v>
+        <v>0.455571</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.357617</v>
+        <v>0.357794</v>
       </c>
       <c r="C81" t="n">
-        <v>0.650861</v>
+        <v>0.65118</v>
       </c>
       <c r="D81" t="n">
-        <v>0.62524</v>
+        <v>0.624709</v>
       </c>
       <c r="E81" t="n">
-        <v>0.236678</v>
+        <v>0.23591</v>
       </c>
       <c r="F81" t="n">
-        <v>0.453326</v>
+        <v>0.45336</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.352585</v>
+        <v>0.352623</v>
       </c>
       <c r="C82" t="n">
-        <v>0.664992</v>
+        <v>0.664614</v>
       </c>
       <c r="D82" t="n">
-        <v>0.621694</v>
+        <v>0.621142</v>
       </c>
       <c r="E82" t="n">
-        <v>0.233907</v>
+        <v>0.233828</v>
       </c>
       <c r="F82" t="n">
-        <v>0.451335</v>
+        <v>0.451296</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.34603</v>
+        <v>0.346139</v>
       </c>
       <c r="C83" t="n">
-        <v>0.630783</v>
+        <v>0.630839</v>
       </c>
       <c r="D83" t="n">
-        <v>0.61803</v>
+        <v>0.617449</v>
       </c>
       <c r="E83" t="n">
-        <v>0.232679</v>
+        <v>0.232718</v>
       </c>
       <c r="F83" t="n">
-        <v>0.449766</v>
+        <v>0.450074</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.339559</v>
+        <v>0.33974</v>
       </c>
       <c r="C84" t="n">
-        <v>0.716208</v>
+        <v>0.720215</v>
       </c>
       <c r="D84" t="n">
-        <v>0.607405</v>
+        <v>0.620967</v>
       </c>
       <c r="E84" t="n">
-        <v>0.231287</v>
+        <v>0.231485</v>
       </c>
       <c r="F84" t="n">
-        <v>0.447969</v>
+        <v>0.451145</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.332896</v>
+        <v>0.332652</v>
       </c>
       <c r="C85" t="n">
-        <v>0.669366</v>
+        <v>0.674669</v>
       </c>
       <c r="D85" t="n">
-        <v>0.610995</v>
+        <v>0.624139</v>
       </c>
       <c r="E85" t="n">
-        <v>0.231221</v>
+        <v>0.230706</v>
       </c>
       <c r="F85" t="n">
-        <v>0.446717</v>
+        <v>0.450191</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.324987</v>
+        <v>0.325073</v>
       </c>
       <c r="C86" t="n">
-        <v>0.700754</v>
+        <v>0.706832</v>
       </c>
       <c r="D86" t="n">
-        <v>0.606955</v>
+        <v>0.619613</v>
       </c>
       <c r="E86" t="n">
-        <v>0.229014</v>
+        <v>0.225941</v>
       </c>
       <c r="F86" t="n">
-        <v>0.445678</v>
+        <v>0.448871</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.317427</v>
+        <v>0.316905</v>
       </c>
       <c r="C87" t="n">
-        <v>0.595724</v>
+        <v>0.7132309999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.615592</v>
+        <v>0.613269</v>
       </c>
       <c r="E87" t="n">
-        <v>0.222037</v>
+        <v>0.22644</v>
       </c>
       <c r="F87" t="n">
-        <v>0.447473</v>
+        <v>0.447292</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.30898</v>
+        <v>0.308945</v>
       </c>
       <c r="C88" t="n">
-        <v>0.593021</v>
+        <v>0.593479</v>
       </c>
       <c r="D88" t="n">
-        <v>0.609438</v>
+        <v>0.609169</v>
       </c>
       <c r="E88" t="n">
-        <v>0.227145</v>
+        <v>0.227129</v>
       </c>
       <c r="F88" t="n">
-        <v>0.446286</v>
+        <v>0.446249</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.300124</v>
+        <v>0.299575</v>
       </c>
       <c r="C89" t="n">
-        <v>0.685037</v>
+        <v>0.685131</v>
       </c>
       <c r="D89" t="n">
-        <v>0.607576</v>
+        <v>0.6072340000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>0.220398</v>
+        <v>0.220687</v>
       </c>
       <c r="F89" t="n">
-        <v>0.44559</v>
+        <v>0.445567</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.289454</v>
+        <v>0.289461</v>
       </c>
       <c r="C90" t="n">
-        <v>0.566475</v>
+        <v>0.566275</v>
       </c>
       <c r="D90" t="n">
-        <v>0.604585</v>
+        <v>0.604387</v>
       </c>
       <c r="E90" t="n">
-        <v>0.234892</v>
+        <v>0.23516</v>
       </c>
       <c r="F90" t="n">
-        <v>0.444733</v>
+        <v>0.444704</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.278894</v>
+        <v>0.278755</v>
       </c>
       <c r="C91" t="n">
-        <v>0.57163</v>
+        <v>0.572272</v>
       </c>
       <c r="D91" t="n">
-        <v>0.599526</v>
+        <v>0.599584</v>
       </c>
       <c r="E91" t="n">
-        <v>0.246872</v>
+        <v>0.220125</v>
       </c>
       <c r="F91" t="n">
-        <v>0.444205</v>
+        <v>0.444267</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.267214</v>
+        <v>0.267354</v>
       </c>
       <c r="C92" t="n">
-        <v>0.497328</v>
+        <v>0.497641</v>
       </c>
       <c r="D92" t="n">
-        <v>0.644582</v>
+        <v>0.644641</v>
       </c>
       <c r="E92" t="n">
-        <v>0.219406</v>
+        <v>0.242668</v>
       </c>
       <c r="F92" t="n">
-        <v>0.444209</v>
+        <v>0.444148</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.254496</v>
+        <v>0.254959</v>
       </c>
       <c r="C93" t="n">
-        <v>0.597928</v>
+        <v>0.5983849999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.627717</v>
+        <v>0.628156</v>
       </c>
       <c r="E93" t="n">
-        <v>0.219147</v>
+        <v>0.233299</v>
       </c>
       <c r="F93" t="n">
-        <v>0.443845</v>
+        <v>0.443938</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.240424</v>
+        <v>0.240673</v>
       </c>
       <c r="C94" t="n">
-        <v>0.572816</v>
+        <v>0.572915</v>
       </c>
       <c r="D94" t="n">
-        <v>0.629984</v>
+        <v>0.630091</v>
       </c>
       <c r="E94" t="n">
-        <v>0.239101</v>
+        <v>0.239522</v>
       </c>
       <c r="F94" t="n">
-        <v>0.459096</v>
+        <v>0.457769</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.359145</v>
+        <v>0.359287</v>
       </c>
       <c r="C95" t="n">
-        <v>0.758361</v>
+        <v>0.751923</v>
       </c>
       <c r="D95" t="n">
-        <v>0.634856</v>
+        <v>0.620897</v>
       </c>
       <c r="E95" t="n">
-        <v>0.238052</v>
+        <v>0.237828</v>
       </c>
       <c r="F95" t="n">
-        <v>0.457499</v>
+        <v>0.454052</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.353616</v>
+        <v>0.354055</v>
       </c>
       <c r="C96" t="n">
-        <v>0.712862</v>
+        <v>0.706529</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6308820000000001</v>
+        <v>0.616547</v>
       </c>
       <c r="E96" t="n">
-        <v>0.236034</v>
+        <v>0.236242</v>
       </c>
       <c r="F96" t="n">
-        <v>0.457968</v>
+        <v>0.452412</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.34818</v>
+        <v>0.34797</v>
       </c>
       <c r="C97" t="n">
-        <v>0.733605</v>
+        <v>0.727156</v>
       </c>
       <c r="D97" t="n">
-        <v>0.627763</v>
+        <v>0.612831</v>
       </c>
       <c r="E97" t="n">
-        <v>0.234392</v>
+        <v>0.233165</v>
       </c>
       <c r="F97" t="n">
-        <v>0.454017</v>
+        <v>0.450623</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.341047</v>
+        <v>0.341596</v>
       </c>
       <c r="C98" t="n">
-        <v>0.667435</v>
+        <v>0.661061</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6220560000000001</v>
+        <v>0.607636</v>
       </c>
       <c r="E98" t="n">
-        <v>0.230886</v>
+        <v>0.233077</v>
       </c>
       <c r="F98" t="n">
-        <v>0.452262</v>
+        <v>0.449042</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.334224</v>
+        <v>0.334566</v>
       </c>
       <c r="C99" t="n">
-        <v>0.672494</v>
+        <v>0.666113</v>
       </c>
       <c r="D99" t="n">
-        <v>0.610067</v>
+        <v>0.593794</v>
       </c>
       <c r="E99" t="n">
-        <v>0.232119</v>
+        <v>0.232166</v>
       </c>
       <c r="F99" t="n">
-        <v>0.45052</v>
+        <v>0.447257</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.326928</v>
+        <v>0.326906</v>
       </c>
       <c r="C100" t="n">
-        <v>0.573646</v>
+        <v>0.56869</v>
       </c>
       <c r="D100" t="n">
-        <v>0.605467</v>
+        <v>0.593466</v>
       </c>
       <c r="E100" t="n">
-        <v>0.23085</v>
+        <v>0.2384</v>
       </c>
       <c r="F100" t="n">
-        <v>0.449151</v>
+        <v>0.445672</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.31958</v>
+        <v>0.31925</v>
       </c>
       <c r="C101" t="n">
-        <v>0.601214</v>
+        <v>0.596259</v>
       </c>
       <c r="D101" t="n">
-        <v>0.601705</v>
+        <v>0.5859220000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>0.22859</v>
+        <v>0.227324</v>
       </c>
       <c r="F101" t="n">
-        <v>0.44805</v>
+        <v>0.444768</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.310671</v>
+        <v>0.310589</v>
       </c>
       <c r="C102" t="n">
-        <v>0.642671</v>
+        <v>0.638769</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6020799999999999</v>
+        <v>0.5888409999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>0.237515</v>
+        <v>0.237476</v>
       </c>
       <c r="F102" t="n">
-        <v>0.446859</v>
+        <v>0.44361</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.30216</v>
+        <v>0.301809</v>
       </c>
       <c r="C103" t="n">
-        <v>0.585201</v>
+        <v>0.580426</v>
       </c>
       <c r="D103" t="n">
-        <v>0.59712</v>
+        <v>0.583139</v>
       </c>
       <c r="E103" t="n">
-        <v>0.227301</v>
+        <v>0.226512</v>
       </c>
       <c r="F103" t="n">
-        <v>0.445715</v>
+        <v>0.442448</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.291915</v>
+        <v>0.292209</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5882849999999999</v>
+        <v>0.583602</v>
       </c>
       <c r="D104" t="n">
-        <v>0.590074</v>
+        <v>0.575274</v>
       </c>
       <c r="E104" t="n">
-        <v>0.235584</v>
+        <v>0.235757</v>
       </c>
       <c r="F104" t="n">
-        <v>0.445195</v>
+        <v>0.442022</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.281541</v>
+        <v>0.28187</v>
       </c>
       <c r="C105" t="n">
-        <v>0.590625</v>
+        <v>0.585993</v>
       </c>
       <c r="D105" t="n">
-        <v>0.586809</v>
+        <v>0.572977</v>
       </c>
       <c r="E105" t="n">
-        <v>0.228527</v>
+        <v>0.234209</v>
       </c>
       <c r="F105" t="n">
-        <v>0.444618</v>
+        <v>0.441537</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.270312</v>
+        <v>0.270413</v>
       </c>
       <c r="C106" t="n">
-        <v>0.60172</v>
+        <v>0.5972229999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.582771</v>
+        <v>0.567351</v>
       </c>
       <c r="E106" t="n">
-        <v>0.234431</v>
+        <v>0.233112</v>
       </c>
       <c r="F106" t="n">
-        <v>0.444583</v>
+        <v>0.441526</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.25797</v>
+        <v>0.257964</v>
       </c>
       <c r="C107" t="n">
-        <v>0.596035</v>
+        <v>0.589862</v>
       </c>
       <c r="D107" t="n">
-        <v>0.646147</v>
+        <v>0.629031</v>
       </c>
       <c r="E107" t="n">
-        <v>0.218508</v>
+        <v>0.234097</v>
       </c>
       <c r="F107" t="n">
-        <v>0.444329</v>
+        <v>0.441296</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.244058</v>
+        <v>0.244204</v>
       </c>
       <c r="C108" t="n">
-        <v>0.565011</v>
+        <v>0.561183</v>
       </c>
       <c r="D108" t="n">
-        <v>0.638907</v>
+        <v>0.625233</v>
       </c>
       <c r="E108" t="n">
-        <v>0.24166</v>
+        <v>0.241739</v>
       </c>
       <c r="F108" t="n">
-        <v>0.459846</v>
+        <v>0.456345</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.228569</v>
+        <v>0.2286</v>
       </c>
       <c r="C109" t="n">
-        <v>0.510483</v>
+        <v>0.507091</v>
       </c>
       <c r="D109" t="n">
-        <v>0.626796</v>
+        <v>0.610951</v>
       </c>
       <c r="E109" t="n">
-        <v>0.238383</v>
+        <v>0.238522</v>
       </c>
       <c r="F109" t="n">
-        <v>0.457796</v>
+        <v>0.454377</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355072</v>
+        <v>0.355498</v>
       </c>
       <c r="C110" t="n">
-        <v>0.700623</v>
+        <v>0.695038</v>
       </c>
       <c r="D110" t="n">
-        <v>0.621146</v>
+        <v>0.605558</v>
       </c>
       <c r="E110" t="n">
-        <v>0.236151</v>
+        <v>0.235634</v>
       </c>
       <c r="F110" t="n">
-        <v>0.455799</v>
+        <v>0.452368</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.349187</v>
+        <v>0.349492</v>
       </c>
       <c r="C111" t="n">
-        <v>0.639348</v>
+        <v>0.633528</v>
       </c>
       <c r="D111" t="n">
-        <v>0.617588</v>
+        <v>0.60145</v>
       </c>
       <c r="E111" t="n">
-        <v>0.236906</v>
+        <v>0.234592</v>
       </c>
       <c r="F111" t="n">
-        <v>0.453741</v>
+        <v>0.450616</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342909</v>
+        <v>0.342616</v>
       </c>
       <c r="C112" t="n">
-        <v>0.588646</v>
+        <v>0.582855</v>
       </c>
       <c r="D112" t="n">
-        <v>0.614019</v>
+        <v>0.597486</v>
       </c>
       <c r="E112" t="n">
-        <v>0.233466</v>
+        <v>0.235856</v>
       </c>
       <c r="F112" t="n">
-        <v>0.452146</v>
+        <v>0.448999</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.336019</v>
+        <v>0.33626</v>
       </c>
       <c r="C113" t="n">
-        <v>0.606259</v>
+        <v>0.600596</v>
       </c>
       <c r="D113" t="n">
-        <v>0.620444</v>
+        <v>0.607121</v>
       </c>
       <c r="E113" t="n">
-        <v>0.232875</v>
+        <v>0.234137</v>
       </c>
       <c r="F113" t="n">
-        <v>0.450915</v>
+        <v>0.447519</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.328322</v>
+        <v>0.328934</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6029099999999999</v>
+        <v>0.5981</v>
       </c>
       <c r="D114" t="n">
-        <v>0.613096</v>
+        <v>0.599274</v>
       </c>
       <c r="E114" t="n">
-        <v>0.23182</v>
+        <v>0.231438</v>
       </c>
       <c r="F114" t="n">
-        <v>0.44936</v>
+        <v>0.446241</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.320667</v>
+        <v>0.320888</v>
       </c>
       <c r="C115" t="n">
-        <v>0.584519</v>
+        <v>0.579637</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6070449999999999</v>
+        <v>0.594589</v>
       </c>
       <c r="E115" t="n">
-        <v>0.231689</v>
+        <v>0.231109</v>
       </c>
       <c r="F115" t="n">
-        <v>0.448154</v>
+        <v>0.444935</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.312572</v>
+        <v>0.312657</v>
       </c>
       <c r="C116" t="n">
-        <v>0.717984</v>
+        <v>0.713337</v>
       </c>
       <c r="D116" t="n">
-        <v>0.601351</v>
+        <v>0.587871</v>
       </c>
       <c r="E116" t="n">
-        <v>0.237702</v>
+        <v>0.235918</v>
       </c>
       <c r="F116" t="n">
-        <v>0.447014</v>
+        <v>0.443756</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.303259</v>
+        <v>0.303506</v>
       </c>
       <c r="C117" t="n">
-        <v>0.619549</v>
+        <v>0.615134</v>
       </c>
       <c r="D117" t="n">
-        <v>0.59179</v>
+        <v>0.577148</v>
       </c>
       <c r="E117" t="n">
-        <v>0.229002</v>
+        <v>0.227952</v>
       </c>
       <c r="F117" t="n">
-        <v>0.445824</v>
+        <v>0.442784</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.294208</v>
+        <v>0.29417</v>
       </c>
       <c r="C118" t="n">
-        <v>0.584071</v>
+        <v>0.579179</v>
       </c>
       <c r="D118" t="n">
-        <v>0.590936</v>
+        <v>0.57735</v>
       </c>
       <c r="E118" t="n">
-        <v>0.244597</v>
+        <v>0.227907</v>
       </c>
       <c r="F118" t="n">
-        <v>0.445245</v>
+        <v>0.44211</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.283399</v>
+        <v>0.283776</v>
       </c>
       <c r="C119" t="n">
-        <v>0.579153</v>
+        <v>0.574654</v>
       </c>
       <c r="D119" t="n">
-        <v>0.584249</v>
+        <v>0.569127</v>
       </c>
       <c r="E119" t="n">
-        <v>0.233458</v>
+        <v>0.233543</v>
       </c>
       <c r="F119" t="n">
-        <v>0.444586</v>
+        <v>0.441527</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.272465</v>
+        <v>0.272486</v>
       </c>
       <c r="C120" t="n">
-        <v>0.572576</v>
+        <v>0.567597</v>
       </c>
       <c r="D120" t="n">
-        <v>0.579804</v>
+        <v>0.565619</v>
       </c>
       <c r="E120" t="n">
-        <v>0.234027</v>
+        <v>0.234419</v>
       </c>
       <c r="F120" t="n">
-        <v>0.444496</v>
+        <v>0.441483</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.260366</v>
+        <v>0.261035</v>
       </c>
       <c r="C121" t="n">
-        <v>0.558433</v>
+        <v>0.55293</v>
       </c>
       <c r="D121" t="n">
-        <v>0.656732</v>
+        <v>0.642806</v>
       </c>
       <c r="E121" t="n">
-        <v>0.237345</v>
+        <v>0.23368</v>
       </c>
       <c r="F121" t="n">
-        <v>0.444471</v>
+        <v>0.441181</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.24696</v>
+        <v>0.247145</v>
       </c>
       <c r="C122" t="n">
-        <v>0.515079</v>
+        <v>0.5112950000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.638721</v>
+        <v>0.62253</v>
       </c>
       <c r="E122" t="n">
-        <v>0.244481</v>
+        <v>0.233208</v>
       </c>
       <c r="F122" t="n">
-        <v>0.444013</v>
+        <v>0.440949</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232615</v>
+        <v>0.232784</v>
       </c>
       <c r="C123" t="n">
-        <v>0.546163</v>
+        <v>0.541852</v>
       </c>
       <c r="D123" t="n">
-        <v>0.651054</v>
+        <v>0.636999</v>
       </c>
       <c r="E123" t="n">
-        <v>0.252253</v>
+        <v>0.245518</v>
       </c>
       <c r="F123" t="n">
-        <v>0.458298</v>
+        <v>0.454805</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356869</v>
+        <v>0.356987</v>
       </c>
       <c r="C124" t="n">
-        <v>0.565904</v>
+        <v>0.559874</v>
       </c>
       <c r="D124" t="n">
-        <v>0.644531</v>
+        <v>0.6302680000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>0.237199</v>
+        <v>0.238129</v>
       </c>
       <c r="F124" t="n">
-        <v>0.456465</v>
+        <v>0.45304</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350546</v>
+        <v>0.351049</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7464499999999999</v>
+        <v>0.740469</v>
       </c>
       <c r="D125" t="n">
-        <v>0.641839</v>
+        <v>0.6283</v>
       </c>
       <c r="E125" t="n">
-        <v>0.237824</v>
+        <v>0.236076</v>
       </c>
       <c r="F125" t="n">
-        <v>0.454691</v>
+        <v>0.451194</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.344706</v>
+        <v>0.344609</v>
       </c>
       <c r="C126" t="n">
-        <v>0.72926</v>
+        <v>0.723014</v>
       </c>
       <c r="D126" t="n">
-        <v>0.635655</v>
+        <v>0.622491</v>
       </c>
       <c r="E126" t="n">
-        <v>0.236593</v>
+        <v>0.235526</v>
       </c>
       <c r="F126" t="n">
-        <v>0.452949</v>
+        <v>0.449538</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.337639</v>
+        <v>0.337917</v>
       </c>
       <c r="C127" t="n">
-        <v>0.595921</v>
+        <v>0.591561</v>
       </c>
       <c r="D127" t="n">
-        <v>0.620214</v>
+        <v>0.60379</v>
       </c>
       <c r="E127" t="n">
-        <v>0.233676</v>
+        <v>0.23442</v>
       </c>
       <c r="F127" t="n">
-        <v>0.451319</v>
+        <v>0.44791</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.330073</v>
+        <v>0.330275</v>
       </c>
       <c r="C128" t="n">
-        <v>0.617182</v>
+        <v>0.6119</v>
       </c>
       <c r="D128" t="n">
-        <v>0.616246</v>
+        <v>0.599476</v>
       </c>
       <c r="E128" t="n">
-        <v>0.232085</v>
+        <v>0.233407</v>
       </c>
       <c r="F128" t="n">
-        <v>0.449977</v>
+        <v>0.446779</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.322148</v>
+        <v>0.322695</v>
       </c>
       <c r="C129" t="n">
-        <v>0.564544</v>
+        <v>0.560326</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6101799999999999</v>
+        <v>0.594686</v>
       </c>
       <c r="E129" t="n">
-        <v>0.233155</v>
+        <v>0.23242</v>
       </c>
       <c r="F129" t="n">
-        <v>0.448653</v>
+        <v>0.445259</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.313872</v>
+        <v>0.314622</v>
       </c>
       <c r="C130" t="n">
-        <v>0.570111</v>
+        <v>0.56551</v>
       </c>
       <c r="D130" t="n">
-        <v>0.605934</v>
+        <v>0.590109</v>
       </c>
       <c r="E130" t="n">
-        <v>0.230341</v>
+        <v>0.231287</v>
       </c>
       <c r="F130" t="n">
-        <v>0.447514</v>
+        <v>0.444118</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.305218</v>
+        <v>0.305572</v>
       </c>
       <c r="C131" t="n">
-        <v>0.56391</v>
+        <v>0.55924</v>
       </c>
       <c r="D131" t="n">
-        <v>0.603168</v>
+        <v>0.585561</v>
       </c>
       <c r="E131" t="n">
-        <v>0.229969</v>
+        <v>0.229532</v>
       </c>
       <c r="F131" t="n">
-        <v>0.446333</v>
+        <v>0.443226</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.296143</v>
+        <v>0.296623</v>
       </c>
       <c r="C132" t="n">
-        <v>0.670454</v>
+        <v>0.665896</v>
       </c>
       <c r="D132" t="n">
-        <v>0.598248</v>
+        <v>0.585226</v>
       </c>
       <c r="E132" t="n">
-        <v>0.248783</v>
+        <v>0.236157</v>
       </c>
       <c r="F132" t="n">
-        <v>0.445444</v>
+        <v>0.442289</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.28627</v>
+        <v>0.286081</v>
       </c>
       <c r="C133" t="n">
-        <v>0.601449</v>
+        <v>0.5967170000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>0.59333</v>
+        <v>0.577504</v>
       </c>
       <c r="E133" t="n">
-        <v>0.233445</v>
+        <v>0.234665</v>
       </c>
       <c r="F133" t="n">
-        <v>0.444963</v>
+        <v>0.441759</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.274728</v>
+        <v>0.274735</v>
       </c>
       <c r="C134" t="n">
-        <v>0.588744</v>
+        <v>0.583891</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5870379999999999</v>
+        <v>0.573435</v>
       </c>
       <c r="E134" t="n">
-        <v>0.219231</v>
+        <v>0.234356</v>
       </c>
       <c r="F134" t="n">
-        <v>0.444416</v>
+        <v>0.441251</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.262558</v>
+        <v>0.263229</v>
       </c>
       <c r="C135" t="n">
-        <v>0.533492</v>
+        <v>0.52999</v>
       </c>
       <c r="D135" t="n">
-        <v>0.662348</v>
+        <v>0.648169</v>
       </c>
       <c r="E135" t="n">
-        <v>0.233573</v>
+        <v>0.23264</v>
       </c>
       <c r="F135" t="n">
-        <v>0.444441</v>
+        <v>0.441131</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.250134</v>
+        <v>0.250614</v>
       </c>
       <c r="C136" t="n">
-        <v>0.522764</v>
+        <v>0.51802</v>
       </c>
       <c r="D136" t="n">
-        <v>0.642319</v>
+        <v>0.627644</v>
       </c>
       <c r="E136" t="n">
-        <v>0.233066</v>
+        <v>0.24573</v>
       </c>
       <c r="F136" t="n">
-        <v>0.444278</v>
+        <v>0.441138</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235556</v>
+        <v>0.236034</v>
       </c>
       <c r="C137" t="n">
-        <v>0.498534</v>
+        <v>0.494818</v>
       </c>
       <c r="D137" t="n">
-        <v>0.659345</v>
+        <v>0.644547</v>
       </c>
       <c r="E137" t="n">
-        <v>0.260787</v>
+        <v>0.246416</v>
       </c>
       <c r="F137" t="n">
-        <v>0.458794</v>
+        <v>0.455358</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.358593</v>
+        <v>0.358271</v>
       </c>
       <c r="C138" t="n">
-        <v>0.65064</v>
+        <v>0.644617</v>
       </c>
       <c r="D138" t="n">
-        <v>0.639424</v>
+        <v>0.622834</v>
       </c>
       <c r="E138" t="n">
-        <v>0.237778</v>
+        <v>0.240219</v>
       </c>
       <c r="F138" t="n">
-        <v>0.456681</v>
+        <v>0.45321</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.352763</v>
+        <v>0.352514</v>
       </c>
       <c r="C139" t="n">
-        <v>0.608495</v>
+        <v>0.6025470000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.634568</v>
+        <v>0.61847</v>
       </c>
       <c r="E139" t="n">
-        <v>0.237203</v>
+        <v>0.238791</v>
       </c>
       <c r="F139" t="n">
-        <v>0.454828</v>
+        <v>0.45151</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.346229</v>
+        <v>0.346428</v>
       </c>
       <c r="C140" t="n">
-        <v>0.639911</v>
+        <v>0.63406</v>
       </c>
       <c r="D140" t="n">
-        <v>0.631765</v>
+        <v>0.617443</v>
       </c>
       <c r="E140" t="n">
-        <v>0.238659</v>
+        <v>0.237434</v>
       </c>
       <c r="F140" t="n">
-        <v>0.45319</v>
+        <v>0.449908</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.339163</v>
+        <v>0.339497</v>
       </c>
       <c r="C141" t="n">
-        <v>0.59406</v>
+        <v>0.588456</v>
       </c>
       <c r="D141" t="n">
-        <v>0.636479</v>
+        <v>0.621795</v>
       </c>
       <c r="E141" t="n">
-        <v>0.239105</v>
+        <v>0.238961</v>
       </c>
       <c r="F141" t="n">
-        <v>0.451641</v>
+        <v>0.448292</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.333328</v>
+        <v>0.332706</v>
       </c>
       <c r="C142" t="n">
-        <v>0.572743</v>
+        <v>0.567791</v>
       </c>
       <c r="D142" t="n">
-        <v>0.628772</v>
+        <v>0.616549</v>
       </c>
       <c r="E142" t="n">
-        <v>0.232898</v>
+        <v>0.233564</v>
       </c>
       <c r="F142" t="n">
-        <v>0.450052</v>
+        <v>0.446788</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.325233</v>
+        <v>0.324784</v>
       </c>
       <c r="C143" t="n">
-        <v>0.623072</v>
+        <v>0.6174809999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.622481</v>
+        <v>0.60924</v>
       </c>
       <c r="E143" t="n">
-        <v>0.230978</v>
+        <v>0.237167</v>
       </c>
       <c r="F143" t="n">
-        <v>0.448789</v>
+        <v>0.445545</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.307357</v>
+        <v>0.306168</v>
       </c>
       <c r="C2" t="n">
-        <v>0.505935</v>
+        <v>0.503754</v>
       </c>
       <c r="D2" t="n">
-        <v>0.421788</v>
+        <v>0.418032</v>
       </c>
       <c r="E2" t="n">
-        <v>0.209867</v>
+        <v>0.194806</v>
       </c>
       <c r="F2" t="n">
-        <v>0.437801</v>
+        <v>0.435168</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.294884</v>
+        <v>0.29682</v>
       </c>
       <c r="C3" t="n">
-        <v>0.50613</v>
+        <v>0.501706</v>
       </c>
       <c r="D3" t="n">
-        <v>0.421834</v>
+        <v>0.4191</v>
       </c>
       <c r="E3" t="n">
-        <v>0.208426</v>
+        <v>0.19913</v>
       </c>
       <c r="F3" t="n">
-        <v>0.438354</v>
+        <v>0.43603</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.287026</v>
+        <v>0.287159</v>
       </c>
       <c r="C4" t="n">
-        <v>0.496868</v>
+        <v>0.48968</v>
       </c>
       <c r="D4" t="n">
-        <v>0.424036</v>
+        <v>0.422016</v>
       </c>
       <c r="E4" t="n">
-        <v>0.198072</v>
+        <v>0.215967</v>
       </c>
       <c r="F4" t="n">
-        <v>0.438747</v>
+        <v>0.433647</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.27574</v>
+        <v>0.275923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.487646</v>
+        <v>0.483175</v>
       </c>
       <c r="D5" t="n">
-        <v>0.426024</v>
+        <v>0.422651</v>
       </c>
       <c r="E5" t="n">
-        <v>0.202082</v>
+        <v>0.201252</v>
       </c>
       <c r="F5" t="n">
-        <v>0.435465</v>
+        <v>0.437101</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.264507</v>
+        <v>0.263213</v>
       </c>
       <c r="C6" t="n">
-        <v>0.472801</v>
+        <v>0.46999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.422825</v>
+        <v>0.42344</v>
       </c>
       <c r="E6" t="n">
-        <v>0.201928</v>
+        <v>0.201062</v>
       </c>
       <c r="F6" t="n">
-        <v>0.436253</v>
+        <v>0.434709</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.25178</v>
+        <v>0.25354</v>
       </c>
       <c r="C7" t="n">
-        <v>0.462411</v>
+        <v>0.461968</v>
       </c>
       <c r="D7" t="n">
-        <v>0.420266</v>
+        <v>0.421332</v>
       </c>
       <c r="E7" t="n">
-        <v>0.219589</v>
+        <v>0.203401</v>
       </c>
       <c r="F7" t="n">
-        <v>0.437727</v>
+        <v>0.434067</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.239786</v>
+        <v>0.239467</v>
       </c>
       <c r="C8" t="n">
-        <v>0.444585</v>
+        <v>0.443756</v>
       </c>
       <c r="D8" t="n">
-        <v>0.420064</v>
+        <v>0.420594</v>
       </c>
       <c r="E8" t="n">
-        <v>0.219515</v>
+        <v>0.220704</v>
       </c>
       <c r="F8" t="n">
-        <v>0.434271</v>
+        <v>0.434454</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.224164</v>
+        <v>0.223597</v>
       </c>
       <c r="C9" t="n">
-        <v>0.432879</v>
+        <v>0.432748</v>
       </c>
       <c r="D9" t="n">
-        <v>0.420103</v>
+        <v>0.421193</v>
       </c>
       <c r="E9" t="n">
-        <v>0.235787</v>
+        <v>0.221985</v>
       </c>
       <c r="F9" t="n">
-        <v>0.449092</v>
+        <v>0.448068</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.351516</v>
+        <v>0.352578</v>
       </c>
       <c r="C10" t="n">
-        <v>0.551961</v>
+        <v>0.548345</v>
       </c>
       <c r="D10" t="n">
-        <v>0.420406</v>
+        <v>0.419859</v>
       </c>
       <c r="E10" t="n">
-        <v>0.235685</v>
+        <v>0.221412</v>
       </c>
       <c r="F10" t="n">
-        <v>0.44855</v>
+        <v>0.44891</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.34519</v>
+        <v>0.345905</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5509579999999999</v>
+        <v>0.5501779999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.421252</v>
+        <v>0.421682</v>
       </c>
       <c r="E11" t="n">
-        <v>0.232285</v>
+        <v>0.235878</v>
       </c>
       <c r="F11" t="n">
-        <v>0.447444</v>
+        <v>0.446244</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.342182</v>
+        <v>0.341248</v>
       </c>
       <c r="C12" t="n">
-        <v>0.546829</v>
+        <v>0.543625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.421235</v>
+        <v>0.422108</v>
       </c>
       <c r="E12" t="n">
-        <v>0.21932</v>
+        <v>0.220124</v>
       </c>
       <c r="F12" t="n">
-        <v>0.447689</v>
+        <v>0.447349</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.33263</v>
+        <v>0.332417</v>
       </c>
       <c r="C13" t="n">
-        <v>0.540493</v>
+        <v>0.539961</v>
       </c>
       <c r="D13" t="n">
-        <v>0.421585</v>
+        <v>0.422401</v>
       </c>
       <c r="E13" t="n">
-        <v>0.218264</v>
+        <v>0.218452</v>
       </c>
       <c r="F13" t="n">
-        <v>0.447106</v>
+        <v>0.447572</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.327007</v>
+        <v>0.327433</v>
       </c>
       <c r="C14" t="n">
-        <v>0.533005</v>
+        <v>0.5332209999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.423483</v>
+        <v>0.42301</v>
       </c>
       <c r="E14" t="n">
-        <v>0.217997</v>
+        <v>0.218339</v>
       </c>
       <c r="F14" t="n">
-        <v>0.445765</v>
+        <v>0.442414</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.320275</v>
+        <v>0.320099</v>
       </c>
       <c r="C15" t="n">
-        <v>0.525844</v>
+        <v>0.526628</v>
       </c>
       <c r="D15" t="n">
-        <v>0.423993</v>
+        <v>0.42301</v>
       </c>
       <c r="E15" t="n">
-        <v>0.233362</v>
+        <v>0.234202</v>
       </c>
       <c r="F15" t="n">
-        <v>0.443843</v>
+        <v>0.443539</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.312986</v>
+        <v>0.312151</v>
       </c>
       <c r="C16" t="n">
-        <v>0.518171</v>
+        <v>0.517029</v>
       </c>
       <c r="D16" t="n">
-        <v>0.424571</v>
+        <v>0.425312</v>
       </c>
       <c r="E16" t="n">
-        <v>0.218525</v>
+        <v>0.218322</v>
       </c>
       <c r="F16" t="n">
-        <v>0.442495</v>
+        <v>0.441209</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.304811</v>
+        <v>0.303766</v>
       </c>
       <c r="C17" t="n">
-        <v>0.511825</v>
+        <v>0.51079</v>
       </c>
       <c r="D17" t="n">
-        <v>0.427154</v>
+        <v>0.427244</v>
       </c>
       <c r="E17" t="n">
-        <v>0.218091</v>
+        <v>0.231611</v>
       </c>
       <c r="F17" t="n">
-        <v>0.441902</v>
+        <v>0.441338</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.294292</v>
+        <v>0.293626</v>
       </c>
       <c r="C18" t="n">
-        <v>0.500208</v>
+        <v>0.5008590000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.428461</v>
+        <v>0.428265</v>
       </c>
       <c r="E18" t="n">
-        <v>0.216666</v>
+        <v>0.217411</v>
       </c>
       <c r="F18" t="n">
-        <v>0.439406</v>
+        <v>0.438371</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.283692</v>
+        <v>0.283116</v>
       </c>
       <c r="C19" t="n">
-        <v>0.49046</v>
+        <v>0.490458</v>
       </c>
       <c r="D19" t="n">
-        <v>0.430571</v>
+        <v>0.430768</v>
       </c>
       <c r="E19" t="n">
-        <v>0.217286</v>
+        <v>0.216254</v>
       </c>
       <c r="F19" t="n">
-        <v>0.43953</v>
+        <v>0.438834</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.274199</v>
+        <v>0.273628</v>
       </c>
       <c r="C20" t="n">
-        <v>0.478953</v>
+        <v>0.478756</v>
       </c>
       <c r="D20" t="n">
-        <v>0.43026</v>
+        <v>0.430661</v>
       </c>
       <c r="E20" t="n">
-        <v>0.218253</v>
+        <v>0.217226</v>
       </c>
       <c r="F20" t="n">
-        <v>0.439797</v>
+        <v>0.438455</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.263034</v>
+        <v>0.262811</v>
       </c>
       <c r="C21" t="n">
-        <v>0.465383</v>
+        <v>0.462486</v>
       </c>
       <c r="D21" t="n">
-        <v>0.427183</v>
+        <v>0.425399</v>
       </c>
       <c r="E21" t="n">
-        <v>0.230616</v>
+        <v>0.214963</v>
       </c>
       <c r="F21" t="n">
-        <v>0.440493</v>
+        <v>0.437461</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.249187</v>
+        <v>0.249333</v>
       </c>
       <c r="C22" t="n">
-        <v>0.458717</v>
+        <v>0.455208</v>
       </c>
       <c r="D22" t="n">
-        <v>0.427933</v>
+        <v>0.425229</v>
       </c>
       <c r="E22" t="n">
-        <v>0.230352</v>
+        <v>0.230718</v>
       </c>
       <c r="F22" t="n">
-        <v>0.441151</v>
+        <v>0.437918</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.23523</v>
+        <v>0.235088</v>
       </c>
       <c r="C23" t="n">
-        <v>0.437921</v>
+        <v>0.435166</v>
       </c>
       <c r="D23" t="n">
-        <v>0.431557</v>
+        <v>0.427595</v>
       </c>
       <c r="E23" t="n">
-        <v>0.232772</v>
+        <v>0.251526</v>
       </c>
       <c r="F23" t="n">
-        <v>0.456936</v>
+        <v>0.454964</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.356343</v>
+        <v>0.35598</v>
       </c>
       <c r="C24" t="n">
-        <v>0.558853</v>
+        <v>0.55816</v>
       </c>
       <c r="D24" t="n">
-        <v>0.430244</v>
+        <v>0.427861</v>
       </c>
       <c r="E24" t="n">
-        <v>0.230222</v>
+        <v>0.247498</v>
       </c>
       <c r="F24" t="n">
-        <v>0.453896</v>
+        <v>0.452206</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.349538</v>
+        <v>0.350332</v>
       </c>
       <c r="C25" t="n">
-        <v>0.556406</v>
+        <v>0.552629</v>
       </c>
       <c r="D25" t="n">
-        <v>0.431613</v>
+        <v>0.428391</v>
       </c>
       <c r="E25" t="n">
-        <v>0.242304</v>
+        <v>0.243871</v>
       </c>
       <c r="F25" t="n">
-        <v>0.452813</v>
+        <v>0.450462</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.344652</v>
+        <v>0.34451</v>
       </c>
       <c r="C26" t="n">
-        <v>0.551145</v>
+        <v>0.5475100000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.430815</v>
+        <v>0.427218</v>
       </c>
       <c r="E26" t="n">
-        <v>0.240899</v>
+        <v>0.240855</v>
       </c>
       <c r="F26" t="n">
-        <v>0.452354</v>
+        <v>0.449971</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.341136</v>
+        <v>0.338691</v>
       </c>
       <c r="C27" t="n">
-        <v>0.542761</v>
+        <v>0.53714</v>
       </c>
       <c r="D27" t="n">
-        <v>0.432597</v>
+        <v>0.42867</v>
       </c>
       <c r="E27" t="n">
-        <v>0.224728</v>
+        <v>0.240589</v>
       </c>
       <c r="F27" t="n">
-        <v>0.448897</v>
+        <v>0.447033</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.332154</v>
+        <v>0.333146</v>
       </c>
       <c r="C28" t="n">
-        <v>0.535714</v>
+        <v>0.530532</v>
       </c>
       <c r="D28" t="n">
-        <v>0.432475</v>
+        <v>0.429139</v>
       </c>
       <c r="E28" t="n">
-        <v>0.223222</v>
+        <v>0.23884</v>
       </c>
       <c r="F28" t="n">
-        <v>0.448794</v>
+        <v>0.446571</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.333959</v>
+        <v>0.323719</v>
       </c>
       <c r="C29" t="n">
-        <v>0.535402</v>
+        <v>0.5304489999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.433416</v>
+        <v>0.429633</v>
       </c>
       <c r="E29" t="n">
-        <v>0.222481</v>
+        <v>0.222785</v>
       </c>
       <c r="F29" t="n">
-        <v>0.446164</v>
+        <v>0.444369</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.315211</v>
+        <v>0.315296</v>
       </c>
       <c r="C30" t="n">
-        <v>0.523923</v>
+        <v>0.519641</v>
       </c>
       <c r="D30" t="n">
-        <v>0.434138</v>
+        <v>0.430646</v>
       </c>
       <c r="E30" t="n">
-        <v>0.221247</v>
+        <v>0.221355</v>
       </c>
       <c r="F30" t="n">
-        <v>0.445863</v>
+        <v>0.444076</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.309986</v>
+        <v>0.307486</v>
       </c>
       <c r="C31" t="n">
-        <v>0.508827</v>
+        <v>0.506322</v>
       </c>
       <c r="D31" t="n">
-        <v>0.435535</v>
+        <v>0.432804</v>
       </c>
       <c r="E31" t="n">
-        <v>0.220041</v>
+        <v>0.220346</v>
       </c>
       <c r="F31" t="n">
-        <v>0.444089</v>
+        <v>0.442207</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.298383</v>
+        <v>0.299785</v>
       </c>
       <c r="C32" t="n">
-        <v>0.509062</v>
+        <v>0.508055</v>
       </c>
       <c r="D32" t="n">
-        <v>0.436572</v>
+        <v>0.434083</v>
       </c>
       <c r="E32" t="n">
-        <v>0.219866</v>
+        <v>0.219688</v>
       </c>
       <c r="F32" t="n">
-        <v>0.442876</v>
+        <v>0.440933</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.288474</v>
+        <v>0.288754</v>
       </c>
       <c r="C33" t="n">
-        <v>0.494345</v>
+        <v>0.492481</v>
       </c>
       <c r="D33" t="n">
-        <v>0.438036</v>
+        <v>0.43493</v>
       </c>
       <c r="E33" t="n">
-        <v>0.21903</v>
+        <v>0.219229</v>
       </c>
       <c r="F33" t="n">
-        <v>0.44269</v>
+        <v>0.440762</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.278669</v>
+        <v>0.278999</v>
       </c>
       <c r="C34" t="n">
-        <v>0.480771</v>
+        <v>0.478339</v>
       </c>
       <c r="D34" t="n">
-        <v>0.438609</v>
+        <v>0.436269</v>
       </c>
       <c r="E34" t="n">
-        <v>0.23433</v>
+        <v>0.221099</v>
       </c>
       <c r="F34" t="n">
-        <v>0.442123</v>
+        <v>0.440282</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.266699</v>
+        <v>0.266516</v>
       </c>
       <c r="C35" t="n">
-        <v>0.467274</v>
+        <v>0.469186</v>
       </c>
       <c r="D35" t="n">
-        <v>0.432179</v>
+        <v>0.43375</v>
       </c>
       <c r="E35" t="n">
-        <v>0.225908</v>
+        <v>0.234749</v>
       </c>
       <c r="F35" t="n">
-        <v>0.440044</v>
+        <v>0.440276</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.254194</v>
+        <v>0.254259</v>
       </c>
       <c r="C36" t="n">
-        <v>0.454112</v>
+        <v>0.454344</v>
       </c>
       <c r="D36" t="n">
-        <v>0.43238</v>
+        <v>0.432316</v>
       </c>
       <c r="E36" t="n">
-        <v>0.218897</v>
+        <v>0.233613</v>
       </c>
       <c r="F36" t="n">
-        <v>0.440187</v>
+        <v>0.440491</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.24022</v>
+        <v>0.240362</v>
       </c>
       <c r="C37" t="n">
-        <v>0.449165</v>
+        <v>0.451426</v>
       </c>
       <c r="D37" t="n">
-        <v>0.432989</v>
+        <v>0.432304</v>
       </c>
       <c r="E37" t="n">
-        <v>0.234405</v>
+        <v>0.254907</v>
       </c>
       <c r="F37" t="n">
-        <v>0.454624</v>
+        <v>0.454517</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.358179</v>
+        <v>0.358092</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5550580000000001</v>
+        <v>0.555204</v>
       </c>
       <c r="D38" t="n">
-        <v>0.43281</v>
+        <v>0.431613</v>
       </c>
       <c r="E38" t="n">
-        <v>0.230234</v>
+        <v>0.231492</v>
       </c>
       <c r="F38" t="n">
-        <v>0.452641</v>
+        <v>0.452254</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.353051</v>
+        <v>0.352891</v>
       </c>
       <c r="C39" t="n">
-        <v>0.550453</v>
+        <v>0.550577</v>
       </c>
       <c r="D39" t="n">
-        <v>0.431673</v>
+        <v>0.431857</v>
       </c>
       <c r="E39" t="n">
-        <v>0.227791</v>
+        <v>0.2284</v>
       </c>
       <c r="F39" t="n">
-        <v>0.450769</v>
+        <v>0.450364</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.346975</v>
+        <v>0.346973</v>
       </c>
       <c r="C40" t="n">
-        <v>0.545316</v>
+        <v>0.545457</v>
       </c>
       <c r="D40" t="n">
-        <v>0.431126</v>
+        <v>0.432699</v>
       </c>
       <c r="E40" t="n">
-        <v>0.226732</v>
+        <v>0.227821</v>
       </c>
       <c r="F40" t="n">
-        <v>0.449665</v>
+        <v>0.449457</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.341181</v>
+        <v>0.341626</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5386840000000001</v>
+        <v>0.537562</v>
       </c>
       <c r="D41" t="n">
-        <v>0.431993</v>
+        <v>0.433758</v>
       </c>
       <c r="E41" t="n">
-        <v>0.225662</v>
+        <v>0.226151</v>
       </c>
       <c r="F41" t="n">
-        <v>0.448401</v>
+        <v>0.448044</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.334264</v>
+        <v>0.334976</v>
       </c>
       <c r="C42" t="n">
-        <v>0.534293</v>
+        <v>0.536871</v>
       </c>
       <c r="D42" t="n">
-        <v>0.431941</v>
+        <v>0.43315</v>
       </c>
       <c r="E42" t="n">
-        <v>0.224279</v>
+        <v>0.224294</v>
       </c>
       <c r="F42" t="n">
-        <v>0.446645</v>
+        <v>0.446231</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.326848</v>
+        <v>0.327211</v>
       </c>
       <c r="C43" t="n">
-        <v>0.526674</v>
+        <v>0.52705</v>
       </c>
       <c r="D43" t="n">
-        <v>0.433076</v>
+        <v>0.433224</v>
       </c>
       <c r="E43" t="n">
-        <v>0.223617</v>
+        <v>0.223514</v>
       </c>
       <c r="F43" t="n">
-        <v>0.44541</v>
+        <v>0.444969</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.318705</v>
+        <v>0.319159</v>
       </c>
       <c r="C44" t="n">
-        <v>0.522223</v>
+        <v>0.524483</v>
       </c>
       <c r="D44" t="n">
-        <v>0.433416</v>
+        <v>0.434464</v>
       </c>
       <c r="E44" t="n">
-        <v>0.222238</v>
+        <v>0.222631</v>
       </c>
       <c r="F44" t="n">
-        <v>0.443892</v>
+        <v>0.443534</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.309976</v>
+        <v>0.310458</v>
       </c>
       <c r="C45" t="n">
-        <v>0.510719</v>
+        <v>0.51114</v>
       </c>
       <c r="D45" t="n">
-        <v>0.434773</v>
+        <v>0.435432</v>
       </c>
       <c r="E45" t="n">
-        <v>0.221137</v>
+        <v>0.221657</v>
       </c>
       <c r="F45" t="n">
-        <v>0.442713</v>
+        <v>0.442369</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.301865</v>
+        <v>0.302133</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5064340000000001</v>
+        <v>0.508069</v>
       </c>
       <c r="D46" t="n">
-        <v>0.435663</v>
+        <v>0.435736</v>
       </c>
       <c r="E46" t="n">
-        <v>0.220349</v>
+        <v>0.22024</v>
       </c>
       <c r="F46" t="n">
-        <v>0.441958</v>
+        <v>0.44182</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.292892</v>
+        <v>0.291547</v>
       </c>
       <c r="C47" t="n">
-        <v>0.497111</v>
+        <v>0.496248</v>
       </c>
       <c r="D47" t="n">
-        <v>0.436011</v>
+        <v>0.436754</v>
       </c>
       <c r="E47" t="n">
-        <v>0.219339</v>
+        <v>0.219779</v>
       </c>
       <c r="F47" t="n">
-        <v>0.441494</v>
+        <v>0.441547</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.281304</v>
+        <v>0.281929</v>
       </c>
       <c r="C48" t="n">
-        <v>0.486092</v>
+        <v>0.488396</v>
       </c>
       <c r="D48" t="n">
-        <v>0.437996</v>
+        <v>0.437645</v>
       </c>
       <c r="E48" t="n">
-        <v>0.234998</v>
+        <v>0.235205</v>
       </c>
       <c r="F48" t="n">
-        <v>0.440793</v>
+        <v>0.440535</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.270789</v>
+        <v>0.270709</v>
       </c>
       <c r="C49" t="n">
-        <v>0.470328</v>
+        <v>0.471027</v>
       </c>
       <c r="D49" t="n">
-        <v>0.438501</v>
+        <v>0.438761</v>
       </c>
       <c r="E49" t="n">
-        <v>0.21947</v>
+        <v>0.225719</v>
       </c>
       <c r="F49" t="n">
-        <v>0.440931</v>
+        <v>0.440751</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.257338</v>
+        <v>0.25704</v>
       </c>
       <c r="C50" t="n">
-        <v>0.463851</v>
+        <v>0.465162</v>
       </c>
       <c r="D50" t="n">
-        <v>0.43739</v>
+        <v>0.438584</v>
       </c>
       <c r="E50" t="n">
-        <v>0.233349</v>
+        <v>0.218194</v>
       </c>
       <c r="F50" t="n">
-        <v>0.44028</v>
+        <v>0.440226</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.243957</v>
+        <v>0.243304</v>
       </c>
       <c r="C51" t="n">
-        <v>0.44525</v>
+        <v>0.44476</v>
       </c>
       <c r="D51" t="n">
-        <v>0.439033</v>
+        <v>0.438535</v>
       </c>
       <c r="E51" t="n">
-        <v>0.248204</v>
+        <v>0.255094</v>
       </c>
       <c r="F51" t="n">
-        <v>0.45601</v>
+        <v>0.456229</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.229266</v>
+        <v>0.228964</v>
       </c>
       <c r="C52" t="n">
-        <v>0.433174</v>
+        <v>0.436433</v>
       </c>
       <c r="D52" t="n">
-        <v>0.437977</v>
+        <v>0.441402</v>
       </c>
       <c r="E52" t="n">
-        <v>0.239521</v>
+        <v>0.232762</v>
       </c>
       <c r="F52" t="n">
-        <v>0.454066</v>
+        <v>0.454512</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.354766</v>
+        <v>0.354568</v>
       </c>
       <c r="C53" t="n">
-        <v>0.559173</v>
+        <v>0.565988</v>
       </c>
       <c r="D53" t="n">
-        <v>0.437954</v>
+        <v>0.440509</v>
       </c>
       <c r="E53" t="n">
-        <v>0.229676</v>
+        <v>0.238007</v>
       </c>
       <c r="F53" t="n">
-        <v>0.451957</v>
+        <v>0.452051</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.34908</v>
+        <v>0.349398</v>
       </c>
       <c r="C54" t="n">
-        <v>0.552768</v>
+        <v>0.551978</v>
       </c>
       <c r="D54" t="n">
-        <v>0.44193</v>
+        <v>0.438969</v>
       </c>
       <c r="E54" t="n">
-        <v>0.227369</v>
+        <v>0.236767</v>
       </c>
       <c r="F54" t="n">
-        <v>0.450057</v>
+        <v>0.450393</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.343699</v>
+        <v>0.343466</v>
       </c>
       <c r="C55" t="n">
-        <v>0.55507</v>
+        <v>0.5689109999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.441753</v>
+        <v>0.44063</v>
       </c>
       <c r="E55" t="n">
-        <v>0.226641</v>
+        <v>0.230953</v>
       </c>
       <c r="F55" t="n">
-        <v>0.448767</v>
+        <v>0.449082</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.336076</v>
+        <v>0.336083</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5476529999999999</v>
+        <v>0.550723</v>
       </c>
       <c r="D56" t="n">
-        <v>0.442496</v>
+        <v>0.445518</v>
       </c>
       <c r="E56" t="n">
-        <v>0.225328</v>
+        <v>0.23139</v>
       </c>
       <c r="F56" t="n">
-        <v>0.446858</v>
+        <v>0.447246</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.328774</v>
+        <v>0.328053</v>
       </c>
       <c r="C57" t="n">
-        <v>0.551503</v>
+        <v>0.556238</v>
       </c>
       <c r="D57" t="n">
-        <v>0.443706</v>
+        <v>0.445808</v>
       </c>
       <c r="E57" t="n">
-        <v>0.224141</v>
+        <v>0.223163</v>
       </c>
       <c r="F57" t="n">
-        <v>0.445726</v>
+        <v>0.446101</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.321202</v>
+        <v>0.321273</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5489579999999999</v>
+        <v>0.535474</v>
       </c>
       <c r="D58" t="n">
-        <v>0.445533</v>
+        <v>0.446686</v>
       </c>
       <c r="E58" t="n">
-        <v>0.223781</v>
+        <v>0.228666</v>
       </c>
       <c r="F58" t="n">
-        <v>0.444433</v>
+        <v>0.444749</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.312742</v>
+        <v>0.312963</v>
       </c>
       <c r="C59" t="n">
-        <v>0.548328</v>
+        <v>0.555159</v>
       </c>
       <c r="D59" t="n">
-        <v>0.448587</v>
+        <v>0.446647</v>
       </c>
       <c r="E59" t="n">
-        <v>0.22292</v>
+        <v>0.22318</v>
       </c>
       <c r="F59" t="n">
-        <v>0.443331</v>
+        <v>0.44366</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.304019</v>
+        <v>0.303902</v>
       </c>
       <c r="C60" t="n">
-        <v>0.519209</v>
+        <v>0.520123</v>
       </c>
       <c r="D60" t="n">
-        <v>0.452503</v>
+        <v>0.450915</v>
       </c>
       <c r="E60" t="n">
-        <v>0.222679</v>
+        <v>0.222938</v>
       </c>
       <c r="F60" t="n">
-        <v>0.442892</v>
+        <v>0.443483</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.295098</v>
+        <v>0.294353</v>
       </c>
       <c r="C61" t="n">
-        <v>0.543224</v>
+        <v>0.556552</v>
       </c>
       <c r="D61" t="n">
-        <v>0.453198</v>
+        <v>0.455451</v>
       </c>
       <c r="E61" t="n">
-        <v>0.220209</v>
+        <v>0.235682</v>
       </c>
       <c r="F61" t="n">
-        <v>0.441701</v>
+        <v>0.442094</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.284526</v>
+        <v>0.284235</v>
       </c>
       <c r="C62" t="n">
-        <v>0.508768</v>
+        <v>0.514686</v>
       </c>
       <c r="D62" t="n">
-        <v>0.459373</v>
+        <v>0.460162</v>
       </c>
       <c r="E62" t="n">
-        <v>0.220716</v>
+        <v>0.220467</v>
       </c>
       <c r="F62" t="n">
-        <v>0.441046</v>
+        <v>0.440957</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.273551</v>
+        <v>0.272889</v>
       </c>
       <c r="C63" t="n">
-        <v>0.524972</v>
+        <v>0.538494</v>
       </c>
       <c r="D63" t="n">
-        <v>0.459993</v>
+        <v>0.461969</v>
       </c>
       <c r="E63" t="n">
-        <v>0.234109</v>
+        <v>0.219134</v>
       </c>
       <c r="F63" t="n">
-        <v>0.44056</v>
+        <v>0.440946</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.262037</v>
+        <v>0.261361</v>
       </c>
       <c r="C64" t="n">
-        <v>0.503728</v>
+        <v>0.505602</v>
       </c>
       <c r="D64" t="n">
-        <v>0.497599</v>
+        <v>0.508979</v>
       </c>
       <c r="E64" t="n">
-        <v>0.232973</v>
+        <v>0.232308</v>
       </c>
       <c r="F64" t="n">
-        <v>0.440461</v>
+        <v>0.440883</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.247641</v>
+        <v>0.24797</v>
       </c>
       <c r="C65" t="n">
-        <v>0.495125</v>
+        <v>0.512719</v>
       </c>
       <c r="D65" t="n">
-        <v>0.494812</v>
+        <v>0.512751</v>
       </c>
       <c r="E65" t="n">
-        <v>0.230565</v>
+        <v>0.218048</v>
       </c>
       <c r="F65" t="n">
-        <v>0.440513</v>
+        <v>0.440708</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.233591</v>
+        <v>0.233966</v>
       </c>
       <c r="C66" t="n">
-        <v>0.474385</v>
+        <v>0.486559</v>
       </c>
       <c r="D66" t="n">
-        <v>0.503109</v>
+        <v>0.51946</v>
       </c>
       <c r="E66" t="n">
-        <v>0.234006</v>
+        <v>0.237807</v>
       </c>
       <c r="F66" t="n">
-        <v>0.455076</v>
+        <v>0.454778</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.356657</v>
+        <v>0.356644</v>
       </c>
       <c r="C67" t="n">
-        <v>0.639425</v>
+        <v>0.674984</v>
       </c>
       <c r="D67" t="n">
-        <v>0.509773</v>
+        <v>0.5267039999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>0.232236</v>
+        <v>0.23398</v>
       </c>
       <c r="F67" t="n">
-        <v>0.453409</v>
+        <v>0.453094</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.351223</v>
+        <v>0.351407</v>
       </c>
       <c r="C68" t="n">
-        <v>0.584464</v>
+        <v>0.593486</v>
       </c>
       <c r="D68" t="n">
-        <v>0.51825</v>
+        <v>0.533157</v>
       </c>
       <c r="E68" t="n">
-        <v>0.230196</v>
+        <v>0.231843</v>
       </c>
       <c r="F68" t="n">
-        <v>0.451523</v>
+        <v>0.451134</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.3452</v>
+        <v>0.345225</v>
       </c>
       <c r="C69" t="n">
-        <v>0.578916</v>
+        <v>0.594157</v>
       </c>
       <c r="D69" t="n">
-        <v>0.522576</v>
+        <v>0.541454</v>
       </c>
       <c r="E69" t="n">
-        <v>0.229012</v>
+        <v>0.230703</v>
       </c>
       <c r="F69" t="n">
-        <v>0.44958</v>
+        <v>0.449208</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.3383</v>
+        <v>0.338033</v>
       </c>
       <c r="C70" t="n">
-        <v>0.678186</v>
+        <v>0.696313</v>
       </c>
       <c r="D70" t="n">
-        <v>0.538175</v>
+        <v>0.546585</v>
       </c>
       <c r="E70" t="n">
-        <v>0.229031</v>
+        <v>0.229254</v>
       </c>
       <c r="F70" t="n">
-        <v>0.451132</v>
+        <v>0.447372</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.330792</v>
+        <v>0.331043</v>
       </c>
       <c r="C71" t="n">
-        <v>0.659236</v>
+        <v>0.671145</v>
       </c>
       <c r="D71" t="n">
-        <v>0.54545</v>
+        <v>0.5493980000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>0.227657</v>
+        <v>0.227516</v>
       </c>
       <c r="F71" t="n">
-        <v>0.449707</v>
+        <v>0.446142</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.323223</v>
+        <v>0.323397</v>
       </c>
       <c r="C72" t="n">
-        <v>0.665878</v>
+        <v>0.682283</v>
       </c>
       <c r="D72" t="n">
-        <v>0.551732</v>
+        <v>0.55302</v>
       </c>
       <c r="E72" t="n">
-        <v>0.226122</v>
+        <v>0.22605</v>
       </c>
       <c r="F72" t="n">
-        <v>0.448094</v>
+        <v>0.444782</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.315458</v>
+        <v>0.315355</v>
       </c>
       <c r="C73" t="n">
-        <v>0.614668</v>
+        <v>0.6294419999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.542512</v>
+        <v>0.56427</v>
       </c>
       <c r="E73" t="n">
-        <v>0.225101</v>
+        <v>0.226452</v>
       </c>
       <c r="F73" t="n">
-        <v>0.44355</v>
+        <v>0.44381</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.307098</v>
+        <v>0.306708</v>
       </c>
       <c r="C74" t="n">
-        <v>0.619672</v>
+        <v>0.645892</v>
       </c>
       <c r="D74" t="n">
-        <v>0.543368</v>
+        <v>0.565768</v>
       </c>
       <c r="E74" t="n">
-        <v>0.224874</v>
+        <v>0.224938</v>
       </c>
       <c r="F74" t="n">
-        <v>0.443011</v>
+        <v>0.443248</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.297508</v>
+        <v>0.296936</v>
       </c>
       <c r="C75" t="n">
-        <v>0.657143</v>
+        <v>0.686708</v>
       </c>
       <c r="D75" t="n">
-        <v>0.543152</v>
+        <v>0.562245</v>
       </c>
       <c r="E75" t="n">
-        <v>0.235343</v>
+        <v>0.235371</v>
       </c>
       <c r="F75" t="n">
-        <v>0.442141</v>
+        <v>0.442344</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.287402</v>
+        <v>0.287524</v>
       </c>
       <c r="C76" t="n">
-        <v>0.590809</v>
+        <v>0.643568</v>
       </c>
       <c r="D76" t="n">
-        <v>0.547345</v>
+        <v>0.567144</v>
       </c>
       <c r="E76" t="n">
-        <v>0.223202</v>
+        <v>0.223396</v>
       </c>
       <c r="F76" t="n">
-        <v>0.441123</v>
+        <v>0.441468</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.276276</v>
+        <v>0.27661</v>
       </c>
       <c r="C77" t="n">
-        <v>0.624511</v>
+        <v>0.66662</v>
       </c>
       <c r="D77" t="n">
-        <v>0.548335</v>
+        <v>0.567567</v>
       </c>
       <c r="E77" t="n">
-        <v>0.222905</v>
+        <v>0.222753</v>
       </c>
       <c r="F77" t="n">
-        <v>0.441358</v>
+        <v>0.441482</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.264914</v>
+        <v>0.264695</v>
       </c>
       <c r="C78" t="n">
-        <v>0.615131</v>
+        <v>0.610807</v>
       </c>
       <c r="D78" t="n">
-        <v>0.619702</v>
+        <v>0.659779</v>
       </c>
       <c r="E78" t="n">
-        <v>0.246117</v>
+        <v>0.233405</v>
       </c>
       <c r="F78" t="n">
-        <v>0.441019</v>
+        <v>0.440829</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.251665</v>
+        <v>0.251753</v>
       </c>
       <c r="C79" t="n">
-        <v>0.544404</v>
+        <v>0.55369</v>
       </c>
       <c r="D79" t="n">
-        <v>0.629903</v>
+        <v>0.65145</v>
       </c>
       <c r="E79" t="n">
-        <v>0.218213</v>
+        <v>0.218123</v>
       </c>
       <c r="F79" t="n">
-        <v>0.440701</v>
+        <v>0.44094</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.23799</v>
+        <v>0.238067</v>
       </c>
       <c r="C80" t="n">
-        <v>0.503076</v>
+        <v>0.524168</v>
       </c>
       <c r="D80" t="n">
-        <v>0.632893</v>
+        <v>0.649268</v>
       </c>
       <c r="E80" t="n">
-        <v>0.248063</v>
+        <v>0.234825</v>
       </c>
       <c r="F80" t="n">
-        <v>0.455571</v>
+        <v>0.456346</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.357794</v>
+        <v>0.357964</v>
       </c>
       <c r="C81" t="n">
-        <v>0.65118</v>
+        <v>0.641993</v>
       </c>
       <c r="D81" t="n">
-        <v>0.624709</v>
+        <v>0.653878</v>
       </c>
       <c r="E81" t="n">
-        <v>0.23591</v>
+        <v>0.237738</v>
       </c>
       <c r="F81" t="n">
-        <v>0.45336</v>
+        <v>0.453805</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.352623</v>
+        <v>0.353118</v>
       </c>
       <c r="C82" t="n">
-        <v>0.664614</v>
+        <v>0.709025</v>
       </c>
       <c r="D82" t="n">
-        <v>0.621142</v>
+        <v>0.652843</v>
       </c>
       <c r="E82" t="n">
-        <v>0.233828</v>
+        <v>0.234313</v>
       </c>
       <c r="F82" t="n">
-        <v>0.451296</v>
+        <v>0.451685</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.346139</v>
+        <v>0.34641</v>
       </c>
       <c r="C83" t="n">
-        <v>0.630839</v>
+        <v>0.633192</v>
       </c>
       <c r="D83" t="n">
-        <v>0.617449</v>
+        <v>0.649775</v>
       </c>
       <c r="E83" t="n">
-        <v>0.232718</v>
+        <v>0.243505</v>
       </c>
       <c r="F83" t="n">
-        <v>0.450074</v>
+        <v>0.45006</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.33974</v>
+        <v>0.339866</v>
       </c>
       <c r="C84" t="n">
-        <v>0.720215</v>
+        <v>0.767319</v>
       </c>
       <c r="D84" t="n">
-        <v>0.620967</v>
+        <v>0.666446</v>
       </c>
       <c r="E84" t="n">
-        <v>0.231485</v>
+        <v>0.231616</v>
       </c>
       <c r="F84" t="n">
-        <v>0.451145</v>
+        <v>0.451866</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.332652</v>
+        <v>0.333025</v>
       </c>
       <c r="C85" t="n">
-        <v>0.674669</v>
+        <v>0.70649</v>
       </c>
       <c r="D85" t="n">
-        <v>0.624139</v>
+        <v>0.655932</v>
       </c>
       <c r="E85" t="n">
-        <v>0.230706</v>
+        <v>0.231531</v>
       </c>
       <c r="F85" t="n">
-        <v>0.450191</v>
+        <v>0.44742</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.325073</v>
+        <v>0.325364</v>
       </c>
       <c r="C86" t="n">
-        <v>0.706832</v>
+        <v>0.738601</v>
       </c>
       <c r="D86" t="n">
-        <v>0.619613</v>
+        <v>0.635881</v>
       </c>
       <c r="E86" t="n">
-        <v>0.225941</v>
+        <v>0.239564</v>
       </c>
       <c r="F86" t="n">
-        <v>0.448871</v>
+        <v>0.445912</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.316905</v>
+        <v>0.317529</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7132309999999999</v>
+        <v>0.59674</v>
       </c>
       <c r="D87" t="n">
-        <v>0.613269</v>
+        <v>0.6435419999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>0.22644</v>
+        <v>0.228229</v>
       </c>
       <c r="F87" t="n">
-        <v>0.447292</v>
+        <v>0.44802</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.308945</v>
+        <v>0.308823</v>
       </c>
       <c r="C88" t="n">
-        <v>0.593479</v>
+        <v>0.632145</v>
       </c>
       <c r="D88" t="n">
-        <v>0.609169</v>
+        <v>0.6430709999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>0.227129</v>
+        <v>0.226826</v>
       </c>
       <c r="F88" t="n">
-        <v>0.446249</v>
+        <v>0.446764</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.299575</v>
+        <v>0.300334</v>
       </c>
       <c r="C89" t="n">
-        <v>0.685131</v>
+        <v>0.696341</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6072340000000001</v>
+        <v>0.635563</v>
       </c>
       <c r="E89" t="n">
-        <v>0.220687</v>
+        <v>0.234466</v>
       </c>
       <c r="F89" t="n">
-        <v>0.445567</v>
+        <v>0.445702</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.289461</v>
+        <v>0.289552</v>
       </c>
       <c r="C90" t="n">
-        <v>0.566275</v>
+        <v>0.605379</v>
       </c>
       <c r="D90" t="n">
-        <v>0.604387</v>
+        <v>0.630394</v>
       </c>
       <c r="E90" t="n">
-        <v>0.23516</v>
+        <v>0.230582</v>
       </c>
       <c r="F90" t="n">
-        <v>0.444704</v>
+        <v>0.445062</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.278755</v>
+        <v>0.279111</v>
       </c>
       <c r="C91" t="n">
-        <v>0.572272</v>
+        <v>0.619872</v>
       </c>
       <c r="D91" t="n">
-        <v>0.599584</v>
+        <v>0.626038</v>
       </c>
       <c r="E91" t="n">
-        <v>0.220125</v>
+        <v>0.23308</v>
       </c>
       <c r="F91" t="n">
-        <v>0.444267</v>
+        <v>0.444478</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.267354</v>
+        <v>0.267219</v>
       </c>
       <c r="C92" t="n">
-        <v>0.497641</v>
+        <v>0.511205</v>
       </c>
       <c r="D92" t="n">
-        <v>0.644641</v>
+        <v>0.664672</v>
       </c>
       <c r="E92" t="n">
-        <v>0.242668</v>
+        <v>0.233885</v>
       </c>
       <c r="F92" t="n">
-        <v>0.444148</v>
+        <v>0.444106</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.254959</v>
+        <v>0.254546</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5983849999999999</v>
+        <v>0.641799</v>
       </c>
       <c r="D93" t="n">
-        <v>0.628156</v>
+        <v>0.677876</v>
       </c>
       <c r="E93" t="n">
-        <v>0.233299</v>
+        <v>0.233097</v>
       </c>
       <c r="F93" t="n">
-        <v>0.443938</v>
+        <v>0.44643</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.240673</v>
+        <v>0.240484</v>
       </c>
       <c r="C94" t="n">
-        <v>0.572915</v>
+        <v>0.620799</v>
       </c>
       <c r="D94" t="n">
-        <v>0.630091</v>
+        <v>0.680717</v>
       </c>
       <c r="E94" t="n">
-        <v>0.239522</v>
+        <v>0.248228</v>
       </c>
       <c r="F94" t="n">
-        <v>0.457769</v>
+        <v>0.459072</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.359287</v>
+        <v>0.359424</v>
       </c>
       <c r="C95" t="n">
-        <v>0.751923</v>
+        <v>0.762769</v>
       </c>
       <c r="D95" t="n">
-        <v>0.620897</v>
+        <v>0.66168</v>
       </c>
       <c r="E95" t="n">
-        <v>0.237828</v>
+        <v>0.237565</v>
       </c>
       <c r="F95" t="n">
-        <v>0.454052</v>
+        <v>0.457155</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.354055</v>
+        <v>0.354002</v>
       </c>
       <c r="C96" t="n">
-        <v>0.706529</v>
+        <v>0.750423</v>
       </c>
       <c r="D96" t="n">
-        <v>0.616547</v>
+        <v>0.658469</v>
       </c>
       <c r="E96" t="n">
-        <v>0.236242</v>
+        <v>0.236223</v>
       </c>
       <c r="F96" t="n">
-        <v>0.452412</v>
+        <v>0.455514</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.34797</v>
+        <v>0.348026</v>
       </c>
       <c r="C97" t="n">
-        <v>0.727156</v>
+        <v>0.779317</v>
       </c>
       <c r="D97" t="n">
-        <v>0.612831</v>
+        <v>0.656898</v>
       </c>
       <c r="E97" t="n">
-        <v>0.233165</v>
+        <v>0.23487</v>
       </c>
       <c r="F97" t="n">
-        <v>0.450623</v>
+        <v>0.45583</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.341596</v>
+        <v>0.341409</v>
       </c>
       <c r="C98" t="n">
-        <v>0.661061</v>
+        <v>0.699392</v>
       </c>
       <c r="D98" t="n">
-        <v>0.607636</v>
+        <v>0.649604</v>
       </c>
       <c r="E98" t="n">
-        <v>0.233077</v>
+        <v>0.232268</v>
       </c>
       <c r="F98" t="n">
-        <v>0.449042</v>
+        <v>0.451912</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.334566</v>
+        <v>0.334982</v>
       </c>
       <c r="C99" t="n">
-        <v>0.666113</v>
+        <v>0.701237</v>
       </c>
       <c r="D99" t="n">
-        <v>0.593794</v>
+        <v>0.6530820000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>0.232166</v>
+        <v>0.231954</v>
       </c>
       <c r="F99" t="n">
-        <v>0.447257</v>
+        <v>0.450276</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.326906</v>
+        <v>0.327343</v>
       </c>
       <c r="C100" t="n">
-        <v>0.56869</v>
+        <v>0.570237</v>
       </c>
       <c r="D100" t="n">
-        <v>0.593466</v>
+        <v>0.64621</v>
       </c>
       <c r="E100" t="n">
-        <v>0.2384</v>
+        <v>0.229945</v>
       </c>
       <c r="F100" t="n">
-        <v>0.445672</v>
+        <v>0.448677</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.31925</v>
+        <v>0.319539</v>
       </c>
       <c r="C101" t="n">
-        <v>0.596259</v>
+        <v>0.602734</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5859220000000001</v>
+        <v>0.638147</v>
       </c>
       <c r="E101" t="n">
-        <v>0.227324</v>
+        <v>0.229469</v>
       </c>
       <c r="F101" t="n">
-        <v>0.444768</v>
+        <v>0.447816</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.310589</v>
+        <v>0.311225</v>
       </c>
       <c r="C102" t="n">
-        <v>0.638769</v>
+        <v>0.6595299999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5888409999999999</v>
+        <v>0.626549</v>
       </c>
       <c r="E102" t="n">
-        <v>0.237476</v>
+        <v>0.221819</v>
       </c>
       <c r="F102" t="n">
-        <v>0.44361</v>
+        <v>0.446611</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.301809</v>
+        <v>0.30268</v>
       </c>
       <c r="C103" t="n">
-        <v>0.580426</v>
+        <v>0.609528</v>
       </c>
       <c r="D103" t="n">
-        <v>0.583139</v>
+        <v>0.625578</v>
       </c>
       <c r="E103" t="n">
-        <v>0.226512</v>
+        <v>0.228898</v>
       </c>
       <c r="F103" t="n">
-        <v>0.442448</v>
+        <v>0.446163</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.292209</v>
+        <v>0.292273</v>
       </c>
       <c r="C104" t="n">
-        <v>0.583602</v>
+        <v>0.631141</v>
       </c>
       <c r="D104" t="n">
-        <v>0.575274</v>
+        <v>0.61808</v>
       </c>
       <c r="E104" t="n">
-        <v>0.235757</v>
+        <v>0.220301</v>
       </c>
       <c r="F104" t="n">
-        <v>0.442022</v>
+        <v>0.444887</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.28187</v>
+        <v>0.281597</v>
       </c>
       <c r="C105" t="n">
-        <v>0.585993</v>
+        <v>0.593744</v>
       </c>
       <c r="D105" t="n">
-        <v>0.572977</v>
+        <v>0.61238</v>
       </c>
       <c r="E105" t="n">
-        <v>0.234209</v>
+        <v>0.23478</v>
       </c>
       <c r="F105" t="n">
-        <v>0.441537</v>
+        <v>0.444549</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.270413</v>
+        <v>0.270298</v>
       </c>
       <c r="C106" t="n">
-        <v>0.5972229999999999</v>
+        <v>0.659949</v>
       </c>
       <c r="D106" t="n">
-        <v>0.567351</v>
+        <v>0.606091</v>
       </c>
       <c r="E106" t="n">
-        <v>0.233112</v>
+        <v>0.234925</v>
       </c>
       <c r="F106" t="n">
-        <v>0.441526</v>
+        <v>0.444336</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.257964</v>
+        <v>0.257973</v>
       </c>
       <c r="C107" t="n">
-        <v>0.589862</v>
+        <v>0.6589699999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.629031</v>
+        <v>0.665114</v>
       </c>
       <c r="E107" t="n">
-        <v>0.234097</v>
+        <v>0.232632</v>
       </c>
       <c r="F107" t="n">
-        <v>0.441296</v>
+        <v>0.441554</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.244204</v>
+        <v>0.243938</v>
       </c>
       <c r="C108" t="n">
-        <v>0.561183</v>
+        <v>0.587284</v>
       </c>
       <c r="D108" t="n">
-        <v>0.625233</v>
+        <v>0.641411</v>
       </c>
       <c r="E108" t="n">
-        <v>0.241739</v>
+        <v>0.242888</v>
       </c>
       <c r="F108" t="n">
-        <v>0.456345</v>
+        <v>0.456496</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.2286</v>
+        <v>0.228418</v>
       </c>
       <c r="C109" t="n">
-        <v>0.507091</v>
+        <v>0.517029</v>
       </c>
       <c r="D109" t="n">
-        <v>0.610951</v>
+        <v>0.656103</v>
       </c>
       <c r="E109" t="n">
-        <v>0.238522</v>
+        <v>0.238992</v>
       </c>
       <c r="F109" t="n">
-        <v>0.454377</v>
+        <v>0.454572</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355498</v>
+        <v>0.355244</v>
       </c>
       <c r="C110" t="n">
-        <v>0.695038</v>
+        <v>0.737001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.605558</v>
+        <v>0.6542480000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>0.235634</v>
+        <v>0.237527</v>
       </c>
       <c r="F110" t="n">
-        <v>0.452368</v>
+        <v>0.452659</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.349492</v>
+        <v>0.349289</v>
       </c>
       <c r="C111" t="n">
-        <v>0.633528</v>
+        <v>0.636362</v>
       </c>
       <c r="D111" t="n">
-        <v>0.60145</v>
+        <v>0.651</v>
       </c>
       <c r="E111" t="n">
-        <v>0.234592</v>
+        <v>0.234601</v>
       </c>
       <c r="F111" t="n">
-        <v>0.450616</v>
+        <v>0.450903</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342616</v>
+        <v>0.342852</v>
       </c>
       <c r="C112" t="n">
-        <v>0.582855</v>
+        <v>0.584971</v>
       </c>
       <c r="D112" t="n">
-        <v>0.597486</v>
+        <v>0.646118</v>
       </c>
       <c r="E112" t="n">
-        <v>0.235856</v>
+        <v>0.234533</v>
       </c>
       <c r="F112" t="n">
-        <v>0.448999</v>
+        <v>0.449212</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.33626</v>
+        <v>0.335863</v>
       </c>
       <c r="C113" t="n">
-        <v>0.600596</v>
+        <v>0.601624</v>
       </c>
       <c r="D113" t="n">
-        <v>0.607121</v>
+        <v>0.624012</v>
       </c>
       <c r="E113" t="n">
-        <v>0.234137</v>
+        <v>0.234361</v>
       </c>
       <c r="F113" t="n">
-        <v>0.447519</v>
+        <v>0.447706</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.328934</v>
+        <v>0.328553</v>
       </c>
       <c r="C114" t="n">
-        <v>0.5981</v>
+        <v>0.612027</v>
       </c>
       <c r="D114" t="n">
-        <v>0.599274</v>
+        <v>0.6196970000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>0.231438</v>
+        <v>0.232442</v>
       </c>
       <c r="F114" t="n">
-        <v>0.446241</v>
+        <v>0.446308</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.320888</v>
+        <v>0.320678</v>
       </c>
       <c r="C115" t="n">
-        <v>0.579637</v>
+        <v>0.5911920000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.594589</v>
+        <v>0.615946</v>
       </c>
       <c r="E115" t="n">
-        <v>0.231109</v>
+        <v>0.231394</v>
       </c>
       <c r="F115" t="n">
-        <v>0.444935</v>
+        <v>0.445075</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.312657</v>
+        <v>0.31282</v>
       </c>
       <c r="C116" t="n">
-        <v>0.713337</v>
+        <v>0.701828</v>
       </c>
       <c r="D116" t="n">
-        <v>0.587871</v>
+        <v>0.609325</v>
       </c>
       <c r="E116" t="n">
-        <v>0.235918</v>
+        <v>0.235955</v>
       </c>
       <c r="F116" t="n">
-        <v>0.443756</v>
+        <v>0.44395</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.303506</v>
+        <v>0.303468</v>
       </c>
       <c r="C117" t="n">
-        <v>0.615134</v>
+        <v>0.622811</v>
       </c>
       <c r="D117" t="n">
-        <v>0.577148</v>
+        <v>0.610312</v>
       </c>
       <c r="E117" t="n">
-        <v>0.227952</v>
+        <v>0.229551</v>
       </c>
       <c r="F117" t="n">
-        <v>0.442784</v>
+        <v>0.443049</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.29417</v>
+        <v>0.294118</v>
       </c>
       <c r="C118" t="n">
-        <v>0.579179</v>
+        <v>0.590789</v>
       </c>
       <c r="D118" t="n">
-        <v>0.57735</v>
+        <v>0.600961</v>
       </c>
       <c r="E118" t="n">
-        <v>0.227907</v>
+        <v>0.236026</v>
       </c>
       <c r="F118" t="n">
-        <v>0.44211</v>
+        <v>0.442298</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.283776</v>
+        <v>0.28359</v>
       </c>
       <c r="C119" t="n">
-        <v>0.574654</v>
+        <v>0.588995</v>
       </c>
       <c r="D119" t="n">
-        <v>0.569127</v>
+        <v>0.5972420000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>0.233543</v>
+        <v>0.232772</v>
       </c>
       <c r="F119" t="n">
-        <v>0.441527</v>
+        <v>0.441902</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.272486</v>
+        <v>0.27258</v>
       </c>
       <c r="C120" t="n">
-        <v>0.567597</v>
+        <v>0.580913</v>
       </c>
       <c r="D120" t="n">
-        <v>0.565619</v>
+        <v>0.590012</v>
       </c>
       <c r="E120" t="n">
-        <v>0.234419</v>
+        <v>0.246724</v>
       </c>
       <c r="F120" t="n">
-        <v>0.441483</v>
+        <v>0.442187</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.261035</v>
+        <v>0.260641</v>
       </c>
       <c r="C121" t="n">
-        <v>0.55293</v>
+        <v>0.553404</v>
       </c>
       <c r="D121" t="n">
-        <v>0.642806</v>
+        <v>0.667546</v>
       </c>
       <c r="E121" t="n">
-        <v>0.23368</v>
+        <v>0.233588</v>
       </c>
       <c r="F121" t="n">
-        <v>0.441181</v>
+        <v>0.442967</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.247145</v>
+        <v>0.247198</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5112950000000001</v>
+        <v>0.530229</v>
       </c>
       <c r="D122" t="n">
-        <v>0.62253</v>
+        <v>0.684413</v>
       </c>
       <c r="E122" t="n">
-        <v>0.233208</v>
+        <v>0.232078</v>
       </c>
       <c r="F122" t="n">
-        <v>0.440949</v>
+        <v>0.441199</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232784</v>
+        <v>0.232585</v>
       </c>
       <c r="C123" t="n">
-        <v>0.541852</v>
+        <v>0.563754</v>
       </c>
       <c r="D123" t="n">
-        <v>0.636999</v>
+        <v>0.658046</v>
       </c>
       <c r="E123" t="n">
-        <v>0.245518</v>
+        <v>0.249649</v>
       </c>
       <c r="F123" t="n">
-        <v>0.454805</v>
+        <v>0.455084</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356987</v>
+        <v>0.3573</v>
       </c>
       <c r="C124" t="n">
-        <v>0.559874</v>
+        <v>0.57159</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6302680000000001</v>
+        <v>0.656944</v>
       </c>
       <c r="E124" t="n">
-        <v>0.238129</v>
+        <v>0.238794</v>
       </c>
       <c r="F124" t="n">
-        <v>0.45304</v>
+        <v>0.452982</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.351049</v>
+        <v>0.351325</v>
       </c>
       <c r="C125" t="n">
-        <v>0.740469</v>
+        <v>0.6807569999999999</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6283</v>
+        <v>0.648688</v>
       </c>
       <c r="E125" t="n">
-        <v>0.236076</v>
+        <v>0.238494</v>
       </c>
       <c r="F125" t="n">
-        <v>0.451194</v>
+        <v>0.451174</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.344609</v>
+        <v>0.344503</v>
       </c>
       <c r="C126" t="n">
-        <v>0.723014</v>
+        <v>0.725729</v>
       </c>
       <c r="D126" t="n">
-        <v>0.622491</v>
+        <v>0.6448700000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>0.235526</v>
+        <v>0.238124</v>
       </c>
       <c r="F126" t="n">
-        <v>0.449538</v>
+        <v>0.449437</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.337917</v>
+        <v>0.337671</v>
       </c>
       <c r="C127" t="n">
-        <v>0.591561</v>
+        <v>0.594993</v>
       </c>
       <c r="D127" t="n">
-        <v>0.60379</v>
+        <v>0.652457</v>
       </c>
       <c r="E127" t="n">
-        <v>0.23442</v>
+        <v>0.233827</v>
       </c>
       <c r="F127" t="n">
-        <v>0.44791</v>
+        <v>0.448026</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.330275</v>
+        <v>0.330611</v>
       </c>
       <c r="C128" t="n">
-        <v>0.6119</v>
+        <v>0.621037</v>
       </c>
       <c r="D128" t="n">
-        <v>0.599476</v>
+        <v>0.644038</v>
       </c>
       <c r="E128" t="n">
-        <v>0.233407</v>
+        <v>0.241005</v>
       </c>
       <c r="F128" t="n">
-        <v>0.446779</v>
+        <v>0.446616</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.322695</v>
+        <v>0.322387</v>
       </c>
       <c r="C129" t="n">
-        <v>0.560326</v>
+        <v>0.559867</v>
       </c>
       <c r="D129" t="n">
-        <v>0.594686</v>
+        <v>0.639456</v>
       </c>
       <c r="E129" t="n">
-        <v>0.23242</v>
+        <v>0.23155</v>
       </c>
       <c r="F129" t="n">
-        <v>0.445259</v>
+        <v>0.44571</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.314622</v>
+        <v>0.313932</v>
       </c>
       <c r="C130" t="n">
-        <v>0.56551</v>
+        <v>0.56974</v>
       </c>
       <c r="D130" t="n">
-        <v>0.590109</v>
+        <v>0.628124</v>
       </c>
       <c r="E130" t="n">
-        <v>0.231287</v>
+        <v>0.231473</v>
       </c>
       <c r="F130" t="n">
-        <v>0.444118</v>
+        <v>0.444222</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.305572</v>
+        <v>0.305636</v>
       </c>
       <c r="C131" t="n">
-        <v>0.55924</v>
+        <v>0.569276</v>
       </c>
       <c r="D131" t="n">
-        <v>0.585561</v>
+        <v>0.619897</v>
       </c>
       <c r="E131" t="n">
-        <v>0.229532</v>
+        <v>0.230087</v>
       </c>
       <c r="F131" t="n">
-        <v>0.443226</v>
+        <v>0.443206</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.296623</v>
+        <v>0.296258</v>
       </c>
       <c r="C132" t="n">
-        <v>0.665896</v>
+        <v>0.721162</v>
       </c>
       <c r="D132" t="n">
-        <v>0.585226</v>
+        <v>0.608779</v>
       </c>
       <c r="E132" t="n">
-        <v>0.236157</v>
+        <v>0.234311</v>
       </c>
       <c r="F132" t="n">
-        <v>0.442289</v>
+        <v>0.442444</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.286081</v>
+        <v>0.285937</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5967170000000001</v>
+        <v>0.606954</v>
       </c>
       <c r="D133" t="n">
-        <v>0.577504</v>
+        <v>0.605158</v>
       </c>
       <c r="E133" t="n">
-        <v>0.234665</v>
+        <v>0.235016</v>
       </c>
       <c r="F133" t="n">
-        <v>0.441759</v>
+        <v>0.442005</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.274735</v>
+        <v>0.274731</v>
       </c>
       <c r="C134" t="n">
-        <v>0.583891</v>
+        <v>0.597154</v>
       </c>
       <c r="D134" t="n">
-        <v>0.573435</v>
+        <v>0.599257</v>
       </c>
       <c r="E134" t="n">
-        <v>0.234356</v>
+        <v>0.233049</v>
       </c>
       <c r="F134" t="n">
-        <v>0.441251</v>
+        <v>0.441604</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.263229</v>
+        <v>0.262943</v>
       </c>
       <c r="C135" t="n">
-        <v>0.52999</v>
+        <v>0.52629</v>
       </c>
       <c r="D135" t="n">
-        <v>0.648169</v>
+        <v>0.66987</v>
       </c>
       <c r="E135" t="n">
-        <v>0.23264</v>
+        <v>0.233696</v>
       </c>
       <c r="F135" t="n">
-        <v>0.441131</v>
+        <v>0.441558</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.250614</v>
+        <v>0.250351</v>
       </c>
       <c r="C136" t="n">
-        <v>0.51802</v>
+        <v>0.519895</v>
       </c>
       <c r="D136" t="n">
-        <v>0.627644</v>
+        <v>0.6916369999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>0.24573</v>
+        <v>0.218814</v>
       </c>
       <c r="F136" t="n">
-        <v>0.441138</v>
+        <v>0.441408</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.236034</v>
+        <v>0.235642</v>
       </c>
       <c r="C137" t="n">
-        <v>0.494818</v>
+        <v>0.510068</v>
       </c>
       <c r="D137" t="n">
-        <v>0.644547</v>
+        <v>0.663996</v>
       </c>
       <c r="E137" t="n">
-        <v>0.246416</v>
+        <v>0.246684</v>
       </c>
       <c r="F137" t="n">
-        <v>0.455358</v>
+        <v>0.45553</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.358271</v>
+        <v>0.358305</v>
       </c>
       <c r="C138" t="n">
-        <v>0.644617</v>
+        <v>0.668205</v>
       </c>
       <c r="D138" t="n">
-        <v>0.622834</v>
+        <v>0.679551</v>
       </c>
       <c r="E138" t="n">
-        <v>0.240219</v>
+        <v>0.240969</v>
       </c>
       <c r="F138" t="n">
-        <v>0.45321</v>
+        <v>0.45373</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.352514</v>
+        <v>0.352716</v>
       </c>
       <c r="C139" t="n">
-        <v>0.6025470000000001</v>
+        <v>0.629673</v>
       </c>
       <c r="D139" t="n">
-        <v>0.61847</v>
+        <v>0.672523</v>
       </c>
       <c r="E139" t="n">
-        <v>0.238791</v>
+        <v>0.23896</v>
       </c>
       <c r="F139" t="n">
-        <v>0.45151</v>
+        <v>0.452088</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.346428</v>
+        <v>0.346763</v>
       </c>
       <c r="C140" t="n">
-        <v>0.63406</v>
+        <v>0.6784289999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.617443</v>
+        <v>0.664733</v>
       </c>
       <c r="E140" t="n">
-        <v>0.237434</v>
+        <v>0.238711</v>
       </c>
       <c r="F140" t="n">
-        <v>0.449908</v>
+        <v>0.450593</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.339497</v>
+        <v>0.339644</v>
       </c>
       <c r="C141" t="n">
-        <v>0.588456</v>
+        <v>0.61882</v>
       </c>
       <c r="D141" t="n">
-        <v>0.621795</v>
+        <v>0.644382</v>
       </c>
       <c r="E141" t="n">
-        <v>0.238961</v>
+        <v>0.23819</v>
       </c>
       <c r="F141" t="n">
-        <v>0.448292</v>
+        <v>0.448611</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.332706</v>
+        <v>0.332391</v>
       </c>
       <c r="C142" t="n">
-        <v>0.567791</v>
+        <v>0.587</v>
       </c>
       <c r="D142" t="n">
-        <v>0.616549</v>
+        <v>0.638401</v>
       </c>
       <c r="E142" t="n">
-        <v>0.233564</v>
+        <v>0.234645</v>
       </c>
       <c r="F142" t="n">
-        <v>0.446788</v>
+        <v>0.447206</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.324784</v>
+        <v>0.324977</v>
       </c>
       <c r="C143" t="n">
-        <v>0.6174809999999999</v>
+        <v>0.638638</v>
       </c>
       <c r="D143" t="n">
-        <v>0.60924</v>
+        <v>0.631298</v>
       </c>
       <c r="E143" t="n">
-        <v>0.237167</v>
+        <v>0.233976</v>
       </c>
       <c r="F143" t="n">
-        <v>0.445545</v>
+        <v>0.446042</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.306067</v>
+        <v>0.298799</v>
       </c>
       <c r="C2" t="n">
-        <v>0.507233</v>
+        <v>0.50589</v>
       </c>
       <c r="D2" t="n">
-        <v>0.421132</v>
+        <v>0.411542</v>
       </c>
       <c r="E2" t="n">
-        <v>0.195118</v>
+        <v>0.194509</v>
       </c>
       <c r="F2" t="n">
-        <v>0.438061</v>
+        <v>0.471272</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.29674</v>
+        <v>0.290166</v>
       </c>
       <c r="C3" t="n">
-        <v>0.506038</v>
+        <v>0.506292</v>
       </c>
       <c r="D3" t="n">
-        <v>0.423251</v>
+        <v>0.411064</v>
       </c>
       <c r="E3" t="n">
-        <v>0.205844</v>
+        <v>0.19323</v>
       </c>
       <c r="F3" t="n">
-        <v>0.437845</v>
+        <v>0.46926</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.28715</v>
+        <v>0.278214</v>
       </c>
       <c r="C4" t="n">
-        <v>0.492411</v>
+        <v>0.493287</v>
       </c>
       <c r="D4" t="n">
-        <v>0.424878</v>
+        <v>0.409669</v>
       </c>
       <c r="E4" t="n">
-        <v>0.217056</v>
+        <v>0.196759</v>
       </c>
       <c r="F4" t="n">
-        <v>0.434018</v>
+        <v>0.471187</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.277282</v>
+        <v>0.268266</v>
       </c>
       <c r="C5" t="n">
-        <v>0.483968</v>
+        <v>0.484167</v>
       </c>
       <c r="D5" t="n">
-        <v>0.42218</v>
+        <v>0.413457</v>
       </c>
       <c r="E5" t="n">
-        <v>0.215554</v>
+        <v>0.196864</v>
       </c>
       <c r="F5" t="n">
-        <v>0.435577</v>
+        <v>0.468281</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.263738</v>
+        <v>0.256508</v>
       </c>
       <c r="C6" t="n">
-        <v>0.473678</v>
+        <v>0.471993</v>
       </c>
       <c r="D6" t="n">
-        <v>0.424403</v>
+        <v>0.413578</v>
       </c>
       <c r="E6" t="n">
-        <v>0.215516</v>
+        <v>0.199394</v>
       </c>
       <c r="F6" t="n">
-        <v>0.435228</v>
+        <v>0.467541</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.253144</v>
+        <v>0.243692</v>
       </c>
       <c r="C7" t="n">
-        <v>0.462446</v>
+        <v>0.463094</v>
       </c>
       <c r="D7" t="n">
-        <v>0.418593</v>
+        <v>0.412029</v>
       </c>
       <c r="E7" t="n">
-        <v>0.219323</v>
+        <v>0.199081</v>
       </c>
       <c r="F7" t="n">
-        <v>0.433829</v>
+        <v>0.464952</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.24292</v>
+        <v>0.230633</v>
       </c>
       <c r="C8" t="n">
-        <v>0.443706</v>
+        <v>0.443737</v>
       </c>
       <c r="D8" t="n">
-        <v>0.420944</v>
+        <v>0.413411</v>
       </c>
       <c r="E8" t="n">
-        <v>0.219583</v>
+        <v>0.198903</v>
       </c>
       <c r="F8" t="n">
-        <v>0.434078</v>
+        <v>0.464766</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.226379</v>
+        <v>0.216371</v>
       </c>
       <c r="C9" t="n">
-        <v>0.432832</v>
+        <v>0.433494</v>
       </c>
       <c r="D9" t="n">
-        <v>0.420356</v>
+        <v>0.413037</v>
       </c>
       <c r="E9" t="n">
-        <v>0.235845</v>
+        <v>0.215396</v>
       </c>
       <c r="F9" t="n">
-        <v>0.448911</v>
+        <v>0.481236</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.351562</v>
+        <v>0.345383</v>
       </c>
       <c r="C10" t="n">
-        <v>0.553217</v>
+        <v>0.552632</v>
       </c>
       <c r="D10" t="n">
-        <v>0.420242</v>
+        <v>0.411911</v>
       </c>
       <c r="E10" t="n">
-        <v>0.220185</v>
+        <v>0.214972</v>
       </c>
       <c r="F10" t="n">
-        <v>0.449246</v>
+        <v>0.482689</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.345524</v>
+        <v>0.339068</v>
       </c>
       <c r="C11" t="n">
-        <v>0.550604</v>
+        <v>0.550601</v>
       </c>
       <c r="D11" t="n">
-        <v>0.42241</v>
+        <v>0.412618</v>
       </c>
       <c r="E11" t="n">
-        <v>0.219174</v>
+        <v>0.213661</v>
       </c>
       <c r="F11" t="n">
-        <v>0.449992</v>
+        <v>0.48155</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.342008</v>
+        <v>0.335187</v>
       </c>
       <c r="C12" t="n">
-        <v>0.547091</v>
+        <v>0.546706</v>
       </c>
       <c r="D12" t="n">
-        <v>0.421526</v>
+        <v>0.414274</v>
       </c>
       <c r="E12" t="n">
-        <v>0.220208</v>
+        <v>0.212828</v>
       </c>
       <c r="F12" t="n">
-        <v>0.447233</v>
+        <v>0.480567</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.332861</v>
+        <v>0.327011</v>
       </c>
       <c r="C13" t="n">
-        <v>0.541168</v>
+        <v>0.541033</v>
       </c>
       <c r="D13" t="n">
-        <v>0.422313</v>
+        <v>0.413805</v>
       </c>
       <c r="E13" t="n">
-        <v>0.218843</v>
+        <v>0.212354</v>
       </c>
       <c r="F13" t="n">
-        <v>0.446291</v>
+        <v>0.478034</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.327336</v>
+        <v>0.319017</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5340009999999999</v>
+        <v>0.533489</v>
       </c>
       <c r="D14" t="n">
-        <v>0.42396</v>
+        <v>0.415379</v>
       </c>
       <c r="E14" t="n">
-        <v>0.219234</v>
+        <v>0.212124</v>
       </c>
       <c r="F14" t="n">
-        <v>0.443406</v>
+        <v>0.476489</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.320536</v>
+        <v>0.313001</v>
       </c>
       <c r="C15" t="n">
-        <v>0.527021</v>
+        <v>0.5260280000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.423767</v>
+        <v>0.414767</v>
       </c>
       <c r="E15" t="n">
-        <v>0.234323</v>
+        <v>0.211934</v>
       </c>
       <c r="F15" t="n">
-        <v>0.443436</v>
+        <v>0.475844</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.312176</v>
+        <v>0.304981</v>
       </c>
       <c r="C16" t="n">
-        <v>0.518384</v>
+        <v>0.518302</v>
       </c>
       <c r="D16" t="n">
-        <v>0.425385</v>
+        <v>0.416077</v>
       </c>
       <c r="E16" t="n">
-        <v>0.219083</v>
+        <v>0.210661</v>
       </c>
       <c r="F16" t="n">
-        <v>0.442998</v>
+        <v>0.474429</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.304322</v>
+        <v>0.296556</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5122370000000001</v>
+        <v>0.511645</v>
       </c>
       <c r="D17" t="n">
-        <v>0.427721</v>
+        <v>0.417665</v>
       </c>
       <c r="E17" t="n">
-        <v>0.233776</v>
+        <v>0.211167</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4423</v>
+        <v>0.47445</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.293847</v>
+        <v>0.286515</v>
       </c>
       <c r="C18" t="n">
-        <v>0.50142</v>
+        <v>0.500701</v>
       </c>
       <c r="D18" t="n">
-        <v>0.429317</v>
+        <v>0.420277</v>
       </c>
       <c r="E18" t="n">
-        <v>0.215801</v>
+        <v>0.209486</v>
       </c>
       <c r="F18" t="n">
-        <v>0.439241</v>
+        <v>0.471756</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.283186</v>
+        <v>0.276504</v>
       </c>
       <c r="C19" t="n">
-        <v>0.490914</v>
+        <v>0.490238</v>
       </c>
       <c r="D19" t="n">
-        <v>0.430708</v>
+        <v>0.421834</v>
       </c>
       <c r="E19" t="n">
-        <v>0.216104</v>
+        <v>0.209415</v>
       </c>
       <c r="F19" t="n">
-        <v>0.439595</v>
+        <v>0.472495</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.273339</v>
+        <v>0.265748</v>
       </c>
       <c r="C20" t="n">
-        <v>0.479402</v>
+        <v>0.478817</v>
       </c>
       <c r="D20" t="n">
-        <v>0.430473</v>
+        <v>0.419774</v>
       </c>
       <c r="E20" t="n">
-        <v>0.216604</v>
+        <v>0.209043</v>
       </c>
       <c r="F20" t="n">
-        <v>0.439313</v>
+        <v>0.471215</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.262964</v>
+        <v>0.255268</v>
       </c>
       <c r="C21" t="n">
-        <v>0.462699</v>
+        <v>0.462434</v>
       </c>
       <c r="D21" t="n">
-        <v>0.424299</v>
+        <v>0.417207</v>
       </c>
       <c r="E21" t="n">
-        <v>0.21512</v>
+        <v>0.207389</v>
       </c>
       <c r="F21" t="n">
-        <v>0.438441</v>
+        <v>0.471288</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248808</v>
+        <v>0.242562</v>
       </c>
       <c r="C22" t="n">
-        <v>0.456161</v>
+        <v>0.455745</v>
       </c>
       <c r="D22" t="n">
-        <v>0.425374</v>
+        <v>0.417553</v>
       </c>
       <c r="E22" t="n">
-        <v>0.21618</v>
+        <v>0.207191</v>
       </c>
       <c r="F22" t="n">
-        <v>0.438631</v>
+        <v>0.468538</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.23495</v>
+        <v>0.227534</v>
       </c>
       <c r="C23" t="n">
-        <v>0.435405</v>
+        <v>0.434958</v>
       </c>
       <c r="D23" t="n">
-        <v>0.426984</v>
+        <v>0.418787</v>
       </c>
       <c r="E23" t="n">
-        <v>0.247137</v>
+        <v>0.22557</v>
       </c>
       <c r="F23" t="n">
-        <v>0.454694</v>
+        <v>0.48595</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.355974</v>
+        <v>0.348096</v>
       </c>
       <c r="C24" t="n">
-        <v>0.555665</v>
+        <v>0.555437</v>
       </c>
       <c r="D24" t="n">
-        <v>0.426518</v>
+        <v>0.419197</v>
       </c>
       <c r="E24" t="n">
-        <v>0.244979</v>
+        <v>0.224405</v>
       </c>
       <c r="F24" t="n">
-        <v>0.451889</v>
+        <v>0.484474</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.350524</v>
+        <v>0.3424</v>
       </c>
       <c r="C25" t="n">
-        <v>0.553266</v>
+        <v>0.5537069999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.427929</v>
+        <v>0.420563</v>
       </c>
       <c r="E25" t="n">
-        <v>0.256639</v>
+        <v>0.219471</v>
       </c>
       <c r="F25" t="n">
-        <v>0.450091</v>
+        <v>0.484379</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.344269</v>
+        <v>0.337452</v>
       </c>
       <c r="C26" t="n">
-        <v>0.547397</v>
+        <v>0.5475139999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4277</v>
+        <v>0.418939</v>
       </c>
       <c r="E26" t="n">
-        <v>0.226076</v>
+        <v>0.216906</v>
       </c>
       <c r="F26" t="n">
-        <v>0.449682</v>
+        <v>0.482886</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.339022</v>
+        <v>0.332303</v>
       </c>
       <c r="C27" t="n">
-        <v>0.540594</v>
+        <v>0.5394949999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.429134</v>
+        <v>0.420227</v>
       </c>
       <c r="E27" t="n">
-        <v>0.22546</v>
+        <v>0.217081</v>
       </c>
       <c r="F27" t="n">
-        <v>0.446791</v>
+        <v>0.480819</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.331456</v>
+        <v>0.324412</v>
       </c>
       <c r="C28" t="n">
-        <v>0.531946</v>
+        <v>0.532317</v>
       </c>
       <c r="D28" t="n">
-        <v>0.429076</v>
+        <v>0.420477</v>
       </c>
       <c r="E28" t="n">
-        <v>0.238767</v>
+        <v>0.215308</v>
       </c>
       <c r="F28" t="n">
-        <v>0.446781</v>
+        <v>0.480094</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.323602</v>
+        <v>0.318117</v>
       </c>
       <c r="C29" t="n">
-        <v>0.532497</v>
+        <v>0.532814</v>
       </c>
       <c r="D29" t="n">
-        <v>0.429634</v>
+        <v>0.422534</v>
       </c>
       <c r="E29" t="n">
-        <v>0.222284</v>
+        <v>0.216163</v>
       </c>
       <c r="F29" t="n">
-        <v>0.444391</v>
+        <v>0.477726</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.315096</v>
+        <v>0.308306</v>
       </c>
       <c r="C30" t="n">
-        <v>0.521379</v>
+        <v>0.5211750000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.430843</v>
+        <v>0.432867</v>
       </c>
       <c r="E30" t="n">
-        <v>0.221135</v>
+        <v>0.214431</v>
       </c>
       <c r="F30" t="n">
-        <v>0.443997</v>
+        <v>0.477719</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.307135</v>
+        <v>0.300102</v>
       </c>
       <c r="C31" t="n">
-        <v>0.506593</v>
+        <v>0.505571</v>
       </c>
       <c r="D31" t="n">
-        <v>0.432898</v>
+        <v>0.433587</v>
       </c>
       <c r="E31" t="n">
-        <v>0.220841</v>
+        <v>0.21331</v>
       </c>
       <c r="F31" t="n">
-        <v>0.442282</v>
+        <v>0.475664</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.297721</v>
+        <v>0.290666</v>
       </c>
       <c r="C32" t="n">
-        <v>0.50623</v>
+        <v>0.50634</v>
       </c>
       <c r="D32" t="n">
-        <v>0.433458</v>
+        <v>0.422962</v>
       </c>
       <c r="E32" t="n">
-        <v>0.219929</v>
+        <v>0.213063</v>
       </c>
       <c r="F32" t="n">
-        <v>0.440802</v>
+        <v>0.474666</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.288769</v>
+        <v>0.281307</v>
       </c>
       <c r="C33" t="n">
-        <v>0.491855</v>
+        <v>0.491455</v>
       </c>
       <c r="D33" t="n">
-        <v>0.433962</v>
+        <v>0.423532</v>
       </c>
       <c r="E33" t="n">
-        <v>0.219525</v>
+        <v>0.212347</v>
       </c>
       <c r="F33" t="n">
-        <v>0.440695</v>
+        <v>0.473309</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.278191</v>
+        <v>0.272025</v>
       </c>
       <c r="C34" t="n">
-        <v>0.478133</v>
+        <v>0.477962</v>
       </c>
       <c r="D34" t="n">
-        <v>0.435487</v>
+        <v>0.424422</v>
       </c>
       <c r="E34" t="n">
-        <v>0.219489</v>
+        <v>0.212053</v>
       </c>
       <c r="F34" t="n">
-        <v>0.440285</v>
+        <v>0.473277</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.266191</v>
+        <v>0.258964</v>
       </c>
       <c r="C35" t="n">
-        <v>0.468009</v>
+        <v>0.467514</v>
       </c>
       <c r="D35" t="n">
-        <v>0.432048</v>
+        <v>0.425524</v>
       </c>
       <c r="E35" t="n">
-        <v>0.234457</v>
+        <v>0.211862</v>
       </c>
       <c r="F35" t="n">
-        <v>0.440029</v>
+        <v>0.47241</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.254145</v>
+        <v>0.246216</v>
       </c>
       <c r="C36" t="n">
-        <v>0.454508</v>
+        <v>0.45389</v>
       </c>
       <c r="D36" t="n">
-        <v>0.432262</v>
+        <v>0.424858</v>
       </c>
       <c r="E36" t="n">
-        <v>0.220858</v>
+        <v>0.211696</v>
       </c>
       <c r="F36" t="n">
-        <v>0.440289</v>
+        <v>0.471277</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.240171</v>
+        <v>0.231892</v>
       </c>
       <c r="C37" t="n">
-        <v>0.449608</v>
+        <v>0.449496</v>
       </c>
       <c r="D37" t="n">
-        <v>0.433049</v>
+        <v>0.426439</v>
       </c>
       <c r="E37" t="n">
-        <v>0.234607</v>
+        <v>0.227789</v>
       </c>
       <c r="F37" t="n">
-        <v>0.454768</v>
+        <v>0.487981</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.357993</v>
+        <v>0.350361</v>
       </c>
       <c r="C38" t="n">
-        <v>0.555253</v>
+        <v>0.554744</v>
       </c>
       <c r="D38" t="n">
-        <v>0.432702</v>
+        <v>0.424725</v>
       </c>
       <c r="E38" t="n">
-        <v>0.230491</v>
+        <v>0.222207</v>
       </c>
       <c r="F38" t="n">
-        <v>0.452478</v>
+        <v>0.485324</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.35316</v>
+        <v>0.345827</v>
       </c>
       <c r="C39" t="n">
-        <v>0.550766</v>
+        <v>0.55041</v>
       </c>
       <c r="D39" t="n">
-        <v>0.432178</v>
+        <v>0.424261</v>
       </c>
       <c r="E39" t="n">
-        <v>0.227704</v>
+        <v>0.220216</v>
       </c>
       <c r="F39" t="n">
-        <v>0.45073</v>
+        <v>0.483338</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.347378</v>
+        <v>0.339809</v>
       </c>
       <c r="C40" t="n">
-        <v>0.545557</v>
+        <v>0.545303</v>
       </c>
       <c r="D40" t="n">
-        <v>0.432654</v>
+        <v>0.423194</v>
       </c>
       <c r="E40" t="n">
-        <v>0.226853</v>
+        <v>0.219259</v>
       </c>
       <c r="F40" t="n">
-        <v>0.449602</v>
+        <v>0.482228</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.341203</v>
+        <v>0.334044</v>
       </c>
       <c r="C41" t="n">
-        <v>0.538771</v>
+        <v>0.538256</v>
       </c>
       <c r="D41" t="n">
-        <v>0.432295</v>
+        <v>0.423677</v>
       </c>
       <c r="E41" t="n">
-        <v>0.225537</v>
+        <v>0.217412</v>
       </c>
       <c r="F41" t="n">
-        <v>0.448431</v>
+        <v>0.481668</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.333895</v>
+        <v>0.327192</v>
       </c>
       <c r="C42" t="n">
-        <v>0.534544</v>
+        <v>0.534346</v>
       </c>
       <c r="D42" t="n">
-        <v>0.43196</v>
+        <v>0.424261</v>
       </c>
       <c r="E42" t="n">
-        <v>0.22395</v>
+        <v>0.216777</v>
       </c>
       <c r="F42" t="n">
-        <v>0.446641</v>
+        <v>0.480223</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.326435</v>
+        <v>0.318937</v>
       </c>
       <c r="C43" t="n">
-        <v>0.52694</v>
+        <v>0.526771</v>
       </c>
       <c r="D43" t="n">
-        <v>0.433471</v>
+        <v>0.423969</v>
       </c>
       <c r="E43" t="n">
-        <v>0.223337</v>
+        <v>0.215869</v>
       </c>
       <c r="F43" t="n">
-        <v>0.445238</v>
+        <v>0.478645</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.319343</v>
+        <v>0.311799</v>
       </c>
       <c r="C44" t="n">
-        <v>0.522638</v>
+        <v>0.522763</v>
       </c>
       <c r="D44" t="n">
-        <v>0.434341</v>
+        <v>0.424179</v>
       </c>
       <c r="E44" t="n">
-        <v>0.222335</v>
+        <v>0.214646</v>
       </c>
       <c r="F44" t="n">
-        <v>0.444083</v>
+        <v>0.477582</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.310746</v>
+        <v>0.303702</v>
       </c>
       <c r="C45" t="n">
-        <v>0.511251</v>
+        <v>0.511101</v>
       </c>
       <c r="D45" t="n">
-        <v>0.434708</v>
+        <v>0.42504</v>
       </c>
       <c r="E45" t="n">
-        <v>0.221313</v>
+        <v>0.213699</v>
       </c>
       <c r="F45" t="n">
-        <v>0.442573</v>
+        <v>0.476586</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.301953</v>
+        <v>0.29431</v>
       </c>
       <c r="C46" t="n">
-        <v>0.506641</v>
+        <v>0.506696</v>
       </c>
       <c r="D46" t="n">
-        <v>0.43603</v>
+        <v>0.424677</v>
       </c>
       <c r="E46" t="n">
-        <v>0.220079</v>
+        <v>0.21249</v>
       </c>
       <c r="F46" t="n">
-        <v>0.442071</v>
+        <v>0.475478</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.291472</v>
+        <v>0.284343</v>
       </c>
       <c r="C47" t="n">
-        <v>0.497505</v>
+        <v>0.497158</v>
       </c>
       <c r="D47" t="n">
-        <v>0.43641</v>
+        <v>0.425885</v>
       </c>
       <c r="E47" t="n">
-        <v>0.220206</v>
+        <v>0.211972</v>
       </c>
       <c r="F47" t="n">
-        <v>0.441277</v>
+        <v>0.474833</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.281786</v>
+        <v>0.27459</v>
       </c>
       <c r="C48" t="n">
-        <v>0.486522</v>
+        <v>0.486708</v>
       </c>
       <c r="D48" t="n">
-        <v>0.437884</v>
+        <v>0.42666</v>
       </c>
       <c r="E48" t="n">
-        <v>0.219502</v>
+        <v>0.213155</v>
       </c>
       <c r="F48" t="n">
-        <v>0.441037</v>
+        <v>0.473629</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.270637</v>
+        <v>0.262646</v>
       </c>
       <c r="C49" t="n">
-        <v>0.470771</v>
+        <v>0.47113</v>
       </c>
       <c r="D49" t="n">
-        <v>0.438689</v>
+        <v>0.427598</v>
       </c>
       <c r="E49" t="n">
-        <v>0.218755</v>
+        <v>0.211336</v>
       </c>
       <c r="F49" t="n">
-        <v>0.441025</v>
+        <v>0.473281</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.257101</v>
+        <v>0.249605</v>
       </c>
       <c r="C50" t="n">
-        <v>0.463986</v>
+        <v>0.464141</v>
       </c>
       <c r="D50" t="n">
-        <v>0.43872</v>
+        <v>0.431531</v>
       </c>
       <c r="E50" t="n">
-        <v>0.218485</v>
+        <v>0.210725</v>
       </c>
       <c r="F50" t="n">
-        <v>0.440705</v>
+        <v>0.472156</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.243749</v>
+        <v>0.236128</v>
       </c>
       <c r="C51" t="n">
-        <v>0.448185</v>
+        <v>0.44547</v>
       </c>
       <c r="D51" t="n">
-        <v>0.437899</v>
+        <v>0.432058</v>
       </c>
       <c r="E51" t="n">
-        <v>0.257677</v>
+        <v>0.227406</v>
       </c>
       <c r="F51" t="n">
-        <v>0.455968</v>
+        <v>0.488101</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.228999</v>
+        <v>0.220995</v>
       </c>
       <c r="C52" t="n">
-        <v>0.43348</v>
+        <v>0.433982</v>
       </c>
       <c r="D52" t="n">
-        <v>0.437388</v>
+        <v>0.431162</v>
       </c>
       <c r="E52" t="n">
-        <v>0.246849</v>
+        <v>0.222819</v>
       </c>
       <c r="F52" t="n">
-        <v>0.454226</v>
+        <v>0.486635</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.354676</v>
+        <v>0.347409</v>
       </c>
       <c r="C53" t="n">
-        <v>0.557912</v>
+        <v>0.559906</v>
       </c>
       <c r="D53" t="n">
-        <v>0.438724</v>
+        <v>0.431816</v>
       </c>
       <c r="E53" t="n">
-        <v>0.229216</v>
+        <v>0.220454</v>
       </c>
       <c r="F53" t="n">
-        <v>0.451926</v>
+        <v>0.484885</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.349511</v>
+        <v>0.341892</v>
       </c>
       <c r="C54" t="n">
-        <v>0.552605</v>
+        <v>0.552728</v>
       </c>
       <c r="D54" t="n">
-        <v>0.439103</v>
+        <v>0.435336</v>
       </c>
       <c r="E54" t="n">
-        <v>0.227825</v>
+        <v>0.219154</v>
       </c>
       <c r="F54" t="n">
-        <v>0.450223</v>
+        <v>0.483377</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.343358</v>
+        <v>0.336137</v>
       </c>
       <c r="C55" t="n">
-        <v>0.552316</v>
+        <v>0.555748</v>
       </c>
       <c r="D55" t="n">
-        <v>0.439531</v>
+        <v>0.438896</v>
       </c>
       <c r="E55" t="n">
-        <v>0.227007</v>
+        <v>0.217956</v>
       </c>
       <c r="F55" t="n">
-        <v>0.448816</v>
+        <v>0.481696</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.336288</v>
+        <v>0.32937</v>
       </c>
       <c r="C56" t="n">
-        <v>0.545589</v>
+        <v>0.547087</v>
       </c>
       <c r="D56" t="n">
-        <v>0.442759</v>
+        <v>0.435741</v>
       </c>
       <c r="E56" t="n">
-        <v>0.225184</v>
+        <v>0.216573</v>
       </c>
       <c r="F56" t="n">
-        <v>0.446693</v>
+        <v>0.480183</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.328264</v>
+        <v>0.321865</v>
       </c>
       <c r="C57" t="n">
-        <v>0.549889</v>
+        <v>0.551661</v>
       </c>
       <c r="D57" t="n">
-        <v>0.443666</v>
+        <v>0.439336</v>
       </c>
       <c r="E57" t="n">
-        <v>0.224039</v>
+        <v>0.21545</v>
       </c>
       <c r="F57" t="n">
-        <v>0.445735</v>
+        <v>0.479278</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.321174</v>
+        <v>0.31412</v>
       </c>
       <c r="C58" t="n">
-        <v>0.549763</v>
+        <v>0.5547260000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.446316</v>
+        <v>0.44343</v>
       </c>
       <c r="E58" t="n">
-        <v>0.224007</v>
+        <v>0.214506</v>
       </c>
       <c r="F58" t="n">
-        <v>0.444542</v>
+        <v>0.480143</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.313408</v>
+        <v>0.305843</v>
       </c>
       <c r="C59" t="n">
-        <v>0.548049</v>
+        <v>0.55011</v>
       </c>
       <c r="D59" t="n">
-        <v>0.446292</v>
+        <v>0.439697</v>
       </c>
       <c r="E59" t="n">
-        <v>0.222341</v>
+        <v>0.213685</v>
       </c>
       <c r="F59" t="n">
-        <v>0.443198</v>
+        <v>0.476838</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.30384</v>
+        <v>0.296674</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5179510000000001</v>
+        <v>0.518887</v>
       </c>
       <c r="D60" t="n">
-        <v>0.451566</v>
+        <v>0.442412</v>
       </c>
       <c r="E60" t="n">
-        <v>0.221668</v>
+        <v>0.212776</v>
       </c>
       <c r="F60" t="n">
-        <v>0.443136</v>
+        <v>0.475885</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.294672</v>
+        <v>0.28688</v>
       </c>
       <c r="C61" t="n">
-        <v>0.545999</v>
+        <v>0.5422709999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.454026</v>
+        <v>0.442448</v>
       </c>
       <c r="E61" t="n">
-        <v>0.235061</v>
+        <v>0.213426</v>
       </c>
       <c r="F61" t="n">
-        <v>0.44193</v>
+        <v>0.475588</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.284351</v>
+        <v>0.276699</v>
       </c>
       <c r="C62" t="n">
-        <v>0.506702</v>
+        <v>0.507057</v>
       </c>
       <c r="D62" t="n">
-        <v>0.458282</v>
+        <v>0.44744</v>
       </c>
       <c r="E62" t="n">
-        <v>0.220399</v>
+        <v>0.211251</v>
       </c>
       <c r="F62" t="n">
-        <v>0.441274</v>
+        <v>0.473748</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.273459</v>
+        <v>0.26578</v>
       </c>
       <c r="C63" t="n">
-        <v>0.526907</v>
+        <v>0.522286</v>
       </c>
       <c r="D63" t="n">
-        <v>0.461203</v>
+        <v>0.449715</v>
       </c>
       <c r="E63" t="n">
-        <v>0.233857</v>
+        <v>0.210705</v>
       </c>
       <c r="F63" t="n">
-        <v>0.44077</v>
+        <v>0.472838</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.261438</v>
+        <v>0.253818</v>
       </c>
       <c r="C64" t="n">
-        <v>0.505038</v>
+        <v>0.502132</v>
       </c>
       <c r="D64" t="n">
-        <v>0.496446</v>
+        <v>0.48953</v>
       </c>
       <c r="E64" t="n">
-        <v>0.218402</v>
+        <v>0.211723</v>
       </c>
       <c r="F64" t="n">
-        <v>0.440613</v>
+        <v>0.472344</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.247621</v>
+        <v>0.240276</v>
       </c>
       <c r="C65" t="n">
-        <v>0.494754</v>
+        <v>0.494691</v>
       </c>
       <c r="D65" t="n">
-        <v>0.498652</v>
+        <v>0.490384</v>
       </c>
       <c r="E65" t="n">
-        <v>0.232902</v>
+        <v>0.211159</v>
       </c>
       <c r="F65" t="n">
-        <v>0.440305</v>
+        <v>0.472102</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.233755</v>
+        <v>0.225918</v>
       </c>
       <c r="C66" t="n">
-        <v>0.47368</v>
+        <v>0.47479</v>
       </c>
       <c r="D66" t="n">
-        <v>0.504701</v>
+        <v>0.496063</v>
       </c>
       <c r="E66" t="n">
-        <v>0.233561</v>
+        <v>0.222926</v>
       </c>
       <c r="F66" t="n">
-        <v>0.454796</v>
+        <v>0.487891</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.356239</v>
+        <v>0.349179</v>
       </c>
       <c r="C67" t="n">
-        <v>0.642048</v>
+        <v>0.640764</v>
       </c>
       <c r="D67" t="n">
-        <v>0.513491</v>
+        <v>0.502365</v>
       </c>
       <c r="E67" t="n">
-        <v>0.231965</v>
+        <v>0.221395</v>
       </c>
       <c r="F67" t="n">
-        <v>0.453168</v>
+        <v>0.486315</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.351175</v>
+        <v>0.343525</v>
       </c>
       <c r="C68" t="n">
-        <v>0.584124</v>
+        <v>0.584637</v>
       </c>
       <c r="D68" t="n">
-        <v>0.519584</v>
+        <v>0.510047</v>
       </c>
       <c r="E68" t="n">
-        <v>0.231299</v>
+        <v>0.219703</v>
       </c>
       <c r="F68" t="n">
-        <v>0.451157</v>
+        <v>0.48458</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.345116</v>
+        <v>0.33801</v>
       </c>
       <c r="C69" t="n">
-        <v>0.57798</v>
+        <v>0.5779</v>
       </c>
       <c r="D69" t="n">
-        <v>0.520583</v>
+        <v>0.511608</v>
       </c>
       <c r="E69" t="n">
-        <v>0.22824</v>
+        <v>0.218184</v>
       </c>
       <c r="F69" t="n">
-        <v>0.44924</v>
+        <v>0.48288</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.338563</v>
+        <v>0.331087</v>
       </c>
       <c r="C70" t="n">
-        <v>0.671011</v>
+        <v>0.672998</v>
       </c>
       <c r="D70" t="n">
-        <v>0.529114</v>
+        <v>0.51668</v>
       </c>
       <c r="E70" t="n">
-        <v>0.227821</v>
+        <v>0.216829</v>
       </c>
       <c r="F70" t="n">
-        <v>0.447535</v>
+        <v>0.481261</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.330673</v>
+        <v>0.323325</v>
       </c>
       <c r="C71" t="n">
-        <v>0.65249</v>
+        <v>0.657453</v>
       </c>
       <c r="D71" t="n">
-        <v>0.530274</v>
+        <v>0.527879</v>
       </c>
       <c r="E71" t="n">
-        <v>0.228335</v>
+        <v>0.215884</v>
       </c>
       <c r="F71" t="n">
-        <v>0.446322</v>
+        <v>0.485673</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.323635</v>
+        <v>0.31571</v>
       </c>
       <c r="C72" t="n">
-        <v>0.660048</v>
+        <v>0.665629</v>
       </c>
       <c r="D72" t="n">
-        <v>0.537904</v>
+        <v>0.532464</v>
       </c>
       <c r="E72" t="n">
-        <v>0.226045</v>
+        <v>0.214994</v>
       </c>
       <c r="F72" t="n">
-        <v>0.444793</v>
+        <v>0.484592</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.315093</v>
+        <v>0.307565</v>
       </c>
       <c r="C73" t="n">
-        <v>0.615187</v>
+        <v>0.619878</v>
       </c>
       <c r="D73" t="n">
-        <v>0.542844</v>
+        <v>0.537046</v>
       </c>
       <c r="E73" t="n">
-        <v>0.224666</v>
+        <v>0.213793</v>
       </c>
       <c r="F73" t="n">
-        <v>0.443429</v>
+        <v>0.482935</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.30766</v>
+        <v>0.299276</v>
       </c>
       <c r="C74" t="n">
-        <v>0.618752</v>
+        <v>0.624896</v>
       </c>
       <c r="D74" t="n">
-        <v>0.544247</v>
+        <v>0.538369</v>
       </c>
       <c r="E74" t="n">
-        <v>0.224119</v>
+        <v>0.213073</v>
       </c>
       <c r="F74" t="n">
-        <v>0.442774</v>
+        <v>0.48188</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.297514</v>
+        <v>0.289513</v>
       </c>
       <c r="C75" t="n">
-        <v>0.656592</v>
+        <v>0.6625529999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5440120000000001</v>
+        <v>0.538497</v>
       </c>
       <c r="E75" t="n">
-        <v>0.235115</v>
+        <v>0.21401</v>
       </c>
       <c r="F75" t="n">
-        <v>0.442064</v>
+        <v>0.480998</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.287767</v>
+        <v>0.27976</v>
       </c>
       <c r="C76" t="n">
-        <v>0.590279</v>
+        <v>0.59572</v>
       </c>
       <c r="D76" t="n">
-        <v>0.54806</v>
+        <v>0.549902</v>
       </c>
       <c r="E76" t="n">
-        <v>0.223774</v>
+        <v>0.211552</v>
       </c>
       <c r="F76" t="n">
-        <v>0.441067</v>
+        <v>0.479721</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.276777</v>
+        <v>0.268965</v>
       </c>
       <c r="C77" t="n">
-        <v>0.624619</v>
+        <v>0.628814</v>
       </c>
       <c r="D77" t="n">
-        <v>0.562908</v>
+        <v>0.543994</v>
       </c>
       <c r="E77" t="n">
-        <v>0.222657</v>
+        <v>0.210954</v>
       </c>
       <c r="F77" t="n">
-        <v>0.444147</v>
+        <v>0.478588</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.264849</v>
+        <v>0.257081</v>
       </c>
       <c r="C78" t="n">
-        <v>0.619879</v>
+        <v>0.619231</v>
       </c>
       <c r="D78" t="n">
-        <v>0.633128</v>
+        <v>0.6145</v>
       </c>
       <c r="E78" t="n">
-        <v>0.233214</v>
+        <v>0.210545</v>
       </c>
       <c r="F78" t="n">
-        <v>0.444092</v>
+        <v>0.477666</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.25184</v>
+        <v>0.24417</v>
       </c>
       <c r="C79" t="n">
-        <v>0.549004</v>
+        <v>0.54877</v>
       </c>
       <c r="D79" t="n">
-        <v>0.641773</v>
+        <v>0.62032</v>
       </c>
       <c r="E79" t="n">
-        <v>0.231456</v>
+        <v>0.211235</v>
       </c>
       <c r="F79" t="n">
-        <v>0.443567</v>
+        <v>0.477073</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.238528</v>
+        <v>0.229777</v>
       </c>
       <c r="C80" t="n">
-        <v>0.504408</v>
+        <v>0.504427</v>
       </c>
       <c r="D80" t="n">
-        <v>0.643896</v>
+        <v>0.624955</v>
       </c>
       <c r="E80" t="n">
-        <v>0.234076</v>
+        <v>0.226597</v>
       </c>
       <c r="F80" t="n">
-        <v>0.455514</v>
+        <v>0.493526</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.357617</v>
+        <v>0.350297</v>
       </c>
       <c r="C81" t="n">
-        <v>0.650861</v>
+        <v>0.65761</v>
       </c>
       <c r="D81" t="n">
-        <v>0.62524</v>
+        <v>0.617754</v>
       </c>
       <c r="E81" t="n">
-        <v>0.236678</v>
+        <v>0.222631</v>
       </c>
       <c r="F81" t="n">
-        <v>0.453326</v>
+        <v>0.491447</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.352585</v>
+        <v>0.34546</v>
       </c>
       <c r="C82" t="n">
-        <v>0.664992</v>
+        <v>0.670685</v>
       </c>
       <c r="D82" t="n">
-        <v>0.621694</v>
+        <v>0.624526</v>
       </c>
       <c r="E82" t="n">
-        <v>0.233907</v>
+        <v>0.220469</v>
       </c>
       <c r="F82" t="n">
-        <v>0.451335</v>
+        <v>0.489615</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.34603</v>
+        <v>0.339459</v>
       </c>
       <c r="C83" t="n">
-        <v>0.630783</v>
+        <v>0.637845</v>
       </c>
       <c r="D83" t="n">
-        <v>0.61803</v>
+        <v>0.6126200000000001</v>
       </c>
       <c r="E83" t="n">
-        <v>0.232679</v>
+        <v>0.219139</v>
       </c>
       <c r="F83" t="n">
-        <v>0.449766</v>
+        <v>0.488238</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.339559</v>
+        <v>0.333171</v>
       </c>
       <c r="C84" t="n">
-        <v>0.716208</v>
+        <v>0.718507</v>
       </c>
       <c r="D84" t="n">
-        <v>0.607405</v>
+        <v>0.604994</v>
       </c>
       <c r="E84" t="n">
-        <v>0.231287</v>
+        <v>0.217779</v>
       </c>
       <c r="F84" t="n">
-        <v>0.447969</v>
+        <v>0.486932</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.332896</v>
+        <v>0.325335</v>
       </c>
       <c r="C85" t="n">
-        <v>0.669366</v>
+        <v>0.674009</v>
       </c>
       <c r="D85" t="n">
-        <v>0.610995</v>
+        <v>0.604666</v>
       </c>
       <c r="E85" t="n">
-        <v>0.231221</v>
+        <v>0.216779</v>
       </c>
       <c r="F85" t="n">
-        <v>0.446717</v>
+        <v>0.485897</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.324987</v>
+        <v>0.317686</v>
       </c>
       <c r="C86" t="n">
-        <v>0.700754</v>
+        <v>0.7072310000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.606955</v>
+        <v>0.598774</v>
       </c>
       <c r="E86" t="n">
-        <v>0.229014</v>
+        <v>0.215496</v>
       </c>
       <c r="F86" t="n">
-        <v>0.445678</v>
+        <v>0.484681</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.317427</v>
+        <v>0.310351</v>
       </c>
       <c r="C87" t="n">
-        <v>0.595724</v>
+        <v>0.601458</v>
       </c>
       <c r="D87" t="n">
-        <v>0.615592</v>
+        <v>0.596509</v>
       </c>
       <c r="E87" t="n">
-        <v>0.222037</v>
+        <v>0.214339</v>
       </c>
       <c r="F87" t="n">
-        <v>0.447473</v>
+        <v>0.483148</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.30898</v>
+        <v>0.301555</v>
       </c>
       <c r="C88" t="n">
-        <v>0.593021</v>
+        <v>0.593402</v>
       </c>
       <c r="D88" t="n">
-        <v>0.609438</v>
+        <v>0.589439</v>
       </c>
       <c r="E88" t="n">
-        <v>0.227145</v>
+        <v>0.213234</v>
       </c>
       <c r="F88" t="n">
-        <v>0.446286</v>
+        <v>0.482005</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.300124</v>
+        <v>0.292429</v>
       </c>
       <c r="C89" t="n">
-        <v>0.685037</v>
+        <v>0.684828</v>
       </c>
       <c r="D89" t="n">
-        <v>0.607576</v>
+        <v>0.588873</v>
       </c>
       <c r="E89" t="n">
-        <v>0.220398</v>
+        <v>0.212955</v>
       </c>
       <c r="F89" t="n">
-        <v>0.44559</v>
+        <v>0.481176</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.289454</v>
+        <v>0.282248</v>
       </c>
       <c r="C90" t="n">
-        <v>0.566475</v>
+        <v>0.56659</v>
       </c>
       <c r="D90" t="n">
-        <v>0.604585</v>
+        <v>0.586344</v>
       </c>
       <c r="E90" t="n">
-        <v>0.234892</v>
+        <v>0.213642</v>
       </c>
       <c r="F90" t="n">
-        <v>0.444733</v>
+        <v>0.479867</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.278894</v>
+        <v>0.271242</v>
       </c>
       <c r="C91" t="n">
-        <v>0.57163</v>
+        <v>0.572379</v>
       </c>
       <c r="D91" t="n">
-        <v>0.599526</v>
+        <v>0.579161</v>
       </c>
       <c r="E91" t="n">
-        <v>0.246872</v>
+        <v>0.212798</v>
       </c>
       <c r="F91" t="n">
-        <v>0.444205</v>
+        <v>0.479121</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.267214</v>
+        <v>0.259817</v>
       </c>
       <c r="C92" t="n">
-        <v>0.497328</v>
+        <v>0.497478</v>
       </c>
       <c r="D92" t="n">
-        <v>0.644582</v>
+        <v>0.626871</v>
       </c>
       <c r="E92" t="n">
-        <v>0.219406</v>
+        <v>0.212366</v>
       </c>
       <c r="F92" t="n">
-        <v>0.444209</v>
+        <v>0.47781</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.254496</v>
+        <v>0.247006</v>
       </c>
       <c r="C93" t="n">
-        <v>0.597928</v>
+        <v>0.598505</v>
       </c>
       <c r="D93" t="n">
-        <v>0.627717</v>
+        <v>0.625075</v>
       </c>
       <c r="E93" t="n">
-        <v>0.219147</v>
+        <v>0.211317</v>
       </c>
       <c r="F93" t="n">
-        <v>0.443845</v>
+        <v>0.477207</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.240424</v>
+        <v>0.232975</v>
       </c>
       <c r="C94" t="n">
-        <v>0.572816</v>
+        <v>0.572667</v>
       </c>
       <c r="D94" t="n">
-        <v>0.629984</v>
+        <v>0.620031</v>
       </c>
       <c r="E94" t="n">
-        <v>0.239101</v>
+        <v>0.226638</v>
       </c>
       <c r="F94" t="n">
-        <v>0.459096</v>
+        <v>0.49379</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.359145</v>
+        <v>0.352273</v>
       </c>
       <c r="C95" t="n">
-        <v>0.758361</v>
+        <v>0.759236</v>
       </c>
       <c r="D95" t="n">
-        <v>0.634856</v>
+        <v>0.61612</v>
       </c>
       <c r="E95" t="n">
-        <v>0.238052</v>
+        <v>0.222484</v>
       </c>
       <c r="F95" t="n">
-        <v>0.457499</v>
+        <v>0.492041</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.353616</v>
+        <v>0.346979</v>
       </c>
       <c r="C96" t="n">
-        <v>0.712862</v>
+        <v>0.713313</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6308820000000001</v>
+        <v>0.612327</v>
       </c>
       <c r="E96" t="n">
-        <v>0.236034</v>
+        <v>0.220803</v>
       </c>
       <c r="F96" t="n">
-        <v>0.457968</v>
+        <v>0.490708</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.34818</v>
+        <v>0.340508</v>
       </c>
       <c r="C97" t="n">
-        <v>0.733605</v>
+        <v>0.734023</v>
       </c>
       <c r="D97" t="n">
-        <v>0.627763</v>
+        <v>0.609185</v>
       </c>
       <c r="E97" t="n">
-        <v>0.234392</v>
+        <v>0.219436</v>
       </c>
       <c r="F97" t="n">
-        <v>0.454017</v>
+        <v>0.489274</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.341047</v>
+        <v>0.334127</v>
       </c>
       <c r="C98" t="n">
-        <v>0.667435</v>
+        <v>0.668068</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6220560000000001</v>
+        <v>0.604052</v>
       </c>
       <c r="E98" t="n">
-        <v>0.230886</v>
+        <v>0.217807</v>
       </c>
       <c r="F98" t="n">
-        <v>0.452262</v>
+        <v>0.487805</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.334224</v>
+        <v>0.327516</v>
       </c>
       <c r="C99" t="n">
-        <v>0.672494</v>
+        <v>0.67161</v>
       </c>
       <c r="D99" t="n">
-        <v>0.610067</v>
+        <v>0.589743</v>
       </c>
       <c r="E99" t="n">
-        <v>0.232119</v>
+        <v>0.216588</v>
       </c>
       <c r="F99" t="n">
-        <v>0.45052</v>
+        <v>0.486304</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.326928</v>
+        <v>0.319392</v>
       </c>
       <c r="C100" t="n">
-        <v>0.573646</v>
+        <v>0.573016</v>
       </c>
       <c r="D100" t="n">
-        <v>0.605467</v>
+        <v>0.584961</v>
       </c>
       <c r="E100" t="n">
-        <v>0.23085</v>
+        <v>0.215428</v>
       </c>
       <c r="F100" t="n">
-        <v>0.449151</v>
+        <v>0.484868</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.31958</v>
+        <v>0.312079</v>
       </c>
       <c r="C101" t="n">
-        <v>0.601214</v>
+        <v>0.6011649999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.601705</v>
+        <v>0.581678</v>
       </c>
       <c r="E101" t="n">
-        <v>0.22859</v>
+        <v>0.214463</v>
       </c>
       <c r="F101" t="n">
-        <v>0.44805</v>
+        <v>0.483688</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.310671</v>
+        <v>0.304025</v>
       </c>
       <c r="C102" t="n">
-        <v>0.642671</v>
+        <v>0.644024</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6020799999999999</v>
+        <v>0.585259</v>
       </c>
       <c r="E102" t="n">
-        <v>0.237515</v>
+        <v>0.214639</v>
       </c>
       <c r="F102" t="n">
-        <v>0.446859</v>
+        <v>0.482552</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.30216</v>
+        <v>0.294775</v>
       </c>
       <c r="C103" t="n">
-        <v>0.585201</v>
+        <v>0.585629</v>
       </c>
       <c r="D103" t="n">
-        <v>0.59712</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="E103" t="n">
-        <v>0.227301</v>
+        <v>0.21255</v>
       </c>
       <c r="F103" t="n">
-        <v>0.445715</v>
+        <v>0.481192</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.291915</v>
+        <v>0.28496</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5882849999999999</v>
+        <v>0.588808</v>
       </c>
       <c r="D104" t="n">
-        <v>0.590074</v>
+        <v>0.570566</v>
       </c>
       <c r="E104" t="n">
-        <v>0.235584</v>
+        <v>0.213902</v>
       </c>
       <c r="F104" t="n">
-        <v>0.445195</v>
+        <v>0.480371</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.281541</v>
+        <v>0.27407</v>
       </c>
       <c r="C105" t="n">
-        <v>0.590625</v>
+        <v>0.591792</v>
       </c>
       <c r="D105" t="n">
-        <v>0.586809</v>
+        <v>0.569296</v>
       </c>
       <c r="E105" t="n">
-        <v>0.228527</v>
+        <v>0.213673</v>
       </c>
       <c r="F105" t="n">
-        <v>0.444618</v>
+        <v>0.479377</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.270312</v>
+        <v>0.262693</v>
       </c>
       <c r="C106" t="n">
-        <v>0.60172</v>
+        <v>0.602122</v>
       </c>
       <c r="D106" t="n">
-        <v>0.582771</v>
+        <v>0.56255</v>
       </c>
       <c r="E106" t="n">
-        <v>0.234431</v>
+        <v>0.211469</v>
       </c>
       <c r="F106" t="n">
-        <v>0.444583</v>
+        <v>0.478582</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.25797</v>
+        <v>0.250251</v>
       </c>
       <c r="C107" t="n">
-        <v>0.596035</v>
+        <v>0.594712</v>
       </c>
       <c r="D107" t="n">
-        <v>0.646147</v>
+        <v>0.624252</v>
       </c>
       <c r="E107" t="n">
-        <v>0.218508</v>
+        <v>0.211843</v>
       </c>
       <c r="F107" t="n">
-        <v>0.444329</v>
+        <v>0.477772</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.244058</v>
+        <v>0.236511</v>
       </c>
       <c r="C108" t="n">
-        <v>0.565011</v>
+        <v>0.565427</v>
       </c>
       <c r="D108" t="n">
-        <v>0.638907</v>
+        <v>0.6199750000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>0.24166</v>
+        <v>0.22541</v>
       </c>
       <c r="F108" t="n">
-        <v>0.459846</v>
+        <v>0.494277</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.228569</v>
+        <v>0.220834</v>
       </c>
       <c r="C109" t="n">
-        <v>0.510483</v>
+        <v>0.511001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.626796</v>
+        <v>0.605249</v>
       </c>
       <c r="E109" t="n">
-        <v>0.238383</v>
+        <v>0.222973</v>
       </c>
       <c r="F109" t="n">
-        <v>0.457796</v>
+        <v>0.49222</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355072</v>
+        <v>0.347411</v>
       </c>
       <c r="C110" t="n">
-        <v>0.700623</v>
+        <v>0.700973</v>
       </c>
       <c r="D110" t="n">
-        <v>0.621146</v>
+        <v>0.601052</v>
       </c>
       <c r="E110" t="n">
-        <v>0.236151</v>
+        <v>0.221258</v>
       </c>
       <c r="F110" t="n">
-        <v>0.455799</v>
+        <v>0.49064</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.349187</v>
+        <v>0.341619</v>
       </c>
       <c r="C111" t="n">
-        <v>0.639348</v>
+        <v>0.639528</v>
       </c>
       <c r="D111" t="n">
-        <v>0.617588</v>
+        <v>0.5964120000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>0.236906</v>
+        <v>0.219587</v>
       </c>
       <c r="F111" t="n">
-        <v>0.453741</v>
+        <v>0.489228</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342909</v>
+        <v>0.335283</v>
       </c>
       <c r="C112" t="n">
-        <v>0.588646</v>
+        <v>0.588302</v>
       </c>
       <c r="D112" t="n">
-        <v>0.614019</v>
+        <v>0.592025</v>
       </c>
       <c r="E112" t="n">
-        <v>0.233466</v>
+        <v>0.218191</v>
       </c>
       <c r="F112" t="n">
-        <v>0.452146</v>
+        <v>0.487679</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.336019</v>
+        <v>0.328777</v>
       </c>
       <c r="C113" t="n">
-        <v>0.606259</v>
+        <v>0.605197</v>
       </c>
       <c r="D113" t="n">
-        <v>0.620444</v>
+        <v>0.602866</v>
       </c>
       <c r="E113" t="n">
-        <v>0.232875</v>
+        <v>0.216963</v>
       </c>
       <c r="F113" t="n">
-        <v>0.450915</v>
+        <v>0.486291</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.328322</v>
+        <v>0.321611</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6029099999999999</v>
+        <v>0.603554</v>
       </c>
       <c r="D114" t="n">
-        <v>0.613096</v>
+        <v>0.595037</v>
       </c>
       <c r="E114" t="n">
-        <v>0.23182</v>
+        <v>0.215842</v>
       </c>
       <c r="F114" t="n">
-        <v>0.44936</v>
+        <v>0.484874</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.320667</v>
+        <v>0.313878</v>
       </c>
       <c r="C115" t="n">
-        <v>0.584519</v>
+        <v>0.585456</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6070449999999999</v>
+        <v>0.589577</v>
       </c>
       <c r="E115" t="n">
-        <v>0.231689</v>
+        <v>0.21465</v>
       </c>
       <c r="F115" t="n">
-        <v>0.448154</v>
+        <v>0.483679</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.312572</v>
+        <v>0.305292</v>
       </c>
       <c r="C116" t="n">
-        <v>0.717984</v>
+        <v>0.719094</v>
       </c>
       <c r="D116" t="n">
-        <v>0.601351</v>
+        <v>0.583117</v>
       </c>
       <c r="E116" t="n">
-        <v>0.237702</v>
+        <v>0.215688</v>
       </c>
       <c r="F116" t="n">
-        <v>0.447014</v>
+        <v>0.482735</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.303259</v>
+        <v>0.296603</v>
       </c>
       <c r="C117" t="n">
-        <v>0.619549</v>
+        <v>0.619992</v>
       </c>
       <c r="D117" t="n">
-        <v>0.59179</v>
+        <v>0.573396</v>
       </c>
       <c r="E117" t="n">
-        <v>0.229002</v>
+        <v>0.21285</v>
       </c>
       <c r="F117" t="n">
-        <v>0.445824</v>
+        <v>0.481383</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.294208</v>
+        <v>0.286679</v>
       </c>
       <c r="C118" t="n">
-        <v>0.584071</v>
+        <v>0.584043</v>
       </c>
       <c r="D118" t="n">
-        <v>0.590936</v>
+        <v>0.572887</v>
       </c>
       <c r="E118" t="n">
-        <v>0.244597</v>
+        <v>0.213258</v>
       </c>
       <c r="F118" t="n">
-        <v>0.445245</v>
+        <v>0.480484</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.283399</v>
+        <v>0.276545</v>
       </c>
       <c r="C119" t="n">
-        <v>0.579153</v>
+        <v>0.579564</v>
       </c>
       <c r="D119" t="n">
-        <v>0.584249</v>
+        <v>0.56453</v>
       </c>
       <c r="E119" t="n">
-        <v>0.233458</v>
+        <v>0.213403</v>
       </c>
       <c r="F119" t="n">
-        <v>0.444586</v>
+        <v>0.479259</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.272465</v>
+        <v>0.265055</v>
       </c>
       <c r="C120" t="n">
-        <v>0.572576</v>
+        <v>0.572821</v>
       </c>
       <c r="D120" t="n">
-        <v>0.579804</v>
+        <v>0.562113</v>
       </c>
       <c r="E120" t="n">
-        <v>0.234027</v>
+        <v>0.21249</v>
       </c>
       <c r="F120" t="n">
-        <v>0.444496</v>
+        <v>0.478849</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.260366</v>
+        <v>0.252987</v>
       </c>
       <c r="C121" t="n">
-        <v>0.558433</v>
+        <v>0.55807</v>
       </c>
       <c r="D121" t="n">
-        <v>0.656732</v>
+        <v>0.639343</v>
       </c>
       <c r="E121" t="n">
-        <v>0.237345</v>
+        <v>0.211497</v>
       </c>
       <c r="F121" t="n">
-        <v>0.444471</v>
+        <v>0.477683</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.24696</v>
+        <v>0.239677</v>
       </c>
       <c r="C122" t="n">
-        <v>0.515079</v>
+        <v>0.515446</v>
       </c>
       <c r="D122" t="n">
-        <v>0.638721</v>
+        <v>0.617928</v>
       </c>
       <c r="E122" t="n">
-        <v>0.244481</v>
+        <v>0.210609</v>
       </c>
       <c r="F122" t="n">
-        <v>0.444013</v>
+        <v>0.476876</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232615</v>
+        <v>0.224985</v>
       </c>
       <c r="C123" t="n">
-        <v>0.546163</v>
+        <v>0.546838</v>
       </c>
       <c r="D123" t="n">
-        <v>0.651054</v>
+        <v>0.633796</v>
       </c>
       <c r="E123" t="n">
-        <v>0.252253</v>
+        <v>0.225228</v>
       </c>
       <c r="F123" t="n">
-        <v>0.458298</v>
+        <v>0.492764</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356869</v>
+        <v>0.348941</v>
       </c>
       <c r="C124" t="n">
-        <v>0.565904</v>
+        <v>0.56617</v>
       </c>
       <c r="D124" t="n">
-        <v>0.644531</v>
+        <v>0.626852</v>
       </c>
       <c r="E124" t="n">
-        <v>0.237199</v>
+        <v>0.221482</v>
       </c>
       <c r="F124" t="n">
-        <v>0.456465</v>
+        <v>0.49124</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350546</v>
+        <v>0.343109</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7464499999999999</v>
+        <v>0.746713</v>
       </c>
       <c r="D125" t="n">
-        <v>0.641839</v>
+        <v>0.623905</v>
       </c>
       <c r="E125" t="n">
-        <v>0.237824</v>
+        <v>0.219685</v>
       </c>
       <c r="F125" t="n">
-        <v>0.454691</v>
+        <v>0.489806</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.344706</v>
+        <v>0.337425</v>
       </c>
       <c r="C126" t="n">
-        <v>0.72926</v>
+        <v>0.729334</v>
       </c>
       <c r="D126" t="n">
-        <v>0.635655</v>
+        <v>0.618522</v>
       </c>
       <c r="E126" t="n">
-        <v>0.236593</v>
+        <v>0.218296</v>
       </c>
       <c r="F126" t="n">
-        <v>0.452949</v>
+        <v>0.488278</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.337639</v>
+        <v>0.330742</v>
       </c>
       <c r="C127" t="n">
-        <v>0.595921</v>
+        <v>0.595658</v>
       </c>
       <c r="D127" t="n">
-        <v>0.620214</v>
+        <v>0.5986669999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>0.233676</v>
+        <v>0.217314</v>
       </c>
       <c r="F127" t="n">
-        <v>0.451319</v>
+        <v>0.486713</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.330073</v>
+        <v>0.323332</v>
       </c>
       <c r="C128" t="n">
-        <v>0.617182</v>
+        <v>0.618775</v>
       </c>
       <c r="D128" t="n">
-        <v>0.616246</v>
+        <v>0.594008</v>
       </c>
       <c r="E128" t="n">
-        <v>0.232085</v>
+        <v>0.215966</v>
       </c>
       <c r="F128" t="n">
-        <v>0.449977</v>
+        <v>0.485422</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.322148</v>
+        <v>0.315651</v>
       </c>
       <c r="C129" t="n">
-        <v>0.564544</v>
+        <v>0.565192</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6101799999999999</v>
+        <v>0.589213</v>
       </c>
       <c r="E129" t="n">
-        <v>0.233155</v>
+        <v>0.214791</v>
       </c>
       <c r="F129" t="n">
-        <v>0.448653</v>
+        <v>0.484437</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.313872</v>
+        <v>0.307107</v>
       </c>
       <c r="C130" t="n">
-        <v>0.570111</v>
+        <v>0.5702199999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>0.605934</v>
+        <v>0.586001</v>
       </c>
       <c r="E130" t="n">
-        <v>0.230341</v>
+        <v>0.213892</v>
       </c>
       <c r="F130" t="n">
-        <v>0.447514</v>
+        <v>0.483214</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.305218</v>
+        <v>0.298009</v>
       </c>
       <c r="C131" t="n">
-        <v>0.56391</v>
+        <v>0.564244</v>
       </c>
       <c r="D131" t="n">
-        <v>0.603168</v>
+        <v>0.580221</v>
       </c>
       <c r="E131" t="n">
-        <v>0.229969</v>
+        <v>0.212971</v>
       </c>
       <c r="F131" t="n">
-        <v>0.446333</v>
+        <v>0.482017</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.296143</v>
+        <v>0.288907</v>
       </c>
       <c r="C132" t="n">
-        <v>0.670454</v>
+        <v>0.670888</v>
       </c>
       <c r="D132" t="n">
-        <v>0.598248</v>
+        <v>0.581785</v>
       </c>
       <c r="E132" t="n">
-        <v>0.248783</v>
+        <v>0.214203</v>
       </c>
       <c r="F132" t="n">
-        <v>0.445444</v>
+        <v>0.480818</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.28627</v>
+        <v>0.278109</v>
       </c>
       <c r="C133" t="n">
-        <v>0.601449</v>
+        <v>0.6014350000000001</v>
       </c>
       <c r="D133" t="n">
-        <v>0.59333</v>
+        <v>0.572605</v>
       </c>
       <c r="E133" t="n">
-        <v>0.233445</v>
+        <v>0.213351</v>
       </c>
       <c r="F133" t="n">
-        <v>0.444963</v>
+        <v>0.479888</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.274728</v>
+        <v>0.267355</v>
       </c>
       <c r="C134" t="n">
-        <v>0.588744</v>
+        <v>0.588705</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5870379999999999</v>
+        <v>0.570205</v>
       </c>
       <c r="E134" t="n">
-        <v>0.219231</v>
+        <v>0.21226</v>
       </c>
       <c r="F134" t="n">
-        <v>0.444416</v>
+        <v>0.478782</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.262558</v>
+        <v>0.255284</v>
       </c>
       <c r="C135" t="n">
-        <v>0.533492</v>
+        <v>0.533807</v>
       </c>
       <c r="D135" t="n">
-        <v>0.662348</v>
+        <v>0.645278</v>
       </c>
       <c r="E135" t="n">
-        <v>0.233573</v>
+        <v>0.211723</v>
       </c>
       <c r="F135" t="n">
-        <v>0.444441</v>
+        <v>0.478035</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.250134</v>
+        <v>0.242637</v>
       </c>
       <c r="C136" t="n">
-        <v>0.522764</v>
+        <v>0.52259</v>
       </c>
       <c r="D136" t="n">
-        <v>0.642319</v>
+        <v>0.626073</v>
       </c>
       <c r="E136" t="n">
-        <v>0.233066</v>
+        <v>0.210877</v>
       </c>
       <c r="F136" t="n">
-        <v>0.444278</v>
+        <v>0.47737</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235556</v>
+        <v>0.22821</v>
       </c>
       <c r="C137" t="n">
-        <v>0.498534</v>
+        <v>0.498059</v>
       </c>
       <c r="D137" t="n">
-        <v>0.659345</v>
+        <v>0.638682</v>
       </c>
       <c r="E137" t="n">
-        <v>0.260787</v>
+        <v>0.223818</v>
       </c>
       <c r="F137" t="n">
-        <v>0.458794</v>
+        <v>0.493143</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.358593</v>
+        <v>0.350626</v>
       </c>
       <c r="C138" t="n">
-        <v>0.65064</v>
+        <v>0.650487</v>
       </c>
       <c r="D138" t="n">
-        <v>0.639424</v>
+        <v>0.620356</v>
       </c>
       <c r="E138" t="n">
-        <v>0.237778</v>
+        <v>0.221926</v>
       </c>
       <c r="F138" t="n">
-        <v>0.456681</v>
+        <v>0.491251</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.352763</v>
+        <v>0.344922</v>
       </c>
       <c r="C139" t="n">
-        <v>0.608495</v>
+        <v>0.609162</v>
       </c>
       <c r="D139" t="n">
-        <v>0.634568</v>
+        <v>0.6162879999999999</v>
       </c>
       <c r="E139" t="n">
-        <v>0.237203</v>
+        <v>0.22048</v>
       </c>
       <c r="F139" t="n">
-        <v>0.454828</v>
+        <v>0.489616</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.346229</v>
+        <v>0.338527</v>
       </c>
       <c r="C140" t="n">
-        <v>0.639911</v>
+        <v>0.639455</v>
       </c>
       <c r="D140" t="n">
-        <v>0.631765</v>
+        <v>0.6105</v>
       </c>
       <c r="E140" t="n">
-        <v>0.238659</v>
+        <v>0.219021</v>
       </c>
       <c r="F140" t="n">
-        <v>0.45319</v>
+        <v>0.487972</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.339163</v>
+        <v>0.331866</v>
       </c>
       <c r="C141" t="n">
-        <v>0.59406</v>
+        <v>0.593933</v>
       </c>
       <c r="D141" t="n">
-        <v>0.636479</v>
+        <v>0.619978</v>
       </c>
       <c r="E141" t="n">
-        <v>0.239105</v>
+        <v>0.217634</v>
       </c>
       <c r="F141" t="n">
-        <v>0.451641</v>
+        <v>0.48681</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.333328</v>
+        <v>0.324792</v>
       </c>
       <c r="C142" t="n">
-        <v>0.572743</v>
+        <v>0.573103</v>
       </c>
       <c r="D142" t="n">
-        <v>0.628772</v>
+        <v>0.611789</v>
       </c>
       <c r="E142" t="n">
-        <v>0.232898</v>
+        <v>0.216629</v>
       </c>
       <c r="F142" t="n">
-        <v>0.450052</v>
+        <v>0.485441</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.325233</v>
+        <v>0.317577</v>
       </c>
       <c r="C143" t="n">
-        <v>0.623072</v>
+        <v>0.623773</v>
       </c>
       <c r="D143" t="n">
-        <v>0.622481</v>
+        <v>0.605231</v>
       </c>
       <c r="E143" t="n">
-        <v>0.230978</v>
+        <v>0.215602</v>
       </c>
       <c r="F143" t="n">
-        <v>0.448789</v>
+        <v>0.484166</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.298799</v>
+        <v>0.299691</v>
       </c>
       <c r="C2" t="n">
-        <v>0.50589</v>
+        <v>0.505266</v>
       </c>
       <c r="D2" t="n">
-        <v>0.411542</v>
+        <v>0.411712</v>
       </c>
       <c r="E2" t="n">
-        <v>0.194509</v>
+        <v>0.195998</v>
       </c>
       <c r="F2" t="n">
-        <v>0.471272</v>
+        <v>0.470347</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.290166</v>
+        <v>0.288604</v>
       </c>
       <c r="C3" t="n">
-        <v>0.506292</v>
+        <v>0.5018280000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.411064</v>
+        <v>0.408745</v>
       </c>
       <c r="E3" t="n">
-        <v>0.19323</v>
+        <v>0.194126</v>
       </c>
       <c r="F3" t="n">
-        <v>0.46926</v>
+        <v>0.468581</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.278214</v>
+        <v>0.276586</v>
       </c>
       <c r="C4" t="n">
-        <v>0.493287</v>
+        <v>0.489597</v>
       </c>
       <c r="D4" t="n">
-        <v>0.409669</v>
+        <v>0.410136</v>
       </c>
       <c r="E4" t="n">
-        <v>0.196759</v>
+        <v>0.196525</v>
       </c>
       <c r="F4" t="n">
-        <v>0.471187</v>
+        <v>0.469342</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.268266</v>
+        <v>0.267998</v>
       </c>
       <c r="C5" t="n">
-        <v>0.484167</v>
+        <v>0.483436</v>
       </c>
       <c r="D5" t="n">
-        <v>0.413457</v>
+        <v>0.412079</v>
       </c>
       <c r="E5" t="n">
-        <v>0.196864</v>
+        <v>0.197384</v>
       </c>
       <c r="F5" t="n">
-        <v>0.468281</v>
+        <v>0.470281</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.256508</v>
+        <v>0.254135</v>
       </c>
       <c r="C6" t="n">
-        <v>0.471993</v>
+        <v>0.474487</v>
       </c>
       <c r="D6" t="n">
-        <v>0.413578</v>
+        <v>0.413442</v>
       </c>
       <c r="E6" t="n">
-        <v>0.199394</v>
+        <v>0.199523</v>
       </c>
       <c r="F6" t="n">
-        <v>0.467541</v>
+        <v>0.467548</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.243692</v>
+        <v>0.244202</v>
       </c>
       <c r="C7" t="n">
-        <v>0.463094</v>
+        <v>0.461377</v>
       </c>
       <c r="D7" t="n">
-        <v>0.412029</v>
+        <v>0.41276</v>
       </c>
       <c r="E7" t="n">
-        <v>0.199081</v>
+        <v>0.198408</v>
       </c>
       <c r="F7" t="n">
-        <v>0.464952</v>
+        <v>0.465186</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.230633</v>
+        <v>0.231035</v>
       </c>
       <c r="C8" t="n">
-        <v>0.443737</v>
+        <v>0.444018</v>
       </c>
       <c r="D8" t="n">
-        <v>0.413411</v>
+        <v>0.413156</v>
       </c>
       <c r="E8" t="n">
-        <v>0.198903</v>
+        <v>0.199006</v>
       </c>
       <c r="F8" t="n">
-        <v>0.464766</v>
+        <v>0.464768</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.216371</v>
+        <v>0.215293</v>
       </c>
       <c r="C9" t="n">
-        <v>0.433494</v>
+        <v>0.432935</v>
       </c>
       <c r="D9" t="n">
-        <v>0.413037</v>
+        <v>0.413096</v>
       </c>
       <c r="E9" t="n">
-        <v>0.215396</v>
+        <v>0.214369</v>
       </c>
       <c r="F9" t="n">
-        <v>0.481236</v>
+        <v>0.481395</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.345383</v>
+        <v>0.344906</v>
       </c>
       <c r="C10" t="n">
-        <v>0.552632</v>
+        <v>0.552675</v>
       </c>
       <c r="D10" t="n">
-        <v>0.411911</v>
+        <v>0.412869</v>
       </c>
       <c r="E10" t="n">
-        <v>0.214972</v>
+        <v>0.216754</v>
       </c>
       <c r="F10" t="n">
-        <v>0.482689</v>
+        <v>0.481822</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.339068</v>
+        <v>0.340129</v>
       </c>
       <c r="C11" t="n">
-        <v>0.550601</v>
+        <v>0.550432</v>
       </c>
       <c r="D11" t="n">
-        <v>0.412618</v>
+        <v>0.412264</v>
       </c>
       <c r="E11" t="n">
-        <v>0.213661</v>
+        <v>0.212774</v>
       </c>
       <c r="F11" t="n">
-        <v>0.48155</v>
+        <v>0.481876</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.335187</v>
+        <v>0.334709</v>
       </c>
       <c r="C12" t="n">
-        <v>0.546706</v>
+        <v>0.546494</v>
       </c>
       <c r="D12" t="n">
-        <v>0.414274</v>
+        <v>0.413293</v>
       </c>
       <c r="E12" t="n">
-        <v>0.212828</v>
+        <v>0.212894</v>
       </c>
       <c r="F12" t="n">
-        <v>0.480567</v>
+        <v>0.479381</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.327011</v>
+        <v>0.325949</v>
       </c>
       <c r="C13" t="n">
-        <v>0.541033</v>
+        <v>0.540484</v>
       </c>
       <c r="D13" t="n">
-        <v>0.413805</v>
+        <v>0.41323</v>
       </c>
       <c r="E13" t="n">
-        <v>0.212354</v>
+        <v>0.21228</v>
       </c>
       <c r="F13" t="n">
-        <v>0.478034</v>
+        <v>0.478125</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.319017</v>
+        <v>0.319349</v>
       </c>
       <c r="C14" t="n">
-        <v>0.533489</v>
+        <v>0.533588</v>
       </c>
       <c r="D14" t="n">
-        <v>0.415379</v>
+        <v>0.414959</v>
       </c>
       <c r="E14" t="n">
-        <v>0.212124</v>
+        <v>0.211982</v>
       </c>
       <c r="F14" t="n">
-        <v>0.476489</v>
+        <v>0.476127</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.313001</v>
+        <v>0.313455</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5260280000000001</v>
+        <v>0.526142</v>
       </c>
       <c r="D15" t="n">
-        <v>0.414767</v>
+        <v>0.415164</v>
       </c>
       <c r="E15" t="n">
-        <v>0.211934</v>
+        <v>0.2116</v>
       </c>
       <c r="F15" t="n">
-        <v>0.475844</v>
+        <v>0.475754</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.304981</v>
+        <v>0.305259</v>
       </c>
       <c r="C16" t="n">
-        <v>0.518302</v>
+        <v>0.518251</v>
       </c>
       <c r="D16" t="n">
-        <v>0.416077</v>
+        <v>0.416226</v>
       </c>
       <c r="E16" t="n">
-        <v>0.210661</v>
+        <v>0.210673</v>
       </c>
       <c r="F16" t="n">
-        <v>0.474429</v>
+        <v>0.474198</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.296556</v>
+        <v>0.297156</v>
       </c>
       <c r="C17" t="n">
-        <v>0.511645</v>
+        <v>0.5119010000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.417665</v>
+        <v>0.419176</v>
       </c>
       <c r="E17" t="n">
-        <v>0.211167</v>
+        <v>0.210529</v>
       </c>
       <c r="F17" t="n">
-        <v>0.47445</v>
+        <v>0.474331</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.286515</v>
+        <v>0.285869</v>
       </c>
       <c r="C18" t="n">
-        <v>0.500701</v>
+        <v>0.500973</v>
       </c>
       <c r="D18" t="n">
-        <v>0.420277</v>
+        <v>0.420942</v>
       </c>
       <c r="E18" t="n">
-        <v>0.209486</v>
+        <v>0.209137</v>
       </c>
       <c r="F18" t="n">
-        <v>0.471756</v>
+        <v>0.472257</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.276504</v>
+        <v>0.276037</v>
       </c>
       <c r="C19" t="n">
-        <v>0.490238</v>
+        <v>0.489951</v>
       </c>
       <c r="D19" t="n">
-        <v>0.421834</v>
+        <v>0.421281</v>
       </c>
       <c r="E19" t="n">
-        <v>0.209415</v>
+        <v>0.209048</v>
       </c>
       <c r="F19" t="n">
-        <v>0.472495</v>
+        <v>0.472357</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.265748</v>
+        <v>0.267859</v>
       </c>
       <c r="C20" t="n">
-        <v>0.478817</v>
+        <v>0.479801</v>
       </c>
       <c r="D20" t="n">
-        <v>0.419774</v>
+        <v>0.420729</v>
       </c>
       <c r="E20" t="n">
-        <v>0.209043</v>
+        <v>0.208666</v>
       </c>
       <c r="F20" t="n">
-        <v>0.471215</v>
+        <v>0.471585</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.255268</v>
+        <v>0.254986</v>
       </c>
       <c r="C21" t="n">
-        <v>0.462434</v>
+        <v>0.462506</v>
       </c>
       <c r="D21" t="n">
-        <v>0.417207</v>
+        <v>0.417466</v>
       </c>
       <c r="E21" t="n">
-        <v>0.207389</v>
+        <v>0.20706</v>
       </c>
       <c r="F21" t="n">
-        <v>0.471288</v>
+        <v>0.471467</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.242562</v>
+        <v>0.241693</v>
       </c>
       <c r="C22" t="n">
-        <v>0.455745</v>
+        <v>0.455916</v>
       </c>
       <c r="D22" t="n">
-        <v>0.417553</v>
+        <v>0.418531</v>
       </c>
       <c r="E22" t="n">
-        <v>0.207191</v>
+        <v>0.206403</v>
       </c>
       <c r="F22" t="n">
-        <v>0.468538</v>
+        <v>0.469323</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.227534</v>
+        <v>0.227688</v>
       </c>
       <c r="C23" t="n">
-        <v>0.434958</v>
+        <v>0.435295</v>
       </c>
       <c r="D23" t="n">
-        <v>0.418787</v>
+        <v>0.419423</v>
       </c>
       <c r="E23" t="n">
-        <v>0.22557</v>
+        <v>0.226432</v>
       </c>
       <c r="F23" t="n">
-        <v>0.48595</v>
+        <v>0.486497</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348096</v>
+        <v>0.348092</v>
       </c>
       <c r="C24" t="n">
-        <v>0.555437</v>
+        <v>0.555901</v>
       </c>
       <c r="D24" t="n">
-        <v>0.419197</v>
+        <v>0.41925</v>
       </c>
       <c r="E24" t="n">
-        <v>0.224405</v>
+        <v>0.22192</v>
       </c>
       <c r="F24" t="n">
-        <v>0.484474</v>
+        <v>0.484313</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3424</v>
+        <v>0.34306</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5537069999999999</v>
+        <v>0.553184</v>
       </c>
       <c r="D25" t="n">
-        <v>0.420563</v>
+        <v>0.420143</v>
       </c>
       <c r="E25" t="n">
-        <v>0.219471</v>
+        <v>0.219948</v>
       </c>
       <c r="F25" t="n">
-        <v>0.484379</v>
+        <v>0.484647</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.337452</v>
+        <v>0.336777</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5475139999999999</v>
+        <v>0.5475989999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.418939</v>
+        <v>0.419614</v>
       </c>
       <c r="E26" t="n">
-        <v>0.216906</v>
+        <v>0.218026</v>
       </c>
       <c r="F26" t="n">
-        <v>0.482886</v>
+        <v>0.483026</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.332303</v>
+        <v>0.331409</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5394949999999999</v>
+        <v>0.539771</v>
       </c>
       <c r="D27" t="n">
-        <v>0.420227</v>
+        <v>0.420074</v>
       </c>
       <c r="E27" t="n">
-        <v>0.217081</v>
+        <v>0.217049</v>
       </c>
       <c r="F27" t="n">
-        <v>0.480819</v>
+        <v>0.480661</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.324412</v>
+        <v>0.323736</v>
       </c>
       <c r="C28" t="n">
-        <v>0.532317</v>
+        <v>0.532307</v>
       </c>
       <c r="D28" t="n">
-        <v>0.420477</v>
+        <v>0.421234</v>
       </c>
       <c r="E28" t="n">
-        <v>0.215308</v>
+        <v>0.215485</v>
       </c>
       <c r="F28" t="n">
-        <v>0.480094</v>
+        <v>0.48005</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.318117</v>
+        <v>0.316757</v>
       </c>
       <c r="C29" t="n">
-        <v>0.532814</v>
+        <v>0.532338</v>
       </c>
       <c r="D29" t="n">
-        <v>0.422534</v>
+        <v>0.421446</v>
       </c>
       <c r="E29" t="n">
-        <v>0.216163</v>
+        <v>0.215995</v>
       </c>
       <c r="F29" t="n">
-        <v>0.477726</v>
+        <v>0.477888</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.308306</v>
+        <v>0.308659</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5211750000000001</v>
+        <v>0.521101</v>
       </c>
       <c r="D30" t="n">
-        <v>0.432867</v>
+        <v>0.425831</v>
       </c>
       <c r="E30" t="n">
-        <v>0.214431</v>
+        <v>0.214099</v>
       </c>
       <c r="F30" t="n">
-        <v>0.477719</v>
+        <v>0.480771</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.300102</v>
+        <v>0.300779</v>
       </c>
       <c r="C31" t="n">
-        <v>0.505571</v>
+        <v>0.508615</v>
       </c>
       <c r="D31" t="n">
-        <v>0.433587</v>
+        <v>0.425518</v>
       </c>
       <c r="E31" t="n">
-        <v>0.21331</v>
+        <v>0.213602</v>
       </c>
       <c r="F31" t="n">
-        <v>0.475664</v>
+        <v>0.477942</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.290666</v>
+        <v>0.290432</v>
       </c>
       <c r="C32" t="n">
-        <v>0.50634</v>
+        <v>0.508877</v>
       </c>
       <c r="D32" t="n">
-        <v>0.422962</v>
+        <v>0.425947</v>
       </c>
       <c r="E32" t="n">
-        <v>0.213063</v>
+        <v>0.212559</v>
       </c>
       <c r="F32" t="n">
-        <v>0.474666</v>
+        <v>0.476988</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.281307</v>
+        <v>0.280991</v>
       </c>
       <c r="C33" t="n">
-        <v>0.491455</v>
+        <v>0.494745</v>
       </c>
       <c r="D33" t="n">
-        <v>0.423532</v>
+        <v>0.427087</v>
       </c>
       <c r="E33" t="n">
-        <v>0.212347</v>
+        <v>0.212018</v>
       </c>
       <c r="F33" t="n">
-        <v>0.473309</v>
+        <v>0.475397</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.272025</v>
+        <v>0.271135</v>
       </c>
       <c r="C34" t="n">
-        <v>0.477962</v>
+        <v>0.477578</v>
       </c>
       <c r="D34" t="n">
-        <v>0.424422</v>
+        <v>0.423613</v>
       </c>
       <c r="E34" t="n">
-        <v>0.212053</v>
+        <v>0.212288</v>
       </c>
       <c r="F34" t="n">
-        <v>0.473277</v>
+        <v>0.473422</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.258964</v>
+        <v>0.258452</v>
       </c>
       <c r="C35" t="n">
-        <v>0.467514</v>
+        <v>0.467521</v>
       </c>
       <c r="D35" t="n">
-        <v>0.425524</v>
+        <v>0.424887</v>
       </c>
       <c r="E35" t="n">
-        <v>0.211862</v>
+        <v>0.212223</v>
       </c>
       <c r="F35" t="n">
-        <v>0.47241</v>
+        <v>0.472422</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.246216</v>
+        <v>0.247491</v>
       </c>
       <c r="C36" t="n">
-        <v>0.45389</v>
+        <v>0.454026</v>
       </c>
       <c r="D36" t="n">
-        <v>0.424858</v>
+        <v>0.425197</v>
       </c>
       <c r="E36" t="n">
-        <v>0.211696</v>
+        <v>0.21096</v>
       </c>
       <c r="F36" t="n">
-        <v>0.471277</v>
+        <v>0.471463</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.231892</v>
+        <v>0.23244</v>
       </c>
       <c r="C37" t="n">
-        <v>0.449496</v>
+        <v>0.449075</v>
       </c>
       <c r="D37" t="n">
-        <v>0.426439</v>
+        <v>0.425573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.227789</v>
+        <v>0.22543</v>
       </c>
       <c r="F37" t="n">
-        <v>0.487981</v>
+        <v>0.487838</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.350361</v>
+        <v>0.350282</v>
       </c>
       <c r="C38" t="n">
-        <v>0.554744</v>
+        <v>0.554809</v>
       </c>
       <c r="D38" t="n">
-        <v>0.424725</v>
+        <v>0.424747</v>
       </c>
       <c r="E38" t="n">
-        <v>0.222207</v>
+        <v>0.222219</v>
       </c>
       <c r="F38" t="n">
-        <v>0.485324</v>
+        <v>0.485464</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.345827</v>
+        <v>0.345418</v>
       </c>
       <c r="C39" t="n">
-        <v>0.55041</v>
+        <v>0.549978</v>
       </c>
       <c r="D39" t="n">
-        <v>0.424261</v>
+        <v>0.423943</v>
       </c>
       <c r="E39" t="n">
-        <v>0.220216</v>
+        <v>0.220116</v>
       </c>
       <c r="F39" t="n">
-        <v>0.483338</v>
+        <v>0.483575</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.339809</v>
+        <v>0.33956</v>
       </c>
       <c r="C40" t="n">
-        <v>0.545303</v>
+        <v>0.54519</v>
       </c>
       <c r="D40" t="n">
-        <v>0.423194</v>
+        <v>0.422721</v>
       </c>
       <c r="E40" t="n">
-        <v>0.219259</v>
+        <v>0.218941</v>
       </c>
       <c r="F40" t="n">
-        <v>0.482228</v>
+        <v>0.482227</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.334044</v>
+        <v>0.33364</v>
       </c>
       <c r="C41" t="n">
-        <v>0.538256</v>
+        <v>0.538119</v>
       </c>
       <c r="D41" t="n">
-        <v>0.423677</v>
+        <v>0.424104</v>
       </c>
       <c r="E41" t="n">
-        <v>0.217412</v>
+        <v>0.217425</v>
       </c>
       <c r="F41" t="n">
-        <v>0.481668</v>
+        <v>0.482085</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.327192</v>
+        <v>0.327147</v>
       </c>
       <c r="C42" t="n">
-        <v>0.534346</v>
+        <v>0.535291</v>
       </c>
       <c r="D42" t="n">
-        <v>0.424261</v>
+        <v>0.423846</v>
       </c>
       <c r="E42" t="n">
-        <v>0.216777</v>
+        <v>0.216773</v>
       </c>
       <c r="F42" t="n">
-        <v>0.480223</v>
+        <v>0.480334</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.318937</v>
+        <v>0.31968</v>
       </c>
       <c r="C43" t="n">
-        <v>0.526771</v>
+        <v>0.526604</v>
       </c>
       <c r="D43" t="n">
-        <v>0.423969</v>
+        <v>0.423777</v>
       </c>
       <c r="E43" t="n">
-        <v>0.215869</v>
+        <v>0.215601</v>
       </c>
       <c r="F43" t="n">
-        <v>0.478645</v>
+        <v>0.478692</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.311799</v>
+        <v>0.311694</v>
       </c>
       <c r="C44" t="n">
-        <v>0.522763</v>
+        <v>0.522319</v>
       </c>
       <c r="D44" t="n">
-        <v>0.424179</v>
+        <v>0.423778</v>
       </c>
       <c r="E44" t="n">
-        <v>0.214646</v>
+        <v>0.21468</v>
       </c>
       <c r="F44" t="n">
-        <v>0.477582</v>
+        <v>0.477467</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.303702</v>
+        <v>0.304236</v>
       </c>
       <c r="C45" t="n">
-        <v>0.511101</v>
+        <v>0.510781</v>
       </c>
       <c r="D45" t="n">
-        <v>0.42504</v>
+        <v>0.424608</v>
       </c>
       <c r="E45" t="n">
-        <v>0.213699</v>
+        <v>0.213423</v>
       </c>
       <c r="F45" t="n">
-        <v>0.476586</v>
+        <v>0.476688</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.29431</v>
+        <v>0.294569</v>
       </c>
       <c r="C46" t="n">
-        <v>0.506696</v>
+        <v>0.506429</v>
       </c>
       <c r="D46" t="n">
-        <v>0.424677</v>
+        <v>0.424621</v>
       </c>
       <c r="E46" t="n">
-        <v>0.21249</v>
+        <v>0.212588</v>
       </c>
       <c r="F46" t="n">
-        <v>0.475478</v>
+        <v>0.475584</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.284343</v>
+        <v>0.284214</v>
       </c>
       <c r="C47" t="n">
-        <v>0.497158</v>
+        <v>0.49698</v>
       </c>
       <c r="D47" t="n">
-        <v>0.425885</v>
+        <v>0.425833</v>
       </c>
       <c r="E47" t="n">
-        <v>0.211972</v>
+        <v>0.212204</v>
       </c>
       <c r="F47" t="n">
-        <v>0.474833</v>
+        <v>0.475073</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.27459</v>
+        <v>0.274089</v>
       </c>
       <c r="C48" t="n">
-        <v>0.486708</v>
+        <v>0.486539</v>
       </c>
       <c r="D48" t="n">
-        <v>0.42666</v>
+        <v>0.426644</v>
       </c>
       <c r="E48" t="n">
-        <v>0.213155</v>
+        <v>0.212367</v>
       </c>
       <c r="F48" t="n">
-        <v>0.473629</v>
+        <v>0.473943</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.262646</v>
+        <v>0.262908</v>
       </c>
       <c r="C49" t="n">
-        <v>0.47113</v>
+        <v>0.470744</v>
       </c>
       <c r="D49" t="n">
-        <v>0.427598</v>
+        <v>0.427448</v>
       </c>
       <c r="E49" t="n">
-        <v>0.211336</v>
+        <v>0.211347</v>
       </c>
       <c r="F49" t="n">
-        <v>0.473281</v>
+        <v>0.473714</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.249605</v>
+        <v>0.249698</v>
       </c>
       <c r="C50" t="n">
-        <v>0.464141</v>
+        <v>0.463393</v>
       </c>
       <c r="D50" t="n">
-        <v>0.431531</v>
+        <v>0.432389</v>
       </c>
       <c r="E50" t="n">
-        <v>0.210725</v>
+        <v>0.210577</v>
       </c>
       <c r="F50" t="n">
-        <v>0.472156</v>
+        <v>0.472656</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.236128</v>
+        <v>0.236046</v>
       </c>
       <c r="C51" t="n">
-        <v>0.44547</v>
+        <v>0.448879</v>
       </c>
       <c r="D51" t="n">
-        <v>0.432058</v>
+        <v>0.431262</v>
       </c>
       <c r="E51" t="n">
-        <v>0.227406</v>
+        <v>0.226524</v>
       </c>
       <c r="F51" t="n">
-        <v>0.488101</v>
+        <v>0.488182</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.220995</v>
+        <v>0.221142</v>
       </c>
       <c r="C52" t="n">
-        <v>0.433982</v>
+        <v>0.432961</v>
       </c>
       <c r="D52" t="n">
-        <v>0.431162</v>
+        <v>0.430288</v>
       </c>
       <c r="E52" t="n">
-        <v>0.222819</v>
+        <v>0.224503</v>
       </c>
       <c r="F52" t="n">
-        <v>0.486635</v>
+        <v>0.486742</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347409</v>
+        <v>0.347118</v>
       </c>
       <c r="C53" t="n">
-        <v>0.559906</v>
+        <v>0.558454</v>
       </c>
       <c r="D53" t="n">
-        <v>0.431816</v>
+        <v>0.433767</v>
       </c>
       <c r="E53" t="n">
-        <v>0.220454</v>
+        <v>0.220487</v>
       </c>
       <c r="F53" t="n">
-        <v>0.484885</v>
+        <v>0.48476</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.341892</v>
+        <v>0.341821</v>
       </c>
       <c r="C54" t="n">
-        <v>0.552728</v>
+        <v>0.553267</v>
       </c>
       <c r="D54" t="n">
-        <v>0.435336</v>
+        <v>0.431889</v>
       </c>
       <c r="E54" t="n">
-        <v>0.219154</v>
+        <v>0.219318</v>
       </c>
       <c r="F54" t="n">
-        <v>0.483377</v>
+        <v>0.483675</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.336137</v>
+        <v>0.335789</v>
       </c>
       <c r="C55" t="n">
-        <v>0.555748</v>
+        <v>0.554098</v>
       </c>
       <c r="D55" t="n">
-        <v>0.438896</v>
+        <v>0.433733</v>
       </c>
       <c r="E55" t="n">
-        <v>0.217956</v>
+        <v>0.218029</v>
       </c>
       <c r="F55" t="n">
-        <v>0.481696</v>
+        <v>0.481886</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.32937</v>
+        <v>0.329405</v>
       </c>
       <c r="C56" t="n">
-        <v>0.547087</v>
+        <v>0.546018</v>
       </c>
       <c r="D56" t="n">
-        <v>0.435741</v>
+        <v>0.434891</v>
       </c>
       <c r="E56" t="n">
-        <v>0.216573</v>
+        <v>0.216617</v>
       </c>
       <c r="F56" t="n">
-        <v>0.480183</v>
+        <v>0.480513</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.321865</v>
+        <v>0.321736</v>
       </c>
       <c r="C57" t="n">
-        <v>0.551661</v>
+        <v>0.548745</v>
       </c>
       <c r="D57" t="n">
-        <v>0.439336</v>
+        <v>0.436394</v>
       </c>
       <c r="E57" t="n">
-        <v>0.21545</v>
+        <v>0.215703</v>
       </c>
       <c r="F57" t="n">
-        <v>0.479278</v>
+        <v>0.479408</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.31412</v>
+        <v>0.313642</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5547260000000001</v>
+        <v>0.5470699999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.44343</v>
+        <v>0.436527</v>
       </c>
       <c r="E58" t="n">
-        <v>0.214506</v>
+        <v>0.214799</v>
       </c>
       <c r="F58" t="n">
-        <v>0.480143</v>
+        <v>0.477766</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305843</v>
+        <v>0.306265</v>
       </c>
       <c r="C59" t="n">
-        <v>0.55011</v>
+        <v>0.5432090000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.439697</v>
+        <v>0.436313</v>
       </c>
       <c r="E59" t="n">
-        <v>0.213685</v>
+        <v>0.213799</v>
       </c>
       <c r="F59" t="n">
-        <v>0.476838</v>
+        <v>0.47691</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.296674</v>
+        <v>0.296475</v>
       </c>
       <c r="C60" t="n">
-        <v>0.518887</v>
+        <v>0.516728</v>
       </c>
       <c r="D60" t="n">
-        <v>0.442412</v>
+        <v>0.441273</v>
       </c>
       <c r="E60" t="n">
-        <v>0.212776</v>
+        <v>0.212733</v>
       </c>
       <c r="F60" t="n">
-        <v>0.475885</v>
+        <v>0.476332</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.28688</v>
+        <v>0.287516</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5422709999999999</v>
+        <v>0.539556</v>
       </c>
       <c r="D61" t="n">
-        <v>0.442448</v>
+        <v>0.441182</v>
       </c>
       <c r="E61" t="n">
-        <v>0.213426</v>
+        <v>0.213009</v>
       </c>
       <c r="F61" t="n">
-        <v>0.475588</v>
+        <v>0.474886</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.276699</v>
+        <v>0.276509</v>
       </c>
       <c r="C62" t="n">
-        <v>0.507057</v>
+        <v>0.5038</v>
       </c>
       <c r="D62" t="n">
-        <v>0.44744</v>
+        <v>0.446106</v>
       </c>
       <c r="E62" t="n">
-        <v>0.211251</v>
+        <v>0.21113</v>
       </c>
       <c r="F62" t="n">
-        <v>0.473748</v>
+        <v>0.473542</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.26578</v>
+        <v>0.264992</v>
       </c>
       <c r="C63" t="n">
-        <v>0.522286</v>
+        <v>0.523243</v>
       </c>
       <c r="D63" t="n">
-        <v>0.449715</v>
+        <v>0.447458</v>
       </c>
       <c r="E63" t="n">
-        <v>0.210705</v>
+        <v>0.210627</v>
       </c>
       <c r="F63" t="n">
-        <v>0.472838</v>
+        <v>0.472797</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.253818</v>
+        <v>0.253702</v>
       </c>
       <c r="C64" t="n">
-        <v>0.502132</v>
+        <v>0.497147</v>
       </c>
       <c r="D64" t="n">
-        <v>0.48953</v>
+        <v>0.488103</v>
       </c>
       <c r="E64" t="n">
-        <v>0.211723</v>
+        <v>0.210305</v>
       </c>
       <c r="F64" t="n">
-        <v>0.472344</v>
+        <v>0.472384</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.240276</v>
+        <v>0.239998</v>
       </c>
       <c r="C65" t="n">
-        <v>0.494691</v>
+        <v>0.494483</v>
       </c>
       <c r="D65" t="n">
-        <v>0.490384</v>
+        <v>0.488419</v>
       </c>
       <c r="E65" t="n">
-        <v>0.211159</v>
+        <v>0.210969</v>
       </c>
       <c r="F65" t="n">
-        <v>0.472102</v>
+        <v>0.471484</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.225918</v>
+        <v>0.225976</v>
       </c>
       <c r="C66" t="n">
-        <v>0.47479</v>
+        <v>0.472598</v>
       </c>
       <c r="D66" t="n">
-        <v>0.496063</v>
+        <v>0.493847</v>
       </c>
       <c r="E66" t="n">
-        <v>0.222926</v>
+        <v>0.223228</v>
       </c>
       <c r="F66" t="n">
-        <v>0.487891</v>
+        <v>0.487558</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349179</v>
+        <v>0.348877</v>
       </c>
       <c r="C67" t="n">
-        <v>0.640764</v>
+        <v>0.640208</v>
       </c>
       <c r="D67" t="n">
-        <v>0.502365</v>
+        <v>0.501627</v>
       </c>
       <c r="E67" t="n">
-        <v>0.221395</v>
+        <v>0.221523</v>
       </c>
       <c r="F67" t="n">
-        <v>0.486315</v>
+        <v>0.485876</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.343525</v>
+        <v>0.343588</v>
       </c>
       <c r="C68" t="n">
-        <v>0.584637</v>
+        <v>0.584432</v>
       </c>
       <c r="D68" t="n">
-        <v>0.510047</v>
+        <v>0.50627</v>
       </c>
       <c r="E68" t="n">
-        <v>0.219703</v>
+        <v>0.219762</v>
       </c>
       <c r="F68" t="n">
-        <v>0.48458</v>
+        <v>0.484721</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.33801</v>
+        <v>0.337748</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5779</v>
+        <v>0.5792929999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.511608</v>
+        <v>0.512747</v>
       </c>
       <c r="E69" t="n">
-        <v>0.218184</v>
+        <v>0.218375</v>
       </c>
       <c r="F69" t="n">
-        <v>0.48288</v>
+        <v>0.482885</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.331087</v>
+        <v>0.331182</v>
       </c>
       <c r="C70" t="n">
-        <v>0.672998</v>
+        <v>0.673495</v>
       </c>
       <c r="D70" t="n">
-        <v>0.51668</v>
+        <v>0.517419</v>
       </c>
       <c r="E70" t="n">
-        <v>0.216829</v>
+        <v>0.216693</v>
       </c>
       <c r="F70" t="n">
-        <v>0.481261</v>
+        <v>0.481371</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.323325</v>
+        <v>0.323288</v>
       </c>
       <c r="C71" t="n">
-        <v>0.657453</v>
+        <v>0.652612</v>
       </c>
       <c r="D71" t="n">
-        <v>0.527879</v>
+        <v>0.522196</v>
       </c>
       <c r="E71" t="n">
-        <v>0.215884</v>
+        <v>0.215988</v>
       </c>
       <c r="F71" t="n">
-        <v>0.485673</v>
+        <v>0.480495</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.31571</v>
+        <v>0.315519</v>
       </c>
       <c r="C72" t="n">
-        <v>0.665629</v>
+        <v>0.661614</v>
       </c>
       <c r="D72" t="n">
-        <v>0.532464</v>
+        <v>0.528478</v>
       </c>
       <c r="E72" t="n">
-        <v>0.214994</v>
+        <v>0.214947</v>
       </c>
       <c r="F72" t="n">
-        <v>0.484592</v>
+        <v>0.479413</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307565</v>
+        <v>0.307777</v>
       </c>
       <c r="C73" t="n">
-        <v>0.619878</v>
+        <v>0.615526</v>
       </c>
       <c r="D73" t="n">
-        <v>0.537046</v>
+        <v>0.532561</v>
       </c>
       <c r="E73" t="n">
-        <v>0.213793</v>
+        <v>0.213942</v>
       </c>
       <c r="F73" t="n">
-        <v>0.482935</v>
+        <v>0.47811</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.299276</v>
+        <v>0.299121</v>
       </c>
       <c r="C74" t="n">
-        <v>0.624896</v>
+        <v>0.620048</v>
       </c>
       <c r="D74" t="n">
-        <v>0.538369</v>
+        <v>0.5334950000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>0.213073</v>
+        <v>0.213133</v>
       </c>
       <c r="F74" t="n">
-        <v>0.48188</v>
+        <v>0.47682</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.289513</v>
+        <v>0.289892</v>
       </c>
       <c r="C75" t="n">
-        <v>0.6625529999999999</v>
+        <v>0.657868</v>
       </c>
       <c r="D75" t="n">
-        <v>0.538497</v>
+        <v>0.532932</v>
       </c>
       <c r="E75" t="n">
-        <v>0.21401</v>
+        <v>0.212364</v>
       </c>
       <c r="F75" t="n">
-        <v>0.480998</v>
+        <v>0.476077</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.27976</v>
+        <v>0.280051</v>
       </c>
       <c r="C76" t="n">
-        <v>0.59572</v>
+        <v>0.590925</v>
       </c>
       <c r="D76" t="n">
-        <v>0.549902</v>
+        <v>0.535409</v>
       </c>
       <c r="E76" t="n">
-        <v>0.211552</v>
+        <v>0.211692</v>
       </c>
       <c r="F76" t="n">
-        <v>0.479721</v>
+        <v>0.474834</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.268965</v>
+        <v>0.268533</v>
       </c>
       <c r="C77" t="n">
-        <v>0.628814</v>
+        <v>0.625835</v>
       </c>
       <c r="D77" t="n">
-        <v>0.543994</v>
+        <v>0.536982</v>
       </c>
       <c r="E77" t="n">
-        <v>0.210954</v>
+        <v>0.211041</v>
       </c>
       <c r="F77" t="n">
-        <v>0.478588</v>
+        <v>0.473937</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.257081</v>
+        <v>0.257016</v>
       </c>
       <c r="C78" t="n">
-        <v>0.619231</v>
+        <v>0.615722</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6145</v>
+        <v>0.6092649999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>0.210545</v>
+        <v>0.210588</v>
       </c>
       <c r="F78" t="n">
-        <v>0.477666</v>
+        <v>0.472933</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.24417</v>
+        <v>0.244446</v>
       </c>
       <c r="C79" t="n">
-        <v>0.54877</v>
+        <v>0.544998</v>
       </c>
       <c r="D79" t="n">
-        <v>0.62032</v>
+        <v>0.618431</v>
       </c>
       <c r="E79" t="n">
-        <v>0.211235</v>
+        <v>0.210461</v>
       </c>
       <c r="F79" t="n">
-        <v>0.477073</v>
+        <v>0.472307</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.229777</v>
+        <v>0.229928</v>
       </c>
       <c r="C80" t="n">
-        <v>0.504427</v>
+        <v>0.5001640000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.624955</v>
+        <v>0.620238</v>
       </c>
       <c r="E80" t="n">
-        <v>0.226597</v>
+        <v>0.226727</v>
       </c>
       <c r="F80" t="n">
-        <v>0.493526</v>
+        <v>0.48827</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350297</v>
+        <v>0.350118</v>
       </c>
       <c r="C81" t="n">
-        <v>0.65761</v>
+        <v>0.651438</v>
       </c>
       <c r="D81" t="n">
-        <v>0.617754</v>
+        <v>0.619201</v>
       </c>
       <c r="E81" t="n">
-        <v>0.222631</v>
+        <v>0.222872</v>
       </c>
       <c r="F81" t="n">
-        <v>0.491447</v>
+        <v>0.491614</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.34546</v>
+        <v>0.344837</v>
       </c>
       <c r="C82" t="n">
-        <v>0.670685</v>
+        <v>0.671832</v>
       </c>
       <c r="D82" t="n">
-        <v>0.624526</v>
+        <v>0.615375</v>
       </c>
       <c r="E82" t="n">
-        <v>0.220469</v>
+        <v>0.220673</v>
       </c>
       <c r="F82" t="n">
-        <v>0.489615</v>
+        <v>0.489746</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.339459</v>
+        <v>0.338905</v>
       </c>
       <c r="C83" t="n">
-        <v>0.637845</v>
+        <v>0.638204</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6126200000000001</v>
+        <v>0.613222</v>
       </c>
       <c r="E83" t="n">
-        <v>0.219139</v>
+        <v>0.219173</v>
       </c>
       <c r="F83" t="n">
-        <v>0.488238</v>
+        <v>0.488312</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.333171</v>
+        <v>0.333107</v>
       </c>
       <c r="C84" t="n">
-        <v>0.718507</v>
+        <v>0.721489</v>
       </c>
       <c r="D84" t="n">
-        <v>0.604994</v>
+        <v>0.604261</v>
       </c>
       <c r="E84" t="n">
-        <v>0.217779</v>
+        <v>0.217803</v>
       </c>
       <c r="F84" t="n">
-        <v>0.486932</v>
+        <v>0.487056</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.325335</v>
+        <v>0.325678</v>
       </c>
       <c r="C85" t="n">
-        <v>0.674009</v>
+        <v>0.676517</v>
       </c>
       <c r="D85" t="n">
-        <v>0.604666</v>
+        <v>0.605058</v>
       </c>
       <c r="E85" t="n">
-        <v>0.216779</v>
+        <v>0.216694</v>
       </c>
       <c r="F85" t="n">
-        <v>0.485897</v>
+        <v>0.485804</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.317686</v>
+        <v>0.317911</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7072310000000001</v>
+        <v>0.707686</v>
       </c>
       <c r="D86" t="n">
-        <v>0.598774</v>
+        <v>0.599593</v>
       </c>
       <c r="E86" t="n">
-        <v>0.215496</v>
+        <v>0.215538</v>
       </c>
       <c r="F86" t="n">
-        <v>0.484681</v>
+        <v>0.484448</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.310351</v>
+        <v>0.309785</v>
       </c>
       <c r="C87" t="n">
-        <v>0.601458</v>
+        <v>0.60186</v>
       </c>
       <c r="D87" t="n">
-        <v>0.596509</v>
+        <v>0.597318</v>
       </c>
       <c r="E87" t="n">
-        <v>0.214339</v>
+        <v>0.214505</v>
       </c>
       <c r="F87" t="n">
-        <v>0.483148</v>
+        <v>0.483087</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.301555</v>
+        <v>0.300908</v>
       </c>
       <c r="C88" t="n">
-        <v>0.593402</v>
+        <v>0.593886</v>
       </c>
       <c r="D88" t="n">
-        <v>0.589439</v>
+        <v>0.589326</v>
       </c>
       <c r="E88" t="n">
-        <v>0.213234</v>
+        <v>0.213425</v>
       </c>
       <c r="F88" t="n">
-        <v>0.482005</v>
+        <v>0.482013</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.292429</v>
+        <v>0.291829</v>
       </c>
       <c r="C89" t="n">
-        <v>0.684828</v>
+        <v>0.685732</v>
       </c>
       <c r="D89" t="n">
-        <v>0.588873</v>
+        <v>0.58866</v>
       </c>
       <c r="E89" t="n">
-        <v>0.212955</v>
+        <v>0.214308</v>
       </c>
       <c r="F89" t="n">
-        <v>0.481176</v>
+        <v>0.481192</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.282248</v>
+        <v>0.281966</v>
       </c>
       <c r="C90" t="n">
-        <v>0.56659</v>
+        <v>0.56696</v>
       </c>
       <c r="D90" t="n">
-        <v>0.586344</v>
+        <v>0.58574</v>
       </c>
       <c r="E90" t="n">
-        <v>0.213642</v>
+        <v>0.212108</v>
       </c>
       <c r="F90" t="n">
-        <v>0.479867</v>
+        <v>0.480043</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.271242</v>
+        <v>0.271119</v>
       </c>
       <c r="C91" t="n">
-        <v>0.572379</v>
+        <v>0.573041</v>
       </c>
       <c r="D91" t="n">
-        <v>0.579161</v>
+        <v>0.579555</v>
       </c>
       <c r="E91" t="n">
-        <v>0.212798</v>
+        <v>0.212823</v>
       </c>
       <c r="F91" t="n">
-        <v>0.479121</v>
+        <v>0.479012</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.259817</v>
+        <v>0.259639</v>
       </c>
       <c r="C92" t="n">
-        <v>0.497478</v>
+        <v>0.497978</v>
       </c>
       <c r="D92" t="n">
-        <v>0.626871</v>
+        <v>0.627022</v>
       </c>
       <c r="E92" t="n">
-        <v>0.212366</v>
+        <v>0.211053</v>
       </c>
       <c r="F92" t="n">
-        <v>0.47781</v>
+        <v>0.47808</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.247006</v>
+        <v>0.246615</v>
       </c>
       <c r="C93" t="n">
-        <v>0.598505</v>
+        <v>0.599009</v>
       </c>
       <c r="D93" t="n">
-        <v>0.625075</v>
+        <v>0.608309</v>
       </c>
       <c r="E93" t="n">
-        <v>0.211317</v>
+        <v>0.210494</v>
       </c>
       <c r="F93" t="n">
-        <v>0.477207</v>
+        <v>0.477144</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.232975</v>
+        <v>0.232925</v>
       </c>
       <c r="C94" t="n">
-        <v>0.572667</v>
+        <v>0.573391</v>
       </c>
       <c r="D94" t="n">
-        <v>0.620031</v>
+        <v>0.610434</v>
       </c>
       <c r="E94" t="n">
-        <v>0.226638</v>
+        <v>0.225241</v>
       </c>
       <c r="F94" t="n">
-        <v>0.49379</v>
+        <v>0.493666</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.352273</v>
+        <v>0.351619</v>
       </c>
       <c r="C95" t="n">
-        <v>0.759236</v>
+        <v>0.759252</v>
       </c>
       <c r="D95" t="n">
-        <v>0.61612</v>
+        <v>0.618581</v>
       </c>
       <c r="E95" t="n">
-        <v>0.222484</v>
+        <v>0.222491</v>
       </c>
       <c r="F95" t="n">
-        <v>0.492041</v>
+        <v>0.491991</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.346979</v>
+        <v>0.346435</v>
       </c>
       <c r="C96" t="n">
-        <v>0.713313</v>
+        <v>0.713863</v>
       </c>
       <c r="D96" t="n">
-        <v>0.612327</v>
+        <v>0.613155</v>
       </c>
       <c r="E96" t="n">
-        <v>0.220803</v>
+        <v>0.221101</v>
       </c>
       <c r="F96" t="n">
-        <v>0.490708</v>
+        <v>0.490599</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340508</v>
+        <v>0.34016</v>
       </c>
       <c r="C97" t="n">
-        <v>0.734023</v>
+        <v>0.734429</v>
       </c>
       <c r="D97" t="n">
-        <v>0.609185</v>
+        <v>0.609635</v>
       </c>
       <c r="E97" t="n">
-        <v>0.219436</v>
+        <v>0.219487</v>
       </c>
       <c r="F97" t="n">
-        <v>0.489274</v>
+        <v>0.4891</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.334127</v>
+        <v>0.33407</v>
       </c>
       <c r="C98" t="n">
-        <v>0.668068</v>
+        <v>0.668469</v>
       </c>
       <c r="D98" t="n">
-        <v>0.604052</v>
+        <v>0.60466</v>
       </c>
       <c r="E98" t="n">
-        <v>0.217807</v>
+        <v>0.218038</v>
       </c>
       <c r="F98" t="n">
-        <v>0.487805</v>
+        <v>0.48769</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.327516</v>
+        <v>0.327183</v>
       </c>
       <c r="C99" t="n">
-        <v>0.67161</v>
+        <v>0.672782</v>
       </c>
       <c r="D99" t="n">
-        <v>0.589743</v>
+        <v>0.590009</v>
       </c>
       <c r="E99" t="n">
-        <v>0.216588</v>
+        <v>0.216874</v>
       </c>
       <c r="F99" t="n">
-        <v>0.486304</v>
+        <v>0.486306</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.319392</v>
+        <v>0.319931</v>
       </c>
       <c r="C100" t="n">
-        <v>0.573016</v>
+        <v>0.573063</v>
       </c>
       <c r="D100" t="n">
-        <v>0.584961</v>
+        <v>0.5866710000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>0.215428</v>
+        <v>0.215644</v>
       </c>
       <c r="F100" t="n">
-        <v>0.484868</v>
+        <v>0.484758</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.312079</v>
+        <v>0.31179</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6011649999999999</v>
+        <v>0.60237</v>
       </c>
       <c r="D101" t="n">
-        <v>0.581678</v>
+        <v>0.581973</v>
       </c>
       <c r="E101" t="n">
-        <v>0.214463</v>
+        <v>0.214524</v>
       </c>
       <c r="F101" t="n">
-        <v>0.483688</v>
+        <v>0.483559</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.304025</v>
+        <v>0.303253</v>
       </c>
       <c r="C102" t="n">
-        <v>0.644024</v>
+        <v>0.64456</v>
       </c>
       <c r="D102" t="n">
-        <v>0.585259</v>
+        <v>0.585469</v>
       </c>
       <c r="E102" t="n">
-        <v>0.214639</v>
+        <v>0.215939</v>
       </c>
       <c r="F102" t="n">
-        <v>0.482552</v>
+        <v>0.482401</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.294775</v>
+        <v>0.29437</v>
       </c>
       <c r="C103" t="n">
-        <v>0.585629</v>
+        <v>0.585917</v>
       </c>
       <c r="D103" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.579862</v>
       </c>
       <c r="E103" t="n">
-        <v>0.21255</v>
+        <v>0.212547</v>
       </c>
       <c r="F103" t="n">
-        <v>0.481192</v>
+        <v>0.481165</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.28496</v>
+        <v>0.28435</v>
       </c>
       <c r="C104" t="n">
-        <v>0.588808</v>
+        <v>0.588978</v>
       </c>
       <c r="D104" t="n">
-        <v>0.570566</v>
+        <v>0.570921</v>
       </c>
       <c r="E104" t="n">
-        <v>0.213902</v>
+        <v>0.213864</v>
       </c>
       <c r="F104" t="n">
-        <v>0.480371</v>
+        <v>0.480336</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.27407</v>
+        <v>0.273799</v>
       </c>
       <c r="C105" t="n">
-        <v>0.591792</v>
+        <v>0.591939</v>
       </c>
       <c r="D105" t="n">
-        <v>0.569296</v>
+        <v>0.569523</v>
       </c>
       <c r="E105" t="n">
-        <v>0.213673</v>
+        <v>0.212927</v>
       </c>
       <c r="F105" t="n">
-        <v>0.479377</v>
+        <v>0.479359</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.262693</v>
+        <v>0.262317</v>
       </c>
       <c r="C106" t="n">
-        <v>0.602122</v>
+        <v>0.6028250000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.56255</v>
+        <v>0.562277</v>
       </c>
       <c r="E106" t="n">
-        <v>0.211469</v>
+        <v>0.212301</v>
       </c>
       <c r="F106" t="n">
-        <v>0.478582</v>
+        <v>0.478502</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.250251</v>
+        <v>0.249946</v>
       </c>
       <c r="C107" t="n">
-        <v>0.594712</v>
+        <v>0.594868</v>
       </c>
       <c r="D107" t="n">
-        <v>0.624252</v>
+        <v>0.624207</v>
       </c>
       <c r="E107" t="n">
-        <v>0.211843</v>
+        <v>0.211619</v>
       </c>
       <c r="F107" t="n">
-        <v>0.477772</v>
+        <v>0.477601</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.236511</v>
+        <v>0.236234</v>
       </c>
       <c r="C108" t="n">
-        <v>0.565427</v>
+        <v>0.566614</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6199750000000001</v>
+        <v>0.6211950000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>0.22541</v>
+        <v>0.225431</v>
       </c>
       <c r="F108" t="n">
-        <v>0.494277</v>
+        <v>0.494094</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.220834</v>
+        <v>0.220762</v>
       </c>
       <c r="C109" t="n">
-        <v>0.511001</v>
+        <v>0.51127</v>
       </c>
       <c r="D109" t="n">
-        <v>0.605249</v>
+        <v>0.60568</v>
       </c>
       <c r="E109" t="n">
-        <v>0.222973</v>
+        <v>0.223277</v>
       </c>
       <c r="F109" t="n">
-        <v>0.49222</v>
+        <v>0.492084</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347411</v>
+        <v>0.347257</v>
       </c>
       <c r="C110" t="n">
-        <v>0.700973</v>
+        <v>0.704237</v>
       </c>
       <c r="D110" t="n">
-        <v>0.601052</v>
+        <v>0.602436</v>
       </c>
       <c r="E110" t="n">
-        <v>0.221258</v>
+        <v>0.22129</v>
       </c>
       <c r="F110" t="n">
-        <v>0.49064</v>
+        <v>0.490461</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341619</v>
+        <v>0.341722</v>
       </c>
       <c r="C111" t="n">
-        <v>0.639528</v>
+        <v>0.639396</v>
       </c>
       <c r="D111" t="n">
-        <v>0.5964120000000001</v>
+        <v>0.596601</v>
       </c>
       <c r="E111" t="n">
-        <v>0.219587</v>
+        <v>0.219693</v>
       </c>
       <c r="F111" t="n">
-        <v>0.489228</v>
+        <v>0.489027</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.335283</v>
+        <v>0.33503</v>
       </c>
       <c r="C112" t="n">
-        <v>0.588302</v>
+        <v>0.587971</v>
       </c>
       <c r="D112" t="n">
-        <v>0.592025</v>
+        <v>0.597776</v>
       </c>
       <c r="E112" t="n">
-        <v>0.218191</v>
+        <v>0.218217</v>
       </c>
       <c r="F112" t="n">
-        <v>0.487679</v>
+        <v>0.487553</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.328777</v>
+        <v>0.328853</v>
       </c>
       <c r="C113" t="n">
-        <v>0.605197</v>
+        <v>0.605697</v>
       </c>
       <c r="D113" t="n">
-        <v>0.602866</v>
+        <v>0.603703</v>
       </c>
       <c r="E113" t="n">
-        <v>0.216963</v>
+        <v>0.217079</v>
       </c>
       <c r="F113" t="n">
-        <v>0.486291</v>
+        <v>0.486286</v>
       </c>
     </row>
     <row r="114">
@@ -7325,16 +7325,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.321611</v>
+        <v>0.321294</v>
       </c>
       <c r="C114" t="n">
-        <v>0.603554</v>
+        <v>0.604398</v>
       </c>
       <c r="D114" t="n">
-        <v>0.595037</v>
+        <v>0.595727</v>
       </c>
       <c r="E114" t="n">
-        <v>0.215842</v>
+        <v>0.215784</v>
       </c>
       <c r="F114" t="n">
         <v>0.484874</v>
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313878</v>
+        <v>0.313515</v>
       </c>
       <c r="C115" t="n">
-        <v>0.585456</v>
+        <v>0.585418</v>
       </c>
       <c r="D115" t="n">
-        <v>0.589577</v>
+        <v>0.591491</v>
       </c>
       <c r="E115" t="n">
-        <v>0.21465</v>
+        <v>0.214719</v>
       </c>
       <c r="F115" t="n">
-        <v>0.483679</v>
+        <v>0.483498</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.305292</v>
+        <v>0.305205</v>
       </c>
       <c r="C116" t="n">
-        <v>0.719094</v>
+        <v>0.720006</v>
       </c>
       <c r="D116" t="n">
-        <v>0.583117</v>
+        <v>0.584143</v>
       </c>
       <c r="E116" t="n">
-        <v>0.215688</v>
+        <v>0.215667</v>
       </c>
       <c r="F116" t="n">
-        <v>0.482735</v>
+        <v>0.482584</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.296603</v>
+        <v>0.296397</v>
       </c>
       <c r="C117" t="n">
-        <v>0.619992</v>
+        <v>0.620545</v>
       </c>
       <c r="D117" t="n">
-        <v>0.573396</v>
+        <v>0.572419</v>
       </c>
       <c r="E117" t="n">
-        <v>0.21285</v>
+        <v>0.212822</v>
       </c>
       <c r="F117" t="n">
-        <v>0.481383</v>
+        <v>0.481352</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.286679</v>
+        <v>0.286509</v>
       </c>
       <c r="C118" t="n">
-        <v>0.584043</v>
+        <v>0.585029</v>
       </c>
       <c r="D118" t="n">
-        <v>0.572887</v>
+        <v>0.573713</v>
       </c>
       <c r="E118" t="n">
-        <v>0.213258</v>
+        <v>0.213855</v>
       </c>
       <c r="F118" t="n">
-        <v>0.480484</v>
+        <v>0.480537</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.276545</v>
+        <v>0.276028</v>
       </c>
       <c r="C119" t="n">
-        <v>0.579564</v>
+        <v>0.579967</v>
       </c>
       <c r="D119" t="n">
-        <v>0.56453</v>
+        <v>0.564549</v>
       </c>
       <c r="E119" t="n">
-        <v>0.213403</v>
+        <v>0.213412</v>
       </c>
       <c r="F119" t="n">
-        <v>0.479259</v>
+        <v>0.479268</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.265055</v>
+        <v>0.264623</v>
       </c>
       <c r="C120" t="n">
-        <v>0.572821</v>
+        <v>0.573343</v>
       </c>
       <c r="D120" t="n">
-        <v>0.562113</v>
+        <v>0.5625250000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>0.21249</v>
+        <v>0.211227</v>
       </c>
       <c r="F120" t="n">
-        <v>0.478849</v>
+        <v>0.478631</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.252987</v>
+        <v>0.252385</v>
       </c>
       <c r="C121" t="n">
-        <v>0.55807</v>
+        <v>0.558414</v>
       </c>
       <c r="D121" t="n">
-        <v>0.639343</v>
+        <v>0.640619</v>
       </c>
       <c r="E121" t="n">
-        <v>0.211497</v>
+        <v>0.211105</v>
       </c>
       <c r="F121" t="n">
-        <v>0.477683</v>
+        <v>0.477597</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.239677</v>
+        <v>0.239302</v>
       </c>
       <c r="C122" t="n">
-        <v>0.515446</v>
+        <v>0.515674</v>
       </c>
       <c r="D122" t="n">
-        <v>0.617928</v>
+        <v>0.61873</v>
       </c>
       <c r="E122" t="n">
-        <v>0.210609</v>
+        <v>0.211582</v>
       </c>
       <c r="F122" t="n">
-        <v>0.476876</v>
+        <v>0.476747</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.224985</v>
+        <v>0.22469</v>
       </c>
       <c r="C123" t="n">
-        <v>0.546838</v>
+        <v>0.5470739999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.633796</v>
+        <v>0.635395</v>
       </c>
       <c r="E123" t="n">
-        <v>0.225228</v>
+        <v>0.224336</v>
       </c>
       <c r="F123" t="n">
-        <v>0.492764</v>
+        <v>0.492661</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.348941</v>
+        <v>0.348785</v>
       </c>
       <c r="C124" t="n">
-        <v>0.56617</v>
+        <v>0.565786</v>
       </c>
       <c r="D124" t="n">
-        <v>0.626852</v>
+        <v>0.628081</v>
       </c>
       <c r="E124" t="n">
-        <v>0.221482</v>
+        <v>0.221386</v>
       </c>
       <c r="F124" t="n">
-        <v>0.49124</v>
+        <v>0.49109</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.343109</v>
+        <v>0.342797</v>
       </c>
       <c r="C125" t="n">
-        <v>0.746713</v>
+        <v>0.747425</v>
       </c>
       <c r="D125" t="n">
-        <v>0.623905</v>
+        <v>0.624708</v>
       </c>
       <c r="E125" t="n">
-        <v>0.219685</v>
+        <v>0.219965</v>
       </c>
       <c r="F125" t="n">
-        <v>0.489806</v>
+        <v>0.489614</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.337425</v>
+        <v>0.336767</v>
       </c>
       <c r="C126" t="n">
-        <v>0.729334</v>
+        <v>0.730112</v>
       </c>
       <c r="D126" t="n">
-        <v>0.618522</v>
+        <v>0.618681</v>
       </c>
       <c r="E126" t="n">
-        <v>0.218296</v>
+        <v>0.218412</v>
       </c>
       <c r="F126" t="n">
-        <v>0.488278</v>
+        <v>0.488227</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.330742</v>
+        <v>0.329803</v>
       </c>
       <c r="C127" t="n">
-        <v>0.595658</v>
+        <v>0.59529</v>
       </c>
       <c r="D127" t="n">
-        <v>0.5986669999999999</v>
+        <v>0.599144</v>
       </c>
       <c r="E127" t="n">
-        <v>0.217314</v>
+        <v>0.217194</v>
       </c>
       <c r="F127" t="n">
-        <v>0.486713</v>
+        <v>0.486753</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.323332</v>
+        <v>0.322885</v>
       </c>
       <c r="C128" t="n">
-        <v>0.618775</v>
+        <v>0.618165</v>
       </c>
       <c r="D128" t="n">
-        <v>0.594008</v>
+        <v>0.594762</v>
       </c>
       <c r="E128" t="n">
-        <v>0.215966</v>
+        <v>0.215952</v>
       </c>
       <c r="F128" t="n">
-        <v>0.485422</v>
+        <v>0.48541</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315651</v>
+        <v>0.315278</v>
       </c>
       <c r="C129" t="n">
-        <v>0.565192</v>
+        <v>0.565414</v>
       </c>
       <c r="D129" t="n">
-        <v>0.589213</v>
+        <v>0.589876</v>
       </c>
       <c r="E129" t="n">
-        <v>0.214791</v>
+        <v>0.2148</v>
       </c>
       <c r="F129" t="n">
-        <v>0.484437</v>
+        <v>0.484095</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.307107</v>
+        <v>0.306556</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5702199999999999</v>
+        <v>0.5700460000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.586001</v>
+        <v>0.586319</v>
       </c>
       <c r="E130" t="n">
-        <v>0.213892</v>
+        <v>0.213785</v>
       </c>
       <c r="F130" t="n">
-        <v>0.483214</v>
+        <v>0.482912</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.298009</v>
+        <v>0.298198</v>
       </c>
       <c r="C131" t="n">
-        <v>0.564244</v>
+        <v>0.564651</v>
       </c>
       <c r="D131" t="n">
-        <v>0.580221</v>
+        <v>0.580753</v>
       </c>
       <c r="E131" t="n">
-        <v>0.212971</v>
+        <v>0.212874</v>
       </c>
       <c r="F131" t="n">
-        <v>0.482017</v>
+        <v>0.4817</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.288907</v>
+        <v>0.288635</v>
       </c>
       <c r="C132" t="n">
-        <v>0.670888</v>
+        <v>0.6721240000000001</v>
       </c>
       <c r="D132" t="n">
-        <v>0.581785</v>
+        <v>0.582237</v>
       </c>
       <c r="E132" t="n">
-        <v>0.214203</v>
+        <v>0.213678</v>
       </c>
       <c r="F132" t="n">
-        <v>0.480818</v>
+        <v>0.480498</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.278109</v>
+        <v>0.277678</v>
       </c>
       <c r="C133" t="n">
-        <v>0.6014350000000001</v>
+        <v>0.601629</v>
       </c>
       <c r="D133" t="n">
-        <v>0.572605</v>
+        <v>0.57292</v>
       </c>
       <c r="E133" t="n">
-        <v>0.213351</v>
+        <v>0.213299</v>
       </c>
       <c r="F133" t="n">
-        <v>0.479888</v>
+        <v>0.479728</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.267355</v>
+        <v>0.266855</v>
       </c>
       <c r="C134" t="n">
-        <v>0.588705</v>
+        <v>0.589026</v>
       </c>
       <c r="D134" t="n">
-        <v>0.570205</v>
+        <v>0.571537</v>
       </c>
       <c r="E134" t="n">
-        <v>0.21226</v>
+        <v>0.212785</v>
       </c>
       <c r="F134" t="n">
-        <v>0.478782</v>
+        <v>0.478459</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.255284</v>
+        <v>0.254676</v>
       </c>
       <c r="C135" t="n">
-        <v>0.533807</v>
+        <v>0.534294</v>
       </c>
       <c r="D135" t="n">
-        <v>0.645278</v>
+        <v>0.647031</v>
       </c>
       <c r="E135" t="n">
-        <v>0.211723</v>
+        <v>0.211231</v>
       </c>
       <c r="F135" t="n">
-        <v>0.478035</v>
+        <v>0.477749</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.242637</v>
+        <v>0.242075</v>
       </c>
       <c r="C136" t="n">
-        <v>0.52259</v>
+        <v>0.522939</v>
       </c>
       <c r="D136" t="n">
-        <v>0.626073</v>
+        <v>0.622499</v>
       </c>
       <c r="E136" t="n">
-        <v>0.210877</v>
+        <v>0.210303</v>
       </c>
       <c r="F136" t="n">
-        <v>0.47737</v>
+        <v>0.477435</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.22821</v>
+        <v>0.228395</v>
       </c>
       <c r="C137" t="n">
-        <v>0.498059</v>
+        <v>0.49826</v>
       </c>
       <c r="D137" t="n">
-        <v>0.638682</v>
+        <v>0.6392139999999999</v>
       </c>
       <c r="E137" t="n">
-        <v>0.223818</v>
+        <v>0.224868</v>
       </c>
       <c r="F137" t="n">
-        <v>0.493143</v>
+        <v>0.492975</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350626</v>
+        <v>0.350018</v>
       </c>
       <c r="C138" t="n">
-        <v>0.650487</v>
+        <v>0.6507849999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>0.620356</v>
+        <v>0.620019</v>
       </c>
       <c r="E138" t="n">
-        <v>0.221926</v>
+        <v>0.222003</v>
       </c>
       <c r="F138" t="n">
-        <v>0.491251</v>
+        <v>0.491098</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344922</v>
+        <v>0.344318</v>
       </c>
       <c r="C139" t="n">
-        <v>0.609162</v>
+        <v>0.608723</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6162879999999999</v>
+        <v>0.6148</v>
       </c>
       <c r="E139" t="n">
-        <v>0.22048</v>
+        <v>0.220356</v>
       </c>
       <c r="F139" t="n">
-        <v>0.489616</v>
+        <v>0.48944</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338527</v>
+        <v>0.33832</v>
       </c>
       <c r="C140" t="n">
-        <v>0.639455</v>
+        <v>0.639204</v>
       </c>
       <c r="D140" t="n">
-        <v>0.6105</v>
+        <v>0.612992</v>
       </c>
       <c r="E140" t="n">
-        <v>0.219021</v>
+        <v>0.218944</v>
       </c>
       <c r="F140" t="n">
-        <v>0.487972</v>
+        <v>0.487992</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331866</v>
+        <v>0.331625</v>
       </c>
       <c r="C141" t="n">
-        <v>0.593933</v>
+        <v>0.5937249999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.619978</v>
+        <v>0.6194730000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>0.217634</v>
+        <v>0.217631</v>
       </c>
       <c r="F141" t="n">
-        <v>0.48681</v>
+        <v>0.486573</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324792</v>
+        <v>0.324526</v>
       </c>
       <c r="C142" t="n">
-        <v>0.573103</v>
+        <v>0.572639</v>
       </c>
       <c r="D142" t="n">
-        <v>0.611789</v>
+        <v>0.614297</v>
       </c>
       <c r="E142" t="n">
-        <v>0.216629</v>
+        <v>0.216471</v>
       </c>
       <c r="F142" t="n">
-        <v>0.485441</v>
+        <v>0.485192</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.317577</v>
+        <v>0.316896</v>
       </c>
       <c r="C143" t="n">
-        <v>0.623773</v>
+        <v>0.624252</v>
       </c>
       <c r="D143" t="n">
-        <v>0.605231</v>
+        <v>0.6068210000000001</v>
       </c>
       <c r="E143" t="n">
-        <v>0.215602</v>
+        <v>0.215477</v>
       </c>
       <c r="F143" t="n">
-        <v>0.484166</v>
+        <v>0.484142</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.306067</v>
+        <v>0.300908</v>
       </c>
       <c r="C2" t="n">
-        <v>0.507233</v>
+        <v>0.5031949999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.421132</v>
+        <v>0.409391</v>
       </c>
       <c r="E2" t="n">
-        <v>0.195118</v>
+        <v>0.195276</v>
       </c>
       <c r="F2" t="n">
-        <v>0.438061</v>
+        <v>0.468391</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.29674</v>
+        <v>0.289908</v>
       </c>
       <c r="C3" t="n">
-        <v>0.506038</v>
+        <v>0.501282</v>
       </c>
       <c r="D3" t="n">
-        <v>0.423251</v>
+        <v>0.409582</v>
       </c>
       <c r="E3" t="n">
-        <v>0.205844</v>
+        <v>0.194427</v>
       </c>
       <c r="F3" t="n">
-        <v>0.437845</v>
+        <v>0.468605</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.28715</v>
+        <v>0.278294</v>
       </c>
       <c r="C4" t="n">
-        <v>0.492411</v>
+        <v>0.488488</v>
       </c>
       <c r="D4" t="n">
-        <v>0.424878</v>
+        <v>0.410052</v>
       </c>
       <c r="E4" t="n">
-        <v>0.217056</v>
+        <v>0.197471</v>
       </c>
       <c r="F4" t="n">
-        <v>0.434018</v>
+        <v>0.467959</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.277282</v>
+        <v>0.267488</v>
       </c>
       <c r="C5" t="n">
-        <v>0.483968</v>
+        <v>0.483036</v>
       </c>
       <c r="D5" t="n">
-        <v>0.42218</v>
+        <v>0.412904</v>
       </c>
       <c r="E5" t="n">
-        <v>0.215554</v>
+        <v>0.197178</v>
       </c>
       <c r="F5" t="n">
-        <v>0.435577</v>
+        <v>0.470638</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.263738</v>
+        <v>0.255443</v>
       </c>
       <c r="C6" t="n">
-        <v>0.473678</v>
+        <v>0.469688</v>
       </c>
       <c r="D6" t="n">
-        <v>0.424403</v>
+        <v>0.412977</v>
       </c>
       <c r="E6" t="n">
-        <v>0.215516</v>
+        <v>0.198975</v>
       </c>
       <c r="F6" t="n">
-        <v>0.435228</v>
+        <v>0.465579</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.253144</v>
+        <v>0.244257</v>
       </c>
       <c r="C7" t="n">
-        <v>0.462446</v>
+        <v>0.461665</v>
       </c>
       <c r="D7" t="n">
-        <v>0.418593</v>
+        <v>0.411943</v>
       </c>
       <c r="E7" t="n">
-        <v>0.219323</v>
+        <v>0.199574</v>
       </c>
       <c r="F7" t="n">
-        <v>0.433829</v>
+        <v>0.469114</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.24292</v>
+        <v>0.231026</v>
       </c>
       <c r="C8" t="n">
-        <v>0.443706</v>
+        <v>0.446229</v>
       </c>
       <c r="D8" t="n">
-        <v>0.420944</v>
+        <v>0.412375</v>
       </c>
       <c r="E8" t="n">
-        <v>0.219583</v>
+        <v>0.199062</v>
       </c>
       <c r="F8" t="n">
-        <v>0.434078</v>
+        <v>0.464782</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.226379</v>
+        <v>0.21578</v>
       </c>
       <c r="C9" t="n">
-        <v>0.432832</v>
+        <v>0.433355</v>
       </c>
       <c r="D9" t="n">
-        <v>0.420356</v>
+        <v>0.412125</v>
       </c>
       <c r="E9" t="n">
-        <v>0.235845</v>
+        <v>0.216582</v>
       </c>
       <c r="F9" t="n">
-        <v>0.448911</v>
+        <v>0.480895</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.351562</v>
+        <v>0.345092</v>
       </c>
       <c r="C10" t="n">
-        <v>0.553217</v>
+        <v>0.549882</v>
       </c>
       <c r="D10" t="n">
-        <v>0.420242</v>
+        <v>0.412977</v>
       </c>
       <c r="E10" t="n">
-        <v>0.220185</v>
+        <v>0.215029</v>
       </c>
       <c r="F10" t="n">
-        <v>0.449246</v>
+        <v>0.481572</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.345524</v>
+        <v>0.33909</v>
       </c>
       <c r="C11" t="n">
-        <v>0.550604</v>
+        <v>0.547824</v>
       </c>
       <c r="D11" t="n">
-        <v>0.42241</v>
+        <v>0.412928</v>
       </c>
       <c r="E11" t="n">
-        <v>0.219174</v>
+        <v>0.215257</v>
       </c>
       <c r="F11" t="n">
-        <v>0.449992</v>
+        <v>0.481451</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.342008</v>
+        <v>0.334821</v>
       </c>
       <c r="C12" t="n">
-        <v>0.547091</v>
+        <v>0.544387</v>
       </c>
       <c r="D12" t="n">
-        <v>0.421526</v>
+        <v>0.414259</v>
       </c>
       <c r="E12" t="n">
-        <v>0.220208</v>
+        <v>0.212798</v>
       </c>
       <c r="F12" t="n">
-        <v>0.447233</v>
+        <v>0.479951</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.332861</v>
+        <v>0.326303</v>
       </c>
       <c r="C13" t="n">
-        <v>0.541168</v>
+        <v>0.540948</v>
       </c>
       <c r="D13" t="n">
-        <v>0.422313</v>
+        <v>0.413429</v>
       </c>
       <c r="E13" t="n">
-        <v>0.218843</v>
+        <v>0.212562</v>
       </c>
       <c r="F13" t="n">
-        <v>0.446291</v>
+        <v>0.475893</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.327336</v>
+        <v>0.319931</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5340009999999999</v>
+        <v>0.534191</v>
       </c>
       <c r="D14" t="n">
-        <v>0.42396</v>
+        <v>0.414926</v>
       </c>
       <c r="E14" t="n">
-        <v>0.219234</v>
+        <v>0.212644</v>
       </c>
       <c r="F14" t="n">
-        <v>0.443406</v>
+        <v>0.475312</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.320536</v>
+        <v>0.313314</v>
       </c>
       <c r="C15" t="n">
-        <v>0.527021</v>
+        <v>0.52743</v>
       </c>
       <c r="D15" t="n">
-        <v>0.423767</v>
+        <v>0.415909</v>
       </c>
       <c r="E15" t="n">
-        <v>0.234323</v>
+        <v>0.211508</v>
       </c>
       <c r="F15" t="n">
-        <v>0.443436</v>
+        <v>0.475371</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.312176</v>
+        <v>0.304542</v>
       </c>
       <c r="C16" t="n">
-        <v>0.518384</v>
+        <v>0.517728</v>
       </c>
       <c r="D16" t="n">
-        <v>0.425385</v>
+        <v>0.416706</v>
       </c>
       <c r="E16" t="n">
-        <v>0.219083</v>
+        <v>0.21112</v>
       </c>
       <c r="F16" t="n">
-        <v>0.442998</v>
+        <v>0.473537</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.304322</v>
+        <v>0.296203</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5122370000000001</v>
+        <v>0.510639</v>
       </c>
       <c r="D17" t="n">
-        <v>0.427721</v>
+        <v>0.418969</v>
       </c>
       <c r="E17" t="n">
-        <v>0.233776</v>
+        <v>0.20998</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4423</v>
+        <v>0.474542</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.293847</v>
+        <v>0.285804</v>
       </c>
       <c r="C18" t="n">
-        <v>0.50142</v>
+        <v>0.501187</v>
       </c>
       <c r="D18" t="n">
-        <v>0.429317</v>
+        <v>0.419005</v>
       </c>
       <c r="E18" t="n">
-        <v>0.215801</v>
+        <v>0.20922</v>
       </c>
       <c r="F18" t="n">
-        <v>0.439241</v>
+        <v>0.471442</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.283186</v>
+        <v>0.276126</v>
       </c>
       <c r="C19" t="n">
-        <v>0.490914</v>
+        <v>0.490046</v>
       </c>
       <c r="D19" t="n">
-        <v>0.430708</v>
+        <v>0.421501</v>
       </c>
       <c r="E19" t="n">
-        <v>0.216104</v>
+        <v>0.208831</v>
       </c>
       <c r="F19" t="n">
-        <v>0.439595</v>
+        <v>0.472084</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.273339</v>
+        <v>0.266325</v>
       </c>
       <c r="C20" t="n">
-        <v>0.479402</v>
+        <v>0.47944</v>
       </c>
       <c r="D20" t="n">
-        <v>0.430473</v>
+        <v>0.420706</v>
       </c>
       <c r="E20" t="n">
-        <v>0.216604</v>
+        <v>0.208819</v>
       </c>
       <c r="F20" t="n">
-        <v>0.439313</v>
+        <v>0.471109</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.262964</v>
+        <v>0.25555</v>
       </c>
       <c r="C21" t="n">
-        <v>0.462699</v>
+        <v>0.462641</v>
       </c>
       <c r="D21" t="n">
-        <v>0.424299</v>
+        <v>0.41863</v>
       </c>
       <c r="E21" t="n">
-        <v>0.21512</v>
+        <v>0.207439</v>
       </c>
       <c r="F21" t="n">
-        <v>0.438441</v>
+        <v>0.470596</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248808</v>
+        <v>0.241501</v>
       </c>
       <c r="C22" t="n">
-        <v>0.456161</v>
+        <v>0.455172</v>
       </c>
       <c r="D22" t="n">
-        <v>0.425374</v>
+        <v>0.419721</v>
       </c>
       <c r="E22" t="n">
-        <v>0.21618</v>
+        <v>0.208707</v>
       </c>
       <c r="F22" t="n">
-        <v>0.438631</v>
+        <v>0.468227</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.23495</v>
+        <v>0.227184</v>
       </c>
       <c r="C23" t="n">
-        <v>0.435405</v>
+        <v>0.434588</v>
       </c>
       <c r="D23" t="n">
-        <v>0.426984</v>
+        <v>0.421176</v>
       </c>
       <c r="E23" t="n">
-        <v>0.247137</v>
+        <v>0.226998</v>
       </c>
       <c r="F23" t="n">
-        <v>0.454694</v>
+        <v>0.486251</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.355974</v>
+        <v>0.347843</v>
       </c>
       <c r="C24" t="n">
-        <v>0.555665</v>
+        <v>0.558208</v>
       </c>
       <c r="D24" t="n">
-        <v>0.426518</v>
+        <v>0.42093</v>
       </c>
       <c r="E24" t="n">
-        <v>0.244979</v>
+        <v>0.223581</v>
       </c>
       <c r="F24" t="n">
-        <v>0.451889</v>
+        <v>0.484582</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.350524</v>
+        <v>0.342565</v>
       </c>
       <c r="C25" t="n">
-        <v>0.553266</v>
+        <v>0.552957</v>
       </c>
       <c r="D25" t="n">
-        <v>0.427929</v>
+        <v>0.42689</v>
       </c>
       <c r="E25" t="n">
-        <v>0.256639</v>
+        <v>0.222183</v>
       </c>
       <c r="F25" t="n">
-        <v>0.450091</v>
+        <v>0.483976</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.344269</v>
+        <v>0.336486</v>
       </c>
       <c r="C26" t="n">
-        <v>0.547397</v>
+        <v>0.5469810000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4277</v>
+        <v>0.420676</v>
       </c>
       <c r="E26" t="n">
-        <v>0.226076</v>
+        <v>0.219192</v>
       </c>
       <c r="F26" t="n">
-        <v>0.449682</v>
+        <v>0.482605</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.339022</v>
+        <v>0.331898</v>
       </c>
       <c r="C27" t="n">
-        <v>0.540594</v>
+        <v>0.537918</v>
       </c>
       <c r="D27" t="n">
-        <v>0.429134</v>
+        <v>0.420807</v>
       </c>
       <c r="E27" t="n">
-        <v>0.22546</v>
+        <v>0.218123</v>
       </c>
       <c r="F27" t="n">
-        <v>0.446791</v>
+        <v>0.480872</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.331456</v>
+        <v>0.324494</v>
       </c>
       <c r="C28" t="n">
-        <v>0.531946</v>
+        <v>0.53064</v>
       </c>
       <c r="D28" t="n">
-        <v>0.429076</v>
+        <v>0.422184</v>
       </c>
       <c r="E28" t="n">
-        <v>0.238767</v>
+        <v>0.216737</v>
       </c>
       <c r="F28" t="n">
-        <v>0.446781</v>
+        <v>0.479706</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.323602</v>
+        <v>0.317213</v>
       </c>
       <c r="C29" t="n">
-        <v>0.532497</v>
+        <v>0.5304720000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.429634</v>
+        <v>0.421916</v>
       </c>
       <c r="E29" t="n">
-        <v>0.222284</v>
+        <v>0.21678</v>
       </c>
       <c r="F29" t="n">
-        <v>0.444391</v>
+        <v>0.477828</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.315096</v>
+        <v>0.308571</v>
       </c>
       <c r="C30" t="n">
-        <v>0.521379</v>
+        <v>0.519455</v>
       </c>
       <c r="D30" t="n">
-        <v>0.430843</v>
+        <v>0.424041</v>
       </c>
       <c r="E30" t="n">
-        <v>0.221135</v>
+        <v>0.214882</v>
       </c>
       <c r="F30" t="n">
-        <v>0.443997</v>
+        <v>0.477653</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.307135</v>
+        <v>0.300371</v>
       </c>
       <c r="C31" t="n">
-        <v>0.506593</v>
+        <v>0.505928</v>
       </c>
       <c r="D31" t="n">
-        <v>0.432898</v>
+        <v>0.422487</v>
       </c>
       <c r="E31" t="n">
-        <v>0.220841</v>
+        <v>0.213686</v>
       </c>
       <c r="F31" t="n">
-        <v>0.442282</v>
+        <v>0.475801</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.297721</v>
+        <v>0.290432</v>
       </c>
       <c r="C32" t="n">
-        <v>0.50623</v>
+        <v>0.507683</v>
       </c>
       <c r="D32" t="n">
-        <v>0.433458</v>
+        <v>0.424194</v>
       </c>
       <c r="E32" t="n">
-        <v>0.219929</v>
+        <v>0.212468</v>
       </c>
       <c r="F32" t="n">
-        <v>0.440802</v>
+        <v>0.474399</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.288769</v>
+        <v>0.281899</v>
       </c>
       <c r="C33" t="n">
-        <v>0.491855</v>
+        <v>0.492388</v>
       </c>
       <c r="D33" t="n">
-        <v>0.433962</v>
+        <v>0.424746</v>
       </c>
       <c r="E33" t="n">
-        <v>0.219525</v>
+        <v>0.212019</v>
       </c>
       <c r="F33" t="n">
-        <v>0.440695</v>
+        <v>0.47308</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.278191</v>
+        <v>0.270758</v>
       </c>
       <c r="C34" t="n">
-        <v>0.478133</v>
+        <v>0.478181</v>
       </c>
       <c r="D34" t="n">
-        <v>0.435487</v>
+        <v>0.424842</v>
       </c>
       <c r="E34" t="n">
-        <v>0.219489</v>
+        <v>0.211773</v>
       </c>
       <c r="F34" t="n">
-        <v>0.440285</v>
+        <v>0.473371</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.266191</v>
+        <v>0.258563</v>
       </c>
       <c r="C35" t="n">
-        <v>0.468009</v>
+        <v>0.469204</v>
       </c>
       <c r="D35" t="n">
-        <v>0.432048</v>
+        <v>0.425712</v>
       </c>
       <c r="E35" t="n">
-        <v>0.234457</v>
+        <v>0.211626</v>
       </c>
       <c r="F35" t="n">
-        <v>0.440029</v>
+        <v>0.472623</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.254145</v>
+        <v>0.245968</v>
       </c>
       <c r="C36" t="n">
-        <v>0.454508</v>
+        <v>0.454007</v>
       </c>
       <c r="D36" t="n">
-        <v>0.432262</v>
+        <v>0.425939</v>
       </c>
       <c r="E36" t="n">
-        <v>0.220858</v>
+        <v>0.210857</v>
       </c>
       <c r="F36" t="n">
-        <v>0.440289</v>
+        <v>0.471467</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.240171</v>
+        <v>0.231717</v>
       </c>
       <c r="C37" t="n">
-        <v>0.449608</v>
+        <v>0.450213</v>
       </c>
       <c r="D37" t="n">
-        <v>0.433049</v>
+        <v>0.426307</v>
       </c>
       <c r="E37" t="n">
-        <v>0.234607</v>
+        <v>0.23103</v>
       </c>
       <c r="F37" t="n">
-        <v>0.454768</v>
+        <v>0.487084</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.357993</v>
+        <v>0.34992</v>
       </c>
       <c r="C38" t="n">
-        <v>0.555253</v>
+        <v>0.55479</v>
       </c>
       <c r="D38" t="n">
-        <v>0.432702</v>
+        <v>0.424509</v>
       </c>
       <c r="E38" t="n">
-        <v>0.230491</v>
+        <v>0.22353</v>
       </c>
       <c r="F38" t="n">
-        <v>0.452478</v>
+        <v>0.484659</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.35316</v>
+        <v>0.345575</v>
       </c>
       <c r="C39" t="n">
-        <v>0.550766</v>
+        <v>0.550648</v>
       </c>
       <c r="D39" t="n">
-        <v>0.432178</v>
+        <v>0.424184</v>
       </c>
       <c r="E39" t="n">
-        <v>0.227704</v>
+        <v>0.2211</v>
       </c>
       <c r="F39" t="n">
-        <v>0.45073</v>
+        <v>0.482773</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.347378</v>
+        <v>0.339435</v>
       </c>
       <c r="C40" t="n">
-        <v>0.545557</v>
+        <v>0.54504</v>
       </c>
       <c r="D40" t="n">
-        <v>0.432654</v>
+        <v>0.423983</v>
       </c>
       <c r="E40" t="n">
-        <v>0.226853</v>
+        <v>0.220273</v>
       </c>
       <c r="F40" t="n">
-        <v>0.449602</v>
+        <v>0.481567</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.341203</v>
+        <v>0.334026</v>
       </c>
       <c r="C41" t="n">
-        <v>0.538771</v>
+        <v>0.5374</v>
       </c>
       <c r="D41" t="n">
-        <v>0.432295</v>
+        <v>0.424756</v>
       </c>
       <c r="E41" t="n">
-        <v>0.225537</v>
+        <v>0.217771</v>
       </c>
       <c r="F41" t="n">
-        <v>0.448431</v>
+        <v>0.481194</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.333895</v>
+        <v>0.3273</v>
       </c>
       <c r="C42" t="n">
-        <v>0.534544</v>
+        <v>0.5367769999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.43196</v>
+        <v>0.424379</v>
       </c>
       <c r="E42" t="n">
-        <v>0.22395</v>
+        <v>0.216833</v>
       </c>
       <c r="F42" t="n">
-        <v>0.446641</v>
+        <v>0.479791</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.326435</v>
+        <v>0.319574</v>
       </c>
       <c r="C43" t="n">
-        <v>0.52694</v>
+        <v>0.526953</v>
       </c>
       <c r="D43" t="n">
-        <v>0.433471</v>
+        <v>0.425535</v>
       </c>
       <c r="E43" t="n">
-        <v>0.223337</v>
+        <v>0.215911</v>
       </c>
       <c r="F43" t="n">
-        <v>0.445238</v>
+        <v>0.478213</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.319343</v>
+        <v>0.311973</v>
       </c>
       <c r="C44" t="n">
-        <v>0.522638</v>
+        <v>0.522509</v>
       </c>
       <c r="D44" t="n">
-        <v>0.434341</v>
+        <v>0.424954</v>
       </c>
       <c r="E44" t="n">
-        <v>0.222335</v>
+        <v>0.214683</v>
       </c>
       <c r="F44" t="n">
-        <v>0.444083</v>
+        <v>0.476729</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.310746</v>
+        <v>0.30416</v>
       </c>
       <c r="C45" t="n">
-        <v>0.511251</v>
+        <v>0.510812</v>
       </c>
       <c r="D45" t="n">
-        <v>0.434708</v>
+        <v>0.426065</v>
       </c>
       <c r="E45" t="n">
-        <v>0.221313</v>
+        <v>0.213948</v>
       </c>
       <c r="F45" t="n">
-        <v>0.442573</v>
+        <v>0.476249</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.301953</v>
+        <v>0.294357</v>
       </c>
       <c r="C46" t="n">
-        <v>0.506641</v>
+        <v>0.508503</v>
       </c>
       <c r="D46" t="n">
-        <v>0.43603</v>
+        <v>0.426009</v>
       </c>
       <c r="E46" t="n">
-        <v>0.220079</v>
+        <v>0.212356</v>
       </c>
       <c r="F46" t="n">
-        <v>0.442071</v>
+        <v>0.475067</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.291472</v>
+        <v>0.284371</v>
       </c>
       <c r="C47" t="n">
-        <v>0.497505</v>
+        <v>0.496349</v>
       </c>
       <c r="D47" t="n">
-        <v>0.43641</v>
+        <v>0.427948</v>
       </c>
       <c r="E47" t="n">
-        <v>0.220206</v>
+        <v>0.211816</v>
       </c>
       <c r="F47" t="n">
-        <v>0.441277</v>
+        <v>0.4748</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.281786</v>
+        <v>0.274363</v>
       </c>
       <c r="C48" t="n">
-        <v>0.486522</v>
+        <v>0.48879</v>
       </c>
       <c r="D48" t="n">
-        <v>0.437884</v>
+        <v>0.426541</v>
       </c>
       <c r="E48" t="n">
-        <v>0.219502</v>
+        <v>0.211734</v>
       </c>
       <c r="F48" t="n">
-        <v>0.441037</v>
+        <v>0.473248</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.270637</v>
+        <v>0.262681</v>
       </c>
       <c r="C49" t="n">
-        <v>0.470771</v>
+        <v>0.4712</v>
       </c>
       <c r="D49" t="n">
-        <v>0.438689</v>
+        <v>0.430175</v>
       </c>
       <c r="E49" t="n">
-        <v>0.218755</v>
+        <v>0.211017</v>
       </c>
       <c r="F49" t="n">
-        <v>0.441025</v>
+        <v>0.472787</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.257101</v>
+        <v>0.249641</v>
       </c>
       <c r="C50" t="n">
-        <v>0.463986</v>
+        <v>0.465699</v>
       </c>
       <c r="D50" t="n">
-        <v>0.43872</v>
+        <v>0.436658</v>
       </c>
       <c r="E50" t="n">
-        <v>0.218485</v>
+        <v>0.209885</v>
       </c>
       <c r="F50" t="n">
-        <v>0.440705</v>
+        <v>0.471821</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.243749</v>
+        <v>0.235926</v>
       </c>
       <c r="C51" t="n">
-        <v>0.448185</v>
+        <v>0.444645</v>
       </c>
       <c r="D51" t="n">
-        <v>0.437899</v>
+        <v>0.443093</v>
       </c>
       <c r="E51" t="n">
-        <v>0.257677</v>
+        <v>0.228106</v>
       </c>
       <c r="F51" t="n">
-        <v>0.455968</v>
+        <v>0.488291</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.228999</v>
+        <v>0.221161</v>
       </c>
       <c r="C52" t="n">
-        <v>0.43348</v>
+        <v>0.436553</v>
       </c>
       <c r="D52" t="n">
-        <v>0.437388</v>
+        <v>0.431146</v>
       </c>
       <c r="E52" t="n">
-        <v>0.246849</v>
+        <v>0.226309</v>
       </c>
       <c r="F52" t="n">
-        <v>0.454226</v>
+        <v>0.48681</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.354676</v>
+        <v>0.347493</v>
       </c>
       <c r="C53" t="n">
-        <v>0.557912</v>
+        <v>0.564944</v>
       </c>
       <c r="D53" t="n">
-        <v>0.438724</v>
+        <v>0.437881</v>
       </c>
       <c r="E53" t="n">
-        <v>0.229216</v>
+        <v>0.221591</v>
       </c>
       <c r="F53" t="n">
-        <v>0.451926</v>
+        <v>0.484949</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.349511</v>
+        <v>0.341925</v>
       </c>
       <c r="C54" t="n">
-        <v>0.552605</v>
+        <v>0.551356</v>
       </c>
       <c r="D54" t="n">
-        <v>0.439103</v>
+        <v>0.436556</v>
       </c>
       <c r="E54" t="n">
-        <v>0.227825</v>
+        <v>0.219339</v>
       </c>
       <c r="F54" t="n">
-        <v>0.450223</v>
+        <v>0.483766</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.343358</v>
+        <v>0.336015</v>
       </c>
       <c r="C55" t="n">
-        <v>0.552316</v>
+        <v>0.570471</v>
       </c>
       <c r="D55" t="n">
-        <v>0.439531</v>
+        <v>0.436548</v>
       </c>
       <c r="E55" t="n">
-        <v>0.227007</v>
+        <v>0.218195</v>
       </c>
       <c r="F55" t="n">
-        <v>0.448816</v>
+        <v>0.482303</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.336288</v>
+        <v>0.329962</v>
       </c>
       <c r="C56" t="n">
-        <v>0.545589</v>
+        <v>0.550667</v>
       </c>
       <c r="D56" t="n">
-        <v>0.442759</v>
+        <v>0.437418</v>
       </c>
       <c r="E56" t="n">
-        <v>0.225184</v>
+        <v>0.216897</v>
       </c>
       <c r="F56" t="n">
-        <v>0.446693</v>
+        <v>0.481025</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.328264</v>
+        <v>0.321603</v>
       </c>
       <c r="C57" t="n">
-        <v>0.549889</v>
+        <v>0.560661</v>
       </c>
       <c r="D57" t="n">
-        <v>0.443666</v>
+        <v>0.43942</v>
       </c>
       <c r="E57" t="n">
-        <v>0.224039</v>
+        <v>0.215276</v>
       </c>
       <c r="F57" t="n">
-        <v>0.445735</v>
+        <v>0.479625</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.321174</v>
+        <v>0.314427</v>
       </c>
       <c r="C58" t="n">
-        <v>0.549763</v>
+        <v>0.534372</v>
       </c>
       <c r="D58" t="n">
-        <v>0.446316</v>
+        <v>0.438016</v>
       </c>
       <c r="E58" t="n">
-        <v>0.224007</v>
+        <v>0.21496</v>
       </c>
       <c r="F58" t="n">
-        <v>0.444542</v>
+        <v>0.478289</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.313408</v>
+        <v>0.305372</v>
       </c>
       <c r="C59" t="n">
-        <v>0.548049</v>
+        <v>0.554171</v>
       </c>
       <c r="D59" t="n">
-        <v>0.446292</v>
+        <v>0.441048</v>
       </c>
       <c r="E59" t="n">
-        <v>0.222341</v>
+        <v>0.213889</v>
       </c>
       <c r="F59" t="n">
-        <v>0.443198</v>
+        <v>0.47736</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.30384</v>
+        <v>0.296356</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5179510000000001</v>
+        <v>0.523006</v>
       </c>
       <c r="D60" t="n">
-        <v>0.451566</v>
+        <v>0.444939</v>
       </c>
       <c r="E60" t="n">
-        <v>0.221668</v>
+        <v>0.212911</v>
       </c>
       <c r="F60" t="n">
-        <v>0.443136</v>
+        <v>0.476692</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.294672</v>
+        <v>0.287266</v>
       </c>
       <c r="C61" t="n">
-        <v>0.545999</v>
+        <v>0.552225</v>
       </c>
       <c r="D61" t="n">
-        <v>0.454026</v>
+        <v>0.442521</v>
       </c>
       <c r="E61" t="n">
-        <v>0.235061</v>
+        <v>0.212369</v>
       </c>
       <c r="F61" t="n">
-        <v>0.44193</v>
+        <v>0.475192</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.284351</v>
+        <v>0.276469</v>
       </c>
       <c r="C62" t="n">
-        <v>0.506702</v>
+        <v>0.5113490000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.458282</v>
+        <v>0.4506</v>
       </c>
       <c r="E62" t="n">
-        <v>0.220399</v>
+        <v>0.211429</v>
       </c>
       <c r="F62" t="n">
-        <v>0.441274</v>
+        <v>0.473723</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.273459</v>
+        <v>0.266065</v>
       </c>
       <c r="C63" t="n">
-        <v>0.526907</v>
+        <v>0.53543</v>
       </c>
       <c r="D63" t="n">
-        <v>0.461203</v>
+        <v>0.451215</v>
       </c>
       <c r="E63" t="n">
-        <v>0.233857</v>
+        <v>0.210814</v>
       </c>
       <c r="F63" t="n">
-        <v>0.44077</v>
+        <v>0.473262</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.261438</v>
+        <v>0.253528</v>
       </c>
       <c r="C64" t="n">
-        <v>0.505038</v>
+        <v>0.503767</v>
       </c>
       <c r="D64" t="n">
-        <v>0.496446</v>
+        <v>0.507233</v>
       </c>
       <c r="E64" t="n">
-        <v>0.218402</v>
+        <v>0.210466</v>
       </c>
       <c r="F64" t="n">
-        <v>0.440613</v>
+        <v>0.472863</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.247621</v>
+        <v>0.239841</v>
       </c>
       <c r="C65" t="n">
-        <v>0.494754</v>
+        <v>0.516597</v>
       </c>
       <c r="D65" t="n">
-        <v>0.498652</v>
+        <v>0.50558</v>
       </c>
       <c r="E65" t="n">
-        <v>0.232902</v>
+        <v>0.210864</v>
       </c>
       <c r="F65" t="n">
-        <v>0.440305</v>
+        <v>0.472319</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.233755</v>
+        <v>0.225965</v>
       </c>
       <c r="C66" t="n">
-        <v>0.47368</v>
+        <v>0.486112</v>
       </c>
       <c r="D66" t="n">
-        <v>0.504701</v>
+        <v>0.509446</v>
       </c>
       <c r="E66" t="n">
-        <v>0.233561</v>
+        <v>0.228222</v>
       </c>
       <c r="F66" t="n">
-        <v>0.454796</v>
+        <v>0.487836</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.356239</v>
+        <v>0.348855</v>
       </c>
       <c r="C67" t="n">
-        <v>0.642048</v>
+        <v>0.671254</v>
       </c>
       <c r="D67" t="n">
-        <v>0.513491</v>
+        <v>0.5187659999999999</v>
       </c>
       <c r="E67" t="n">
-        <v>0.231965</v>
+        <v>0.225271</v>
       </c>
       <c r="F67" t="n">
-        <v>0.453168</v>
+        <v>0.485711</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.351175</v>
+        <v>0.344155</v>
       </c>
       <c r="C68" t="n">
-        <v>0.584124</v>
+        <v>0.593167</v>
       </c>
       <c r="D68" t="n">
-        <v>0.519584</v>
+        <v>0.52203</v>
       </c>
       <c r="E68" t="n">
-        <v>0.231299</v>
+        <v>0.223253</v>
       </c>
       <c r="F68" t="n">
-        <v>0.451157</v>
+        <v>0.484108</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.345116</v>
+        <v>0.337864</v>
       </c>
       <c r="C69" t="n">
-        <v>0.57798</v>
+        <v>0.593432</v>
       </c>
       <c r="D69" t="n">
-        <v>0.520583</v>
+        <v>0.53196</v>
       </c>
       <c r="E69" t="n">
-        <v>0.22824</v>
+        <v>0.221179</v>
       </c>
       <c r="F69" t="n">
-        <v>0.44924</v>
+        <v>0.482376</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.338563</v>
+        <v>0.331208</v>
       </c>
       <c r="C70" t="n">
-        <v>0.671011</v>
+        <v>0.694778</v>
       </c>
       <c r="D70" t="n">
-        <v>0.529114</v>
+        <v>0.534137</v>
       </c>
       <c r="E70" t="n">
-        <v>0.227821</v>
+        <v>0.218976</v>
       </c>
       <c r="F70" t="n">
-        <v>0.447535</v>
+        <v>0.480737</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.330673</v>
+        <v>0.324019</v>
       </c>
       <c r="C71" t="n">
-        <v>0.65249</v>
+        <v>0.672871</v>
       </c>
       <c r="D71" t="n">
-        <v>0.530274</v>
+        <v>0.5394409999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>0.228335</v>
+        <v>0.217298</v>
       </c>
       <c r="F71" t="n">
-        <v>0.446322</v>
+        <v>0.479927</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.323635</v>
+        <v>0.316071</v>
       </c>
       <c r="C72" t="n">
-        <v>0.660048</v>
+        <v>0.682532</v>
       </c>
       <c r="D72" t="n">
-        <v>0.537904</v>
+        <v>0.542266</v>
       </c>
       <c r="E72" t="n">
-        <v>0.226045</v>
+        <v>0.215931</v>
       </c>
       <c r="F72" t="n">
-        <v>0.444793</v>
+        <v>0.478764</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.315093</v>
+        <v>0.307673</v>
       </c>
       <c r="C73" t="n">
-        <v>0.615187</v>
+        <v>0.629902</v>
       </c>
       <c r="D73" t="n">
-        <v>0.542844</v>
+        <v>0.552217</v>
       </c>
       <c r="E73" t="n">
-        <v>0.224666</v>
+        <v>0.214898</v>
       </c>
       <c r="F73" t="n">
-        <v>0.443429</v>
+        <v>0.47824</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.30766</v>
+        <v>0.29919</v>
       </c>
       <c r="C74" t="n">
-        <v>0.618752</v>
+        <v>0.64984</v>
       </c>
       <c r="D74" t="n">
-        <v>0.544247</v>
+        <v>0.555248</v>
       </c>
       <c r="E74" t="n">
-        <v>0.224119</v>
+        <v>0.213902</v>
       </c>
       <c r="F74" t="n">
-        <v>0.442774</v>
+        <v>0.477018</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.297514</v>
+        <v>0.290032</v>
       </c>
       <c r="C75" t="n">
-        <v>0.656592</v>
+        <v>0.687648</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5440120000000001</v>
+        <v>0.552522</v>
       </c>
       <c r="E75" t="n">
-        <v>0.235115</v>
+        <v>0.212584</v>
       </c>
       <c r="F75" t="n">
-        <v>0.442064</v>
+        <v>0.475473</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.287767</v>
+        <v>0.279923</v>
       </c>
       <c r="C76" t="n">
-        <v>0.590279</v>
+        <v>0.642854</v>
       </c>
       <c r="D76" t="n">
-        <v>0.54806</v>
+        <v>0.557051</v>
       </c>
       <c r="E76" t="n">
-        <v>0.223774</v>
+        <v>0.212086</v>
       </c>
       <c r="F76" t="n">
-        <v>0.441067</v>
+        <v>0.47486</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.276777</v>
+        <v>0.268961</v>
       </c>
       <c r="C77" t="n">
-        <v>0.624619</v>
+        <v>0.66606</v>
       </c>
       <c r="D77" t="n">
-        <v>0.562908</v>
+        <v>0.558676</v>
       </c>
       <c r="E77" t="n">
-        <v>0.222657</v>
+        <v>0.211387</v>
       </c>
       <c r="F77" t="n">
-        <v>0.444147</v>
+        <v>0.473906</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.264849</v>
+        <v>0.257362</v>
       </c>
       <c r="C78" t="n">
-        <v>0.619879</v>
+        <v>0.610942</v>
       </c>
       <c r="D78" t="n">
-        <v>0.633128</v>
+        <v>0.648871</v>
       </c>
       <c r="E78" t="n">
-        <v>0.233214</v>
+        <v>0.212195</v>
       </c>
       <c r="F78" t="n">
-        <v>0.444092</v>
+        <v>0.472476</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.25184</v>
+        <v>0.244508</v>
       </c>
       <c r="C79" t="n">
-        <v>0.549004</v>
+        <v>0.553713</v>
       </c>
       <c r="D79" t="n">
-        <v>0.641773</v>
+        <v>0.6412949999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>0.231456</v>
+        <v>0.211053</v>
       </c>
       <c r="F79" t="n">
-        <v>0.443567</v>
+        <v>0.472358</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.238528</v>
+        <v>0.230201</v>
       </c>
       <c r="C80" t="n">
-        <v>0.504408</v>
+        <v>0.524153</v>
       </c>
       <c r="D80" t="n">
-        <v>0.643896</v>
+        <v>0.639266</v>
       </c>
       <c r="E80" t="n">
-        <v>0.234076</v>
+        <v>0.227198</v>
       </c>
       <c r="F80" t="n">
-        <v>0.455514</v>
+        <v>0.488328</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.357617</v>
+        <v>0.350513</v>
       </c>
       <c r="C81" t="n">
-        <v>0.650861</v>
+        <v>0.642508</v>
       </c>
       <c r="D81" t="n">
-        <v>0.62524</v>
+        <v>0.6429009999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>0.236678</v>
+        <v>0.224101</v>
       </c>
       <c r="F81" t="n">
-        <v>0.453326</v>
+        <v>0.486623</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.352585</v>
+        <v>0.345009</v>
       </c>
       <c r="C82" t="n">
-        <v>0.664992</v>
+        <v>0.709754</v>
       </c>
       <c r="D82" t="n">
-        <v>0.621694</v>
+        <v>0.641936</v>
       </c>
       <c r="E82" t="n">
-        <v>0.233907</v>
+        <v>0.221412</v>
       </c>
       <c r="F82" t="n">
-        <v>0.451335</v>
+        <v>0.484897</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.34603</v>
+        <v>0.339085</v>
       </c>
       <c r="C83" t="n">
-        <v>0.630783</v>
+        <v>0.632955</v>
       </c>
       <c r="D83" t="n">
-        <v>0.61803</v>
+        <v>0.638522</v>
       </c>
       <c r="E83" t="n">
-        <v>0.232679</v>
+        <v>0.219676</v>
       </c>
       <c r="F83" t="n">
-        <v>0.449766</v>
+        <v>0.483501</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.339559</v>
+        <v>0.332814</v>
       </c>
       <c r="C84" t="n">
-        <v>0.716208</v>
+        <v>0.759192</v>
       </c>
       <c r="D84" t="n">
-        <v>0.607405</v>
+        <v>0.641441</v>
       </c>
       <c r="E84" t="n">
-        <v>0.231287</v>
+        <v>0.218239</v>
       </c>
       <c r="F84" t="n">
-        <v>0.447969</v>
+        <v>0.482385</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.332896</v>
+        <v>0.325417</v>
       </c>
       <c r="C85" t="n">
-        <v>0.669366</v>
+        <v>0.698783</v>
       </c>
       <c r="D85" t="n">
-        <v>0.610995</v>
+        <v>0.631934</v>
       </c>
       <c r="E85" t="n">
-        <v>0.231221</v>
+        <v>0.21694</v>
       </c>
       <c r="F85" t="n">
-        <v>0.446717</v>
+        <v>0.481126</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.324987</v>
+        <v>0.317775</v>
       </c>
       <c r="C86" t="n">
-        <v>0.700754</v>
+        <v>0.739773</v>
       </c>
       <c r="D86" t="n">
-        <v>0.606955</v>
+        <v>0.627175</v>
       </c>
       <c r="E86" t="n">
-        <v>0.229014</v>
+        <v>0.215862</v>
       </c>
       <c r="F86" t="n">
-        <v>0.445678</v>
+        <v>0.47966</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.317427</v>
+        <v>0.309599</v>
       </c>
       <c r="C87" t="n">
-        <v>0.595724</v>
+        <v>0.597725</v>
       </c>
       <c r="D87" t="n">
-        <v>0.615592</v>
+        <v>0.619286</v>
       </c>
       <c r="E87" t="n">
-        <v>0.222037</v>
+        <v>0.216286</v>
       </c>
       <c r="F87" t="n">
-        <v>0.447473</v>
+        <v>0.478361</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.30898</v>
+        <v>0.300747</v>
       </c>
       <c r="C88" t="n">
-        <v>0.593021</v>
+        <v>0.629363</v>
       </c>
       <c r="D88" t="n">
-        <v>0.609438</v>
+        <v>0.619335</v>
       </c>
       <c r="E88" t="n">
-        <v>0.227145</v>
+        <v>0.213432</v>
       </c>
       <c r="F88" t="n">
-        <v>0.446286</v>
+        <v>0.477564</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.300124</v>
+        <v>0.292056</v>
       </c>
       <c r="C89" t="n">
-        <v>0.685037</v>
+        <v>0.691087</v>
       </c>
       <c r="D89" t="n">
-        <v>0.607576</v>
+        <v>0.614225</v>
       </c>
       <c r="E89" t="n">
-        <v>0.220398</v>
+        <v>0.214036</v>
       </c>
       <c r="F89" t="n">
-        <v>0.44559</v>
+        <v>0.476403</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.289454</v>
+        <v>0.28232</v>
       </c>
       <c r="C90" t="n">
-        <v>0.566475</v>
+        <v>0.60063</v>
       </c>
       <c r="D90" t="n">
-        <v>0.604585</v>
+        <v>0.605401</v>
       </c>
       <c r="E90" t="n">
-        <v>0.234892</v>
+        <v>0.212914</v>
       </c>
       <c r="F90" t="n">
-        <v>0.444733</v>
+        <v>0.475565</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.278894</v>
+        <v>0.271276</v>
       </c>
       <c r="C91" t="n">
-        <v>0.57163</v>
+        <v>0.614733</v>
       </c>
       <c r="D91" t="n">
-        <v>0.599526</v>
+        <v>0.602986</v>
       </c>
       <c r="E91" t="n">
-        <v>0.246872</v>
+        <v>0.212495</v>
       </c>
       <c r="F91" t="n">
-        <v>0.444205</v>
+        <v>0.474666</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.267214</v>
+        <v>0.259717</v>
       </c>
       <c r="C92" t="n">
-        <v>0.497328</v>
+        <v>0.5067390000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>0.644582</v>
+        <v>0.637533</v>
       </c>
       <c r="E92" t="n">
-        <v>0.219406</v>
+        <v>0.211549</v>
       </c>
       <c r="F92" t="n">
-        <v>0.444209</v>
+        <v>0.473412</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.254496</v>
+        <v>0.246813</v>
       </c>
       <c r="C93" t="n">
-        <v>0.597928</v>
+        <v>0.63785</v>
       </c>
       <c r="D93" t="n">
-        <v>0.627717</v>
+        <v>0.6542519999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>0.219147</v>
+        <v>0.211721</v>
       </c>
       <c r="F93" t="n">
-        <v>0.443845</v>
+        <v>0.472765</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.240424</v>
+        <v>0.233264</v>
       </c>
       <c r="C94" t="n">
-        <v>0.572816</v>
+        <v>0.61781</v>
       </c>
       <c r="D94" t="n">
-        <v>0.629984</v>
+        <v>0.657211</v>
       </c>
       <c r="E94" t="n">
-        <v>0.239101</v>
+        <v>0.227237</v>
       </c>
       <c r="F94" t="n">
-        <v>0.459096</v>
+        <v>0.4885</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.359145</v>
+        <v>0.352094</v>
       </c>
       <c r="C95" t="n">
-        <v>0.758361</v>
+        <v>0.757896</v>
       </c>
       <c r="D95" t="n">
-        <v>0.634856</v>
+        <v>0.635319</v>
       </c>
       <c r="E95" t="n">
-        <v>0.238052</v>
+        <v>0.223698</v>
       </c>
       <c r="F95" t="n">
-        <v>0.457499</v>
+        <v>0.486843</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.353616</v>
+        <v>0.34701</v>
       </c>
       <c r="C96" t="n">
-        <v>0.712862</v>
+        <v>0.744362</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6308820000000001</v>
+        <v>0.6365229999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>0.236034</v>
+        <v>0.2217</v>
       </c>
       <c r="F96" t="n">
-        <v>0.457968</v>
+        <v>0.48549</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.34818</v>
+        <v>0.340429</v>
       </c>
       <c r="C97" t="n">
-        <v>0.733605</v>
+        <v>0.7736459999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>0.627763</v>
+        <v>0.628271</v>
       </c>
       <c r="E97" t="n">
-        <v>0.234392</v>
+        <v>0.219946</v>
       </c>
       <c r="F97" t="n">
-        <v>0.454017</v>
+        <v>0.483925</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.341047</v>
+        <v>0.33439</v>
       </c>
       <c r="C98" t="n">
-        <v>0.667435</v>
+        <v>0.693716</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6220560000000001</v>
+        <v>0.623626</v>
       </c>
       <c r="E98" t="n">
-        <v>0.230886</v>
+        <v>0.218356</v>
       </c>
       <c r="F98" t="n">
-        <v>0.452262</v>
+        <v>0.482582</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.334224</v>
+        <v>0.327501</v>
       </c>
       <c r="C99" t="n">
-        <v>0.672494</v>
+        <v>0.695401</v>
       </c>
       <c r="D99" t="n">
-        <v>0.610067</v>
+        <v>0.630589</v>
       </c>
       <c r="E99" t="n">
-        <v>0.232119</v>
+        <v>0.217151</v>
       </c>
       <c r="F99" t="n">
-        <v>0.45052</v>
+        <v>0.48115</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.326928</v>
+        <v>0.320165</v>
       </c>
       <c r="C100" t="n">
-        <v>0.573646</v>
+        <v>0.564719</v>
       </c>
       <c r="D100" t="n">
-        <v>0.605467</v>
+        <v>0.623312</v>
       </c>
       <c r="E100" t="n">
-        <v>0.23085</v>
+        <v>0.21585</v>
       </c>
       <c r="F100" t="n">
-        <v>0.449151</v>
+        <v>0.479804</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.31958</v>
+        <v>0.311802</v>
       </c>
       <c r="C101" t="n">
-        <v>0.601214</v>
+        <v>0.597761</v>
       </c>
       <c r="D101" t="n">
-        <v>0.601705</v>
+        <v>0.615648</v>
       </c>
       <c r="E101" t="n">
-        <v>0.22859</v>
+        <v>0.214599</v>
       </c>
       <c r="F101" t="n">
-        <v>0.44805</v>
+        <v>0.478546</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.310671</v>
+        <v>0.303776</v>
       </c>
       <c r="C102" t="n">
-        <v>0.642671</v>
+        <v>0.652859</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6020799999999999</v>
+        <v>0.599407</v>
       </c>
       <c r="E102" t="n">
-        <v>0.237515</v>
+        <v>0.215743</v>
       </c>
       <c r="F102" t="n">
-        <v>0.446859</v>
+        <v>0.477695</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.30216</v>
+        <v>0.294314</v>
       </c>
       <c r="C103" t="n">
-        <v>0.585201</v>
+        <v>0.60504</v>
       </c>
       <c r="D103" t="n">
-        <v>0.59712</v>
+        <v>0.594907</v>
       </c>
       <c r="E103" t="n">
-        <v>0.227301</v>
+        <v>0.212605</v>
       </c>
       <c r="F103" t="n">
-        <v>0.445715</v>
+        <v>0.476493</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.291915</v>
+        <v>0.284754</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5882849999999999</v>
+        <v>0.626094</v>
       </c>
       <c r="D104" t="n">
-        <v>0.590074</v>
+        <v>0.5940029999999999</v>
       </c>
       <c r="E104" t="n">
-        <v>0.235584</v>
+        <v>0.213668</v>
       </c>
       <c r="F104" t="n">
-        <v>0.445195</v>
+        <v>0.475514</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.281541</v>
+        <v>0.274464</v>
       </c>
       <c r="C105" t="n">
-        <v>0.590625</v>
+        <v>0.589064</v>
       </c>
       <c r="D105" t="n">
-        <v>0.586809</v>
+        <v>0.586025</v>
       </c>
       <c r="E105" t="n">
-        <v>0.228527</v>
+        <v>0.213335</v>
       </c>
       <c r="F105" t="n">
-        <v>0.444618</v>
+        <v>0.474824</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.270312</v>
+        <v>0.262543</v>
       </c>
       <c r="C106" t="n">
-        <v>0.60172</v>
+        <v>0.6545530000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.582771</v>
+        <v>0.582271</v>
       </c>
       <c r="E106" t="n">
-        <v>0.234431</v>
+        <v>0.212976</v>
       </c>
       <c r="F106" t="n">
-        <v>0.444583</v>
+        <v>0.473565</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.25797</v>
+        <v>0.249922</v>
       </c>
       <c r="C107" t="n">
-        <v>0.596035</v>
+        <v>0.6546</v>
       </c>
       <c r="D107" t="n">
-        <v>0.646147</v>
+        <v>0.634664</v>
       </c>
       <c r="E107" t="n">
-        <v>0.218508</v>
+        <v>0.210453</v>
       </c>
       <c r="F107" t="n">
-        <v>0.444329</v>
+        <v>0.472963</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.244058</v>
+        <v>0.236394</v>
       </c>
       <c r="C108" t="n">
-        <v>0.565011</v>
+        <v>0.587805</v>
       </c>
       <c r="D108" t="n">
-        <v>0.638907</v>
+        <v>0.631669</v>
       </c>
       <c r="E108" t="n">
-        <v>0.24166</v>
+        <v>0.226735</v>
       </c>
       <c r="F108" t="n">
-        <v>0.459846</v>
+        <v>0.489229</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.228569</v>
+        <v>0.220852</v>
       </c>
       <c r="C109" t="n">
-        <v>0.510483</v>
+        <v>0.516616</v>
       </c>
       <c r="D109" t="n">
-        <v>0.626796</v>
+        <v>0.648459</v>
       </c>
       <c r="E109" t="n">
-        <v>0.238383</v>
+        <v>0.223814</v>
       </c>
       <c r="F109" t="n">
-        <v>0.457796</v>
+        <v>0.487587</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355072</v>
+        <v>0.348027</v>
       </c>
       <c r="C110" t="n">
-        <v>0.700623</v>
+        <v>0.736722</v>
       </c>
       <c r="D110" t="n">
-        <v>0.621146</v>
+        <v>0.645249</v>
       </c>
       <c r="E110" t="n">
-        <v>0.236151</v>
+        <v>0.221831</v>
       </c>
       <c r="F110" t="n">
-        <v>0.455799</v>
+        <v>0.486033</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.349187</v>
+        <v>0.341918</v>
       </c>
       <c r="C111" t="n">
-        <v>0.639348</v>
+        <v>0.637734</v>
       </c>
       <c r="D111" t="n">
-        <v>0.617588</v>
+        <v>0.640411</v>
       </c>
       <c r="E111" t="n">
-        <v>0.236906</v>
+        <v>0.220468</v>
       </c>
       <c r="F111" t="n">
-        <v>0.453741</v>
+        <v>0.484536</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342909</v>
+        <v>0.335075</v>
       </c>
       <c r="C112" t="n">
-        <v>0.588646</v>
+        <v>0.585425</v>
       </c>
       <c r="D112" t="n">
-        <v>0.614019</v>
+        <v>0.635279</v>
       </c>
       <c r="E112" t="n">
-        <v>0.233466</v>
+        <v>0.218803</v>
       </c>
       <c r="F112" t="n">
-        <v>0.452146</v>
+        <v>0.483034</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.336019</v>
+        <v>0.328856</v>
       </c>
       <c r="C113" t="n">
-        <v>0.606259</v>
+        <v>0.604221</v>
       </c>
       <c r="D113" t="n">
-        <v>0.620444</v>
+        <v>0.612052</v>
       </c>
       <c r="E113" t="n">
-        <v>0.232875</v>
+        <v>0.217435</v>
       </c>
       <c r="F113" t="n">
-        <v>0.450915</v>
+        <v>0.481488</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.328322</v>
+        <v>0.32101</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6029099999999999</v>
+        <v>0.612056</v>
       </c>
       <c r="D114" t="n">
-        <v>0.613096</v>
+        <v>0.609438</v>
       </c>
       <c r="E114" t="n">
-        <v>0.23182</v>
+        <v>0.216366</v>
       </c>
       <c r="F114" t="n">
-        <v>0.44936</v>
+        <v>0.480342</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.320667</v>
+        <v>0.313642</v>
       </c>
       <c r="C115" t="n">
-        <v>0.584519</v>
+        <v>0.591181</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6070449999999999</v>
+        <v>0.603839</v>
       </c>
       <c r="E115" t="n">
-        <v>0.231689</v>
+        <v>0.215213</v>
       </c>
       <c r="F115" t="n">
-        <v>0.448154</v>
+        <v>0.479177</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.312572</v>
+        <v>0.304734</v>
       </c>
       <c r="C116" t="n">
-        <v>0.717984</v>
+        <v>0.702731</v>
       </c>
       <c r="D116" t="n">
-        <v>0.601351</v>
+        <v>0.59929</v>
       </c>
       <c r="E116" t="n">
-        <v>0.237702</v>
+        <v>0.215926</v>
       </c>
       <c r="F116" t="n">
-        <v>0.447014</v>
+        <v>0.477975</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.303259</v>
+        <v>0.295621</v>
       </c>
       <c r="C117" t="n">
-        <v>0.619549</v>
+        <v>0.622548</v>
       </c>
       <c r="D117" t="n">
-        <v>0.59179</v>
+        <v>0.602081</v>
       </c>
       <c r="E117" t="n">
-        <v>0.229002</v>
+        <v>0.213262</v>
       </c>
       <c r="F117" t="n">
-        <v>0.445824</v>
+        <v>0.477147</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.294208</v>
+        <v>0.28661</v>
       </c>
       <c r="C118" t="n">
-        <v>0.584071</v>
+        <v>0.59067</v>
       </c>
       <c r="D118" t="n">
-        <v>0.590936</v>
+        <v>0.589955</v>
       </c>
       <c r="E118" t="n">
-        <v>0.244597</v>
+        <v>0.214147</v>
       </c>
       <c r="F118" t="n">
-        <v>0.445245</v>
+        <v>0.475918</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.283399</v>
+        <v>0.276321</v>
       </c>
       <c r="C119" t="n">
-        <v>0.579153</v>
+        <v>0.589963</v>
       </c>
       <c r="D119" t="n">
-        <v>0.584249</v>
+        <v>0.58805</v>
       </c>
       <c r="E119" t="n">
-        <v>0.233458</v>
+        <v>0.213137</v>
       </c>
       <c r="F119" t="n">
-        <v>0.444586</v>
+        <v>0.475009</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.272465</v>
+        <v>0.265494</v>
       </c>
       <c r="C120" t="n">
-        <v>0.572576</v>
+        <v>0.58291</v>
       </c>
       <c r="D120" t="n">
-        <v>0.579804</v>
+        <v>0.579497</v>
       </c>
       <c r="E120" t="n">
-        <v>0.234027</v>
+        <v>0.212164</v>
       </c>
       <c r="F120" t="n">
-        <v>0.444496</v>
+        <v>0.474347</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.260366</v>
+        <v>0.253068</v>
       </c>
       <c r="C121" t="n">
-        <v>0.558433</v>
+        <v>0.550164</v>
       </c>
       <c r="D121" t="n">
-        <v>0.656732</v>
+        <v>0.656881</v>
       </c>
       <c r="E121" t="n">
-        <v>0.237345</v>
+        <v>0.211672</v>
       </c>
       <c r="F121" t="n">
-        <v>0.444471</v>
+        <v>0.473571</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.24696</v>
+        <v>0.239464</v>
       </c>
       <c r="C122" t="n">
-        <v>0.515079</v>
+        <v>0.530352</v>
       </c>
       <c r="D122" t="n">
-        <v>0.638721</v>
+        <v>0.674831</v>
       </c>
       <c r="E122" t="n">
-        <v>0.244481</v>
+        <v>0.210889</v>
       </c>
       <c r="F122" t="n">
-        <v>0.444013</v>
+        <v>0.472538</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232615</v>
+        <v>0.224641</v>
       </c>
       <c r="C123" t="n">
-        <v>0.546163</v>
+        <v>0.56415</v>
       </c>
       <c r="D123" t="n">
-        <v>0.651054</v>
+        <v>0.650084</v>
       </c>
       <c r="E123" t="n">
-        <v>0.252253</v>
+        <v>0.225265</v>
       </c>
       <c r="F123" t="n">
-        <v>0.458298</v>
+        <v>0.488052</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356869</v>
+        <v>0.348851</v>
       </c>
       <c r="C124" t="n">
-        <v>0.565904</v>
+        <v>0.571096</v>
       </c>
       <c r="D124" t="n">
-        <v>0.644531</v>
+        <v>0.647801</v>
       </c>
       <c r="E124" t="n">
-        <v>0.237199</v>
+        <v>0.221685</v>
       </c>
       <c r="F124" t="n">
-        <v>0.456465</v>
+        <v>0.486402</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350546</v>
+        <v>0.342954</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7464499999999999</v>
+        <v>0.679969</v>
       </c>
       <c r="D125" t="n">
-        <v>0.641839</v>
+        <v>0.639743</v>
       </c>
       <c r="E125" t="n">
-        <v>0.237824</v>
+        <v>0.219958</v>
       </c>
       <c r="F125" t="n">
-        <v>0.454691</v>
+        <v>0.484731</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.344706</v>
+        <v>0.336984</v>
       </c>
       <c r="C126" t="n">
-        <v>0.72926</v>
+        <v>0.727398</v>
       </c>
       <c r="D126" t="n">
-        <v>0.635655</v>
+        <v>0.635184</v>
       </c>
       <c r="E126" t="n">
-        <v>0.236593</v>
+        <v>0.218313</v>
       </c>
       <c r="F126" t="n">
-        <v>0.452949</v>
+        <v>0.483293</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.337639</v>
+        <v>0.330258</v>
       </c>
       <c r="C127" t="n">
-        <v>0.595921</v>
+        <v>0.595776</v>
       </c>
       <c r="D127" t="n">
-        <v>0.620214</v>
+        <v>0.643447</v>
       </c>
       <c r="E127" t="n">
-        <v>0.233676</v>
+        <v>0.217044</v>
       </c>
       <c r="F127" t="n">
-        <v>0.451319</v>
+        <v>0.481827</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.330073</v>
+        <v>0.323226</v>
       </c>
       <c r="C128" t="n">
-        <v>0.617182</v>
+        <v>0.622631</v>
       </c>
       <c r="D128" t="n">
-        <v>0.616246</v>
+        <v>0.634811</v>
       </c>
       <c r="E128" t="n">
-        <v>0.232085</v>
+        <v>0.215894</v>
       </c>
       <c r="F128" t="n">
-        <v>0.449977</v>
+        <v>0.480613</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.322148</v>
+        <v>0.315144</v>
       </c>
       <c r="C129" t="n">
-        <v>0.564544</v>
+        <v>0.561708</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6101799999999999</v>
+        <v>0.627672</v>
       </c>
       <c r="E129" t="n">
-        <v>0.233155</v>
+        <v>0.214775</v>
       </c>
       <c r="F129" t="n">
-        <v>0.448653</v>
+        <v>0.47926</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.313872</v>
+        <v>0.306866</v>
       </c>
       <c r="C130" t="n">
-        <v>0.570111</v>
+        <v>0.570222</v>
       </c>
       <c r="D130" t="n">
-        <v>0.605934</v>
+        <v>0.619443</v>
       </c>
       <c r="E130" t="n">
-        <v>0.230341</v>
+        <v>0.213868</v>
       </c>
       <c r="F130" t="n">
-        <v>0.447514</v>
+        <v>0.478423</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.305218</v>
+        <v>0.298119</v>
       </c>
       <c r="C131" t="n">
-        <v>0.56391</v>
+        <v>0.568619</v>
       </c>
       <c r="D131" t="n">
-        <v>0.603168</v>
+        <v>0.611833</v>
       </c>
       <c r="E131" t="n">
-        <v>0.229969</v>
+        <v>0.213045</v>
       </c>
       <c r="F131" t="n">
-        <v>0.446333</v>
+        <v>0.477245</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.296143</v>
+        <v>0.288419</v>
       </c>
       <c r="C132" t="n">
-        <v>0.670454</v>
+        <v>0.724193</v>
       </c>
       <c r="D132" t="n">
-        <v>0.598248</v>
+        <v>0.59798</v>
       </c>
       <c r="E132" t="n">
-        <v>0.248783</v>
+        <v>0.21355</v>
       </c>
       <c r="F132" t="n">
-        <v>0.445444</v>
+        <v>0.476504</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.28627</v>
+        <v>0.278283</v>
       </c>
       <c r="C133" t="n">
-        <v>0.601449</v>
+        <v>0.608276</v>
       </c>
       <c r="D133" t="n">
-        <v>0.59333</v>
+        <v>0.597283</v>
       </c>
       <c r="E133" t="n">
-        <v>0.233445</v>
+        <v>0.213374</v>
       </c>
       <c r="F133" t="n">
-        <v>0.444963</v>
+        <v>0.475008</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.274728</v>
+        <v>0.267276</v>
       </c>
       <c r="C134" t="n">
-        <v>0.588744</v>
+        <v>0.598988</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5870379999999999</v>
+        <v>0.587408</v>
       </c>
       <c r="E134" t="n">
-        <v>0.219231</v>
+        <v>0.212848</v>
       </c>
       <c r="F134" t="n">
-        <v>0.444416</v>
+        <v>0.474413</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.262558</v>
+        <v>0.254842</v>
       </c>
       <c r="C135" t="n">
-        <v>0.533492</v>
+        <v>0.527817</v>
       </c>
       <c r="D135" t="n">
-        <v>0.662348</v>
+        <v>0.665142</v>
       </c>
       <c r="E135" t="n">
-        <v>0.233573</v>
+        <v>0.211578</v>
       </c>
       <c r="F135" t="n">
-        <v>0.444441</v>
+        <v>0.473633</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.250134</v>
+        <v>0.242444</v>
       </c>
       <c r="C136" t="n">
-        <v>0.522764</v>
+        <v>0.521203</v>
       </c>
       <c r="D136" t="n">
-        <v>0.642319</v>
+        <v>0.687343</v>
       </c>
       <c r="E136" t="n">
-        <v>0.233066</v>
+        <v>0.211018</v>
       </c>
       <c r="F136" t="n">
-        <v>0.444278</v>
+        <v>0.473065</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235556</v>
+        <v>0.227915</v>
       </c>
       <c r="C137" t="n">
-        <v>0.498534</v>
+        <v>0.510568</v>
       </c>
       <c r="D137" t="n">
-        <v>0.659345</v>
+        <v>0.655134</v>
       </c>
       <c r="E137" t="n">
-        <v>0.260787</v>
+        <v>0.225812</v>
       </c>
       <c r="F137" t="n">
-        <v>0.458794</v>
+        <v>0.488609</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.358593</v>
+        <v>0.350337</v>
       </c>
       <c r="C138" t="n">
-        <v>0.65064</v>
+        <v>0.668676</v>
       </c>
       <c r="D138" t="n">
-        <v>0.639424</v>
+        <v>0.671708</v>
       </c>
       <c r="E138" t="n">
-        <v>0.237778</v>
+        <v>0.222212</v>
       </c>
       <c r="F138" t="n">
-        <v>0.456681</v>
+        <v>0.487079</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.352763</v>
+        <v>0.34404</v>
       </c>
       <c r="C139" t="n">
-        <v>0.608495</v>
+        <v>0.628431</v>
       </c>
       <c r="D139" t="n">
-        <v>0.634568</v>
+        <v>0.663243</v>
       </c>
       <c r="E139" t="n">
-        <v>0.237203</v>
+        <v>0.220511</v>
       </c>
       <c r="F139" t="n">
-        <v>0.454828</v>
+        <v>0.485468</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.346229</v>
+        <v>0.338215</v>
       </c>
       <c r="C140" t="n">
-        <v>0.639911</v>
+        <v>0.679359</v>
       </c>
       <c r="D140" t="n">
-        <v>0.631765</v>
+        <v>0.656045</v>
       </c>
       <c r="E140" t="n">
-        <v>0.238659</v>
+        <v>0.219</v>
       </c>
       <c r="F140" t="n">
-        <v>0.45319</v>
+        <v>0.483706</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.339163</v>
+        <v>0.331554</v>
       </c>
       <c r="C141" t="n">
-        <v>0.59406</v>
+        <v>0.619521</v>
       </c>
       <c r="D141" t="n">
-        <v>0.636479</v>
+        <v>0.633069</v>
       </c>
       <c r="E141" t="n">
-        <v>0.239105</v>
+        <v>0.217855</v>
       </c>
       <c r="F141" t="n">
-        <v>0.451641</v>
+        <v>0.482299</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.333328</v>
+        <v>0.324373</v>
       </c>
       <c r="C142" t="n">
-        <v>0.572743</v>
+        <v>0.586575</v>
       </c>
       <c r="D142" t="n">
-        <v>0.628772</v>
+        <v>0.631055</v>
       </c>
       <c r="E142" t="n">
-        <v>0.232898</v>
+        <v>0.216698</v>
       </c>
       <c r="F142" t="n">
-        <v>0.450052</v>
+        <v>0.481185</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.325233</v>
+        <v>0.316463</v>
       </c>
       <c r="C143" t="n">
-        <v>0.623072</v>
+        <v>0.638957</v>
       </c>
       <c r="D143" t="n">
-        <v>0.622481</v>
+        <v>0.623102</v>
       </c>
       <c r="E143" t="n">
-        <v>0.230978</v>
+        <v>0.215666</v>
       </c>
       <c r="F143" t="n">
-        <v>0.448789</v>
+        <v>0.480192</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.306067</v>
+        <v>0.298808</v>
       </c>
       <c r="C2" t="n">
-        <v>0.507233</v>
+        <v>0.506692</v>
       </c>
       <c r="D2" t="n">
-        <v>0.421132</v>
+        <v>0.412777</v>
       </c>
       <c r="E2" t="n">
-        <v>0.195118</v>
+        <v>0.188383</v>
       </c>
       <c r="F2" t="n">
-        <v>0.438061</v>
+        <v>0.443744</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.29674</v>
+        <v>0.288283</v>
       </c>
       <c r="C3" t="n">
-        <v>0.506038</v>
+        <v>0.501349</v>
       </c>
       <c r="D3" t="n">
-        <v>0.423251</v>
+        <v>0.410019</v>
       </c>
       <c r="E3" t="n">
-        <v>0.205844</v>
+        <v>0.189206</v>
       </c>
       <c r="F3" t="n">
-        <v>0.437845</v>
+        <v>0.444444</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.28715</v>
+        <v>0.278398</v>
       </c>
       <c r="C4" t="n">
-        <v>0.492411</v>
+        <v>0.48833</v>
       </c>
       <c r="D4" t="n">
-        <v>0.424878</v>
+        <v>0.412261</v>
       </c>
       <c r="E4" t="n">
-        <v>0.217056</v>
+        <v>0.191514</v>
       </c>
       <c r="F4" t="n">
-        <v>0.434018</v>
+        <v>0.44283</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.277282</v>
+        <v>0.269923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.483968</v>
+        <v>0.483792</v>
       </c>
       <c r="D5" t="n">
-        <v>0.42218</v>
+        <v>0.412899</v>
       </c>
       <c r="E5" t="n">
-        <v>0.215554</v>
+        <v>0.191428</v>
       </c>
       <c r="F5" t="n">
-        <v>0.435577</v>
+        <v>0.44134</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.263738</v>
+        <v>0.25757</v>
       </c>
       <c r="C6" t="n">
-        <v>0.473678</v>
+        <v>0.472618</v>
       </c>
       <c r="D6" t="n">
-        <v>0.424403</v>
+        <v>0.41485</v>
       </c>
       <c r="E6" t="n">
-        <v>0.215516</v>
+        <v>0.194883</v>
       </c>
       <c r="F6" t="n">
-        <v>0.435228</v>
+        <v>0.441465</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.253144</v>
+        <v>0.244759</v>
       </c>
       <c r="C7" t="n">
-        <v>0.462446</v>
+        <v>0.462169</v>
       </c>
       <c r="D7" t="n">
-        <v>0.418593</v>
+        <v>0.412804</v>
       </c>
       <c r="E7" t="n">
-        <v>0.219323</v>
+        <v>0.195825</v>
       </c>
       <c r="F7" t="n">
-        <v>0.433829</v>
+        <v>0.44072</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.24292</v>
+        <v>0.23252</v>
       </c>
       <c r="C8" t="n">
-        <v>0.443706</v>
+        <v>0.443633</v>
       </c>
       <c r="D8" t="n">
-        <v>0.420944</v>
+        <v>0.411828</v>
       </c>
       <c r="E8" t="n">
-        <v>0.219583</v>
+        <v>0.196447</v>
       </c>
       <c r="F8" t="n">
-        <v>0.434078</v>
+        <v>0.4401</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.226379</v>
+        <v>0.217828</v>
       </c>
       <c r="C9" t="n">
-        <v>0.432832</v>
+        <v>0.433344</v>
       </c>
       <c r="D9" t="n">
-        <v>0.420356</v>
+        <v>0.413421</v>
       </c>
       <c r="E9" t="n">
-        <v>0.235845</v>
+        <v>0.210994</v>
       </c>
       <c r="F9" t="n">
-        <v>0.448911</v>
+        <v>0.457792</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.351562</v>
+        <v>0.344607</v>
       </c>
       <c r="C10" t="n">
-        <v>0.553217</v>
+        <v>0.552686</v>
       </c>
       <c r="D10" t="n">
-        <v>0.420242</v>
+        <v>0.413055</v>
       </c>
       <c r="E10" t="n">
-        <v>0.220185</v>
+        <v>0.212689</v>
       </c>
       <c r="F10" t="n">
-        <v>0.449246</v>
+        <v>0.456449</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.345524</v>
+        <v>0.338057</v>
       </c>
       <c r="C11" t="n">
-        <v>0.550604</v>
+        <v>0.550439</v>
       </c>
       <c r="D11" t="n">
-        <v>0.42241</v>
+        <v>0.412828</v>
       </c>
       <c r="E11" t="n">
-        <v>0.219174</v>
+        <v>0.211221</v>
       </c>
       <c r="F11" t="n">
-        <v>0.449992</v>
+        <v>0.455173</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.342008</v>
+        <v>0.333546</v>
       </c>
       <c r="C12" t="n">
-        <v>0.547091</v>
+        <v>0.547004</v>
       </c>
       <c r="D12" t="n">
-        <v>0.421526</v>
+        <v>0.413074</v>
       </c>
       <c r="E12" t="n">
-        <v>0.220208</v>
+        <v>0.211055</v>
       </c>
       <c r="F12" t="n">
-        <v>0.447233</v>
+        <v>0.454544</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.332861</v>
+        <v>0.325216</v>
       </c>
       <c r="C13" t="n">
-        <v>0.541168</v>
+        <v>0.541153</v>
       </c>
       <c r="D13" t="n">
-        <v>0.422313</v>
+        <v>0.413462</v>
       </c>
       <c r="E13" t="n">
-        <v>0.218843</v>
+        <v>0.210902</v>
       </c>
       <c r="F13" t="n">
-        <v>0.446291</v>
+        <v>0.453512</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.327336</v>
+        <v>0.319402</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5340009999999999</v>
+        <v>0.533253</v>
       </c>
       <c r="D14" t="n">
-        <v>0.42396</v>
+        <v>0.416173</v>
       </c>
       <c r="E14" t="n">
-        <v>0.219234</v>
+        <v>0.211051</v>
       </c>
       <c r="F14" t="n">
-        <v>0.443406</v>
+        <v>0.450206</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.320536</v>
+        <v>0.312782</v>
       </c>
       <c r="C15" t="n">
-        <v>0.527021</v>
+        <v>0.526585</v>
       </c>
       <c r="D15" t="n">
-        <v>0.423767</v>
+        <v>0.416782</v>
       </c>
       <c r="E15" t="n">
-        <v>0.234323</v>
+        <v>0.210118</v>
       </c>
       <c r="F15" t="n">
-        <v>0.443436</v>
+        <v>0.449405</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.312176</v>
+        <v>0.305134</v>
       </c>
       <c r="C16" t="n">
-        <v>0.518384</v>
+        <v>0.518209</v>
       </c>
       <c r="D16" t="n">
-        <v>0.425385</v>
+        <v>0.417849</v>
       </c>
       <c r="E16" t="n">
-        <v>0.219083</v>
+        <v>0.209874</v>
       </c>
       <c r="F16" t="n">
-        <v>0.442998</v>
+        <v>0.448903</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.304322</v>
+        <v>0.297693</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5122370000000001</v>
+        <v>0.511818</v>
       </c>
       <c r="D17" t="n">
-        <v>0.427721</v>
+        <v>0.418713</v>
       </c>
       <c r="E17" t="n">
-        <v>0.233776</v>
+        <v>0.209765</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4423</v>
+        <v>0.448319</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.293847</v>
+        <v>0.287097</v>
       </c>
       <c r="C18" t="n">
-        <v>0.50142</v>
+        <v>0.501165</v>
       </c>
       <c r="D18" t="n">
-        <v>0.429317</v>
+        <v>0.420121</v>
       </c>
       <c r="E18" t="n">
-        <v>0.215801</v>
+        <v>0.208264</v>
       </c>
       <c r="F18" t="n">
-        <v>0.439241</v>
+        <v>0.445104</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.283186</v>
+        <v>0.276368</v>
       </c>
       <c r="C19" t="n">
-        <v>0.490914</v>
+        <v>0.490678</v>
       </c>
       <c r="D19" t="n">
-        <v>0.430708</v>
+        <v>0.420915</v>
       </c>
       <c r="E19" t="n">
-        <v>0.216104</v>
+        <v>0.208226</v>
       </c>
       <c r="F19" t="n">
-        <v>0.439595</v>
+        <v>0.445601</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.273339</v>
+        <v>0.266614</v>
       </c>
       <c r="C20" t="n">
-        <v>0.479402</v>
+        <v>0.47976</v>
       </c>
       <c r="D20" t="n">
-        <v>0.430473</v>
+        <v>0.420236</v>
       </c>
       <c r="E20" t="n">
-        <v>0.216604</v>
+        <v>0.208068</v>
       </c>
       <c r="F20" t="n">
-        <v>0.439313</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.262964</v>
+        <v>0.256552</v>
       </c>
       <c r="C21" t="n">
-        <v>0.462699</v>
+        <v>0.462462</v>
       </c>
       <c r="D21" t="n">
-        <v>0.424299</v>
+        <v>0.417686</v>
       </c>
       <c r="E21" t="n">
-        <v>0.21512</v>
+        <v>0.206605</v>
       </c>
       <c r="F21" t="n">
-        <v>0.438441</v>
+        <v>0.444769</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248808</v>
+        <v>0.242213</v>
       </c>
       <c r="C22" t="n">
-        <v>0.456161</v>
+        <v>0.455954</v>
       </c>
       <c r="D22" t="n">
-        <v>0.425374</v>
+        <v>0.417721</v>
       </c>
       <c r="E22" t="n">
-        <v>0.21618</v>
+        <v>0.206813</v>
       </c>
       <c r="F22" t="n">
-        <v>0.438631</v>
+        <v>0.444151</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.23495</v>
+        <v>0.227125</v>
       </c>
       <c r="C23" t="n">
-        <v>0.435405</v>
+        <v>0.435453</v>
       </c>
       <c r="D23" t="n">
-        <v>0.426984</v>
+        <v>0.41878</v>
       </c>
       <c r="E23" t="n">
-        <v>0.247137</v>
+        <v>0.224834</v>
       </c>
       <c r="F23" t="n">
-        <v>0.454694</v>
+        <v>0.461738</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.355974</v>
+        <v>0.348476</v>
       </c>
       <c r="C24" t="n">
-        <v>0.555665</v>
+        <v>0.555938</v>
       </c>
       <c r="D24" t="n">
-        <v>0.426518</v>
+        <v>0.418913</v>
       </c>
       <c r="E24" t="n">
-        <v>0.244979</v>
+        <v>0.222463</v>
       </c>
       <c r="F24" t="n">
-        <v>0.451889</v>
+        <v>0.460012</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.350524</v>
+        <v>0.342497</v>
       </c>
       <c r="C25" t="n">
-        <v>0.553266</v>
+        <v>0.5533670000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.427929</v>
+        <v>0.420353</v>
       </c>
       <c r="E25" t="n">
-        <v>0.256639</v>
+        <v>0.218913</v>
       </c>
       <c r="F25" t="n">
-        <v>0.450091</v>
+        <v>0.459154</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.344269</v>
+        <v>0.337241</v>
       </c>
       <c r="C26" t="n">
-        <v>0.547397</v>
+        <v>0.547735</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4277</v>
+        <v>0.420267</v>
       </c>
       <c r="E26" t="n">
-        <v>0.226076</v>
+        <v>0.218046</v>
       </c>
       <c r="F26" t="n">
-        <v>0.449682</v>
+        <v>0.456867</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.339022</v>
+        <v>0.331305</v>
       </c>
       <c r="C27" t="n">
-        <v>0.540594</v>
+        <v>0.54059</v>
       </c>
       <c r="D27" t="n">
-        <v>0.429134</v>
+        <v>0.420709</v>
       </c>
       <c r="E27" t="n">
-        <v>0.22546</v>
+        <v>0.216726</v>
       </c>
       <c r="F27" t="n">
-        <v>0.446791</v>
+        <v>0.455084</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.331456</v>
+        <v>0.324438</v>
       </c>
       <c r="C28" t="n">
-        <v>0.531946</v>
+        <v>0.53285</v>
       </c>
       <c r="D28" t="n">
-        <v>0.429076</v>
+        <v>0.421246</v>
       </c>
       <c r="E28" t="n">
-        <v>0.238767</v>
+        <v>0.215941</v>
       </c>
       <c r="F28" t="n">
-        <v>0.446781</v>
+        <v>0.454567</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.323602</v>
+        <v>0.317001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.532497</v>
+        <v>0.532355</v>
       </c>
       <c r="D29" t="n">
-        <v>0.429634</v>
+        <v>0.421317</v>
       </c>
       <c r="E29" t="n">
-        <v>0.222284</v>
+        <v>0.214822</v>
       </c>
       <c r="F29" t="n">
-        <v>0.444391</v>
+        <v>0.452892</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.315096</v>
+        <v>0.308607</v>
       </c>
       <c r="C30" t="n">
-        <v>0.521379</v>
+        <v>0.52154</v>
       </c>
       <c r="D30" t="n">
-        <v>0.430843</v>
+        <v>0.422461</v>
       </c>
       <c r="E30" t="n">
-        <v>0.221135</v>
+        <v>0.213754</v>
       </c>
       <c r="F30" t="n">
-        <v>0.443997</v>
+        <v>0.452133</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.307135</v>
+        <v>0.300932</v>
       </c>
       <c r="C31" t="n">
-        <v>0.506593</v>
+        <v>0.505691</v>
       </c>
       <c r="D31" t="n">
-        <v>0.432898</v>
+        <v>0.422138</v>
       </c>
       <c r="E31" t="n">
-        <v>0.220841</v>
+        <v>0.212694</v>
       </c>
       <c r="F31" t="n">
-        <v>0.442282</v>
+        <v>0.450066</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.297721</v>
+        <v>0.290934</v>
       </c>
       <c r="C32" t="n">
-        <v>0.50623</v>
+        <v>0.505843</v>
       </c>
       <c r="D32" t="n">
-        <v>0.433458</v>
+        <v>0.423267</v>
       </c>
       <c r="E32" t="n">
-        <v>0.219929</v>
+        <v>0.212236</v>
       </c>
       <c r="F32" t="n">
-        <v>0.440802</v>
+        <v>0.44856</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.288769</v>
+        <v>0.282753</v>
       </c>
       <c r="C33" t="n">
-        <v>0.491855</v>
+        <v>0.491612</v>
       </c>
       <c r="D33" t="n">
-        <v>0.433962</v>
+        <v>0.423804</v>
       </c>
       <c r="E33" t="n">
-        <v>0.219525</v>
+        <v>0.212508</v>
       </c>
       <c r="F33" t="n">
-        <v>0.440695</v>
+        <v>0.448211</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.278191</v>
+        <v>0.271331</v>
       </c>
       <c r="C34" t="n">
-        <v>0.478133</v>
+        <v>0.477767</v>
       </c>
       <c r="D34" t="n">
-        <v>0.435487</v>
+        <v>0.42492</v>
       </c>
       <c r="E34" t="n">
-        <v>0.219489</v>
+        <v>0.21151</v>
       </c>
       <c r="F34" t="n">
-        <v>0.440285</v>
+        <v>0.448032</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.266191</v>
+        <v>0.259083</v>
       </c>
       <c r="C35" t="n">
-        <v>0.468009</v>
+        <v>0.467803</v>
       </c>
       <c r="D35" t="n">
-        <v>0.432048</v>
+        <v>0.425419</v>
       </c>
       <c r="E35" t="n">
-        <v>0.234457</v>
+        <v>0.210781</v>
       </c>
       <c r="F35" t="n">
-        <v>0.440029</v>
+        <v>0.447683</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.254145</v>
+        <v>0.247005</v>
       </c>
       <c r="C36" t="n">
-        <v>0.454508</v>
+        <v>0.453988</v>
       </c>
       <c r="D36" t="n">
-        <v>0.432262</v>
+        <v>0.426287</v>
       </c>
       <c r="E36" t="n">
-        <v>0.220858</v>
+        <v>0.208903</v>
       </c>
       <c r="F36" t="n">
-        <v>0.440289</v>
+        <v>0.445761</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.240171</v>
+        <v>0.2324</v>
       </c>
       <c r="C37" t="n">
-        <v>0.449608</v>
+        <v>0.449487</v>
       </c>
       <c r="D37" t="n">
-        <v>0.433049</v>
+        <v>0.426385</v>
       </c>
       <c r="E37" t="n">
-        <v>0.234607</v>
+        <v>0.225447</v>
       </c>
       <c r="F37" t="n">
-        <v>0.454768</v>
+        <v>0.460958</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.357993</v>
+        <v>0.350685</v>
       </c>
       <c r="C38" t="n">
-        <v>0.555253</v>
+        <v>0.554915</v>
       </c>
       <c r="D38" t="n">
-        <v>0.432702</v>
+        <v>0.425281</v>
       </c>
       <c r="E38" t="n">
-        <v>0.230491</v>
+        <v>0.22244</v>
       </c>
       <c r="F38" t="n">
-        <v>0.452478</v>
+        <v>0.459768</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.35316</v>
+        <v>0.345738</v>
       </c>
       <c r="C39" t="n">
-        <v>0.550766</v>
+        <v>0.550915</v>
       </c>
       <c r="D39" t="n">
-        <v>0.432178</v>
+        <v>0.425175</v>
       </c>
       <c r="E39" t="n">
-        <v>0.227704</v>
+        <v>0.219418</v>
       </c>
       <c r="F39" t="n">
-        <v>0.45073</v>
+        <v>0.457072</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.347378</v>
+        <v>0.340265</v>
       </c>
       <c r="C40" t="n">
-        <v>0.545557</v>
+        <v>0.545316</v>
       </c>
       <c r="D40" t="n">
-        <v>0.432654</v>
+        <v>0.425219</v>
       </c>
       <c r="E40" t="n">
-        <v>0.226853</v>
+        <v>0.218839</v>
       </c>
       <c r="F40" t="n">
-        <v>0.449602</v>
+        <v>0.456884</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.341203</v>
+        <v>0.334525</v>
       </c>
       <c r="C41" t="n">
-        <v>0.538771</v>
+        <v>0.538588</v>
       </c>
       <c r="D41" t="n">
-        <v>0.432295</v>
+        <v>0.423818</v>
       </c>
       <c r="E41" t="n">
-        <v>0.225537</v>
+        <v>0.217342</v>
       </c>
       <c r="F41" t="n">
-        <v>0.448431</v>
+        <v>0.455243</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.333895</v>
+        <v>0.345926</v>
       </c>
       <c r="C42" t="n">
-        <v>0.534544</v>
+        <v>0.535411</v>
       </c>
       <c r="D42" t="n">
-        <v>0.43196</v>
+        <v>0.424807</v>
       </c>
       <c r="E42" t="n">
-        <v>0.22395</v>
+        <v>0.216053</v>
       </c>
       <c r="F42" t="n">
-        <v>0.446641</v>
+        <v>0.454257</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.326435</v>
+        <v>0.319461</v>
       </c>
       <c r="C43" t="n">
-        <v>0.52694</v>
+        <v>0.52644</v>
       </c>
       <c r="D43" t="n">
-        <v>0.433471</v>
+        <v>0.423984</v>
       </c>
       <c r="E43" t="n">
-        <v>0.223337</v>
+        <v>0.214378</v>
       </c>
       <c r="F43" t="n">
-        <v>0.445238</v>
+        <v>0.452427</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.319343</v>
+        <v>0.311818</v>
       </c>
       <c r="C44" t="n">
-        <v>0.522638</v>
+        <v>0.522322</v>
       </c>
       <c r="D44" t="n">
-        <v>0.434341</v>
+        <v>0.424461</v>
       </c>
       <c r="E44" t="n">
-        <v>0.222335</v>
+        <v>0.213948</v>
       </c>
       <c r="F44" t="n">
-        <v>0.444083</v>
+        <v>0.451082</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.310746</v>
+        <v>0.303272</v>
       </c>
       <c r="C45" t="n">
-        <v>0.511251</v>
+        <v>0.511086</v>
       </c>
       <c r="D45" t="n">
-        <v>0.434708</v>
+        <v>0.425994</v>
       </c>
       <c r="E45" t="n">
-        <v>0.221313</v>
+        <v>0.212906</v>
       </c>
       <c r="F45" t="n">
-        <v>0.442573</v>
+        <v>0.450541</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.301953</v>
+        <v>0.29461</v>
       </c>
       <c r="C46" t="n">
-        <v>0.506641</v>
+        <v>0.508521</v>
       </c>
       <c r="D46" t="n">
-        <v>0.43603</v>
+        <v>0.426097</v>
       </c>
       <c r="E46" t="n">
-        <v>0.220079</v>
+        <v>0.211949</v>
       </c>
       <c r="F46" t="n">
-        <v>0.442071</v>
+        <v>0.449604</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.291472</v>
+        <v>0.284534</v>
       </c>
       <c r="C47" t="n">
-        <v>0.497505</v>
+        <v>0.497618</v>
       </c>
       <c r="D47" t="n">
-        <v>0.43641</v>
+        <v>0.426752</v>
       </c>
       <c r="E47" t="n">
-        <v>0.220206</v>
+        <v>0.211633</v>
       </c>
       <c r="F47" t="n">
-        <v>0.441277</v>
+        <v>0.448509</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.281786</v>
+        <v>0.274853</v>
       </c>
       <c r="C48" t="n">
-        <v>0.486522</v>
+        <v>0.486401</v>
       </c>
       <c r="D48" t="n">
-        <v>0.437884</v>
+        <v>0.427165</v>
       </c>
       <c r="E48" t="n">
-        <v>0.219502</v>
+        <v>0.20896</v>
       </c>
       <c r="F48" t="n">
-        <v>0.441037</v>
+        <v>0.447329</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.270637</v>
+        <v>0.262888</v>
       </c>
       <c r="C49" t="n">
-        <v>0.470771</v>
+        <v>0.470541</v>
       </c>
       <c r="D49" t="n">
-        <v>0.438689</v>
+        <v>0.428224</v>
       </c>
       <c r="E49" t="n">
-        <v>0.218755</v>
+        <v>0.209323</v>
       </c>
       <c r="F49" t="n">
-        <v>0.441025</v>
+        <v>0.44661</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.257101</v>
+        <v>0.249522</v>
       </c>
       <c r="C50" t="n">
-        <v>0.463986</v>
+        <v>0.463499</v>
       </c>
       <c r="D50" t="n">
-        <v>0.43872</v>
+        <v>0.43106</v>
       </c>
       <c r="E50" t="n">
-        <v>0.218485</v>
+        <v>0.208691</v>
       </c>
       <c r="F50" t="n">
-        <v>0.440705</v>
+        <v>0.445859</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.243749</v>
+        <v>0.236542</v>
       </c>
       <c r="C51" t="n">
-        <v>0.448185</v>
+        <v>0.445948</v>
       </c>
       <c r="D51" t="n">
-        <v>0.437899</v>
+        <v>0.431705</v>
       </c>
       <c r="E51" t="n">
-        <v>0.257677</v>
+        <v>0.225102</v>
       </c>
       <c r="F51" t="n">
-        <v>0.455968</v>
+        <v>0.462515</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.228999</v>
+        <v>0.221194</v>
       </c>
       <c r="C52" t="n">
-        <v>0.43348</v>
+        <v>0.433541</v>
       </c>
       <c r="D52" t="n">
-        <v>0.437388</v>
+        <v>0.433231</v>
       </c>
       <c r="E52" t="n">
-        <v>0.246849</v>
+        <v>0.220278</v>
       </c>
       <c r="F52" t="n">
-        <v>0.454226</v>
+        <v>0.461704</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.354676</v>
+        <v>0.347479</v>
       </c>
       <c r="C53" t="n">
-        <v>0.557912</v>
+        <v>0.560242</v>
       </c>
       <c r="D53" t="n">
-        <v>0.438724</v>
+        <v>0.432762</v>
       </c>
       <c r="E53" t="n">
-        <v>0.229216</v>
+        <v>0.220151</v>
       </c>
       <c r="F53" t="n">
-        <v>0.451926</v>
+        <v>0.459782</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.349511</v>
+        <v>0.341953</v>
       </c>
       <c r="C54" t="n">
-        <v>0.552605</v>
+        <v>0.552884</v>
       </c>
       <c r="D54" t="n">
-        <v>0.439103</v>
+        <v>0.433108</v>
       </c>
       <c r="E54" t="n">
-        <v>0.227825</v>
+        <v>0.218472</v>
       </c>
       <c r="F54" t="n">
-        <v>0.450223</v>
+        <v>0.457339</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.343358</v>
+        <v>0.33635</v>
       </c>
       <c r="C55" t="n">
-        <v>0.552316</v>
+        <v>0.552931</v>
       </c>
       <c r="D55" t="n">
-        <v>0.439531</v>
+        <v>0.431375</v>
       </c>
       <c r="E55" t="n">
-        <v>0.227007</v>
+        <v>0.216999</v>
       </c>
       <c r="F55" t="n">
-        <v>0.448816</v>
+        <v>0.455747</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.336288</v>
+        <v>0.32898</v>
       </c>
       <c r="C56" t="n">
-        <v>0.545589</v>
+        <v>0.545789</v>
       </c>
       <c r="D56" t="n">
-        <v>0.442759</v>
+        <v>0.435575</v>
       </c>
       <c r="E56" t="n">
-        <v>0.225184</v>
+        <v>0.215871</v>
       </c>
       <c r="F56" t="n">
-        <v>0.446693</v>
+        <v>0.454822</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.328264</v>
+        <v>0.321755</v>
       </c>
       <c r="C57" t="n">
-        <v>0.549889</v>
+        <v>0.550199</v>
       </c>
       <c r="D57" t="n">
-        <v>0.443666</v>
+        <v>0.438933</v>
       </c>
       <c r="E57" t="n">
-        <v>0.224039</v>
+        <v>0.214932</v>
       </c>
       <c r="F57" t="n">
-        <v>0.445735</v>
+        <v>0.453383</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.321174</v>
+        <v>0.313348</v>
       </c>
       <c r="C58" t="n">
-        <v>0.549763</v>
+        <v>0.5479810000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.446316</v>
+        <v>0.435374</v>
       </c>
       <c r="E58" t="n">
-        <v>0.224007</v>
+        <v>0.21415</v>
       </c>
       <c r="F58" t="n">
-        <v>0.444542</v>
+        <v>0.451853</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.313408</v>
+        <v>0.305626</v>
       </c>
       <c r="C59" t="n">
-        <v>0.548049</v>
+        <v>0.544867</v>
       </c>
       <c r="D59" t="n">
-        <v>0.446292</v>
+        <v>0.438798</v>
       </c>
       <c r="E59" t="n">
-        <v>0.222341</v>
+        <v>0.213244</v>
       </c>
       <c r="F59" t="n">
-        <v>0.443198</v>
+        <v>0.450891</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.30384</v>
+        <v>0.296347</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5179510000000001</v>
+        <v>0.5176770000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.451566</v>
+        <v>0.442783</v>
       </c>
       <c r="E60" t="n">
-        <v>0.221668</v>
+        <v>0.212391</v>
       </c>
       <c r="F60" t="n">
-        <v>0.443136</v>
+        <v>0.450362</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.294672</v>
+        <v>0.287176</v>
       </c>
       <c r="C61" t="n">
-        <v>0.545999</v>
+        <v>0.541749</v>
       </c>
       <c r="D61" t="n">
-        <v>0.454026</v>
+        <v>0.443005</v>
       </c>
       <c r="E61" t="n">
-        <v>0.235061</v>
+        <v>0.211797</v>
       </c>
       <c r="F61" t="n">
-        <v>0.44193</v>
+        <v>0.448833</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.284351</v>
+        <v>0.277179</v>
       </c>
       <c r="C62" t="n">
-        <v>0.506702</v>
+        <v>0.5089939999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.458282</v>
+        <v>0.44859</v>
       </c>
       <c r="E62" t="n">
-        <v>0.220399</v>
+        <v>0.211052</v>
       </c>
       <c r="F62" t="n">
-        <v>0.441274</v>
+        <v>0.447703</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.273459</v>
+        <v>0.265445</v>
       </c>
       <c r="C63" t="n">
-        <v>0.526907</v>
+        <v>0.523111</v>
       </c>
       <c r="D63" t="n">
-        <v>0.461203</v>
+        <v>0.448088</v>
       </c>
       <c r="E63" t="n">
-        <v>0.233857</v>
+        <v>0.210568</v>
       </c>
       <c r="F63" t="n">
-        <v>0.44077</v>
+        <v>0.446815</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.261438</v>
+        <v>0.253693</v>
       </c>
       <c r="C64" t="n">
-        <v>0.505038</v>
+        <v>0.4993</v>
       </c>
       <c r="D64" t="n">
-        <v>0.496446</v>
+        <v>0.490092</v>
       </c>
       <c r="E64" t="n">
-        <v>0.218402</v>
+        <v>0.210323</v>
       </c>
       <c r="F64" t="n">
-        <v>0.440613</v>
+        <v>0.446166</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.247621</v>
+        <v>0.240107</v>
       </c>
       <c r="C65" t="n">
-        <v>0.494754</v>
+        <v>0.494405</v>
       </c>
       <c r="D65" t="n">
-        <v>0.498652</v>
+        <v>0.488768</v>
       </c>
       <c r="E65" t="n">
-        <v>0.232902</v>
+        <v>0.209813</v>
       </c>
       <c r="F65" t="n">
-        <v>0.440305</v>
+        <v>0.445363</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.233755</v>
+        <v>0.225751</v>
       </c>
       <c r="C66" t="n">
-        <v>0.47368</v>
+        <v>0.477407</v>
       </c>
       <c r="D66" t="n">
-        <v>0.504701</v>
+        <v>0.503121</v>
       </c>
       <c r="E66" t="n">
-        <v>0.233561</v>
+        <v>0.222369</v>
       </c>
       <c r="F66" t="n">
-        <v>0.454796</v>
+        <v>0.46526</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.356239</v>
+        <v>0.349362</v>
       </c>
       <c r="C67" t="n">
-        <v>0.642048</v>
+        <v>0.645003</v>
       </c>
       <c r="D67" t="n">
-        <v>0.513491</v>
+        <v>0.509192</v>
       </c>
       <c r="E67" t="n">
-        <v>0.231965</v>
+        <v>0.220606</v>
       </c>
       <c r="F67" t="n">
-        <v>0.453168</v>
+        <v>0.463267</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.351175</v>
+        <v>0.343868</v>
       </c>
       <c r="C68" t="n">
-        <v>0.584124</v>
+        <v>0.590854</v>
       </c>
       <c r="D68" t="n">
-        <v>0.519584</v>
+        <v>0.5156849999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>0.231299</v>
+        <v>0.21901</v>
       </c>
       <c r="F68" t="n">
-        <v>0.451157</v>
+        <v>0.462186</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.345116</v>
+        <v>0.337659</v>
       </c>
       <c r="C69" t="n">
-        <v>0.57798</v>
+        <v>0.5851499999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.520583</v>
+        <v>0.520339</v>
       </c>
       <c r="E69" t="n">
-        <v>0.22824</v>
+        <v>0.217202</v>
       </c>
       <c r="F69" t="n">
-        <v>0.44924</v>
+        <v>0.460348</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.338563</v>
+        <v>0.330805</v>
       </c>
       <c r="C70" t="n">
-        <v>0.671011</v>
+        <v>0.679299</v>
       </c>
       <c r="D70" t="n">
-        <v>0.529114</v>
+        <v>0.5251169999999999</v>
       </c>
       <c r="E70" t="n">
-        <v>0.227821</v>
+        <v>0.215786</v>
       </c>
       <c r="F70" t="n">
-        <v>0.447535</v>
+        <v>0.458416</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.330673</v>
+        <v>0.324022</v>
       </c>
       <c r="C71" t="n">
-        <v>0.65249</v>
+        <v>0.6585220000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.530274</v>
+        <v>0.528269</v>
       </c>
       <c r="E71" t="n">
-        <v>0.228335</v>
+        <v>0.215138</v>
       </c>
       <c r="F71" t="n">
-        <v>0.446322</v>
+        <v>0.457086</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.323635</v>
+        <v>0.316074</v>
       </c>
       <c r="C72" t="n">
-        <v>0.660048</v>
+        <v>0.666598</v>
       </c>
       <c r="D72" t="n">
-        <v>0.537904</v>
+        <v>0.534373</v>
       </c>
       <c r="E72" t="n">
-        <v>0.226045</v>
+        <v>0.214274</v>
       </c>
       <c r="F72" t="n">
-        <v>0.444793</v>
+        <v>0.45551</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.315093</v>
+        <v>0.308224</v>
       </c>
       <c r="C73" t="n">
-        <v>0.615187</v>
+        <v>0.6201950000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.542844</v>
+        <v>0.539638</v>
       </c>
       <c r="E73" t="n">
-        <v>0.224666</v>
+        <v>0.21342</v>
       </c>
       <c r="F73" t="n">
-        <v>0.443429</v>
+        <v>0.455049</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.30766</v>
+        <v>0.299502</v>
       </c>
       <c r="C74" t="n">
-        <v>0.618752</v>
+        <v>0.625586</v>
       </c>
       <c r="D74" t="n">
-        <v>0.544247</v>
+        <v>0.543013</v>
       </c>
       <c r="E74" t="n">
-        <v>0.224119</v>
+        <v>0.21246</v>
       </c>
       <c r="F74" t="n">
-        <v>0.442774</v>
+        <v>0.454008</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.297514</v>
+        <v>0.289092</v>
       </c>
       <c r="C75" t="n">
-        <v>0.656592</v>
+        <v>0.663364</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5440120000000001</v>
+        <v>0.539976</v>
       </c>
       <c r="E75" t="n">
-        <v>0.235115</v>
+        <v>0.211761</v>
       </c>
       <c r="F75" t="n">
-        <v>0.442064</v>
+        <v>0.452407</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.287767</v>
+        <v>0.280598</v>
       </c>
       <c r="C76" t="n">
-        <v>0.590279</v>
+        <v>0.595532</v>
       </c>
       <c r="D76" t="n">
-        <v>0.54806</v>
+        <v>0.542951</v>
       </c>
       <c r="E76" t="n">
-        <v>0.223774</v>
+        <v>0.211111</v>
       </c>
       <c r="F76" t="n">
-        <v>0.441067</v>
+        <v>0.451638</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.276777</v>
+        <v>0.268956</v>
       </c>
       <c r="C77" t="n">
-        <v>0.624619</v>
+        <v>0.630011</v>
       </c>
       <c r="D77" t="n">
-        <v>0.562908</v>
+        <v>0.544784</v>
       </c>
       <c r="E77" t="n">
-        <v>0.222657</v>
+        <v>0.210763</v>
       </c>
       <c r="F77" t="n">
-        <v>0.444147</v>
+        <v>0.450697</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.264849</v>
+        <v>0.257637</v>
       </c>
       <c r="C78" t="n">
-        <v>0.619879</v>
+        <v>0.6198360000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.633128</v>
+        <v>0.619213</v>
       </c>
       <c r="E78" t="n">
-        <v>0.233214</v>
+        <v>0.208369</v>
       </c>
       <c r="F78" t="n">
-        <v>0.444092</v>
+        <v>0.450528</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.25184</v>
+        <v>0.244287</v>
       </c>
       <c r="C79" t="n">
-        <v>0.549004</v>
+        <v>0.549677</v>
       </c>
       <c r="D79" t="n">
-        <v>0.641773</v>
+        <v>0.627575</v>
       </c>
       <c r="E79" t="n">
-        <v>0.231456</v>
+        <v>0.210254</v>
       </c>
       <c r="F79" t="n">
-        <v>0.443567</v>
+        <v>0.449006</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.238528</v>
+        <v>0.229926</v>
       </c>
       <c r="C80" t="n">
-        <v>0.504408</v>
+        <v>0.504745</v>
       </c>
       <c r="D80" t="n">
-        <v>0.643896</v>
+        <v>0.628552</v>
       </c>
       <c r="E80" t="n">
-        <v>0.234076</v>
+        <v>0.222608</v>
       </c>
       <c r="F80" t="n">
-        <v>0.455514</v>
+        <v>0.465646</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.357617</v>
+        <v>0.350831</v>
       </c>
       <c r="C81" t="n">
-        <v>0.650861</v>
+        <v>0.657978</v>
       </c>
       <c r="D81" t="n">
-        <v>0.62524</v>
+        <v>0.624395</v>
       </c>
       <c r="E81" t="n">
-        <v>0.236678</v>
+        <v>0.221953</v>
       </c>
       <c r="F81" t="n">
-        <v>0.453326</v>
+        <v>0.463762</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.352585</v>
+        <v>0.34506</v>
       </c>
       <c r="C82" t="n">
-        <v>0.664992</v>
+        <v>0.671494</v>
       </c>
       <c r="D82" t="n">
-        <v>0.621694</v>
+        <v>0.619821</v>
       </c>
       <c r="E82" t="n">
-        <v>0.233907</v>
+        <v>0.219842</v>
       </c>
       <c r="F82" t="n">
-        <v>0.451335</v>
+        <v>0.462097</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.34603</v>
+        <v>0.338901</v>
       </c>
       <c r="C83" t="n">
-        <v>0.630783</v>
+        <v>0.637763</v>
       </c>
       <c r="D83" t="n">
-        <v>0.61803</v>
+        <v>0.6163</v>
       </c>
       <c r="E83" t="n">
-        <v>0.232679</v>
+        <v>0.2184</v>
       </c>
       <c r="F83" t="n">
-        <v>0.449766</v>
+        <v>0.460872</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.339559</v>
+        <v>0.332472</v>
       </c>
       <c r="C84" t="n">
-        <v>0.716208</v>
+        <v>0.719418</v>
       </c>
       <c r="D84" t="n">
-        <v>0.607405</v>
+        <v>0.604705</v>
       </c>
       <c r="E84" t="n">
-        <v>0.231287</v>
+        <v>0.216997</v>
       </c>
       <c r="F84" t="n">
-        <v>0.447969</v>
+        <v>0.458933</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.332896</v>
+        <v>0.325131</v>
       </c>
       <c r="C85" t="n">
-        <v>0.669366</v>
+        <v>0.67575</v>
       </c>
       <c r="D85" t="n">
-        <v>0.610995</v>
+        <v>0.609645</v>
       </c>
       <c r="E85" t="n">
-        <v>0.231221</v>
+        <v>0.21599</v>
       </c>
       <c r="F85" t="n">
-        <v>0.446717</v>
+        <v>0.458126</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.324987</v>
+        <v>0.31717</v>
       </c>
       <c r="C86" t="n">
-        <v>0.700754</v>
+        <v>0.707055</v>
       </c>
       <c r="D86" t="n">
-        <v>0.606955</v>
+        <v>0.603353</v>
       </c>
       <c r="E86" t="n">
-        <v>0.229014</v>
+        <v>0.214782</v>
       </c>
       <c r="F86" t="n">
-        <v>0.445678</v>
+        <v>0.45665</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.317427</v>
+        <v>0.30943</v>
       </c>
       <c r="C87" t="n">
-        <v>0.595724</v>
+        <v>0.601796</v>
       </c>
       <c r="D87" t="n">
-        <v>0.615592</v>
+        <v>0.601077</v>
       </c>
       <c r="E87" t="n">
-        <v>0.222037</v>
+        <v>0.213668</v>
       </c>
       <c r="F87" t="n">
-        <v>0.447473</v>
+        <v>0.455074</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.30898</v>
+        <v>0.300771</v>
       </c>
       <c r="C88" t="n">
-        <v>0.593021</v>
+        <v>0.593391</v>
       </c>
       <c r="D88" t="n">
-        <v>0.609438</v>
+        <v>0.592232</v>
       </c>
       <c r="E88" t="n">
-        <v>0.227145</v>
+        <v>0.212657</v>
       </c>
       <c r="F88" t="n">
-        <v>0.446286</v>
+        <v>0.454208</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.300124</v>
+        <v>0.291689</v>
       </c>
       <c r="C89" t="n">
-        <v>0.685037</v>
+        <v>0.685829</v>
       </c>
       <c r="D89" t="n">
-        <v>0.607576</v>
+        <v>0.591562</v>
       </c>
       <c r="E89" t="n">
-        <v>0.220398</v>
+        <v>0.210769</v>
       </c>
       <c r="F89" t="n">
-        <v>0.44559</v>
+        <v>0.452935</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.289454</v>
+        <v>0.282035</v>
       </c>
       <c r="C90" t="n">
-        <v>0.566475</v>
+        <v>0.566605</v>
       </c>
       <c r="D90" t="n">
-        <v>0.604585</v>
+        <v>0.589741</v>
       </c>
       <c r="E90" t="n">
-        <v>0.234892</v>
+        <v>0.211325</v>
       </c>
       <c r="F90" t="n">
-        <v>0.444733</v>
+        <v>0.45256</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.278894</v>
+        <v>0.271177</v>
       </c>
       <c r="C91" t="n">
-        <v>0.57163</v>
+        <v>0.572586</v>
       </c>
       <c r="D91" t="n">
-        <v>0.599526</v>
+        <v>0.58335</v>
       </c>
       <c r="E91" t="n">
-        <v>0.246872</v>
+        <v>0.210844</v>
       </c>
       <c r="F91" t="n">
-        <v>0.444205</v>
+        <v>0.450751</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.267214</v>
+        <v>0.259341</v>
       </c>
       <c r="C92" t="n">
-        <v>0.497328</v>
+        <v>0.497745</v>
       </c>
       <c r="D92" t="n">
-        <v>0.644582</v>
+        <v>0.6291369999999999</v>
       </c>
       <c r="E92" t="n">
-        <v>0.219406</v>
+        <v>0.210521</v>
       </c>
       <c r="F92" t="n">
-        <v>0.444209</v>
+        <v>0.45016</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.254496</v>
+        <v>0.247167</v>
       </c>
       <c r="C93" t="n">
-        <v>0.597928</v>
+        <v>0.598851</v>
       </c>
       <c r="D93" t="n">
-        <v>0.627717</v>
+        <v>0.609816</v>
       </c>
       <c r="E93" t="n">
-        <v>0.219147</v>
+        <v>0.208728</v>
       </c>
       <c r="F93" t="n">
-        <v>0.443845</v>
+        <v>0.44877</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.240424</v>
+        <v>0.232973</v>
       </c>
       <c r="C94" t="n">
-        <v>0.572816</v>
+        <v>0.572877</v>
       </c>
       <c r="D94" t="n">
-        <v>0.629984</v>
+        <v>0.611425</v>
       </c>
       <c r="E94" t="n">
-        <v>0.239101</v>
+        <v>0.224456</v>
       </c>
       <c r="F94" t="n">
-        <v>0.459096</v>
+        <v>0.465369</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.359145</v>
+        <v>0.351681</v>
       </c>
       <c r="C95" t="n">
-        <v>0.758361</v>
+        <v>0.759642</v>
       </c>
       <c r="D95" t="n">
-        <v>0.634856</v>
+        <v>0.61743</v>
       </c>
       <c r="E95" t="n">
-        <v>0.238052</v>
+        <v>0.222039</v>
       </c>
       <c r="F95" t="n">
-        <v>0.457499</v>
+        <v>0.464409</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.353616</v>
+        <v>0.3465</v>
       </c>
       <c r="C96" t="n">
-        <v>0.712862</v>
+        <v>0.7131</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6308820000000001</v>
+        <v>0.614071</v>
       </c>
       <c r="E96" t="n">
-        <v>0.236034</v>
+        <v>0.220273</v>
       </c>
       <c r="F96" t="n">
-        <v>0.457968</v>
+        <v>0.461966</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.34818</v>
+        <v>0.340335</v>
       </c>
       <c r="C97" t="n">
-        <v>0.733605</v>
+        <v>0.734407</v>
       </c>
       <c r="D97" t="n">
-        <v>0.627763</v>
+        <v>0.610479</v>
       </c>
       <c r="E97" t="n">
-        <v>0.234392</v>
+        <v>0.218745</v>
       </c>
       <c r="F97" t="n">
-        <v>0.454017</v>
+        <v>0.460621</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.341047</v>
+        <v>0.333782</v>
       </c>
       <c r="C98" t="n">
-        <v>0.667435</v>
+        <v>0.668054</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6220560000000001</v>
+        <v>0.604945</v>
       </c>
       <c r="E98" t="n">
-        <v>0.230886</v>
+        <v>0.217219</v>
       </c>
       <c r="F98" t="n">
-        <v>0.452262</v>
+        <v>0.459099</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.334224</v>
+        <v>0.327077</v>
       </c>
       <c r="C99" t="n">
-        <v>0.672494</v>
+        <v>0.672671</v>
       </c>
       <c r="D99" t="n">
-        <v>0.610067</v>
+        <v>0.591234</v>
       </c>
       <c r="E99" t="n">
-        <v>0.232119</v>
+        <v>0.215971</v>
       </c>
       <c r="F99" t="n">
-        <v>0.45052</v>
+        <v>0.457607</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.326928</v>
+        <v>0.319466</v>
       </c>
       <c r="C100" t="n">
-        <v>0.573646</v>
+        <v>0.573588</v>
       </c>
       <c r="D100" t="n">
-        <v>0.605467</v>
+        <v>0.5869259999999999</v>
       </c>
       <c r="E100" t="n">
-        <v>0.23085</v>
+        <v>0.214859</v>
       </c>
       <c r="F100" t="n">
-        <v>0.449151</v>
+        <v>0.456164</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.31958</v>
+        <v>0.311367</v>
       </c>
       <c r="C101" t="n">
-        <v>0.601214</v>
+        <v>0.602113</v>
       </c>
       <c r="D101" t="n">
-        <v>0.601705</v>
+        <v>0.58331</v>
       </c>
       <c r="E101" t="n">
-        <v>0.22859</v>
+        <v>0.213745</v>
       </c>
       <c r="F101" t="n">
-        <v>0.44805</v>
+        <v>0.45516</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.310671</v>
+        <v>0.302949</v>
       </c>
       <c r="C102" t="n">
-        <v>0.642671</v>
+        <v>0.643869</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6020799999999999</v>
+        <v>0.58707</v>
       </c>
       <c r="E102" t="n">
-        <v>0.237515</v>
+        <v>0.211504</v>
       </c>
       <c r="F102" t="n">
-        <v>0.446859</v>
+        <v>0.454881</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.30216</v>
+        <v>0.294188</v>
       </c>
       <c r="C103" t="n">
-        <v>0.585201</v>
+        <v>0.585234</v>
       </c>
       <c r="D103" t="n">
-        <v>0.59712</v>
+        <v>0.580527</v>
       </c>
       <c r="E103" t="n">
-        <v>0.227301</v>
+        <v>0.212068</v>
       </c>
       <c r="F103" t="n">
-        <v>0.445715</v>
+        <v>0.453322</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.291915</v>
+        <v>0.284599</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5882849999999999</v>
+        <v>0.588284</v>
       </c>
       <c r="D104" t="n">
-        <v>0.590074</v>
+        <v>0.571646</v>
       </c>
       <c r="E104" t="n">
-        <v>0.235584</v>
+        <v>0.210081</v>
       </c>
       <c r="F104" t="n">
-        <v>0.445195</v>
+        <v>0.452042</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.281541</v>
+        <v>0.274384</v>
       </c>
       <c r="C105" t="n">
-        <v>0.590625</v>
+        <v>0.591232</v>
       </c>
       <c r="D105" t="n">
-        <v>0.586809</v>
+        <v>0.569878</v>
       </c>
       <c r="E105" t="n">
-        <v>0.228527</v>
+        <v>0.211431</v>
       </c>
       <c r="F105" t="n">
-        <v>0.444618</v>
+        <v>0.451335</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.270312</v>
+        <v>0.262488</v>
       </c>
       <c r="C106" t="n">
-        <v>0.60172</v>
+        <v>0.601553</v>
       </c>
       <c r="D106" t="n">
-        <v>0.582771</v>
+        <v>0.563412</v>
       </c>
       <c r="E106" t="n">
-        <v>0.234431</v>
+        <v>0.211071</v>
       </c>
       <c r="F106" t="n">
-        <v>0.444583</v>
+        <v>0.450025</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.25797</v>
+        <v>0.249919</v>
       </c>
       <c r="C107" t="n">
-        <v>0.596035</v>
+        <v>0.594503</v>
       </c>
       <c r="D107" t="n">
-        <v>0.646147</v>
+        <v>0.626353</v>
       </c>
       <c r="E107" t="n">
-        <v>0.218508</v>
+        <v>0.20895</v>
       </c>
       <c r="F107" t="n">
-        <v>0.444329</v>
+        <v>0.449472</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.244058</v>
+        <v>0.236489</v>
       </c>
       <c r="C108" t="n">
-        <v>0.565011</v>
+        <v>0.5654400000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>0.638907</v>
+        <v>0.622721</v>
       </c>
       <c r="E108" t="n">
-        <v>0.24166</v>
+        <v>0.224505</v>
       </c>
       <c r="F108" t="n">
-        <v>0.459846</v>
+        <v>0.465424</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.228569</v>
+        <v>0.220753</v>
       </c>
       <c r="C109" t="n">
-        <v>0.510483</v>
+        <v>0.510748</v>
       </c>
       <c r="D109" t="n">
-        <v>0.626796</v>
+        <v>0.607344</v>
       </c>
       <c r="E109" t="n">
-        <v>0.238383</v>
+        <v>0.222199</v>
       </c>
       <c r="F109" t="n">
-        <v>0.457796</v>
+        <v>0.463866</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355072</v>
+        <v>0.34782</v>
       </c>
       <c r="C110" t="n">
-        <v>0.700623</v>
+        <v>0.701359</v>
       </c>
       <c r="D110" t="n">
-        <v>0.621146</v>
+        <v>0.602629</v>
       </c>
       <c r="E110" t="n">
-        <v>0.236151</v>
+        <v>0.220419</v>
       </c>
       <c r="F110" t="n">
-        <v>0.455799</v>
+        <v>0.462324</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.349187</v>
+        <v>0.341701</v>
       </c>
       <c r="C111" t="n">
-        <v>0.639348</v>
+        <v>0.639496</v>
       </c>
       <c r="D111" t="n">
-        <v>0.617588</v>
+        <v>0.598592</v>
       </c>
       <c r="E111" t="n">
-        <v>0.236906</v>
+        <v>0.218646</v>
       </c>
       <c r="F111" t="n">
-        <v>0.453741</v>
+        <v>0.46086</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342909</v>
+        <v>0.335548</v>
       </c>
       <c r="C112" t="n">
-        <v>0.588646</v>
+        <v>0.588139</v>
       </c>
       <c r="D112" t="n">
-        <v>0.614019</v>
+        <v>0.594235</v>
       </c>
       <c r="E112" t="n">
-        <v>0.233466</v>
+        <v>0.217419</v>
       </c>
       <c r="F112" t="n">
-        <v>0.452146</v>
+        <v>0.459744</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.336019</v>
+        <v>0.328519</v>
       </c>
       <c r="C113" t="n">
-        <v>0.606259</v>
+        <v>0.605593</v>
       </c>
       <c r="D113" t="n">
-        <v>0.620444</v>
+        <v>0.603522</v>
       </c>
       <c r="E113" t="n">
-        <v>0.232875</v>
+        <v>0.216196</v>
       </c>
       <c r="F113" t="n">
-        <v>0.450915</v>
+        <v>0.45823</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.328322</v>
+        <v>0.321016</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6029099999999999</v>
+        <v>0.6036629999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.613096</v>
+        <v>0.59632</v>
       </c>
       <c r="E114" t="n">
-        <v>0.23182</v>
+        <v>0.21502</v>
       </c>
       <c r="F114" t="n">
-        <v>0.44936</v>
+        <v>0.456714</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.320667</v>
+        <v>0.313032</v>
       </c>
       <c r="C115" t="n">
-        <v>0.584519</v>
+        <v>0.584574</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6070449999999999</v>
+        <v>0.5909</v>
       </c>
       <c r="E115" t="n">
-        <v>0.231689</v>
+        <v>0.213871</v>
       </c>
       <c r="F115" t="n">
-        <v>0.448154</v>
+        <v>0.455494</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.312572</v>
+        <v>0.304953</v>
       </c>
       <c r="C116" t="n">
-        <v>0.717984</v>
+        <v>0.7187750000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.601351</v>
+        <v>0.586905</v>
       </c>
       <c r="E116" t="n">
-        <v>0.237702</v>
+        <v>0.21364</v>
       </c>
       <c r="F116" t="n">
-        <v>0.447014</v>
+        <v>0.454301</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.303259</v>
+        <v>0.296017</v>
       </c>
       <c r="C117" t="n">
-        <v>0.619549</v>
+        <v>0.620174</v>
       </c>
       <c r="D117" t="n">
-        <v>0.59179</v>
+        <v>0.573245</v>
       </c>
       <c r="E117" t="n">
-        <v>0.229002</v>
+        <v>0.212246</v>
       </c>
       <c r="F117" t="n">
-        <v>0.445824</v>
+        <v>0.453645</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.294208</v>
+        <v>0.286623</v>
       </c>
       <c r="C118" t="n">
-        <v>0.584071</v>
+        <v>0.584283</v>
       </c>
       <c r="D118" t="n">
-        <v>0.590936</v>
+        <v>0.57325</v>
       </c>
       <c r="E118" t="n">
-        <v>0.244597</v>
+        <v>0.212103</v>
       </c>
       <c r="F118" t="n">
-        <v>0.445245</v>
+        <v>0.452322</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.283399</v>
+        <v>0.27587</v>
       </c>
       <c r="C119" t="n">
-        <v>0.579153</v>
+        <v>0.579312</v>
       </c>
       <c r="D119" t="n">
-        <v>0.584249</v>
+        <v>0.565295</v>
       </c>
       <c r="E119" t="n">
-        <v>0.233458</v>
+        <v>0.211502</v>
       </c>
       <c r="F119" t="n">
-        <v>0.444586</v>
+        <v>0.451224</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.272465</v>
+        <v>0.264861</v>
       </c>
       <c r="C120" t="n">
-        <v>0.572576</v>
+        <v>0.573176</v>
       </c>
       <c r="D120" t="n">
-        <v>0.579804</v>
+        <v>0.562511</v>
       </c>
       <c r="E120" t="n">
-        <v>0.234027</v>
+        <v>0.210731</v>
       </c>
       <c r="F120" t="n">
-        <v>0.444496</v>
+        <v>0.450384</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.260366</v>
+        <v>0.252764</v>
       </c>
       <c r="C121" t="n">
-        <v>0.558433</v>
+        <v>0.558766</v>
       </c>
       <c r="D121" t="n">
-        <v>0.656732</v>
+        <v>0.639422</v>
       </c>
       <c r="E121" t="n">
-        <v>0.237345</v>
+        <v>0.208598</v>
       </c>
       <c r="F121" t="n">
-        <v>0.444471</v>
+        <v>0.448983</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.24696</v>
+        <v>0.23944</v>
       </c>
       <c r="C122" t="n">
-        <v>0.515079</v>
+        <v>0.515563</v>
       </c>
       <c r="D122" t="n">
-        <v>0.638721</v>
+        <v>0.6202490000000001</v>
       </c>
       <c r="E122" t="n">
-        <v>0.244481</v>
+        <v>0.210041</v>
       </c>
       <c r="F122" t="n">
-        <v>0.444013</v>
+        <v>0.448252</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232615</v>
+        <v>0.224638</v>
       </c>
       <c r="C123" t="n">
-        <v>0.546163</v>
+        <v>0.546675</v>
       </c>
       <c r="D123" t="n">
-        <v>0.651054</v>
+        <v>0.634811</v>
       </c>
       <c r="E123" t="n">
-        <v>0.252253</v>
+        <v>0.222244</v>
       </c>
       <c r="F123" t="n">
-        <v>0.458298</v>
+        <v>0.464929</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356869</v>
+        <v>0.349326</v>
       </c>
       <c r="C124" t="n">
-        <v>0.565904</v>
+        <v>0.565959</v>
       </c>
       <c r="D124" t="n">
-        <v>0.644531</v>
+        <v>0.627274</v>
       </c>
       <c r="E124" t="n">
-        <v>0.237199</v>
+        <v>0.220625</v>
       </c>
       <c r="F124" t="n">
-        <v>0.456465</v>
+        <v>0.46247</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350546</v>
+        <v>0.34327</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7464499999999999</v>
+        <v>0.7466970000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>0.641839</v>
+        <v>0.624545</v>
       </c>
       <c r="E125" t="n">
-        <v>0.237824</v>
+        <v>0.219032</v>
       </c>
       <c r="F125" t="n">
-        <v>0.454691</v>
+        <v>0.460641</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.344706</v>
+        <v>0.337445</v>
       </c>
       <c r="C126" t="n">
-        <v>0.72926</v>
+        <v>0.729373</v>
       </c>
       <c r="D126" t="n">
-        <v>0.635655</v>
+        <v>0.61979</v>
       </c>
       <c r="E126" t="n">
-        <v>0.236593</v>
+        <v>0.217636</v>
       </c>
       <c r="F126" t="n">
-        <v>0.452949</v>
+        <v>0.459228</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.337639</v>
+        <v>0.32983</v>
       </c>
       <c r="C127" t="n">
-        <v>0.595921</v>
+        <v>0.596668</v>
       </c>
       <c r="D127" t="n">
-        <v>0.620214</v>
+        <v>0.600602</v>
       </c>
       <c r="E127" t="n">
-        <v>0.233676</v>
+        <v>0.21634</v>
       </c>
       <c r="F127" t="n">
-        <v>0.451319</v>
+        <v>0.458936</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.330073</v>
+        <v>0.322567</v>
       </c>
       <c r="C128" t="n">
-        <v>0.617182</v>
+        <v>0.618024</v>
       </c>
       <c r="D128" t="n">
-        <v>0.616246</v>
+        <v>0.59557</v>
       </c>
       <c r="E128" t="n">
-        <v>0.232085</v>
+        <v>0.215052</v>
       </c>
       <c r="F128" t="n">
-        <v>0.449977</v>
+        <v>0.456769</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.322148</v>
+        <v>0.315236</v>
       </c>
       <c r="C129" t="n">
-        <v>0.564544</v>
+        <v>0.565455</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6101799999999999</v>
+        <v>0.590315</v>
       </c>
       <c r="E129" t="n">
-        <v>0.233155</v>
+        <v>0.213989</v>
       </c>
       <c r="F129" t="n">
-        <v>0.448653</v>
+        <v>0.455748</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.313872</v>
+        <v>0.306755</v>
       </c>
       <c r="C130" t="n">
-        <v>0.570111</v>
+        <v>0.570262</v>
       </c>
       <c r="D130" t="n">
-        <v>0.605934</v>
+        <v>0.586877</v>
       </c>
       <c r="E130" t="n">
-        <v>0.230341</v>
+        <v>0.21315</v>
       </c>
       <c r="F130" t="n">
-        <v>0.447514</v>
+        <v>0.454687</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.305218</v>
+        <v>0.297687</v>
       </c>
       <c r="C131" t="n">
-        <v>0.56391</v>
+        <v>0.564519</v>
       </c>
       <c r="D131" t="n">
-        <v>0.603168</v>
+        <v>0.58105</v>
       </c>
       <c r="E131" t="n">
-        <v>0.229969</v>
+        <v>0.212324</v>
       </c>
       <c r="F131" t="n">
-        <v>0.446333</v>
+        <v>0.453286</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.296143</v>
+        <v>0.287864</v>
       </c>
       <c r="C132" t="n">
-        <v>0.670454</v>
+        <v>0.671652</v>
       </c>
       <c r="D132" t="n">
-        <v>0.598248</v>
+        <v>0.5824549999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>0.248783</v>
+        <v>0.210209</v>
       </c>
       <c r="F132" t="n">
-        <v>0.445444</v>
+        <v>0.452311</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.28627</v>
+        <v>0.278345</v>
       </c>
       <c r="C133" t="n">
-        <v>0.601449</v>
+        <v>0.601418</v>
       </c>
       <c r="D133" t="n">
-        <v>0.59333</v>
+        <v>0.5733549999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>0.233445</v>
+        <v>0.2114</v>
       </c>
       <c r="F133" t="n">
-        <v>0.444963</v>
+        <v>0.450976</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.274728</v>
+        <v>0.267435</v>
       </c>
       <c r="C134" t="n">
-        <v>0.588744</v>
+        <v>0.588803</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5870379999999999</v>
+        <v>0.57103</v>
       </c>
       <c r="E134" t="n">
-        <v>0.219231</v>
+        <v>0.210935</v>
       </c>
       <c r="F134" t="n">
-        <v>0.444416</v>
+        <v>0.45022</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.262558</v>
+        <v>0.255284</v>
       </c>
       <c r="C135" t="n">
-        <v>0.533492</v>
+        <v>0.5338850000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.662348</v>
+        <v>0.6453</v>
       </c>
       <c r="E135" t="n">
-        <v>0.233573</v>
+        <v>0.208471</v>
       </c>
       <c r="F135" t="n">
-        <v>0.444441</v>
+        <v>0.449061</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.250134</v>
+        <v>0.24261</v>
       </c>
       <c r="C136" t="n">
-        <v>0.522764</v>
+        <v>0.522431</v>
       </c>
       <c r="D136" t="n">
-        <v>0.642319</v>
+        <v>0.623243</v>
       </c>
       <c r="E136" t="n">
-        <v>0.233066</v>
+        <v>0.2093</v>
       </c>
       <c r="F136" t="n">
-        <v>0.444278</v>
+        <v>0.447883</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235556</v>
+        <v>0.228022</v>
       </c>
       <c r="C137" t="n">
-        <v>0.498534</v>
+        <v>0.498706</v>
       </c>
       <c r="D137" t="n">
-        <v>0.659345</v>
+        <v>0.639126</v>
       </c>
       <c r="E137" t="n">
-        <v>0.260787</v>
+        <v>0.222447</v>
       </c>
       <c r="F137" t="n">
-        <v>0.458794</v>
+        <v>0.464736</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.358593</v>
+        <v>0.350266</v>
       </c>
       <c r="C138" t="n">
-        <v>0.65064</v>
+        <v>0.65042</v>
       </c>
       <c r="D138" t="n">
-        <v>0.639424</v>
+        <v>0.619869</v>
       </c>
       <c r="E138" t="n">
-        <v>0.237778</v>
+        <v>0.220976</v>
       </c>
       <c r="F138" t="n">
-        <v>0.456681</v>
+        <v>0.462924</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.352763</v>
+        <v>0.344657</v>
       </c>
       <c r="C139" t="n">
-        <v>0.608495</v>
+        <v>0.608733</v>
       </c>
       <c r="D139" t="n">
-        <v>0.634568</v>
+        <v>0.61566</v>
       </c>
       <c r="E139" t="n">
-        <v>0.237203</v>
+        <v>0.219298</v>
       </c>
       <c r="F139" t="n">
-        <v>0.454828</v>
+        <v>0.461658</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.346229</v>
+        <v>0.338943</v>
       </c>
       <c r="C140" t="n">
-        <v>0.639911</v>
+        <v>0.639117</v>
       </c>
       <c r="D140" t="n">
-        <v>0.631765</v>
+        <v>0.612669</v>
       </c>
       <c r="E140" t="n">
-        <v>0.238659</v>
+        <v>0.217956</v>
       </c>
       <c r="F140" t="n">
-        <v>0.45319</v>
+        <v>0.459857</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.339163</v>
+        <v>0.331743</v>
       </c>
       <c r="C141" t="n">
-        <v>0.59406</v>
+        <v>0.594462</v>
       </c>
       <c r="D141" t="n">
-        <v>0.636479</v>
+        <v>0.618823</v>
       </c>
       <c r="E141" t="n">
-        <v>0.239105</v>
+        <v>0.216687</v>
       </c>
       <c r="F141" t="n">
-        <v>0.451641</v>
+        <v>0.458812</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.333328</v>
+        <v>0.325041</v>
       </c>
       <c r="C142" t="n">
-        <v>0.572743</v>
+        <v>0.573211</v>
       </c>
       <c r="D142" t="n">
-        <v>0.628772</v>
+        <v>0.6127860000000001</v>
       </c>
       <c r="E142" t="n">
-        <v>0.232898</v>
+        <v>0.215516</v>
       </c>
       <c r="F142" t="n">
-        <v>0.450052</v>
+        <v>0.456858</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.325233</v>
+        <v>0.316863</v>
       </c>
       <c r="C143" t="n">
-        <v>0.623072</v>
+        <v>0.623627</v>
       </c>
       <c r="D143" t="n">
-        <v>0.622481</v>
+        <v>0.606413</v>
       </c>
       <c r="E143" t="n">
-        <v>0.230978</v>
+        <v>0.214637</v>
       </c>
       <c r="F143" t="n">
-        <v>0.448789</v>
+        <v>0.455431</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.298808</v>
+        <v>0.297573</v>
       </c>
       <c r="C2" t="n">
-        <v>0.506692</v>
+        <v>0.509706</v>
       </c>
       <c r="D2" t="n">
-        <v>0.412777</v>
+        <v>0.41516</v>
       </c>
       <c r="E2" t="n">
-        <v>0.188383</v>
+        <v>0.183289</v>
       </c>
       <c r="F2" t="n">
-        <v>0.443744</v>
+        <v>0.436863</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.288283</v>
+        <v>0.287619</v>
       </c>
       <c r="C3" t="n">
-        <v>0.501349</v>
+        <v>0.497637</v>
       </c>
       <c r="D3" t="n">
-        <v>0.410019</v>
+        <v>0.415916</v>
       </c>
       <c r="E3" t="n">
-        <v>0.189206</v>
+        <v>0.184676</v>
       </c>
       <c r="F3" t="n">
-        <v>0.444444</v>
+        <v>0.436438</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.278398</v>
+        <v>0.277539</v>
       </c>
       <c r="C4" t="n">
-        <v>0.48833</v>
+        <v>0.491437</v>
       </c>
       <c r="D4" t="n">
-        <v>0.412261</v>
+        <v>0.417369</v>
       </c>
       <c r="E4" t="n">
-        <v>0.191514</v>
+        <v>0.187103</v>
       </c>
       <c r="F4" t="n">
-        <v>0.44283</v>
+        <v>0.434004</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.269923</v>
+        <v>0.270573</v>
       </c>
       <c r="C5" t="n">
-        <v>0.483792</v>
+        <v>0.481286</v>
       </c>
       <c r="D5" t="n">
-        <v>0.412899</v>
+        <v>0.41957</v>
       </c>
       <c r="E5" t="n">
-        <v>0.191428</v>
+        <v>0.187989</v>
       </c>
       <c r="F5" t="n">
-        <v>0.44134</v>
+        <v>0.43316</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.25757</v>
+        <v>0.255071</v>
       </c>
       <c r="C6" t="n">
-        <v>0.472618</v>
+        <v>0.469446</v>
       </c>
       <c r="D6" t="n">
-        <v>0.41485</v>
+        <v>0.423444</v>
       </c>
       <c r="E6" t="n">
-        <v>0.194883</v>
+        <v>0.190637</v>
       </c>
       <c r="F6" t="n">
-        <v>0.441465</v>
+        <v>0.43345</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.244759</v>
+        <v>0.242847</v>
       </c>
       <c r="C7" t="n">
-        <v>0.462169</v>
+        <v>0.457954</v>
       </c>
       <c r="D7" t="n">
-        <v>0.412804</v>
+        <v>0.415811</v>
       </c>
       <c r="E7" t="n">
-        <v>0.195825</v>
+        <v>0.192289</v>
       </c>
       <c r="F7" t="n">
-        <v>0.44072</v>
+        <v>0.432229</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.23252</v>
+        <v>0.22792</v>
       </c>
       <c r="C8" t="n">
-        <v>0.443633</v>
+        <v>0.446139</v>
       </c>
       <c r="D8" t="n">
-        <v>0.411828</v>
+        <v>0.418262</v>
       </c>
       <c r="E8" t="n">
-        <v>0.196447</v>
+        <v>0.19279</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4401</v>
+        <v>0.429441</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.217828</v>
+        <v>0.215305</v>
       </c>
       <c r="C9" t="n">
-        <v>0.433344</v>
+        <v>0.432061</v>
       </c>
       <c r="D9" t="n">
-        <v>0.413421</v>
+        <v>0.417503</v>
       </c>
       <c r="E9" t="n">
-        <v>0.210994</v>
+        <v>0.207862</v>
       </c>
       <c r="F9" t="n">
-        <v>0.457792</v>
+        <v>0.451064</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.344607</v>
+        <v>0.341244</v>
       </c>
       <c r="C10" t="n">
-        <v>0.552686</v>
+        <v>0.554165</v>
       </c>
       <c r="D10" t="n">
-        <v>0.413055</v>
+        <v>0.41664</v>
       </c>
       <c r="E10" t="n">
-        <v>0.212689</v>
+        <v>0.208654</v>
       </c>
       <c r="F10" t="n">
-        <v>0.456449</v>
+        <v>0.449218</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.338057</v>
+        <v>0.336342</v>
       </c>
       <c r="C11" t="n">
-        <v>0.550439</v>
+        <v>0.552348</v>
       </c>
       <c r="D11" t="n">
-        <v>0.412828</v>
+        <v>0.416852</v>
       </c>
       <c r="E11" t="n">
-        <v>0.211221</v>
+        <v>0.207088</v>
       </c>
       <c r="F11" t="n">
-        <v>0.455173</v>
+        <v>0.446729</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.333546</v>
+        <v>0.330647</v>
       </c>
       <c r="C12" t="n">
-        <v>0.547004</v>
+        <v>0.546926</v>
       </c>
       <c r="D12" t="n">
-        <v>0.413074</v>
+        <v>0.417049</v>
       </c>
       <c r="E12" t="n">
-        <v>0.211055</v>
+        <v>0.206643</v>
       </c>
       <c r="F12" t="n">
-        <v>0.454544</v>
+        <v>0.446339</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.325216</v>
+        <v>0.324429</v>
       </c>
       <c r="C13" t="n">
-        <v>0.541153</v>
+        <v>0.535791</v>
       </c>
       <c r="D13" t="n">
-        <v>0.413462</v>
+        <v>0.418776</v>
       </c>
       <c r="E13" t="n">
-        <v>0.210902</v>
+        <v>0.206641</v>
       </c>
       <c r="F13" t="n">
-        <v>0.453512</v>
+        <v>0.443725</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.319402</v>
+        <v>0.317955</v>
       </c>
       <c r="C14" t="n">
-        <v>0.533253</v>
+        <v>0.532982</v>
       </c>
       <c r="D14" t="n">
-        <v>0.416173</v>
+        <v>0.420644</v>
       </c>
       <c r="E14" t="n">
-        <v>0.211051</v>
+        <v>0.206201</v>
       </c>
       <c r="F14" t="n">
-        <v>0.450206</v>
+        <v>0.442096</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.312782</v>
+        <v>0.311311</v>
       </c>
       <c r="C15" t="n">
-        <v>0.526585</v>
+        <v>0.523572</v>
       </c>
       <c r="D15" t="n">
-        <v>0.416782</v>
+        <v>0.420686</v>
       </c>
       <c r="E15" t="n">
-        <v>0.210118</v>
+        <v>0.206576</v>
       </c>
       <c r="F15" t="n">
-        <v>0.449405</v>
+        <v>0.44097</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.305134</v>
+        <v>0.303435</v>
       </c>
       <c r="C16" t="n">
-        <v>0.518209</v>
+        <v>0.514866</v>
       </c>
       <c r="D16" t="n">
-        <v>0.417849</v>
+        <v>0.422116</v>
       </c>
       <c r="E16" t="n">
-        <v>0.209874</v>
+        <v>0.206168</v>
       </c>
       <c r="F16" t="n">
-        <v>0.448903</v>
+        <v>0.44118</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.297693</v>
+        <v>0.295423</v>
       </c>
       <c r="C17" t="n">
-        <v>0.511818</v>
+        <v>0.51205</v>
       </c>
       <c r="D17" t="n">
-        <v>0.418713</v>
+        <v>0.424318</v>
       </c>
       <c r="E17" t="n">
-        <v>0.209765</v>
+        <v>0.205688</v>
       </c>
       <c r="F17" t="n">
-        <v>0.448319</v>
+        <v>0.439518</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.287097</v>
+        <v>0.286042</v>
       </c>
       <c r="C18" t="n">
-        <v>0.501165</v>
+        <v>0.496673</v>
       </c>
       <c r="D18" t="n">
-        <v>0.420121</v>
+        <v>0.425533</v>
       </c>
       <c r="E18" t="n">
-        <v>0.208264</v>
+        <v>0.204622</v>
       </c>
       <c r="F18" t="n">
-        <v>0.445104</v>
+        <v>0.438414</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.276368</v>
+        <v>0.276976</v>
       </c>
       <c r="C19" t="n">
-        <v>0.490678</v>
+        <v>0.491376</v>
       </c>
       <c r="D19" t="n">
-        <v>0.420915</v>
+        <v>0.428617</v>
       </c>
       <c r="E19" t="n">
-        <v>0.208226</v>
+        <v>0.203557</v>
       </c>
       <c r="F19" t="n">
-        <v>0.445601</v>
+        <v>0.437224</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.266614</v>
+        <v>0.264391</v>
       </c>
       <c r="C20" t="n">
-        <v>0.47976</v>
+        <v>0.481756</v>
       </c>
       <c r="D20" t="n">
-        <v>0.420236</v>
+        <v>0.428461</v>
       </c>
       <c r="E20" t="n">
-        <v>0.208068</v>
+        <v>0.203481</v>
       </c>
       <c r="F20" t="n">
-        <v>0.445</v>
+        <v>0.437639</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.256552</v>
+        <v>0.255904</v>
       </c>
       <c r="C21" t="n">
-        <v>0.462462</v>
+        <v>0.461683</v>
       </c>
       <c r="D21" t="n">
-        <v>0.417686</v>
+        <v>0.41973</v>
       </c>
       <c r="E21" t="n">
-        <v>0.206605</v>
+        <v>0.20343</v>
       </c>
       <c r="F21" t="n">
-        <v>0.444769</v>
+        <v>0.43595</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.242213</v>
+        <v>0.238682</v>
       </c>
       <c r="C22" t="n">
-        <v>0.455954</v>
+        <v>0.454529</v>
       </c>
       <c r="D22" t="n">
-        <v>0.417721</v>
+        <v>0.422015</v>
       </c>
       <c r="E22" t="n">
-        <v>0.206813</v>
+        <v>0.203239</v>
       </c>
       <c r="F22" t="n">
-        <v>0.444151</v>
+        <v>0.435381</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.227125</v>
+        <v>0.227451</v>
       </c>
       <c r="C23" t="n">
-        <v>0.435453</v>
+        <v>0.432309</v>
       </c>
       <c r="D23" t="n">
-        <v>0.41878</v>
+        <v>0.422286</v>
       </c>
       <c r="E23" t="n">
-        <v>0.224834</v>
+        <v>0.222673</v>
       </c>
       <c r="F23" t="n">
-        <v>0.461738</v>
+        <v>0.452736</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.348476</v>
+        <v>0.346395</v>
       </c>
       <c r="C24" t="n">
-        <v>0.555938</v>
+        <v>0.556904</v>
       </c>
       <c r="D24" t="n">
-        <v>0.418913</v>
+        <v>0.422585</v>
       </c>
       <c r="E24" t="n">
-        <v>0.222463</v>
+        <v>0.217934</v>
       </c>
       <c r="F24" t="n">
-        <v>0.460012</v>
+        <v>0.450957</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.342497</v>
+        <v>0.340074</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5533670000000001</v>
+        <v>0.553668</v>
       </c>
       <c r="D25" t="n">
-        <v>0.420353</v>
+        <v>0.424422</v>
       </c>
       <c r="E25" t="n">
-        <v>0.218913</v>
+        <v>0.215461</v>
       </c>
       <c r="F25" t="n">
-        <v>0.459154</v>
+        <v>0.449946</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.337241</v>
+        <v>0.334566</v>
       </c>
       <c r="C26" t="n">
-        <v>0.547735</v>
+        <v>0.548116</v>
       </c>
       <c r="D26" t="n">
-        <v>0.420267</v>
+        <v>0.424894</v>
       </c>
       <c r="E26" t="n">
-        <v>0.218046</v>
+        <v>0.214291</v>
       </c>
       <c r="F26" t="n">
-        <v>0.456867</v>
+        <v>0.448376</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.331305</v>
+        <v>0.328744</v>
       </c>
       <c r="C27" t="n">
-        <v>0.54059</v>
+        <v>0.536334</v>
       </c>
       <c r="D27" t="n">
-        <v>0.420709</v>
+        <v>0.42515</v>
       </c>
       <c r="E27" t="n">
-        <v>0.216726</v>
+        <v>0.213662</v>
       </c>
       <c r="F27" t="n">
-        <v>0.455084</v>
+        <v>0.446101</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.324438</v>
+        <v>0.322637</v>
       </c>
       <c r="C28" t="n">
-        <v>0.53285</v>
+        <v>0.532209</v>
       </c>
       <c r="D28" t="n">
-        <v>0.421246</v>
+        <v>0.425812</v>
       </c>
       <c r="E28" t="n">
-        <v>0.215941</v>
+        <v>0.211926</v>
       </c>
       <c r="F28" t="n">
-        <v>0.454567</v>
+        <v>0.445807</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.317001</v>
+        <v>0.314944</v>
       </c>
       <c r="C29" t="n">
-        <v>0.532355</v>
+        <v>0.528606</v>
       </c>
       <c r="D29" t="n">
-        <v>0.421317</v>
+        <v>0.426812</v>
       </c>
       <c r="E29" t="n">
-        <v>0.214822</v>
+        <v>0.211618</v>
       </c>
       <c r="F29" t="n">
-        <v>0.452892</v>
+        <v>0.443972</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.308607</v>
+        <v>0.305535</v>
       </c>
       <c r="C30" t="n">
-        <v>0.52154</v>
+        <v>0.519887</v>
       </c>
       <c r="D30" t="n">
-        <v>0.422461</v>
+        <v>0.428274</v>
       </c>
       <c r="E30" t="n">
-        <v>0.213754</v>
+        <v>0.21107</v>
       </c>
       <c r="F30" t="n">
-        <v>0.452133</v>
+        <v>0.444131</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.300932</v>
+        <v>0.296654</v>
       </c>
       <c r="C31" t="n">
-        <v>0.505691</v>
+        <v>0.505418</v>
       </c>
       <c r="D31" t="n">
-        <v>0.422138</v>
+        <v>0.429387</v>
       </c>
       <c r="E31" t="n">
-        <v>0.212694</v>
+        <v>0.209524</v>
       </c>
       <c r="F31" t="n">
-        <v>0.450066</v>
+        <v>0.44202</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.290934</v>
+        <v>0.287029</v>
       </c>
       <c r="C32" t="n">
-        <v>0.505843</v>
+        <v>0.499787</v>
       </c>
       <c r="D32" t="n">
-        <v>0.423267</v>
+        <v>0.430857</v>
       </c>
       <c r="E32" t="n">
-        <v>0.212236</v>
+        <v>0.208843</v>
       </c>
       <c r="F32" t="n">
-        <v>0.44856</v>
+        <v>0.440473</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.282753</v>
+        <v>0.277627</v>
       </c>
       <c r="C33" t="n">
-        <v>0.491612</v>
+        <v>0.494788</v>
       </c>
       <c r="D33" t="n">
-        <v>0.423804</v>
+        <v>0.431645</v>
       </c>
       <c r="E33" t="n">
-        <v>0.212508</v>
+        <v>0.209388</v>
       </c>
       <c r="F33" t="n">
-        <v>0.448211</v>
+        <v>0.439484</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.271331</v>
+        <v>0.267405</v>
       </c>
       <c r="C34" t="n">
-        <v>0.477767</v>
+        <v>0.476623</v>
       </c>
       <c r="D34" t="n">
-        <v>0.42492</v>
+        <v>0.433199</v>
       </c>
       <c r="E34" t="n">
-        <v>0.21151</v>
+        <v>0.20811</v>
       </c>
       <c r="F34" t="n">
-        <v>0.448032</v>
+        <v>0.439197</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.259083</v>
+        <v>0.255992</v>
       </c>
       <c r="C35" t="n">
-        <v>0.467803</v>
+        <v>0.462164</v>
       </c>
       <c r="D35" t="n">
-        <v>0.425419</v>
+        <v>0.428819</v>
       </c>
       <c r="E35" t="n">
-        <v>0.210781</v>
+        <v>0.207719</v>
       </c>
       <c r="F35" t="n">
-        <v>0.447683</v>
+        <v>0.43857</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.247005</v>
+        <v>0.242928</v>
       </c>
       <c r="C36" t="n">
-        <v>0.453988</v>
+        <v>0.45886</v>
       </c>
       <c r="D36" t="n">
-        <v>0.426287</v>
+        <v>0.428715</v>
       </c>
       <c r="E36" t="n">
-        <v>0.208903</v>
+        <v>0.206452</v>
       </c>
       <c r="F36" t="n">
-        <v>0.445761</v>
+        <v>0.43694</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.2324</v>
+        <v>0.229114</v>
       </c>
       <c r="C37" t="n">
-        <v>0.449487</v>
+        <v>0.44718</v>
       </c>
       <c r="D37" t="n">
-        <v>0.426385</v>
+        <v>0.428848</v>
       </c>
       <c r="E37" t="n">
-        <v>0.225447</v>
+        <v>0.223223</v>
       </c>
       <c r="F37" t="n">
-        <v>0.460958</v>
+        <v>0.453187</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.350685</v>
+        <v>0.34907</v>
       </c>
       <c r="C38" t="n">
-        <v>0.554915</v>
+        <v>0.561503</v>
       </c>
       <c r="D38" t="n">
-        <v>0.425281</v>
+        <v>0.427883</v>
       </c>
       <c r="E38" t="n">
-        <v>0.22244</v>
+        <v>0.21847</v>
       </c>
       <c r="F38" t="n">
-        <v>0.459768</v>
+        <v>0.451369</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.345738</v>
+        <v>0.344398</v>
       </c>
       <c r="C39" t="n">
-        <v>0.550915</v>
+        <v>0.551004</v>
       </c>
       <c r="D39" t="n">
-        <v>0.425175</v>
+        <v>0.428211</v>
       </c>
       <c r="E39" t="n">
-        <v>0.219418</v>
+        <v>0.216185</v>
       </c>
       <c r="F39" t="n">
-        <v>0.457072</v>
+        <v>0.449723</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.340265</v>
+        <v>0.339734</v>
       </c>
       <c r="C40" t="n">
-        <v>0.545316</v>
+        <v>0.546004</v>
       </c>
       <c r="D40" t="n">
-        <v>0.425219</v>
+        <v>0.427008</v>
       </c>
       <c r="E40" t="n">
-        <v>0.218839</v>
+        <v>0.215669</v>
       </c>
       <c r="F40" t="n">
-        <v>0.456884</v>
+        <v>0.44871</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.334525</v>
+        <v>0.333089</v>
       </c>
       <c r="C41" t="n">
-        <v>0.538588</v>
+        <v>0.540432</v>
       </c>
       <c r="D41" t="n">
-        <v>0.423818</v>
+        <v>0.427939</v>
       </c>
       <c r="E41" t="n">
-        <v>0.217342</v>
+        <v>0.213572</v>
       </c>
       <c r="F41" t="n">
-        <v>0.455243</v>
+        <v>0.447467</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.345926</v>
+        <v>0.325394</v>
       </c>
       <c r="C42" t="n">
-        <v>0.535411</v>
+        <v>0.53654</v>
       </c>
       <c r="D42" t="n">
-        <v>0.424807</v>
+        <v>0.429162</v>
       </c>
       <c r="E42" t="n">
-        <v>0.216053</v>
+        <v>0.212485</v>
       </c>
       <c r="F42" t="n">
-        <v>0.454257</v>
+        <v>0.446389</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319461</v>
+        <v>0.318249</v>
       </c>
       <c r="C43" t="n">
-        <v>0.52644</v>
+        <v>0.527169</v>
       </c>
       <c r="D43" t="n">
-        <v>0.423984</v>
+        <v>0.429644</v>
       </c>
       <c r="E43" t="n">
-        <v>0.214378</v>
+        <v>0.211374</v>
       </c>
       <c r="F43" t="n">
-        <v>0.452427</v>
+        <v>0.443999</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.311818</v>
+        <v>0.311057</v>
       </c>
       <c r="C44" t="n">
-        <v>0.522322</v>
+        <v>0.5234490000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.424461</v>
+        <v>0.430075</v>
       </c>
       <c r="E44" t="n">
-        <v>0.213948</v>
+        <v>0.210447</v>
       </c>
       <c r="F44" t="n">
-        <v>0.451082</v>
+        <v>0.442895</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.303272</v>
+        <v>0.302762</v>
       </c>
       <c r="C45" t="n">
-        <v>0.511086</v>
+        <v>0.513877</v>
       </c>
       <c r="D45" t="n">
-        <v>0.425994</v>
+        <v>0.432012</v>
       </c>
       <c r="E45" t="n">
-        <v>0.212906</v>
+        <v>0.209656</v>
       </c>
       <c r="F45" t="n">
-        <v>0.450541</v>
+        <v>0.442958</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.29461</v>
+        <v>0.292469</v>
       </c>
       <c r="C46" t="n">
-        <v>0.508521</v>
+        <v>0.506385</v>
       </c>
       <c r="D46" t="n">
-        <v>0.426097</v>
+        <v>0.433575</v>
       </c>
       <c r="E46" t="n">
-        <v>0.211949</v>
+        <v>0.208656</v>
       </c>
       <c r="F46" t="n">
-        <v>0.449604</v>
+        <v>0.440752</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.284534</v>
+        <v>0.283415</v>
       </c>
       <c r="C47" t="n">
-        <v>0.497618</v>
+        <v>0.500642</v>
       </c>
       <c r="D47" t="n">
-        <v>0.426752</v>
+        <v>0.434478</v>
       </c>
       <c r="E47" t="n">
-        <v>0.211633</v>
+        <v>0.208178</v>
       </c>
       <c r="F47" t="n">
-        <v>0.448509</v>
+        <v>0.439888</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.274853</v>
+        <v>0.273129</v>
       </c>
       <c r="C48" t="n">
-        <v>0.486401</v>
+        <v>0.490533</v>
       </c>
       <c r="D48" t="n">
-        <v>0.427165</v>
+        <v>0.435307</v>
       </c>
       <c r="E48" t="n">
-        <v>0.20896</v>
+        <v>0.208042</v>
       </c>
       <c r="F48" t="n">
-        <v>0.447329</v>
+        <v>0.438581</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.262888</v>
+        <v>0.261873</v>
       </c>
       <c r="C49" t="n">
-        <v>0.470541</v>
+        <v>0.472968</v>
       </c>
       <c r="D49" t="n">
-        <v>0.428224</v>
+        <v>0.437775</v>
       </c>
       <c r="E49" t="n">
-        <v>0.209323</v>
+        <v>0.207824</v>
       </c>
       <c r="F49" t="n">
-        <v>0.44661</v>
+        <v>0.438231</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.249522</v>
+        <v>0.248582</v>
       </c>
       <c r="C50" t="n">
-        <v>0.463499</v>
+        <v>0.46417</v>
       </c>
       <c r="D50" t="n">
-        <v>0.43106</v>
+        <v>0.435015</v>
       </c>
       <c r="E50" t="n">
-        <v>0.208691</v>
+        <v>0.207841</v>
       </c>
       <c r="F50" t="n">
-        <v>0.445859</v>
+        <v>0.43762</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.236542</v>
+        <v>0.235238</v>
       </c>
       <c r="C51" t="n">
-        <v>0.445948</v>
+        <v>0.443162</v>
       </c>
       <c r="D51" t="n">
-        <v>0.431705</v>
+        <v>0.434921</v>
       </c>
       <c r="E51" t="n">
-        <v>0.225102</v>
+        <v>0.222329</v>
       </c>
       <c r="F51" t="n">
-        <v>0.462515</v>
+        <v>0.453351</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.221194</v>
+        <v>0.219134</v>
       </c>
       <c r="C52" t="n">
-        <v>0.433541</v>
+        <v>0.431721</v>
       </c>
       <c r="D52" t="n">
-        <v>0.433231</v>
+        <v>0.43356</v>
       </c>
       <c r="E52" t="n">
-        <v>0.220278</v>
+        <v>0.219321</v>
       </c>
       <c r="F52" t="n">
-        <v>0.461704</v>
+        <v>0.452054</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.347479</v>
+        <v>0.346877</v>
       </c>
       <c r="C53" t="n">
-        <v>0.560242</v>
+        <v>0.561978</v>
       </c>
       <c r="D53" t="n">
-        <v>0.432762</v>
+        <v>0.435133</v>
       </c>
       <c r="E53" t="n">
-        <v>0.220151</v>
+        <v>0.216554</v>
       </c>
       <c r="F53" t="n">
-        <v>0.459782</v>
+        <v>0.449944</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.341953</v>
+        <v>0.340585</v>
       </c>
       <c r="C54" t="n">
-        <v>0.552884</v>
+        <v>0.55016</v>
       </c>
       <c r="D54" t="n">
-        <v>0.433108</v>
+        <v>0.435098</v>
       </c>
       <c r="E54" t="n">
-        <v>0.218472</v>
+        <v>0.215083</v>
       </c>
       <c r="F54" t="n">
-        <v>0.457339</v>
+        <v>0.448873</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.33635</v>
+        <v>0.334198</v>
       </c>
       <c r="C55" t="n">
-        <v>0.552931</v>
+        <v>0.550242</v>
       </c>
       <c r="D55" t="n">
-        <v>0.431375</v>
+        <v>0.436922</v>
       </c>
       <c r="E55" t="n">
-        <v>0.216999</v>
+        <v>0.213585</v>
       </c>
       <c r="F55" t="n">
-        <v>0.455747</v>
+        <v>0.447083</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.32898</v>
+        <v>0.328285</v>
       </c>
       <c r="C56" t="n">
-        <v>0.545789</v>
+        <v>0.549175</v>
       </c>
       <c r="D56" t="n">
-        <v>0.435575</v>
+        <v>0.439012</v>
       </c>
       <c r="E56" t="n">
-        <v>0.215871</v>
+        <v>0.212752</v>
       </c>
       <c r="F56" t="n">
-        <v>0.454822</v>
+        <v>0.446003</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.321755</v>
+        <v>0.321454</v>
       </c>
       <c r="C57" t="n">
-        <v>0.550199</v>
+        <v>0.536146</v>
       </c>
       <c r="D57" t="n">
-        <v>0.438933</v>
+        <v>0.44253</v>
       </c>
       <c r="E57" t="n">
-        <v>0.214932</v>
+        <v>0.211831</v>
       </c>
       <c r="F57" t="n">
-        <v>0.453383</v>
+        <v>0.444713</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.313348</v>
+        <v>0.314074</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5479810000000001</v>
+        <v>0.543494</v>
       </c>
       <c r="D58" t="n">
-        <v>0.435374</v>
+        <v>0.447774</v>
       </c>
       <c r="E58" t="n">
-        <v>0.21415</v>
+        <v>0.21089</v>
       </c>
       <c r="F58" t="n">
-        <v>0.451853</v>
+        <v>0.443256</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305626</v>
+        <v>0.30561</v>
       </c>
       <c r="C59" t="n">
-        <v>0.544867</v>
+        <v>0.520069</v>
       </c>
       <c r="D59" t="n">
-        <v>0.438798</v>
+        <v>0.4491</v>
       </c>
       <c r="E59" t="n">
-        <v>0.213244</v>
+        <v>0.210152</v>
       </c>
       <c r="F59" t="n">
-        <v>0.450891</v>
+        <v>0.442199</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.296347</v>
+        <v>0.296036</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5176770000000001</v>
+        <v>0.53232</v>
       </c>
       <c r="D60" t="n">
-        <v>0.442783</v>
+        <v>0.446651</v>
       </c>
       <c r="E60" t="n">
-        <v>0.212391</v>
+        <v>0.209215</v>
       </c>
       <c r="F60" t="n">
-        <v>0.450362</v>
+        <v>0.441362</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.287176</v>
+        <v>0.286697</v>
       </c>
       <c r="C61" t="n">
-        <v>0.541749</v>
+        <v>0.524134</v>
       </c>
       <c r="D61" t="n">
-        <v>0.443005</v>
+        <v>0.451501</v>
       </c>
       <c r="E61" t="n">
-        <v>0.211797</v>
+        <v>0.208562</v>
       </c>
       <c r="F61" t="n">
-        <v>0.448833</v>
+        <v>0.440593</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.277179</v>
+        <v>0.276045</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5089939999999999</v>
+        <v>0.516836</v>
       </c>
       <c r="D62" t="n">
-        <v>0.44859</v>
+        <v>0.456074</v>
       </c>
       <c r="E62" t="n">
-        <v>0.211052</v>
+        <v>0.207957</v>
       </c>
       <c r="F62" t="n">
-        <v>0.447703</v>
+        <v>0.439301</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.265445</v>
+        <v>0.264746</v>
       </c>
       <c r="C63" t="n">
-        <v>0.523111</v>
+        <v>0.487634</v>
       </c>
       <c r="D63" t="n">
-        <v>0.448088</v>
+        <v>0.457103</v>
       </c>
       <c r="E63" t="n">
-        <v>0.210568</v>
+        <v>0.208202</v>
       </c>
       <c r="F63" t="n">
-        <v>0.446815</v>
+        <v>0.437905</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.253693</v>
+        <v>0.252809</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4993</v>
+        <v>0.480501</v>
       </c>
       <c r="D64" t="n">
-        <v>0.490092</v>
+        <v>0.495065</v>
       </c>
       <c r="E64" t="n">
-        <v>0.210323</v>
+        <v>0.207406</v>
       </c>
       <c r="F64" t="n">
-        <v>0.446166</v>
+        <v>0.437517</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.240107</v>
+        <v>0.238885</v>
       </c>
       <c r="C65" t="n">
-        <v>0.494405</v>
+        <v>0.483265</v>
       </c>
       <c r="D65" t="n">
-        <v>0.488768</v>
+        <v>0.495283</v>
       </c>
       <c r="E65" t="n">
-        <v>0.209813</v>
+        <v>0.209167</v>
       </c>
       <c r="F65" t="n">
-        <v>0.445363</v>
+        <v>0.436987</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.225751</v>
+        <v>0.224385</v>
       </c>
       <c r="C66" t="n">
-        <v>0.477407</v>
+        <v>0.464352</v>
       </c>
       <c r="D66" t="n">
-        <v>0.503121</v>
+        <v>0.500001</v>
       </c>
       <c r="E66" t="n">
-        <v>0.222369</v>
+        <v>0.22026</v>
       </c>
       <c r="F66" t="n">
-        <v>0.46526</v>
+        <v>0.453318</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349362</v>
+        <v>0.348592</v>
       </c>
       <c r="C67" t="n">
-        <v>0.645003</v>
+        <v>0.628583</v>
       </c>
       <c r="D67" t="n">
-        <v>0.509192</v>
+        <v>0.506649</v>
       </c>
       <c r="E67" t="n">
-        <v>0.220606</v>
+        <v>0.217601</v>
       </c>
       <c r="F67" t="n">
-        <v>0.463267</v>
+        <v>0.451585</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.343868</v>
+        <v>0.342733</v>
       </c>
       <c r="C68" t="n">
-        <v>0.590854</v>
+        <v>0.579793</v>
       </c>
       <c r="D68" t="n">
-        <v>0.5156849999999999</v>
+        <v>0.515109</v>
       </c>
       <c r="E68" t="n">
-        <v>0.21901</v>
+        <v>0.215732</v>
       </c>
       <c r="F68" t="n">
-        <v>0.462186</v>
+        <v>0.449891</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.337659</v>
+        <v>0.33632</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5851499999999999</v>
+        <v>0.60279</v>
       </c>
       <c r="D69" t="n">
-        <v>0.520339</v>
+        <v>0.528455</v>
       </c>
       <c r="E69" t="n">
-        <v>0.217202</v>
+        <v>0.214082</v>
       </c>
       <c r="F69" t="n">
-        <v>0.460348</v>
+        <v>0.447879</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.330805</v>
+        <v>0.330249</v>
       </c>
       <c r="C70" t="n">
-        <v>0.679299</v>
+        <v>0.6358819999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5251169999999999</v>
+        <v>0.530921</v>
       </c>
       <c r="E70" t="n">
-        <v>0.215786</v>
+        <v>0.21424</v>
       </c>
       <c r="F70" t="n">
-        <v>0.458416</v>
+        <v>0.447</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.324022</v>
+        <v>0.323441</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6585220000000001</v>
+        <v>0.646295</v>
       </c>
       <c r="D71" t="n">
-        <v>0.528269</v>
+        <v>0.5320780000000001</v>
       </c>
       <c r="E71" t="n">
-        <v>0.215138</v>
+        <v>0.211854</v>
       </c>
       <c r="F71" t="n">
-        <v>0.457086</v>
+        <v>0.446127</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.316074</v>
+        <v>0.315724</v>
       </c>
       <c r="C72" t="n">
-        <v>0.666598</v>
+        <v>0.629171</v>
       </c>
       <c r="D72" t="n">
-        <v>0.534373</v>
+        <v>0.531624</v>
       </c>
       <c r="E72" t="n">
-        <v>0.214274</v>
+        <v>0.210939</v>
       </c>
       <c r="F72" t="n">
-        <v>0.45551</v>
+        <v>0.444557</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.308224</v>
+        <v>0.307651</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6201950000000001</v>
+        <v>0.627418</v>
       </c>
       <c r="D73" t="n">
-        <v>0.539638</v>
+        <v>0.541119</v>
       </c>
       <c r="E73" t="n">
-        <v>0.21342</v>
+        <v>0.210085</v>
       </c>
       <c r="F73" t="n">
-        <v>0.455049</v>
+        <v>0.443294</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.299502</v>
+        <v>0.298956</v>
       </c>
       <c r="C74" t="n">
-        <v>0.625586</v>
+        <v>0.635858</v>
       </c>
       <c r="D74" t="n">
-        <v>0.543013</v>
+        <v>0.539641</v>
       </c>
       <c r="E74" t="n">
-        <v>0.21246</v>
+        <v>0.209169</v>
       </c>
       <c r="F74" t="n">
-        <v>0.454008</v>
+        <v>0.442438</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.289092</v>
+        <v>0.288728</v>
       </c>
       <c r="C75" t="n">
-        <v>0.663364</v>
+        <v>0.636073</v>
       </c>
       <c r="D75" t="n">
-        <v>0.539976</v>
+        <v>0.541054</v>
       </c>
       <c r="E75" t="n">
-        <v>0.211761</v>
+        <v>0.2098</v>
       </c>
       <c r="F75" t="n">
-        <v>0.452407</v>
+        <v>0.441281</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.280598</v>
+        <v>0.278729</v>
       </c>
       <c r="C76" t="n">
-        <v>0.595532</v>
+        <v>0.614555</v>
       </c>
       <c r="D76" t="n">
-        <v>0.542951</v>
+        <v>0.54472</v>
       </c>
       <c r="E76" t="n">
-        <v>0.211111</v>
+        <v>0.208317</v>
       </c>
       <c r="F76" t="n">
-        <v>0.451638</v>
+        <v>0.439912</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.268956</v>
+        <v>0.267758</v>
       </c>
       <c r="C77" t="n">
-        <v>0.630011</v>
+        <v>0.582377</v>
       </c>
       <c r="D77" t="n">
-        <v>0.544784</v>
+        <v>0.544658</v>
       </c>
       <c r="E77" t="n">
-        <v>0.210763</v>
+        <v>0.207388</v>
       </c>
       <c r="F77" t="n">
-        <v>0.450697</v>
+        <v>0.439004</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.257637</v>
+        <v>0.255648</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6198360000000001</v>
+        <v>0.614</v>
       </c>
       <c r="D78" t="n">
-        <v>0.619213</v>
+        <v>0.62079</v>
       </c>
       <c r="E78" t="n">
-        <v>0.208369</v>
+        <v>0.207179</v>
       </c>
       <c r="F78" t="n">
-        <v>0.450528</v>
+        <v>0.438126</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.244287</v>
+        <v>0.242079</v>
       </c>
       <c r="C79" t="n">
-        <v>0.549677</v>
+        <v>0.560388</v>
       </c>
       <c r="D79" t="n">
-        <v>0.627575</v>
+        <v>0.611031</v>
       </c>
       <c r="E79" t="n">
-        <v>0.210254</v>
+        <v>0.208412</v>
       </c>
       <c r="F79" t="n">
-        <v>0.449006</v>
+        <v>0.437193</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.229926</v>
+        <v>0.227899</v>
       </c>
       <c r="C80" t="n">
-        <v>0.504745</v>
+        <v>0.56207</v>
       </c>
       <c r="D80" t="n">
-        <v>0.628552</v>
+        <v>0.623946</v>
       </c>
       <c r="E80" t="n">
-        <v>0.222608</v>
+        <v>0.220808</v>
       </c>
       <c r="F80" t="n">
-        <v>0.465646</v>
+        <v>0.453722</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350831</v>
+        <v>0.350196</v>
       </c>
       <c r="C81" t="n">
-        <v>0.657978</v>
+        <v>0.745302</v>
       </c>
       <c r="D81" t="n">
-        <v>0.624395</v>
+        <v>0.618133</v>
       </c>
       <c r="E81" t="n">
-        <v>0.221953</v>
+        <v>0.218606</v>
       </c>
       <c r="F81" t="n">
-        <v>0.463762</v>
+        <v>0.451843</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.34506</v>
+        <v>0.344451</v>
       </c>
       <c r="C82" t="n">
-        <v>0.671494</v>
+        <v>0.6942430000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.619821</v>
+        <v>0.624686</v>
       </c>
       <c r="E82" t="n">
-        <v>0.219842</v>
+        <v>0.216226</v>
       </c>
       <c r="F82" t="n">
-        <v>0.462097</v>
+        <v>0.456081</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.338901</v>
+        <v>0.338486</v>
       </c>
       <c r="C83" t="n">
-        <v>0.637763</v>
+        <v>0.621287</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6163</v>
+        <v>0.621577</v>
       </c>
       <c r="E83" t="n">
-        <v>0.2184</v>
+        <v>0.214713</v>
       </c>
       <c r="F83" t="n">
-        <v>0.460872</v>
+        <v>0.454851</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.332472</v>
+        <v>0.332288</v>
       </c>
       <c r="C84" t="n">
-        <v>0.719418</v>
+        <v>0.616478</v>
       </c>
       <c r="D84" t="n">
-        <v>0.604705</v>
+        <v>0.612449</v>
       </c>
       <c r="E84" t="n">
-        <v>0.216997</v>
+        <v>0.213614</v>
       </c>
       <c r="F84" t="n">
-        <v>0.458933</v>
+        <v>0.453301</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.325131</v>
+        <v>0.324882</v>
       </c>
       <c r="C85" t="n">
-        <v>0.67575</v>
+        <v>0.677553</v>
       </c>
       <c r="D85" t="n">
-        <v>0.609645</v>
+        <v>0.613272</v>
       </c>
       <c r="E85" t="n">
-        <v>0.21599</v>
+        <v>0.212416</v>
       </c>
       <c r="F85" t="n">
-        <v>0.458126</v>
+        <v>0.452228</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.31717</v>
+        <v>0.317106</v>
       </c>
       <c r="C86" t="n">
-        <v>0.707055</v>
+        <v>0.742038</v>
       </c>
       <c r="D86" t="n">
-        <v>0.603353</v>
+        <v>0.607421</v>
       </c>
       <c r="E86" t="n">
-        <v>0.214782</v>
+        <v>0.211296</v>
       </c>
       <c r="F86" t="n">
-        <v>0.45665</v>
+        <v>0.450789</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.30943</v>
+        <v>0.309422</v>
       </c>
       <c r="C87" t="n">
-        <v>0.601796</v>
+        <v>0.528904</v>
       </c>
       <c r="D87" t="n">
-        <v>0.601077</v>
+        <v>0.602069</v>
       </c>
       <c r="E87" t="n">
-        <v>0.213668</v>
+        <v>0.210274</v>
       </c>
       <c r="F87" t="n">
-        <v>0.455074</v>
+        <v>0.449735</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.300771</v>
+        <v>0.301321</v>
       </c>
       <c r="C88" t="n">
-        <v>0.593391</v>
+        <v>0.626493</v>
       </c>
       <c r="D88" t="n">
-        <v>0.592232</v>
+        <v>0.5977479999999999</v>
       </c>
       <c r="E88" t="n">
-        <v>0.212657</v>
+        <v>0.209396</v>
       </c>
       <c r="F88" t="n">
-        <v>0.454208</v>
+        <v>0.44861</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.291689</v>
+        <v>0.291696</v>
       </c>
       <c r="C89" t="n">
-        <v>0.685829</v>
+        <v>0.653488</v>
       </c>
       <c r="D89" t="n">
-        <v>0.591562</v>
+        <v>0.592764</v>
       </c>
       <c r="E89" t="n">
-        <v>0.210769</v>
+        <v>0.20902</v>
       </c>
       <c r="F89" t="n">
-        <v>0.452935</v>
+        <v>0.447491</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.282035</v>
+        <v>0.281433</v>
       </c>
       <c r="C90" t="n">
-        <v>0.566605</v>
+        <v>0.63191</v>
       </c>
       <c r="D90" t="n">
-        <v>0.589741</v>
+        <v>0.593413</v>
       </c>
       <c r="E90" t="n">
-        <v>0.211325</v>
+        <v>0.208111</v>
       </c>
       <c r="F90" t="n">
-        <v>0.45256</v>
+        <v>0.446626</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.271177</v>
+        <v>0.270924</v>
       </c>
       <c r="C91" t="n">
-        <v>0.572586</v>
+        <v>0.585686</v>
       </c>
       <c r="D91" t="n">
-        <v>0.58335</v>
+        <v>0.592691</v>
       </c>
       <c r="E91" t="n">
-        <v>0.210844</v>
+        <v>0.207441</v>
       </c>
       <c r="F91" t="n">
-        <v>0.450751</v>
+        <v>0.445627</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.259341</v>
+        <v>0.258462</v>
       </c>
       <c r="C92" t="n">
-        <v>0.497745</v>
+        <v>0.547417</v>
       </c>
       <c r="D92" t="n">
-        <v>0.6291369999999999</v>
+        <v>0.630846</v>
       </c>
       <c r="E92" t="n">
-        <v>0.210521</v>
+        <v>0.208884</v>
       </c>
       <c r="F92" t="n">
-        <v>0.45016</v>
+        <v>0.444811</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.247167</v>
+        <v>0.245604</v>
       </c>
       <c r="C93" t="n">
-        <v>0.598851</v>
+        <v>0.6100640000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>0.609816</v>
+        <v>0.627566</v>
       </c>
       <c r="E93" t="n">
-        <v>0.208728</v>
+        <v>0.20669</v>
       </c>
       <c r="F93" t="n">
-        <v>0.44877</v>
+        <v>0.444052</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.232973</v>
+        <v>0.231415</v>
       </c>
       <c r="C94" t="n">
-        <v>0.572877</v>
+        <v>0.596783</v>
       </c>
       <c r="D94" t="n">
-        <v>0.611425</v>
+        <v>0.630408</v>
       </c>
       <c r="E94" t="n">
-        <v>0.224456</v>
+        <v>0.222001</v>
       </c>
       <c r="F94" t="n">
-        <v>0.465369</v>
+        <v>0.459659</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.351681</v>
+        <v>0.352013</v>
       </c>
       <c r="C95" t="n">
-        <v>0.759642</v>
+        <v>0.677725</v>
       </c>
       <c r="D95" t="n">
-        <v>0.61743</v>
+        <v>0.623144</v>
       </c>
       <c r="E95" t="n">
-        <v>0.222039</v>
+        <v>0.218854</v>
       </c>
       <c r="F95" t="n">
-        <v>0.464409</v>
+        <v>0.458085</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.3465</v>
+        <v>0.346354</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7131</v>
+        <v>0.6982429999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.614071</v>
+        <v>0.618573</v>
       </c>
       <c r="E96" t="n">
-        <v>0.220273</v>
+        <v>0.216689</v>
       </c>
       <c r="F96" t="n">
-        <v>0.461966</v>
+        <v>0.456509</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340335</v>
+        <v>0.340184</v>
       </c>
       <c r="C97" t="n">
-        <v>0.734407</v>
+        <v>0.706095</v>
       </c>
       <c r="D97" t="n">
-        <v>0.610479</v>
+        <v>0.614392</v>
       </c>
       <c r="E97" t="n">
-        <v>0.218745</v>
+        <v>0.215189</v>
       </c>
       <c r="F97" t="n">
-        <v>0.460621</v>
+        <v>0.454933</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333782</v>
+        <v>0.333548</v>
       </c>
       <c r="C98" t="n">
-        <v>0.668054</v>
+        <v>0.669038</v>
       </c>
       <c r="D98" t="n">
-        <v>0.604945</v>
+        <v>0.610421</v>
       </c>
       <c r="E98" t="n">
-        <v>0.217219</v>
+        <v>0.213731</v>
       </c>
       <c r="F98" t="n">
-        <v>0.459099</v>
+        <v>0.453757</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.327077</v>
+        <v>0.326815</v>
       </c>
       <c r="C99" t="n">
-        <v>0.672671</v>
+        <v>0.689286</v>
       </c>
       <c r="D99" t="n">
-        <v>0.591234</v>
+        <v>0.596793</v>
       </c>
       <c r="E99" t="n">
-        <v>0.215971</v>
+        <v>0.212472</v>
       </c>
       <c r="F99" t="n">
-        <v>0.457607</v>
+        <v>0.452339</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.319466</v>
+        <v>0.319033</v>
       </c>
       <c r="C100" t="n">
-        <v>0.573588</v>
+        <v>0.542779</v>
       </c>
       <c r="D100" t="n">
-        <v>0.5869259999999999</v>
+        <v>0.592612</v>
       </c>
       <c r="E100" t="n">
-        <v>0.214859</v>
+        <v>0.211411</v>
       </c>
       <c r="F100" t="n">
-        <v>0.456164</v>
+        <v>0.450866</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311367</v>
+        <v>0.311117</v>
       </c>
       <c r="C101" t="n">
-        <v>0.602113</v>
+        <v>0.668005</v>
       </c>
       <c r="D101" t="n">
-        <v>0.58331</v>
+        <v>0.58979</v>
       </c>
       <c r="E101" t="n">
-        <v>0.213745</v>
+        <v>0.210385</v>
       </c>
       <c r="F101" t="n">
-        <v>0.45516</v>
+        <v>0.449969</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302949</v>
+        <v>0.302627</v>
       </c>
       <c r="C102" t="n">
-        <v>0.643869</v>
+        <v>0.582354</v>
       </c>
       <c r="D102" t="n">
-        <v>0.58707</v>
+        <v>0.5850959999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>0.211504</v>
+        <v>0.209485</v>
       </c>
       <c r="F102" t="n">
-        <v>0.454881</v>
+        <v>0.448876</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.294188</v>
+        <v>0.29364</v>
       </c>
       <c r="C103" t="n">
-        <v>0.585234</v>
+        <v>0.632012</v>
       </c>
       <c r="D103" t="n">
-        <v>0.580527</v>
+        <v>0.582545</v>
       </c>
       <c r="E103" t="n">
-        <v>0.212068</v>
+        <v>0.208705</v>
       </c>
       <c r="F103" t="n">
-        <v>0.453322</v>
+        <v>0.447658</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.284599</v>
+        <v>0.283493</v>
       </c>
       <c r="C104" t="n">
-        <v>0.588284</v>
+        <v>0.589353</v>
       </c>
       <c r="D104" t="n">
-        <v>0.571646</v>
+        <v>0.581005</v>
       </c>
       <c r="E104" t="n">
-        <v>0.210081</v>
+        <v>0.208051</v>
       </c>
       <c r="F104" t="n">
-        <v>0.452042</v>
+        <v>0.446716</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.274384</v>
+        <v>0.272696</v>
       </c>
       <c r="C105" t="n">
-        <v>0.591232</v>
+        <v>0.525143</v>
       </c>
       <c r="D105" t="n">
-        <v>0.569878</v>
+        <v>0.5751270000000001</v>
       </c>
       <c r="E105" t="n">
-        <v>0.211431</v>
+        <v>0.20845</v>
       </c>
       <c r="F105" t="n">
-        <v>0.451335</v>
+        <v>0.445563</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.262488</v>
+        <v>0.261546</v>
       </c>
       <c r="C106" t="n">
-        <v>0.601553</v>
+        <v>0.542007</v>
       </c>
       <c r="D106" t="n">
-        <v>0.563412</v>
+        <v>0.574473</v>
       </c>
       <c r="E106" t="n">
-        <v>0.211071</v>
+        <v>0.207241</v>
       </c>
       <c r="F106" t="n">
-        <v>0.450025</v>
+        <v>0.445913</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.249919</v>
+        <v>0.248974</v>
       </c>
       <c r="C107" t="n">
-        <v>0.594503</v>
+        <v>0.602895</v>
       </c>
       <c r="D107" t="n">
-        <v>0.626353</v>
+        <v>0.629785</v>
       </c>
       <c r="E107" t="n">
-        <v>0.20895</v>
+        <v>0.206766</v>
       </c>
       <c r="F107" t="n">
-        <v>0.449472</v>
+        <v>0.443807</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.236489</v>
+        <v>0.23469</v>
       </c>
       <c r="C108" t="n">
-        <v>0.5654400000000001</v>
+        <v>0.558971</v>
       </c>
       <c r="D108" t="n">
-        <v>0.622721</v>
+        <v>0.628305</v>
       </c>
       <c r="E108" t="n">
-        <v>0.224505</v>
+        <v>0.22127</v>
       </c>
       <c r="F108" t="n">
-        <v>0.465424</v>
+        <v>0.460148</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.220753</v>
+        <v>0.219999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.510748</v>
+        <v>0.487164</v>
       </c>
       <c r="D109" t="n">
-        <v>0.607344</v>
+        <v>0.626479</v>
       </c>
       <c r="E109" t="n">
-        <v>0.222199</v>
+        <v>0.218935</v>
       </c>
       <c r="F109" t="n">
-        <v>0.463866</v>
+        <v>0.458566</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.34782</v>
+        <v>0.347688</v>
       </c>
       <c r="C110" t="n">
-        <v>0.701359</v>
+        <v>0.698719</v>
       </c>
       <c r="D110" t="n">
-        <v>0.602629</v>
+        <v>0.610611</v>
       </c>
       <c r="E110" t="n">
-        <v>0.220419</v>
+        <v>0.216988</v>
       </c>
       <c r="F110" t="n">
-        <v>0.462324</v>
+        <v>0.457039</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341701</v>
+        <v>0.341867</v>
       </c>
       <c r="C111" t="n">
-        <v>0.639496</v>
+        <v>0.615907</v>
       </c>
       <c r="D111" t="n">
-        <v>0.598592</v>
+        <v>0.605366</v>
       </c>
       <c r="E111" t="n">
-        <v>0.218646</v>
+        <v>0.215309</v>
       </c>
       <c r="F111" t="n">
-        <v>0.46086</v>
+        <v>0.455556</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.335548</v>
+        <v>0.335535</v>
       </c>
       <c r="C112" t="n">
-        <v>0.588139</v>
+        <v>0.593388</v>
       </c>
       <c r="D112" t="n">
-        <v>0.594235</v>
+        <v>0.600984</v>
       </c>
       <c r="E112" t="n">
-        <v>0.217419</v>
+        <v>0.213953</v>
       </c>
       <c r="F112" t="n">
-        <v>0.459744</v>
+        <v>0.453999</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.328519</v>
+        <v>0.328343</v>
       </c>
       <c r="C113" t="n">
-        <v>0.605593</v>
+        <v>0.706896</v>
       </c>
       <c r="D113" t="n">
-        <v>0.603522</v>
+        <v>0.607481</v>
       </c>
       <c r="E113" t="n">
-        <v>0.216196</v>
+        <v>0.212711</v>
       </c>
       <c r="F113" t="n">
-        <v>0.45823</v>
+        <v>0.452761</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.321016</v>
+        <v>0.321359</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6036629999999999</v>
+        <v>0.6351059999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.59632</v>
+        <v>0.601536</v>
       </c>
       <c r="E114" t="n">
-        <v>0.21502</v>
+        <v>0.211782</v>
       </c>
       <c r="F114" t="n">
-        <v>0.456714</v>
+        <v>0.451406</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313032</v>
+        <v>0.313261</v>
       </c>
       <c r="C115" t="n">
-        <v>0.584574</v>
+        <v>0.5763740000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>0.5909</v>
+        <v>0.589069</v>
       </c>
       <c r="E115" t="n">
-        <v>0.213871</v>
+        <v>0.210374</v>
       </c>
       <c r="F115" t="n">
-        <v>0.455494</v>
+        <v>0.450366</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304953</v>
+        <v>0.304765</v>
       </c>
       <c r="C116" t="n">
-        <v>0.7187750000000001</v>
+        <v>0.66896</v>
       </c>
       <c r="D116" t="n">
-        <v>0.586905</v>
+        <v>0.590776</v>
       </c>
       <c r="E116" t="n">
-        <v>0.21364</v>
+        <v>0.209556</v>
       </c>
       <c r="F116" t="n">
-        <v>0.454301</v>
+        <v>0.448941</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.296017</v>
+        <v>0.295326</v>
       </c>
       <c r="C117" t="n">
-        <v>0.620174</v>
+        <v>0.6471479999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>0.573245</v>
+        <v>0.585552</v>
       </c>
       <c r="E117" t="n">
-        <v>0.212246</v>
+        <v>0.20873</v>
       </c>
       <c r="F117" t="n">
-        <v>0.453645</v>
+        <v>0.447954</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.286623</v>
+        <v>0.286063</v>
       </c>
       <c r="C118" t="n">
-        <v>0.584283</v>
+        <v>0.658253</v>
       </c>
       <c r="D118" t="n">
-        <v>0.57325</v>
+        <v>0.580381</v>
       </c>
       <c r="E118" t="n">
-        <v>0.212103</v>
+        <v>0.208432</v>
       </c>
       <c r="F118" t="n">
-        <v>0.452322</v>
+        <v>0.44705</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.27587</v>
+        <v>0.275555</v>
       </c>
       <c r="C119" t="n">
-        <v>0.579312</v>
+        <v>0.623708</v>
       </c>
       <c r="D119" t="n">
-        <v>0.565295</v>
+        <v>0.575196</v>
       </c>
       <c r="E119" t="n">
-        <v>0.211502</v>
+        <v>0.209694</v>
       </c>
       <c r="F119" t="n">
-        <v>0.451224</v>
+        <v>0.446049</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.264861</v>
+        <v>0.264139</v>
       </c>
       <c r="C120" t="n">
-        <v>0.573176</v>
+        <v>0.625217</v>
       </c>
       <c r="D120" t="n">
-        <v>0.562511</v>
+        <v>0.570244</v>
       </c>
       <c r="E120" t="n">
-        <v>0.210731</v>
+        <v>0.208993</v>
       </c>
       <c r="F120" t="n">
-        <v>0.450384</v>
+        <v>0.445175</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.252764</v>
+        <v>0.251577</v>
       </c>
       <c r="C121" t="n">
-        <v>0.558766</v>
+        <v>0.605566</v>
       </c>
       <c r="D121" t="n">
-        <v>0.639422</v>
+        <v>0.645295</v>
       </c>
       <c r="E121" t="n">
-        <v>0.208598</v>
+        <v>0.206856</v>
       </c>
       <c r="F121" t="n">
-        <v>0.448983</v>
+        <v>0.444455</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.23944</v>
+        <v>0.237959</v>
       </c>
       <c r="C122" t="n">
-        <v>0.515563</v>
+        <v>0.563002</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6202490000000001</v>
+        <v>0.624296</v>
       </c>
       <c r="E122" t="n">
-        <v>0.210041</v>
+        <v>0.206763</v>
       </c>
       <c r="F122" t="n">
-        <v>0.448252</v>
+        <v>0.443746</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.224638</v>
+        <v>0.223335</v>
       </c>
       <c r="C123" t="n">
-        <v>0.546675</v>
+        <v>0.602092</v>
       </c>
       <c r="D123" t="n">
-        <v>0.634811</v>
+        <v>0.638943</v>
       </c>
       <c r="E123" t="n">
-        <v>0.222244</v>
+        <v>0.22072</v>
       </c>
       <c r="F123" t="n">
-        <v>0.464929</v>
+        <v>0.458858</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.349326</v>
+        <v>0.348707</v>
       </c>
       <c r="C124" t="n">
-        <v>0.565959</v>
+        <v>0.709535</v>
       </c>
       <c r="D124" t="n">
-        <v>0.627274</v>
+        <v>0.634843</v>
       </c>
       <c r="E124" t="n">
-        <v>0.220625</v>
+        <v>0.217213</v>
       </c>
       <c r="F124" t="n">
-        <v>0.46247</v>
+        <v>0.457122</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.34327</v>
+        <v>0.342795</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7466970000000001</v>
+        <v>0.594674</v>
       </c>
       <c r="D125" t="n">
-        <v>0.624545</v>
+        <v>0.629866</v>
       </c>
       <c r="E125" t="n">
-        <v>0.219032</v>
+        <v>0.21545</v>
       </c>
       <c r="F125" t="n">
-        <v>0.460641</v>
+        <v>0.455768</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.337445</v>
+        <v>0.336354</v>
       </c>
       <c r="C126" t="n">
-        <v>0.729373</v>
+        <v>0.7279910000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>0.61979</v>
+        <v>0.6243</v>
       </c>
       <c r="E126" t="n">
-        <v>0.217636</v>
+        <v>0.213926</v>
       </c>
       <c r="F126" t="n">
-        <v>0.459228</v>
+        <v>0.45418</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.32983</v>
+        <v>0.33073</v>
       </c>
       <c r="C127" t="n">
-        <v>0.596668</v>
+        <v>0.64202</v>
       </c>
       <c r="D127" t="n">
-        <v>0.600602</v>
+        <v>0.606775</v>
       </c>
       <c r="E127" t="n">
-        <v>0.21634</v>
+        <v>0.212729</v>
       </c>
       <c r="F127" t="n">
-        <v>0.458936</v>
+        <v>0.452734</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.322567</v>
+        <v>0.323043</v>
       </c>
       <c r="C128" t="n">
-        <v>0.618024</v>
+        <v>0.591879</v>
       </c>
       <c r="D128" t="n">
-        <v>0.59557</v>
+        <v>0.614042</v>
       </c>
       <c r="E128" t="n">
-        <v>0.215052</v>
+        <v>0.211462</v>
       </c>
       <c r="F128" t="n">
-        <v>0.456769</v>
+        <v>0.451528</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.315236</v>
+        <v>0.314697</v>
       </c>
       <c r="C129" t="n">
-        <v>0.565455</v>
+        <v>0.580326</v>
       </c>
       <c r="D129" t="n">
-        <v>0.590315</v>
+        <v>0.599286</v>
       </c>
       <c r="E129" t="n">
-        <v>0.213989</v>
+        <v>0.210382</v>
       </c>
       <c r="F129" t="n">
-        <v>0.455748</v>
+        <v>0.45037</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306755</v>
+        <v>0.305866</v>
       </c>
       <c r="C130" t="n">
-        <v>0.570262</v>
+        <v>0.546254</v>
       </c>
       <c r="D130" t="n">
-        <v>0.586877</v>
+        <v>0.6007670000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>0.21315</v>
+        <v>0.209596</v>
       </c>
       <c r="F130" t="n">
-        <v>0.454687</v>
+        <v>0.449279</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297687</v>
+        <v>0.297733</v>
       </c>
       <c r="C131" t="n">
-        <v>0.564519</v>
+        <v>0.623545</v>
       </c>
       <c r="D131" t="n">
-        <v>0.58105</v>
+        <v>0.590238</v>
       </c>
       <c r="E131" t="n">
-        <v>0.212324</v>
+        <v>0.208804</v>
       </c>
       <c r="F131" t="n">
-        <v>0.453286</v>
+        <v>0.447964</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.287864</v>
+        <v>0.287688</v>
       </c>
       <c r="C132" t="n">
-        <v>0.671652</v>
+        <v>0.538737</v>
       </c>
       <c r="D132" t="n">
-        <v>0.5824549999999999</v>
+        <v>0.588342</v>
       </c>
       <c r="E132" t="n">
-        <v>0.210209</v>
+        <v>0.210463</v>
       </c>
       <c r="F132" t="n">
-        <v>0.452311</v>
+        <v>0.447029</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.278345</v>
+        <v>0.277237</v>
       </c>
       <c r="C133" t="n">
-        <v>0.601418</v>
+        <v>0.655185</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5733549999999999</v>
+        <v>0.5832540000000001</v>
       </c>
       <c r="E133" t="n">
-        <v>0.2114</v>
+        <v>0.207762</v>
       </c>
       <c r="F133" t="n">
-        <v>0.450976</v>
+        <v>0.445922</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.267435</v>
+        <v>0.266176</v>
       </c>
       <c r="C134" t="n">
-        <v>0.588803</v>
+        <v>0.618394</v>
       </c>
       <c r="D134" t="n">
-        <v>0.57103</v>
+        <v>0.577337</v>
       </c>
       <c r="E134" t="n">
-        <v>0.210935</v>
+        <v>0.207626</v>
       </c>
       <c r="F134" t="n">
-        <v>0.45022</v>
+        <v>0.444956</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.255284</v>
+        <v>0.253611</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5338850000000001</v>
+        <v>0.507923</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6453</v>
+        <v>0.634271</v>
       </c>
       <c r="E135" t="n">
-        <v>0.208471</v>
+        <v>0.208773</v>
       </c>
       <c r="F135" t="n">
-        <v>0.449061</v>
+        <v>0.444078</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.24261</v>
+        <v>0.240701</v>
       </c>
       <c r="C136" t="n">
-        <v>0.522431</v>
+        <v>0.491209</v>
       </c>
       <c r="D136" t="n">
-        <v>0.623243</v>
+        <v>0.647837</v>
       </c>
       <c r="E136" t="n">
-        <v>0.2093</v>
+        <v>0.208624</v>
       </c>
       <c r="F136" t="n">
-        <v>0.447883</v>
+        <v>0.443474</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.228022</v>
+        <v>0.226077</v>
       </c>
       <c r="C137" t="n">
-        <v>0.498706</v>
+        <v>0.583382</v>
       </c>
       <c r="D137" t="n">
-        <v>0.639126</v>
+        <v>0.626661</v>
       </c>
       <c r="E137" t="n">
-        <v>0.222447</v>
+        <v>0.219332</v>
       </c>
       <c r="F137" t="n">
-        <v>0.464736</v>
+        <v>0.459929</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350266</v>
+        <v>0.350103</v>
       </c>
       <c r="C138" t="n">
-        <v>0.65042</v>
+        <v>0.6425419999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>0.619869</v>
+        <v>0.625705</v>
       </c>
       <c r="E138" t="n">
-        <v>0.220976</v>
+        <v>0.217406</v>
       </c>
       <c r="F138" t="n">
-        <v>0.462924</v>
+        <v>0.458006</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344657</v>
+        <v>0.344246</v>
       </c>
       <c r="C139" t="n">
-        <v>0.608733</v>
+        <v>0.623478</v>
       </c>
       <c r="D139" t="n">
-        <v>0.61566</v>
+        <v>0.622242</v>
       </c>
       <c r="E139" t="n">
-        <v>0.219298</v>
+        <v>0.215839</v>
       </c>
       <c r="F139" t="n">
-        <v>0.461658</v>
+        <v>0.456183</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338943</v>
+        <v>0.338267</v>
       </c>
       <c r="C140" t="n">
-        <v>0.639117</v>
+        <v>0.675956</v>
       </c>
       <c r="D140" t="n">
-        <v>0.612669</v>
+        <v>0.617914</v>
       </c>
       <c r="E140" t="n">
-        <v>0.217956</v>
+        <v>0.214273</v>
       </c>
       <c r="F140" t="n">
-        <v>0.459857</v>
+        <v>0.457003</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331743</v>
+        <v>0.331945</v>
       </c>
       <c r="C141" t="n">
-        <v>0.594462</v>
+        <v>0.674504</v>
       </c>
       <c r="D141" t="n">
-        <v>0.618823</v>
+        <v>0.625077</v>
       </c>
       <c r="E141" t="n">
-        <v>0.216687</v>
+        <v>0.213171</v>
       </c>
       <c r="F141" t="n">
-        <v>0.458812</v>
+        <v>0.460878</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.325041</v>
+        <v>0.324526</v>
       </c>
       <c r="C142" t="n">
-        <v>0.573211</v>
+        <v>0.619025</v>
       </c>
       <c r="D142" t="n">
-        <v>0.6127860000000001</v>
+        <v>0.618429</v>
       </c>
       <c r="E142" t="n">
-        <v>0.215516</v>
+        <v>0.212004</v>
       </c>
       <c r="F142" t="n">
-        <v>0.456858</v>
+        <v>0.451944</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316863</v>
+        <v>0.316957</v>
       </c>
       <c r="C143" t="n">
-        <v>0.623627</v>
+        <v>0.721762</v>
       </c>
       <c r="D143" t="n">
-        <v>0.606413</v>
+        <v>0.61215</v>
       </c>
       <c r="E143" t="n">
-        <v>0.214637</v>
+        <v>0.211863</v>
       </c>
       <c r="F143" t="n">
-        <v>0.455431</v>
+        <v>0.450604</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.297573</v>
+        <v>0.300396</v>
       </c>
       <c r="C2" t="n">
-        <v>0.509706</v>
+        <v>0.510296</v>
       </c>
       <c r="D2" t="n">
-        <v>0.41516</v>
+        <v>0.415012</v>
       </c>
       <c r="E2" t="n">
-        <v>0.183289</v>
+        <v>0.184532</v>
       </c>
       <c r="F2" t="n">
-        <v>0.436863</v>
+        <v>0.436611</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.287619</v>
+        <v>0.289543</v>
       </c>
       <c r="C3" t="n">
-        <v>0.497637</v>
+        <v>0.503894</v>
       </c>
       <c r="D3" t="n">
-        <v>0.415916</v>
+        <v>0.413535</v>
       </c>
       <c r="E3" t="n">
-        <v>0.184676</v>
+        <v>0.187339</v>
       </c>
       <c r="F3" t="n">
-        <v>0.436438</v>
+        <v>0.433146</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.277539</v>
+        <v>0.278327</v>
       </c>
       <c r="C4" t="n">
-        <v>0.491437</v>
+        <v>0.488992</v>
       </c>
       <c r="D4" t="n">
-        <v>0.417369</v>
+        <v>0.413063</v>
       </c>
       <c r="E4" t="n">
-        <v>0.187103</v>
+        <v>0.187253</v>
       </c>
       <c r="F4" t="n">
-        <v>0.434004</v>
+        <v>0.434364</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.270573</v>
+        <v>0.269375</v>
       </c>
       <c r="C5" t="n">
-        <v>0.481286</v>
+        <v>0.47875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.41957</v>
+        <v>0.415999</v>
       </c>
       <c r="E5" t="n">
-        <v>0.187989</v>
+        <v>0.188081</v>
       </c>
       <c r="F5" t="n">
-        <v>0.43316</v>
+        <v>0.432503</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.255071</v>
+        <v>0.255982</v>
       </c>
       <c r="C6" t="n">
-        <v>0.469446</v>
+        <v>0.469711</v>
       </c>
       <c r="D6" t="n">
-        <v>0.423444</v>
+        <v>0.417951</v>
       </c>
       <c r="E6" t="n">
-        <v>0.190637</v>
+        <v>0.18928</v>
       </c>
       <c r="F6" t="n">
-        <v>0.43345</v>
+        <v>0.43131</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.242847</v>
+        <v>0.244445</v>
       </c>
       <c r="C7" t="n">
-        <v>0.457954</v>
+        <v>0.458486</v>
       </c>
       <c r="D7" t="n">
-        <v>0.415811</v>
+        <v>0.414614</v>
       </c>
       <c r="E7" t="n">
-        <v>0.192289</v>
+        <v>0.192275</v>
       </c>
       <c r="F7" t="n">
-        <v>0.432229</v>
+        <v>0.429285</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.22792</v>
+        <v>0.231016</v>
       </c>
       <c r="C8" t="n">
-        <v>0.446139</v>
+        <v>0.445786</v>
       </c>
       <c r="D8" t="n">
-        <v>0.418262</v>
+        <v>0.416486</v>
       </c>
       <c r="E8" t="n">
-        <v>0.19279</v>
+        <v>0.192753</v>
       </c>
       <c r="F8" t="n">
-        <v>0.429441</v>
+        <v>0.427854</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.215305</v>
+        <v>0.217832</v>
       </c>
       <c r="C9" t="n">
-        <v>0.432061</v>
+        <v>0.431702</v>
       </c>
       <c r="D9" t="n">
-        <v>0.417503</v>
+        <v>0.414744</v>
       </c>
       <c r="E9" t="n">
-        <v>0.207862</v>
+        <v>0.208319</v>
       </c>
       <c r="F9" t="n">
-        <v>0.451064</v>
+        <v>0.445391</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.341244</v>
+        <v>0.343677</v>
       </c>
       <c r="C10" t="n">
-        <v>0.554165</v>
+        <v>0.554677</v>
       </c>
       <c r="D10" t="n">
-        <v>0.41664</v>
+        <v>0.415569</v>
       </c>
       <c r="E10" t="n">
-        <v>0.208654</v>
+        <v>0.208901</v>
       </c>
       <c r="F10" t="n">
-        <v>0.449218</v>
+        <v>0.445631</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.336342</v>
+        <v>0.335087</v>
       </c>
       <c r="C11" t="n">
-        <v>0.552348</v>
+        <v>0.540833</v>
       </c>
       <c r="D11" t="n">
-        <v>0.416852</v>
+        <v>0.414831</v>
       </c>
       <c r="E11" t="n">
-        <v>0.207088</v>
+        <v>0.208082</v>
       </c>
       <c r="F11" t="n">
-        <v>0.446729</v>
+        <v>0.44537</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.330647</v>
+        <v>0.330712</v>
       </c>
       <c r="C12" t="n">
-        <v>0.546926</v>
+        <v>0.547874</v>
       </c>
       <c r="D12" t="n">
-        <v>0.417049</v>
+        <v>0.414749</v>
       </c>
       <c r="E12" t="n">
-        <v>0.206643</v>
+        <v>0.206325</v>
       </c>
       <c r="F12" t="n">
-        <v>0.446339</v>
+        <v>0.443933</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.324429</v>
+        <v>0.324682</v>
       </c>
       <c r="C13" t="n">
-        <v>0.535791</v>
+        <v>0.536525</v>
       </c>
       <c r="D13" t="n">
-        <v>0.418776</v>
+        <v>0.4165</v>
       </c>
       <c r="E13" t="n">
-        <v>0.206641</v>
+        <v>0.207069</v>
       </c>
       <c r="F13" t="n">
-        <v>0.443725</v>
+        <v>0.442221</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.317955</v>
+        <v>0.317829</v>
       </c>
       <c r="C14" t="n">
-        <v>0.532982</v>
+        <v>0.532769</v>
       </c>
       <c r="D14" t="n">
-        <v>0.420644</v>
+        <v>0.418341</v>
       </c>
       <c r="E14" t="n">
-        <v>0.206201</v>
+        <v>0.207328</v>
       </c>
       <c r="F14" t="n">
-        <v>0.442096</v>
+        <v>0.441159</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.311311</v>
+        <v>0.311668</v>
       </c>
       <c r="C15" t="n">
-        <v>0.523572</v>
+        <v>0.525127</v>
       </c>
       <c r="D15" t="n">
-        <v>0.420686</v>
+        <v>0.420019</v>
       </c>
       <c r="E15" t="n">
-        <v>0.206576</v>
+        <v>0.206632</v>
       </c>
       <c r="F15" t="n">
-        <v>0.44097</v>
+        <v>0.440195</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.303435</v>
+        <v>0.303784</v>
       </c>
       <c r="C16" t="n">
-        <v>0.514866</v>
+        <v>0.514687</v>
       </c>
       <c r="D16" t="n">
-        <v>0.422116</v>
+        <v>0.420103</v>
       </c>
       <c r="E16" t="n">
-        <v>0.206168</v>
+        <v>0.205979</v>
       </c>
       <c r="F16" t="n">
-        <v>0.44118</v>
+        <v>0.439419</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.295423</v>
+        <v>0.296112</v>
       </c>
       <c r="C17" t="n">
-        <v>0.51205</v>
+        <v>0.512472</v>
       </c>
       <c r="D17" t="n">
-        <v>0.424318</v>
+        <v>0.421758</v>
       </c>
       <c r="E17" t="n">
-        <v>0.205688</v>
+        <v>0.206172</v>
       </c>
       <c r="F17" t="n">
-        <v>0.439518</v>
+        <v>0.437636</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.286042</v>
+        <v>0.287561</v>
       </c>
       <c r="C18" t="n">
-        <v>0.496673</v>
+        <v>0.496725</v>
       </c>
       <c r="D18" t="n">
-        <v>0.425533</v>
+        <v>0.42326</v>
       </c>
       <c r="E18" t="n">
-        <v>0.204622</v>
+        <v>0.20488</v>
       </c>
       <c r="F18" t="n">
-        <v>0.438414</v>
+        <v>0.435595</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.276976</v>
+        <v>0.277923</v>
       </c>
       <c r="C19" t="n">
-        <v>0.491376</v>
+        <v>0.491325</v>
       </c>
       <c r="D19" t="n">
-        <v>0.428617</v>
+        <v>0.425928</v>
       </c>
       <c r="E19" t="n">
-        <v>0.203557</v>
+        <v>0.204458</v>
       </c>
       <c r="F19" t="n">
-        <v>0.437224</v>
+        <v>0.436089</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.264391</v>
+        <v>0.26541</v>
       </c>
       <c r="C20" t="n">
-        <v>0.481756</v>
+        <v>0.482211</v>
       </c>
       <c r="D20" t="n">
-        <v>0.428461</v>
+        <v>0.42462</v>
       </c>
       <c r="E20" t="n">
-        <v>0.203481</v>
+        <v>0.203655</v>
       </c>
       <c r="F20" t="n">
-        <v>0.437639</v>
+        <v>0.435147</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.255904</v>
+        <v>0.25353</v>
       </c>
       <c r="C21" t="n">
-        <v>0.461683</v>
+        <v>0.461973</v>
       </c>
       <c r="D21" t="n">
-        <v>0.41973</v>
+        <v>0.421453</v>
       </c>
       <c r="E21" t="n">
-        <v>0.20343</v>
+        <v>0.203751</v>
       </c>
       <c r="F21" t="n">
-        <v>0.43595</v>
+        <v>0.433928</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238682</v>
+        <v>0.239463</v>
       </c>
       <c r="C22" t="n">
-        <v>0.454529</v>
+        <v>0.455084</v>
       </c>
       <c r="D22" t="n">
-        <v>0.422015</v>
+        <v>0.419396</v>
       </c>
       <c r="E22" t="n">
-        <v>0.203239</v>
+        <v>0.20442</v>
       </c>
       <c r="F22" t="n">
-        <v>0.435381</v>
+        <v>0.433341</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.227451</v>
+        <v>0.226884</v>
       </c>
       <c r="C23" t="n">
-        <v>0.432309</v>
+        <v>0.432571</v>
       </c>
       <c r="D23" t="n">
-        <v>0.422286</v>
+        <v>0.42101</v>
       </c>
       <c r="E23" t="n">
-        <v>0.222673</v>
+        <v>0.220844</v>
       </c>
       <c r="F23" t="n">
-        <v>0.452736</v>
+        <v>0.451332</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.346395</v>
+        <v>0.347069</v>
       </c>
       <c r="C24" t="n">
-        <v>0.556904</v>
+        <v>0.557069</v>
       </c>
       <c r="D24" t="n">
-        <v>0.422585</v>
+        <v>0.421238</v>
       </c>
       <c r="E24" t="n">
-        <v>0.217934</v>
+        <v>0.21835</v>
       </c>
       <c r="F24" t="n">
-        <v>0.450957</v>
+        <v>0.449289</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.340074</v>
+        <v>0.340474</v>
       </c>
       <c r="C25" t="n">
-        <v>0.553668</v>
+        <v>0.553414</v>
       </c>
       <c r="D25" t="n">
-        <v>0.424422</v>
+        <v>0.422752</v>
       </c>
       <c r="E25" t="n">
-        <v>0.215461</v>
+        <v>0.214899</v>
       </c>
       <c r="F25" t="n">
-        <v>0.449946</v>
+        <v>0.448228</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.334566</v>
+        <v>0.335181</v>
       </c>
       <c r="C26" t="n">
-        <v>0.548116</v>
+        <v>0.547956</v>
       </c>
       <c r="D26" t="n">
-        <v>0.424894</v>
+        <v>0.424192</v>
       </c>
       <c r="E26" t="n">
-        <v>0.214291</v>
+        <v>0.214105</v>
       </c>
       <c r="F26" t="n">
-        <v>0.448376</v>
+        <v>0.448102</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.328744</v>
+        <v>0.330718</v>
       </c>
       <c r="C27" t="n">
-        <v>0.536334</v>
+        <v>0.537209</v>
       </c>
       <c r="D27" t="n">
-        <v>0.42515</v>
+        <v>0.423614</v>
       </c>
       <c r="E27" t="n">
-        <v>0.213662</v>
+        <v>0.212752</v>
       </c>
       <c r="F27" t="n">
-        <v>0.446101</v>
+        <v>0.444529</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.322637</v>
+        <v>0.32486</v>
       </c>
       <c r="C28" t="n">
-        <v>0.532209</v>
+        <v>0.5330859999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.425812</v>
+        <v>0.425545</v>
       </c>
       <c r="E28" t="n">
-        <v>0.211926</v>
+        <v>0.212915</v>
       </c>
       <c r="F28" t="n">
-        <v>0.445807</v>
+        <v>0.444061</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.314944</v>
+        <v>0.316481</v>
       </c>
       <c r="C29" t="n">
-        <v>0.528606</v>
+        <v>0.5284450000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.426812</v>
+        <v>0.42499</v>
       </c>
       <c r="E29" t="n">
-        <v>0.211618</v>
+        <v>0.211508</v>
       </c>
       <c r="F29" t="n">
-        <v>0.443972</v>
+        <v>0.44294</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.305535</v>
+        <v>0.307235</v>
       </c>
       <c r="C30" t="n">
-        <v>0.519887</v>
+        <v>0.519471</v>
       </c>
       <c r="D30" t="n">
-        <v>0.428274</v>
+        <v>0.425492</v>
       </c>
       <c r="E30" t="n">
-        <v>0.21107</v>
+        <v>0.210839</v>
       </c>
       <c r="F30" t="n">
-        <v>0.444131</v>
+        <v>0.442388</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.296654</v>
+        <v>0.297464</v>
       </c>
       <c r="C31" t="n">
-        <v>0.505418</v>
+        <v>0.5052140000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.429387</v>
+        <v>0.427244</v>
       </c>
       <c r="E31" t="n">
-        <v>0.209524</v>
+        <v>0.209449</v>
       </c>
       <c r="F31" t="n">
-        <v>0.44202</v>
+        <v>0.440006</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.287029</v>
+        <v>0.288258</v>
       </c>
       <c r="C32" t="n">
-        <v>0.499787</v>
+        <v>0.500839</v>
       </c>
       <c r="D32" t="n">
-        <v>0.430857</v>
+        <v>0.428997</v>
       </c>
       <c r="E32" t="n">
-        <v>0.208843</v>
+        <v>0.208846</v>
       </c>
       <c r="F32" t="n">
-        <v>0.440473</v>
+        <v>0.43925</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.277627</v>
+        <v>0.279153</v>
       </c>
       <c r="C33" t="n">
-        <v>0.494788</v>
+        <v>0.494792</v>
       </c>
       <c r="D33" t="n">
-        <v>0.431645</v>
+        <v>0.429444</v>
       </c>
       <c r="E33" t="n">
-        <v>0.209388</v>
+        <v>0.208257</v>
       </c>
       <c r="F33" t="n">
-        <v>0.439484</v>
+        <v>0.437808</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.267405</v>
+        <v>0.268545</v>
       </c>
       <c r="C34" t="n">
-        <v>0.476623</v>
+        <v>0.477585</v>
       </c>
       <c r="D34" t="n">
-        <v>0.433199</v>
+        <v>0.430931</v>
       </c>
       <c r="E34" t="n">
-        <v>0.20811</v>
+        <v>0.208241</v>
       </c>
       <c r="F34" t="n">
-        <v>0.439197</v>
+        <v>0.437782</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.255992</v>
+        <v>0.258079</v>
       </c>
       <c r="C35" t="n">
-        <v>0.462164</v>
+        <v>0.462198</v>
       </c>
       <c r="D35" t="n">
-        <v>0.428819</v>
+        <v>0.428756</v>
       </c>
       <c r="E35" t="n">
-        <v>0.207719</v>
+        <v>0.208164</v>
       </c>
       <c r="F35" t="n">
-        <v>0.43857</v>
+        <v>0.437085</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.242928</v>
+        <v>0.244057</v>
       </c>
       <c r="C36" t="n">
-        <v>0.45886</v>
+        <v>0.458625</v>
       </c>
       <c r="D36" t="n">
-        <v>0.428715</v>
+        <v>0.427049</v>
       </c>
       <c r="E36" t="n">
-        <v>0.206452</v>
+        <v>0.207046</v>
       </c>
       <c r="F36" t="n">
-        <v>0.43694</v>
+        <v>0.435681</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.229114</v>
+        <v>0.23117</v>
       </c>
       <c r="C37" t="n">
-        <v>0.44718</v>
+        <v>0.447186</v>
       </c>
       <c r="D37" t="n">
-        <v>0.428848</v>
+        <v>0.428661</v>
       </c>
       <c r="E37" t="n">
-        <v>0.223223</v>
+        <v>0.221427</v>
       </c>
       <c r="F37" t="n">
-        <v>0.453187</v>
+        <v>0.451621</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.34907</v>
+        <v>0.350797</v>
       </c>
       <c r="C38" t="n">
-        <v>0.561503</v>
+        <v>0.557489</v>
       </c>
       <c r="D38" t="n">
-        <v>0.427883</v>
+        <v>0.426075</v>
       </c>
       <c r="E38" t="n">
-        <v>0.21847</v>
+        <v>0.218786</v>
       </c>
       <c r="F38" t="n">
-        <v>0.451369</v>
+        <v>0.449496</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.344398</v>
+        <v>0.344649</v>
       </c>
       <c r="C39" t="n">
-        <v>0.551004</v>
+        <v>0.550962</v>
       </c>
       <c r="D39" t="n">
-        <v>0.428211</v>
+        <v>0.425968</v>
       </c>
       <c r="E39" t="n">
-        <v>0.216185</v>
+        <v>0.216064</v>
       </c>
       <c r="F39" t="n">
-        <v>0.449723</v>
+        <v>0.447511</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.339734</v>
+        <v>0.339535</v>
       </c>
       <c r="C40" t="n">
-        <v>0.546004</v>
+        <v>0.546116</v>
       </c>
       <c r="D40" t="n">
-        <v>0.427008</v>
+        <v>0.425338</v>
       </c>
       <c r="E40" t="n">
-        <v>0.215669</v>
+        <v>0.215529</v>
       </c>
       <c r="F40" t="n">
-        <v>0.44871</v>
+        <v>0.446678</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.333089</v>
+        <v>0.332611</v>
       </c>
       <c r="C41" t="n">
-        <v>0.540432</v>
+        <v>0.540569</v>
       </c>
       <c r="D41" t="n">
-        <v>0.427939</v>
+        <v>0.426</v>
       </c>
       <c r="E41" t="n">
-        <v>0.213572</v>
+        <v>0.213744</v>
       </c>
       <c r="F41" t="n">
-        <v>0.447467</v>
+        <v>0.446215</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.325394</v>
+        <v>0.325845</v>
       </c>
       <c r="C42" t="n">
-        <v>0.53654</v>
+        <v>0.541439</v>
       </c>
       <c r="D42" t="n">
-        <v>0.429162</v>
+        <v>0.427331</v>
       </c>
       <c r="E42" t="n">
-        <v>0.212485</v>
+        <v>0.212741</v>
       </c>
       <c r="F42" t="n">
-        <v>0.446389</v>
+        <v>0.44414</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.318249</v>
+        <v>0.319377</v>
       </c>
       <c r="C43" t="n">
-        <v>0.527169</v>
+        <v>0.52725</v>
       </c>
       <c r="D43" t="n">
-        <v>0.429644</v>
+        <v>0.427481</v>
       </c>
       <c r="E43" t="n">
-        <v>0.211374</v>
+        <v>0.21149</v>
       </c>
       <c r="F43" t="n">
-        <v>0.443999</v>
+        <v>0.442552</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.311057</v>
+        <v>0.311144</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5234490000000001</v>
+        <v>0.525329</v>
       </c>
       <c r="D44" t="n">
-        <v>0.430075</v>
+        <v>0.427451</v>
       </c>
       <c r="E44" t="n">
-        <v>0.210447</v>
+        <v>0.21034</v>
       </c>
       <c r="F44" t="n">
-        <v>0.442895</v>
+        <v>0.441178</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.302762</v>
+        <v>0.303212</v>
       </c>
       <c r="C45" t="n">
-        <v>0.513877</v>
+        <v>0.514358</v>
       </c>
       <c r="D45" t="n">
-        <v>0.432012</v>
+        <v>0.429073</v>
       </c>
       <c r="E45" t="n">
-        <v>0.209656</v>
+        <v>0.209646</v>
       </c>
       <c r="F45" t="n">
-        <v>0.442958</v>
+        <v>0.440391</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.292469</v>
+        <v>0.293652</v>
       </c>
       <c r="C46" t="n">
-        <v>0.506385</v>
+        <v>0.510049</v>
       </c>
       <c r="D46" t="n">
-        <v>0.433575</v>
+        <v>0.430301</v>
       </c>
       <c r="E46" t="n">
-        <v>0.208656</v>
+        <v>0.208822</v>
       </c>
       <c r="F46" t="n">
-        <v>0.440752</v>
+        <v>0.439322</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.283415</v>
+        <v>0.284315</v>
       </c>
       <c r="C47" t="n">
-        <v>0.500642</v>
+        <v>0.500644</v>
       </c>
       <c r="D47" t="n">
-        <v>0.434478</v>
+        <v>0.431235</v>
       </c>
       <c r="E47" t="n">
-        <v>0.208178</v>
+        <v>0.208159</v>
       </c>
       <c r="F47" t="n">
-        <v>0.439888</v>
+        <v>0.438738</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.273129</v>
+        <v>0.274788</v>
       </c>
       <c r="C48" t="n">
-        <v>0.490533</v>
+        <v>0.489048</v>
       </c>
       <c r="D48" t="n">
-        <v>0.435307</v>
+        <v>0.431935</v>
       </c>
       <c r="E48" t="n">
-        <v>0.208042</v>
+        <v>0.205613</v>
       </c>
       <c r="F48" t="n">
-        <v>0.438581</v>
+        <v>0.437859</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.261873</v>
+        <v>0.263094</v>
       </c>
       <c r="C49" t="n">
-        <v>0.472968</v>
+        <v>0.472617</v>
       </c>
       <c r="D49" t="n">
-        <v>0.437775</v>
+        <v>0.433562</v>
       </c>
       <c r="E49" t="n">
-        <v>0.207824</v>
+        <v>0.208133</v>
       </c>
       <c r="F49" t="n">
-        <v>0.438231</v>
+        <v>0.436784</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.248582</v>
+        <v>0.250316</v>
       </c>
       <c r="C50" t="n">
-        <v>0.46417</v>
+        <v>0.465253</v>
       </c>
       <c r="D50" t="n">
-        <v>0.435015</v>
+        <v>0.431841</v>
       </c>
       <c r="E50" t="n">
-        <v>0.207841</v>
+        <v>0.208255</v>
       </c>
       <c r="F50" t="n">
-        <v>0.43762</v>
+        <v>0.436375</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.235238</v>
+        <v>0.236652</v>
       </c>
       <c r="C51" t="n">
-        <v>0.443162</v>
+        <v>0.443363</v>
       </c>
       <c r="D51" t="n">
-        <v>0.434921</v>
+        <v>0.430943</v>
       </c>
       <c r="E51" t="n">
-        <v>0.222329</v>
+        <v>0.222264</v>
       </c>
       <c r="F51" t="n">
-        <v>0.453351</v>
+        <v>0.451964</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.219134</v>
+        <v>0.221033</v>
       </c>
       <c r="C52" t="n">
-        <v>0.431721</v>
+        <v>0.432795</v>
       </c>
       <c r="D52" t="n">
-        <v>0.43356</v>
+        <v>0.432214</v>
       </c>
       <c r="E52" t="n">
-        <v>0.219321</v>
+        <v>0.218961</v>
       </c>
       <c r="F52" t="n">
-        <v>0.452054</v>
+        <v>0.450796</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.346877</v>
+        <v>0.346726</v>
       </c>
       <c r="C53" t="n">
-        <v>0.561978</v>
+        <v>0.56233</v>
       </c>
       <c r="D53" t="n">
-        <v>0.435133</v>
+        <v>0.432599</v>
       </c>
       <c r="E53" t="n">
-        <v>0.216554</v>
+        <v>0.216424</v>
       </c>
       <c r="F53" t="n">
-        <v>0.449944</v>
+        <v>0.448673</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.340585</v>
+        <v>0.341313</v>
       </c>
       <c r="C54" t="n">
-        <v>0.55016</v>
+        <v>0.54997</v>
       </c>
       <c r="D54" t="n">
-        <v>0.435098</v>
+        <v>0.435652</v>
       </c>
       <c r="E54" t="n">
-        <v>0.215083</v>
+        <v>0.215279</v>
       </c>
       <c r="F54" t="n">
-        <v>0.448873</v>
+        <v>0.44752</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.334198</v>
+        <v>0.334539</v>
       </c>
       <c r="C55" t="n">
-        <v>0.550242</v>
+        <v>0.549598</v>
       </c>
       <c r="D55" t="n">
-        <v>0.436922</v>
+        <v>0.43528</v>
       </c>
       <c r="E55" t="n">
-        <v>0.213585</v>
+        <v>0.21378</v>
       </c>
       <c r="F55" t="n">
-        <v>0.447083</v>
+        <v>0.445619</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.328285</v>
+        <v>0.328358</v>
       </c>
       <c r="C56" t="n">
-        <v>0.549175</v>
+        <v>0.546377</v>
       </c>
       <c r="D56" t="n">
-        <v>0.439012</v>
+        <v>0.43651</v>
       </c>
       <c r="E56" t="n">
-        <v>0.212752</v>
+        <v>0.212534</v>
       </c>
       <c r="F56" t="n">
-        <v>0.446003</v>
+        <v>0.444663</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.321454</v>
+        <v>0.322475</v>
       </c>
       <c r="C57" t="n">
-        <v>0.536146</v>
+        <v>0.534325</v>
       </c>
       <c r="D57" t="n">
-        <v>0.44253</v>
+        <v>0.440979</v>
       </c>
       <c r="E57" t="n">
-        <v>0.211831</v>
+        <v>0.211545</v>
       </c>
       <c r="F57" t="n">
-        <v>0.444713</v>
+        <v>0.443351</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.314074</v>
+        <v>0.31377</v>
       </c>
       <c r="C58" t="n">
-        <v>0.543494</v>
+        <v>0.540672</v>
       </c>
       <c r="D58" t="n">
-        <v>0.447774</v>
+        <v>0.444252</v>
       </c>
       <c r="E58" t="n">
-        <v>0.21089</v>
+        <v>0.210956</v>
       </c>
       <c r="F58" t="n">
-        <v>0.443256</v>
+        <v>0.441982</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.30561</v>
+        <v>0.305921</v>
       </c>
       <c r="C59" t="n">
-        <v>0.520069</v>
+        <v>0.519147</v>
       </c>
       <c r="D59" t="n">
-        <v>0.4491</v>
+        <v>0.445466</v>
       </c>
       <c r="E59" t="n">
-        <v>0.210152</v>
+        <v>0.210189</v>
       </c>
       <c r="F59" t="n">
-        <v>0.442199</v>
+        <v>0.440899</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.296036</v>
+        <v>0.296702</v>
       </c>
       <c r="C60" t="n">
-        <v>0.53232</v>
+        <v>0.529205</v>
       </c>
       <c r="D60" t="n">
-        <v>0.446651</v>
+        <v>0.449026</v>
       </c>
       <c r="E60" t="n">
-        <v>0.209215</v>
+        <v>0.209441</v>
       </c>
       <c r="F60" t="n">
-        <v>0.441362</v>
+        <v>0.440039</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.286697</v>
+        <v>0.287789</v>
       </c>
       <c r="C61" t="n">
-        <v>0.524134</v>
+        <v>0.524631</v>
       </c>
       <c r="D61" t="n">
-        <v>0.451501</v>
+        <v>0.453675</v>
       </c>
       <c r="E61" t="n">
-        <v>0.208562</v>
+        <v>0.20886</v>
       </c>
       <c r="F61" t="n">
-        <v>0.440593</v>
+        <v>0.439197</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.276045</v>
+        <v>0.277161</v>
       </c>
       <c r="C62" t="n">
-        <v>0.516836</v>
+        <v>0.517192</v>
       </c>
       <c r="D62" t="n">
-        <v>0.456074</v>
+        <v>0.454652</v>
       </c>
       <c r="E62" t="n">
-        <v>0.207957</v>
+        <v>0.208047</v>
       </c>
       <c r="F62" t="n">
-        <v>0.439301</v>
+        <v>0.437646</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.264746</v>
+        <v>0.267214</v>
       </c>
       <c r="C63" t="n">
-        <v>0.487634</v>
+        <v>0.487271</v>
       </c>
       <c r="D63" t="n">
-        <v>0.457103</v>
+        <v>0.45484</v>
       </c>
       <c r="E63" t="n">
-        <v>0.208202</v>
+        <v>0.208807</v>
       </c>
       <c r="F63" t="n">
-        <v>0.437905</v>
+        <v>0.436919</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.252809</v>
+        <v>0.254365</v>
       </c>
       <c r="C64" t="n">
-        <v>0.480501</v>
+        <v>0.478232</v>
       </c>
       <c r="D64" t="n">
-        <v>0.495065</v>
+        <v>0.489438</v>
       </c>
       <c r="E64" t="n">
-        <v>0.207406</v>
+        <v>0.205713</v>
       </c>
       <c r="F64" t="n">
-        <v>0.437517</v>
+        <v>0.43612</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.238885</v>
+        <v>0.240263</v>
       </c>
       <c r="C65" t="n">
-        <v>0.483265</v>
+        <v>0.478307</v>
       </c>
       <c r="D65" t="n">
-        <v>0.495283</v>
+        <v>0.490018</v>
       </c>
       <c r="E65" t="n">
-        <v>0.209167</v>
+        <v>0.204887</v>
       </c>
       <c r="F65" t="n">
-        <v>0.436987</v>
+        <v>0.435732</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.224385</v>
+        <v>0.225726</v>
       </c>
       <c r="C66" t="n">
-        <v>0.464352</v>
+        <v>0.461907</v>
       </c>
       <c r="D66" t="n">
-        <v>0.500001</v>
+        <v>0.493516</v>
       </c>
       <c r="E66" t="n">
-        <v>0.22026</v>
+        <v>0.220358</v>
       </c>
       <c r="F66" t="n">
-        <v>0.453318</v>
+        <v>0.451688</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.348592</v>
+        <v>0.349159</v>
       </c>
       <c r="C67" t="n">
-        <v>0.628583</v>
+        <v>0.622139</v>
       </c>
       <c r="D67" t="n">
-        <v>0.506649</v>
+        <v>0.507576</v>
       </c>
       <c r="E67" t="n">
-        <v>0.217601</v>
+        <v>0.217316</v>
       </c>
       <c r="F67" t="n">
-        <v>0.451585</v>
+        <v>0.449725</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.342733</v>
+        <v>0.343541</v>
       </c>
       <c r="C68" t="n">
-        <v>0.579793</v>
+        <v>0.5773470000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.515109</v>
+        <v>0.511601</v>
       </c>
       <c r="E68" t="n">
-        <v>0.215732</v>
+        <v>0.215665</v>
       </c>
       <c r="F68" t="n">
-        <v>0.449891</v>
+        <v>0.448081</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.33632</v>
+        <v>0.336625</v>
       </c>
       <c r="C69" t="n">
-        <v>0.60279</v>
+        <v>0.60014</v>
       </c>
       <c r="D69" t="n">
-        <v>0.528455</v>
+        <v>0.524396</v>
       </c>
       <c r="E69" t="n">
-        <v>0.214082</v>
+        <v>0.214081</v>
       </c>
       <c r="F69" t="n">
-        <v>0.447879</v>
+        <v>0.446268</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.330249</v>
+        <v>0.330772</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6358819999999999</v>
+        <v>0.6345229999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.530921</v>
+        <v>0.525659</v>
       </c>
       <c r="E70" t="n">
-        <v>0.21424</v>
+        <v>0.212659</v>
       </c>
       <c r="F70" t="n">
-        <v>0.447</v>
+        <v>0.44509</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.323441</v>
+        <v>0.323351</v>
       </c>
       <c r="C71" t="n">
-        <v>0.646295</v>
+        <v>0.64401</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5320780000000001</v>
+        <v>0.528596</v>
       </c>
       <c r="E71" t="n">
-        <v>0.211854</v>
+        <v>0.211932</v>
       </c>
       <c r="F71" t="n">
-        <v>0.446127</v>
+        <v>0.443918</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.315724</v>
+        <v>0.315792</v>
       </c>
       <c r="C72" t="n">
-        <v>0.629171</v>
+        <v>0.627785</v>
       </c>
       <c r="D72" t="n">
-        <v>0.531624</v>
+        <v>0.5298620000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>0.210939</v>
+        <v>0.211059</v>
       </c>
       <c r="F72" t="n">
-        <v>0.444557</v>
+        <v>0.442302</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.307651</v>
+        <v>0.308342</v>
       </c>
       <c r="C73" t="n">
-        <v>0.627418</v>
+        <v>0.626192</v>
       </c>
       <c r="D73" t="n">
-        <v>0.541119</v>
+        <v>0.539458</v>
       </c>
       <c r="E73" t="n">
-        <v>0.210085</v>
+        <v>0.21011</v>
       </c>
       <c r="F73" t="n">
-        <v>0.443294</v>
+        <v>0.441533</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.298956</v>
+        <v>0.299684</v>
       </c>
       <c r="C74" t="n">
-        <v>0.635858</v>
+        <v>0.634611</v>
       </c>
       <c r="D74" t="n">
-        <v>0.539641</v>
+        <v>0.538241</v>
       </c>
       <c r="E74" t="n">
-        <v>0.209169</v>
+        <v>0.209172</v>
       </c>
       <c r="F74" t="n">
-        <v>0.442438</v>
+        <v>0.440721</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.288728</v>
+        <v>0.290439</v>
       </c>
       <c r="C75" t="n">
-        <v>0.636073</v>
+        <v>0.636244</v>
       </c>
       <c r="D75" t="n">
-        <v>0.541054</v>
+        <v>0.53959</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2098</v>
+        <v>0.208647</v>
       </c>
       <c r="F75" t="n">
-        <v>0.441281</v>
+        <v>0.439951</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.278729</v>
+        <v>0.279988</v>
       </c>
       <c r="C76" t="n">
-        <v>0.614555</v>
+        <v>0.614339</v>
       </c>
       <c r="D76" t="n">
-        <v>0.54472</v>
+        <v>0.543844</v>
       </c>
       <c r="E76" t="n">
-        <v>0.208317</v>
+        <v>0.206432</v>
       </c>
       <c r="F76" t="n">
-        <v>0.439912</v>
+        <v>0.438452</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.267758</v>
+        <v>0.2688</v>
       </c>
       <c r="C77" t="n">
-        <v>0.582377</v>
+        <v>0.582108</v>
       </c>
       <c r="D77" t="n">
-        <v>0.544658</v>
+        <v>0.543611</v>
       </c>
       <c r="E77" t="n">
-        <v>0.207388</v>
+        <v>0.205433</v>
       </c>
       <c r="F77" t="n">
-        <v>0.439004</v>
+        <v>0.437822</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.255648</v>
+        <v>0.257164</v>
       </c>
       <c r="C78" t="n">
-        <v>0.614</v>
+        <v>0.613217</v>
       </c>
       <c r="D78" t="n">
-        <v>0.62079</v>
+        <v>0.618355</v>
       </c>
       <c r="E78" t="n">
-        <v>0.207179</v>
+        <v>0.207416</v>
       </c>
       <c r="F78" t="n">
-        <v>0.438126</v>
+        <v>0.436915</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.242079</v>
+        <v>0.244087</v>
       </c>
       <c r="C79" t="n">
-        <v>0.560388</v>
+        <v>0.56054</v>
       </c>
       <c r="D79" t="n">
-        <v>0.611031</v>
+        <v>0.605417</v>
       </c>
       <c r="E79" t="n">
-        <v>0.208412</v>
+        <v>0.205353</v>
       </c>
       <c r="F79" t="n">
-        <v>0.437193</v>
+        <v>0.435943</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.227899</v>
+        <v>0.229467</v>
       </c>
       <c r="C80" t="n">
-        <v>0.56207</v>
+        <v>0.562397</v>
       </c>
       <c r="D80" t="n">
-        <v>0.623946</v>
+        <v>0.620686</v>
       </c>
       <c r="E80" t="n">
-        <v>0.220808</v>
+        <v>0.22089</v>
       </c>
       <c r="F80" t="n">
-        <v>0.453722</v>
+        <v>0.451736</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350196</v>
+        <v>0.350763</v>
       </c>
       <c r="C81" t="n">
-        <v>0.745302</v>
+        <v>0.74471</v>
       </c>
       <c r="D81" t="n">
-        <v>0.618133</v>
+        <v>0.614791</v>
       </c>
       <c r="E81" t="n">
-        <v>0.218606</v>
+        <v>0.218477</v>
       </c>
       <c r="F81" t="n">
-        <v>0.451843</v>
+        <v>0.450094</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.344451</v>
+        <v>0.34565</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6942430000000001</v>
+        <v>0.694225</v>
       </c>
       <c r="D82" t="n">
-        <v>0.624686</v>
+        <v>0.6169559999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>0.216226</v>
+        <v>0.216343</v>
       </c>
       <c r="F82" t="n">
-        <v>0.456081</v>
+        <v>0.448338</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.338486</v>
+        <v>0.3397</v>
       </c>
       <c r="C83" t="n">
-        <v>0.621287</v>
+        <v>0.614834</v>
       </c>
       <c r="D83" t="n">
-        <v>0.621577</v>
+        <v>0.613022</v>
       </c>
       <c r="E83" t="n">
-        <v>0.214713</v>
+        <v>0.214794</v>
       </c>
       <c r="F83" t="n">
-        <v>0.454851</v>
+        <v>0.447024</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.332288</v>
+        <v>0.332756</v>
       </c>
       <c r="C84" t="n">
-        <v>0.616478</v>
+        <v>0.610626</v>
       </c>
       <c r="D84" t="n">
-        <v>0.612449</v>
+        <v>0.606447</v>
       </c>
       <c r="E84" t="n">
-        <v>0.213614</v>
+        <v>0.213866</v>
       </c>
       <c r="F84" t="n">
-        <v>0.453301</v>
+        <v>0.445622</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.324882</v>
+        <v>0.325831</v>
       </c>
       <c r="C85" t="n">
-        <v>0.677553</v>
+        <v>0.671221</v>
       </c>
       <c r="D85" t="n">
-        <v>0.613272</v>
+        <v>0.604983</v>
       </c>
       <c r="E85" t="n">
-        <v>0.212416</v>
+        <v>0.212498</v>
       </c>
       <c r="F85" t="n">
-        <v>0.452228</v>
+        <v>0.444368</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.317106</v>
+        <v>0.318217</v>
       </c>
       <c r="C86" t="n">
-        <v>0.742038</v>
+        <v>0.736168</v>
       </c>
       <c r="D86" t="n">
-        <v>0.607421</v>
+        <v>0.60053</v>
       </c>
       <c r="E86" t="n">
-        <v>0.211296</v>
+        <v>0.211457</v>
       </c>
       <c r="F86" t="n">
-        <v>0.450789</v>
+        <v>0.443362</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.309422</v>
+        <v>0.310104</v>
       </c>
       <c r="C87" t="n">
-        <v>0.528904</v>
+        <v>0.5233409999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.602069</v>
+        <v>0.594777</v>
       </c>
       <c r="E87" t="n">
-        <v>0.210274</v>
+        <v>0.21032</v>
       </c>
       <c r="F87" t="n">
-        <v>0.449735</v>
+        <v>0.442239</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.301321</v>
+        <v>0.301742</v>
       </c>
       <c r="C88" t="n">
-        <v>0.626493</v>
+        <v>0.6208050000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5977479999999999</v>
+        <v>0.588024</v>
       </c>
       <c r="E88" t="n">
-        <v>0.209396</v>
+        <v>0.209617</v>
       </c>
       <c r="F88" t="n">
-        <v>0.44861</v>
+        <v>0.440924</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.291696</v>
+        <v>0.292304</v>
       </c>
       <c r="C89" t="n">
-        <v>0.653488</v>
+        <v>0.647863</v>
       </c>
       <c r="D89" t="n">
-        <v>0.592764</v>
+        <v>0.591045</v>
       </c>
       <c r="E89" t="n">
-        <v>0.20902</v>
+        <v>0.20882</v>
       </c>
       <c r="F89" t="n">
-        <v>0.447491</v>
+        <v>0.439921</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.281433</v>
+        <v>0.28181</v>
       </c>
       <c r="C90" t="n">
-        <v>0.63191</v>
+        <v>0.626671</v>
       </c>
       <c r="D90" t="n">
-        <v>0.593413</v>
+        <v>0.583107</v>
       </c>
       <c r="E90" t="n">
-        <v>0.208111</v>
+        <v>0.208487</v>
       </c>
       <c r="F90" t="n">
-        <v>0.446626</v>
+        <v>0.439052</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.270924</v>
+        <v>0.271582</v>
       </c>
       <c r="C91" t="n">
-        <v>0.585686</v>
+        <v>0.580722</v>
       </c>
       <c r="D91" t="n">
-        <v>0.592691</v>
+        <v>0.578673</v>
       </c>
       <c r="E91" t="n">
-        <v>0.207441</v>
+        <v>0.207917</v>
       </c>
       <c r="F91" t="n">
-        <v>0.445627</v>
+        <v>0.438192</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258462</v>
+        <v>0.260098</v>
       </c>
       <c r="C92" t="n">
-        <v>0.547417</v>
+        <v>0.542736</v>
       </c>
       <c r="D92" t="n">
-        <v>0.630846</v>
+        <v>0.624866</v>
       </c>
       <c r="E92" t="n">
-        <v>0.208884</v>
+        <v>0.206397</v>
       </c>
       <c r="F92" t="n">
-        <v>0.444811</v>
+        <v>0.43735</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.245604</v>
+        <v>0.247037</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6100640000000001</v>
+        <v>0.605555</v>
       </c>
       <c r="D93" t="n">
-        <v>0.627566</v>
+        <v>0.620217</v>
       </c>
       <c r="E93" t="n">
-        <v>0.20669</v>
+        <v>0.20471</v>
       </c>
       <c r="F93" t="n">
-        <v>0.444052</v>
+        <v>0.436531</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.231415</v>
+        <v>0.233647</v>
       </c>
       <c r="C94" t="n">
-        <v>0.596783</v>
+        <v>0.592541</v>
       </c>
       <c r="D94" t="n">
-        <v>0.630408</v>
+        <v>0.623736</v>
       </c>
       <c r="E94" t="n">
-        <v>0.222001</v>
+        <v>0.220447</v>
       </c>
       <c r="F94" t="n">
-        <v>0.459659</v>
+        <v>0.451994</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.352013</v>
+        <v>0.352532</v>
       </c>
       <c r="C95" t="n">
-        <v>0.677725</v>
+        <v>0.671021</v>
       </c>
       <c r="D95" t="n">
-        <v>0.623144</v>
+        <v>0.616175</v>
       </c>
       <c r="E95" t="n">
-        <v>0.218854</v>
+        <v>0.220491</v>
       </c>
       <c r="F95" t="n">
-        <v>0.458085</v>
+        <v>0.450287</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.346354</v>
+        <v>0.347174</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6982429999999999</v>
+        <v>0.6912970000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>0.618573</v>
+        <v>0.611321</v>
       </c>
       <c r="E96" t="n">
-        <v>0.216689</v>
+        <v>0.216961</v>
       </c>
       <c r="F96" t="n">
-        <v>0.456509</v>
+        <v>0.448827</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340184</v>
+        <v>0.340898</v>
       </c>
       <c r="C97" t="n">
-        <v>0.706095</v>
+        <v>0.697032</v>
       </c>
       <c r="D97" t="n">
-        <v>0.614392</v>
+        <v>0.607254</v>
       </c>
       <c r="E97" t="n">
-        <v>0.215189</v>
+        <v>0.215447</v>
       </c>
       <c r="F97" t="n">
-        <v>0.454933</v>
+        <v>0.447463</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.333548</v>
+        <v>0.334743</v>
       </c>
       <c r="C98" t="n">
-        <v>0.669038</v>
+        <v>0.662015</v>
       </c>
       <c r="D98" t="n">
-        <v>0.610421</v>
+        <v>0.602896</v>
       </c>
       <c r="E98" t="n">
-        <v>0.213731</v>
+        <v>0.214053</v>
       </c>
       <c r="F98" t="n">
-        <v>0.453757</v>
+        <v>0.446075</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.326815</v>
+        <v>0.327825</v>
       </c>
       <c r="C99" t="n">
-        <v>0.689286</v>
+        <v>0.682943</v>
       </c>
       <c r="D99" t="n">
-        <v>0.596793</v>
+        <v>0.587517</v>
       </c>
       <c r="E99" t="n">
-        <v>0.212472</v>
+        <v>0.212757</v>
       </c>
       <c r="F99" t="n">
-        <v>0.452339</v>
+        <v>0.444949</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.319033</v>
+        <v>0.319676</v>
       </c>
       <c r="C100" t="n">
-        <v>0.542779</v>
+        <v>0.538029</v>
       </c>
       <c r="D100" t="n">
-        <v>0.592612</v>
+        <v>0.584016</v>
       </c>
       <c r="E100" t="n">
-        <v>0.211411</v>
+        <v>0.211672</v>
       </c>
       <c r="F100" t="n">
-        <v>0.450866</v>
+        <v>0.443351</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311117</v>
+        <v>0.311767</v>
       </c>
       <c r="C101" t="n">
-        <v>0.668005</v>
+        <v>0.66245</v>
       </c>
       <c r="D101" t="n">
-        <v>0.58979</v>
+        <v>0.581584</v>
       </c>
       <c r="E101" t="n">
-        <v>0.210385</v>
+        <v>0.210578</v>
       </c>
       <c r="F101" t="n">
-        <v>0.449969</v>
+        <v>0.442439</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.302627</v>
+        <v>0.303604</v>
       </c>
       <c r="C102" t="n">
-        <v>0.582354</v>
+        <v>0.576821</v>
       </c>
       <c r="D102" t="n">
-        <v>0.5850959999999999</v>
+        <v>0.578856</v>
       </c>
       <c r="E102" t="n">
-        <v>0.209485</v>
+        <v>0.20975</v>
       </c>
       <c r="F102" t="n">
-        <v>0.448876</v>
+        <v>0.44145</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.29364</v>
+        <v>0.294473</v>
       </c>
       <c r="C103" t="n">
-        <v>0.632012</v>
+        <v>0.627147</v>
       </c>
       <c r="D103" t="n">
-        <v>0.582545</v>
+        <v>0.57307</v>
       </c>
       <c r="E103" t="n">
-        <v>0.208705</v>
+        <v>0.208904</v>
       </c>
       <c r="F103" t="n">
-        <v>0.447658</v>
+        <v>0.440254</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.283493</v>
+        <v>0.284346</v>
       </c>
       <c r="C104" t="n">
-        <v>0.589353</v>
+        <v>0.5843930000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>0.581005</v>
+        <v>0.573838</v>
       </c>
       <c r="E104" t="n">
-        <v>0.208051</v>
+        <v>0.208387</v>
       </c>
       <c r="F104" t="n">
-        <v>0.446716</v>
+        <v>0.439501</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.272696</v>
+        <v>0.274153</v>
       </c>
       <c r="C105" t="n">
-        <v>0.525143</v>
+        <v>0.520407</v>
       </c>
       <c r="D105" t="n">
-        <v>0.5751270000000001</v>
+        <v>0.566307</v>
       </c>
       <c r="E105" t="n">
-        <v>0.20845</v>
+        <v>0.208649</v>
       </c>
       <c r="F105" t="n">
-        <v>0.445563</v>
+        <v>0.438334</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.261546</v>
+        <v>0.262818</v>
       </c>
       <c r="C106" t="n">
-        <v>0.542007</v>
+        <v>0.537554</v>
       </c>
       <c r="D106" t="n">
-        <v>0.574473</v>
+        <v>0.563221</v>
       </c>
       <c r="E106" t="n">
-        <v>0.207241</v>
+        <v>0.20762</v>
       </c>
       <c r="F106" t="n">
-        <v>0.445913</v>
+        <v>0.437583</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.248974</v>
+        <v>0.249925</v>
       </c>
       <c r="C107" t="n">
-        <v>0.602895</v>
+        <v>0.597943</v>
       </c>
       <c r="D107" t="n">
-        <v>0.629785</v>
+        <v>0.625973</v>
       </c>
       <c r="E107" t="n">
-        <v>0.206766</v>
+        <v>0.207385</v>
       </c>
       <c r="F107" t="n">
-        <v>0.443807</v>
+        <v>0.436771</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.23469</v>
+        <v>0.236078</v>
       </c>
       <c r="C108" t="n">
-        <v>0.558971</v>
+        <v>0.554235</v>
       </c>
       <c r="D108" t="n">
-        <v>0.628305</v>
+        <v>0.623514</v>
       </c>
       <c r="E108" t="n">
-        <v>0.22127</v>
+        <v>0.221294</v>
       </c>
       <c r="F108" t="n">
-        <v>0.460148</v>
+        <v>0.452714</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.219999</v>
+        <v>0.221727</v>
       </c>
       <c r="C109" t="n">
-        <v>0.487164</v>
+        <v>0.482946</v>
       </c>
       <c r="D109" t="n">
-        <v>0.626479</v>
+        <v>0.619614</v>
       </c>
       <c r="E109" t="n">
-        <v>0.218935</v>
+        <v>0.219078</v>
       </c>
       <c r="F109" t="n">
-        <v>0.458566</v>
+        <v>0.450964</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347688</v>
+        <v>0.347492</v>
       </c>
       <c r="C110" t="n">
-        <v>0.698719</v>
+        <v>0.692663</v>
       </c>
       <c r="D110" t="n">
-        <v>0.610611</v>
+        <v>0.601268</v>
       </c>
       <c r="E110" t="n">
-        <v>0.216988</v>
+        <v>0.217192</v>
       </c>
       <c r="F110" t="n">
-        <v>0.457039</v>
+        <v>0.450053</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341867</v>
+        <v>0.341711</v>
       </c>
       <c r="C111" t="n">
-        <v>0.615907</v>
+        <v>0.610198</v>
       </c>
       <c r="D111" t="n">
-        <v>0.605366</v>
+        <v>0.598009</v>
       </c>
       <c r="E111" t="n">
-        <v>0.215309</v>
+        <v>0.215777</v>
       </c>
       <c r="F111" t="n">
-        <v>0.455556</v>
+        <v>0.44814</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.335535</v>
+        <v>0.335218</v>
       </c>
       <c r="C112" t="n">
-        <v>0.593388</v>
+        <v>0.58777</v>
       </c>
       <c r="D112" t="n">
-        <v>0.600984</v>
+        <v>0.594083</v>
       </c>
       <c r="E112" t="n">
-        <v>0.213953</v>
+        <v>0.214331</v>
       </c>
       <c r="F112" t="n">
-        <v>0.453999</v>
+        <v>0.446458</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.328343</v>
+        <v>0.328559</v>
       </c>
       <c r="C113" t="n">
-        <v>0.706896</v>
+        <v>0.70053</v>
       </c>
       <c r="D113" t="n">
-        <v>0.607481</v>
+        <v>0.600865</v>
       </c>
       <c r="E113" t="n">
-        <v>0.212711</v>
+        <v>0.213049</v>
       </c>
       <c r="F113" t="n">
-        <v>0.452761</v>
+        <v>0.44518</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.321359</v>
+        <v>0.321328</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6351059999999999</v>
+        <v>0.630858</v>
       </c>
       <c r="D114" t="n">
-        <v>0.601536</v>
+        <v>0.594841</v>
       </c>
       <c r="E114" t="n">
-        <v>0.211782</v>
+        <v>0.212442</v>
       </c>
       <c r="F114" t="n">
-        <v>0.451406</v>
+        <v>0.44397</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313261</v>
+        <v>0.313502</v>
       </c>
       <c r="C115" t="n">
-        <v>0.5763740000000001</v>
+        <v>0.571531</v>
       </c>
       <c r="D115" t="n">
-        <v>0.589069</v>
+        <v>0.581282</v>
       </c>
       <c r="E115" t="n">
-        <v>0.210374</v>
+        <v>0.210944</v>
       </c>
       <c r="F115" t="n">
-        <v>0.450366</v>
+        <v>0.442501</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.304765</v>
+        <v>0.30525</v>
       </c>
       <c r="C116" t="n">
-        <v>0.66896</v>
+        <v>0.66375</v>
       </c>
       <c r="D116" t="n">
-        <v>0.590776</v>
+        <v>0.5838449999999999</v>
       </c>
       <c r="E116" t="n">
-        <v>0.209556</v>
+        <v>0.209976</v>
       </c>
       <c r="F116" t="n">
-        <v>0.448941</v>
+        <v>0.44185</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.295326</v>
+        <v>0.29624</v>
       </c>
       <c r="C117" t="n">
-        <v>0.6471479999999999</v>
+        <v>0.642275</v>
       </c>
       <c r="D117" t="n">
-        <v>0.585552</v>
+        <v>0.577817</v>
       </c>
       <c r="E117" t="n">
-        <v>0.20873</v>
+        <v>0.209111</v>
       </c>
       <c r="F117" t="n">
-        <v>0.447954</v>
+        <v>0.440667</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.286063</v>
+        <v>0.286731</v>
       </c>
       <c r="C118" t="n">
-        <v>0.658253</v>
+        <v>0.652748</v>
       </c>
       <c r="D118" t="n">
-        <v>0.580381</v>
+        <v>0.572912</v>
       </c>
       <c r="E118" t="n">
-        <v>0.208432</v>
+        <v>0.206559</v>
       </c>
       <c r="F118" t="n">
-        <v>0.44705</v>
+        <v>0.439682</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.275555</v>
+        <v>0.276752</v>
       </c>
       <c r="C119" t="n">
-        <v>0.623708</v>
+        <v>0.618695</v>
       </c>
       <c r="D119" t="n">
-        <v>0.575196</v>
+        <v>0.567659</v>
       </c>
       <c r="E119" t="n">
-        <v>0.209694</v>
+        <v>0.20609</v>
       </c>
       <c r="F119" t="n">
-        <v>0.446049</v>
+        <v>0.438724</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.264139</v>
+        <v>0.265401</v>
       </c>
       <c r="C120" t="n">
-        <v>0.625217</v>
+        <v>0.620712</v>
       </c>
       <c r="D120" t="n">
-        <v>0.570244</v>
+        <v>0.5656639999999999</v>
       </c>
       <c r="E120" t="n">
-        <v>0.208993</v>
+        <v>0.207982</v>
       </c>
       <c r="F120" t="n">
-        <v>0.445175</v>
+        <v>0.437956</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.251577</v>
+        <v>0.25272</v>
       </c>
       <c r="C121" t="n">
-        <v>0.605566</v>
+        <v>0.601116</v>
       </c>
       <c r="D121" t="n">
-        <v>0.645295</v>
+        <v>0.637506</v>
       </c>
       <c r="E121" t="n">
-        <v>0.206856</v>
+        <v>0.207861</v>
       </c>
       <c r="F121" t="n">
-        <v>0.444455</v>
+        <v>0.437018</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.237959</v>
+        <v>0.239537</v>
       </c>
       <c r="C122" t="n">
-        <v>0.563002</v>
+        <v>0.558024</v>
       </c>
       <c r="D122" t="n">
-        <v>0.624296</v>
+        <v>0.615864</v>
       </c>
       <c r="E122" t="n">
-        <v>0.206763</v>
+        <v>0.207406</v>
       </c>
       <c r="F122" t="n">
-        <v>0.443746</v>
+        <v>0.436323</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.223335</v>
+        <v>0.224905</v>
       </c>
       <c r="C123" t="n">
-        <v>0.602092</v>
+        <v>0.597207</v>
       </c>
       <c r="D123" t="n">
-        <v>0.638943</v>
+        <v>0.6331059999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>0.22072</v>
+        <v>0.218053</v>
       </c>
       <c r="F123" t="n">
-        <v>0.458858</v>
+        <v>0.451633</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.348707</v>
+        <v>0.348897</v>
       </c>
       <c r="C124" t="n">
-        <v>0.709535</v>
+        <v>0.703932</v>
       </c>
       <c r="D124" t="n">
-        <v>0.634843</v>
+        <v>0.62791</v>
       </c>
       <c r="E124" t="n">
-        <v>0.217213</v>
+        <v>0.217422</v>
       </c>
       <c r="F124" t="n">
-        <v>0.457122</v>
+        <v>0.449606</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.342795</v>
+        <v>0.343062</v>
       </c>
       <c r="C125" t="n">
-        <v>0.594674</v>
+        <v>0.588843</v>
       </c>
       <c r="D125" t="n">
-        <v>0.629866</v>
+        <v>0.622955</v>
       </c>
       <c r="E125" t="n">
-        <v>0.21545</v>
+        <v>0.215737</v>
       </c>
       <c r="F125" t="n">
-        <v>0.455768</v>
+        <v>0.448585</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336354</v>
+        <v>0.336908</v>
       </c>
       <c r="C126" t="n">
-        <v>0.7279910000000001</v>
+        <v>0.721606</v>
       </c>
       <c r="D126" t="n">
-        <v>0.6243</v>
+        <v>0.616115</v>
       </c>
       <c r="E126" t="n">
-        <v>0.213926</v>
+        <v>0.21435</v>
       </c>
       <c r="F126" t="n">
-        <v>0.45418</v>
+        <v>0.446619</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.33073</v>
+        <v>0.330221</v>
       </c>
       <c r="C127" t="n">
-        <v>0.64202</v>
+        <v>0.635804</v>
       </c>
       <c r="D127" t="n">
-        <v>0.606775</v>
+        <v>0.597454</v>
       </c>
       <c r="E127" t="n">
-        <v>0.212729</v>
+        <v>0.213131</v>
       </c>
       <c r="F127" t="n">
-        <v>0.452734</v>
+        <v>0.445581</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.323043</v>
+        <v>0.323258</v>
       </c>
       <c r="C128" t="n">
-        <v>0.591879</v>
+        <v>0.586319</v>
       </c>
       <c r="D128" t="n">
-        <v>0.614042</v>
+        <v>0.606355</v>
       </c>
       <c r="E128" t="n">
-        <v>0.211462</v>
+        <v>0.211937</v>
       </c>
       <c r="F128" t="n">
-        <v>0.451528</v>
+        <v>0.444424</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.314697</v>
+        <v>0.31549</v>
       </c>
       <c r="C129" t="n">
-        <v>0.580326</v>
+        <v>0.574999</v>
       </c>
       <c r="D129" t="n">
-        <v>0.599286</v>
+        <v>0.590224</v>
       </c>
       <c r="E129" t="n">
-        <v>0.210382</v>
+        <v>0.210845</v>
       </c>
       <c r="F129" t="n">
-        <v>0.45037</v>
+        <v>0.442866</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.305866</v>
+        <v>0.306884</v>
       </c>
       <c r="C130" t="n">
-        <v>0.546254</v>
+        <v>0.541869</v>
       </c>
       <c r="D130" t="n">
-        <v>0.6007670000000001</v>
+        <v>0.593596</v>
       </c>
       <c r="E130" t="n">
-        <v>0.209596</v>
+        <v>0.209982</v>
       </c>
       <c r="F130" t="n">
-        <v>0.449279</v>
+        <v>0.442827</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.297733</v>
+        <v>0.298218</v>
       </c>
       <c r="C131" t="n">
-        <v>0.623545</v>
+        <v>0.618331</v>
       </c>
       <c r="D131" t="n">
-        <v>0.590238</v>
+        <v>0.581986</v>
       </c>
       <c r="E131" t="n">
-        <v>0.208804</v>
+        <v>0.209217</v>
       </c>
       <c r="F131" t="n">
-        <v>0.447964</v>
+        <v>0.440914</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.287688</v>
+        <v>0.288432</v>
       </c>
       <c r="C132" t="n">
-        <v>0.538737</v>
+        <v>0.533236</v>
       </c>
       <c r="D132" t="n">
-        <v>0.588342</v>
+        <v>0.581445</v>
       </c>
       <c r="E132" t="n">
-        <v>0.210463</v>
+        <v>0.20918</v>
       </c>
       <c r="F132" t="n">
-        <v>0.447029</v>
+        <v>0.4398</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.277237</v>
+        <v>0.278065</v>
       </c>
       <c r="C133" t="n">
-        <v>0.655185</v>
+        <v>0.649755</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5832540000000001</v>
+        <v>0.575358</v>
       </c>
       <c r="E133" t="n">
-        <v>0.207762</v>
+        <v>0.208375</v>
       </c>
       <c r="F133" t="n">
-        <v>0.445922</v>
+        <v>0.438898</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.266176</v>
+        <v>0.26716</v>
       </c>
       <c r="C134" t="n">
-        <v>0.618394</v>
+        <v>0.613254</v>
       </c>
       <c r="D134" t="n">
-        <v>0.577337</v>
+        <v>0.56986</v>
       </c>
       <c r="E134" t="n">
-        <v>0.207626</v>
+        <v>0.205512</v>
       </c>
       <c r="F134" t="n">
-        <v>0.444956</v>
+        <v>0.43826</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.253611</v>
+        <v>0.255011</v>
       </c>
       <c r="C135" t="n">
-        <v>0.507923</v>
+        <v>0.503466</v>
       </c>
       <c r="D135" t="n">
-        <v>0.634271</v>
+        <v>0.623312</v>
       </c>
       <c r="E135" t="n">
-        <v>0.208773</v>
+        <v>0.207507</v>
       </c>
       <c r="F135" t="n">
-        <v>0.444078</v>
+        <v>0.438025</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.240701</v>
+        <v>0.242054</v>
       </c>
       <c r="C136" t="n">
-        <v>0.491209</v>
+        <v>0.487261</v>
       </c>
       <c r="D136" t="n">
-        <v>0.647837</v>
+        <v>0.640594</v>
       </c>
       <c r="E136" t="n">
-        <v>0.208624</v>
+        <v>0.207761</v>
       </c>
       <c r="F136" t="n">
-        <v>0.443474</v>
+        <v>0.436594</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.226077</v>
+        <v>0.227681</v>
       </c>
       <c r="C137" t="n">
-        <v>0.583382</v>
+        <v>0.577982</v>
       </c>
       <c r="D137" t="n">
-        <v>0.626661</v>
+        <v>0.618393</v>
       </c>
       <c r="E137" t="n">
-        <v>0.219332</v>
+        <v>0.218645</v>
       </c>
       <c r="F137" t="n">
-        <v>0.459929</v>
+        <v>0.451734</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350103</v>
+        <v>0.350164</v>
       </c>
       <c r="C138" t="n">
-        <v>0.6425419999999999</v>
+        <v>0.63725</v>
       </c>
       <c r="D138" t="n">
-        <v>0.625705</v>
+        <v>0.6172530000000001</v>
       </c>
       <c r="E138" t="n">
-        <v>0.217406</v>
+        <v>0.217816</v>
       </c>
       <c r="F138" t="n">
-        <v>0.458006</v>
+        <v>0.453789</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344246</v>
+        <v>0.344688</v>
       </c>
       <c r="C139" t="n">
-        <v>0.623478</v>
+        <v>0.617982</v>
       </c>
       <c r="D139" t="n">
-        <v>0.622242</v>
+        <v>0.61547</v>
       </c>
       <c r="E139" t="n">
-        <v>0.215839</v>
+        <v>0.216193</v>
       </c>
       <c r="F139" t="n">
-        <v>0.456183</v>
+        <v>0.449156</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338267</v>
+        <v>0.338649</v>
       </c>
       <c r="C140" t="n">
-        <v>0.675956</v>
+        <v>0.669849</v>
       </c>
       <c r="D140" t="n">
-        <v>0.617914</v>
+        <v>0.611109</v>
       </c>
       <c r="E140" t="n">
-        <v>0.214273</v>
+        <v>0.2148</v>
       </c>
       <c r="F140" t="n">
-        <v>0.457003</v>
+        <v>0.447109</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331945</v>
+        <v>0.332076</v>
       </c>
       <c r="C141" t="n">
-        <v>0.674504</v>
+        <v>0.667825</v>
       </c>
       <c r="D141" t="n">
-        <v>0.625077</v>
+        <v>0.618471</v>
       </c>
       <c r="E141" t="n">
-        <v>0.213171</v>
+        <v>0.213569</v>
       </c>
       <c r="F141" t="n">
-        <v>0.460878</v>
+        <v>0.446799</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324526</v>
+        <v>0.324707</v>
       </c>
       <c r="C142" t="n">
-        <v>0.619025</v>
+        <v>0.614259</v>
       </c>
       <c r="D142" t="n">
-        <v>0.618429</v>
+        <v>0.614127</v>
       </c>
       <c r="E142" t="n">
-        <v>0.212004</v>
+        <v>0.212471</v>
       </c>
       <c r="F142" t="n">
-        <v>0.451944</v>
+        <v>0.444576</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316957</v>
+        <v>0.316846</v>
       </c>
       <c r="C143" t="n">
-        <v>0.721762</v>
+        <v>0.7145</v>
       </c>
       <c r="D143" t="n">
-        <v>0.61215</v>
+        <v>0.602953</v>
       </c>
       <c r="E143" t="n">
-        <v>0.211863</v>
+        <v>0.211538</v>
       </c>
       <c r="F143" t="n">
-        <v>0.450604</v>
+        <v>0.443561</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.306067</v>
+        <v>0.301293</v>
       </c>
       <c r="C2" t="n">
-        <v>0.507233</v>
+        <v>0.515722</v>
       </c>
       <c r="D2" t="n">
-        <v>0.421132</v>
+        <v>0.451906</v>
       </c>
       <c r="E2" t="n">
-        <v>0.195118</v>
+        <v>0.197958</v>
       </c>
       <c r="F2" t="n">
-        <v>0.438061</v>
+        <v>0.449828</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.29674</v>
+        <v>0.29452</v>
       </c>
       <c r="C3" t="n">
-        <v>0.506038</v>
+        <v>0.512474</v>
       </c>
       <c r="D3" t="n">
-        <v>0.423251</v>
+        <v>0.45427</v>
       </c>
       <c r="E3" t="n">
-        <v>0.205844</v>
+        <v>0.197156</v>
       </c>
       <c r="F3" t="n">
-        <v>0.437845</v>
+        <v>0.44446</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.28715</v>
+        <v>0.288966</v>
       </c>
       <c r="C4" t="n">
-        <v>0.492411</v>
+        <v>0.49835</v>
       </c>
       <c r="D4" t="n">
-        <v>0.424878</v>
+        <v>0.457154</v>
       </c>
       <c r="E4" t="n">
-        <v>0.217056</v>
+        <v>0.214207</v>
       </c>
       <c r="F4" t="n">
-        <v>0.434018</v>
+        <v>0.44745</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.277282</v>
+        <v>0.280444</v>
       </c>
       <c r="C5" t="n">
-        <v>0.483968</v>
+        <v>0.492215</v>
       </c>
       <c r="D5" t="n">
-        <v>0.42218</v>
+        <v>0.459804</v>
       </c>
       <c r="E5" t="n">
-        <v>0.215554</v>
+        <v>0.201253</v>
       </c>
       <c r="F5" t="n">
-        <v>0.435577</v>
+        <v>0.446025</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.263738</v>
+        <v>0.266136</v>
       </c>
       <c r="C6" t="n">
-        <v>0.473678</v>
+        <v>0.476506</v>
       </c>
       <c r="D6" t="n">
-        <v>0.424403</v>
+        <v>0.461991</v>
       </c>
       <c r="E6" t="n">
-        <v>0.215516</v>
+        <v>0.203575</v>
       </c>
       <c r="F6" t="n">
-        <v>0.435228</v>
+        <v>0.444503</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.253144</v>
+        <v>0.254084</v>
       </c>
       <c r="C7" t="n">
-        <v>0.462446</v>
+        <v>0.465968</v>
       </c>
       <c r="D7" t="n">
-        <v>0.418593</v>
+        <v>0.440246</v>
       </c>
       <c r="E7" t="n">
-        <v>0.219323</v>
+        <v>0.205463</v>
       </c>
       <c r="F7" t="n">
-        <v>0.433829</v>
+        <v>0.443695</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.24292</v>
+        <v>0.242107</v>
       </c>
       <c r="C8" t="n">
-        <v>0.443706</v>
+        <v>0.453385</v>
       </c>
       <c r="D8" t="n">
-        <v>0.420944</v>
+        <v>0.444794</v>
       </c>
       <c r="E8" t="n">
-        <v>0.219583</v>
+        <v>0.20494</v>
       </c>
       <c r="F8" t="n">
-        <v>0.434078</v>
+        <v>0.442948</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.226379</v>
+        <v>0.227577</v>
       </c>
       <c r="C9" t="n">
-        <v>0.432832</v>
+        <v>0.439408</v>
       </c>
       <c r="D9" t="n">
-        <v>0.420356</v>
+        <v>0.445942</v>
       </c>
       <c r="E9" t="n">
-        <v>0.235845</v>
+        <v>0.228136</v>
       </c>
       <c r="F9" t="n">
-        <v>0.448911</v>
+        <v>0.458746</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.351562</v>
+        <v>0.349724</v>
       </c>
       <c r="C10" t="n">
-        <v>0.553217</v>
+        <v>0.5643089999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.420242</v>
+        <v>0.447035</v>
       </c>
       <c r="E10" t="n">
-        <v>0.220185</v>
+        <v>0.221771</v>
       </c>
       <c r="F10" t="n">
-        <v>0.449246</v>
+        <v>0.459051</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.345524</v>
+        <v>0.346135</v>
       </c>
       <c r="C11" t="n">
-        <v>0.550604</v>
+        <v>0.548581</v>
       </c>
       <c r="D11" t="n">
-        <v>0.42241</v>
+        <v>0.44863</v>
       </c>
       <c r="E11" t="n">
-        <v>0.219174</v>
+        <v>0.220413</v>
       </c>
       <c r="F11" t="n">
-        <v>0.449992</v>
+        <v>0.456665</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.342008</v>
+        <v>0.339539</v>
       </c>
       <c r="C12" t="n">
-        <v>0.547091</v>
+        <v>0.555822</v>
       </c>
       <c r="D12" t="n">
-        <v>0.421526</v>
+        <v>0.45047</v>
       </c>
       <c r="E12" t="n">
-        <v>0.220208</v>
+        <v>0.220304</v>
       </c>
       <c r="F12" t="n">
-        <v>0.447233</v>
+        <v>0.457306</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.332861</v>
+        <v>0.333904</v>
       </c>
       <c r="C13" t="n">
-        <v>0.541168</v>
+        <v>0.549262</v>
       </c>
       <c r="D13" t="n">
-        <v>0.422313</v>
+        <v>0.45099</v>
       </c>
       <c r="E13" t="n">
-        <v>0.218843</v>
+        <v>0.219876</v>
       </c>
       <c r="F13" t="n">
-        <v>0.446291</v>
+        <v>0.455948</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.327336</v>
+        <v>0.32614</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5340009999999999</v>
+        <v>0.542248</v>
       </c>
       <c r="D14" t="n">
-        <v>0.42396</v>
+        <v>0.454398</v>
       </c>
       <c r="E14" t="n">
-        <v>0.219234</v>
+        <v>0.219177</v>
       </c>
       <c r="F14" t="n">
-        <v>0.443406</v>
+        <v>0.453002</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.320536</v>
+        <v>0.319793</v>
       </c>
       <c r="C15" t="n">
-        <v>0.527021</v>
+        <v>0.534304</v>
       </c>
       <c r="D15" t="n">
-        <v>0.423767</v>
+        <v>0.456467</v>
       </c>
       <c r="E15" t="n">
-        <v>0.234323</v>
+        <v>0.218779</v>
       </c>
       <c r="F15" t="n">
-        <v>0.443436</v>
+        <v>0.453031</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.312176</v>
+        <v>0.312553</v>
       </c>
       <c r="C16" t="n">
-        <v>0.518384</v>
+        <v>0.523513</v>
       </c>
       <c r="D16" t="n">
-        <v>0.425385</v>
+        <v>0.459561</v>
       </c>
       <c r="E16" t="n">
-        <v>0.219083</v>
+        <v>0.218644</v>
       </c>
       <c r="F16" t="n">
-        <v>0.442998</v>
+        <v>0.453827</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.304322</v>
+        <v>0.30273</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5122370000000001</v>
+        <v>0.522447</v>
       </c>
       <c r="D17" t="n">
-        <v>0.427721</v>
+        <v>0.46282</v>
       </c>
       <c r="E17" t="n">
-        <v>0.233776</v>
+        <v>0.217929</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4423</v>
+        <v>0.451165</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.293847</v>
+        <v>0.293652</v>
       </c>
       <c r="C18" t="n">
-        <v>0.50142</v>
+        <v>0.504484</v>
       </c>
       <c r="D18" t="n">
-        <v>0.429317</v>
+        <v>0.468256</v>
       </c>
       <c r="E18" t="n">
-        <v>0.215801</v>
+        <v>0.217018</v>
       </c>
       <c r="F18" t="n">
-        <v>0.439241</v>
+        <v>0.449888</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.283186</v>
+        <v>0.285183</v>
       </c>
       <c r="C19" t="n">
-        <v>0.490914</v>
+        <v>0.500062</v>
       </c>
       <c r="D19" t="n">
-        <v>0.430708</v>
+        <v>0.470128</v>
       </c>
       <c r="E19" t="n">
-        <v>0.216104</v>
+        <v>0.217268</v>
       </c>
       <c r="F19" t="n">
-        <v>0.439595</v>
+        <v>0.448756</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.273339</v>
+        <v>0.272664</v>
       </c>
       <c r="C20" t="n">
-        <v>0.479402</v>
+        <v>0.489896</v>
       </c>
       <c r="D20" t="n">
-        <v>0.430473</v>
+        <v>0.470537</v>
       </c>
       <c r="E20" t="n">
-        <v>0.216604</v>
+        <v>0.216863</v>
       </c>
       <c r="F20" t="n">
-        <v>0.439313</v>
+        <v>0.450261</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.262964</v>
+        <v>0.267408</v>
       </c>
       <c r="C21" t="n">
-        <v>0.462699</v>
+        <v>0.468947</v>
       </c>
       <c r="D21" t="n">
-        <v>0.424299</v>
+        <v>0.448957</v>
       </c>
       <c r="E21" t="n">
-        <v>0.21512</v>
+        <v>0.215659</v>
       </c>
       <c r="F21" t="n">
-        <v>0.438441</v>
+        <v>0.447743</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248808</v>
+        <v>0.249384</v>
       </c>
       <c r="C22" t="n">
-        <v>0.456161</v>
+        <v>0.462236</v>
       </c>
       <c r="D22" t="n">
-        <v>0.425374</v>
+        <v>0.448836</v>
       </c>
       <c r="E22" t="n">
-        <v>0.21618</v>
+        <v>0.226324</v>
       </c>
       <c r="F22" t="n">
-        <v>0.438631</v>
+        <v>0.447395</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.23495</v>
+        <v>0.235641</v>
       </c>
       <c r="C23" t="n">
-        <v>0.435405</v>
+        <v>0.439509</v>
       </c>
       <c r="D23" t="n">
-        <v>0.426984</v>
+        <v>0.4516</v>
       </c>
       <c r="E23" t="n">
-        <v>0.247137</v>
+        <v>0.229671</v>
       </c>
       <c r="F23" t="n">
-        <v>0.454694</v>
+        <v>0.463831</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.355974</v>
+        <v>0.354032</v>
       </c>
       <c r="C24" t="n">
-        <v>0.555665</v>
+        <v>0.569346</v>
       </c>
       <c r="D24" t="n">
-        <v>0.426518</v>
+        <v>0.453888</v>
       </c>
       <c r="E24" t="n">
-        <v>0.244979</v>
+        <v>0.227894</v>
       </c>
       <c r="F24" t="n">
-        <v>0.451889</v>
+        <v>0.462131</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.350524</v>
+        <v>0.348198</v>
       </c>
       <c r="C25" t="n">
-        <v>0.553266</v>
+        <v>0.562182</v>
       </c>
       <c r="D25" t="n">
-        <v>0.427929</v>
+        <v>0.45454</v>
       </c>
       <c r="E25" t="n">
-        <v>0.256639</v>
+        <v>0.227161</v>
       </c>
       <c r="F25" t="n">
-        <v>0.450091</v>
+        <v>0.460446</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.344269</v>
+        <v>0.34214</v>
       </c>
       <c r="C26" t="n">
-        <v>0.547397</v>
+        <v>0.556332</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4277</v>
+        <v>0.45544</v>
       </c>
       <c r="E26" t="n">
-        <v>0.226076</v>
+        <v>0.226468</v>
       </c>
       <c r="F26" t="n">
-        <v>0.449682</v>
+        <v>0.460575</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.339022</v>
+        <v>0.336804</v>
       </c>
       <c r="C27" t="n">
-        <v>0.540594</v>
+        <v>0.546355</v>
       </c>
       <c r="D27" t="n">
-        <v>0.429134</v>
+        <v>0.457211</v>
       </c>
       <c r="E27" t="n">
-        <v>0.22546</v>
+        <v>0.225106</v>
       </c>
       <c r="F27" t="n">
-        <v>0.446791</v>
+        <v>0.458498</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.331456</v>
+        <v>0.33049</v>
       </c>
       <c r="C28" t="n">
-        <v>0.531946</v>
+        <v>0.541666</v>
       </c>
       <c r="D28" t="n">
-        <v>0.429076</v>
+        <v>0.459611</v>
       </c>
       <c r="E28" t="n">
-        <v>0.238767</v>
+        <v>0.224416</v>
       </c>
       <c r="F28" t="n">
-        <v>0.446781</v>
+        <v>0.458426</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.323602</v>
+        <v>0.323603</v>
       </c>
       <c r="C29" t="n">
-        <v>0.532497</v>
+        <v>0.537282</v>
       </c>
       <c r="D29" t="n">
-        <v>0.429634</v>
+        <v>0.46216</v>
       </c>
       <c r="E29" t="n">
-        <v>0.222284</v>
+        <v>0.22355</v>
       </c>
       <c r="F29" t="n">
-        <v>0.444391</v>
+        <v>0.456396</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.315096</v>
+        <v>0.314671</v>
       </c>
       <c r="C30" t="n">
-        <v>0.521379</v>
+        <v>0.528712</v>
       </c>
       <c r="D30" t="n">
-        <v>0.430843</v>
+        <v>0.464053</v>
       </c>
       <c r="E30" t="n">
-        <v>0.221135</v>
+        <v>0.2225</v>
       </c>
       <c r="F30" t="n">
-        <v>0.443997</v>
+        <v>0.456363</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.307135</v>
+        <v>0.30667</v>
       </c>
       <c r="C31" t="n">
-        <v>0.506593</v>
+        <v>0.513446</v>
       </c>
       <c r="D31" t="n">
-        <v>0.432898</v>
+        <v>0.464799</v>
       </c>
       <c r="E31" t="n">
-        <v>0.220841</v>
+        <v>0.221555</v>
       </c>
       <c r="F31" t="n">
-        <v>0.442282</v>
+        <v>0.45428</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.297721</v>
+        <v>0.296121</v>
       </c>
       <c r="C32" t="n">
-        <v>0.50623</v>
+        <v>0.5090710000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.433458</v>
+        <v>0.469473</v>
       </c>
       <c r="E32" t="n">
-        <v>0.219929</v>
+        <v>0.220817</v>
       </c>
       <c r="F32" t="n">
-        <v>0.440802</v>
+        <v>0.45313</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.288769</v>
+        <v>0.28865</v>
       </c>
       <c r="C33" t="n">
-        <v>0.491855</v>
+        <v>0.502355</v>
       </c>
       <c r="D33" t="n">
-        <v>0.433962</v>
+        <v>0.470195</v>
       </c>
       <c r="E33" t="n">
-        <v>0.219525</v>
+        <v>0.220083</v>
       </c>
       <c r="F33" t="n">
-        <v>0.440695</v>
+        <v>0.451891</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.278191</v>
+        <v>0.277085</v>
       </c>
       <c r="C34" t="n">
-        <v>0.478133</v>
+        <v>0.484822</v>
       </c>
       <c r="D34" t="n">
-        <v>0.435487</v>
+        <v>0.473809</v>
       </c>
       <c r="E34" t="n">
-        <v>0.219489</v>
+        <v>0.230056</v>
       </c>
       <c r="F34" t="n">
-        <v>0.440285</v>
+        <v>0.451667</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.266191</v>
+        <v>0.265424</v>
       </c>
       <c r="C35" t="n">
-        <v>0.468009</v>
+        <v>0.469689</v>
       </c>
       <c r="D35" t="n">
-        <v>0.432048</v>
+        <v>0.453761</v>
       </c>
       <c r="E35" t="n">
-        <v>0.234457</v>
+        <v>0.218982</v>
       </c>
       <c r="F35" t="n">
-        <v>0.440029</v>
+        <v>0.450865</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.254145</v>
+        <v>0.256539</v>
       </c>
       <c r="C36" t="n">
-        <v>0.454508</v>
+        <v>0.466438</v>
       </c>
       <c r="D36" t="n">
-        <v>0.432262</v>
+        <v>0.455514</v>
       </c>
       <c r="E36" t="n">
-        <v>0.220858</v>
+        <v>0.218264</v>
       </c>
       <c r="F36" t="n">
-        <v>0.440289</v>
+        <v>0.449422</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.240171</v>
+        <v>0.240136</v>
       </c>
       <c r="C37" t="n">
-        <v>0.449608</v>
+        <v>0.45419</v>
       </c>
       <c r="D37" t="n">
-        <v>0.433049</v>
+        <v>0.457202</v>
       </c>
       <c r="E37" t="n">
-        <v>0.234607</v>
+        <v>0.241442</v>
       </c>
       <c r="F37" t="n">
-        <v>0.454768</v>
+        <v>0.465096</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.357993</v>
+        <v>0.357559</v>
       </c>
       <c r="C38" t="n">
-        <v>0.555253</v>
+        <v>0.55902</v>
       </c>
       <c r="D38" t="n">
-        <v>0.432702</v>
+        <v>0.457462</v>
       </c>
       <c r="E38" t="n">
-        <v>0.230491</v>
+        <v>0.229752</v>
       </c>
       <c r="F38" t="n">
-        <v>0.452478</v>
+        <v>0.462981</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.35316</v>
+        <v>0.352438</v>
       </c>
       <c r="C39" t="n">
-        <v>0.550766</v>
+        <v>0.554512</v>
       </c>
       <c r="D39" t="n">
-        <v>0.432178</v>
+        <v>0.459378</v>
       </c>
       <c r="E39" t="n">
-        <v>0.227704</v>
+        <v>0.22787</v>
       </c>
       <c r="F39" t="n">
-        <v>0.45073</v>
+        <v>0.461749</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.347378</v>
+        <v>0.345659</v>
       </c>
       <c r="C40" t="n">
-        <v>0.545557</v>
+        <v>0.548651</v>
       </c>
       <c r="D40" t="n">
-        <v>0.432654</v>
+        <v>0.460358</v>
       </c>
       <c r="E40" t="n">
-        <v>0.226853</v>
+        <v>0.22715</v>
       </c>
       <c r="F40" t="n">
-        <v>0.449602</v>
+        <v>0.461041</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.341203</v>
+        <v>0.339435</v>
       </c>
       <c r="C41" t="n">
-        <v>0.538771</v>
+        <v>0.543357</v>
       </c>
       <c r="D41" t="n">
-        <v>0.432295</v>
+        <v>0.463688</v>
       </c>
       <c r="E41" t="n">
-        <v>0.225537</v>
+        <v>0.225725</v>
       </c>
       <c r="F41" t="n">
-        <v>0.448431</v>
+        <v>0.460312</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.333895</v>
+        <v>0.332455</v>
       </c>
       <c r="C42" t="n">
-        <v>0.534544</v>
+        <v>0.541889</v>
       </c>
       <c r="D42" t="n">
-        <v>0.43196</v>
+        <v>0.463814</v>
       </c>
       <c r="E42" t="n">
-        <v>0.22395</v>
+        <v>0.225002</v>
       </c>
       <c r="F42" t="n">
-        <v>0.446641</v>
+        <v>0.458601</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.326435</v>
+        <v>0.326031</v>
       </c>
       <c r="C43" t="n">
-        <v>0.52694</v>
+        <v>0.5323560000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.433471</v>
+        <v>0.46592</v>
       </c>
       <c r="E43" t="n">
-        <v>0.223337</v>
+        <v>0.223738</v>
       </c>
       <c r="F43" t="n">
-        <v>0.445238</v>
+        <v>0.45705</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.319343</v>
+        <v>0.318566</v>
       </c>
       <c r="C44" t="n">
-        <v>0.522638</v>
+        <v>0.528907</v>
       </c>
       <c r="D44" t="n">
-        <v>0.434341</v>
+        <v>0.466818</v>
       </c>
       <c r="E44" t="n">
-        <v>0.222335</v>
+        <v>0.222806</v>
       </c>
       <c r="F44" t="n">
-        <v>0.444083</v>
+        <v>0.455827</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.310746</v>
+        <v>0.30948</v>
       </c>
       <c r="C45" t="n">
-        <v>0.511251</v>
+        <v>0.519922</v>
       </c>
       <c r="D45" t="n">
-        <v>0.434708</v>
+        <v>0.46987</v>
       </c>
       <c r="E45" t="n">
-        <v>0.221313</v>
+        <v>0.221773</v>
       </c>
       <c r="F45" t="n">
-        <v>0.442573</v>
+        <v>0.454246</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.301953</v>
+        <v>0.301621</v>
       </c>
       <c r="C46" t="n">
-        <v>0.506641</v>
+        <v>0.511756</v>
       </c>
       <c r="D46" t="n">
-        <v>0.43603</v>
+        <v>0.471148</v>
       </c>
       <c r="E46" t="n">
-        <v>0.220079</v>
+        <v>0.220925</v>
       </c>
       <c r="F46" t="n">
-        <v>0.442071</v>
+        <v>0.453824</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.291472</v>
+        <v>0.292837</v>
       </c>
       <c r="C47" t="n">
-        <v>0.497505</v>
+        <v>0.509361</v>
       </c>
       <c r="D47" t="n">
-        <v>0.43641</v>
+        <v>0.473673</v>
       </c>
       <c r="E47" t="n">
-        <v>0.220206</v>
+        <v>0.22011</v>
       </c>
       <c r="F47" t="n">
-        <v>0.441277</v>
+        <v>0.453406</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.281786</v>
+        <v>0.282888</v>
       </c>
       <c r="C48" t="n">
-        <v>0.486522</v>
+        <v>0.494735</v>
       </c>
       <c r="D48" t="n">
-        <v>0.437884</v>
+        <v>0.478479</v>
       </c>
       <c r="E48" t="n">
-        <v>0.219502</v>
+        <v>0.229342</v>
       </c>
       <c r="F48" t="n">
-        <v>0.441037</v>
+        <v>0.451481</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.270637</v>
+        <v>0.271452</v>
       </c>
       <c r="C49" t="n">
-        <v>0.470771</v>
+        <v>0.480529</v>
       </c>
       <c r="D49" t="n">
-        <v>0.438689</v>
+        <v>0.481369</v>
       </c>
       <c r="E49" t="n">
-        <v>0.218755</v>
+        <v>0.219457</v>
       </c>
       <c r="F49" t="n">
-        <v>0.441025</v>
+        <v>0.451072</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.257101</v>
+        <v>0.258529</v>
       </c>
       <c r="C50" t="n">
-        <v>0.463986</v>
+        <v>0.467779</v>
       </c>
       <c r="D50" t="n">
-        <v>0.43872</v>
+        <v>0.46262</v>
       </c>
       <c r="E50" t="n">
-        <v>0.218485</v>
+        <v>0.219264</v>
       </c>
       <c r="F50" t="n">
-        <v>0.440705</v>
+        <v>0.450233</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.243749</v>
+        <v>0.244911</v>
       </c>
       <c r="C51" t="n">
-        <v>0.448185</v>
+        <v>0.44994</v>
       </c>
       <c r="D51" t="n">
-        <v>0.437899</v>
+        <v>0.464598</v>
       </c>
       <c r="E51" t="n">
-        <v>0.257677</v>
+        <v>0.242595</v>
       </c>
       <c r="F51" t="n">
-        <v>0.455968</v>
+        <v>0.465375</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.228999</v>
+        <v>0.23065</v>
       </c>
       <c r="C52" t="n">
-        <v>0.43348</v>
+        <v>0.441164</v>
       </c>
       <c r="D52" t="n">
-        <v>0.437388</v>
+        <v>0.464569</v>
       </c>
       <c r="E52" t="n">
-        <v>0.246849</v>
+        <v>0.241073</v>
       </c>
       <c r="F52" t="n">
-        <v>0.454226</v>
+        <v>0.464412</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.354676</v>
+        <v>0.353867</v>
       </c>
       <c r="C53" t="n">
-        <v>0.557912</v>
+        <v>0.565534</v>
       </c>
       <c r="D53" t="n">
-        <v>0.438724</v>
+        <v>0.464542</v>
       </c>
       <c r="E53" t="n">
-        <v>0.229216</v>
+        <v>0.228407</v>
       </c>
       <c r="F53" t="n">
-        <v>0.451926</v>
+        <v>0.462516</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.349511</v>
+        <v>0.347852</v>
       </c>
       <c r="C54" t="n">
-        <v>0.552605</v>
+        <v>0.551495</v>
       </c>
       <c r="D54" t="n">
-        <v>0.439103</v>
+        <v>0.466483</v>
       </c>
       <c r="E54" t="n">
-        <v>0.227825</v>
+        <v>0.227262</v>
       </c>
       <c r="F54" t="n">
-        <v>0.450223</v>
+        <v>0.461969</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.343358</v>
+        <v>0.341575</v>
       </c>
       <c r="C55" t="n">
-        <v>0.552316</v>
+        <v>0.560126</v>
       </c>
       <c r="D55" t="n">
-        <v>0.439531</v>
+        <v>0.467645</v>
       </c>
       <c r="E55" t="n">
-        <v>0.227007</v>
+        <v>0.225851</v>
       </c>
       <c r="F55" t="n">
-        <v>0.448816</v>
+        <v>0.459972</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.336288</v>
+        <v>0.334634</v>
       </c>
       <c r="C56" t="n">
-        <v>0.545589</v>
+        <v>0.552956</v>
       </c>
       <c r="D56" t="n">
-        <v>0.442759</v>
+        <v>0.47394</v>
       </c>
       <c r="E56" t="n">
-        <v>0.225184</v>
+        <v>0.235493</v>
       </c>
       <c r="F56" t="n">
-        <v>0.446693</v>
+        <v>0.458784</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.328264</v>
+        <v>0.327476</v>
       </c>
       <c r="C57" t="n">
-        <v>0.549889</v>
+        <v>0.543045</v>
       </c>
       <c r="D57" t="n">
-        <v>0.443666</v>
+        <v>0.476146</v>
       </c>
       <c r="E57" t="n">
-        <v>0.224039</v>
+        <v>0.223743</v>
       </c>
       <c r="F57" t="n">
-        <v>0.445735</v>
+        <v>0.45783</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.321174</v>
+        <v>0.319862</v>
       </c>
       <c r="C58" t="n">
-        <v>0.549763</v>
+        <v>0.5462</v>
       </c>
       <c r="D58" t="n">
-        <v>0.446316</v>
+        <v>0.47934</v>
       </c>
       <c r="E58" t="n">
-        <v>0.224007</v>
+        <v>0.233496</v>
       </c>
       <c r="F58" t="n">
-        <v>0.444542</v>
+        <v>0.456904</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.313408</v>
+        <v>0.312092</v>
       </c>
       <c r="C59" t="n">
-        <v>0.548049</v>
+        <v>0.524435</v>
       </c>
       <c r="D59" t="n">
-        <v>0.446292</v>
+        <v>0.481</v>
       </c>
       <c r="E59" t="n">
-        <v>0.222341</v>
+        <v>0.222379</v>
       </c>
       <c r="F59" t="n">
-        <v>0.443198</v>
+        <v>0.456005</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.30384</v>
+        <v>0.30349</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5179510000000001</v>
+        <v>0.536689</v>
       </c>
       <c r="D60" t="n">
-        <v>0.451566</v>
+        <v>0.483185</v>
       </c>
       <c r="E60" t="n">
-        <v>0.221668</v>
+        <v>0.221358</v>
       </c>
       <c r="F60" t="n">
-        <v>0.443136</v>
+        <v>0.454652</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.294672</v>
+        <v>0.293863</v>
       </c>
       <c r="C61" t="n">
-        <v>0.545999</v>
+        <v>0.528332</v>
       </c>
       <c r="D61" t="n">
-        <v>0.454026</v>
+        <v>0.48957</v>
       </c>
       <c r="E61" t="n">
-        <v>0.235061</v>
+        <v>0.220709</v>
       </c>
       <c r="F61" t="n">
-        <v>0.44193</v>
+        <v>0.453648</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.284351</v>
+        <v>0.283723</v>
       </c>
       <c r="C62" t="n">
-        <v>0.506702</v>
+        <v>0.527182</v>
       </c>
       <c r="D62" t="n">
-        <v>0.458282</v>
+        <v>0.495273</v>
       </c>
       <c r="E62" t="n">
-        <v>0.220399</v>
+        <v>0.220096</v>
       </c>
       <c r="F62" t="n">
-        <v>0.441274</v>
+        <v>0.452392</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.273459</v>
+        <v>0.27347</v>
       </c>
       <c r="C63" t="n">
-        <v>0.526907</v>
+        <v>0.493184</v>
       </c>
       <c r="D63" t="n">
-        <v>0.461203</v>
+        <v>0.495354</v>
       </c>
       <c r="E63" t="n">
-        <v>0.233857</v>
+        <v>0.219632</v>
       </c>
       <c r="F63" t="n">
-        <v>0.44077</v>
+        <v>0.451326</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.261438</v>
+        <v>0.260843</v>
       </c>
       <c r="C64" t="n">
-        <v>0.505038</v>
+        <v>0.487008</v>
       </c>
       <c r="D64" t="n">
-        <v>0.496446</v>
+        <v>0.522486</v>
       </c>
       <c r="E64" t="n">
-        <v>0.218402</v>
+        <v>0.229413</v>
       </c>
       <c r="F64" t="n">
-        <v>0.440613</v>
+        <v>0.450749</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.247621</v>
+        <v>0.24796</v>
       </c>
       <c r="C65" t="n">
-        <v>0.494754</v>
+        <v>0.48799</v>
       </c>
       <c r="D65" t="n">
-        <v>0.498652</v>
+        <v>0.525322</v>
       </c>
       <c r="E65" t="n">
-        <v>0.232902</v>
+        <v>0.228338</v>
       </c>
       <c r="F65" t="n">
-        <v>0.440305</v>
+        <v>0.449864</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.233755</v>
+        <v>0.233771</v>
       </c>
       <c r="C66" t="n">
-        <v>0.47368</v>
+        <v>0.470802</v>
       </c>
       <c r="D66" t="n">
-        <v>0.504701</v>
+        <v>0.5347229999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>0.233561</v>
+        <v>0.239492</v>
       </c>
       <c r="F66" t="n">
-        <v>0.454796</v>
+        <v>0.465562</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.356239</v>
+        <v>0.355806</v>
       </c>
       <c r="C67" t="n">
-        <v>0.642048</v>
+        <v>0.626865</v>
       </c>
       <c r="D67" t="n">
-        <v>0.513491</v>
+        <v>0.54643</v>
       </c>
       <c r="E67" t="n">
-        <v>0.231965</v>
+        <v>0.245591</v>
       </c>
       <c r="F67" t="n">
-        <v>0.453168</v>
+        <v>0.464577</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.351175</v>
+        <v>0.349759</v>
       </c>
       <c r="C68" t="n">
-        <v>0.584124</v>
+        <v>0.648392</v>
       </c>
       <c r="D68" t="n">
-        <v>0.519584</v>
+        <v>0.551711</v>
       </c>
       <c r="E68" t="n">
-        <v>0.231299</v>
+        <v>0.233795</v>
       </c>
       <c r="F68" t="n">
-        <v>0.451157</v>
+        <v>0.462752</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.345116</v>
+        <v>0.343513</v>
       </c>
       <c r="C69" t="n">
-        <v>0.57798</v>
+        <v>0.611723</v>
       </c>
       <c r="D69" t="n">
-        <v>0.520583</v>
+        <v>0.5594170000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>0.22824</v>
+        <v>0.230656</v>
       </c>
       <c r="F69" t="n">
-        <v>0.44924</v>
+        <v>0.460676</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.338563</v>
+        <v>0.337054</v>
       </c>
       <c r="C70" t="n">
-        <v>0.671011</v>
+        <v>0.672807</v>
       </c>
       <c r="D70" t="n">
-        <v>0.529114</v>
+        <v>0.56326</v>
       </c>
       <c r="E70" t="n">
-        <v>0.227821</v>
+        <v>0.2286</v>
       </c>
       <c r="F70" t="n">
-        <v>0.447535</v>
+        <v>0.459358</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.330673</v>
+        <v>0.330356</v>
       </c>
       <c r="C71" t="n">
-        <v>0.65249</v>
+        <v>0.65079</v>
       </c>
       <c r="D71" t="n">
-        <v>0.530274</v>
+        <v>0.580601</v>
       </c>
       <c r="E71" t="n">
-        <v>0.228335</v>
+        <v>0.227297</v>
       </c>
       <c r="F71" t="n">
-        <v>0.446322</v>
+        <v>0.459375</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.323635</v>
+        <v>0.32229</v>
       </c>
       <c r="C72" t="n">
-        <v>0.660048</v>
+        <v>0.6494</v>
       </c>
       <c r="D72" t="n">
-        <v>0.537904</v>
+        <v>0.578286</v>
       </c>
       <c r="E72" t="n">
-        <v>0.226045</v>
+        <v>0.225579</v>
       </c>
       <c r="F72" t="n">
-        <v>0.444793</v>
+        <v>0.457238</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.315093</v>
+        <v>0.314489</v>
       </c>
       <c r="C73" t="n">
-        <v>0.615187</v>
+        <v>0.638366</v>
       </c>
       <c r="D73" t="n">
-        <v>0.542844</v>
+        <v>0.584329</v>
       </c>
       <c r="E73" t="n">
-        <v>0.224666</v>
+        <v>0.223737</v>
       </c>
       <c r="F73" t="n">
-        <v>0.443429</v>
+        <v>0.456177</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.30766</v>
+        <v>0.305348</v>
       </c>
       <c r="C74" t="n">
-        <v>0.618752</v>
+        <v>0.611188</v>
       </c>
       <c r="D74" t="n">
-        <v>0.544247</v>
+        <v>0.586829</v>
       </c>
       <c r="E74" t="n">
-        <v>0.224119</v>
+        <v>0.222063</v>
       </c>
       <c r="F74" t="n">
-        <v>0.442774</v>
+        <v>0.455179</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.297514</v>
+        <v>0.296546</v>
       </c>
       <c r="C75" t="n">
-        <v>0.656592</v>
+        <v>0.598228</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5440120000000001</v>
+        <v>0.590065</v>
       </c>
       <c r="E75" t="n">
-        <v>0.235115</v>
+        <v>0.231844</v>
       </c>
       <c r="F75" t="n">
-        <v>0.442064</v>
+        <v>0.454305</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.287767</v>
+        <v>0.28683</v>
       </c>
       <c r="C76" t="n">
-        <v>0.590279</v>
+        <v>0.582973</v>
       </c>
       <c r="D76" t="n">
-        <v>0.54806</v>
+        <v>0.5946090000000001</v>
       </c>
       <c r="E76" t="n">
-        <v>0.223774</v>
+        <v>0.231073</v>
       </c>
       <c r="F76" t="n">
-        <v>0.441067</v>
+        <v>0.453366</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.276777</v>
+        <v>0.276315</v>
       </c>
       <c r="C77" t="n">
-        <v>0.624619</v>
+        <v>0.581086</v>
       </c>
       <c r="D77" t="n">
-        <v>0.562908</v>
+        <v>0.595071</v>
       </c>
       <c r="E77" t="n">
-        <v>0.222657</v>
+        <v>0.230404</v>
       </c>
       <c r="F77" t="n">
-        <v>0.444147</v>
+        <v>0.45347</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.264849</v>
+        <v>0.264752</v>
       </c>
       <c r="C78" t="n">
-        <v>0.619879</v>
+        <v>0.616428</v>
       </c>
       <c r="D78" t="n">
-        <v>0.633128</v>
+        <v>0.6646030000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>0.233214</v>
+        <v>0.21944</v>
       </c>
       <c r="F78" t="n">
-        <v>0.444092</v>
+        <v>0.451351</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.25184</v>
+        <v>0.251905</v>
       </c>
       <c r="C79" t="n">
-        <v>0.549004</v>
+        <v>0.579449</v>
       </c>
       <c r="D79" t="n">
-        <v>0.641773</v>
+        <v>0.654133</v>
       </c>
       <c r="E79" t="n">
-        <v>0.231456</v>
+        <v>0.21906</v>
       </c>
       <c r="F79" t="n">
-        <v>0.443567</v>
+        <v>0.450605</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.238528</v>
+        <v>0.238465</v>
       </c>
       <c r="C80" t="n">
-        <v>0.504408</v>
+        <v>0.577622</v>
       </c>
       <c r="D80" t="n">
-        <v>0.643896</v>
+        <v>0.667147</v>
       </c>
       <c r="E80" t="n">
-        <v>0.234076</v>
+        <v>0.233097</v>
       </c>
       <c r="F80" t="n">
-        <v>0.455514</v>
+        <v>0.465924</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.357617</v>
+        <v>0.357972</v>
       </c>
       <c r="C81" t="n">
-        <v>0.650861</v>
+        <v>0.745583</v>
       </c>
       <c r="D81" t="n">
-        <v>0.62524</v>
+        <v>0.66143</v>
       </c>
       <c r="E81" t="n">
-        <v>0.236678</v>
+        <v>0.231305</v>
       </c>
       <c r="F81" t="n">
-        <v>0.453326</v>
+        <v>0.464508</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.352585</v>
+        <v>0.352323</v>
       </c>
       <c r="C82" t="n">
-        <v>0.664992</v>
+        <v>0.736984</v>
       </c>
       <c r="D82" t="n">
-        <v>0.621694</v>
+        <v>0.662317</v>
       </c>
       <c r="E82" t="n">
-        <v>0.233907</v>
+        <v>0.228697</v>
       </c>
       <c r="F82" t="n">
-        <v>0.451335</v>
+        <v>0.462548</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.34603</v>
+        <v>0.345919</v>
       </c>
       <c r="C83" t="n">
-        <v>0.630783</v>
+        <v>0.7014860000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.61803</v>
+        <v>0.660184</v>
       </c>
       <c r="E83" t="n">
-        <v>0.232679</v>
+        <v>0.227388</v>
       </c>
       <c r="F83" t="n">
-        <v>0.449766</v>
+        <v>0.461018</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.339559</v>
+        <v>0.339627</v>
       </c>
       <c r="C84" t="n">
-        <v>0.716208</v>
+        <v>0.624831</v>
       </c>
       <c r="D84" t="n">
-        <v>0.607405</v>
+        <v>0.657588</v>
       </c>
       <c r="E84" t="n">
-        <v>0.231287</v>
+        <v>0.226551</v>
       </c>
       <c r="F84" t="n">
-        <v>0.447969</v>
+        <v>0.459903</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.332896</v>
+        <v>0.332198</v>
       </c>
       <c r="C85" t="n">
-        <v>0.669366</v>
+        <v>0.6843089999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.610995</v>
+        <v>0.655102</v>
       </c>
       <c r="E85" t="n">
-        <v>0.231221</v>
+        <v>0.224868</v>
       </c>
       <c r="F85" t="n">
-        <v>0.446717</v>
+        <v>0.458622</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.324987</v>
+        <v>0.324911</v>
       </c>
       <c r="C86" t="n">
-        <v>0.700754</v>
+        <v>0.770759</v>
       </c>
       <c r="D86" t="n">
-        <v>0.606955</v>
+        <v>0.6517810000000001</v>
       </c>
       <c r="E86" t="n">
-        <v>0.229014</v>
+        <v>0.234779</v>
       </c>
       <c r="F86" t="n">
-        <v>0.445678</v>
+        <v>0.457897</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.317427</v>
+        <v>0.31656</v>
       </c>
       <c r="C87" t="n">
-        <v>0.595724</v>
+        <v>0.678816</v>
       </c>
       <c r="D87" t="n">
-        <v>0.615592</v>
+        <v>0.648456</v>
       </c>
       <c r="E87" t="n">
-        <v>0.222037</v>
+        <v>0.222706</v>
       </c>
       <c r="F87" t="n">
-        <v>0.447473</v>
+        <v>0.456552</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.30898</v>
+        <v>0.307962</v>
       </c>
       <c r="C88" t="n">
-        <v>0.593021</v>
+        <v>0.625568</v>
       </c>
       <c r="D88" t="n">
-        <v>0.609438</v>
+        <v>0.642655</v>
       </c>
       <c r="E88" t="n">
-        <v>0.227145</v>
+        <v>0.221941</v>
       </c>
       <c r="F88" t="n">
-        <v>0.446286</v>
+        <v>0.456193</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.300124</v>
+        <v>0.299148</v>
       </c>
       <c r="C89" t="n">
-        <v>0.685037</v>
+        <v>0.658922</v>
       </c>
       <c r="D89" t="n">
-        <v>0.607576</v>
+        <v>0.6424800000000001</v>
       </c>
       <c r="E89" t="n">
-        <v>0.220398</v>
+        <v>0.221557</v>
       </c>
       <c r="F89" t="n">
-        <v>0.44559</v>
+        <v>0.454081</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.289454</v>
+        <v>0.289273</v>
       </c>
       <c r="C90" t="n">
-        <v>0.566475</v>
+        <v>0.645764</v>
       </c>
       <c r="D90" t="n">
-        <v>0.604585</v>
+        <v>0.6386039999999999</v>
       </c>
       <c r="E90" t="n">
-        <v>0.234892</v>
+        <v>0.222741</v>
       </c>
       <c r="F90" t="n">
-        <v>0.444733</v>
+        <v>0.453554</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.278894</v>
+        <v>0.279344</v>
       </c>
       <c r="C91" t="n">
-        <v>0.57163</v>
+        <v>0.591369</v>
       </c>
       <c r="D91" t="n">
-        <v>0.599526</v>
+        <v>0.635045</v>
       </c>
       <c r="E91" t="n">
-        <v>0.246872</v>
+        <v>0.220238</v>
       </c>
       <c r="F91" t="n">
-        <v>0.444205</v>
+        <v>0.45231</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.267214</v>
+        <v>0.267886</v>
       </c>
       <c r="C92" t="n">
-        <v>0.497328</v>
+        <v>0.551399</v>
       </c>
       <c r="D92" t="n">
-        <v>0.644582</v>
+        <v>0.659699</v>
       </c>
       <c r="E92" t="n">
-        <v>0.219406</v>
+        <v>0.219825</v>
       </c>
       <c r="F92" t="n">
-        <v>0.444209</v>
+        <v>0.451553</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.254496</v>
+        <v>0.255499</v>
       </c>
       <c r="C93" t="n">
-        <v>0.597928</v>
+        <v>0.62176</v>
       </c>
       <c r="D93" t="n">
-        <v>0.627717</v>
+        <v>0.660744</v>
       </c>
       <c r="E93" t="n">
-        <v>0.219147</v>
+        <v>0.229304</v>
       </c>
       <c r="F93" t="n">
-        <v>0.443845</v>
+        <v>0.45058</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.240424</v>
+        <v>0.241606</v>
       </c>
       <c r="C94" t="n">
-        <v>0.572816</v>
+        <v>0.613326</v>
       </c>
       <c r="D94" t="n">
-        <v>0.629984</v>
+        <v>0.6611939999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>0.239101</v>
+        <v>0.233814</v>
       </c>
       <c r="F94" t="n">
-        <v>0.459096</v>
+        <v>0.466179</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.359145</v>
+        <v>0.359339</v>
       </c>
       <c r="C95" t="n">
-        <v>0.758361</v>
+        <v>0.694472</v>
       </c>
       <c r="D95" t="n">
-        <v>0.634856</v>
+        <v>0.653877</v>
       </c>
       <c r="E95" t="n">
-        <v>0.238052</v>
+        <v>0.242872</v>
       </c>
       <c r="F95" t="n">
-        <v>0.457499</v>
+        <v>0.466302</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.353616</v>
+        <v>0.353621</v>
       </c>
       <c r="C96" t="n">
-        <v>0.712862</v>
+        <v>0.661267</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6308820000000001</v>
+        <v>0.653743</v>
       </c>
       <c r="E96" t="n">
-        <v>0.236034</v>
+        <v>0.229798</v>
       </c>
       <c r="F96" t="n">
-        <v>0.457968</v>
+        <v>0.463422</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.34818</v>
+        <v>0.347307</v>
       </c>
       <c r="C97" t="n">
-        <v>0.733605</v>
+        <v>0.695373</v>
       </c>
       <c r="D97" t="n">
-        <v>0.627763</v>
+        <v>0.6477579999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>0.234392</v>
+        <v>0.228321</v>
       </c>
       <c r="F97" t="n">
-        <v>0.454017</v>
+        <v>0.46381</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.341047</v>
+        <v>0.341079</v>
       </c>
       <c r="C98" t="n">
-        <v>0.667435</v>
+        <v>0.714017</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6220560000000001</v>
+        <v>0.6474760000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>0.230886</v>
+        <v>0.226752</v>
       </c>
       <c r="F98" t="n">
-        <v>0.452262</v>
+        <v>0.461397</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.334224</v>
+        <v>0.333808</v>
       </c>
       <c r="C99" t="n">
-        <v>0.672494</v>
+        <v>0.689349</v>
       </c>
       <c r="D99" t="n">
-        <v>0.610067</v>
+        <v>0.635348</v>
       </c>
       <c r="E99" t="n">
-        <v>0.232119</v>
+        <v>0.225449</v>
       </c>
       <c r="F99" t="n">
-        <v>0.45052</v>
+        <v>0.459794</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.326928</v>
+        <v>0.326141</v>
       </c>
       <c r="C100" t="n">
-        <v>0.573646</v>
+        <v>0.683179</v>
       </c>
       <c r="D100" t="n">
-        <v>0.605467</v>
+        <v>0.638563</v>
       </c>
       <c r="E100" t="n">
-        <v>0.23085</v>
+        <v>0.224345</v>
       </c>
       <c r="F100" t="n">
-        <v>0.449151</v>
+        <v>0.458058</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.31958</v>
+        <v>0.318226</v>
       </c>
       <c r="C101" t="n">
-        <v>0.601214</v>
+        <v>0.689047</v>
       </c>
       <c r="D101" t="n">
-        <v>0.601705</v>
+        <v>0.637709</v>
       </c>
       <c r="E101" t="n">
-        <v>0.22859</v>
+        <v>0.223125</v>
       </c>
       <c r="F101" t="n">
-        <v>0.44805</v>
+        <v>0.45664</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.310671</v>
+        <v>0.310035</v>
       </c>
       <c r="C102" t="n">
-        <v>0.642671</v>
+        <v>0.6185929999999999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6020799999999999</v>
+        <v>0.629505</v>
       </c>
       <c r="E102" t="n">
-        <v>0.237515</v>
+        <v>0.222251</v>
       </c>
       <c r="F102" t="n">
-        <v>0.446859</v>
+        <v>0.456612</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.30216</v>
+        <v>0.301305</v>
       </c>
       <c r="C103" t="n">
-        <v>0.585201</v>
+        <v>0.642381</v>
       </c>
       <c r="D103" t="n">
-        <v>0.59712</v>
+        <v>0.62857</v>
       </c>
       <c r="E103" t="n">
-        <v>0.227301</v>
+        <v>0.221446</v>
       </c>
       <c r="F103" t="n">
-        <v>0.445715</v>
+        <v>0.454494</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.291915</v>
+        <v>0.291688</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5882849999999999</v>
+        <v>0.59889</v>
       </c>
       <c r="D104" t="n">
-        <v>0.590074</v>
+        <v>0.626445</v>
       </c>
       <c r="E104" t="n">
-        <v>0.235584</v>
+        <v>0.220818</v>
       </c>
       <c r="F104" t="n">
-        <v>0.445195</v>
+        <v>0.453795</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.281541</v>
+        <v>0.281396</v>
       </c>
       <c r="C105" t="n">
-        <v>0.590625</v>
+        <v>0.5295840000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.586809</v>
+        <v>0.6253919999999999</v>
       </c>
       <c r="E105" t="n">
-        <v>0.228527</v>
+        <v>0.231034</v>
       </c>
       <c r="F105" t="n">
-        <v>0.444618</v>
+        <v>0.454504</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.270312</v>
+        <v>0.270427</v>
       </c>
       <c r="C106" t="n">
-        <v>0.60172</v>
+        <v>0.640219</v>
       </c>
       <c r="D106" t="n">
-        <v>0.582771</v>
+        <v>0.619658</v>
       </c>
       <c r="E106" t="n">
-        <v>0.234431</v>
+        <v>0.222723</v>
       </c>
       <c r="F106" t="n">
-        <v>0.444583</v>
+        <v>0.453955</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.25797</v>
+        <v>0.258668</v>
       </c>
       <c r="C107" t="n">
-        <v>0.596035</v>
+        <v>0.562485</v>
       </c>
       <c r="D107" t="n">
-        <v>0.646147</v>
+        <v>0.6558850000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>0.218508</v>
+        <v>0.229428</v>
       </c>
       <c r="F107" t="n">
-        <v>0.444329</v>
+        <v>0.450988</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.244058</v>
+        <v>0.244936</v>
       </c>
       <c r="C108" t="n">
-        <v>0.565011</v>
+        <v>0.552615</v>
       </c>
       <c r="D108" t="n">
-        <v>0.638907</v>
+        <v>0.66131</v>
       </c>
       <c r="E108" t="n">
-        <v>0.24166</v>
+        <v>0.234229</v>
       </c>
       <c r="F108" t="n">
-        <v>0.459846</v>
+        <v>0.466457</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.228569</v>
+        <v>0.229732</v>
       </c>
       <c r="C109" t="n">
-        <v>0.510483</v>
+        <v>0.471657</v>
       </c>
       <c r="D109" t="n">
-        <v>0.626796</v>
+        <v>0.6431480000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>0.238383</v>
+        <v>0.232712</v>
       </c>
       <c r="F109" t="n">
-        <v>0.457796</v>
+        <v>0.464792</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.355072</v>
+        <v>0.354817</v>
       </c>
       <c r="C110" t="n">
-        <v>0.700623</v>
+        <v>0.634398</v>
       </c>
       <c r="D110" t="n">
-        <v>0.621146</v>
+        <v>0.6436770000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>0.236151</v>
+        <v>0.230399</v>
       </c>
       <c r="F110" t="n">
-        <v>0.455799</v>
+        <v>0.463043</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.349187</v>
+        <v>0.348606</v>
       </c>
       <c r="C111" t="n">
-        <v>0.639348</v>
+        <v>0.685673</v>
       </c>
       <c r="D111" t="n">
-        <v>0.617588</v>
+        <v>0.63927</v>
       </c>
       <c r="E111" t="n">
-        <v>0.236906</v>
+        <v>0.228952</v>
       </c>
       <c r="F111" t="n">
-        <v>0.453741</v>
+        <v>0.46168</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342909</v>
+        <v>0.342396</v>
       </c>
       <c r="C112" t="n">
-        <v>0.588646</v>
+        <v>0.596067</v>
       </c>
       <c r="D112" t="n">
-        <v>0.614019</v>
+        <v>0.637711</v>
       </c>
       <c r="E112" t="n">
-        <v>0.233466</v>
+        <v>0.227482</v>
       </c>
       <c r="F112" t="n">
-        <v>0.452146</v>
+        <v>0.460406</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.336019</v>
+        <v>0.334899</v>
       </c>
       <c r="C113" t="n">
-        <v>0.606259</v>
+        <v>0.7369790000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>0.620444</v>
+        <v>0.643503</v>
       </c>
       <c r="E113" t="n">
-        <v>0.232875</v>
+        <v>0.226324</v>
       </c>
       <c r="F113" t="n">
-        <v>0.450915</v>
+        <v>0.458988</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.328322</v>
+        <v>0.327232</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6029099999999999</v>
+        <v>0.645545</v>
       </c>
       <c r="D114" t="n">
-        <v>0.613096</v>
+        <v>0.6395650000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>0.23182</v>
+        <v>0.235122</v>
       </c>
       <c r="F114" t="n">
-        <v>0.44936</v>
+        <v>0.458167</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.320667</v>
+        <v>0.319641</v>
       </c>
       <c r="C115" t="n">
-        <v>0.584519</v>
+        <v>0.700639</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6070449999999999</v>
+        <v>0.630205</v>
       </c>
       <c r="E115" t="n">
-        <v>0.231689</v>
+        <v>0.223772</v>
       </c>
       <c r="F115" t="n">
-        <v>0.448154</v>
+        <v>0.456479</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.312572</v>
+        <v>0.311227</v>
       </c>
       <c r="C116" t="n">
-        <v>0.717984</v>
+        <v>0.6763400000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.601351</v>
+        <v>0.631232</v>
       </c>
       <c r="E116" t="n">
-        <v>0.237702</v>
+        <v>0.22325</v>
       </c>
       <c r="F116" t="n">
-        <v>0.447014</v>
+        <v>0.455778</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.303259</v>
+        <v>0.302918</v>
       </c>
       <c r="C117" t="n">
-        <v>0.619549</v>
+        <v>0.65196</v>
       </c>
       <c r="D117" t="n">
-        <v>0.59179</v>
+        <v>0.625439</v>
       </c>
       <c r="E117" t="n">
-        <v>0.229002</v>
+        <v>0.222155</v>
       </c>
       <c r="F117" t="n">
-        <v>0.445824</v>
+        <v>0.454384</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.294208</v>
+        <v>0.294104</v>
       </c>
       <c r="C118" t="n">
-        <v>0.584071</v>
+        <v>0.661623</v>
       </c>
       <c r="D118" t="n">
-        <v>0.590936</v>
+        <v>0.622352</v>
       </c>
       <c r="E118" t="n">
-        <v>0.244597</v>
+        <v>0.23181</v>
       </c>
       <c r="F118" t="n">
-        <v>0.445245</v>
+        <v>0.454021</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.283399</v>
+        <v>0.283844</v>
       </c>
       <c r="C119" t="n">
-        <v>0.579153</v>
+        <v>0.638868</v>
       </c>
       <c r="D119" t="n">
-        <v>0.584249</v>
+        <v>0.619158</v>
       </c>
       <c r="E119" t="n">
-        <v>0.233458</v>
+        <v>0.231075</v>
       </c>
       <c r="F119" t="n">
-        <v>0.444586</v>
+        <v>0.452641</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.272465</v>
+        <v>0.273428</v>
       </c>
       <c r="C120" t="n">
-        <v>0.572576</v>
+        <v>0.638186</v>
       </c>
       <c r="D120" t="n">
-        <v>0.579804</v>
+        <v>0.619625</v>
       </c>
       <c r="E120" t="n">
-        <v>0.234027</v>
+        <v>0.230317</v>
       </c>
       <c r="F120" t="n">
-        <v>0.444496</v>
+        <v>0.451925</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.260366</v>
+        <v>0.260975</v>
       </c>
       <c r="C121" t="n">
-        <v>0.558433</v>
+        <v>0.623566</v>
       </c>
       <c r="D121" t="n">
-        <v>0.656732</v>
+        <v>0.6777300000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>0.237345</v>
+        <v>0.229484</v>
       </c>
       <c r="F121" t="n">
-        <v>0.444471</v>
+        <v>0.450657</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.24696</v>
+        <v>0.247693</v>
       </c>
       <c r="C122" t="n">
-        <v>0.515079</v>
+        <v>0.569666</v>
       </c>
       <c r="D122" t="n">
-        <v>0.638721</v>
+        <v>0.658084</v>
       </c>
       <c r="E122" t="n">
-        <v>0.244481</v>
+        <v>0.228953</v>
       </c>
       <c r="F122" t="n">
-        <v>0.444013</v>
+        <v>0.450102</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.232615</v>
+        <v>0.233864</v>
       </c>
       <c r="C123" t="n">
-        <v>0.546163</v>
+        <v>0.608135</v>
       </c>
       <c r="D123" t="n">
-        <v>0.651054</v>
+        <v>0.674998</v>
       </c>
       <c r="E123" t="n">
-        <v>0.252253</v>
+        <v>0.243801</v>
       </c>
       <c r="F123" t="n">
-        <v>0.458298</v>
+        <v>0.465299</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.356869</v>
+        <v>0.355969</v>
       </c>
       <c r="C124" t="n">
-        <v>0.565904</v>
+        <v>0.683877</v>
       </c>
       <c r="D124" t="n">
-        <v>0.644531</v>
+        <v>0.668777</v>
       </c>
       <c r="E124" t="n">
-        <v>0.237199</v>
+        <v>0.232357</v>
       </c>
       <c r="F124" t="n">
-        <v>0.456465</v>
+        <v>0.463457</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.350546</v>
+        <v>0.349716</v>
       </c>
       <c r="C125" t="n">
-        <v>0.7464499999999999</v>
+        <v>0.792876</v>
       </c>
       <c r="D125" t="n">
-        <v>0.641839</v>
+        <v>0.66294</v>
       </c>
       <c r="E125" t="n">
-        <v>0.237824</v>
+        <v>0.230738</v>
       </c>
       <c r="F125" t="n">
-        <v>0.454691</v>
+        <v>0.462932</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.344706</v>
+        <v>0.343393</v>
       </c>
       <c r="C126" t="n">
-        <v>0.72926</v>
+        <v>0.732358</v>
       </c>
       <c r="D126" t="n">
-        <v>0.635655</v>
+        <v>0.662876</v>
       </c>
       <c r="E126" t="n">
-        <v>0.236593</v>
+        <v>0.228905</v>
       </c>
       <c r="F126" t="n">
-        <v>0.452949</v>
+        <v>0.462219</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.337639</v>
+        <v>0.337296</v>
       </c>
       <c r="C127" t="n">
-        <v>0.595921</v>
+        <v>0.655095</v>
       </c>
       <c r="D127" t="n">
-        <v>0.620214</v>
+        <v>0.646089</v>
       </c>
       <c r="E127" t="n">
-        <v>0.233676</v>
+        <v>0.227257</v>
       </c>
       <c r="F127" t="n">
-        <v>0.451319</v>
+        <v>0.459457</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.330073</v>
+        <v>0.329308</v>
       </c>
       <c r="C128" t="n">
-        <v>0.617182</v>
+        <v>0.600241</v>
       </c>
       <c r="D128" t="n">
-        <v>0.616246</v>
+        <v>0.650155</v>
       </c>
       <c r="E128" t="n">
-        <v>0.232085</v>
+        <v>0.226467</v>
       </c>
       <c r="F128" t="n">
-        <v>0.449977</v>
+        <v>0.458279</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.322148</v>
+        <v>0.321559</v>
       </c>
       <c r="C129" t="n">
-        <v>0.564544</v>
+        <v>0.709961</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6101799999999999</v>
+        <v>0.640409</v>
       </c>
       <c r="E129" t="n">
-        <v>0.233155</v>
+        <v>0.224729</v>
       </c>
       <c r="F129" t="n">
-        <v>0.448653</v>
+        <v>0.457846</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.313872</v>
+        <v>0.313525</v>
       </c>
       <c r="C130" t="n">
-        <v>0.570111</v>
+        <v>0.551995</v>
       </c>
       <c r="D130" t="n">
-        <v>0.605934</v>
+        <v>0.641002</v>
       </c>
       <c r="E130" t="n">
-        <v>0.230341</v>
+        <v>0.224226</v>
       </c>
       <c r="F130" t="n">
-        <v>0.447514</v>
+        <v>0.455932</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.305218</v>
+        <v>0.305182</v>
       </c>
       <c r="C131" t="n">
-        <v>0.56391</v>
+        <v>0.617997</v>
       </c>
       <c r="D131" t="n">
-        <v>0.603168</v>
+        <v>0.63353</v>
       </c>
       <c r="E131" t="n">
-        <v>0.229969</v>
+        <v>0.223595</v>
       </c>
       <c r="F131" t="n">
-        <v>0.446333</v>
+        <v>0.454862</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.296143</v>
+        <v>0.296007</v>
       </c>
       <c r="C132" t="n">
-        <v>0.670454</v>
+        <v>0.541895</v>
       </c>
       <c r="D132" t="n">
-        <v>0.598248</v>
+        <v>0.632839</v>
       </c>
       <c r="E132" t="n">
-        <v>0.248783</v>
+        <v>0.231646</v>
       </c>
       <c r="F132" t="n">
-        <v>0.445444</v>
+        <v>0.453789</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.28627</v>
+        <v>0.286056</v>
       </c>
       <c r="C133" t="n">
-        <v>0.601449</v>
+        <v>0.667075</v>
       </c>
       <c r="D133" t="n">
-        <v>0.59333</v>
+        <v>0.626941</v>
       </c>
       <c r="E133" t="n">
-        <v>0.233445</v>
+        <v>0.230161</v>
       </c>
       <c r="F133" t="n">
-        <v>0.444963</v>
+        <v>0.453114</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.274728</v>
+        <v>0.275445</v>
       </c>
       <c r="C134" t="n">
-        <v>0.588744</v>
+        <v>0.6263339999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5870379999999999</v>
+        <v>0.624312</v>
       </c>
       <c r="E134" t="n">
-        <v>0.219231</v>
+        <v>0.23015</v>
       </c>
       <c r="F134" t="n">
-        <v>0.444416</v>
+        <v>0.452212</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.262558</v>
+        <v>0.263989</v>
       </c>
       <c r="C135" t="n">
-        <v>0.533492</v>
+        <v>0.625092</v>
       </c>
       <c r="D135" t="n">
-        <v>0.662348</v>
+        <v>0.681351</v>
       </c>
       <c r="E135" t="n">
-        <v>0.233573</v>
+        <v>0.229596</v>
       </c>
       <c r="F135" t="n">
-        <v>0.444441</v>
+        <v>0.451052</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.250134</v>
+        <v>0.250712</v>
       </c>
       <c r="C136" t="n">
-        <v>0.522764</v>
+        <v>0.519482</v>
       </c>
       <c r="D136" t="n">
-        <v>0.642319</v>
+        <v>0.680534</v>
       </c>
       <c r="E136" t="n">
-        <v>0.233066</v>
+        <v>0.22053</v>
       </c>
       <c r="F136" t="n">
-        <v>0.444278</v>
+        <v>0.450597</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.235556</v>
+        <v>0.238548</v>
       </c>
       <c r="C137" t="n">
-        <v>0.498534</v>
+        <v>0.560612</v>
       </c>
       <c r="D137" t="n">
-        <v>0.659345</v>
+        <v>0.677768</v>
       </c>
       <c r="E137" t="n">
-        <v>0.260787</v>
+        <v>0.232801</v>
       </c>
       <c r="F137" t="n">
-        <v>0.458794</v>
+        <v>0.465317</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.358593</v>
+        <v>0.357246</v>
       </c>
       <c r="C138" t="n">
-        <v>0.65064</v>
+        <v>0.735025</v>
       </c>
       <c r="D138" t="n">
-        <v>0.639424</v>
+        <v>0.662721</v>
       </c>
       <c r="E138" t="n">
-        <v>0.237778</v>
+        <v>0.233702</v>
       </c>
       <c r="F138" t="n">
-        <v>0.456681</v>
+        <v>0.464235</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.352763</v>
+        <v>0.351696</v>
       </c>
       <c r="C139" t="n">
-        <v>0.608495</v>
+        <v>0.669928</v>
       </c>
       <c r="D139" t="n">
-        <v>0.634568</v>
+        <v>0.658705</v>
       </c>
       <c r="E139" t="n">
-        <v>0.237203</v>
+        <v>0.235382</v>
       </c>
       <c r="F139" t="n">
-        <v>0.454828</v>
+        <v>0.462106</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.346229</v>
+        <v>0.345634</v>
       </c>
       <c r="C140" t="n">
-        <v>0.639911</v>
+        <v>0.602455</v>
       </c>
       <c r="D140" t="n">
-        <v>0.631765</v>
+        <v>0.659467</v>
       </c>
       <c r="E140" t="n">
-        <v>0.238659</v>
+        <v>0.230906</v>
       </c>
       <c r="F140" t="n">
-        <v>0.45319</v>
+        <v>0.460796</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.339163</v>
+        <v>0.338448</v>
       </c>
       <c r="C141" t="n">
-        <v>0.59406</v>
+        <v>0.6890309999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.636479</v>
+        <v>0.663671</v>
       </c>
       <c r="E141" t="n">
-        <v>0.239105</v>
+        <v>0.231022</v>
       </c>
       <c r="F141" t="n">
-        <v>0.451641</v>
+        <v>0.459473</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.333328</v>
+        <v>0.331441</v>
       </c>
       <c r="C142" t="n">
-        <v>0.572743</v>
+        <v>0.626069</v>
       </c>
       <c r="D142" t="n">
-        <v>0.628772</v>
+        <v>0.656602</v>
       </c>
       <c r="E142" t="n">
-        <v>0.232898</v>
+        <v>0.230584</v>
       </c>
       <c r="F142" t="n">
-        <v>0.450052</v>
+        <v>0.457958</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.325233</v>
+        <v>0.323388</v>
       </c>
       <c r="C143" t="n">
-        <v>0.623072</v>
+        <v>0.749604</v>
       </c>
       <c r="D143" t="n">
-        <v>0.622481</v>
+        <v>0.650324</v>
       </c>
       <c r="E143" t="n">
-        <v>0.230978</v>
+        <v>0.234656</v>
       </c>
       <c r="F143" t="n">
-        <v>0.448789</v>
+        <v>0.456978</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.301293</v>
+        <v>0.300151</v>
       </c>
       <c r="C2" t="n">
-        <v>0.515722</v>
+        <v>0.517141</v>
       </c>
       <c r="D2" t="n">
-        <v>0.451906</v>
+        <v>0.45204</v>
       </c>
       <c r="E2" t="n">
-        <v>0.197958</v>
+        <v>0.195993</v>
       </c>
       <c r="F2" t="n">
-        <v>0.449828</v>
+        <v>0.449757</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.29452</v>
+        <v>0.294956</v>
       </c>
       <c r="C3" t="n">
-        <v>0.512474</v>
+        <v>0.512087</v>
       </c>
       <c r="D3" t="n">
-        <v>0.45427</v>
+        <v>0.455085</v>
       </c>
       <c r="E3" t="n">
-        <v>0.197156</v>
+        <v>0.198493</v>
       </c>
       <c r="F3" t="n">
-        <v>0.44446</v>
+        <v>0.444376</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.288966</v>
+        <v>0.28624</v>
       </c>
       <c r="C4" t="n">
-        <v>0.49835</v>
+        <v>0.498668</v>
       </c>
       <c r="D4" t="n">
-        <v>0.457154</v>
+        <v>0.457086</v>
       </c>
       <c r="E4" t="n">
-        <v>0.214207</v>
+        <v>0.201096</v>
       </c>
       <c r="F4" t="n">
-        <v>0.44745</v>
+        <v>0.448004</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.280444</v>
+        <v>0.280997</v>
       </c>
       <c r="C5" t="n">
-        <v>0.492215</v>
+        <v>0.487559</v>
       </c>
       <c r="D5" t="n">
-        <v>0.459804</v>
+        <v>0.460421</v>
       </c>
       <c r="E5" t="n">
-        <v>0.201253</v>
+        <v>0.201794</v>
       </c>
       <c r="F5" t="n">
-        <v>0.446025</v>
+        <v>0.447643</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.266136</v>
+        <v>0.265359</v>
       </c>
       <c r="C6" t="n">
-        <v>0.476506</v>
+        <v>0.481876</v>
       </c>
       <c r="D6" t="n">
-        <v>0.461991</v>
+        <v>0.466052</v>
       </c>
       <c r="E6" t="n">
-        <v>0.203575</v>
+        <v>0.203642</v>
       </c>
       <c r="F6" t="n">
-        <v>0.444503</v>
+        <v>0.446656</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.254084</v>
+        <v>0.253444</v>
       </c>
       <c r="C7" t="n">
-        <v>0.465968</v>
+        <v>0.471665</v>
       </c>
       <c r="D7" t="n">
-        <v>0.440246</v>
+        <v>0.441958</v>
       </c>
       <c r="E7" t="n">
-        <v>0.205463</v>
+        <v>0.204526</v>
       </c>
       <c r="F7" t="n">
-        <v>0.443695</v>
+        <v>0.443161</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.242107</v>
+        <v>0.239742</v>
       </c>
       <c r="C8" t="n">
-        <v>0.453385</v>
+        <v>0.453804</v>
       </c>
       <c r="D8" t="n">
-        <v>0.444794</v>
+        <v>0.444663</v>
       </c>
       <c r="E8" t="n">
-        <v>0.20494</v>
+        <v>0.20479</v>
       </c>
       <c r="F8" t="n">
-        <v>0.442948</v>
+        <v>0.44306</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.227577</v>
+        <v>0.226427</v>
       </c>
       <c r="C9" t="n">
-        <v>0.439408</v>
+        <v>0.439951</v>
       </c>
       <c r="D9" t="n">
-        <v>0.445942</v>
+        <v>0.445818</v>
       </c>
       <c r="E9" t="n">
-        <v>0.228136</v>
+        <v>0.229194</v>
       </c>
       <c r="F9" t="n">
-        <v>0.458746</v>
+        <v>0.458975</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.349724</v>
+        <v>0.349709</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5643089999999999</v>
+        <v>0.564652</v>
       </c>
       <c r="D10" t="n">
-        <v>0.447035</v>
+        <v>0.447635</v>
       </c>
       <c r="E10" t="n">
-        <v>0.221771</v>
+        <v>0.222194</v>
       </c>
       <c r="F10" t="n">
-        <v>0.459051</v>
+        <v>0.459672</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.346135</v>
+        <v>0.344839</v>
       </c>
       <c r="C11" t="n">
-        <v>0.548581</v>
+        <v>0.54833</v>
       </c>
       <c r="D11" t="n">
-        <v>0.44863</v>
+        <v>0.449154</v>
       </c>
       <c r="E11" t="n">
-        <v>0.220413</v>
+        <v>0.220639</v>
       </c>
       <c r="F11" t="n">
-        <v>0.456665</v>
+        <v>0.457058</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.339539</v>
+        <v>0.340245</v>
       </c>
       <c r="C12" t="n">
-        <v>0.555822</v>
+        <v>0.556073</v>
       </c>
       <c r="D12" t="n">
-        <v>0.45047</v>
+        <v>0.450903</v>
       </c>
       <c r="E12" t="n">
-        <v>0.220304</v>
+        <v>0.219949</v>
       </c>
       <c r="F12" t="n">
-        <v>0.457306</v>
+        <v>0.457684</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.333904</v>
+        <v>0.334485</v>
       </c>
       <c r="C13" t="n">
-        <v>0.549262</v>
+        <v>0.549171</v>
       </c>
       <c r="D13" t="n">
-        <v>0.45099</v>
+        <v>0.451197</v>
       </c>
       <c r="E13" t="n">
-        <v>0.219876</v>
+        <v>0.219738</v>
       </c>
       <c r="F13" t="n">
-        <v>0.455948</v>
+        <v>0.455577</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.32614</v>
+        <v>0.327977</v>
       </c>
       <c r="C14" t="n">
-        <v>0.542248</v>
+        <v>0.542654</v>
       </c>
       <c r="D14" t="n">
-        <v>0.454398</v>
+        <v>0.454698</v>
       </c>
       <c r="E14" t="n">
-        <v>0.219177</v>
+        <v>0.219577</v>
       </c>
       <c r="F14" t="n">
-        <v>0.453002</v>
+        <v>0.453102</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.319793</v>
+        <v>0.320921</v>
       </c>
       <c r="C15" t="n">
-        <v>0.534304</v>
+        <v>0.534755</v>
       </c>
       <c r="D15" t="n">
-        <v>0.456467</v>
+        <v>0.456909</v>
       </c>
       <c r="E15" t="n">
-        <v>0.218779</v>
+        <v>0.219027</v>
       </c>
       <c r="F15" t="n">
-        <v>0.453031</v>
+        <v>0.454298</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.312553</v>
+        <v>0.314201</v>
       </c>
       <c r="C16" t="n">
-        <v>0.523513</v>
+        <v>0.524312</v>
       </c>
       <c r="D16" t="n">
-        <v>0.459561</v>
+        <v>0.459766</v>
       </c>
       <c r="E16" t="n">
-        <v>0.218644</v>
+        <v>0.218833</v>
       </c>
       <c r="F16" t="n">
-        <v>0.453827</v>
+        <v>0.452142</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.30273</v>
+        <v>0.303666</v>
       </c>
       <c r="C17" t="n">
-        <v>0.522447</v>
+        <v>0.522477</v>
       </c>
       <c r="D17" t="n">
-        <v>0.46282</v>
+        <v>0.463034</v>
       </c>
       <c r="E17" t="n">
-        <v>0.217929</v>
+        <v>0.21816</v>
       </c>
       <c r="F17" t="n">
-        <v>0.451165</v>
+        <v>0.451514</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.293652</v>
+        <v>0.293573</v>
       </c>
       <c r="C18" t="n">
-        <v>0.504484</v>
+        <v>0.504672</v>
       </c>
       <c r="D18" t="n">
-        <v>0.468256</v>
+        <v>0.466573</v>
       </c>
       <c r="E18" t="n">
-        <v>0.217018</v>
+        <v>0.217128</v>
       </c>
       <c r="F18" t="n">
-        <v>0.449888</v>
+        <v>0.450336</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.285183</v>
+        <v>0.285226</v>
       </c>
       <c r="C19" t="n">
-        <v>0.500062</v>
+        <v>0.500081</v>
       </c>
       <c r="D19" t="n">
-        <v>0.470128</v>
+        <v>0.471134</v>
       </c>
       <c r="E19" t="n">
-        <v>0.217268</v>
+        <v>0.217458</v>
       </c>
       <c r="F19" t="n">
-        <v>0.448756</v>
+        <v>0.450871</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.272664</v>
+        <v>0.273103</v>
       </c>
       <c r="C20" t="n">
-        <v>0.489896</v>
+        <v>0.489931</v>
       </c>
       <c r="D20" t="n">
-        <v>0.470537</v>
+        <v>0.470132</v>
       </c>
       <c r="E20" t="n">
-        <v>0.216863</v>
+        <v>0.217391</v>
       </c>
       <c r="F20" t="n">
-        <v>0.450261</v>
+        <v>0.450413</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.267408</v>
+        <v>0.263316</v>
       </c>
       <c r="C21" t="n">
-        <v>0.468947</v>
+        <v>0.469355</v>
       </c>
       <c r="D21" t="n">
-        <v>0.448957</v>
+        <v>0.449618</v>
       </c>
       <c r="E21" t="n">
-        <v>0.215659</v>
+        <v>0.224629</v>
       </c>
       <c r="F21" t="n">
-        <v>0.447743</v>
+        <v>0.447793</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.249384</v>
+        <v>0.249078</v>
       </c>
       <c r="C22" t="n">
-        <v>0.462236</v>
+        <v>0.460788</v>
       </c>
       <c r="D22" t="n">
-        <v>0.448836</v>
+        <v>0.450195</v>
       </c>
       <c r="E22" t="n">
-        <v>0.226324</v>
+        <v>0.226746</v>
       </c>
       <c r="F22" t="n">
-        <v>0.447395</v>
+        <v>0.447891</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.235641</v>
+        <v>0.235181</v>
       </c>
       <c r="C23" t="n">
-        <v>0.439509</v>
+        <v>0.439393</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4516</v>
+        <v>0.452412</v>
       </c>
       <c r="E23" t="n">
-        <v>0.229671</v>
+        <v>0.230579</v>
       </c>
       <c r="F23" t="n">
-        <v>0.463831</v>
+        <v>0.463827</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.354032</v>
+        <v>0.354287</v>
       </c>
       <c r="C24" t="n">
-        <v>0.569346</v>
+        <v>0.569591</v>
       </c>
       <c r="D24" t="n">
-        <v>0.453888</v>
+        <v>0.453817</v>
       </c>
       <c r="E24" t="n">
-        <v>0.227894</v>
+        <v>0.228092</v>
       </c>
       <c r="F24" t="n">
-        <v>0.462131</v>
+        <v>0.4622</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.348198</v>
+        <v>0.34874</v>
       </c>
       <c r="C25" t="n">
-        <v>0.562182</v>
+        <v>0.561947</v>
       </c>
       <c r="D25" t="n">
-        <v>0.45454</v>
+        <v>0.454974</v>
       </c>
       <c r="E25" t="n">
-        <v>0.227161</v>
+        <v>0.227039</v>
       </c>
       <c r="F25" t="n">
-        <v>0.460446</v>
+        <v>0.460418</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.34214</v>
+        <v>0.342081</v>
       </c>
       <c r="C26" t="n">
-        <v>0.556332</v>
+        <v>0.556242</v>
       </c>
       <c r="D26" t="n">
-        <v>0.45544</v>
+        <v>0.455786</v>
       </c>
       <c r="E26" t="n">
-        <v>0.226468</v>
+        <v>0.22642</v>
       </c>
       <c r="F26" t="n">
-        <v>0.460575</v>
+        <v>0.460605</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.336804</v>
+        <v>0.337999</v>
       </c>
       <c r="C27" t="n">
-        <v>0.546355</v>
+        <v>0.546489</v>
       </c>
       <c r="D27" t="n">
-        <v>0.457211</v>
+        <v>0.457484</v>
       </c>
       <c r="E27" t="n">
-        <v>0.225106</v>
+        <v>0.225492</v>
       </c>
       <c r="F27" t="n">
-        <v>0.458498</v>
+        <v>0.458471</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.33049</v>
+        <v>0.332001</v>
       </c>
       <c r="C28" t="n">
-        <v>0.541666</v>
+        <v>0.541863</v>
       </c>
       <c r="D28" t="n">
-        <v>0.459611</v>
+        <v>0.459446</v>
       </c>
       <c r="E28" t="n">
-        <v>0.224416</v>
+        <v>0.224339</v>
       </c>
       <c r="F28" t="n">
-        <v>0.458426</v>
+        <v>0.458319</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.323603</v>
+        <v>0.323296</v>
       </c>
       <c r="C29" t="n">
-        <v>0.537282</v>
+        <v>0.5374139999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.46216</v>
+        <v>0.460866</v>
       </c>
       <c r="E29" t="n">
-        <v>0.22355</v>
+        <v>0.223744</v>
       </c>
       <c r="F29" t="n">
-        <v>0.456396</v>
+        <v>0.456572</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.314671</v>
+        <v>0.314685</v>
       </c>
       <c r="C30" t="n">
-        <v>0.528712</v>
+        <v>0.528583</v>
       </c>
       <c r="D30" t="n">
-        <v>0.464053</v>
+        <v>0.463799</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2225</v>
+        <v>0.222548</v>
       </c>
       <c r="F30" t="n">
-        <v>0.456363</v>
+        <v>0.456311</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.30667</v>
+        <v>0.305589</v>
       </c>
       <c r="C31" t="n">
-        <v>0.513446</v>
+        <v>0.513483</v>
       </c>
       <c r="D31" t="n">
-        <v>0.464799</v>
+        <v>0.464995</v>
       </c>
       <c r="E31" t="n">
-        <v>0.221555</v>
+        <v>0.221526</v>
       </c>
       <c r="F31" t="n">
-        <v>0.45428</v>
+        <v>0.455346</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.296121</v>
+        <v>0.297686</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5090710000000001</v>
+        <v>0.508715</v>
       </c>
       <c r="D32" t="n">
-        <v>0.469473</v>
+        <v>0.469452</v>
       </c>
       <c r="E32" t="n">
-        <v>0.220817</v>
+        <v>0.220762</v>
       </c>
       <c r="F32" t="n">
-        <v>0.45313</v>
+        <v>0.455191</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.28865</v>
+        <v>0.291767</v>
       </c>
       <c r="C33" t="n">
         <v>0.502355</v>
       </c>
       <c r="D33" t="n">
-        <v>0.470195</v>
+        <v>0.470569</v>
       </c>
       <c r="E33" t="n">
-        <v>0.220083</v>
+        <v>0.220221</v>
       </c>
       <c r="F33" t="n">
-        <v>0.451891</v>
+        <v>0.452026</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.277085</v>
+        <v>0.277474</v>
       </c>
       <c r="C34" t="n">
-        <v>0.484822</v>
+        <v>0.484736</v>
       </c>
       <c r="D34" t="n">
-        <v>0.473809</v>
+        <v>0.473679</v>
       </c>
       <c r="E34" t="n">
-        <v>0.230056</v>
+        <v>0.229874</v>
       </c>
       <c r="F34" t="n">
-        <v>0.451667</v>
+        <v>0.451679</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.265424</v>
+        <v>0.264971</v>
       </c>
       <c r="C35" t="n">
-        <v>0.469689</v>
+        <v>0.469708</v>
       </c>
       <c r="D35" t="n">
-        <v>0.453761</v>
+        <v>0.45413</v>
       </c>
       <c r="E35" t="n">
-        <v>0.218982</v>
+        <v>0.218959</v>
       </c>
       <c r="F35" t="n">
-        <v>0.450865</v>
+        <v>0.450737</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.256539</v>
+        <v>0.253992</v>
       </c>
       <c r="C36" t="n">
-        <v>0.466438</v>
+        <v>0.46816</v>
       </c>
       <c r="D36" t="n">
-        <v>0.455514</v>
+        <v>0.457359</v>
       </c>
       <c r="E36" t="n">
-        <v>0.218264</v>
+        <v>0.22827</v>
       </c>
       <c r="F36" t="n">
-        <v>0.449422</v>
+        <v>0.451809</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.240136</v>
+        <v>0.24068</v>
       </c>
       <c r="C37" t="n">
-        <v>0.45419</v>
+        <v>0.454391</v>
       </c>
       <c r="D37" t="n">
-        <v>0.457202</v>
+        <v>0.457245</v>
       </c>
       <c r="E37" t="n">
-        <v>0.241442</v>
+        <v>0.24217</v>
       </c>
       <c r="F37" t="n">
-        <v>0.465096</v>
+        <v>0.465059</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.357559</v>
+        <v>0.357296</v>
       </c>
       <c r="C38" t="n">
-        <v>0.55902</v>
+        <v>0.559187</v>
       </c>
       <c r="D38" t="n">
-        <v>0.457462</v>
+        <v>0.458653</v>
       </c>
       <c r="E38" t="n">
-        <v>0.229752</v>
+        <v>0.230104</v>
       </c>
       <c r="F38" t="n">
-        <v>0.462981</v>
+        <v>0.463232</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.352438</v>
+        <v>0.351806</v>
       </c>
       <c r="C39" t="n">
-        <v>0.554512</v>
+        <v>0.554295</v>
       </c>
       <c r="D39" t="n">
-        <v>0.459378</v>
+        <v>0.458854</v>
       </c>
       <c r="E39" t="n">
-        <v>0.22787</v>
+        <v>0.2276</v>
       </c>
       <c r="F39" t="n">
-        <v>0.461749</v>
+        <v>0.46217</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.345659</v>
+        <v>0.345779</v>
       </c>
       <c r="C40" t="n">
-        <v>0.548651</v>
+        <v>0.5482669999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.460358</v>
+        <v>0.460333</v>
       </c>
       <c r="E40" t="n">
-        <v>0.22715</v>
+        <v>0.226856</v>
       </c>
       <c r="F40" t="n">
-        <v>0.461041</v>
+        <v>0.460949</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.339435</v>
+        <v>0.339442</v>
       </c>
       <c r="C41" t="n">
-        <v>0.543357</v>
+        <v>0.543548</v>
       </c>
       <c r="D41" t="n">
-        <v>0.463688</v>
+        <v>0.464962</v>
       </c>
       <c r="E41" t="n">
-        <v>0.225725</v>
+        <v>0.225871</v>
       </c>
       <c r="F41" t="n">
-        <v>0.460312</v>
+        <v>0.463312</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.332455</v>
+        <v>0.33199</v>
       </c>
       <c r="C42" t="n">
-        <v>0.541889</v>
+        <v>0.547687</v>
       </c>
       <c r="D42" t="n">
-        <v>0.463814</v>
+        <v>0.466987</v>
       </c>
       <c r="E42" t="n">
-        <v>0.225002</v>
+        <v>0.224727</v>
       </c>
       <c r="F42" t="n">
-        <v>0.458601</v>
+        <v>0.461401</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.326031</v>
+        <v>0.324921</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5323560000000001</v>
+        <v>0.538124</v>
       </c>
       <c r="D43" t="n">
-        <v>0.46592</v>
+        <v>0.468938</v>
       </c>
       <c r="E43" t="n">
-        <v>0.223738</v>
+        <v>0.223484</v>
       </c>
       <c r="F43" t="n">
-        <v>0.45705</v>
+        <v>0.459659</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.318566</v>
+        <v>0.317605</v>
       </c>
       <c r="C44" t="n">
-        <v>0.528907</v>
+        <v>0.534371</v>
       </c>
       <c r="D44" t="n">
-        <v>0.466818</v>
+        <v>0.470796</v>
       </c>
       <c r="E44" t="n">
-        <v>0.222806</v>
+        <v>0.222841</v>
       </c>
       <c r="F44" t="n">
-        <v>0.455827</v>
+        <v>0.458547</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.30948</v>
+        <v>0.308717</v>
       </c>
       <c r="C45" t="n">
-        <v>0.519922</v>
+        <v>0.526344</v>
       </c>
       <c r="D45" t="n">
-        <v>0.46987</v>
+        <v>0.473756</v>
       </c>
       <c r="E45" t="n">
-        <v>0.221773</v>
+        <v>0.221863</v>
       </c>
       <c r="F45" t="n">
-        <v>0.454246</v>
+        <v>0.457364</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.301621</v>
+        <v>0.300025</v>
       </c>
       <c r="C46" t="n">
-        <v>0.511756</v>
+        <v>0.5183410000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.471148</v>
+        <v>0.475202</v>
       </c>
       <c r="E46" t="n">
-        <v>0.220925</v>
+        <v>0.221073</v>
       </c>
       <c r="F46" t="n">
-        <v>0.453824</v>
+        <v>0.456699</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.292837</v>
+        <v>0.291148</v>
       </c>
       <c r="C47" t="n">
-        <v>0.509361</v>
+        <v>0.515663</v>
       </c>
       <c r="D47" t="n">
-        <v>0.473673</v>
+        <v>0.477197</v>
       </c>
       <c r="E47" t="n">
-        <v>0.22011</v>
+        <v>0.220242</v>
       </c>
       <c r="F47" t="n">
-        <v>0.453406</v>
+        <v>0.4562</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.282888</v>
+        <v>0.281233</v>
       </c>
       <c r="C48" t="n">
-        <v>0.494735</v>
+        <v>0.501515</v>
       </c>
       <c r="D48" t="n">
-        <v>0.478479</v>
+        <v>0.482105</v>
       </c>
       <c r="E48" t="n">
-        <v>0.229342</v>
+        <v>0.230154</v>
       </c>
       <c r="F48" t="n">
-        <v>0.451481</v>
+        <v>0.454228</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.271452</v>
+        <v>0.270793</v>
       </c>
       <c r="C49" t="n">
-        <v>0.480529</v>
+        <v>0.48742</v>
       </c>
       <c r="D49" t="n">
-        <v>0.481369</v>
+        <v>0.484278</v>
       </c>
       <c r="E49" t="n">
-        <v>0.219457</v>
+        <v>0.219246</v>
       </c>
       <c r="F49" t="n">
-        <v>0.451072</v>
+        <v>0.453838</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.258529</v>
+        <v>0.258241</v>
       </c>
       <c r="C50" t="n">
-        <v>0.467779</v>
+        <v>0.478509</v>
       </c>
       <c r="D50" t="n">
-        <v>0.46262</v>
+        <v>0.469612</v>
       </c>
       <c r="E50" t="n">
-        <v>0.219264</v>
+        <v>0.228688</v>
       </c>
       <c r="F50" t="n">
-        <v>0.450233</v>
+        <v>0.453238</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.244911</v>
+        <v>0.244977</v>
       </c>
       <c r="C51" t="n">
-        <v>0.44994</v>
+        <v>0.456894</v>
       </c>
       <c r="D51" t="n">
-        <v>0.464598</v>
+        <v>0.467111</v>
       </c>
       <c r="E51" t="n">
-        <v>0.242595</v>
+        <v>0.242415</v>
       </c>
       <c r="F51" t="n">
-        <v>0.465375</v>
+        <v>0.469328</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.23065</v>
+        <v>0.230632</v>
       </c>
       <c r="C52" t="n">
-        <v>0.441164</v>
+        <v>0.450305</v>
       </c>
       <c r="D52" t="n">
-        <v>0.464569</v>
+        <v>0.469723</v>
       </c>
       <c r="E52" t="n">
-        <v>0.241073</v>
+        <v>0.24081</v>
       </c>
       <c r="F52" t="n">
-        <v>0.464412</v>
+        <v>0.468604</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.353867</v>
+        <v>0.353701</v>
       </c>
       <c r="C53" t="n">
-        <v>0.565534</v>
+        <v>0.571209</v>
       </c>
       <c r="D53" t="n">
-        <v>0.464542</v>
+        <v>0.469501</v>
       </c>
       <c r="E53" t="n">
-        <v>0.228407</v>
+        <v>0.228333</v>
       </c>
       <c r="F53" t="n">
-        <v>0.462516</v>
+        <v>0.465733</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.347852</v>
+        <v>0.347902</v>
       </c>
       <c r="C54" t="n">
-        <v>0.551495</v>
+        <v>0.557122</v>
       </c>
       <c r="D54" t="n">
-        <v>0.466483</v>
+        <v>0.469784</v>
       </c>
       <c r="E54" t="n">
-        <v>0.227262</v>
+        <v>0.227419</v>
       </c>
       <c r="F54" t="n">
-        <v>0.461969</v>
+        <v>0.464992</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.341575</v>
+        <v>0.341494</v>
       </c>
       <c r="C55" t="n">
-        <v>0.560126</v>
+        <v>0.5665519999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.467645</v>
+        <v>0.47185</v>
       </c>
       <c r="E55" t="n">
-        <v>0.225851</v>
+        <v>0.225936</v>
       </c>
       <c r="F55" t="n">
-        <v>0.459972</v>
+        <v>0.463046</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.334634</v>
+        <v>0.334745</v>
       </c>
       <c r="C56" t="n">
-        <v>0.552956</v>
+        <v>0.559687</v>
       </c>
       <c r="D56" t="n">
-        <v>0.47394</v>
+        <v>0.478122</v>
       </c>
       <c r="E56" t="n">
-        <v>0.235493</v>
+        <v>0.224766</v>
       </c>
       <c r="F56" t="n">
-        <v>0.458784</v>
+        <v>0.463252</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.327476</v>
+        <v>0.327709</v>
       </c>
       <c r="C57" t="n">
-        <v>0.543045</v>
+        <v>0.549942</v>
       </c>
       <c r="D57" t="n">
-        <v>0.476146</v>
+        <v>0.479524</v>
       </c>
       <c r="E57" t="n">
-        <v>0.223743</v>
+        <v>0.234405</v>
       </c>
       <c r="F57" t="n">
-        <v>0.45783</v>
+        <v>0.460965</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.319862</v>
+        <v>0.319994</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5462</v>
+        <v>0.555508</v>
       </c>
       <c r="D58" t="n">
-        <v>0.47934</v>
+        <v>0.483496</v>
       </c>
       <c r="E58" t="n">
-        <v>0.233496</v>
+        <v>0.222989</v>
       </c>
       <c r="F58" t="n">
-        <v>0.456904</v>
+        <v>0.46075</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.312092</v>
+        <v>0.312011</v>
       </c>
       <c r="C59" t="n">
-        <v>0.524435</v>
+        <v>0.531549</v>
       </c>
       <c r="D59" t="n">
-        <v>0.481</v>
+        <v>0.484994</v>
       </c>
       <c r="E59" t="n">
-        <v>0.222379</v>
+        <v>0.222438</v>
       </c>
       <c r="F59" t="n">
-        <v>0.456005</v>
+        <v>0.459524</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.30349</v>
+        <v>0.303506</v>
       </c>
       <c r="C60" t="n">
-        <v>0.536689</v>
+        <v>0.546742</v>
       </c>
       <c r="D60" t="n">
-        <v>0.483185</v>
+        <v>0.489352</v>
       </c>
       <c r="E60" t="n">
-        <v>0.221358</v>
+        <v>0.221591</v>
       </c>
       <c r="F60" t="n">
-        <v>0.454652</v>
+        <v>0.458926</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.293863</v>
+        <v>0.294156</v>
       </c>
       <c r="C61" t="n">
-        <v>0.528332</v>
+        <v>0.535646</v>
       </c>
       <c r="D61" t="n">
-        <v>0.48957</v>
+        <v>0.4915</v>
       </c>
       <c r="E61" t="n">
-        <v>0.220709</v>
+        <v>0.220801</v>
       </c>
       <c r="F61" t="n">
-        <v>0.453648</v>
+        <v>0.45666</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.283723</v>
+        <v>0.28399</v>
       </c>
       <c r="C62" t="n">
-        <v>0.527182</v>
+        <v>0.530901</v>
       </c>
       <c r="D62" t="n">
-        <v>0.495273</v>
+        <v>0.497891</v>
       </c>
       <c r="E62" t="n">
-        <v>0.220096</v>
+        <v>0.219991</v>
       </c>
       <c r="F62" t="n">
-        <v>0.452392</v>
+        <v>0.45523</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.27347</v>
+        <v>0.273638</v>
       </c>
       <c r="C63" t="n">
-        <v>0.493184</v>
+        <v>0.500755</v>
       </c>
       <c r="D63" t="n">
-        <v>0.495354</v>
+        <v>0.500451</v>
       </c>
       <c r="E63" t="n">
-        <v>0.219632</v>
+        <v>0.229627</v>
       </c>
       <c r="F63" t="n">
-        <v>0.451326</v>
+        <v>0.45635</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.260843</v>
+        <v>0.261372</v>
       </c>
       <c r="C64" t="n">
-        <v>0.487008</v>
+        <v>0.492578</v>
       </c>
       <c r="D64" t="n">
-        <v>0.522486</v>
+        <v>0.521974</v>
       </c>
       <c r="E64" t="n">
-        <v>0.229413</v>
+        <v>0.228961</v>
       </c>
       <c r="F64" t="n">
-        <v>0.450749</v>
+        <v>0.45371</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.24796</v>
+        <v>0.248098</v>
       </c>
       <c r="C65" t="n">
-        <v>0.48799</v>
+        <v>0.495365</v>
       </c>
       <c r="D65" t="n">
-        <v>0.525322</v>
+        <v>0.527213</v>
       </c>
       <c r="E65" t="n">
-        <v>0.228338</v>
+        <v>0.228325</v>
       </c>
       <c r="F65" t="n">
-        <v>0.449864</v>
+        <v>0.452671</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.233771</v>
+        <v>0.233907</v>
       </c>
       <c r="C66" t="n">
-        <v>0.470802</v>
+        <v>0.478629</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5347229999999999</v>
+        <v>0.532593</v>
       </c>
       <c r="E66" t="n">
-        <v>0.239492</v>
+        <v>0.237924</v>
       </c>
       <c r="F66" t="n">
-        <v>0.465562</v>
+        <v>0.468749</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.355806</v>
+        <v>0.35589</v>
       </c>
       <c r="C67" t="n">
-        <v>0.626865</v>
+        <v>0.627006</v>
       </c>
       <c r="D67" t="n">
-        <v>0.54643</v>
+        <v>0.543974</v>
       </c>
       <c r="E67" t="n">
-        <v>0.245591</v>
+        <v>0.246277</v>
       </c>
       <c r="F67" t="n">
-        <v>0.464577</v>
+        <v>0.463976</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.349759</v>
+        <v>0.349281</v>
       </c>
       <c r="C68" t="n">
-        <v>0.648392</v>
+        <v>0.651667</v>
       </c>
       <c r="D68" t="n">
-        <v>0.551711</v>
+        <v>0.551636</v>
       </c>
       <c r="E68" t="n">
-        <v>0.233795</v>
+        <v>0.232745</v>
       </c>
       <c r="F68" t="n">
-        <v>0.462752</v>
+        <v>0.462755</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.343513</v>
+        <v>0.343709</v>
       </c>
       <c r="C69" t="n">
-        <v>0.611723</v>
+        <v>0.613008</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5594170000000001</v>
+        <v>0.562492</v>
       </c>
       <c r="E69" t="n">
-        <v>0.230656</v>
+        <v>0.230759</v>
       </c>
       <c r="F69" t="n">
-        <v>0.460676</v>
+        <v>0.460618</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.337054</v>
+        <v>0.336467</v>
       </c>
       <c r="C70" t="n">
-        <v>0.672807</v>
+        <v>0.674681</v>
       </c>
       <c r="D70" t="n">
-        <v>0.56326</v>
+        <v>0.563219</v>
       </c>
       <c r="E70" t="n">
-        <v>0.2286</v>
+        <v>0.22852</v>
       </c>
       <c r="F70" t="n">
-        <v>0.459358</v>
+        <v>0.460723</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.330356</v>
+        <v>0.329774</v>
       </c>
       <c r="C71" t="n">
-        <v>0.65079</v>
+        <v>0.652455</v>
       </c>
       <c r="D71" t="n">
-        <v>0.580601</v>
+        <v>0.579438</v>
       </c>
       <c r="E71" t="n">
-        <v>0.227297</v>
+        <v>0.227204</v>
       </c>
       <c r="F71" t="n">
-        <v>0.459375</v>
+        <v>0.458757</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.32229</v>
+        <v>0.322242</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6494</v>
+        <v>0.650926</v>
       </c>
       <c r="D72" t="n">
-        <v>0.578286</v>
+        <v>0.577449</v>
       </c>
       <c r="E72" t="n">
-        <v>0.225579</v>
+        <v>0.22541</v>
       </c>
       <c r="F72" t="n">
-        <v>0.457238</v>
+        <v>0.457427</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.314489</v>
+        <v>0.314159</v>
       </c>
       <c r="C73" t="n">
-        <v>0.638366</v>
+        <v>0.638586</v>
       </c>
       <c r="D73" t="n">
-        <v>0.584329</v>
+        <v>0.5848989999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>0.223737</v>
+        <v>0.223383</v>
       </c>
       <c r="F73" t="n">
-        <v>0.456177</v>
+        <v>0.45757</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.305348</v>
+        <v>0.305833</v>
       </c>
       <c r="C74" t="n">
-        <v>0.611188</v>
+        <v>0.612287</v>
       </c>
       <c r="D74" t="n">
-        <v>0.586829</v>
+        <v>0.588018</v>
       </c>
       <c r="E74" t="n">
-        <v>0.222063</v>
+        <v>0.222196</v>
       </c>
       <c r="F74" t="n">
-        <v>0.455179</v>
+        <v>0.45525</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.296546</v>
+        <v>0.296629</v>
       </c>
       <c r="C75" t="n">
-        <v>0.598228</v>
+        <v>0.598622</v>
       </c>
       <c r="D75" t="n">
-        <v>0.590065</v>
+        <v>0.5882270000000001</v>
       </c>
       <c r="E75" t="n">
-        <v>0.231844</v>
+        <v>0.224756</v>
       </c>
       <c r="F75" t="n">
-        <v>0.454305</v>
+        <v>0.454468</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.28683</v>
+        <v>0.286661</v>
       </c>
       <c r="C76" t="n">
-        <v>0.582973</v>
+        <v>0.5832079999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5946090000000001</v>
+        <v>0.59177</v>
       </c>
       <c r="E76" t="n">
-        <v>0.231073</v>
+        <v>0.231079</v>
       </c>
       <c r="F76" t="n">
-        <v>0.453366</v>
+        <v>0.453467</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.276315</v>
+        <v>0.276091</v>
       </c>
       <c r="C77" t="n">
-        <v>0.581086</v>
+        <v>0.581525</v>
       </c>
       <c r="D77" t="n">
-        <v>0.595071</v>
+        <v>0.593932</v>
       </c>
       <c r="E77" t="n">
-        <v>0.230404</v>
+        <v>0.219756</v>
       </c>
       <c r="F77" t="n">
-        <v>0.45347</v>
+        <v>0.452839</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.264752</v>
+        <v>0.264633</v>
       </c>
       <c r="C78" t="n">
-        <v>0.616428</v>
+        <v>0.617078</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6646030000000001</v>
+        <v>0.664621</v>
       </c>
       <c r="E78" t="n">
-        <v>0.21944</v>
+        <v>0.2196</v>
       </c>
       <c r="F78" t="n">
-        <v>0.451351</v>
+        <v>0.451426</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.251905</v>
+        <v>0.251898</v>
       </c>
       <c r="C79" t="n">
-        <v>0.579449</v>
+        <v>0.581551</v>
       </c>
       <c r="D79" t="n">
-        <v>0.654133</v>
+        <v>0.65632</v>
       </c>
       <c r="E79" t="n">
-        <v>0.21906</v>
+        <v>0.227588</v>
       </c>
       <c r="F79" t="n">
-        <v>0.450605</v>
+        <v>0.450756</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.238465</v>
+        <v>0.238317</v>
       </c>
       <c r="C80" t="n">
-        <v>0.577622</v>
+        <v>0.5794240000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.667147</v>
+        <v>0.668726</v>
       </c>
       <c r="E80" t="n">
-        <v>0.233097</v>
+        <v>0.233155</v>
       </c>
       <c r="F80" t="n">
-        <v>0.465924</v>
+        <v>0.46591</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.357972</v>
+        <v>0.358014</v>
       </c>
       <c r="C81" t="n">
-        <v>0.745583</v>
+        <v>0.747725</v>
       </c>
       <c r="D81" t="n">
-        <v>0.66143</v>
+        <v>0.662781</v>
       </c>
       <c r="E81" t="n">
-        <v>0.231305</v>
+        <v>0.230505</v>
       </c>
       <c r="F81" t="n">
-        <v>0.464508</v>
+        <v>0.464252</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.352323</v>
+        <v>0.352173</v>
       </c>
       <c r="C82" t="n">
-        <v>0.736984</v>
+        <v>0.734049</v>
       </c>
       <c r="D82" t="n">
-        <v>0.662317</v>
+        <v>0.661717</v>
       </c>
       <c r="E82" t="n">
-        <v>0.228697</v>
+        <v>0.228633</v>
       </c>
       <c r="F82" t="n">
-        <v>0.462548</v>
+        <v>0.462584</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.345919</v>
+        <v>0.345514</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7014860000000001</v>
+        <v>0.702076</v>
       </c>
       <c r="D83" t="n">
-        <v>0.660184</v>
+        <v>0.660878</v>
       </c>
       <c r="E83" t="n">
-        <v>0.227388</v>
+        <v>0.227226</v>
       </c>
       <c r="F83" t="n">
-        <v>0.461018</v>
+        <v>0.46104</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.339627</v>
+        <v>0.339107</v>
       </c>
       <c r="C84" t="n">
-        <v>0.624831</v>
+        <v>0.62109</v>
       </c>
       <c r="D84" t="n">
-        <v>0.657588</v>
+        <v>0.655536</v>
       </c>
       <c r="E84" t="n">
-        <v>0.226551</v>
+        <v>0.237243</v>
       </c>
       <c r="F84" t="n">
-        <v>0.459903</v>
+        <v>0.459916</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.332198</v>
+        <v>0.331694</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6843089999999999</v>
+        <v>0.685138</v>
       </c>
       <c r="D85" t="n">
-        <v>0.655102</v>
+        <v>0.656097</v>
       </c>
       <c r="E85" t="n">
-        <v>0.224868</v>
+        <v>0.224858</v>
       </c>
       <c r="F85" t="n">
-        <v>0.458622</v>
+        <v>0.45861</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.324911</v>
+        <v>0.324447</v>
       </c>
       <c r="C86" t="n">
-        <v>0.770759</v>
+        <v>0.770241</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6517810000000001</v>
+        <v>0.651118</v>
       </c>
       <c r="E86" t="n">
-        <v>0.234779</v>
+        <v>0.224072</v>
       </c>
       <c r="F86" t="n">
-        <v>0.457897</v>
+        <v>0.457916</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.31656</v>
+        <v>0.316279</v>
       </c>
       <c r="C87" t="n">
-        <v>0.678816</v>
+        <v>0.6792</v>
       </c>
       <c r="D87" t="n">
-        <v>0.648456</v>
+        <v>0.6492019999999999</v>
       </c>
       <c r="E87" t="n">
-        <v>0.222706</v>
+        <v>0.222744</v>
       </c>
       <c r="F87" t="n">
-        <v>0.456552</v>
+        <v>0.456679</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.307962</v>
+        <v>0.307923</v>
       </c>
       <c r="C88" t="n">
-        <v>0.625568</v>
+        <v>0.6260790000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.642655</v>
+        <v>0.643024</v>
       </c>
       <c r="E88" t="n">
-        <v>0.221941</v>
+        <v>0.221897</v>
       </c>
       <c r="F88" t="n">
-        <v>0.456193</v>
+        <v>0.455442</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.299148</v>
+        <v>0.299031</v>
       </c>
       <c r="C89" t="n">
-        <v>0.658922</v>
+        <v>0.65871</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6424800000000001</v>
+        <v>0.642771</v>
       </c>
       <c r="E89" t="n">
-        <v>0.221557</v>
+        <v>0.221543</v>
       </c>
       <c r="F89" t="n">
-        <v>0.454081</v>
+        <v>0.454121</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.289273</v>
+        <v>0.289369</v>
       </c>
       <c r="C90" t="n">
-        <v>0.645764</v>
+        <v>0.645877</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6386039999999999</v>
+        <v>0.638919</v>
       </c>
       <c r="E90" t="n">
-        <v>0.222741</v>
+        <v>0.22093</v>
       </c>
       <c r="F90" t="n">
-        <v>0.453554</v>
+        <v>0.453472</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.279344</v>
+        <v>0.279406</v>
       </c>
       <c r="C91" t="n">
-        <v>0.591369</v>
+        <v>0.591656</v>
       </c>
       <c r="D91" t="n">
-        <v>0.635045</v>
+        <v>0.635554</v>
       </c>
       <c r="E91" t="n">
-        <v>0.220238</v>
+        <v>0.226717</v>
       </c>
       <c r="F91" t="n">
-        <v>0.45231</v>
+        <v>0.453561</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.267886</v>
+        <v>0.267707</v>
       </c>
       <c r="C92" t="n">
-        <v>0.551399</v>
+        <v>0.552041</v>
       </c>
       <c r="D92" t="n">
-        <v>0.659699</v>
+        <v>0.648307</v>
       </c>
       <c r="E92" t="n">
-        <v>0.219825</v>
+        <v>0.229827</v>
       </c>
       <c r="F92" t="n">
-        <v>0.451553</v>
+        <v>0.451455</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.255499</v>
+        <v>0.255169</v>
       </c>
       <c r="C93" t="n">
-        <v>0.62176</v>
+        <v>0.622217</v>
       </c>
       <c r="D93" t="n">
-        <v>0.660744</v>
+        <v>0.659567</v>
       </c>
       <c r="E93" t="n">
-        <v>0.229304</v>
+        <v>0.229084</v>
       </c>
       <c r="F93" t="n">
-        <v>0.45058</v>
+        <v>0.450645</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.241606</v>
+        <v>0.241469</v>
       </c>
       <c r="C94" t="n">
-        <v>0.613326</v>
+        <v>0.612804</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6611939999999999</v>
+        <v>0.66108</v>
       </c>
       <c r="E94" t="n">
-        <v>0.233814</v>
+        <v>0.233991</v>
       </c>
       <c r="F94" t="n">
-        <v>0.466179</v>
+        <v>0.46613</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.359339</v>
+        <v>0.358948</v>
       </c>
       <c r="C95" t="n">
-        <v>0.694472</v>
+        <v>0.6943780000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.653877</v>
+        <v>0.655641</v>
       </c>
       <c r="E95" t="n">
-        <v>0.242872</v>
+        <v>0.231969</v>
       </c>
       <c r="F95" t="n">
-        <v>0.466302</v>
+        <v>0.465968</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.353621</v>
+        <v>0.353219</v>
       </c>
       <c r="C96" t="n">
-        <v>0.661267</v>
+        <v>0.660386</v>
       </c>
       <c r="D96" t="n">
-        <v>0.653743</v>
+        <v>0.652259</v>
       </c>
       <c r="E96" t="n">
-        <v>0.229798</v>
+        <v>0.229603</v>
       </c>
       <c r="F96" t="n">
-        <v>0.463422</v>
+        <v>0.464383</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.347307</v>
+        <v>0.347401</v>
       </c>
       <c r="C97" t="n">
-        <v>0.695373</v>
+        <v>0.6951270000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6477579999999999</v>
+        <v>0.647715</v>
       </c>
       <c r="E97" t="n">
-        <v>0.228321</v>
+        <v>0.228185</v>
       </c>
       <c r="F97" t="n">
-        <v>0.46381</v>
+        <v>0.462743</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.341079</v>
+        <v>0.340665</v>
       </c>
       <c r="C98" t="n">
-        <v>0.714017</v>
+        <v>0.713843</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6474760000000001</v>
+        <v>0.644615</v>
       </c>
       <c r="E98" t="n">
-        <v>0.226752</v>
+        <v>0.226671</v>
       </c>
       <c r="F98" t="n">
-        <v>0.461397</v>
+        <v>0.462021</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.333808</v>
+        <v>0.333785</v>
       </c>
       <c r="C99" t="n">
-        <v>0.689349</v>
+        <v>0.6893319999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.635348</v>
+        <v>0.638424</v>
       </c>
       <c r="E99" t="n">
-        <v>0.225449</v>
+        <v>0.225373</v>
       </c>
       <c r="F99" t="n">
-        <v>0.459794</v>
+        <v>0.459284</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.326141</v>
+        <v>0.326183</v>
       </c>
       <c r="C100" t="n">
-        <v>0.683179</v>
+        <v>0.683745</v>
       </c>
       <c r="D100" t="n">
-        <v>0.638563</v>
+        <v>0.638917</v>
       </c>
       <c r="E100" t="n">
-        <v>0.224345</v>
+        <v>0.224304</v>
       </c>
       <c r="F100" t="n">
-        <v>0.458058</v>
+        <v>0.459713</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.318226</v>
+        <v>0.317861</v>
       </c>
       <c r="C101" t="n">
-        <v>0.689047</v>
+        <v>0.689306</v>
       </c>
       <c r="D101" t="n">
-        <v>0.637709</v>
+        <v>0.638537</v>
       </c>
       <c r="E101" t="n">
-        <v>0.223125</v>
+        <v>0.223088</v>
       </c>
       <c r="F101" t="n">
-        <v>0.45664</v>
+        <v>0.456825</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.310035</v>
+        <v>0.310129</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6185929999999999</v>
+        <v>0.619045</v>
       </c>
       <c r="D102" t="n">
-        <v>0.629505</v>
+        <v>0.6297</v>
       </c>
       <c r="E102" t="n">
-        <v>0.222251</v>
+        <v>0.222325</v>
       </c>
       <c r="F102" t="n">
-        <v>0.456612</v>
+        <v>0.457574</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.301305</v>
+        <v>0.300828</v>
       </c>
       <c r="C103" t="n">
-        <v>0.642381</v>
+        <v>0.64275</v>
       </c>
       <c r="D103" t="n">
-        <v>0.62857</v>
+        <v>0.628568</v>
       </c>
       <c r="E103" t="n">
-        <v>0.221446</v>
+        <v>0.221408</v>
       </c>
       <c r="F103" t="n">
-        <v>0.454494</v>
+        <v>0.454608</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.291688</v>
+        <v>0.291666</v>
       </c>
       <c r="C104" t="n">
-        <v>0.59889</v>
+        <v>0.599125</v>
       </c>
       <c r="D104" t="n">
-        <v>0.626445</v>
+        <v>0.624221</v>
       </c>
       <c r="E104" t="n">
-        <v>0.220818</v>
+        <v>0.220746</v>
       </c>
       <c r="F104" t="n">
-        <v>0.453795</v>
+        <v>0.453929</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.281396</v>
+        <v>0.28145</v>
       </c>
       <c r="C105" t="n">
-        <v>0.5295840000000001</v>
+        <v>0.529558</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6253919999999999</v>
+        <v>0.622748</v>
       </c>
       <c r="E105" t="n">
-        <v>0.231034</v>
+        <v>0.230912</v>
       </c>
       <c r="F105" t="n">
-        <v>0.454504</v>
+        <v>0.453457</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.270427</v>
+        <v>0.270329</v>
       </c>
       <c r="C106" t="n">
-        <v>0.640219</v>
+        <v>0.646016</v>
       </c>
       <c r="D106" t="n">
-        <v>0.619658</v>
+        <v>0.622129</v>
       </c>
       <c r="E106" t="n">
-        <v>0.222723</v>
+        <v>0.230464</v>
       </c>
       <c r="F106" t="n">
-        <v>0.453955</v>
+        <v>0.457094</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.258668</v>
+        <v>0.258326</v>
       </c>
       <c r="C107" t="n">
-        <v>0.562485</v>
+        <v>0.5679110000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6558850000000001</v>
+        <v>0.6594179999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>0.229428</v>
+        <v>0.22933</v>
       </c>
       <c r="F107" t="n">
-        <v>0.450988</v>
+        <v>0.454122</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.244936</v>
+        <v>0.244855</v>
       </c>
       <c r="C108" t="n">
-        <v>0.552615</v>
+        <v>0.557642</v>
       </c>
       <c r="D108" t="n">
-        <v>0.66131</v>
+        <v>0.661346</v>
       </c>
       <c r="E108" t="n">
-        <v>0.234229</v>
+        <v>0.245077</v>
       </c>
       <c r="F108" t="n">
-        <v>0.466457</v>
+        <v>0.470114</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.229732</v>
+        <v>0.22938</v>
       </c>
       <c r="C109" t="n">
-        <v>0.471657</v>
+        <v>0.479478</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6431480000000001</v>
+        <v>0.647054</v>
       </c>
       <c r="E109" t="n">
-        <v>0.232712</v>
+        <v>0.232418</v>
       </c>
       <c r="F109" t="n">
-        <v>0.464792</v>
+        <v>0.468289</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.354817</v>
+        <v>0.354591</v>
       </c>
       <c r="C110" t="n">
-        <v>0.634398</v>
+        <v>0.638692</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6436770000000001</v>
+        <v>0.648025</v>
       </c>
       <c r="E110" t="n">
-        <v>0.230399</v>
+        <v>0.230614</v>
       </c>
       <c r="F110" t="n">
-        <v>0.463043</v>
+        <v>0.466841</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.348606</v>
+        <v>0.348176</v>
       </c>
       <c r="C111" t="n">
-        <v>0.685673</v>
+        <v>0.689214</v>
       </c>
       <c r="D111" t="n">
-        <v>0.63927</v>
+        <v>0.640873</v>
       </c>
       <c r="E111" t="n">
-        <v>0.228952</v>
+        <v>0.228716</v>
       </c>
       <c r="F111" t="n">
-        <v>0.46168</v>
+        <v>0.465112</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342396</v>
+        <v>0.342143</v>
       </c>
       <c r="C112" t="n">
-        <v>0.596067</v>
+        <v>0.601015</v>
       </c>
       <c r="D112" t="n">
-        <v>0.637711</v>
+        <v>0.640173</v>
       </c>
       <c r="E112" t="n">
-        <v>0.227482</v>
+        <v>0.227555</v>
       </c>
       <c r="F112" t="n">
-        <v>0.460406</v>
+        <v>0.464479</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.334899</v>
+        <v>0.334499</v>
       </c>
       <c r="C113" t="n">
-        <v>0.7369790000000001</v>
+        <v>0.742835</v>
       </c>
       <c r="D113" t="n">
-        <v>0.643503</v>
+        <v>0.64545</v>
       </c>
       <c r="E113" t="n">
-        <v>0.226324</v>
+        <v>0.225715</v>
       </c>
       <c r="F113" t="n">
-        <v>0.458988</v>
+        <v>0.463398</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.327232</v>
+        <v>0.327593</v>
       </c>
       <c r="C114" t="n">
-        <v>0.645545</v>
+        <v>0.6505069999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6395650000000001</v>
+        <v>0.640679</v>
       </c>
       <c r="E114" t="n">
-        <v>0.235122</v>
+        <v>0.23482</v>
       </c>
       <c r="F114" t="n">
-        <v>0.458167</v>
+        <v>0.461326</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.319641</v>
+        <v>0.319561</v>
       </c>
       <c r="C115" t="n">
-        <v>0.700639</v>
+        <v>0.7060419999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.630205</v>
+        <v>0.6334880000000001</v>
       </c>
       <c r="E115" t="n">
-        <v>0.223772</v>
+        <v>0.223566</v>
       </c>
       <c r="F115" t="n">
-        <v>0.456479</v>
+        <v>0.460673</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.311227</v>
+        <v>0.311463</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6763400000000001</v>
+        <v>0.6817220000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.631232</v>
+        <v>0.632027</v>
       </c>
       <c r="E116" t="n">
-        <v>0.22325</v>
+        <v>0.222938</v>
       </c>
       <c r="F116" t="n">
-        <v>0.455778</v>
+        <v>0.459523</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.302918</v>
+        <v>0.302806</v>
       </c>
       <c r="C117" t="n">
-        <v>0.65196</v>
+        <v>0.657245</v>
       </c>
       <c r="D117" t="n">
-        <v>0.625439</v>
+        <v>0.629132</v>
       </c>
       <c r="E117" t="n">
-        <v>0.222155</v>
+        <v>0.22181</v>
       </c>
       <c r="F117" t="n">
-        <v>0.454384</v>
+        <v>0.458546</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.294104</v>
+        <v>0.293739</v>
       </c>
       <c r="C118" t="n">
-        <v>0.661623</v>
+        <v>0.667119</v>
       </c>
       <c r="D118" t="n">
-        <v>0.622352</v>
+        <v>0.623522</v>
       </c>
       <c r="E118" t="n">
-        <v>0.23181</v>
+        <v>0.23162</v>
       </c>
       <c r="F118" t="n">
-        <v>0.454021</v>
+        <v>0.458014</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.283844</v>
+        <v>0.283275</v>
       </c>
       <c r="C119" t="n">
-        <v>0.638868</v>
+        <v>0.645034</v>
       </c>
       <c r="D119" t="n">
-        <v>0.619158</v>
+        <v>0.620679</v>
       </c>
       <c r="E119" t="n">
-        <v>0.231075</v>
+        <v>0.230944</v>
       </c>
       <c r="F119" t="n">
-        <v>0.452641</v>
+        <v>0.456894</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.273428</v>
+        <v>0.272951</v>
       </c>
       <c r="C120" t="n">
-        <v>0.638186</v>
+        <v>0.6444569999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>0.619625</v>
+        <v>0.62219</v>
       </c>
       <c r="E120" t="n">
-        <v>0.230317</v>
+        <v>0.227532</v>
       </c>
       <c r="F120" t="n">
-        <v>0.451925</v>
+        <v>0.455078</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.260975</v>
+        <v>0.264782</v>
       </c>
       <c r="C121" t="n">
-        <v>0.623566</v>
+        <v>0.629132</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6777300000000001</v>
+        <v>0.678798</v>
       </c>
       <c r="E121" t="n">
-        <v>0.229484</v>
+        <v>0.229524</v>
       </c>
       <c r="F121" t="n">
-        <v>0.450657</v>
+        <v>0.455747</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.247693</v>
+        <v>0.248222</v>
       </c>
       <c r="C122" t="n">
-        <v>0.569666</v>
+        <v>0.576081</v>
       </c>
       <c r="D122" t="n">
-        <v>0.658084</v>
+        <v>0.66176</v>
       </c>
       <c r="E122" t="n">
-        <v>0.228953</v>
+        <v>0.228581</v>
       </c>
       <c r="F122" t="n">
-        <v>0.450102</v>
+        <v>0.453734</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233864</v>
+        <v>0.233781</v>
       </c>
       <c r="C123" t="n">
-        <v>0.608135</v>
+        <v>0.6146430000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.674998</v>
+        <v>0.672697</v>
       </c>
       <c r="E123" t="n">
-        <v>0.243801</v>
+        <v>0.243678</v>
       </c>
       <c r="F123" t="n">
-        <v>0.465299</v>
+        <v>0.468971</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.355969</v>
+        <v>0.355857</v>
       </c>
       <c r="C124" t="n">
-        <v>0.683877</v>
+        <v>0.689406</v>
       </c>
       <c r="D124" t="n">
-        <v>0.668777</v>
+        <v>0.670898</v>
       </c>
       <c r="E124" t="n">
-        <v>0.232357</v>
+        <v>0.233012</v>
       </c>
       <c r="F124" t="n">
-        <v>0.463457</v>
+        <v>0.467571</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.349716</v>
+        <v>0.349557</v>
       </c>
       <c r="C125" t="n">
-        <v>0.792876</v>
+        <v>0.800996</v>
       </c>
       <c r="D125" t="n">
-        <v>0.66294</v>
+        <v>0.666324</v>
       </c>
       <c r="E125" t="n">
-        <v>0.230738</v>
+        <v>0.230825</v>
       </c>
       <c r="F125" t="n">
-        <v>0.462932</v>
+        <v>0.465166</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.343393</v>
+        <v>0.343733</v>
       </c>
       <c r="C126" t="n">
-        <v>0.732358</v>
+        <v>0.733322</v>
       </c>
       <c r="D126" t="n">
-        <v>0.662876</v>
+        <v>0.661498</v>
       </c>
       <c r="E126" t="n">
-        <v>0.228905</v>
+        <v>0.228746</v>
       </c>
       <c r="F126" t="n">
-        <v>0.462219</v>
+        <v>0.462016</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.337296</v>
+        <v>0.336824</v>
       </c>
       <c r="C127" t="n">
-        <v>0.655095</v>
+        <v>0.65487</v>
       </c>
       <c r="D127" t="n">
-        <v>0.646089</v>
+        <v>0.646072</v>
       </c>
       <c r="E127" t="n">
-        <v>0.227257</v>
+        <v>0.227035</v>
       </c>
       <c r="F127" t="n">
-        <v>0.459457</v>
+        <v>0.461182</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.329308</v>
+        <v>0.329194</v>
       </c>
       <c r="C128" t="n">
-        <v>0.600241</v>
+        <v>0.600352</v>
       </c>
       <c r="D128" t="n">
-        <v>0.650155</v>
+        <v>0.650527</v>
       </c>
       <c r="E128" t="n">
-        <v>0.226467</v>
+        <v>0.226213</v>
       </c>
       <c r="F128" t="n">
-        <v>0.458279</v>
+        <v>0.458343</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.321559</v>
+        <v>0.321776</v>
       </c>
       <c r="C129" t="n">
-        <v>0.709961</v>
+        <v>0.710274</v>
       </c>
       <c r="D129" t="n">
-        <v>0.640409</v>
+        <v>0.6402870000000001</v>
       </c>
       <c r="E129" t="n">
-        <v>0.224729</v>
+        <v>0.225132</v>
       </c>
       <c r="F129" t="n">
-        <v>0.457846</v>
+        <v>0.457457</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.313525</v>
+        <v>0.313568</v>
       </c>
       <c r="C130" t="n">
-        <v>0.551995</v>
+        <v>0.551878</v>
       </c>
       <c r="D130" t="n">
-        <v>0.641002</v>
+        <v>0.6421</v>
       </c>
       <c r="E130" t="n">
-        <v>0.224226</v>
+        <v>0.223457</v>
       </c>
       <c r="F130" t="n">
-        <v>0.455932</v>
+        <v>0.455986</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.305182</v>
+        <v>0.30536</v>
       </c>
       <c r="C131" t="n">
-        <v>0.617997</v>
+        <v>0.617772</v>
       </c>
       <c r="D131" t="n">
-        <v>0.63353</v>
+        <v>0.634814</v>
       </c>
       <c r="E131" t="n">
-        <v>0.223595</v>
+        <v>0.222885</v>
       </c>
       <c r="F131" t="n">
-        <v>0.454862</v>
+        <v>0.455098</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.296007</v>
+        <v>0.295859</v>
       </c>
       <c r="C132" t="n">
-        <v>0.541895</v>
+        <v>0.542039</v>
       </c>
       <c r="D132" t="n">
-        <v>0.632839</v>
+        <v>0.632204</v>
       </c>
       <c r="E132" t="n">
-        <v>0.231646</v>
+        <v>0.231615</v>
       </c>
       <c r="F132" t="n">
-        <v>0.453789</v>
+        <v>0.453852</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.286056</v>
+        <v>0.286051</v>
       </c>
       <c r="C133" t="n">
-        <v>0.667075</v>
+        <v>0.667268</v>
       </c>
       <c r="D133" t="n">
-        <v>0.626941</v>
+        <v>0.6275770000000001</v>
       </c>
       <c r="E133" t="n">
-        <v>0.230161</v>
+        <v>0.230883</v>
       </c>
       <c r="F133" t="n">
-        <v>0.453114</v>
+        <v>0.452827</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.275445</v>
+        <v>0.275768</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6263339999999999</v>
+        <v>0.6266620000000001</v>
       </c>
       <c r="D134" t="n">
-        <v>0.624312</v>
+        <v>0.625394</v>
       </c>
       <c r="E134" t="n">
-        <v>0.23015</v>
+        <v>0.230331</v>
       </c>
       <c r="F134" t="n">
-        <v>0.452212</v>
+        <v>0.453096</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.263989</v>
+        <v>0.263955</v>
       </c>
       <c r="C135" t="n">
-        <v>0.625092</v>
+        <v>0.625403</v>
       </c>
       <c r="D135" t="n">
-        <v>0.681351</v>
+        <v>0.682718</v>
       </c>
       <c r="E135" t="n">
-        <v>0.229596</v>
+        <v>0.229432</v>
       </c>
       <c r="F135" t="n">
-        <v>0.451052</v>
+        <v>0.451419</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.250712</v>
+        <v>0.250776</v>
       </c>
       <c r="C136" t="n">
-        <v>0.519482</v>
+        <v>0.522325</v>
       </c>
       <c r="D136" t="n">
-        <v>0.680534</v>
+        <v>0.685088</v>
       </c>
       <c r="E136" t="n">
-        <v>0.22053</v>
+        <v>0.221648</v>
       </c>
       <c r="F136" t="n">
-        <v>0.450597</v>
+        <v>0.450912</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.238548</v>
+        <v>0.238397</v>
       </c>
       <c r="C137" t="n">
-        <v>0.560612</v>
+        <v>0.560812</v>
       </c>
       <c r="D137" t="n">
-        <v>0.677768</v>
+        <v>0.678495</v>
       </c>
       <c r="E137" t="n">
-        <v>0.232801</v>
+        <v>0.243935</v>
       </c>
       <c r="F137" t="n">
-        <v>0.465317</v>
+        <v>0.46565</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.357246</v>
+        <v>0.357198</v>
       </c>
       <c r="C138" t="n">
-        <v>0.735025</v>
+        <v>0.735796</v>
       </c>
       <c r="D138" t="n">
-        <v>0.662721</v>
+        <v>0.661811</v>
       </c>
       <c r="E138" t="n">
-        <v>0.233702</v>
+        <v>0.234934</v>
       </c>
       <c r="F138" t="n">
-        <v>0.464235</v>
+        <v>0.463789</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.351696</v>
+        <v>0.351014</v>
       </c>
       <c r="C139" t="n">
-        <v>0.669928</v>
+        <v>0.67023</v>
       </c>
       <c r="D139" t="n">
-        <v>0.658705</v>
+        <v>0.658326</v>
       </c>
       <c r="E139" t="n">
-        <v>0.235382</v>
+        <v>0.232762</v>
       </c>
       <c r="F139" t="n">
-        <v>0.462106</v>
+        <v>0.46225</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.345634</v>
+        <v>0.345043</v>
       </c>
       <c r="C140" t="n">
-        <v>0.602455</v>
+        <v>0.603407</v>
       </c>
       <c r="D140" t="n">
-        <v>0.659467</v>
+        <v>0.656417</v>
       </c>
       <c r="E140" t="n">
-        <v>0.230906</v>
+        <v>0.23197</v>
       </c>
       <c r="F140" t="n">
-        <v>0.460796</v>
+        <v>0.46021</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.338448</v>
+        <v>0.338216</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6890309999999999</v>
+        <v>0.6886060000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.663671</v>
+        <v>0.660247</v>
       </c>
       <c r="E141" t="n">
-        <v>0.231022</v>
+        <v>0.228597</v>
       </c>
       <c r="F141" t="n">
-        <v>0.459473</v>
+        <v>0.459785</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.331441</v>
+        <v>0.331673</v>
       </c>
       <c r="C142" t="n">
-        <v>0.626069</v>
+        <v>0.625679</v>
       </c>
       <c r="D142" t="n">
-        <v>0.656602</v>
+        <v>0.657528</v>
       </c>
       <c r="E142" t="n">
-        <v>0.230584</v>
+        <v>0.229054</v>
       </c>
       <c r="F142" t="n">
-        <v>0.457958</v>
+        <v>0.459204</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.323388</v>
+        <v>0.323621</v>
       </c>
       <c r="C143" t="n">
-        <v>0.749604</v>
+        <v>0.749908</v>
       </c>
       <c r="D143" t="n">
-        <v>0.650324</v>
+        <v>0.652196</v>
       </c>
       <c r="E143" t="n">
-        <v>0.234656</v>
+        <v>0.234449</v>
       </c>
       <c r="F143" t="n">
-        <v>0.456978</v>
+        <v>0.456809</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.300396</v>
+        <v>0.300233</v>
       </c>
       <c r="C2" t="n">
-        <v>0.510296</v>
+        <v>0.516722</v>
       </c>
       <c r="D2" t="n">
-        <v>0.415012</v>
+        <v>0.422849</v>
       </c>
       <c r="E2" t="n">
-        <v>0.184532</v>
+        <v>0.213589</v>
       </c>
       <c r="F2" t="n">
-        <v>0.436611</v>
+        <v>0.446681</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.289543</v>
+        <v>0.295066</v>
       </c>
       <c r="C3" t="n">
-        <v>0.503894</v>
+        <v>0.5058820000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.413535</v>
+        <v>0.424955</v>
       </c>
       <c r="E3" t="n">
-        <v>0.187339</v>
+        <v>0.203468</v>
       </c>
       <c r="F3" t="n">
-        <v>0.433146</v>
+        <v>0.444025</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.278327</v>
+        <v>0.287054</v>
       </c>
       <c r="C4" t="n">
-        <v>0.488992</v>
+        <v>0.498035</v>
       </c>
       <c r="D4" t="n">
-        <v>0.413063</v>
+        <v>0.425602</v>
       </c>
       <c r="E4" t="n">
-        <v>0.187253</v>
+        <v>0.221849</v>
       </c>
       <c r="F4" t="n">
-        <v>0.434364</v>
+        <v>0.445348</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.269375</v>
+        <v>0.275622</v>
       </c>
       <c r="C5" t="n">
-        <v>0.47875</v>
+        <v>0.49462</v>
       </c>
       <c r="D5" t="n">
-        <v>0.415999</v>
+        <v>0.427818</v>
       </c>
       <c r="E5" t="n">
-        <v>0.188081</v>
+        <v>0.207901</v>
       </c>
       <c r="F5" t="n">
-        <v>0.432503</v>
+        <v>0.444596</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.255982</v>
+        <v>0.263938</v>
       </c>
       <c r="C6" t="n">
-        <v>0.469711</v>
+        <v>0.479158</v>
       </c>
       <c r="D6" t="n">
-        <v>0.417951</v>
+        <v>0.428513</v>
       </c>
       <c r="E6" t="n">
-        <v>0.18928</v>
+        <v>0.208683</v>
       </c>
       <c r="F6" t="n">
-        <v>0.43131</v>
+        <v>0.442694</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.244445</v>
+        <v>0.255543</v>
       </c>
       <c r="C7" t="n">
-        <v>0.458486</v>
+        <v>0.466493</v>
       </c>
       <c r="D7" t="n">
-        <v>0.414614</v>
+        <v>0.424383</v>
       </c>
       <c r="E7" t="n">
-        <v>0.192275</v>
+        <v>0.22558</v>
       </c>
       <c r="F7" t="n">
-        <v>0.429285</v>
+        <v>0.44173</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.231016</v>
+        <v>0.243235</v>
       </c>
       <c r="C8" t="n">
-        <v>0.445786</v>
+        <v>0.454244</v>
       </c>
       <c r="D8" t="n">
-        <v>0.416486</v>
+        <v>0.426095</v>
       </c>
       <c r="E8" t="n">
-        <v>0.192753</v>
+        <v>0.210221</v>
       </c>
       <c r="F8" t="n">
-        <v>0.427854</v>
+        <v>0.440064</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.217832</v>
+        <v>0.229604</v>
       </c>
       <c r="C9" t="n">
-        <v>0.431702</v>
+        <v>0.439953</v>
       </c>
       <c r="D9" t="n">
-        <v>0.414744</v>
+        <v>0.427689</v>
       </c>
       <c r="E9" t="n">
-        <v>0.208319</v>
+        <v>0.226738</v>
       </c>
       <c r="F9" t="n">
-        <v>0.445391</v>
+        <v>0.456509</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.343677</v>
+        <v>0.350305</v>
       </c>
       <c r="C10" t="n">
-        <v>0.554677</v>
+        <v>0.564859</v>
       </c>
       <c r="D10" t="n">
-        <v>0.415569</v>
+        <v>0.426231</v>
       </c>
       <c r="E10" t="n">
-        <v>0.208901</v>
+        <v>0.22708</v>
       </c>
       <c r="F10" t="n">
-        <v>0.445631</v>
+        <v>0.456342</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.335087</v>
+        <v>0.345302</v>
       </c>
       <c r="C11" t="n">
-        <v>0.540833</v>
+        <v>0.548729</v>
       </c>
       <c r="D11" t="n">
-        <v>0.414831</v>
+        <v>0.426753</v>
       </c>
       <c r="E11" t="n">
-        <v>0.208082</v>
+        <v>0.225274</v>
       </c>
       <c r="F11" t="n">
-        <v>0.44537</v>
+        <v>0.459022</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.330712</v>
+        <v>0.339568</v>
       </c>
       <c r="C12" t="n">
-        <v>0.547874</v>
+        <v>0.561908</v>
       </c>
       <c r="D12" t="n">
-        <v>0.414749</v>
+        <v>0.434943</v>
       </c>
       <c r="E12" t="n">
-        <v>0.206325</v>
+        <v>0.224909</v>
       </c>
       <c r="F12" t="n">
-        <v>0.443933</v>
+        <v>0.459161</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.324682</v>
+        <v>0.33392</v>
       </c>
       <c r="C13" t="n">
-        <v>0.536525</v>
+        <v>0.552029</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4165</v>
+        <v>0.435289</v>
       </c>
       <c r="E13" t="n">
-        <v>0.207069</v>
+        <v>0.224263</v>
       </c>
       <c r="F13" t="n">
-        <v>0.442221</v>
+        <v>0.457398</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.317829</v>
+        <v>0.326884</v>
       </c>
       <c r="C14" t="n">
-        <v>0.532769</v>
+        <v>0.549141</v>
       </c>
       <c r="D14" t="n">
-        <v>0.418341</v>
+        <v>0.438309</v>
       </c>
       <c r="E14" t="n">
-        <v>0.207328</v>
+        <v>0.224837</v>
       </c>
       <c r="F14" t="n">
-        <v>0.441159</v>
+        <v>0.455828</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.311668</v>
+        <v>0.320836</v>
       </c>
       <c r="C15" t="n">
-        <v>0.525127</v>
+        <v>0.540455</v>
       </c>
       <c r="D15" t="n">
-        <v>0.420019</v>
+        <v>0.438552</v>
       </c>
       <c r="E15" t="n">
-        <v>0.206632</v>
+        <v>0.223656</v>
       </c>
       <c r="F15" t="n">
-        <v>0.440195</v>
+        <v>0.455131</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.303784</v>
+        <v>0.313076</v>
       </c>
       <c r="C16" t="n">
-        <v>0.514687</v>
+        <v>0.530896</v>
       </c>
       <c r="D16" t="n">
-        <v>0.420103</v>
+        <v>0.439975</v>
       </c>
       <c r="E16" t="n">
-        <v>0.205979</v>
+        <v>0.223875</v>
       </c>
       <c r="F16" t="n">
-        <v>0.439419</v>
+        <v>0.454199</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.296112</v>
+        <v>0.303543</v>
       </c>
       <c r="C17" t="n">
-        <v>0.512472</v>
+        <v>0.528981</v>
       </c>
       <c r="D17" t="n">
-        <v>0.421758</v>
+        <v>0.441283</v>
       </c>
       <c r="E17" t="n">
-        <v>0.206172</v>
+        <v>0.223937</v>
       </c>
       <c r="F17" t="n">
-        <v>0.437636</v>
+        <v>0.45362</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.287561</v>
+        <v>0.294096</v>
       </c>
       <c r="C18" t="n">
-        <v>0.496725</v>
+        <v>0.5120170000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.42326</v>
+        <v>0.443106</v>
       </c>
       <c r="E18" t="n">
-        <v>0.20488</v>
+        <v>0.222219</v>
       </c>
       <c r="F18" t="n">
-        <v>0.435595</v>
+        <v>0.453014</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.277923</v>
+        <v>0.285347</v>
       </c>
       <c r="C19" t="n">
-        <v>0.491325</v>
+        <v>0.507489</v>
       </c>
       <c r="D19" t="n">
-        <v>0.425928</v>
+        <v>0.445515</v>
       </c>
       <c r="E19" t="n">
-        <v>0.204458</v>
+        <v>0.222595</v>
       </c>
       <c r="F19" t="n">
-        <v>0.436089</v>
+        <v>0.450809</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.26541</v>
+        <v>0.273714</v>
       </c>
       <c r="C20" t="n">
-        <v>0.482211</v>
+        <v>0.49736</v>
       </c>
       <c r="D20" t="n">
-        <v>0.42462</v>
+        <v>0.443505</v>
       </c>
       <c r="E20" t="n">
-        <v>0.203655</v>
+        <v>0.221957</v>
       </c>
       <c r="F20" t="n">
-        <v>0.435147</v>
+        <v>0.451186</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.25353</v>
+        <v>0.263244</v>
       </c>
       <c r="C21" t="n">
-        <v>0.461973</v>
+        <v>0.47684</v>
       </c>
       <c r="D21" t="n">
-        <v>0.421453</v>
+        <v>0.439396</v>
       </c>
       <c r="E21" t="n">
-        <v>0.203751</v>
+        <v>0.22272</v>
       </c>
       <c r="F21" t="n">
-        <v>0.433928</v>
+        <v>0.450846</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.239463</v>
+        <v>0.249599</v>
       </c>
       <c r="C22" t="n">
-        <v>0.455084</v>
+        <v>0.469186</v>
       </c>
       <c r="D22" t="n">
-        <v>0.419396</v>
+        <v>0.43775</v>
       </c>
       <c r="E22" t="n">
-        <v>0.20442</v>
+        <v>0.222285</v>
       </c>
       <c r="F22" t="n">
-        <v>0.433341</v>
+        <v>0.449876</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.226884</v>
+        <v>0.236319</v>
       </c>
       <c r="C23" t="n">
-        <v>0.432571</v>
+        <v>0.448064</v>
       </c>
       <c r="D23" t="n">
-        <v>0.42101</v>
+        <v>0.443599</v>
       </c>
       <c r="E23" t="n">
-        <v>0.220844</v>
+        <v>0.249449</v>
       </c>
       <c r="F23" t="n">
-        <v>0.451332</v>
+        <v>0.466028</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.347069</v>
+        <v>0.352964</v>
       </c>
       <c r="C24" t="n">
-        <v>0.557069</v>
+        <v>0.574588</v>
       </c>
       <c r="D24" t="n">
-        <v>0.421238</v>
+        <v>0.440729</v>
       </c>
       <c r="E24" t="n">
-        <v>0.21835</v>
+        <v>0.247053</v>
       </c>
       <c r="F24" t="n">
-        <v>0.449289</v>
+        <v>0.464581</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.340474</v>
+        <v>0.34774</v>
       </c>
       <c r="C25" t="n">
-        <v>0.553414</v>
+        <v>0.567612</v>
       </c>
       <c r="D25" t="n">
-        <v>0.422752</v>
+        <v>0.440846</v>
       </c>
       <c r="E25" t="n">
-        <v>0.214899</v>
+        <v>0.232271</v>
       </c>
       <c r="F25" t="n">
-        <v>0.448228</v>
+        <v>0.463834</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.335181</v>
+        <v>0.341694</v>
       </c>
       <c r="C26" t="n">
-        <v>0.547956</v>
+        <v>0.561462</v>
       </c>
       <c r="D26" t="n">
-        <v>0.424192</v>
+        <v>0.440959</v>
       </c>
       <c r="E26" t="n">
-        <v>0.214105</v>
+        <v>0.231468</v>
       </c>
       <c r="F26" t="n">
-        <v>0.448102</v>
+        <v>0.462543</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.330718</v>
+        <v>0.336206</v>
       </c>
       <c r="C27" t="n">
-        <v>0.537209</v>
+        <v>0.552277</v>
       </c>
       <c r="D27" t="n">
-        <v>0.423614</v>
+        <v>0.442014</v>
       </c>
       <c r="E27" t="n">
-        <v>0.212752</v>
+        <v>0.230208</v>
       </c>
       <c r="F27" t="n">
-        <v>0.444529</v>
+        <v>0.461285</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.32486</v>
+        <v>0.329916</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5330859999999999</v>
+        <v>0.546082</v>
       </c>
       <c r="D28" t="n">
-        <v>0.425545</v>
+        <v>0.443096</v>
       </c>
       <c r="E28" t="n">
-        <v>0.212915</v>
+        <v>0.229389</v>
       </c>
       <c r="F28" t="n">
-        <v>0.444061</v>
+        <v>0.458669</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.316481</v>
+        <v>0.3228</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5284450000000001</v>
+        <v>0.543483</v>
       </c>
       <c r="D29" t="n">
-        <v>0.42499</v>
+        <v>0.442526</v>
       </c>
       <c r="E29" t="n">
-        <v>0.211508</v>
+        <v>0.228398</v>
       </c>
       <c r="F29" t="n">
-        <v>0.44294</v>
+        <v>0.458341</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.307235</v>
+        <v>0.314557</v>
       </c>
       <c r="C30" t="n">
-        <v>0.519471</v>
+        <v>0.534907</v>
       </c>
       <c r="D30" t="n">
-        <v>0.425492</v>
+        <v>0.442698</v>
       </c>
       <c r="E30" t="n">
-        <v>0.210839</v>
+        <v>0.227372</v>
       </c>
       <c r="F30" t="n">
-        <v>0.442388</v>
+        <v>0.458045</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.297464</v>
+        <v>0.304902</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5052140000000001</v>
+        <v>0.520113</v>
       </c>
       <c r="D31" t="n">
-        <v>0.427244</v>
+        <v>0.444478</v>
       </c>
       <c r="E31" t="n">
-        <v>0.209449</v>
+        <v>0.226069</v>
       </c>
       <c r="F31" t="n">
-        <v>0.440006</v>
+        <v>0.456181</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.288258</v>
+        <v>0.29676</v>
       </c>
       <c r="C32" t="n">
-        <v>0.500839</v>
+        <v>0.516659</v>
       </c>
       <c r="D32" t="n">
-        <v>0.428997</v>
+        <v>0.4456</v>
       </c>
       <c r="E32" t="n">
-        <v>0.208846</v>
+        <v>0.225591</v>
       </c>
       <c r="F32" t="n">
-        <v>0.43925</v>
+        <v>0.455214</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.279153</v>
+        <v>0.288028</v>
       </c>
       <c r="C33" t="n">
-        <v>0.494792</v>
+        <v>0.50957</v>
       </c>
       <c r="D33" t="n">
-        <v>0.429444</v>
+        <v>0.44591</v>
       </c>
       <c r="E33" t="n">
-        <v>0.208257</v>
+        <v>0.224897</v>
       </c>
       <c r="F33" t="n">
-        <v>0.437808</v>
+        <v>0.454146</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.268545</v>
+        <v>0.277429</v>
       </c>
       <c r="C34" t="n">
-        <v>0.477585</v>
+        <v>0.492283</v>
       </c>
       <c r="D34" t="n">
-        <v>0.430931</v>
+        <v>0.450084</v>
       </c>
       <c r="E34" t="n">
-        <v>0.208241</v>
+        <v>0.238633</v>
       </c>
       <c r="F34" t="n">
-        <v>0.437782</v>
+        <v>0.454019</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.258079</v>
+        <v>0.266923</v>
       </c>
       <c r="C35" t="n">
-        <v>0.462198</v>
+        <v>0.477434</v>
       </c>
       <c r="D35" t="n">
-        <v>0.428756</v>
+        <v>0.443342</v>
       </c>
       <c r="E35" t="n">
-        <v>0.208164</v>
+        <v>0.229097</v>
       </c>
       <c r="F35" t="n">
-        <v>0.437085</v>
+        <v>0.452865</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.244057</v>
+        <v>0.253625</v>
       </c>
       <c r="C36" t="n">
-        <v>0.458625</v>
+        <v>0.474343</v>
       </c>
       <c r="D36" t="n">
-        <v>0.427049</v>
+        <v>0.4434</v>
       </c>
       <c r="E36" t="n">
-        <v>0.207046</v>
+        <v>0.223789</v>
       </c>
       <c r="F36" t="n">
-        <v>0.435681</v>
+        <v>0.449971</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.23117</v>
+        <v>0.240002</v>
       </c>
       <c r="C37" t="n">
-        <v>0.447186</v>
+        <v>0.46236</v>
       </c>
       <c r="D37" t="n">
-        <v>0.428661</v>
+        <v>0.445503</v>
       </c>
       <c r="E37" t="n">
-        <v>0.221427</v>
+        <v>0.249967</v>
       </c>
       <c r="F37" t="n">
-        <v>0.451621</v>
+        <v>0.466372</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.350797</v>
+        <v>0.357648</v>
       </c>
       <c r="C38" t="n">
-        <v>0.557489</v>
+        <v>0.564393</v>
       </c>
       <c r="D38" t="n">
-        <v>0.426075</v>
+        <v>0.444027</v>
       </c>
       <c r="E38" t="n">
-        <v>0.218786</v>
+        <v>0.23426</v>
       </c>
       <c r="F38" t="n">
-        <v>0.449496</v>
+        <v>0.464538</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.344649</v>
+        <v>0.352109</v>
       </c>
       <c r="C39" t="n">
-        <v>0.550962</v>
+        <v>0.559423</v>
       </c>
       <c r="D39" t="n">
-        <v>0.425968</v>
+        <v>0.444502</v>
       </c>
       <c r="E39" t="n">
-        <v>0.216064</v>
+        <v>0.246909</v>
       </c>
       <c r="F39" t="n">
-        <v>0.447511</v>
+        <v>0.463178</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.339535</v>
+        <v>0.346452</v>
       </c>
       <c r="C40" t="n">
-        <v>0.546116</v>
+        <v>0.553999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.425338</v>
+        <v>0.445622</v>
       </c>
       <c r="E40" t="n">
-        <v>0.215529</v>
+        <v>0.231997</v>
       </c>
       <c r="F40" t="n">
-        <v>0.446678</v>
+        <v>0.46252</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.332611</v>
+        <v>0.339667</v>
       </c>
       <c r="C41" t="n">
-        <v>0.540569</v>
+        <v>0.549304</v>
       </c>
       <c r="D41" t="n">
-        <v>0.426</v>
+        <v>0.44764</v>
       </c>
       <c r="E41" t="n">
-        <v>0.213744</v>
+        <v>0.230867</v>
       </c>
       <c r="F41" t="n">
-        <v>0.446215</v>
+        <v>0.461241</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.325845</v>
+        <v>0.332212</v>
       </c>
       <c r="C42" t="n">
-        <v>0.541439</v>
+        <v>0.54783</v>
       </c>
       <c r="D42" t="n">
-        <v>0.427331</v>
+        <v>0.445259</v>
       </c>
       <c r="E42" t="n">
-        <v>0.212741</v>
+        <v>0.229782</v>
       </c>
       <c r="F42" t="n">
-        <v>0.44414</v>
+        <v>0.459457</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.319377</v>
+        <v>0.324961</v>
       </c>
       <c r="C43" t="n">
-        <v>0.52725</v>
+        <v>0.538156</v>
       </c>
       <c r="D43" t="n">
-        <v>0.427481</v>
+        <v>0.447885</v>
       </c>
       <c r="E43" t="n">
-        <v>0.21149</v>
+        <v>0.228386</v>
       </c>
       <c r="F43" t="n">
-        <v>0.442552</v>
+        <v>0.458199</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.311144</v>
+        <v>0.318511</v>
       </c>
       <c r="C44" t="n">
-        <v>0.525329</v>
+        <v>0.534672</v>
       </c>
       <c r="D44" t="n">
-        <v>0.427451</v>
+        <v>0.447776</v>
       </c>
       <c r="E44" t="n">
-        <v>0.21034</v>
+        <v>0.227402</v>
       </c>
       <c r="F44" t="n">
-        <v>0.441178</v>
+        <v>0.456999</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.303212</v>
+        <v>0.309052</v>
       </c>
       <c r="C45" t="n">
-        <v>0.514358</v>
+        <v>0.526382</v>
       </c>
       <c r="D45" t="n">
-        <v>0.429073</v>
+        <v>0.447629</v>
       </c>
       <c r="E45" t="n">
-        <v>0.209646</v>
+        <v>0.227045</v>
       </c>
       <c r="F45" t="n">
-        <v>0.440391</v>
+        <v>0.456317</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.293652</v>
+        <v>0.300574</v>
       </c>
       <c r="C46" t="n">
-        <v>0.510049</v>
+        <v>0.518443</v>
       </c>
       <c r="D46" t="n">
-        <v>0.430301</v>
+        <v>0.450997</v>
       </c>
       <c r="E46" t="n">
-        <v>0.208822</v>
+        <v>0.22603</v>
       </c>
       <c r="F46" t="n">
-        <v>0.439322</v>
+        <v>0.45539</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.284315</v>
+        <v>0.291113</v>
       </c>
       <c r="C47" t="n">
-        <v>0.500644</v>
+        <v>0.515911</v>
       </c>
       <c r="D47" t="n">
-        <v>0.431235</v>
+        <v>0.450813</v>
       </c>
       <c r="E47" t="n">
-        <v>0.208159</v>
+        <v>0.225229</v>
       </c>
       <c r="F47" t="n">
-        <v>0.438738</v>
+        <v>0.45537</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.274788</v>
+        <v>0.28146</v>
       </c>
       <c r="C48" t="n">
-        <v>0.489048</v>
+        <v>0.501685</v>
       </c>
       <c r="D48" t="n">
-        <v>0.431935</v>
+        <v>0.453277</v>
       </c>
       <c r="E48" t="n">
-        <v>0.205613</v>
+        <v>0.238854</v>
       </c>
       <c r="F48" t="n">
-        <v>0.437859</v>
+        <v>0.45387</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.263094</v>
+        <v>0.270946</v>
       </c>
       <c r="C49" t="n">
-        <v>0.472617</v>
+        <v>0.487502</v>
       </c>
       <c r="D49" t="n">
-        <v>0.433562</v>
+        <v>0.453592</v>
       </c>
       <c r="E49" t="n">
-        <v>0.208133</v>
+        <v>0.238521</v>
       </c>
       <c r="F49" t="n">
-        <v>0.436784</v>
+        <v>0.453448</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.250316</v>
+        <v>0.258815</v>
       </c>
       <c r="C50" t="n">
-        <v>0.465253</v>
+        <v>0.478908</v>
       </c>
       <c r="D50" t="n">
-        <v>0.431841</v>
+        <v>0.453813</v>
       </c>
       <c r="E50" t="n">
-        <v>0.208255</v>
+        <v>0.237968</v>
       </c>
       <c r="F50" t="n">
-        <v>0.436375</v>
+        <v>0.452761</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.236652</v>
+        <v>0.24513</v>
       </c>
       <c r="C51" t="n">
-        <v>0.443363</v>
+        <v>0.45716</v>
       </c>
       <c r="D51" t="n">
-        <v>0.430943</v>
+        <v>0.452043</v>
       </c>
       <c r="E51" t="n">
-        <v>0.222264</v>
+        <v>0.236404</v>
       </c>
       <c r="F51" t="n">
-        <v>0.451964</v>
+        <v>0.467358</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.221033</v>
+        <v>0.230809</v>
       </c>
       <c r="C52" t="n">
-        <v>0.432795</v>
+        <v>0.450204</v>
       </c>
       <c r="D52" t="n">
-        <v>0.432214</v>
+        <v>0.452452</v>
       </c>
       <c r="E52" t="n">
-        <v>0.218961</v>
+        <v>0.248823</v>
       </c>
       <c r="F52" t="n">
-        <v>0.450796</v>
+        <v>0.466292</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.346726</v>
+        <v>0.354015</v>
       </c>
       <c r="C53" t="n">
-        <v>0.56233</v>
+        <v>0.571227</v>
       </c>
       <c r="D53" t="n">
-        <v>0.432599</v>
+        <v>0.451133</v>
       </c>
       <c r="E53" t="n">
-        <v>0.216424</v>
+        <v>0.233083</v>
       </c>
       <c r="F53" t="n">
-        <v>0.448673</v>
+        <v>0.46423</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.341313</v>
+        <v>0.348419</v>
       </c>
       <c r="C54" t="n">
-        <v>0.54997</v>
+        <v>0.556926</v>
       </c>
       <c r="D54" t="n">
-        <v>0.435652</v>
+        <v>0.452933</v>
       </c>
       <c r="E54" t="n">
-        <v>0.215279</v>
+        <v>0.232244</v>
       </c>
       <c r="F54" t="n">
-        <v>0.44752</v>
+        <v>0.463662</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.334539</v>
+        <v>0.341458</v>
       </c>
       <c r="C55" t="n">
-        <v>0.549598</v>
+        <v>0.566841</v>
       </c>
       <c r="D55" t="n">
-        <v>0.43528</v>
+        <v>0.453385</v>
       </c>
       <c r="E55" t="n">
-        <v>0.21378</v>
+        <v>0.230792</v>
       </c>
       <c r="F55" t="n">
-        <v>0.445619</v>
+        <v>0.462077</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.328358</v>
+        <v>0.335357</v>
       </c>
       <c r="C56" t="n">
-        <v>0.546377</v>
+        <v>0.557725</v>
       </c>
       <c r="D56" t="n">
-        <v>0.43651</v>
+        <v>0.457301</v>
       </c>
       <c r="E56" t="n">
-        <v>0.212534</v>
+        <v>0.229998</v>
       </c>
       <c r="F56" t="n">
-        <v>0.444663</v>
+        <v>0.460902</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.322475</v>
+        <v>0.327372</v>
       </c>
       <c r="C57" t="n">
-        <v>0.534325</v>
+        <v>0.550045</v>
       </c>
       <c r="D57" t="n">
-        <v>0.440979</v>
+        <v>0.46044</v>
       </c>
       <c r="E57" t="n">
-        <v>0.211545</v>
+        <v>0.228687</v>
       </c>
       <c r="F57" t="n">
-        <v>0.443351</v>
+        <v>0.460291</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.31377</v>
+        <v>0.319678</v>
       </c>
       <c r="C58" t="n">
-        <v>0.540672</v>
+        <v>0.556545</v>
       </c>
       <c r="D58" t="n">
-        <v>0.444252</v>
+        <v>0.456962</v>
       </c>
       <c r="E58" t="n">
-        <v>0.210956</v>
+        <v>0.227786</v>
       </c>
       <c r="F58" t="n">
-        <v>0.441982</v>
+        <v>0.456251</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.305921</v>
+        <v>0.311761</v>
       </c>
       <c r="C59" t="n">
-        <v>0.519147</v>
+        <v>0.531406</v>
       </c>
       <c r="D59" t="n">
-        <v>0.445466</v>
+        <v>0.461701</v>
       </c>
       <c r="E59" t="n">
-        <v>0.210189</v>
+        <v>0.227126</v>
       </c>
       <c r="F59" t="n">
-        <v>0.440899</v>
+        <v>0.457607</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.296702</v>
+        <v>0.303676</v>
       </c>
       <c r="C60" t="n">
-        <v>0.529205</v>
+        <v>0.546923</v>
       </c>
       <c r="D60" t="n">
-        <v>0.449026</v>
+        <v>0.464331</v>
       </c>
       <c r="E60" t="n">
-        <v>0.209441</v>
+        <v>0.22627</v>
       </c>
       <c r="F60" t="n">
-        <v>0.440039</v>
+        <v>0.456699</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.287789</v>
+        <v>0.294509</v>
       </c>
       <c r="C61" t="n">
-        <v>0.524631</v>
+        <v>0.540863</v>
       </c>
       <c r="D61" t="n">
-        <v>0.453675</v>
+        <v>0.468913</v>
       </c>
       <c r="E61" t="n">
-        <v>0.20886</v>
+        <v>0.22565</v>
       </c>
       <c r="F61" t="n">
-        <v>0.439197</v>
+        <v>0.455098</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.277161</v>
+        <v>0.284374</v>
       </c>
       <c r="C62" t="n">
-        <v>0.517192</v>
+        <v>0.537789</v>
       </c>
       <c r="D62" t="n">
-        <v>0.454652</v>
+        <v>0.476269</v>
       </c>
       <c r="E62" t="n">
-        <v>0.208047</v>
+        <v>0.224854</v>
       </c>
       <c r="F62" t="n">
-        <v>0.437646</v>
+        <v>0.454511</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.267214</v>
+        <v>0.273997</v>
       </c>
       <c r="C63" t="n">
-        <v>0.487271</v>
+        <v>0.501791</v>
       </c>
       <c r="D63" t="n">
-        <v>0.45484</v>
+        <v>0.475038</v>
       </c>
       <c r="E63" t="n">
-        <v>0.208807</v>
+        <v>0.238876</v>
       </c>
       <c r="F63" t="n">
-        <v>0.436919</v>
+        <v>0.453517</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.254365</v>
+        <v>0.261129</v>
       </c>
       <c r="C64" t="n">
-        <v>0.478232</v>
+        <v>0.495386</v>
       </c>
       <c r="D64" t="n">
-        <v>0.489438</v>
+        <v>0.516245</v>
       </c>
       <c r="E64" t="n">
-        <v>0.205713</v>
+        <v>0.226874</v>
       </c>
       <c r="F64" t="n">
-        <v>0.43612</v>
+        <v>0.453089</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.240263</v>
+        <v>0.248647</v>
       </c>
       <c r="C65" t="n">
-        <v>0.478307</v>
+        <v>0.49519</v>
       </c>
       <c r="D65" t="n">
-        <v>0.490018</v>
+        <v>0.516633</v>
       </c>
       <c r="E65" t="n">
-        <v>0.204887</v>
+        <v>0.223546</v>
       </c>
       <c r="F65" t="n">
-        <v>0.435732</v>
+        <v>0.452467</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.225726</v>
+        <v>0.234653</v>
       </c>
       <c r="C66" t="n">
-        <v>0.461907</v>
+        <v>0.479594</v>
       </c>
       <c r="D66" t="n">
-        <v>0.493516</v>
+        <v>0.520525</v>
       </c>
       <c r="E66" t="n">
-        <v>0.220358</v>
+        <v>0.241953</v>
       </c>
       <c r="F66" t="n">
-        <v>0.451688</v>
+        <v>0.466855</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.349159</v>
+        <v>0.355563</v>
       </c>
       <c r="C67" t="n">
-        <v>0.622139</v>
+        <v>0.632679</v>
       </c>
       <c r="D67" t="n">
-        <v>0.507576</v>
+        <v>0.528265</v>
       </c>
       <c r="E67" t="n">
-        <v>0.217316</v>
+        <v>0.252446</v>
       </c>
       <c r="F67" t="n">
-        <v>0.449725</v>
+        <v>0.465206</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.343541</v>
+        <v>0.349429</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5773470000000001</v>
+        <v>0.655779</v>
       </c>
       <c r="D68" t="n">
-        <v>0.511601</v>
+        <v>0.535944</v>
       </c>
       <c r="E68" t="n">
-        <v>0.215665</v>
+        <v>0.237287</v>
       </c>
       <c r="F68" t="n">
-        <v>0.448081</v>
+        <v>0.463925</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.336625</v>
+        <v>0.344869</v>
       </c>
       <c r="C69" t="n">
-        <v>0.60014</v>
+        <v>0.616179</v>
       </c>
       <c r="D69" t="n">
-        <v>0.524396</v>
+        <v>0.542746</v>
       </c>
       <c r="E69" t="n">
-        <v>0.214081</v>
+        <v>0.235553</v>
       </c>
       <c r="F69" t="n">
-        <v>0.446268</v>
+        <v>0.46215</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.330772</v>
+        <v>0.336513</v>
       </c>
       <c r="C70" t="n">
-        <v>0.6345229999999999</v>
+        <v>0.679466</v>
       </c>
       <c r="D70" t="n">
-        <v>0.525659</v>
+        <v>0.549319</v>
       </c>
       <c r="E70" t="n">
-        <v>0.212659</v>
+        <v>0.233013</v>
       </c>
       <c r="F70" t="n">
-        <v>0.44509</v>
+        <v>0.461034</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.323351</v>
+        <v>0.329454</v>
       </c>
       <c r="C71" t="n">
-        <v>0.64401</v>
+        <v>0.656815</v>
       </c>
       <c r="D71" t="n">
-        <v>0.528596</v>
+        <v>0.560673</v>
       </c>
       <c r="E71" t="n">
-        <v>0.211932</v>
+        <v>0.231842</v>
       </c>
       <c r="F71" t="n">
-        <v>0.443918</v>
+        <v>0.460103</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.315792</v>
+        <v>0.321807</v>
       </c>
       <c r="C72" t="n">
-        <v>0.627785</v>
+        <v>0.655249</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5298620000000001</v>
+        <v>0.561658</v>
       </c>
       <c r="E72" t="n">
-        <v>0.211059</v>
+        <v>0.229889</v>
       </c>
       <c r="F72" t="n">
-        <v>0.442302</v>
+        <v>0.459155</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.308342</v>
+        <v>0.314887</v>
       </c>
       <c r="C73" t="n">
-        <v>0.626192</v>
+        <v>0.644799</v>
       </c>
       <c r="D73" t="n">
-        <v>0.539458</v>
+        <v>0.564335</v>
       </c>
       <c r="E73" t="n">
-        <v>0.21011</v>
+        <v>0.228249</v>
       </c>
       <c r="F73" t="n">
-        <v>0.441533</v>
+        <v>0.458084</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.299684</v>
+        <v>0.305862</v>
       </c>
       <c r="C74" t="n">
-        <v>0.634611</v>
+        <v>0.618515</v>
       </c>
       <c r="D74" t="n">
-        <v>0.538241</v>
+        <v>0.569973</v>
       </c>
       <c r="E74" t="n">
-        <v>0.209172</v>
+        <v>0.226835</v>
       </c>
       <c r="F74" t="n">
-        <v>0.440721</v>
+        <v>0.457289</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.290439</v>
+        <v>0.296535</v>
       </c>
       <c r="C75" t="n">
-        <v>0.636244</v>
+        <v>0.604842</v>
       </c>
       <c r="D75" t="n">
-        <v>0.53959</v>
+        <v>0.568622</v>
       </c>
       <c r="E75" t="n">
-        <v>0.208647</v>
+        <v>0.226016</v>
       </c>
       <c r="F75" t="n">
-        <v>0.439951</v>
+        <v>0.456425</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.279988</v>
+        <v>0.287127</v>
       </c>
       <c r="C76" t="n">
-        <v>0.614339</v>
+        <v>0.589323</v>
       </c>
       <c r="D76" t="n">
-        <v>0.543844</v>
+        <v>0.5715</v>
       </c>
       <c r="E76" t="n">
-        <v>0.206432</v>
+        <v>0.225372</v>
       </c>
       <c r="F76" t="n">
-        <v>0.438452</v>
+        <v>0.455143</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.2688</v>
+        <v>0.276427</v>
       </c>
       <c r="C77" t="n">
-        <v>0.582108</v>
+        <v>0.586941</v>
       </c>
       <c r="D77" t="n">
-        <v>0.543611</v>
+        <v>0.570071</v>
       </c>
       <c r="E77" t="n">
-        <v>0.205433</v>
+        <v>0.239072</v>
       </c>
       <c r="F77" t="n">
-        <v>0.437822</v>
+        <v>0.454532</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.257164</v>
+        <v>0.265084</v>
       </c>
       <c r="C78" t="n">
-        <v>0.613217</v>
+        <v>0.622961</v>
       </c>
       <c r="D78" t="n">
-        <v>0.618355</v>
+        <v>0.65125</v>
       </c>
       <c r="E78" t="n">
-        <v>0.207416</v>
+        <v>0.238486</v>
       </c>
       <c r="F78" t="n">
-        <v>0.436915</v>
+        <v>0.453548</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.244087</v>
+        <v>0.25236</v>
       </c>
       <c r="C79" t="n">
-        <v>0.56054</v>
+        <v>0.578674</v>
       </c>
       <c r="D79" t="n">
-        <v>0.605417</v>
+        <v>0.652007</v>
       </c>
       <c r="E79" t="n">
-        <v>0.205353</v>
+        <v>0.227848</v>
       </c>
       <c r="F79" t="n">
-        <v>0.435943</v>
+        <v>0.453078</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.229467</v>
+        <v>0.238636</v>
       </c>
       <c r="C80" t="n">
-        <v>0.562397</v>
+        <v>0.584998</v>
       </c>
       <c r="D80" t="n">
-        <v>0.620686</v>
+        <v>0.651632</v>
       </c>
       <c r="E80" t="n">
-        <v>0.22089</v>
+        <v>0.238243</v>
       </c>
       <c r="F80" t="n">
-        <v>0.451736</v>
+        <v>0.467905</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.350763</v>
+        <v>0.357519</v>
       </c>
       <c r="C81" t="n">
-        <v>0.74471</v>
+        <v>0.752494</v>
       </c>
       <c r="D81" t="n">
-        <v>0.614791</v>
+        <v>0.649993</v>
       </c>
       <c r="E81" t="n">
-        <v>0.218477</v>
+        <v>0.235666</v>
       </c>
       <c r="F81" t="n">
-        <v>0.450094</v>
+        <v>0.466142</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.34565</v>
+        <v>0.351698</v>
       </c>
       <c r="C82" t="n">
-        <v>0.694225</v>
+        <v>0.740293</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6169559999999999</v>
+        <v>0.646809</v>
       </c>
       <c r="E82" t="n">
-        <v>0.216343</v>
+        <v>0.233688</v>
       </c>
       <c r="F82" t="n">
-        <v>0.448338</v>
+        <v>0.464482</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3397</v>
+        <v>0.345853</v>
       </c>
       <c r="C83" t="n">
-        <v>0.614834</v>
+        <v>0.705056</v>
       </c>
       <c r="D83" t="n">
-        <v>0.613022</v>
+        <v>0.647127</v>
       </c>
       <c r="E83" t="n">
-        <v>0.214794</v>
+        <v>0.232341</v>
       </c>
       <c r="F83" t="n">
-        <v>0.447024</v>
+        <v>0.460706</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.332756</v>
+        <v>0.338608</v>
       </c>
       <c r="C84" t="n">
-        <v>0.610626</v>
+        <v>0.6295190000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.606447</v>
+        <v>0.640903</v>
       </c>
       <c r="E84" t="n">
-        <v>0.213866</v>
+        <v>0.245895</v>
       </c>
       <c r="F84" t="n">
-        <v>0.445622</v>
+        <v>0.461649</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.325831</v>
+        <v>0.331251</v>
       </c>
       <c r="C85" t="n">
-        <v>0.671221</v>
+        <v>0.690313</v>
       </c>
       <c r="D85" t="n">
-        <v>0.604983</v>
+        <v>0.637364</v>
       </c>
       <c r="E85" t="n">
-        <v>0.212498</v>
+        <v>0.230028</v>
       </c>
       <c r="F85" t="n">
-        <v>0.444368</v>
+        <v>0.460648</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.318217</v>
+        <v>0.324362</v>
       </c>
       <c r="C86" t="n">
-        <v>0.736168</v>
+        <v>0.776847</v>
       </c>
       <c r="D86" t="n">
-        <v>0.60053</v>
+        <v>0.630515</v>
       </c>
       <c r="E86" t="n">
-        <v>0.211457</v>
+        <v>0.230819</v>
       </c>
       <c r="F86" t="n">
-        <v>0.443362</v>
+        <v>0.4596</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.310104</v>
+        <v>0.316018</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5233409999999999</v>
+        <v>0.6866100000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.594777</v>
+        <v>0.627602</v>
       </c>
       <c r="E87" t="n">
-        <v>0.21032</v>
+        <v>0.227989</v>
       </c>
       <c r="F87" t="n">
-        <v>0.442239</v>
+        <v>0.458376</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.301742</v>
+        <v>0.307974</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6208050000000001</v>
+        <v>0.6313879999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.588024</v>
+        <v>0.625406</v>
       </c>
       <c r="E88" t="n">
-        <v>0.209617</v>
+        <v>0.227113</v>
       </c>
       <c r="F88" t="n">
-        <v>0.440924</v>
+        <v>0.457267</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.292304</v>
+        <v>0.299352</v>
       </c>
       <c r="C89" t="n">
-        <v>0.647863</v>
+        <v>0.663783</v>
       </c>
       <c r="D89" t="n">
-        <v>0.591045</v>
+        <v>0.62151</v>
       </c>
       <c r="E89" t="n">
-        <v>0.20882</v>
+        <v>0.240934</v>
       </c>
       <c r="F89" t="n">
-        <v>0.439921</v>
+        <v>0.456256</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.28181</v>
+        <v>0.289932</v>
       </c>
       <c r="C90" t="n">
-        <v>0.626671</v>
+        <v>0.651366</v>
       </c>
       <c r="D90" t="n">
-        <v>0.583107</v>
+        <v>0.6184190000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>0.208487</v>
+        <v>0.239249</v>
       </c>
       <c r="F90" t="n">
-        <v>0.439052</v>
+        <v>0.455693</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.271582</v>
+        <v>0.279392</v>
       </c>
       <c r="C91" t="n">
-        <v>0.580722</v>
+        <v>0.597378</v>
       </c>
       <c r="D91" t="n">
-        <v>0.578673</v>
+        <v>0.614166</v>
       </c>
       <c r="E91" t="n">
-        <v>0.207917</v>
+        <v>0.239402</v>
       </c>
       <c r="F91" t="n">
-        <v>0.438192</v>
+        <v>0.454846</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.260098</v>
+        <v>0.26805</v>
       </c>
       <c r="C92" t="n">
-        <v>0.542736</v>
+        <v>0.558171</v>
       </c>
       <c r="D92" t="n">
-        <v>0.624866</v>
+        <v>0.638759</v>
       </c>
       <c r="E92" t="n">
-        <v>0.206397</v>
+        <v>0.239572</v>
       </c>
       <c r="F92" t="n">
-        <v>0.43735</v>
+        <v>0.453888</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.247037</v>
+        <v>0.255951</v>
       </c>
       <c r="C93" t="n">
-        <v>0.605555</v>
+        <v>0.627976</v>
       </c>
       <c r="D93" t="n">
-        <v>0.620217</v>
+        <v>0.646472</v>
       </c>
       <c r="E93" t="n">
-        <v>0.20471</v>
+        <v>0.239253</v>
       </c>
       <c r="F93" t="n">
-        <v>0.436531</v>
+        <v>0.453272</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.233647</v>
+        <v>0.241565</v>
       </c>
       <c r="C94" t="n">
-        <v>0.592541</v>
+        <v>0.6179789999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.623736</v>
+        <v>0.64636</v>
       </c>
       <c r="E94" t="n">
-        <v>0.220447</v>
+        <v>0.239132</v>
       </c>
       <c r="F94" t="n">
-        <v>0.451994</v>
+        <v>0.467692</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.352532</v>
+        <v>0.358485</v>
       </c>
       <c r="C95" t="n">
-        <v>0.671021</v>
+        <v>0.700283</v>
       </c>
       <c r="D95" t="n">
-        <v>0.616175</v>
+        <v>0.63957</v>
       </c>
       <c r="E95" t="n">
-        <v>0.220491</v>
+        <v>0.239096</v>
       </c>
       <c r="F95" t="n">
-        <v>0.450287</v>
+        <v>0.466352</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.347174</v>
+        <v>0.353199</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6912970000000001</v>
+        <v>0.665857</v>
       </c>
       <c r="D96" t="n">
-        <v>0.611321</v>
+        <v>0.63806</v>
       </c>
       <c r="E96" t="n">
-        <v>0.216961</v>
+        <v>0.234804</v>
       </c>
       <c r="F96" t="n">
-        <v>0.448827</v>
+        <v>0.46496</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.340898</v>
+        <v>0.347649</v>
       </c>
       <c r="C97" t="n">
-        <v>0.697032</v>
+        <v>0.700515</v>
       </c>
       <c r="D97" t="n">
-        <v>0.607254</v>
+        <v>0.634471</v>
       </c>
       <c r="E97" t="n">
-        <v>0.215447</v>
+        <v>0.233424</v>
       </c>
       <c r="F97" t="n">
-        <v>0.447463</v>
+        <v>0.463592</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.334743</v>
+        <v>0.340454</v>
       </c>
       <c r="C98" t="n">
-        <v>0.662015</v>
+        <v>0.718912</v>
       </c>
       <c r="D98" t="n">
-        <v>0.602896</v>
+        <v>0.630489</v>
       </c>
       <c r="E98" t="n">
-        <v>0.214053</v>
+        <v>0.231677</v>
       </c>
       <c r="F98" t="n">
-        <v>0.446075</v>
+        <v>0.4623</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.327825</v>
+        <v>0.333049</v>
       </c>
       <c r="C99" t="n">
-        <v>0.682943</v>
+        <v>0.694712</v>
       </c>
       <c r="D99" t="n">
-        <v>0.587517</v>
+        <v>0.622391</v>
       </c>
       <c r="E99" t="n">
-        <v>0.212757</v>
+        <v>0.230433</v>
       </c>
       <c r="F99" t="n">
-        <v>0.444949</v>
+        <v>0.46096</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.319676</v>
+        <v>0.325991</v>
       </c>
       <c r="C100" t="n">
-        <v>0.538029</v>
+        <v>0.68868</v>
       </c>
       <c r="D100" t="n">
-        <v>0.584016</v>
+        <v>0.622049</v>
       </c>
       <c r="E100" t="n">
-        <v>0.211672</v>
+        <v>0.229305</v>
       </c>
       <c r="F100" t="n">
-        <v>0.443351</v>
+        <v>0.459569</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.311767</v>
+        <v>0.318034</v>
       </c>
       <c r="C101" t="n">
-        <v>0.66245</v>
+        <v>0.694416</v>
       </c>
       <c r="D101" t="n">
-        <v>0.581584</v>
+        <v>0.616872</v>
       </c>
       <c r="E101" t="n">
-        <v>0.210578</v>
+        <v>0.228321</v>
       </c>
       <c r="F101" t="n">
-        <v>0.442439</v>
+        <v>0.458508</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.303604</v>
+        <v>0.309723</v>
       </c>
       <c r="C102" t="n">
-        <v>0.576821</v>
+        <v>0.625257</v>
       </c>
       <c r="D102" t="n">
-        <v>0.578856</v>
+        <v>0.611032</v>
       </c>
       <c r="E102" t="n">
-        <v>0.20975</v>
+        <v>0.227877</v>
       </c>
       <c r="F102" t="n">
-        <v>0.44145</v>
+        <v>0.457797</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.294473</v>
+        <v>0.301636</v>
       </c>
       <c r="C103" t="n">
-        <v>0.627147</v>
+        <v>0.648281</v>
       </c>
       <c r="D103" t="n">
-        <v>0.57307</v>
+        <v>0.607289</v>
       </c>
       <c r="E103" t="n">
-        <v>0.208904</v>
+        <v>0.226687</v>
       </c>
       <c r="F103" t="n">
-        <v>0.440254</v>
+        <v>0.45647</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.284346</v>
+        <v>0.291432</v>
       </c>
       <c r="C104" t="n">
-        <v>0.5843930000000001</v>
+        <v>0.604946</v>
       </c>
       <c r="D104" t="n">
-        <v>0.573838</v>
+        <v>0.601801</v>
       </c>
       <c r="E104" t="n">
-        <v>0.208387</v>
+        <v>0.225902</v>
       </c>
       <c r="F104" t="n">
-        <v>0.439501</v>
+        <v>0.455786</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.274153</v>
+        <v>0.281791</v>
       </c>
       <c r="C105" t="n">
-        <v>0.520407</v>
+        <v>0.536882</v>
       </c>
       <c r="D105" t="n">
-        <v>0.566307</v>
+        <v>0.6031</v>
       </c>
       <c r="E105" t="n">
-        <v>0.208649</v>
+        <v>0.239998</v>
       </c>
       <c r="F105" t="n">
-        <v>0.438334</v>
+        <v>0.454905</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.262818</v>
+        <v>0.270806</v>
       </c>
       <c r="C106" t="n">
-        <v>0.537554</v>
+        <v>0.645778</v>
       </c>
       <c r="D106" t="n">
-        <v>0.563221</v>
+        <v>0.5967209999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>0.20762</v>
+        <v>0.239786</v>
       </c>
       <c r="F106" t="n">
-        <v>0.437583</v>
+        <v>0.454435</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.249925</v>
+        <v>0.258394</v>
       </c>
       <c r="C107" t="n">
-        <v>0.597943</v>
+        <v>0.568021</v>
       </c>
       <c r="D107" t="n">
-        <v>0.625973</v>
+        <v>0.643835</v>
       </c>
       <c r="E107" t="n">
-        <v>0.207385</v>
+        <v>0.239446</v>
       </c>
       <c r="F107" t="n">
-        <v>0.436771</v>
+        <v>0.453547</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.236078</v>
+        <v>0.245567</v>
       </c>
       <c r="C108" t="n">
-        <v>0.554235</v>
+        <v>0.55764</v>
       </c>
       <c r="D108" t="n">
-        <v>0.623514</v>
+        <v>0.644563</v>
       </c>
       <c r="E108" t="n">
-        <v>0.221294</v>
+        <v>0.241391</v>
       </c>
       <c r="F108" t="n">
-        <v>0.452714</v>
+        <v>0.468264</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.221727</v>
+        <v>0.229891</v>
       </c>
       <c r="C109" t="n">
-        <v>0.482946</v>
+        <v>0.478971</v>
       </c>
       <c r="D109" t="n">
-        <v>0.619614</v>
+        <v>0.629852</v>
       </c>
       <c r="E109" t="n">
-        <v>0.219078</v>
+        <v>0.237643</v>
       </c>
       <c r="F109" t="n">
-        <v>0.450964</v>
+        <v>0.464885</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.347492</v>
+        <v>0.354214</v>
       </c>
       <c r="C110" t="n">
-        <v>0.692663</v>
+        <v>0.636887</v>
       </c>
       <c r="D110" t="n">
-        <v>0.601268</v>
+        <v>0.631027</v>
       </c>
       <c r="E110" t="n">
-        <v>0.217192</v>
+        <v>0.235704</v>
       </c>
       <c r="F110" t="n">
-        <v>0.450053</v>
+        <v>0.46544</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.341711</v>
+        <v>0.348404</v>
       </c>
       <c r="C111" t="n">
-        <v>0.610198</v>
+        <v>0.689331</v>
       </c>
       <c r="D111" t="n">
-        <v>0.598009</v>
+        <v>0.621801</v>
       </c>
       <c r="E111" t="n">
-        <v>0.215777</v>
+        <v>0.234384</v>
       </c>
       <c r="F111" t="n">
-        <v>0.44814</v>
+        <v>0.463646</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.335218</v>
+        <v>0.341908</v>
       </c>
       <c r="C112" t="n">
-        <v>0.58777</v>
+        <v>0.600827</v>
       </c>
       <c r="D112" t="n">
-        <v>0.594083</v>
+        <v>0.620974</v>
       </c>
       <c r="E112" t="n">
-        <v>0.214331</v>
+        <v>0.232677</v>
       </c>
       <c r="F112" t="n">
-        <v>0.446458</v>
+        <v>0.462345</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.328559</v>
+        <v>0.334829</v>
       </c>
       <c r="C113" t="n">
-        <v>0.70053</v>
+        <v>0.74292</v>
       </c>
       <c r="D113" t="n">
-        <v>0.600865</v>
+        <v>0.625127</v>
       </c>
       <c r="E113" t="n">
-        <v>0.213049</v>
+        <v>0.231686</v>
       </c>
       <c r="F113" t="n">
-        <v>0.44518</v>
+        <v>0.461222</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.321328</v>
+        <v>0.327615</v>
       </c>
       <c r="C114" t="n">
-        <v>0.630858</v>
+        <v>0.651012</v>
       </c>
       <c r="D114" t="n">
-        <v>0.594841</v>
+        <v>0.619083</v>
       </c>
       <c r="E114" t="n">
-        <v>0.212442</v>
+        <v>0.243501</v>
       </c>
       <c r="F114" t="n">
-        <v>0.44397</v>
+        <v>0.460078</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.313502</v>
+        <v>0.319773</v>
       </c>
       <c r="C115" t="n">
-        <v>0.571531</v>
+        <v>0.706284</v>
       </c>
       <c r="D115" t="n">
-        <v>0.581282</v>
+        <v>0.610804</v>
       </c>
       <c r="E115" t="n">
-        <v>0.210944</v>
+        <v>0.228914</v>
       </c>
       <c r="F115" t="n">
-        <v>0.442501</v>
+        <v>0.458686</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.30525</v>
+        <v>0.311676</v>
       </c>
       <c r="C116" t="n">
-        <v>0.66375</v>
+        <v>0.681808</v>
       </c>
       <c r="D116" t="n">
-        <v>0.5838449999999999</v>
+        <v>0.608912</v>
       </c>
       <c r="E116" t="n">
-        <v>0.209976</v>
+        <v>0.228893</v>
       </c>
       <c r="F116" t="n">
-        <v>0.44185</v>
+        <v>0.4568</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.29624</v>
+        <v>0.302796</v>
       </c>
       <c r="C117" t="n">
-        <v>0.642275</v>
+        <v>0.657166</v>
       </c>
       <c r="D117" t="n">
-        <v>0.577817</v>
+        <v>0.603998</v>
       </c>
       <c r="E117" t="n">
-        <v>0.209111</v>
+        <v>0.227266</v>
       </c>
       <c r="F117" t="n">
-        <v>0.440667</v>
+        <v>0.456865</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.286731</v>
+        <v>0.293681</v>
       </c>
       <c r="C118" t="n">
-        <v>0.652748</v>
+        <v>0.666853</v>
       </c>
       <c r="D118" t="n">
-        <v>0.572912</v>
+        <v>0.601747</v>
       </c>
       <c r="E118" t="n">
-        <v>0.206559</v>
+        <v>0.240687</v>
       </c>
       <c r="F118" t="n">
-        <v>0.439682</v>
+        <v>0.454621</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.276752</v>
+        <v>0.283803</v>
       </c>
       <c r="C119" t="n">
-        <v>0.618695</v>
+        <v>0.644518</v>
       </c>
       <c r="D119" t="n">
-        <v>0.567659</v>
+        <v>0.5920800000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>0.20609</v>
+        <v>0.24004</v>
       </c>
       <c r="F119" t="n">
-        <v>0.438724</v>
+        <v>0.454966</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.265401</v>
+        <v>0.27314</v>
       </c>
       <c r="C120" t="n">
-        <v>0.620712</v>
+        <v>0.6440940000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.5656639999999999</v>
+        <v>0.587167</v>
       </c>
       <c r="E120" t="n">
-        <v>0.207982</v>
+        <v>0.239944</v>
       </c>
       <c r="F120" t="n">
-        <v>0.437956</v>
+        <v>0.454134</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.25272</v>
+        <v>0.261402</v>
       </c>
       <c r="C121" t="n">
-        <v>0.601116</v>
+        <v>0.629264</v>
       </c>
       <c r="D121" t="n">
-        <v>0.637506</v>
+        <v>0.660574</v>
       </c>
       <c r="E121" t="n">
-        <v>0.207861</v>
+        <v>0.239172</v>
       </c>
       <c r="F121" t="n">
-        <v>0.437018</v>
+        <v>0.453502</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.239537</v>
+        <v>0.248494</v>
       </c>
       <c r="C122" t="n">
-        <v>0.558024</v>
+        <v>0.575724</v>
       </c>
       <c r="D122" t="n">
-        <v>0.615864</v>
+        <v>0.645779</v>
       </c>
       <c r="E122" t="n">
-        <v>0.207406</v>
+        <v>0.239131</v>
       </c>
       <c r="F122" t="n">
-        <v>0.436323</v>
+        <v>0.451838</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.224905</v>
+        <v>0.234276</v>
       </c>
       <c r="C123" t="n">
-        <v>0.597207</v>
+        <v>0.614583</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6331059999999999</v>
+        <v>0.65469</v>
       </c>
       <c r="E123" t="n">
-        <v>0.218053</v>
+        <v>0.239831</v>
       </c>
       <c r="F123" t="n">
-        <v>0.451633</v>
+        <v>0.46706</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.348897</v>
+        <v>0.355979</v>
       </c>
       <c r="C124" t="n">
-        <v>0.703932</v>
+        <v>0.689245</v>
       </c>
       <c r="D124" t="n">
-        <v>0.62791</v>
+        <v>0.651714</v>
       </c>
       <c r="E124" t="n">
-        <v>0.217422</v>
+        <v>0.239417</v>
       </c>
       <c r="F124" t="n">
-        <v>0.449606</v>
+        <v>0.465499</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.343062</v>
+        <v>0.349687</v>
       </c>
       <c r="C125" t="n">
-        <v>0.588843</v>
+        <v>0.799561</v>
       </c>
       <c r="D125" t="n">
-        <v>0.622955</v>
+        <v>0.647747</v>
       </c>
       <c r="E125" t="n">
-        <v>0.215737</v>
+        <v>0.237142</v>
       </c>
       <c r="F125" t="n">
-        <v>0.448585</v>
+        <v>0.463894</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336908</v>
+        <v>0.343398</v>
       </c>
       <c r="C126" t="n">
-        <v>0.721606</v>
+        <v>0.739489</v>
       </c>
       <c r="D126" t="n">
-        <v>0.616115</v>
+        <v>0.640429</v>
       </c>
       <c r="E126" t="n">
-        <v>0.21435</v>
+        <v>0.235131</v>
       </c>
       <c r="F126" t="n">
-        <v>0.446619</v>
+        <v>0.462618</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.330221</v>
+        <v>0.337066</v>
       </c>
       <c r="C127" t="n">
-        <v>0.635804</v>
+        <v>0.65993</v>
       </c>
       <c r="D127" t="n">
-        <v>0.597454</v>
+        <v>0.627038</v>
       </c>
       <c r="E127" t="n">
-        <v>0.213131</v>
+        <v>0.234141</v>
       </c>
       <c r="F127" t="n">
-        <v>0.445581</v>
+        <v>0.456556</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.323258</v>
+        <v>0.329459</v>
       </c>
       <c r="C128" t="n">
-        <v>0.586319</v>
+        <v>0.599994</v>
       </c>
       <c r="D128" t="n">
-        <v>0.606355</v>
+        <v>0.62521</v>
       </c>
       <c r="E128" t="n">
-        <v>0.211937</v>
+        <v>0.233746</v>
       </c>
       <c r="F128" t="n">
-        <v>0.444424</v>
+        <v>0.455344</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.31549</v>
+        <v>0.321763</v>
       </c>
       <c r="C129" t="n">
-        <v>0.574999</v>
+        <v>0.709958</v>
       </c>
       <c r="D129" t="n">
-        <v>0.590224</v>
+        <v>0.613645</v>
       </c>
       <c r="E129" t="n">
-        <v>0.210845</v>
+        <v>0.232661</v>
       </c>
       <c r="F129" t="n">
-        <v>0.442866</v>
+        <v>0.453667</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.306884</v>
+        <v>0.31398</v>
       </c>
       <c r="C130" t="n">
-        <v>0.541869</v>
+        <v>0.5526720000000001</v>
       </c>
       <c r="D130" t="n">
-        <v>0.593596</v>
+        <v>0.614951</v>
       </c>
       <c r="E130" t="n">
-        <v>0.209982</v>
+        <v>0.230893</v>
       </c>
       <c r="F130" t="n">
-        <v>0.442827</v>
+        <v>0.452592</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.298218</v>
+        <v>0.305066</v>
       </c>
       <c r="C131" t="n">
-        <v>0.618331</v>
+        <v>0.617618</v>
       </c>
       <c r="D131" t="n">
-        <v>0.581986</v>
+        <v>0.604858</v>
       </c>
       <c r="E131" t="n">
-        <v>0.209217</v>
+        <v>0.23333</v>
       </c>
       <c r="F131" t="n">
-        <v>0.440914</v>
+        <v>0.451594</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.288432</v>
+        <v>0.296436</v>
       </c>
       <c r="C132" t="n">
-        <v>0.533236</v>
+        <v>0.541899</v>
       </c>
       <c r="D132" t="n">
-        <v>0.581445</v>
+        <v>0.600058</v>
       </c>
       <c r="E132" t="n">
-        <v>0.20918</v>
+        <v>0.240781</v>
       </c>
       <c r="F132" t="n">
-        <v>0.4398</v>
+        <v>0.450508</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.278065</v>
+        <v>0.286528</v>
       </c>
       <c r="C133" t="n">
-        <v>0.649755</v>
+        <v>0.666957</v>
       </c>
       <c r="D133" t="n">
-        <v>0.575358</v>
+        <v>0.595145</v>
       </c>
       <c r="E133" t="n">
-        <v>0.208375</v>
+        <v>0.240175</v>
       </c>
       <c r="F133" t="n">
-        <v>0.438898</v>
+        <v>0.449816</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.26716</v>
+        <v>0.276025</v>
       </c>
       <c r="C134" t="n">
-        <v>0.613254</v>
+        <v>0.626237</v>
       </c>
       <c r="D134" t="n">
-        <v>0.56986</v>
+        <v>0.593453</v>
       </c>
       <c r="E134" t="n">
-        <v>0.205512</v>
+        <v>0.239885</v>
       </c>
       <c r="F134" t="n">
-        <v>0.43826</v>
+        <v>0.449123</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.255011</v>
+        <v>0.264606</v>
       </c>
       <c r="C135" t="n">
-        <v>0.503466</v>
+        <v>0.624759</v>
       </c>
       <c r="D135" t="n">
-        <v>0.623312</v>
+        <v>0.659285</v>
       </c>
       <c r="E135" t="n">
-        <v>0.207507</v>
+        <v>0.226815</v>
       </c>
       <c r="F135" t="n">
-        <v>0.438025</v>
+        <v>0.448327</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.242054</v>
+        <v>0.251671</v>
       </c>
       <c r="C136" t="n">
-        <v>0.487261</v>
+        <v>0.519463</v>
       </c>
       <c r="D136" t="n">
-        <v>0.640594</v>
+        <v>0.660231</v>
       </c>
       <c r="E136" t="n">
-        <v>0.207761</v>
+        <v>0.228425</v>
       </c>
       <c r="F136" t="n">
-        <v>0.436594</v>
+        <v>0.447863</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.227681</v>
+        <v>0.238565</v>
       </c>
       <c r="C137" t="n">
-        <v>0.577982</v>
+        <v>0.560273</v>
       </c>
       <c r="D137" t="n">
-        <v>0.618393</v>
+        <v>0.656388</v>
       </c>
       <c r="E137" t="n">
-        <v>0.218645</v>
+        <v>0.251978</v>
       </c>
       <c r="F137" t="n">
-        <v>0.451734</v>
+        <v>0.461892</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.350164</v>
+        <v>0.357098</v>
       </c>
       <c r="C138" t="n">
-        <v>0.63725</v>
+        <v>0.735094</v>
       </c>
       <c r="D138" t="n">
-        <v>0.6172530000000001</v>
+        <v>0.640247</v>
       </c>
       <c r="E138" t="n">
-        <v>0.217816</v>
+        <v>0.242237</v>
       </c>
       <c r="F138" t="n">
-        <v>0.453789</v>
+        <v>0.460243</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344688</v>
+        <v>0.351436</v>
       </c>
       <c r="C139" t="n">
-        <v>0.617982</v>
+        <v>0.669189</v>
       </c>
       <c r="D139" t="n">
-        <v>0.61547</v>
+        <v>0.6364570000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>0.216193</v>
+        <v>0.239835</v>
       </c>
       <c r="F139" t="n">
-        <v>0.449156</v>
+        <v>0.459438</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338649</v>
+        <v>0.345378</v>
       </c>
       <c r="C140" t="n">
-        <v>0.669849</v>
+        <v>0.603599</v>
       </c>
       <c r="D140" t="n">
-        <v>0.611109</v>
+        <v>0.636849</v>
       </c>
       <c r="E140" t="n">
-        <v>0.2148</v>
+        <v>0.236886</v>
       </c>
       <c r="F140" t="n">
-        <v>0.447109</v>
+        <v>0.457876</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.332076</v>
+        <v>0.338438</v>
       </c>
       <c r="C141" t="n">
-        <v>0.667825</v>
+        <v>0.6885019999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.618471</v>
+        <v>0.636114</v>
       </c>
       <c r="E141" t="n">
-        <v>0.213569</v>
+        <v>0.236417</v>
       </c>
       <c r="F141" t="n">
-        <v>0.446799</v>
+        <v>0.456069</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.324707</v>
+        <v>0.331545</v>
       </c>
       <c r="C142" t="n">
-        <v>0.614259</v>
+        <v>0.62536</v>
       </c>
       <c r="D142" t="n">
-        <v>0.614127</v>
+        <v>0.630073</v>
       </c>
       <c r="E142" t="n">
-        <v>0.212471</v>
+        <v>0.237968</v>
       </c>
       <c r="F142" t="n">
-        <v>0.444576</v>
+        <v>0.455405</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.316846</v>
+        <v>0.323681</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7145</v>
+        <v>0.749095</v>
       </c>
       <c r="D143" t="n">
-        <v>0.602953</v>
+        <v>0.624296</v>
       </c>
       <c r="E143" t="n">
-        <v>0.211538</v>
+        <v>0.243398</v>
       </c>
       <c r="F143" t="n">
-        <v>0.443561</v>
+        <v>0.453817</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.300233</v>
+        <v>0.29995</v>
       </c>
       <c r="C2" t="n">
-        <v>0.516722</v>
+        <v>0.516962</v>
       </c>
       <c r="D2" t="n">
-        <v>0.422849</v>
+        <v>0.421006</v>
       </c>
       <c r="E2" t="n">
-        <v>0.213589</v>
+        <v>0.200221</v>
       </c>
       <c r="F2" t="n">
-        <v>0.446681</v>
+        <v>0.447009</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.295066</v>
+        <v>0.295356</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5058820000000001</v>
+        <v>0.514965</v>
       </c>
       <c r="D3" t="n">
-        <v>0.424955</v>
+        <v>0.421683</v>
       </c>
       <c r="E3" t="n">
-        <v>0.203468</v>
+        <v>0.203189</v>
       </c>
       <c r="F3" t="n">
-        <v>0.444025</v>
+        <v>0.44318</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.287054</v>
+        <v>0.287083</v>
       </c>
       <c r="C4" t="n">
-        <v>0.498035</v>
+        <v>0.497998</v>
       </c>
       <c r="D4" t="n">
-        <v>0.425602</v>
+        <v>0.42399</v>
       </c>
       <c r="E4" t="n">
-        <v>0.221849</v>
+        <v>0.205419</v>
       </c>
       <c r="F4" t="n">
-        <v>0.445348</v>
+        <v>0.445514</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.275622</v>
+        <v>0.278222</v>
       </c>
       <c r="C5" t="n">
-        <v>0.49462</v>
+        <v>0.495249</v>
       </c>
       <c r="D5" t="n">
-        <v>0.427818</v>
+        <v>0.429468</v>
       </c>
       <c r="E5" t="n">
-        <v>0.207901</v>
+        <v>0.206745</v>
       </c>
       <c r="F5" t="n">
-        <v>0.444596</v>
+        <v>0.443511</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.263938</v>
+        <v>0.265012</v>
       </c>
       <c r="C6" t="n">
-        <v>0.479158</v>
+        <v>0.477234</v>
       </c>
       <c r="D6" t="n">
-        <v>0.428513</v>
+        <v>0.428433</v>
       </c>
       <c r="E6" t="n">
-        <v>0.208683</v>
+        <v>0.207761</v>
       </c>
       <c r="F6" t="n">
-        <v>0.442694</v>
+        <v>0.442021</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.255543</v>
+        <v>0.255467</v>
       </c>
       <c r="C7" t="n">
-        <v>0.466493</v>
+        <v>0.466949</v>
       </c>
       <c r="D7" t="n">
-        <v>0.424383</v>
+        <v>0.424033</v>
       </c>
       <c r="E7" t="n">
-        <v>0.22558</v>
+        <v>0.209509</v>
       </c>
       <c r="F7" t="n">
-        <v>0.44173</v>
+        <v>0.441832</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.243235</v>
+        <v>0.23997</v>
       </c>
       <c r="C8" t="n">
-        <v>0.454244</v>
+        <v>0.453909</v>
       </c>
       <c r="D8" t="n">
-        <v>0.426095</v>
+        <v>0.425743</v>
       </c>
       <c r="E8" t="n">
-        <v>0.210221</v>
+        <v>0.210104</v>
       </c>
       <c r="F8" t="n">
-        <v>0.440064</v>
+        <v>0.440037</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.229604</v>
+        <v>0.225832</v>
       </c>
       <c r="C9" t="n">
-        <v>0.439953</v>
+        <v>0.439668</v>
       </c>
       <c r="D9" t="n">
-        <v>0.427689</v>
+        <v>0.425967</v>
       </c>
       <c r="E9" t="n">
-        <v>0.226738</v>
+        <v>0.227656</v>
       </c>
       <c r="F9" t="n">
-        <v>0.456509</v>
+        <v>0.45666</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.350305</v>
+        <v>0.349623</v>
       </c>
       <c r="C10" t="n">
-        <v>0.564859</v>
+        <v>0.5648919999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.426231</v>
+        <v>0.424652</v>
       </c>
       <c r="E10" t="n">
-        <v>0.22708</v>
+        <v>0.226809</v>
       </c>
       <c r="F10" t="n">
-        <v>0.456342</v>
+        <v>0.456698</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.345302</v>
+        <v>0.345305</v>
       </c>
       <c r="C11" t="n">
-        <v>0.548729</v>
+        <v>0.548849</v>
       </c>
       <c r="D11" t="n">
-        <v>0.426753</v>
+        <v>0.426842</v>
       </c>
       <c r="E11" t="n">
-        <v>0.225274</v>
+        <v>0.240408</v>
       </c>
       <c r="F11" t="n">
-        <v>0.459022</v>
+        <v>0.455512</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.339568</v>
+        <v>0.340343</v>
       </c>
       <c r="C12" t="n">
-        <v>0.561908</v>
+        <v>0.556435</v>
       </c>
       <c r="D12" t="n">
-        <v>0.434943</v>
+        <v>0.425245</v>
       </c>
       <c r="E12" t="n">
-        <v>0.224909</v>
+        <v>0.239888</v>
       </c>
       <c r="F12" t="n">
-        <v>0.459161</v>
+        <v>0.454208</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.33392</v>
+        <v>0.33391</v>
       </c>
       <c r="C13" t="n">
-        <v>0.552029</v>
+        <v>0.5463249999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.435289</v>
+        <v>0.426883</v>
       </c>
       <c r="E13" t="n">
-        <v>0.224263</v>
+        <v>0.224533</v>
       </c>
       <c r="F13" t="n">
-        <v>0.457398</v>
+        <v>0.451928</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.326884</v>
+        <v>0.326333</v>
       </c>
       <c r="C14" t="n">
-        <v>0.549141</v>
+        <v>0.542953</v>
       </c>
       <c r="D14" t="n">
-        <v>0.438309</v>
+        <v>0.429394</v>
       </c>
       <c r="E14" t="n">
-        <v>0.224837</v>
+        <v>0.224786</v>
       </c>
       <c r="F14" t="n">
-        <v>0.455828</v>
+        <v>0.450907</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.320836</v>
+        <v>0.320798</v>
       </c>
       <c r="C15" t="n">
-        <v>0.540455</v>
+        <v>0.534486</v>
       </c>
       <c r="D15" t="n">
-        <v>0.438552</v>
+        <v>0.430755</v>
       </c>
       <c r="E15" t="n">
-        <v>0.223656</v>
+        <v>0.223913</v>
       </c>
       <c r="F15" t="n">
-        <v>0.455131</v>
+        <v>0.44982</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.313076</v>
+        <v>0.312266</v>
       </c>
       <c r="C16" t="n">
-        <v>0.530896</v>
+        <v>0.524632</v>
       </c>
       <c r="D16" t="n">
-        <v>0.439975</v>
+        <v>0.432135</v>
       </c>
       <c r="E16" t="n">
-        <v>0.223875</v>
+        <v>0.223685</v>
       </c>
       <c r="F16" t="n">
-        <v>0.454199</v>
+        <v>0.449252</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.303543</v>
+        <v>0.302467</v>
       </c>
       <c r="C17" t="n">
-        <v>0.528981</v>
+        <v>0.522925</v>
       </c>
       <c r="D17" t="n">
-        <v>0.441283</v>
+        <v>0.432446</v>
       </c>
       <c r="E17" t="n">
-        <v>0.223937</v>
+        <v>0.224131</v>
       </c>
       <c r="F17" t="n">
-        <v>0.45362</v>
+        <v>0.448497</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.294096</v>
+        <v>0.293658</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5120170000000001</v>
+        <v>0.505309</v>
       </c>
       <c r="D18" t="n">
-        <v>0.443106</v>
+        <v>0.434211</v>
       </c>
       <c r="E18" t="n">
-        <v>0.222219</v>
+        <v>0.222458</v>
       </c>
       <c r="F18" t="n">
-        <v>0.453014</v>
+        <v>0.447852</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.285347</v>
+        <v>0.285599</v>
       </c>
       <c r="C19" t="n">
-        <v>0.507489</v>
+        <v>0.5008629999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.445515</v>
+        <v>0.435131</v>
       </c>
       <c r="E19" t="n">
-        <v>0.222595</v>
+        <v>0.22262</v>
       </c>
       <c r="F19" t="n">
-        <v>0.450809</v>
+        <v>0.445672</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.273714</v>
+        <v>0.27384</v>
       </c>
       <c r="C20" t="n">
-        <v>0.49736</v>
+        <v>0.490556</v>
       </c>
       <c r="D20" t="n">
-        <v>0.443505</v>
+        <v>0.435004</v>
       </c>
       <c r="E20" t="n">
-        <v>0.221957</v>
+        <v>0.222626</v>
       </c>
       <c r="F20" t="n">
-        <v>0.451186</v>
+        <v>0.445795</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.263244</v>
+        <v>0.263943</v>
       </c>
       <c r="C21" t="n">
-        <v>0.47684</v>
+        <v>0.469788</v>
       </c>
       <c r="D21" t="n">
-        <v>0.439396</v>
+        <v>0.431183</v>
       </c>
       <c r="E21" t="n">
-        <v>0.22272</v>
+        <v>0.221939</v>
       </c>
       <c r="F21" t="n">
-        <v>0.450846</v>
+        <v>0.445811</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.249599</v>
+        <v>0.254253</v>
       </c>
       <c r="C22" t="n">
-        <v>0.469186</v>
+        <v>0.462915</v>
       </c>
       <c r="D22" t="n">
-        <v>0.43775</v>
+        <v>0.429443</v>
       </c>
       <c r="E22" t="n">
-        <v>0.222285</v>
+        <v>0.236714</v>
       </c>
       <c r="F22" t="n">
-        <v>0.449876</v>
+        <v>0.444987</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.236319</v>
+        <v>0.240565</v>
       </c>
       <c r="C23" t="n">
-        <v>0.448064</v>
+        <v>0.440005</v>
       </c>
       <c r="D23" t="n">
-        <v>0.443599</v>
+        <v>0.432829</v>
       </c>
       <c r="E23" t="n">
-        <v>0.249449</v>
+        <v>0.243763</v>
       </c>
       <c r="F23" t="n">
-        <v>0.466028</v>
+        <v>0.461067</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.352964</v>
+        <v>0.353289</v>
       </c>
       <c r="C24" t="n">
-        <v>0.574588</v>
+        <v>0.569906</v>
       </c>
       <c r="D24" t="n">
-        <v>0.440729</v>
+        <v>0.432375</v>
       </c>
       <c r="E24" t="n">
-        <v>0.247053</v>
+        <v>0.233483</v>
       </c>
       <c r="F24" t="n">
-        <v>0.464581</v>
+        <v>0.464426</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.34774</v>
+        <v>0.347914</v>
       </c>
       <c r="C25" t="n">
-        <v>0.567612</v>
+        <v>0.567813</v>
       </c>
       <c r="D25" t="n">
-        <v>0.440846</v>
+        <v>0.44111</v>
       </c>
       <c r="E25" t="n">
-        <v>0.232271</v>
+        <v>0.232002</v>
       </c>
       <c r="F25" t="n">
-        <v>0.463834</v>
+        <v>0.463632</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.341694</v>
+        <v>0.341743</v>
       </c>
       <c r="C26" t="n">
-        <v>0.561462</v>
+        <v>0.561306</v>
       </c>
       <c r="D26" t="n">
-        <v>0.440959</v>
+        <v>0.442823</v>
       </c>
       <c r="E26" t="n">
-        <v>0.231468</v>
+        <v>0.231198</v>
       </c>
       <c r="F26" t="n">
-        <v>0.462543</v>
+        <v>0.46248</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.336206</v>
+        <v>0.337335</v>
       </c>
       <c r="C27" t="n">
-        <v>0.552277</v>
+        <v>0.551983</v>
       </c>
       <c r="D27" t="n">
-        <v>0.442014</v>
+        <v>0.442254</v>
       </c>
       <c r="E27" t="n">
-        <v>0.230208</v>
+        <v>0.230304</v>
       </c>
       <c r="F27" t="n">
-        <v>0.461285</v>
+        <v>0.461211</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.329916</v>
+        <v>0.331049</v>
       </c>
       <c r="C28" t="n">
-        <v>0.546082</v>
+        <v>0.548156</v>
       </c>
       <c r="D28" t="n">
-        <v>0.443096</v>
+        <v>0.443506</v>
       </c>
       <c r="E28" t="n">
-        <v>0.229389</v>
+        <v>0.229247</v>
       </c>
       <c r="F28" t="n">
-        <v>0.458669</v>
+        <v>0.458673</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.3228</v>
+        <v>0.32366</v>
       </c>
       <c r="C29" t="n">
-        <v>0.543483</v>
+        <v>0.543544</v>
       </c>
       <c r="D29" t="n">
-        <v>0.442526</v>
+        <v>0.446026</v>
       </c>
       <c r="E29" t="n">
-        <v>0.228398</v>
+        <v>0.228548</v>
       </c>
       <c r="F29" t="n">
-        <v>0.458341</v>
+        <v>0.458414</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.314557</v>
+        <v>0.314433</v>
       </c>
       <c r="C30" t="n">
-        <v>0.534907</v>
+        <v>0.535088</v>
       </c>
       <c r="D30" t="n">
-        <v>0.442698</v>
+        <v>0.44478</v>
       </c>
       <c r="E30" t="n">
-        <v>0.227372</v>
+        <v>0.226815</v>
       </c>
       <c r="F30" t="n">
-        <v>0.458045</v>
+        <v>0.457924</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.304902</v>
+        <v>0.305076</v>
       </c>
       <c r="C31" t="n">
-        <v>0.520113</v>
+        <v>0.520042</v>
       </c>
       <c r="D31" t="n">
-        <v>0.444478</v>
+        <v>0.444582</v>
       </c>
       <c r="E31" t="n">
-        <v>0.226069</v>
+        <v>0.226369</v>
       </c>
       <c r="F31" t="n">
-        <v>0.456181</v>
+        <v>0.456312</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.29676</v>
+        <v>0.296794</v>
       </c>
       <c r="C32" t="n">
-        <v>0.516659</v>
+        <v>0.51654</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4456</v>
+        <v>0.44662</v>
       </c>
       <c r="E32" t="n">
-        <v>0.225591</v>
+        <v>0.225623</v>
       </c>
       <c r="F32" t="n">
-        <v>0.455214</v>
+        <v>0.454924</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.288028</v>
+        <v>0.287837</v>
       </c>
       <c r="C33" t="n">
-        <v>0.50957</v>
+        <v>0.509632</v>
       </c>
       <c r="D33" t="n">
-        <v>0.44591</v>
+        <v>0.447722</v>
       </c>
       <c r="E33" t="n">
-        <v>0.224897</v>
+        <v>0.224947</v>
       </c>
       <c r="F33" t="n">
-        <v>0.454146</v>
+        <v>0.453981</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.277429</v>
+        <v>0.277089</v>
       </c>
       <c r="C34" t="n">
-        <v>0.492283</v>
+        <v>0.49248</v>
       </c>
       <c r="D34" t="n">
-        <v>0.450084</v>
+        <v>0.448372</v>
       </c>
       <c r="E34" t="n">
-        <v>0.238633</v>
+        <v>0.224631</v>
       </c>
       <c r="F34" t="n">
-        <v>0.454019</v>
+        <v>0.453997</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.266923</v>
+        <v>0.266129</v>
       </c>
       <c r="C35" t="n">
-        <v>0.477434</v>
+        <v>0.477223</v>
       </c>
       <c r="D35" t="n">
-        <v>0.443342</v>
+        <v>0.443175</v>
       </c>
       <c r="E35" t="n">
-        <v>0.229097</v>
+        <v>0.238697</v>
       </c>
       <c r="F35" t="n">
-        <v>0.452865</v>
+        <v>0.453397</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.253625</v>
+        <v>0.25365</v>
       </c>
       <c r="C36" t="n">
-        <v>0.474343</v>
+        <v>0.47427</v>
       </c>
       <c r="D36" t="n">
-        <v>0.4434</v>
+        <v>0.443874</v>
       </c>
       <c r="E36" t="n">
-        <v>0.223789</v>
+        <v>0.224614</v>
       </c>
       <c r="F36" t="n">
-        <v>0.449971</v>
+        <v>0.452759</v>
       </c>
     </row>
     <row r="37">
@@ -5785,16 +5785,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.240002</v>
+        <v>0.240079</v>
       </c>
       <c r="C37" t="n">
-        <v>0.46236</v>
+        <v>0.462299</v>
       </c>
       <c r="D37" t="n">
-        <v>0.445503</v>
+        <v>0.446944</v>
       </c>
       <c r="E37" t="n">
-        <v>0.249967</v>
+        <v>0.250169</v>
       </c>
       <c r="F37" t="n">
         <v>0.466372</v>
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.357648</v>
+        <v>0.357547</v>
       </c>
       <c r="C38" t="n">
-        <v>0.564393</v>
+        <v>0.564887</v>
       </c>
       <c r="D38" t="n">
-        <v>0.444027</v>
+        <v>0.443915</v>
       </c>
       <c r="E38" t="n">
-        <v>0.23426</v>
+        <v>0.247382</v>
       </c>
       <c r="F38" t="n">
-        <v>0.464538</v>
+        <v>0.464617</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.352109</v>
+        <v>0.352161</v>
       </c>
       <c r="C39" t="n">
-        <v>0.559423</v>
+        <v>0.559746</v>
       </c>
       <c r="D39" t="n">
-        <v>0.444502</v>
+        <v>0.444422</v>
       </c>
       <c r="E39" t="n">
-        <v>0.246909</v>
+        <v>0.232355</v>
       </c>
       <c r="F39" t="n">
-        <v>0.463178</v>
+        <v>0.462754</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.346452</v>
+        <v>0.345891</v>
       </c>
       <c r="C40" t="n">
-        <v>0.553999</v>
+        <v>0.554193</v>
       </c>
       <c r="D40" t="n">
-        <v>0.445622</v>
+        <v>0.44531</v>
       </c>
       <c r="E40" t="n">
-        <v>0.231997</v>
+        <v>0.23158</v>
       </c>
       <c r="F40" t="n">
-        <v>0.46252</v>
+        <v>0.462502</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.339667</v>
+        <v>0.340105</v>
       </c>
       <c r="C41" t="n">
-        <v>0.549304</v>
+        <v>0.549461</v>
       </c>
       <c r="D41" t="n">
-        <v>0.44764</v>
+        <v>0.447354</v>
       </c>
       <c r="E41" t="n">
-        <v>0.230867</v>
+        <v>0.230853</v>
       </c>
       <c r="F41" t="n">
-        <v>0.461241</v>
+        <v>0.461025</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.332212</v>
+        <v>0.332394</v>
       </c>
       <c r="C42" t="n">
-        <v>0.54783</v>
+        <v>0.547852</v>
       </c>
       <c r="D42" t="n">
-        <v>0.445259</v>
+        <v>0.44752</v>
       </c>
       <c r="E42" t="n">
-        <v>0.229782</v>
+        <v>0.229624</v>
       </c>
       <c r="F42" t="n">
-        <v>0.459457</v>
+        <v>0.459365</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.324961</v>
+        <v>0.327114</v>
       </c>
       <c r="C43" t="n">
-        <v>0.538156</v>
+        <v>0.538282</v>
       </c>
       <c r="D43" t="n">
-        <v>0.447885</v>
+        <v>0.446442</v>
       </c>
       <c r="E43" t="n">
-        <v>0.228386</v>
+        <v>0.228495</v>
       </c>
       <c r="F43" t="n">
-        <v>0.458199</v>
+        <v>0.45824</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.318511</v>
+        <v>0.318244</v>
       </c>
       <c r="C44" t="n">
-        <v>0.534672</v>
+        <v>0.534529</v>
       </c>
       <c r="D44" t="n">
-        <v>0.447776</v>
+        <v>0.446632</v>
       </c>
       <c r="E44" t="n">
-        <v>0.227402</v>
+        <v>0.227465</v>
       </c>
       <c r="F44" t="n">
-        <v>0.456999</v>
+        <v>0.456945</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.309052</v>
+        <v>0.310216</v>
       </c>
       <c r="C45" t="n">
-        <v>0.526382</v>
+        <v>0.526434</v>
       </c>
       <c r="D45" t="n">
-        <v>0.447629</v>
+        <v>0.449588</v>
       </c>
       <c r="E45" t="n">
-        <v>0.227045</v>
+        <v>0.226867</v>
       </c>
       <c r="F45" t="n">
-        <v>0.456317</v>
+        <v>0.45627</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.300574</v>
+        <v>0.300678</v>
       </c>
       <c r="C46" t="n">
-        <v>0.518443</v>
+        <v>0.518689</v>
       </c>
       <c r="D46" t="n">
-        <v>0.450997</v>
+        <v>0.45159</v>
       </c>
       <c r="E46" t="n">
-        <v>0.22603</v>
+        <v>0.226072</v>
       </c>
       <c r="F46" t="n">
-        <v>0.45539</v>
+        <v>0.455343</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.291113</v>
+        <v>0.291878</v>
       </c>
       <c r="C47" t="n">
-        <v>0.515911</v>
+        <v>0.515858</v>
       </c>
       <c r="D47" t="n">
-        <v>0.450813</v>
+        <v>0.451482</v>
       </c>
       <c r="E47" t="n">
-        <v>0.225229</v>
+        <v>0.239704</v>
       </c>
       <c r="F47" t="n">
-        <v>0.45537</v>
+        <v>0.455089</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.28146</v>
+        <v>0.281947</v>
       </c>
       <c r="C48" t="n">
-        <v>0.501685</v>
+        <v>0.501642</v>
       </c>
       <c r="D48" t="n">
-        <v>0.453277</v>
+        <v>0.453976</v>
       </c>
       <c r="E48" t="n">
-        <v>0.238854</v>
+        <v>0.225076</v>
       </c>
       <c r="F48" t="n">
-        <v>0.45387</v>
+        <v>0.453908</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.270946</v>
+        <v>0.270883</v>
       </c>
       <c r="C49" t="n">
-        <v>0.487502</v>
+        <v>0.487609</v>
       </c>
       <c r="D49" t="n">
-        <v>0.453592</v>
+        <v>0.455123</v>
       </c>
       <c r="E49" t="n">
-        <v>0.238521</v>
+        <v>0.224565</v>
       </c>
       <c r="F49" t="n">
-        <v>0.453448</v>
+        <v>0.453403</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.258815</v>
+        <v>0.258506</v>
       </c>
       <c r="C50" t="n">
-        <v>0.478908</v>
+        <v>0.476304</v>
       </c>
       <c r="D50" t="n">
-        <v>0.453813</v>
+        <v>0.450486</v>
       </c>
       <c r="E50" t="n">
-        <v>0.237968</v>
+        <v>0.237888</v>
       </c>
       <c r="F50" t="n">
-        <v>0.452761</v>
+        <v>0.45285</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.24513</v>
+        <v>0.245289</v>
       </c>
       <c r="C51" t="n">
-        <v>0.45716</v>
+        <v>0.457666</v>
       </c>
       <c r="D51" t="n">
-        <v>0.452043</v>
+        <v>0.452054</v>
       </c>
       <c r="E51" t="n">
-        <v>0.236404</v>
+        <v>0.250712</v>
       </c>
       <c r="F51" t="n">
-        <v>0.467358</v>
+        <v>0.467232</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.230809</v>
+        <v>0.230856</v>
       </c>
       <c r="C52" t="n">
-        <v>0.450204</v>
+        <v>0.44959</v>
       </c>
       <c r="D52" t="n">
-        <v>0.452452</v>
+        <v>0.452798</v>
       </c>
       <c r="E52" t="n">
-        <v>0.248823</v>
+        <v>0.249091</v>
       </c>
       <c r="F52" t="n">
-        <v>0.466292</v>
+        <v>0.466195</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.354015</v>
+        <v>0.354371</v>
       </c>
       <c r="C53" t="n">
-        <v>0.571227</v>
+        <v>0.571052</v>
       </c>
       <c r="D53" t="n">
-        <v>0.451133</v>
+        <v>0.451831</v>
       </c>
       <c r="E53" t="n">
-        <v>0.233083</v>
+        <v>0.233323</v>
       </c>
       <c r="F53" t="n">
-        <v>0.46423</v>
+        <v>0.464075</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.348419</v>
+        <v>0.348861</v>
       </c>
       <c r="C54" t="n">
-        <v>0.556926</v>
+        <v>0.557763</v>
       </c>
       <c r="D54" t="n">
-        <v>0.452933</v>
+        <v>0.456334</v>
       </c>
       <c r="E54" t="n">
-        <v>0.232244</v>
+        <v>0.232142</v>
       </c>
       <c r="F54" t="n">
-        <v>0.463662</v>
+        <v>0.463467</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.341458</v>
+        <v>0.341899</v>
       </c>
       <c r="C55" t="n">
-        <v>0.566841</v>
+        <v>0.569549</v>
       </c>
       <c r="D55" t="n">
-        <v>0.453385</v>
+        <v>0.459553</v>
       </c>
       <c r="E55" t="n">
-        <v>0.230792</v>
+        <v>0.230943</v>
       </c>
       <c r="F55" t="n">
-        <v>0.462077</v>
+        <v>0.461866</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.335357</v>
+        <v>0.33506</v>
       </c>
       <c r="C56" t="n">
-        <v>0.557725</v>
+        <v>0.561916</v>
       </c>
       <c r="D56" t="n">
-        <v>0.457301</v>
+        <v>0.459798</v>
       </c>
       <c r="E56" t="n">
-        <v>0.229998</v>
+        <v>0.244012</v>
       </c>
       <c r="F56" t="n">
-        <v>0.460902</v>
+        <v>0.46073</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.327372</v>
+        <v>0.327916</v>
       </c>
       <c r="C57" t="n">
-        <v>0.550045</v>
+        <v>0.550379</v>
       </c>
       <c r="D57" t="n">
-        <v>0.46044</v>
+        <v>0.459771</v>
       </c>
       <c r="E57" t="n">
-        <v>0.228687</v>
+        <v>0.228637</v>
       </c>
       <c r="F57" t="n">
-        <v>0.460291</v>
+        <v>0.459705</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.319678</v>
+        <v>0.320642</v>
       </c>
       <c r="C58" t="n">
-        <v>0.556545</v>
+        <v>0.558496</v>
       </c>
       <c r="D58" t="n">
-        <v>0.456962</v>
+        <v>0.463</v>
       </c>
       <c r="E58" t="n">
-        <v>0.227786</v>
+        <v>0.227848</v>
       </c>
       <c r="F58" t="n">
-        <v>0.456251</v>
+        <v>0.458197</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.311761</v>
+        <v>0.312118</v>
       </c>
       <c r="C59" t="n">
-        <v>0.531406</v>
+        <v>0.53225</v>
       </c>
       <c r="D59" t="n">
-        <v>0.461701</v>
+        <v>0.461373</v>
       </c>
       <c r="E59" t="n">
-        <v>0.227126</v>
+        <v>0.227127</v>
       </c>
       <c r="F59" t="n">
-        <v>0.457607</v>
+        <v>0.457174</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.303676</v>
+        <v>0.304054</v>
       </c>
       <c r="C60" t="n">
-        <v>0.546923</v>
+        <v>0.549175</v>
       </c>
       <c r="D60" t="n">
-        <v>0.464331</v>
+        <v>0.467114</v>
       </c>
       <c r="E60" t="n">
-        <v>0.22627</v>
+        <v>0.226346</v>
       </c>
       <c r="F60" t="n">
-        <v>0.456699</v>
+        <v>0.455394</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.294509</v>
+        <v>0.294502</v>
       </c>
       <c r="C61" t="n">
-        <v>0.540863</v>
+        <v>0.541741</v>
       </c>
       <c r="D61" t="n">
-        <v>0.468913</v>
+        <v>0.47124</v>
       </c>
       <c r="E61" t="n">
-        <v>0.22565</v>
+        <v>0.225678</v>
       </c>
       <c r="F61" t="n">
-        <v>0.455098</v>
+        <v>0.456281</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.284374</v>
+        <v>0.284349</v>
       </c>
       <c r="C62" t="n">
-        <v>0.537789</v>
+        <v>0.53651</v>
       </c>
       <c r="D62" t="n">
-        <v>0.476269</v>
+        <v>0.474779</v>
       </c>
       <c r="E62" t="n">
-        <v>0.224854</v>
+        <v>0.224924</v>
       </c>
       <c r="F62" t="n">
-        <v>0.454511</v>
+        <v>0.45476</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.273997</v>
+        <v>0.274386</v>
       </c>
       <c r="C63" t="n">
-        <v>0.501791</v>
+        <v>0.502508</v>
       </c>
       <c r="D63" t="n">
-        <v>0.475038</v>
+        <v>0.477097</v>
       </c>
       <c r="E63" t="n">
-        <v>0.238876</v>
+        <v>0.238773</v>
       </c>
       <c r="F63" t="n">
-        <v>0.453517</v>
+        <v>0.451649</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.261129</v>
+        <v>0.261298</v>
       </c>
       <c r="C64" t="n">
-        <v>0.495386</v>
+        <v>0.496341</v>
       </c>
       <c r="D64" t="n">
-        <v>0.516245</v>
+        <v>0.517266</v>
       </c>
       <c r="E64" t="n">
-        <v>0.226874</v>
+        <v>0.227407</v>
       </c>
       <c r="F64" t="n">
-        <v>0.453089</v>
+        <v>0.453596</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.248647</v>
+        <v>0.249512</v>
       </c>
       <c r="C65" t="n">
-        <v>0.49519</v>
+        <v>0.497721</v>
       </c>
       <c r="D65" t="n">
-        <v>0.516633</v>
+        <v>0.517454</v>
       </c>
       <c r="E65" t="n">
-        <v>0.223546</v>
+        <v>0.238241</v>
       </c>
       <c r="F65" t="n">
-        <v>0.452467</v>
+        <v>0.452658</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.234653</v>
+        <v>0.234858</v>
       </c>
       <c r="C66" t="n">
-        <v>0.479594</v>
+        <v>0.479137</v>
       </c>
       <c r="D66" t="n">
-        <v>0.520525</v>
+        <v>0.518143</v>
       </c>
       <c r="E66" t="n">
-        <v>0.241953</v>
+        <v>0.241312</v>
       </c>
       <c r="F66" t="n">
-        <v>0.466855</v>
+        <v>0.466954</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.355563</v>
+        <v>0.355688</v>
       </c>
       <c r="C67" t="n">
-        <v>0.632679</v>
+        <v>0.631387</v>
       </c>
       <c r="D67" t="n">
-        <v>0.528265</v>
+        <v>0.537346</v>
       </c>
       <c r="E67" t="n">
-        <v>0.252446</v>
+        <v>0.23907</v>
       </c>
       <c r="F67" t="n">
-        <v>0.465206</v>
+        <v>0.465356</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.349429</v>
+        <v>0.349861</v>
       </c>
       <c r="C68" t="n">
-        <v>0.655779</v>
+        <v>0.6519239999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.535944</v>
+        <v>0.535851</v>
       </c>
       <c r="E68" t="n">
-        <v>0.237287</v>
+        <v>0.236987</v>
       </c>
       <c r="F68" t="n">
-        <v>0.463925</v>
+        <v>0.46416</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.344869</v>
+        <v>0.343764</v>
       </c>
       <c r="C69" t="n">
-        <v>0.616179</v>
+        <v>0.615662</v>
       </c>
       <c r="D69" t="n">
-        <v>0.542746</v>
+        <v>0.542405</v>
       </c>
       <c r="E69" t="n">
-        <v>0.235553</v>
+        <v>0.235188</v>
       </c>
       <c r="F69" t="n">
-        <v>0.46215</v>
+        <v>0.462323</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.336513</v>
+        <v>0.336891</v>
       </c>
       <c r="C70" t="n">
-        <v>0.679466</v>
+        <v>0.676919</v>
       </c>
       <c r="D70" t="n">
-        <v>0.549319</v>
+        <v>0.5456220000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>0.233013</v>
+        <v>0.233051</v>
       </c>
       <c r="F70" t="n">
-        <v>0.461034</v>
+        <v>0.460937</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.329454</v>
+        <v>0.329896</v>
       </c>
       <c r="C71" t="n">
-        <v>0.656815</v>
+        <v>0.655273</v>
       </c>
       <c r="D71" t="n">
-        <v>0.560673</v>
+        <v>0.557965</v>
       </c>
       <c r="E71" t="n">
-        <v>0.231842</v>
+        <v>0.231815</v>
       </c>
       <c r="F71" t="n">
-        <v>0.460103</v>
+        <v>0.460137</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.321807</v>
+        <v>0.322499</v>
       </c>
       <c r="C72" t="n">
-        <v>0.655249</v>
+        <v>0.652052</v>
       </c>
       <c r="D72" t="n">
-        <v>0.561658</v>
+        <v>0.558609</v>
       </c>
       <c r="E72" t="n">
-        <v>0.229889</v>
+        <v>0.229887</v>
       </c>
       <c r="F72" t="n">
-        <v>0.459155</v>
+        <v>0.459239</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.314887</v>
+        <v>0.314664</v>
       </c>
       <c r="C73" t="n">
-        <v>0.644799</v>
+        <v>0.642074</v>
       </c>
       <c r="D73" t="n">
-        <v>0.564335</v>
+        <v>0.561225</v>
       </c>
       <c r="E73" t="n">
-        <v>0.228249</v>
+        <v>0.228204</v>
       </c>
       <c r="F73" t="n">
-        <v>0.458084</v>
+        <v>0.458076</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.305862</v>
+        <v>0.306001</v>
       </c>
       <c r="C74" t="n">
-        <v>0.618515</v>
+        <v>0.616812</v>
       </c>
       <c r="D74" t="n">
-        <v>0.569973</v>
+        <v>0.564676</v>
       </c>
       <c r="E74" t="n">
-        <v>0.226835</v>
+        <v>0.226993</v>
       </c>
       <c r="F74" t="n">
-        <v>0.457289</v>
+        <v>0.457253</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.296535</v>
+        <v>0.296936</v>
       </c>
       <c r="C75" t="n">
-        <v>0.604842</v>
+        <v>0.603526</v>
       </c>
       <c r="D75" t="n">
-        <v>0.568622</v>
+        <v>0.564051</v>
       </c>
       <c r="E75" t="n">
-        <v>0.226016</v>
+        <v>0.236664</v>
       </c>
       <c r="F75" t="n">
-        <v>0.456425</v>
+        <v>0.456127</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.287127</v>
+        <v>0.287062</v>
       </c>
       <c r="C76" t="n">
-        <v>0.589323</v>
+        <v>0.587602</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5715</v>
+        <v>0.566843</v>
       </c>
       <c r="E76" t="n">
-        <v>0.225372</v>
+        <v>0.239413</v>
       </c>
       <c r="F76" t="n">
-        <v>0.455143</v>
+        <v>0.455032</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.276427</v>
+        <v>0.27693</v>
       </c>
       <c r="C77" t="n">
-        <v>0.586941</v>
+        <v>0.586265</v>
       </c>
       <c r="D77" t="n">
-        <v>0.570071</v>
+        <v>0.570396</v>
       </c>
       <c r="E77" t="n">
-        <v>0.239072</v>
+        <v>0.234174</v>
       </c>
       <c r="F77" t="n">
-        <v>0.454532</v>
+        <v>0.454516</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.265084</v>
+        <v>0.264719</v>
       </c>
       <c r="C78" t="n">
-        <v>0.622961</v>
+        <v>0.622001</v>
       </c>
       <c r="D78" t="n">
-        <v>0.65125</v>
+        <v>0.650044</v>
       </c>
       <c r="E78" t="n">
-        <v>0.238486</v>
+        <v>0.23898</v>
       </c>
       <c r="F78" t="n">
-        <v>0.453548</v>
+        <v>0.453634</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.25236</v>
+        <v>0.252229</v>
       </c>
       <c r="C79" t="n">
-        <v>0.578674</v>
+        <v>0.57764</v>
       </c>
       <c r="D79" t="n">
-        <v>0.652007</v>
+        <v>0.652287</v>
       </c>
       <c r="E79" t="n">
-        <v>0.227848</v>
+        <v>0.238177</v>
       </c>
       <c r="F79" t="n">
-        <v>0.453078</v>
+        <v>0.453136</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.238636</v>
+        <v>0.238749</v>
       </c>
       <c r="C80" t="n">
-        <v>0.584998</v>
+        <v>0.58395</v>
       </c>
       <c r="D80" t="n">
-        <v>0.651632</v>
+        <v>0.651819</v>
       </c>
       <c r="E80" t="n">
-        <v>0.238243</v>
+        <v>0.238143</v>
       </c>
       <c r="F80" t="n">
-        <v>0.467905</v>
+        <v>0.46801</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.357519</v>
+        <v>0.35743</v>
       </c>
       <c r="C81" t="n">
-        <v>0.752494</v>
+        <v>0.751178</v>
       </c>
       <c r="D81" t="n">
-        <v>0.649993</v>
+        <v>0.649943</v>
       </c>
       <c r="E81" t="n">
-        <v>0.235666</v>
+        <v>0.235746</v>
       </c>
       <c r="F81" t="n">
-        <v>0.466142</v>
+        <v>0.466148</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.351698</v>
+        <v>0.351901</v>
       </c>
       <c r="C82" t="n">
-        <v>0.740293</v>
+        <v>0.738392</v>
       </c>
       <c r="D82" t="n">
-        <v>0.646809</v>
+        <v>0.64755</v>
       </c>
       <c r="E82" t="n">
-        <v>0.233688</v>
+        <v>0.233564</v>
       </c>
       <c r="F82" t="n">
-        <v>0.464482</v>
+        <v>0.464477</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.345853</v>
+        <v>0.345664</v>
       </c>
       <c r="C83" t="n">
-        <v>0.705056</v>
+        <v>0.70378</v>
       </c>
       <c r="D83" t="n">
-        <v>0.647127</v>
+        <v>0.646249</v>
       </c>
       <c r="E83" t="n">
-        <v>0.232341</v>
+        <v>0.232259</v>
       </c>
       <c r="F83" t="n">
-        <v>0.460706</v>
+        <v>0.462968</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.338608</v>
+        <v>0.338898</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6295190000000001</v>
+        <v>0.628528</v>
       </c>
       <c r="D84" t="n">
-        <v>0.640903</v>
+        <v>0.640132</v>
       </c>
       <c r="E84" t="n">
-        <v>0.245895</v>
+        <v>0.245591</v>
       </c>
       <c r="F84" t="n">
-        <v>0.461649</v>
+        <v>0.461887</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.331251</v>
+        <v>0.331863</v>
       </c>
       <c r="C85" t="n">
-        <v>0.690313</v>
+        <v>0.689157</v>
       </c>
       <c r="D85" t="n">
-        <v>0.637364</v>
+        <v>0.637025</v>
       </c>
       <c r="E85" t="n">
-        <v>0.230028</v>
+        <v>0.229906</v>
       </c>
       <c r="F85" t="n">
-        <v>0.460648</v>
+        <v>0.459966</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.324362</v>
+        <v>0.324211</v>
       </c>
       <c r="C86" t="n">
-        <v>0.776847</v>
+        <v>0.77482</v>
       </c>
       <c r="D86" t="n">
-        <v>0.630515</v>
+        <v>0.63314</v>
       </c>
       <c r="E86" t="n">
-        <v>0.230819</v>
+        <v>0.243291</v>
       </c>
       <c r="F86" t="n">
-        <v>0.4596</v>
+        <v>0.459642</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.316018</v>
+        <v>0.316635</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6866100000000001</v>
+        <v>0.684794</v>
       </c>
       <c r="D87" t="n">
-        <v>0.627602</v>
+        <v>0.628903</v>
       </c>
       <c r="E87" t="n">
-        <v>0.227989</v>
+        <v>0.227919</v>
       </c>
       <c r="F87" t="n">
-        <v>0.458376</v>
+        <v>0.458517</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.307974</v>
+        <v>0.30791</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6313879999999999</v>
+        <v>0.630808</v>
       </c>
       <c r="D88" t="n">
-        <v>0.625406</v>
+        <v>0.623815</v>
       </c>
       <c r="E88" t="n">
-        <v>0.227113</v>
+        <v>0.227034</v>
       </c>
       <c r="F88" t="n">
-        <v>0.457267</v>
+        <v>0.457283</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.299352</v>
+        <v>0.299056</v>
       </c>
       <c r="C89" t="n">
-        <v>0.663783</v>
+        <v>0.663041</v>
       </c>
       <c r="D89" t="n">
-        <v>0.62151</v>
+        <v>0.620963</v>
       </c>
       <c r="E89" t="n">
-        <v>0.240934</v>
+        <v>0.240727</v>
       </c>
       <c r="F89" t="n">
-        <v>0.456256</v>
+        <v>0.456368</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.289932</v>
+        <v>0.290071</v>
       </c>
       <c r="C90" t="n">
-        <v>0.651366</v>
+        <v>0.650756</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6184190000000001</v>
+        <v>0.618265</v>
       </c>
       <c r="E90" t="n">
-        <v>0.239249</v>
+        <v>0.23502</v>
       </c>
       <c r="F90" t="n">
-        <v>0.455693</v>
+        <v>0.455717</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.279392</v>
+        <v>0.279671</v>
       </c>
       <c r="C91" t="n">
-        <v>0.597378</v>
+        <v>0.59692</v>
       </c>
       <c r="D91" t="n">
-        <v>0.614166</v>
+        <v>0.614254</v>
       </c>
       <c r="E91" t="n">
-        <v>0.239402</v>
+        <v>0.2405</v>
       </c>
       <c r="F91" t="n">
-        <v>0.454846</v>
+        <v>0.454534</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.26805</v>
+        <v>0.268201</v>
       </c>
       <c r="C92" t="n">
-        <v>0.558171</v>
+        <v>0.557886</v>
       </c>
       <c r="D92" t="n">
-        <v>0.638759</v>
+        <v>0.639421</v>
       </c>
       <c r="E92" t="n">
-        <v>0.239572</v>
+        <v>0.239513</v>
       </c>
       <c r="F92" t="n">
-        <v>0.453888</v>
+        <v>0.452011</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.255951</v>
+        <v>0.256234</v>
       </c>
       <c r="C93" t="n">
-        <v>0.627976</v>
+        <v>0.627312</v>
       </c>
       <c r="D93" t="n">
-        <v>0.646472</v>
+        <v>0.646053</v>
       </c>
       <c r="E93" t="n">
-        <v>0.239253</v>
+        <v>0.22475</v>
       </c>
       <c r="F93" t="n">
-        <v>0.453272</v>
+        <v>0.45267</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.241565</v>
+        <v>0.241788</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6179789999999999</v>
+        <v>0.617316</v>
       </c>
       <c r="D94" t="n">
-        <v>0.64636</v>
+        <v>0.645699</v>
       </c>
       <c r="E94" t="n">
-        <v>0.239132</v>
+        <v>0.239341</v>
       </c>
       <c r="F94" t="n">
-        <v>0.467692</v>
+        <v>0.467804</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.358485</v>
+        <v>0.358509</v>
       </c>
       <c r="C95" t="n">
-        <v>0.700283</v>
+        <v>0.699274</v>
       </c>
       <c r="D95" t="n">
-        <v>0.63957</v>
+        <v>0.641115</v>
       </c>
       <c r="E95" t="n">
-        <v>0.239096</v>
+        <v>0.25148</v>
       </c>
       <c r="F95" t="n">
-        <v>0.466352</v>
+        <v>0.466338</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.353199</v>
+        <v>0.353201</v>
       </c>
       <c r="C96" t="n">
-        <v>0.665857</v>
+        <v>0.665984</v>
       </c>
       <c r="D96" t="n">
-        <v>0.63806</v>
+        <v>0.637611</v>
       </c>
       <c r="E96" t="n">
-        <v>0.234804</v>
+        <v>0.234962</v>
       </c>
       <c r="F96" t="n">
-        <v>0.46496</v>
+        <v>0.465026</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.347649</v>
+        <v>0.346908</v>
       </c>
       <c r="C97" t="n">
-        <v>0.700515</v>
+        <v>0.699476</v>
       </c>
       <c r="D97" t="n">
-        <v>0.634471</v>
+        <v>0.63283</v>
       </c>
       <c r="E97" t="n">
-        <v>0.233424</v>
+        <v>0.233066</v>
       </c>
       <c r="F97" t="n">
-        <v>0.463592</v>
+        <v>0.463772</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.340454</v>
+        <v>0.340874</v>
       </c>
       <c r="C98" t="n">
-        <v>0.718912</v>
+        <v>0.717812</v>
       </c>
       <c r="D98" t="n">
-        <v>0.630489</v>
+        <v>0.628522</v>
       </c>
       <c r="E98" t="n">
-        <v>0.231677</v>
+        <v>0.231602</v>
       </c>
       <c r="F98" t="n">
-        <v>0.4623</v>
+        <v>0.462682</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.333049</v>
+        <v>0.333352</v>
       </c>
       <c r="C99" t="n">
-        <v>0.694712</v>
+        <v>0.6937950000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>0.622391</v>
+        <v>0.619823</v>
       </c>
       <c r="E99" t="n">
-        <v>0.230433</v>
+        <v>0.230736</v>
       </c>
       <c r="F99" t="n">
-        <v>0.46096</v>
+        <v>0.461091</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.325991</v>
+        <v>0.326004</v>
       </c>
       <c r="C100" t="n">
-        <v>0.68868</v>
+        <v>0.687462</v>
       </c>
       <c r="D100" t="n">
-        <v>0.622049</v>
+        <v>0.620926</v>
       </c>
       <c r="E100" t="n">
-        <v>0.229305</v>
+        <v>0.229286</v>
       </c>
       <c r="F100" t="n">
-        <v>0.459569</v>
+        <v>0.460185</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.318034</v>
+        <v>0.318266</v>
       </c>
       <c r="C101" t="n">
-        <v>0.694416</v>
+        <v>0.693581</v>
       </c>
       <c r="D101" t="n">
-        <v>0.616872</v>
+        <v>0.615464</v>
       </c>
       <c r="E101" t="n">
-        <v>0.228321</v>
+        <v>0.228329</v>
       </c>
       <c r="F101" t="n">
-        <v>0.458508</v>
+        <v>0.458582</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.309723</v>
+        <v>0.309689</v>
       </c>
       <c r="C102" t="n">
-        <v>0.625257</v>
+        <v>0.624919</v>
       </c>
       <c r="D102" t="n">
-        <v>0.611032</v>
+        <v>0.611204</v>
       </c>
       <c r="E102" t="n">
-        <v>0.227877</v>
+        <v>0.2275</v>
       </c>
       <c r="F102" t="n">
-        <v>0.457797</v>
+        <v>0.45776</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.301636</v>
+        <v>0.30149</v>
       </c>
       <c r="C103" t="n">
-        <v>0.648281</v>
+        <v>0.647963</v>
       </c>
       <c r="D103" t="n">
-        <v>0.607289</v>
+        <v>0.606721</v>
       </c>
       <c r="E103" t="n">
-        <v>0.226687</v>
+        <v>0.226665</v>
       </c>
       <c r="F103" t="n">
-        <v>0.45647</v>
+        <v>0.456818</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.291432</v>
+        <v>0.292052</v>
       </c>
       <c r="C104" t="n">
-        <v>0.604946</v>
+        <v>0.604467</v>
       </c>
       <c r="D104" t="n">
-        <v>0.601801</v>
+        <v>0.5996590000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>0.225902</v>
+        <v>0.22588</v>
       </c>
       <c r="F104" t="n">
-        <v>0.455786</v>
+        <v>0.455603</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.281791</v>
+        <v>0.281672</v>
       </c>
       <c r="C105" t="n">
-        <v>0.536882</v>
+        <v>0.536235</v>
       </c>
       <c r="D105" t="n">
-        <v>0.6031</v>
+        <v>0.599957</v>
       </c>
       <c r="E105" t="n">
-        <v>0.239998</v>
+        <v>0.240664</v>
       </c>
       <c r="F105" t="n">
-        <v>0.454905</v>
+        <v>0.455057</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.270806</v>
+        <v>0.271276</v>
       </c>
       <c r="C106" t="n">
-        <v>0.645778</v>
+        <v>0.6448199999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5967209999999999</v>
+        <v>0.596433</v>
       </c>
       <c r="E106" t="n">
-        <v>0.239786</v>
+        <v>0.239958</v>
       </c>
       <c r="F106" t="n">
-        <v>0.454435</v>
+        <v>0.454367</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.258394</v>
+        <v>0.258786</v>
       </c>
       <c r="C107" t="n">
-        <v>0.568021</v>
+        <v>0.5674129999999999</v>
       </c>
       <c r="D107" t="n">
-        <v>0.643835</v>
+        <v>0.6431480000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>0.239446</v>
+        <v>0.239107</v>
       </c>
       <c r="F107" t="n">
-        <v>0.453547</v>
+        <v>0.45376</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.245567</v>
+        <v>0.245429</v>
       </c>
       <c r="C108" t="n">
-        <v>0.55764</v>
+        <v>0.557283</v>
       </c>
       <c r="D108" t="n">
-        <v>0.644563</v>
+        <v>0.644186</v>
       </c>
       <c r="E108" t="n">
-        <v>0.241391</v>
+        <v>0.253513</v>
       </c>
       <c r="F108" t="n">
-        <v>0.468264</v>
+        <v>0.468343</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.229891</v>
+        <v>0.229825</v>
       </c>
       <c r="C109" t="n">
-        <v>0.478971</v>
+        <v>0.478982</v>
       </c>
       <c r="D109" t="n">
-        <v>0.629852</v>
+        <v>0.628746</v>
       </c>
       <c r="E109" t="n">
-        <v>0.237643</v>
+        <v>0.238164</v>
       </c>
       <c r="F109" t="n">
-        <v>0.464885</v>
+        <v>0.466078</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.354214</v>
+        <v>0.354468</v>
       </c>
       <c r="C110" t="n">
-        <v>0.636887</v>
+        <v>0.6418160000000001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.631027</v>
+        <v>0.6263</v>
       </c>
       <c r="E110" t="n">
-        <v>0.235704</v>
+        <v>0.236614</v>
       </c>
       <c r="F110" t="n">
-        <v>0.46544</v>
+        <v>0.465353</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.348404</v>
+        <v>0.348362</v>
       </c>
       <c r="C111" t="n">
-        <v>0.689331</v>
+        <v>0.688652</v>
       </c>
       <c r="D111" t="n">
-        <v>0.621801</v>
+        <v>0.622614</v>
       </c>
       <c r="E111" t="n">
-        <v>0.234384</v>
+        <v>0.23418</v>
       </c>
       <c r="F111" t="n">
-        <v>0.463646</v>
+        <v>0.463621</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.341908</v>
+        <v>0.341993</v>
       </c>
       <c r="C112" t="n">
-        <v>0.600827</v>
+        <v>0.600312</v>
       </c>
       <c r="D112" t="n">
-        <v>0.620974</v>
+        <v>0.61997</v>
       </c>
       <c r="E112" t="n">
-        <v>0.232677</v>
+        <v>0.232759</v>
       </c>
       <c r="F112" t="n">
-        <v>0.462345</v>
+        <v>0.461938</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.334829</v>
+        <v>0.33508</v>
       </c>
       <c r="C113" t="n">
-        <v>0.74292</v>
+        <v>0.740909</v>
       </c>
       <c r="D113" t="n">
-        <v>0.625127</v>
+        <v>0.617429</v>
       </c>
       <c r="E113" t="n">
-        <v>0.231686</v>
+        <v>0.23143</v>
       </c>
       <c r="F113" t="n">
-        <v>0.461222</v>
+        <v>0.455873</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.327615</v>
+        <v>0.327736</v>
       </c>
       <c r="C114" t="n">
-        <v>0.651012</v>
+        <v>0.645992</v>
       </c>
       <c r="D114" t="n">
-        <v>0.619083</v>
+        <v>0.612654</v>
       </c>
       <c r="E114" t="n">
-        <v>0.243501</v>
+        <v>0.243792</v>
       </c>
       <c r="F114" t="n">
-        <v>0.460078</v>
+        <v>0.454651</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.319773</v>
+        <v>0.319915</v>
       </c>
       <c r="C115" t="n">
-        <v>0.706284</v>
+        <v>0.69965</v>
       </c>
       <c r="D115" t="n">
-        <v>0.610804</v>
+        <v>0.601096</v>
       </c>
       <c r="E115" t="n">
-        <v>0.228914</v>
+        <v>0.229749</v>
       </c>
       <c r="F115" t="n">
-        <v>0.458686</v>
+        <v>0.45354</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.311676</v>
+        <v>0.311844</v>
       </c>
       <c r="C116" t="n">
-        <v>0.681808</v>
+        <v>0.674712</v>
       </c>
       <c r="D116" t="n">
-        <v>0.608912</v>
+        <v>0.599704</v>
       </c>
       <c r="E116" t="n">
-        <v>0.228893</v>
+        <v>0.228043</v>
       </c>
       <c r="F116" t="n">
-        <v>0.4568</v>
+        <v>0.452541</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.302796</v>
+        <v>0.30318</v>
       </c>
       <c r="C117" t="n">
-        <v>0.657166</v>
+        <v>0.650563</v>
       </c>
       <c r="D117" t="n">
-        <v>0.603998</v>
+        <v>0.596313</v>
       </c>
       <c r="E117" t="n">
-        <v>0.227266</v>
+        <v>0.227256</v>
       </c>
       <c r="F117" t="n">
-        <v>0.456865</v>
+        <v>0.451638</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.293681</v>
+        <v>0.293976</v>
       </c>
       <c r="C118" t="n">
-        <v>0.666853</v>
+        <v>0.660213</v>
       </c>
       <c r="D118" t="n">
-        <v>0.601747</v>
+        <v>0.592515</v>
       </c>
       <c r="E118" t="n">
-        <v>0.240687</v>
+        <v>0.240584</v>
       </c>
       <c r="F118" t="n">
-        <v>0.454621</v>
+        <v>0.451015</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.283803</v>
+        <v>0.284521</v>
       </c>
       <c r="C119" t="n">
-        <v>0.644518</v>
+        <v>0.637687</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5920800000000001</v>
+        <v>0.588283</v>
       </c>
       <c r="E119" t="n">
-        <v>0.24004</v>
+        <v>0.239895</v>
       </c>
       <c r="F119" t="n">
-        <v>0.454966</v>
+        <v>0.449377</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.27314</v>
+        <v>0.273239</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6440940000000001</v>
+        <v>0.636801</v>
       </c>
       <c r="D120" t="n">
-        <v>0.587167</v>
+        <v>0.584159</v>
       </c>
       <c r="E120" t="n">
-        <v>0.239944</v>
+        <v>0.239601</v>
       </c>
       <c r="F120" t="n">
-        <v>0.454134</v>
+        <v>0.448985</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.261402</v>
+        <v>0.261184</v>
       </c>
       <c r="C121" t="n">
-        <v>0.629264</v>
+        <v>0.62259</v>
       </c>
       <c r="D121" t="n">
-        <v>0.660574</v>
+        <v>0.655459</v>
       </c>
       <c r="E121" t="n">
-        <v>0.239172</v>
+        <v>0.239162</v>
       </c>
       <c r="F121" t="n">
-        <v>0.453502</v>
+        <v>0.448394</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.248494</v>
+        <v>0.248501</v>
       </c>
       <c r="C122" t="n">
-        <v>0.575724</v>
+        <v>0.568941</v>
       </c>
       <c r="D122" t="n">
-        <v>0.645779</v>
+        <v>0.638123</v>
       </c>
       <c r="E122" t="n">
-        <v>0.239131</v>
+        <v>0.22606</v>
       </c>
       <c r="F122" t="n">
-        <v>0.451838</v>
+        <v>0.447958</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.234276</v>
+        <v>0.23372</v>
       </c>
       <c r="C123" t="n">
-        <v>0.614583</v>
+        <v>0.607111</v>
       </c>
       <c r="D123" t="n">
-        <v>0.65469</v>
+        <v>0.652411</v>
       </c>
       <c r="E123" t="n">
-        <v>0.239831</v>
+        <v>0.251738</v>
       </c>
       <c r="F123" t="n">
-        <v>0.46706</v>
+        <v>0.461765</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.355979</v>
+        <v>0.3556</v>
       </c>
       <c r="C124" t="n">
-        <v>0.689245</v>
+        <v>0.682568</v>
       </c>
       <c r="D124" t="n">
-        <v>0.651714</v>
+        <v>0.646711</v>
       </c>
       <c r="E124" t="n">
-        <v>0.239417</v>
+        <v>0.240051</v>
       </c>
       <c r="F124" t="n">
-        <v>0.465499</v>
+        <v>0.460355</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.349687</v>
+        <v>0.349441</v>
       </c>
       <c r="C125" t="n">
-        <v>0.799561</v>
+        <v>0.791506</v>
       </c>
       <c r="D125" t="n">
-        <v>0.647747</v>
+        <v>0.639437</v>
       </c>
       <c r="E125" t="n">
-        <v>0.237142</v>
+        <v>0.237435</v>
       </c>
       <c r="F125" t="n">
-        <v>0.463894</v>
+        <v>0.459103</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.343398</v>
+        <v>0.343594</v>
       </c>
       <c r="C126" t="n">
-        <v>0.739489</v>
+        <v>0.732179</v>
       </c>
       <c r="D126" t="n">
-        <v>0.640429</v>
+        <v>0.636593</v>
       </c>
       <c r="E126" t="n">
-        <v>0.235131</v>
+        <v>0.236643</v>
       </c>
       <c r="F126" t="n">
-        <v>0.462618</v>
+        <v>0.457374</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.337066</v>
+        <v>0.337046</v>
       </c>
       <c r="C127" t="n">
-        <v>0.65993</v>
+        <v>0.654518</v>
       </c>
       <c r="D127" t="n">
-        <v>0.627038</v>
+        <v>0.621795</v>
       </c>
       <c r="E127" t="n">
-        <v>0.234141</v>
+        <v>0.234245</v>
       </c>
       <c r="F127" t="n">
-        <v>0.456556</v>
+        <v>0.456157</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.329459</v>
+        <v>0.329212</v>
       </c>
       <c r="C128" t="n">
-        <v>0.599994</v>
+        <v>0.600104</v>
       </c>
       <c r="D128" t="n">
-        <v>0.62521</v>
+        <v>0.624764</v>
       </c>
       <c r="E128" t="n">
-        <v>0.233746</v>
+        <v>0.232903</v>
       </c>
       <c r="F128" t="n">
-        <v>0.455344</v>
+        <v>0.455059</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.321763</v>
+        <v>0.322018</v>
       </c>
       <c r="C129" t="n">
-        <v>0.709958</v>
+        <v>0.709368</v>
       </c>
       <c r="D129" t="n">
-        <v>0.613645</v>
+        <v>0.614661</v>
       </c>
       <c r="E129" t="n">
-        <v>0.232661</v>
+        <v>0.23247</v>
       </c>
       <c r="F129" t="n">
-        <v>0.453667</v>
+        <v>0.453802</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.31398</v>
+        <v>0.313672</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5526720000000001</v>
+        <v>0.55217</v>
       </c>
       <c r="D130" t="n">
-        <v>0.614951</v>
+        <v>0.61409</v>
       </c>
       <c r="E130" t="n">
-        <v>0.230893</v>
+        <v>0.230262</v>
       </c>
       <c r="F130" t="n">
-        <v>0.452592</v>
+        <v>0.45249</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.305066</v>
+        <v>0.306216</v>
       </c>
       <c r="C131" t="n">
-        <v>0.617618</v>
+        <v>0.617143</v>
       </c>
       <c r="D131" t="n">
-        <v>0.604858</v>
+        <v>0.604823</v>
       </c>
       <c r="E131" t="n">
-        <v>0.23333</v>
+        <v>0.229862</v>
       </c>
       <c r="F131" t="n">
-        <v>0.451594</v>
+        <v>0.452188</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.296436</v>
+        <v>0.297</v>
       </c>
       <c r="C132" t="n">
-        <v>0.541899</v>
+        <v>0.542314</v>
       </c>
       <c r="D132" t="n">
-        <v>0.600058</v>
+        <v>0.600233</v>
       </c>
       <c r="E132" t="n">
-        <v>0.240781</v>
+        <v>0.240742</v>
       </c>
       <c r="F132" t="n">
-        <v>0.450508</v>
+        <v>0.451014</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.286528</v>
+        <v>0.287341</v>
       </c>
       <c r="C133" t="n">
-        <v>0.666957</v>
+        <v>0.666229</v>
       </c>
       <c r="D133" t="n">
-        <v>0.595145</v>
+        <v>0.59394</v>
       </c>
       <c r="E133" t="n">
-        <v>0.240175</v>
+        <v>0.240281</v>
       </c>
       <c r="F133" t="n">
-        <v>0.449816</v>
+        <v>0.450174</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.276025</v>
+        <v>0.276564</v>
       </c>
       <c r="C134" t="n">
-        <v>0.626237</v>
+        <v>0.625956</v>
       </c>
       <c r="D134" t="n">
-        <v>0.593453</v>
+        <v>0.59258</v>
       </c>
       <c r="E134" t="n">
-        <v>0.239885</v>
+        <v>0.225561</v>
       </c>
       <c r="F134" t="n">
-        <v>0.449123</v>
+        <v>0.449506</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.264606</v>
+        <v>0.264857</v>
       </c>
       <c r="C135" t="n">
-        <v>0.624759</v>
+        <v>0.624425</v>
       </c>
       <c r="D135" t="n">
-        <v>0.659285</v>
+        <v>0.659354</v>
       </c>
       <c r="E135" t="n">
-        <v>0.226815</v>
+        <v>0.239205</v>
       </c>
       <c r="F135" t="n">
-        <v>0.448327</v>
+        <v>0.448886</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.251671</v>
+        <v>0.251934</v>
       </c>
       <c r="C136" t="n">
-        <v>0.519463</v>
+        <v>0.5210320000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.660231</v>
+        <v>0.660097</v>
       </c>
       <c r="E136" t="n">
-        <v>0.228425</v>
+        <v>0.229618</v>
       </c>
       <c r="F136" t="n">
-        <v>0.447863</v>
+        <v>0.447839</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.238565</v>
+        <v>0.238948</v>
       </c>
       <c r="C137" t="n">
-        <v>0.560273</v>
+        <v>0.559858</v>
       </c>
       <c r="D137" t="n">
-        <v>0.656388</v>
+        <v>0.65584</v>
       </c>
       <c r="E137" t="n">
-        <v>0.251978</v>
+        <v>0.252014</v>
       </c>
       <c r="F137" t="n">
-        <v>0.461892</v>
+        <v>0.462406</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.357098</v>
+        <v>0.356813</v>
       </c>
       <c r="C138" t="n">
-        <v>0.735094</v>
+        <v>0.734198</v>
       </c>
       <c r="D138" t="n">
-        <v>0.640247</v>
+        <v>0.639257</v>
       </c>
       <c r="E138" t="n">
-        <v>0.242237</v>
+        <v>0.241235</v>
       </c>
       <c r="F138" t="n">
-        <v>0.460243</v>
+        <v>0.460563</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.351436</v>
+        <v>0.351956</v>
       </c>
       <c r="C139" t="n">
-        <v>0.669189</v>
+        <v>0.668407</v>
       </c>
       <c r="D139" t="n">
-        <v>0.6364570000000001</v>
+        <v>0.638865</v>
       </c>
       <c r="E139" t="n">
-        <v>0.239835</v>
+        <v>0.238105</v>
       </c>
       <c r="F139" t="n">
-        <v>0.459438</v>
+        <v>0.458942</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.345378</v>
+        <v>0.345317</v>
       </c>
       <c r="C140" t="n">
-        <v>0.603599</v>
+        <v>0.603311</v>
       </c>
       <c r="D140" t="n">
-        <v>0.636849</v>
+        <v>0.63256</v>
       </c>
       <c r="E140" t="n">
-        <v>0.236886</v>
+        <v>0.237434</v>
       </c>
       <c r="F140" t="n">
-        <v>0.457876</v>
+        <v>0.457526</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.338438</v>
+        <v>0.338395</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6885019999999999</v>
+        <v>0.688037</v>
       </c>
       <c r="D141" t="n">
-        <v>0.636114</v>
+        <v>0.634729</v>
       </c>
       <c r="E141" t="n">
-        <v>0.236417</v>
+        <v>0.236872</v>
       </c>
       <c r="F141" t="n">
-        <v>0.456069</v>
+        <v>0.456398</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.331545</v>
+        <v>0.331489</v>
       </c>
       <c r="C142" t="n">
-        <v>0.62536</v>
+        <v>0.625044</v>
       </c>
       <c r="D142" t="n">
-        <v>0.630073</v>
+        <v>0.63059</v>
       </c>
       <c r="E142" t="n">
-        <v>0.237968</v>
+        <v>0.235429</v>
       </c>
       <c r="F142" t="n">
-        <v>0.455405</v>
+        <v>0.454949</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.323681</v>
+        <v>0.323932</v>
       </c>
       <c r="C143" t="n">
-        <v>0.749095</v>
+        <v>0.749306</v>
       </c>
       <c r="D143" t="n">
-        <v>0.624296</v>
+        <v>0.622016</v>
       </c>
       <c r="E143" t="n">
-        <v>0.243398</v>
+        <v>0.243165</v>
       </c>
       <c r="F143" t="n">
-        <v>0.453817</v>
+        <v>0.454021</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.29995</v>
+        <v>0.301884</v>
       </c>
       <c r="C2" t="n">
-        <v>0.516962</v>
+        <v>0.517061</v>
       </c>
       <c r="D2" t="n">
-        <v>0.421006</v>
+        <v>0.42465</v>
       </c>
       <c r="E2" t="n">
-        <v>0.200221</v>
+        <v>0.200363</v>
       </c>
       <c r="F2" t="n">
-        <v>0.447009</v>
+        <v>0.446515</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.295356</v>
+        <v>0.296432</v>
       </c>
       <c r="C3" t="n">
-        <v>0.514965</v>
+        <v>0.506149</v>
       </c>
       <c r="D3" t="n">
-        <v>0.421683</v>
+        <v>0.424355</v>
       </c>
       <c r="E3" t="n">
-        <v>0.203189</v>
+        <v>0.203646</v>
       </c>
       <c r="F3" t="n">
-        <v>0.44318</v>
+        <v>0.44587</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.287083</v>
+        <v>0.28639</v>
       </c>
       <c r="C4" t="n">
-        <v>0.497998</v>
+        <v>0.503202</v>
       </c>
       <c r="D4" t="n">
-        <v>0.42399</v>
+        <v>0.426876</v>
       </c>
       <c r="E4" t="n">
-        <v>0.205419</v>
+        <v>0.20577</v>
       </c>
       <c r="F4" t="n">
-        <v>0.445514</v>
+        <v>0.441702</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.278222</v>
+        <v>0.282908</v>
       </c>
       <c r="C5" t="n">
-        <v>0.495249</v>
+        <v>0.489983</v>
       </c>
       <c r="D5" t="n">
-        <v>0.429468</v>
+        <v>0.429581</v>
       </c>
       <c r="E5" t="n">
-        <v>0.206745</v>
+        <v>0.223369</v>
       </c>
       <c r="F5" t="n">
-        <v>0.443511</v>
+        <v>0.443775</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.265012</v>
+        <v>0.2651</v>
       </c>
       <c r="C6" t="n">
-        <v>0.477234</v>
+        <v>0.475969</v>
       </c>
       <c r="D6" t="n">
-        <v>0.428433</v>
+        <v>0.428454</v>
       </c>
       <c r="E6" t="n">
-        <v>0.207761</v>
+        <v>0.207029</v>
       </c>
       <c r="F6" t="n">
-        <v>0.442021</v>
+        <v>0.442947</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.255467</v>
+        <v>0.254897</v>
       </c>
       <c r="C7" t="n">
-        <v>0.466949</v>
+        <v>0.46635</v>
       </c>
       <c r="D7" t="n">
-        <v>0.424033</v>
+        <v>0.424063</v>
       </c>
       <c r="E7" t="n">
-        <v>0.209509</v>
+        <v>0.210022</v>
       </c>
       <c r="F7" t="n">
-        <v>0.441832</v>
+        <v>0.44128</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.23997</v>
+        <v>0.239225</v>
       </c>
       <c r="C8" t="n">
-        <v>0.453909</v>
+        <v>0.4531</v>
       </c>
       <c r="D8" t="n">
-        <v>0.425743</v>
+        <v>0.424679</v>
       </c>
       <c r="E8" t="n">
-        <v>0.210104</v>
+        <v>0.210151</v>
       </c>
       <c r="F8" t="n">
-        <v>0.440037</v>
+        <v>0.439978</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.225832</v>
+        <v>0.226085</v>
       </c>
       <c r="C9" t="n">
-        <v>0.439668</v>
+        <v>0.439259</v>
       </c>
       <c r="D9" t="n">
-        <v>0.425967</v>
+        <v>0.425461</v>
       </c>
       <c r="E9" t="n">
-        <v>0.227656</v>
+        <v>0.229301</v>
       </c>
       <c r="F9" t="n">
-        <v>0.45666</v>
+        <v>0.456153</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.349623</v>
+        <v>0.350693</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5648919999999999</v>
+        <v>0.563797</v>
       </c>
       <c r="D10" t="n">
-        <v>0.424652</v>
+        <v>0.425348</v>
       </c>
       <c r="E10" t="n">
-        <v>0.226809</v>
+        <v>0.227417</v>
       </c>
       <c r="F10" t="n">
-        <v>0.456698</v>
+        <v>0.456007</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.345305</v>
+        <v>0.345528</v>
       </c>
       <c r="C11" t="n">
-        <v>0.548849</v>
+        <v>0.548942</v>
       </c>
       <c r="D11" t="n">
-        <v>0.426842</v>
+        <v>0.426219</v>
       </c>
       <c r="E11" t="n">
-        <v>0.240408</v>
+        <v>0.231731</v>
       </c>
       <c r="F11" t="n">
-        <v>0.455512</v>
+        <v>0.455116</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.340343</v>
+        <v>0.339651</v>
       </c>
       <c r="C12" t="n">
-        <v>0.556435</v>
+        <v>0.556037</v>
       </c>
       <c r="D12" t="n">
-        <v>0.425245</v>
+        <v>0.42452</v>
       </c>
       <c r="E12" t="n">
-        <v>0.239888</v>
+        <v>0.225569</v>
       </c>
       <c r="F12" t="n">
-        <v>0.454208</v>
+        <v>0.455561</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.33391</v>
+        <v>0.334696</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5463249999999999</v>
+        <v>0.548984</v>
       </c>
       <c r="D13" t="n">
-        <v>0.426883</v>
+        <v>0.427273</v>
       </c>
       <c r="E13" t="n">
-        <v>0.224533</v>
+        <v>0.239653</v>
       </c>
       <c r="F13" t="n">
-        <v>0.451928</v>
+        <v>0.452823</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.326333</v>
+        <v>0.326999</v>
       </c>
       <c r="C14" t="n">
-        <v>0.542953</v>
+        <v>0.540839</v>
       </c>
       <c r="D14" t="n">
-        <v>0.429394</v>
+        <v>0.43013</v>
       </c>
       <c r="E14" t="n">
-        <v>0.224786</v>
+        <v>0.224858</v>
       </c>
       <c r="F14" t="n">
-        <v>0.450907</v>
+        <v>0.450609</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.320798</v>
+        <v>0.320159</v>
       </c>
       <c r="C15" t="n">
-        <v>0.534486</v>
+        <v>0.532091</v>
       </c>
       <c r="D15" t="n">
-        <v>0.430755</v>
+        <v>0.430359</v>
       </c>
       <c r="E15" t="n">
-        <v>0.223913</v>
+        <v>0.224019</v>
       </c>
       <c r="F15" t="n">
-        <v>0.44982</v>
+        <v>0.449765</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.312266</v>
+        <v>0.312323</v>
       </c>
       <c r="C16" t="n">
-        <v>0.524632</v>
+        <v>0.524305</v>
       </c>
       <c r="D16" t="n">
-        <v>0.432135</v>
+        <v>0.433256</v>
       </c>
       <c r="E16" t="n">
-        <v>0.223685</v>
+        <v>0.224055</v>
       </c>
       <c r="F16" t="n">
-        <v>0.449252</v>
+        <v>0.448659</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.302467</v>
+        <v>0.303003</v>
       </c>
       <c r="C17" t="n">
-        <v>0.522925</v>
+        <v>0.522436</v>
       </c>
       <c r="D17" t="n">
-        <v>0.432446</v>
+        <v>0.432546</v>
       </c>
       <c r="E17" t="n">
-        <v>0.224131</v>
+        <v>0.224084</v>
       </c>
       <c r="F17" t="n">
-        <v>0.448497</v>
+        <v>0.448284</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.293658</v>
+        <v>0.293288</v>
       </c>
       <c r="C18" t="n">
-        <v>0.505309</v>
+        <v>0.50456</v>
       </c>
       <c r="D18" t="n">
-        <v>0.434211</v>
+        <v>0.434338</v>
       </c>
       <c r="E18" t="n">
-        <v>0.222458</v>
+        <v>0.22212</v>
       </c>
       <c r="F18" t="n">
-        <v>0.447852</v>
+        <v>0.447313</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.285599</v>
+        <v>0.284657</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5008629999999999</v>
+        <v>0.500134</v>
       </c>
       <c r="D19" t="n">
-        <v>0.435131</v>
+        <v>0.436348</v>
       </c>
       <c r="E19" t="n">
-        <v>0.22262</v>
+        <v>0.222515</v>
       </c>
       <c r="F19" t="n">
-        <v>0.445672</v>
+        <v>0.4457</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.27384</v>
+        <v>0.273236</v>
       </c>
       <c r="C20" t="n">
-        <v>0.490556</v>
+        <v>0.489556</v>
       </c>
       <c r="D20" t="n">
-        <v>0.435004</v>
+        <v>0.437198</v>
       </c>
       <c r="E20" t="n">
-        <v>0.222626</v>
+        <v>0.222193</v>
       </c>
       <c r="F20" t="n">
-        <v>0.445795</v>
+        <v>0.445956</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.263943</v>
+        <v>0.264281</v>
       </c>
       <c r="C21" t="n">
-        <v>0.469788</v>
+        <v>0.46945</v>
       </c>
       <c r="D21" t="n">
-        <v>0.431183</v>
+        <v>0.429305</v>
       </c>
       <c r="E21" t="n">
-        <v>0.221939</v>
+        <v>0.234833</v>
       </c>
       <c r="F21" t="n">
-        <v>0.445811</v>
+        <v>0.445394</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.254253</v>
+        <v>0.249642</v>
       </c>
       <c r="C22" t="n">
-        <v>0.462915</v>
+        <v>0.460991</v>
       </c>
       <c r="D22" t="n">
-        <v>0.429443</v>
+        <v>0.431002</v>
       </c>
       <c r="E22" t="n">
-        <v>0.236714</v>
+        <v>0.236309</v>
       </c>
       <c r="F22" t="n">
-        <v>0.444987</v>
+        <v>0.44451</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.240565</v>
+        <v>0.236352</v>
       </c>
       <c r="C23" t="n">
-        <v>0.440005</v>
+        <v>0.439099</v>
       </c>
       <c r="D23" t="n">
-        <v>0.432829</v>
+        <v>0.432812</v>
       </c>
       <c r="E23" t="n">
-        <v>0.243763</v>
+        <v>0.236887</v>
       </c>
       <c r="F23" t="n">
-        <v>0.461067</v>
+        <v>0.460546</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.353289</v>
+        <v>0.353123</v>
       </c>
       <c r="C24" t="n">
-        <v>0.569906</v>
+        <v>0.569319</v>
       </c>
       <c r="D24" t="n">
-        <v>0.432375</v>
+        <v>0.432903</v>
       </c>
       <c r="E24" t="n">
-        <v>0.233483</v>
+        <v>0.247688</v>
       </c>
       <c r="F24" t="n">
-        <v>0.464426</v>
+        <v>0.459368</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.347914</v>
+        <v>0.348129</v>
       </c>
       <c r="C25" t="n">
-        <v>0.567813</v>
+        <v>0.561744</v>
       </c>
       <c r="D25" t="n">
-        <v>0.44111</v>
+        <v>0.433315</v>
       </c>
       <c r="E25" t="n">
-        <v>0.232002</v>
+        <v>0.232508</v>
       </c>
       <c r="F25" t="n">
-        <v>0.463632</v>
+        <v>0.458072</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.341743</v>
+        <v>0.341623</v>
       </c>
       <c r="C26" t="n">
-        <v>0.561306</v>
+        <v>0.55646</v>
       </c>
       <c r="D26" t="n">
-        <v>0.442823</v>
+        <v>0.434307</v>
       </c>
       <c r="E26" t="n">
-        <v>0.231198</v>
+        <v>0.23156</v>
       </c>
       <c r="F26" t="n">
-        <v>0.46248</v>
+        <v>0.457119</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.337335</v>
+        <v>0.337823</v>
       </c>
       <c r="C27" t="n">
-        <v>0.551983</v>
+        <v>0.545173</v>
       </c>
       <c r="D27" t="n">
-        <v>0.442254</v>
+        <v>0.43498</v>
       </c>
       <c r="E27" t="n">
-        <v>0.230304</v>
+        <v>0.230274</v>
       </c>
       <c r="F27" t="n">
-        <v>0.461211</v>
+        <v>0.455573</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.331049</v>
+        <v>0.330448</v>
       </c>
       <c r="C28" t="n">
-        <v>0.548156</v>
+        <v>0.539642</v>
       </c>
       <c r="D28" t="n">
-        <v>0.443506</v>
+        <v>0.434673</v>
       </c>
       <c r="E28" t="n">
-        <v>0.229247</v>
+        <v>0.229344</v>
       </c>
       <c r="F28" t="n">
-        <v>0.458673</v>
+        <v>0.453536</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.32366</v>
+        <v>0.322777</v>
       </c>
       <c r="C29" t="n">
-        <v>0.543544</v>
+        <v>0.5375180000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.446026</v>
+        <v>0.435591</v>
       </c>
       <c r="E29" t="n">
-        <v>0.228548</v>
+        <v>0.228595</v>
       </c>
       <c r="F29" t="n">
-        <v>0.458414</v>
+        <v>0.452991</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.314433</v>
+        <v>0.314493</v>
       </c>
       <c r="C30" t="n">
-        <v>0.535088</v>
+        <v>0.528423</v>
       </c>
       <c r="D30" t="n">
-        <v>0.44478</v>
+        <v>0.435786</v>
       </c>
       <c r="E30" t="n">
-        <v>0.226815</v>
+        <v>0.237064</v>
       </c>
       <c r="F30" t="n">
-        <v>0.457924</v>
+        <v>0.452779</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.305076</v>
+        <v>0.305597</v>
       </c>
       <c r="C31" t="n">
-        <v>0.520042</v>
+        <v>0.512947</v>
       </c>
       <c r="D31" t="n">
-        <v>0.444582</v>
+        <v>0.43839</v>
       </c>
       <c r="E31" t="n">
-        <v>0.226369</v>
+        <v>0.226266</v>
       </c>
       <c r="F31" t="n">
-        <v>0.456312</v>
+        <v>0.451079</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.296794</v>
+        <v>0.29599</v>
       </c>
       <c r="C32" t="n">
-        <v>0.51654</v>
+        <v>0.507756</v>
       </c>
       <c r="D32" t="n">
-        <v>0.44662</v>
+        <v>0.438476</v>
       </c>
       <c r="E32" t="n">
-        <v>0.225623</v>
+        <v>0.225484</v>
       </c>
       <c r="F32" t="n">
-        <v>0.454924</v>
+        <v>0.449858</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.287837</v>
+        <v>0.287254</v>
       </c>
       <c r="C33" t="n">
-        <v>0.509632</v>
+        <v>0.502293</v>
       </c>
       <c r="D33" t="n">
-        <v>0.447722</v>
+        <v>0.439378</v>
       </c>
       <c r="E33" t="n">
-        <v>0.224947</v>
+        <v>0.225027</v>
       </c>
       <c r="F33" t="n">
-        <v>0.453981</v>
+        <v>0.448855</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.277089</v>
+        <v>0.276606</v>
       </c>
       <c r="C34" t="n">
-        <v>0.49248</v>
+        <v>0.484894</v>
       </c>
       <c r="D34" t="n">
-        <v>0.448372</v>
+        <v>0.441318</v>
       </c>
       <c r="E34" t="n">
-        <v>0.224631</v>
+        <v>0.231191</v>
       </c>
       <c r="F34" t="n">
-        <v>0.453997</v>
+        <v>0.448845</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.266129</v>
+        <v>0.266401</v>
       </c>
       <c r="C35" t="n">
-        <v>0.477223</v>
+        <v>0.469228</v>
       </c>
       <c r="D35" t="n">
-        <v>0.443175</v>
+        <v>0.43683</v>
       </c>
       <c r="E35" t="n">
-        <v>0.238697</v>
+        <v>0.23601</v>
       </c>
       <c r="F35" t="n">
-        <v>0.453397</v>
+        <v>0.447818</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.25365</v>
+        <v>0.253615</v>
       </c>
       <c r="C36" t="n">
-        <v>0.47427</v>
+        <v>0.464971</v>
       </c>
       <c r="D36" t="n">
-        <v>0.443874</v>
+        <v>0.435245</v>
       </c>
       <c r="E36" t="n">
-        <v>0.224614</v>
+        <v>0.225964</v>
       </c>
       <c r="F36" t="n">
-        <v>0.452759</v>
+        <v>0.447291</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.240079</v>
+        <v>0.239837</v>
       </c>
       <c r="C37" t="n">
-        <v>0.462299</v>
+        <v>0.454219</v>
       </c>
       <c r="D37" t="n">
-        <v>0.446944</v>
+        <v>0.437816</v>
       </c>
       <c r="E37" t="n">
-        <v>0.250169</v>
+        <v>0.242274</v>
       </c>
       <c r="F37" t="n">
-        <v>0.466372</v>
+        <v>0.461247</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.357547</v>
+        <v>0.357439</v>
       </c>
       <c r="C38" t="n">
-        <v>0.564887</v>
+        <v>0.558694</v>
       </c>
       <c r="D38" t="n">
-        <v>0.443915</v>
+        <v>0.437287</v>
       </c>
       <c r="E38" t="n">
-        <v>0.247382</v>
+        <v>0.235832</v>
       </c>
       <c r="F38" t="n">
-        <v>0.464617</v>
+        <v>0.459602</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.352161</v>
+        <v>0.35214</v>
       </c>
       <c r="C39" t="n">
-        <v>0.559746</v>
+        <v>0.554319</v>
       </c>
       <c r="D39" t="n">
-        <v>0.444422</v>
+        <v>0.436122</v>
       </c>
       <c r="E39" t="n">
-        <v>0.232355</v>
+        <v>0.232656</v>
       </c>
       <c r="F39" t="n">
-        <v>0.462754</v>
+        <v>0.457512</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.345891</v>
+        <v>0.34562</v>
       </c>
       <c r="C40" t="n">
-        <v>0.554193</v>
+        <v>0.548477</v>
       </c>
       <c r="D40" t="n">
-        <v>0.44531</v>
+        <v>0.43831</v>
       </c>
       <c r="E40" t="n">
-        <v>0.23158</v>
+        <v>0.232145</v>
       </c>
       <c r="F40" t="n">
-        <v>0.462502</v>
+        <v>0.457453</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.340105</v>
+        <v>0.339896</v>
       </c>
       <c r="C41" t="n">
-        <v>0.549461</v>
+        <v>0.543393</v>
       </c>
       <c r="D41" t="n">
-        <v>0.447354</v>
+        <v>0.439421</v>
       </c>
       <c r="E41" t="n">
-        <v>0.230853</v>
+        <v>0.231</v>
       </c>
       <c r="F41" t="n">
-        <v>0.461025</v>
+        <v>0.456012</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.332394</v>
+        <v>0.33238</v>
       </c>
       <c r="C42" t="n">
-        <v>0.547852</v>
+        <v>0.542205</v>
       </c>
       <c r="D42" t="n">
-        <v>0.44752</v>
+        <v>0.438707</v>
       </c>
       <c r="E42" t="n">
-        <v>0.229624</v>
+        <v>0.229794</v>
       </c>
       <c r="F42" t="n">
-        <v>0.459365</v>
+        <v>0.45406</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.327114</v>
+        <v>0.324933</v>
       </c>
       <c r="C43" t="n">
-        <v>0.538282</v>
+        <v>0.532199</v>
       </c>
       <c r="D43" t="n">
-        <v>0.446442</v>
+        <v>0.439487</v>
       </c>
       <c r="E43" t="n">
-        <v>0.228495</v>
+        <v>0.228478</v>
       </c>
       <c r="F43" t="n">
-        <v>0.45824</v>
+        <v>0.453066</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.318244</v>
+        <v>0.317661</v>
       </c>
       <c r="C44" t="n">
-        <v>0.534529</v>
+        <v>0.5285300000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.446632</v>
+        <v>0.439927</v>
       </c>
       <c r="E44" t="n">
-        <v>0.227465</v>
+        <v>0.22776</v>
       </c>
       <c r="F44" t="n">
-        <v>0.456945</v>
+        <v>0.451912</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.310216</v>
+        <v>0.309004</v>
       </c>
       <c r="C45" t="n">
-        <v>0.526434</v>
+        <v>0.519937</v>
       </c>
       <c r="D45" t="n">
-        <v>0.449588</v>
+        <v>0.440692</v>
       </c>
       <c r="E45" t="n">
-        <v>0.226867</v>
+        <v>0.226942</v>
       </c>
       <c r="F45" t="n">
-        <v>0.45627</v>
+        <v>0.451252</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.300678</v>
+        <v>0.300411</v>
       </c>
       <c r="C46" t="n">
-        <v>0.518689</v>
+        <v>0.511863</v>
       </c>
       <c r="D46" t="n">
-        <v>0.45159</v>
+        <v>0.442875</v>
       </c>
       <c r="E46" t="n">
-        <v>0.226072</v>
+        <v>0.22613</v>
       </c>
       <c r="F46" t="n">
-        <v>0.455343</v>
+        <v>0.450053</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.291878</v>
+        <v>0.290678</v>
       </c>
       <c r="C47" t="n">
-        <v>0.515858</v>
+        <v>0.509091</v>
       </c>
       <c r="D47" t="n">
-        <v>0.451482</v>
+        <v>0.443372</v>
       </c>
       <c r="E47" t="n">
-        <v>0.239704</v>
+        <v>0.225451</v>
       </c>
       <c r="F47" t="n">
-        <v>0.455089</v>
+        <v>0.4497</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.281947</v>
+        <v>0.281797</v>
       </c>
       <c r="C48" t="n">
-        <v>0.501642</v>
+        <v>0.494617</v>
       </c>
       <c r="D48" t="n">
-        <v>0.453976</v>
+        <v>0.444733</v>
       </c>
       <c r="E48" t="n">
-        <v>0.225076</v>
+        <v>0.238955</v>
       </c>
       <c r="F48" t="n">
-        <v>0.453908</v>
+        <v>0.448572</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.270883</v>
+        <v>0.270454</v>
       </c>
       <c r="C49" t="n">
-        <v>0.487609</v>
+        <v>0.480129</v>
       </c>
       <c r="D49" t="n">
-        <v>0.455123</v>
+        <v>0.444691</v>
       </c>
       <c r="E49" t="n">
-        <v>0.224565</v>
+        <v>0.238848</v>
       </c>
       <c r="F49" t="n">
-        <v>0.453403</v>
+        <v>0.448385</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.258506</v>
+        <v>0.258402</v>
       </c>
       <c r="C50" t="n">
-        <v>0.476304</v>
+        <v>0.468052</v>
       </c>
       <c r="D50" t="n">
-        <v>0.450486</v>
+        <v>0.443411</v>
       </c>
       <c r="E50" t="n">
-        <v>0.237888</v>
+        <v>0.237887</v>
       </c>
       <c r="F50" t="n">
-        <v>0.45285</v>
+        <v>0.447588</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.245289</v>
+        <v>0.245218</v>
       </c>
       <c r="C51" t="n">
-        <v>0.457666</v>
+        <v>0.449784</v>
       </c>
       <c r="D51" t="n">
-        <v>0.452054</v>
+        <v>0.442236</v>
       </c>
       <c r="E51" t="n">
-        <v>0.250712</v>
+        <v>0.236964</v>
       </c>
       <c r="F51" t="n">
-        <v>0.467232</v>
+        <v>0.462114</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.230856</v>
+        <v>0.23081</v>
       </c>
       <c r="C52" t="n">
-        <v>0.44959</v>
+        <v>0.44164</v>
       </c>
       <c r="D52" t="n">
-        <v>0.452798</v>
+        <v>0.443759</v>
       </c>
       <c r="E52" t="n">
-        <v>0.249091</v>
+        <v>0.248236</v>
       </c>
       <c r="F52" t="n">
-        <v>0.466195</v>
+        <v>0.461059</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.354371</v>
+        <v>0.353951</v>
       </c>
       <c r="C53" t="n">
-        <v>0.571052</v>
+        <v>0.566811</v>
       </c>
       <c r="D53" t="n">
-        <v>0.451831</v>
+        <v>0.443977</v>
       </c>
       <c r="E53" t="n">
-        <v>0.233323</v>
+        <v>0.23324</v>
       </c>
       <c r="F53" t="n">
-        <v>0.464075</v>
+        <v>0.459253</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.348861</v>
+        <v>0.348525</v>
       </c>
       <c r="C54" t="n">
-        <v>0.557763</v>
+        <v>0.552601</v>
       </c>
       <c r="D54" t="n">
-        <v>0.456334</v>
+        <v>0.444898</v>
       </c>
       <c r="E54" t="n">
-        <v>0.232142</v>
+        <v>0.232368</v>
       </c>
       <c r="F54" t="n">
-        <v>0.463467</v>
+        <v>0.458658</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.341899</v>
+        <v>0.341997</v>
       </c>
       <c r="C55" t="n">
-        <v>0.569549</v>
+        <v>0.562345</v>
       </c>
       <c r="D55" t="n">
-        <v>0.459553</v>
+        <v>0.445756</v>
       </c>
       <c r="E55" t="n">
-        <v>0.230943</v>
+        <v>0.230979</v>
       </c>
       <c r="F55" t="n">
-        <v>0.461866</v>
+        <v>0.456763</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.33506</v>
+        <v>0.334473</v>
       </c>
       <c r="C56" t="n">
-        <v>0.561916</v>
+        <v>0.553872</v>
       </c>
       <c r="D56" t="n">
-        <v>0.459798</v>
+        <v>0.450936</v>
       </c>
       <c r="E56" t="n">
-        <v>0.244012</v>
+        <v>0.229772</v>
       </c>
       <c r="F56" t="n">
-        <v>0.46073</v>
+        <v>0.455448</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.327916</v>
+        <v>0.327171</v>
       </c>
       <c r="C57" t="n">
-        <v>0.550379</v>
+        <v>0.545485</v>
       </c>
       <c r="D57" t="n">
-        <v>0.459771</v>
+        <v>0.454704</v>
       </c>
       <c r="E57" t="n">
-        <v>0.228637</v>
+        <v>0.22863</v>
       </c>
       <c r="F57" t="n">
-        <v>0.459705</v>
+        <v>0.454777</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.320642</v>
+        <v>0.319967</v>
       </c>
       <c r="C58" t="n">
-        <v>0.558496</v>
+        <v>0.5582510000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.463</v>
+        <v>0.454482</v>
       </c>
       <c r="E58" t="n">
-        <v>0.227848</v>
+        <v>0.22797</v>
       </c>
       <c r="F58" t="n">
-        <v>0.458197</v>
+        <v>0.45332</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.312118</v>
+        <v>0.311581</v>
       </c>
       <c r="C59" t="n">
-        <v>0.53225</v>
+        <v>0.527452</v>
       </c>
       <c r="D59" t="n">
-        <v>0.461373</v>
+        <v>0.456351</v>
       </c>
       <c r="E59" t="n">
-        <v>0.227127</v>
+        <v>0.227136</v>
       </c>
       <c r="F59" t="n">
-        <v>0.457174</v>
+        <v>0.452369</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.304054</v>
+        <v>0.303188</v>
       </c>
       <c r="C60" t="n">
-        <v>0.549175</v>
+        <v>0.544648</v>
       </c>
       <c r="D60" t="n">
-        <v>0.467114</v>
+        <v>0.458167</v>
       </c>
       <c r="E60" t="n">
-        <v>0.226346</v>
+        <v>0.226396</v>
       </c>
       <c r="F60" t="n">
-        <v>0.455394</v>
+        <v>0.45163</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.294502</v>
+        <v>0.293854</v>
       </c>
       <c r="C61" t="n">
-        <v>0.541741</v>
+        <v>0.5323369999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.47124</v>
+        <v>0.464821</v>
       </c>
       <c r="E61" t="n">
-        <v>0.225678</v>
+        <v>0.240069</v>
       </c>
       <c r="F61" t="n">
-        <v>0.456281</v>
+        <v>0.450584</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.284349</v>
+        <v>0.284188</v>
       </c>
       <c r="C62" t="n">
-        <v>0.53651</v>
+        <v>0.530475</v>
       </c>
       <c r="D62" t="n">
-        <v>0.474779</v>
+        <v>0.467343</v>
       </c>
       <c r="E62" t="n">
-        <v>0.224924</v>
+        <v>0.224958</v>
       </c>
       <c r="F62" t="n">
-        <v>0.45476</v>
+        <v>0.44943</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.274386</v>
+        <v>0.273814</v>
       </c>
       <c r="C63" t="n">
-        <v>0.502508</v>
+        <v>0.497325</v>
       </c>
       <c r="D63" t="n">
-        <v>0.477097</v>
+        <v>0.471001</v>
       </c>
       <c r="E63" t="n">
-        <v>0.238773</v>
+        <v>0.238673</v>
       </c>
       <c r="F63" t="n">
-        <v>0.451649</v>
+        <v>0.448664</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.261298</v>
+        <v>0.261131</v>
       </c>
       <c r="C64" t="n">
-        <v>0.496341</v>
+        <v>0.491124</v>
       </c>
       <c r="D64" t="n">
-        <v>0.517266</v>
+        <v>0.509402</v>
       </c>
       <c r="E64" t="n">
-        <v>0.227407</v>
+        <v>0.238502</v>
       </c>
       <c r="F64" t="n">
-        <v>0.453596</v>
+        <v>0.44822</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.249512</v>
+        <v>0.248629</v>
       </c>
       <c r="C65" t="n">
-        <v>0.497721</v>
+        <v>0.496358</v>
       </c>
       <c r="D65" t="n">
-        <v>0.517454</v>
+        <v>0.512029</v>
       </c>
       <c r="E65" t="n">
-        <v>0.238241</v>
+        <v>0.223787</v>
       </c>
       <c r="F65" t="n">
-        <v>0.452658</v>
+        <v>0.447414</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.234858</v>
+        <v>0.234496</v>
       </c>
       <c r="C66" t="n">
-        <v>0.479137</v>
+        <v>0.479717</v>
       </c>
       <c r="D66" t="n">
-        <v>0.518143</v>
+        <v>0.522208</v>
       </c>
       <c r="E66" t="n">
-        <v>0.241312</v>
+        <v>0.244741</v>
       </c>
       <c r="F66" t="n">
-        <v>0.466954</v>
+        <v>0.461546</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.355688</v>
+        <v>0.355498</v>
       </c>
       <c r="C67" t="n">
-        <v>0.631387</v>
+        <v>0.64001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.537346</v>
+        <v>0.532891</v>
       </c>
       <c r="E67" t="n">
-        <v>0.23907</v>
+        <v>0.256138</v>
       </c>
       <c r="F67" t="n">
-        <v>0.465356</v>
+        <v>0.460316</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.349861</v>
+        <v>0.349506</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6519239999999999</v>
+        <v>0.666335</v>
       </c>
       <c r="D68" t="n">
-        <v>0.535851</v>
+        <v>0.543842</v>
       </c>
       <c r="E68" t="n">
-        <v>0.236987</v>
+        <v>0.240075</v>
       </c>
       <c r="F68" t="n">
-        <v>0.46416</v>
+        <v>0.459034</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.343764</v>
+        <v>0.343918</v>
       </c>
       <c r="C69" t="n">
-        <v>0.615662</v>
+        <v>0.623928</v>
       </c>
       <c r="D69" t="n">
-        <v>0.542405</v>
+        <v>0.552957</v>
       </c>
       <c r="E69" t="n">
-        <v>0.235188</v>
+        <v>0.237171</v>
       </c>
       <c r="F69" t="n">
-        <v>0.462323</v>
+        <v>0.457046</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.336891</v>
+        <v>0.336582</v>
       </c>
       <c r="C70" t="n">
-        <v>0.676919</v>
+        <v>0.696661</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5456220000000001</v>
+        <v>0.558245</v>
       </c>
       <c r="E70" t="n">
-        <v>0.233051</v>
+        <v>0.23564</v>
       </c>
       <c r="F70" t="n">
-        <v>0.460937</v>
+        <v>0.455847</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.329896</v>
+        <v>0.329867</v>
       </c>
       <c r="C71" t="n">
-        <v>0.655273</v>
+        <v>0.6678770000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.557965</v>
+        <v>0.565437</v>
       </c>
       <c r="E71" t="n">
-        <v>0.231815</v>
+        <v>0.233779</v>
       </c>
       <c r="F71" t="n">
-        <v>0.460137</v>
+        <v>0.455191</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.322499</v>
+        <v>0.322116</v>
       </c>
       <c r="C72" t="n">
-        <v>0.652052</v>
+        <v>0.667418</v>
       </c>
       <c r="D72" t="n">
-        <v>0.558609</v>
+        <v>0.575452</v>
       </c>
       <c r="E72" t="n">
-        <v>0.229887</v>
+        <v>0.23112</v>
       </c>
       <c r="F72" t="n">
-        <v>0.459239</v>
+        <v>0.454127</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.314664</v>
+        <v>0.31452</v>
       </c>
       <c r="C73" t="n">
-        <v>0.642074</v>
+        <v>0.727069</v>
       </c>
       <c r="D73" t="n">
-        <v>0.561225</v>
+        <v>0.577067</v>
       </c>
       <c r="E73" t="n">
-        <v>0.228204</v>
+        <v>0.228781</v>
       </c>
       <c r="F73" t="n">
-        <v>0.458076</v>
+        <v>0.452933</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.306001</v>
+        <v>0.305492</v>
       </c>
       <c r="C74" t="n">
-        <v>0.616812</v>
+        <v>0.627715</v>
       </c>
       <c r="D74" t="n">
-        <v>0.564676</v>
+        <v>0.581599</v>
       </c>
       <c r="E74" t="n">
-        <v>0.226993</v>
+        <v>0.227106</v>
       </c>
       <c r="F74" t="n">
-        <v>0.457253</v>
+        <v>0.452339</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.296936</v>
+        <v>0.296585</v>
       </c>
       <c r="C75" t="n">
-        <v>0.603526</v>
+        <v>0.609425</v>
       </c>
       <c r="D75" t="n">
-        <v>0.564051</v>
+        <v>0.584136</v>
       </c>
       <c r="E75" t="n">
-        <v>0.236664</v>
+        <v>0.22649</v>
       </c>
       <c r="F75" t="n">
-        <v>0.456127</v>
+        <v>0.45148</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.287062</v>
+        <v>0.287019</v>
       </c>
       <c r="C76" t="n">
-        <v>0.587602</v>
+        <v>0.599011</v>
       </c>
       <c r="D76" t="n">
-        <v>0.566843</v>
+        <v>0.580913</v>
       </c>
       <c r="E76" t="n">
-        <v>0.239413</v>
+        <v>0.239632</v>
       </c>
       <c r="F76" t="n">
-        <v>0.455032</v>
+        <v>0.450033</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.27693</v>
+        <v>0.276589</v>
       </c>
       <c r="C77" t="n">
-        <v>0.586265</v>
+        <v>0.600281</v>
       </c>
       <c r="D77" t="n">
-        <v>0.570396</v>
+        <v>0.581342</v>
       </c>
       <c r="E77" t="n">
-        <v>0.234174</v>
+        <v>0.225887</v>
       </c>
       <c r="F77" t="n">
-        <v>0.454516</v>
+        <v>0.449428</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.264719</v>
+        <v>0.264518</v>
       </c>
       <c r="C78" t="n">
-        <v>0.622001</v>
+        <v>0.647265</v>
       </c>
       <c r="D78" t="n">
-        <v>0.650044</v>
+        <v>0.677468</v>
       </c>
       <c r="E78" t="n">
-        <v>0.23898</v>
+        <v>0.22473</v>
       </c>
       <c r="F78" t="n">
-        <v>0.453634</v>
+        <v>0.448385</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.252229</v>
+        <v>0.251965</v>
       </c>
       <c r="C79" t="n">
-        <v>0.57764</v>
+        <v>0.593123</v>
       </c>
       <c r="D79" t="n">
-        <v>0.652287</v>
+        <v>0.684079</v>
       </c>
       <c r="E79" t="n">
-        <v>0.238177</v>
+        <v>0.238251</v>
       </c>
       <c r="F79" t="n">
-        <v>0.453136</v>
+        <v>0.44808</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.238749</v>
+        <v>0.238675</v>
       </c>
       <c r="C80" t="n">
-        <v>0.58395</v>
+        <v>0.600124</v>
       </c>
       <c r="D80" t="n">
-        <v>0.651819</v>
+        <v>0.681756</v>
       </c>
       <c r="E80" t="n">
-        <v>0.238143</v>
+        <v>0.239632</v>
       </c>
       <c r="F80" t="n">
-        <v>0.46801</v>
+        <v>0.46286</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.35743</v>
+        <v>0.357799</v>
       </c>
       <c r="C81" t="n">
-        <v>0.751178</v>
+        <v>0.776192</v>
       </c>
       <c r="D81" t="n">
-        <v>0.649943</v>
+        <v>0.678814</v>
       </c>
       <c r="E81" t="n">
-        <v>0.235746</v>
+        <v>0.236626</v>
       </c>
       <c r="F81" t="n">
-        <v>0.466148</v>
+        <v>0.461015</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.351901</v>
+        <v>0.351957</v>
       </c>
       <c r="C82" t="n">
-        <v>0.738392</v>
+        <v>0.730172</v>
       </c>
       <c r="D82" t="n">
-        <v>0.64755</v>
+        <v>0.676225</v>
       </c>
       <c r="E82" t="n">
-        <v>0.233564</v>
+        <v>0.234361</v>
       </c>
       <c r="F82" t="n">
-        <v>0.464477</v>
+        <v>0.459338</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.345664</v>
+        <v>0.345693</v>
       </c>
       <c r="C83" t="n">
-        <v>0.70378</v>
+        <v>0.755101</v>
       </c>
       <c r="D83" t="n">
-        <v>0.646249</v>
+        <v>0.673224</v>
       </c>
       <c r="E83" t="n">
-        <v>0.232259</v>
+        <v>0.232842</v>
       </c>
       <c r="F83" t="n">
-        <v>0.462968</v>
+        <v>0.457881</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.338898</v>
+        <v>0.338714</v>
       </c>
       <c r="C84" t="n">
-        <v>0.628528</v>
+        <v>0.632348</v>
       </c>
       <c r="D84" t="n">
-        <v>0.640132</v>
+        <v>0.6638579999999999</v>
       </c>
       <c r="E84" t="n">
-        <v>0.245591</v>
+        <v>0.246225</v>
       </c>
       <c r="F84" t="n">
-        <v>0.461887</v>
+        <v>0.456734</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.331863</v>
+        <v>0.331394</v>
       </c>
       <c r="C85" t="n">
-        <v>0.689157</v>
+        <v>0.709966</v>
       </c>
       <c r="D85" t="n">
-        <v>0.637025</v>
+        <v>0.657381</v>
       </c>
       <c r="E85" t="n">
-        <v>0.229906</v>
+        <v>0.23029</v>
       </c>
       <c r="F85" t="n">
-        <v>0.459966</v>
+        <v>0.455432</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.324211</v>
+        <v>0.324071</v>
       </c>
       <c r="C86" t="n">
-        <v>0.77482</v>
+        <v>0.810218</v>
       </c>
       <c r="D86" t="n">
-        <v>0.63314</v>
+        <v>0.6527579999999999</v>
       </c>
       <c r="E86" t="n">
-        <v>0.243291</v>
+        <v>0.243538</v>
       </c>
       <c r="F86" t="n">
-        <v>0.459642</v>
+        <v>0.454438</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.316635</v>
+        <v>0.316239</v>
       </c>
       <c r="C87" t="n">
-        <v>0.684794</v>
+        <v>0.6934360000000001</v>
       </c>
       <c r="D87" t="n">
-        <v>0.628903</v>
+        <v>0.650516</v>
       </c>
       <c r="E87" t="n">
-        <v>0.227919</v>
+        <v>0.228059</v>
       </c>
       <c r="F87" t="n">
-        <v>0.458517</v>
+        <v>0.453172</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.30791</v>
+        <v>0.308048</v>
       </c>
       <c r="C88" t="n">
-        <v>0.630808</v>
+        <v>0.649141</v>
       </c>
       <c r="D88" t="n">
-        <v>0.623815</v>
+        <v>0.6440360000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>0.227034</v>
+        <v>0.22721</v>
       </c>
       <c r="F88" t="n">
-        <v>0.457283</v>
+        <v>0.452435</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.299056</v>
+        <v>0.298968</v>
       </c>
       <c r="C89" t="n">
-        <v>0.663041</v>
+        <v>0.688287</v>
       </c>
       <c r="D89" t="n">
-        <v>0.620963</v>
+        <v>0.640253</v>
       </c>
       <c r="E89" t="n">
-        <v>0.240727</v>
+        <v>0.241337</v>
       </c>
       <c r="F89" t="n">
-        <v>0.456368</v>
+        <v>0.45074</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.290071</v>
+        <v>0.289549</v>
       </c>
       <c r="C90" t="n">
-        <v>0.650756</v>
+        <v>0.673503</v>
       </c>
       <c r="D90" t="n">
-        <v>0.618265</v>
+        <v>0.634701</v>
       </c>
       <c r="E90" t="n">
-        <v>0.23502</v>
+        <v>0.240099</v>
       </c>
       <c r="F90" t="n">
-        <v>0.455717</v>
+        <v>0.450616</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.279671</v>
+        <v>0.279661</v>
       </c>
       <c r="C91" t="n">
-        <v>0.59692</v>
+        <v>0.612537</v>
       </c>
       <c r="D91" t="n">
-        <v>0.614254</v>
+        <v>0.630016</v>
       </c>
       <c r="E91" t="n">
-        <v>0.2405</v>
+        <v>0.22528</v>
       </c>
       <c r="F91" t="n">
-        <v>0.454534</v>
+        <v>0.44967</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.268201</v>
+        <v>0.268224</v>
       </c>
       <c r="C92" t="n">
-        <v>0.557886</v>
+        <v>0.568091</v>
       </c>
       <c r="D92" t="n">
-        <v>0.639421</v>
+        <v>0.67389</v>
       </c>
       <c r="E92" t="n">
-        <v>0.239513</v>
+        <v>0.239449</v>
       </c>
       <c r="F92" t="n">
-        <v>0.452011</v>
+        <v>0.448896</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.256234</v>
+        <v>0.256271</v>
       </c>
       <c r="C93" t="n">
-        <v>0.627312</v>
+        <v>0.653112</v>
       </c>
       <c r="D93" t="n">
-        <v>0.646053</v>
+        <v>0.685715</v>
       </c>
       <c r="E93" t="n">
-        <v>0.22475</v>
+        <v>0.23861</v>
       </c>
       <c r="F93" t="n">
-        <v>0.45267</v>
+        <v>0.448277</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.241788</v>
+        <v>0.241637</v>
       </c>
       <c r="C94" t="n">
-        <v>0.617316</v>
+        <v>0.647752</v>
       </c>
       <c r="D94" t="n">
-        <v>0.645699</v>
+        <v>0.6828379999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>0.239341</v>
+        <v>0.240301</v>
       </c>
       <c r="F94" t="n">
-        <v>0.467804</v>
+        <v>0.462565</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.358509</v>
+        <v>0.3584</v>
       </c>
       <c r="C95" t="n">
-        <v>0.699274</v>
+        <v>0.71738</v>
       </c>
       <c r="D95" t="n">
-        <v>0.641115</v>
+        <v>0.676845</v>
       </c>
       <c r="E95" t="n">
-        <v>0.25148</v>
+        <v>0.251654</v>
       </c>
       <c r="F95" t="n">
-        <v>0.466338</v>
+        <v>0.460953</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.353201</v>
+        <v>0.35346</v>
       </c>
       <c r="C96" t="n">
-        <v>0.665984</v>
+        <v>0.67497</v>
       </c>
       <c r="D96" t="n">
-        <v>0.637611</v>
+        <v>0.673493</v>
       </c>
       <c r="E96" t="n">
-        <v>0.234962</v>
+        <v>0.235355</v>
       </c>
       <c r="F96" t="n">
-        <v>0.465026</v>
+        <v>0.459772</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.346908</v>
+        <v>0.346838</v>
       </c>
       <c r="C97" t="n">
-        <v>0.699476</v>
+        <v>0.716177</v>
       </c>
       <c r="D97" t="n">
-        <v>0.63283</v>
+        <v>0.6693789999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>0.233066</v>
+        <v>0.23379</v>
       </c>
       <c r="F97" t="n">
-        <v>0.463772</v>
+        <v>0.458364</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.340874</v>
+        <v>0.340198</v>
       </c>
       <c r="C98" t="n">
-        <v>0.717812</v>
+        <v>0.744507</v>
       </c>
       <c r="D98" t="n">
-        <v>0.628522</v>
+        <v>0.661914</v>
       </c>
       <c r="E98" t="n">
-        <v>0.231602</v>
+        <v>0.232206</v>
       </c>
       <c r="F98" t="n">
-        <v>0.462682</v>
+        <v>0.457074</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.333352</v>
+        <v>0.333002</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6937950000000001</v>
+        <v>0.720684</v>
       </c>
       <c r="D99" t="n">
-        <v>0.619823</v>
+        <v>0.658018</v>
       </c>
       <c r="E99" t="n">
-        <v>0.230736</v>
+        <v>0.230897</v>
       </c>
       <c r="F99" t="n">
-        <v>0.461091</v>
+        <v>0.455843</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.326004</v>
+        <v>0.326109</v>
       </c>
       <c r="C100" t="n">
-        <v>0.687462</v>
+        <v>0.7209950000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.620926</v>
+        <v>0.6549</v>
       </c>
       <c r="E100" t="n">
-        <v>0.229286</v>
+        <v>0.229464</v>
       </c>
       <c r="F100" t="n">
-        <v>0.460185</v>
+        <v>0.454443</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.318266</v>
+        <v>0.31807</v>
       </c>
       <c r="C101" t="n">
-        <v>0.693581</v>
+        <v>0.719299</v>
       </c>
       <c r="D101" t="n">
-        <v>0.615464</v>
+        <v>0.6462</v>
       </c>
       <c r="E101" t="n">
-        <v>0.228329</v>
+        <v>0.228483</v>
       </c>
       <c r="F101" t="n">
-        <v>0.458582</v>
+        <v>0.453207</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.309689</v>
+        <v>0.310153</v>
       </c>
       <c r="C102" t="n">
-        <v>0.624919</v>
+        <v>0.641398</v>
       </c>
       <c r="D102" t="n">
-        <v>0.611204</v>
+        <v>0.639449</v>
       </c>
       <c r="E102" t="n">
-        <v>0.2275</v>
+        <v>0.227721</v>
       </c>
       <c r="F102" t="n">
-        <v>0.45776</v>
+        <v>0.452633</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.30149</v>
+        <v>0.301667</v>
       </c>
       <c r="C103" t="n">
-        <v>0.647963</v>
+        <v>0.670048</v>
       </c>
       <c r="D103" t="n">
-        <v>0.606721</v>
+        <v>0.63248</v>
       </c>
       <c r="E103" t="n">
-        <v>0.226665</v>
+        <v>0.22685</v>
       </c>
       <c r="F103" t="n">
-        <v>0.456818</v>
+        <v>0.451413</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.292052</v>
+        <v>0.292501</v>
       </c>
       <c r="C104" t="n">
-        <v>0.604467</v>
+        <v>0.616439</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5996590000000001</v>
+        <v>0.628157</v>
       </c>
       <c r="E104" t="n">
-        <v>0.22588</v>
+        <v>0.226083</v>
       </c>
       <c r="F104" t="n">
-        <v>0.455603</v>
+        <v>0.450604</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.281672</v>
+        <v>0.282463</v>
       </c>
       <c r="C105" t="n">
-        <v>0.536235</v>
+        <v>0.536041</v>
       </c>
       <c r="D105" t="n">
-        <v>0.599957</v>
+        <v>0.626911</v>
       </c>
       <c r="E105" t="n">
-        <v>0.240664</v>
+        <v>0.240408</v>
       </c>
       <c r="F105" t="n">
-        <v>0.455057</v>
+        <v>0.449982</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.271276</v>
+        <v>0.271039</v>
       </c>
       <c r="C106" t="n">
-        <v>0.6448199999999999</v>
+        <v>0.672611</v>
       </c>
       <c r="D106" t="n">
-        <v>0.596433</v>
+        <v>0.621071</v>
       </c>
       <c r="E106" t="n">
-        <v>0.239958</v>
+        <v>0.235461</v>
       </c>
       <c r="F106" t="n">
-        <v>0.454367</v>
+        <v>0.448853</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.258786</v>
+        <v>0.258459</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5674129999999999</v>
+        <v>0.581655</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6431480000000001</v>
+        <v>0.679288</v>
       </c>
       <c r="E107" t="n">
-        <v>0.239107</v>
+        <v>0.234853</v>
       </c>
       <c r="F107" t="n">
-        <v>0.45376</v>
+        <v>0.448402</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.245429</v>
+        <v>0.24509</v>
       </c>
       <c r="C108" t="n">
-        <v>0.557283</v>
+        <v>0.575451</v>
       </c>
       <c r="D108" t="n">
-        <v>0.644186</v>
+        <v>0.680449</v>
       </c>
       <c r="E108" t="n">
-        <v>0.253513</v>
+        <v>0.240133</v>
       </c>
       <c r="F108" t="n">
-        <v>0.468343</v>
+        <v>0.463123</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.229825</v>
+        <v>0.229988</v>
       </c>
       <c r="C109" t="n">
-        <v>0.478982</v>
+        <v>0.476833</v>
       </c>
       <c r="D109" t="n">
-        <v>0.628746</v>
+        <v>0.659911</v>
       </c>
       <c r="E109" t="n">
-        <v>0.238164</v>
+        <v>0.239147</v>
       </c>
       <c r="F109" t="n">
-        <v>0.466078</v>
+        <v>0.461511</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.354468</v>
+        <v>0.354264</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6418160000000001</v>
+        <v>0.620223</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6263</v>
+        <v>0.656981</v>
       </c>
       <c r="E110" t="n">
-        <v>0.236614</v>
+        <v>0.23584</v>
       </c>
       <c r="F110" t="n">
-        <v>0.465353</v>
+        <v>0.460176</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.348362</v>
+        <v>0.348273</v>
       </c>
       <c r="C111" t="n">
-        <v>0.688652</v>
+        <v>0.726452</v>
       </c>
       <c r="D111" t="n">
-        <v>0.622614</v>
+        <v>0.6520089999999999</v>
       </c>
       <c r="E111" t="n">
-        <v>0.23418</v>
+        <v>0.233719</v>
       </c>
       <c r="F111" t="n">
-        <v>0.463621</v>
+        <v>0.458491</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.341993</v>
+        <v>0.342023</v>
       </c>
       <c r="C112" t="n">
-        <v>0.600312</v>
+        <v>0.616004</v>
       </c>
       <c r="D112" t="n">
-        <v>0.61997</v>
+        <v>0.648853</v>
       </c>
       <c r="E112" t="n">
-        <v>0.232759</v>
+        <v>0.232912</v>
       </c>
       <c r="F112" t="n">
-        <v>0.461938</v>
+        <v>0.457024</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.33508</v>
+        <v>0.334939</v>
       </c>
       <c r="C113" t="n">
-        <v>0.740909</v>
+        <v>0.77233</v>
       </c>
       <c r="D113" t="n">
-        <v>0.617429</v>
+        <v>0.6543949999999999</v>
       </c>
       <c r="E113" t="n">
-        <v>0.23143</v>
+        <v>0.231887</v>
       </c>
       <c r="F113" t="n">
-        <v>0.455873</v>
+        <v>0.455804</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.327736</v>
+        <v>0.327739</v>
       </c>
       <c r="C114" t="n">
-        <v>0.645992</v>
+        <v>0.664648</v>
       </c>
       <c r="D114" t="n">
-        <v>0.612654</v>
+        <v>0.6477579999999999</v>
       </c>
       <c r="E114" t="n">
-        <v>0.243792</v>
+        <v>0.243999</v>
       </c>
       <c r="F114" t="n">
-        <v>0.454651</v>
+        <v>0.454673</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.319915</v>
+        <v>0.320194</v>
       </c>
       <c r="C115" t="n">
-        <v>0.69965</v>
+        <v>0.723133</v>
       </c>
       <c r="D115" t="n">
-        <v>0.601096</v>
+        <v>0.635902</v>
       </c>
       <c r="E115" t="n">
-        <v>0.229749</v>
+        <v>0.228836</v>
       </c>
       <c r="F115" t="n">
-        <v>0.45354</v>
+        <v>0.453651</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.311844</v>
+        <v>0.312291</v>
       </c>
       <c r="C116" t="n">
-        <v>0.674712</v>
+        <v>0.7048219999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.599704</v>
+        <v>0.635578</v>
       </c>
       <c r="E116" t="n">
-        <v>0.228043</v>
+        <v>0.228492</v>
       </c>
       <c r="F116" t="n">
-        <v>0.452541</v>
+        <v>0.452751</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.30318</v>
+        <v>0.30323</v>
       </c>
       <c r="C117" t="n">
-        <v>0.650563</v>
+        <v>0.69443</v>
       </c>
       <c r="D117" t="n">
-        <v>0.596313</v>
+        <v>0.629673</v>
       </c>
       <c r="E117" t="n">
-        <v>0.227256</v>
+        <v>0.227577</v>
       </c>
       <c r="F117" t="n">
-        <v>0.451638</v>
+        <v>0.45162</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.293976</v>
+        <v>0.293992</v>
       </c>
       <c r="C118" t="n">
-        <v>0.660213</v>
+        <v>0.693483</v>
       </c>
       <c r="D118" t="n">
-        <v>0.592515</v>
+        <v>0.621812</v>
       </c>
       <c r="E118" t="n">
-        <v>0.240584</v>
+        <v>0.240633</v>
       </c>
       <c r="F118" t="n">
-        <v>0.451015</v>
+        <v>0.450678</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.284521</v>
+        <v>0.284633</v>
       </c>
       <c r="C119" t="n">
-        <v>0.637687</v>
+        <v>0.661974</v>
       </c>
       <c r="D119" t="n">
-        <v>0.588283</v>
+        <v>0.616924</v>
       </c>
       <c r="E119" t="n">
-        <v>0.239895</v>
+        <v>0.225573</v>
       </c>
       <c r="F119" t="n">
-        <v>0.449377</v>
+        <v>0.449777</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.273239</v>
+        <v>0.273251</v>
       </c>
       <c r="C120" t="n">
-        <v>0.636801</v>
+        <v>0.664306</v>
       </c>
       <c r="D120" t="n">
-        <v>0.584159</v>
+        <v>0.613569</v>
       </c>
       <c r="E120" t="n">
-        <v>0.239601</v>
+        <v>0.239688</v>
       </c>
       <c r="F120" t="n">
-        <v>0.448985</v>
+        <v>0.449235</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.261184</v>
+        <v>0.261658</v>
       </c>
       <c r="C121" t="n">
-        <v>0.62259</v>
+        <v>0.645029</v>
       </c>
       <c r="D121" t="n">
-        <v>0.655459</v>
+        <v>0.685203</v>
       </c>
       <c r="E121" t="n">
-        <v>0.239162</v>
+        <v>0.239323</v>
       </c>
       <c r="F121" t="n">
-        <v>0.448394</v>
+        <v>0.447973</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.248501</v>
+        <v>0.249075</v>
       </c>
       <c r="C122" t="n">
-        <v>0.568941</v>
+        <v>0.586076</v>
       </c>
       <c r="D122" t="n">
-        <v>0.638123</v>
+        <v>0.683173</v>
       </c>
       <c r="E122" t="n">
-        <v>0.22606</v>
+        <v>0.238981</v>
       </c>
       <c r="F122" t="n">
-        <v>0.447958</v>
+        <v>0.448027</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.23372</v>
+        <v>0.234044</v>
       </c>
       <c r="C123" t="n">
-        <v>0.607111</v>
+        <v>0.635783</v>
       </c>
       <c r="D123" t="n">
-        <v>0.652411</v>
+        <v>0.695021</v>
       </c>
       <c r="E123" t="n">
-        <v>0.251738</v>
+        <v>0.251478</v>
       </c>
       <c r="F123" t="n">
-        <v>0.461765</v>
+        <v>0.462384</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.3556</v>
+        <v>0.355624</v>
       </c>
       <c r="C124" t="n">
-        <v>0.682568</v>
+        <v>0.70524</v>
       </c>
       <c r="D124" t="n">
-        <v>0.646711</v>
+        <v>0.690518</v>
       </c>
       <c r="E124" t="n">
-        <v>0.240051</v>
+        <v>0.240594</v>
       </c>
       <c r="F124" t="n">
-        <v>0.460355</v>
+        <v>0.461036</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.349441</v>
+        <v>0.349744</v>
       </c>
       <c r="C125" t="n">
-        <v>0.791506</v>
+        <v>0.834732</v>
       </c>
       <c r="D125" t="n">
-        <v>0.639437</v>
+        <v>0.684376</v>
       </c>
       <c r="E125" t="n">
-        <v>0.237435</v>
+        <v>0.237917</v>
       </c>
       <c r="F125" t="n">
-        <v>0.459103</v>
+        <v>0.45885</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.343594</v>
+        <v>0.343393</v>
       </c>
       <c r="C126" t="n">
-        <v>0.732179</v>
+        <v>0.729015</v>
       </c>
       <c r="D126" t="n">
-        <v>0.636593</v>
+        <v>0.678176</v>
       </c>
       <c r="E126" t="n">
-        <v>0.236643</v>
+        <v>0.235926</v>
       </c>
       <c r="F126" t="n">
-        <v>0.457374</v>
+        <v>0.45749</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.337046</v>
+        <v>0.336723</v>
       </c>
       <c r="C127" t="n">
-        <v>0.654518</v>
+        <v>0.676061</v>
       </c>
       <c r="D127" t="n">
-        <v>0.621795</v>
+        <v>0.661874</v>
       </c>
       <c r="E127" t="n">
-        <v>0.234245</v>
+        <v>0.23458</v>
       </c>
       <c r="F127" t="n">
-        <v>0.456157</v>
+        <v>0.457082</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.329212</v>
+        <v>0.329137</v>
       </c>
       <c r="C128" t="n">
-        <v>0.600104</v>
+        <v>0.606093</v>
       </c>
       <c r="D128" t="n">
-        <v>0.624764</v>
+        <v>0.665909</v>
       </c>
       <c r="E128" t="n">
-        <v>0.232903</v>
+        <v>0.232979</v>
       </c>
       <c r="F128" t="n">
-        <v>0.455059</v>
+        <v>0.454824</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.322018</v>
+        <v>0.321729</v>
       </c>
       <c r="C129" t="n">
-        <v>0.709368</v>
+        <v>0.724122</v>
       </c>
       <c r="D129" t="n">
-        <v>0.614661</v>
+        <v>0.653321</v>
       </c>
       <c r="E129" t="n">
-        <v>0.23247</v>
+        <v>0.232637</v>
       </c>
       <c r="F129" t="n">
-        <v>0.453802</v>
+        <v>0.453713</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.313672</v>
+        <v>0.313856</v>
       </c>
       <c r="C130" t="n">
-        <v>0.55217</v>
+        <v>0.560266</v>
       </c>
       <c r="D130" t="n">
-        <v>0.61409</v>
+        <v>0.652261</v>
       </c>
       <c r="E130" t="n">
-        <v>0.230262</v>
+        <v>0.230951</v>
       </c>
       <c r="F130" t="n">
-        <v>0.45249</v>
+        <v>0.45263</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.306216</v>
+        <v>0.305157</v>
       </c>
       <c r="C131" t="n">
-        <v>0.617143</v>
+        <v>0.657908</v>
       </c>
       <c r="D131" t="n">
-        <v>0.604823</v>
+        <v>0.640751</v>
       </c>
       <c r="E131" t="n">
-        <v>0.229862</v>
+        <v>0.232201</v>
       </c>
       <c r="F131" t="n">
-        <v>0.452188</v>
+        <v>0.451762</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.297</v>
+        <v>0.296253</v>
       </c>
       <c r="C132" t="n">
-        <v>0.542314</v>
+        <v>0.547285</v>
       </c>
       <c r="D132" t="n">
-        <v>0.600233</v>
+        <v>0.63745</v>
       </c>
       <c r="E132" t="n">
-        <v>0.240742</v>
+        <v>0.240286</v>
       </c>
       <c r="F132" t="n">
-        <v>0.451014</v>
+        <v>0.450662</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.287341</v>
+        <v>0.287109</v>
       </c>
       <c r="C133" t="n">
-        <v>0.666229</v>
+        <v>0.698753</v>
       </c>
       <c r="D133" t="n">
-        <v>0.59394</v>
+        <v>0.628708</v>
       </c>
       <c r="E133" t="n">
-        <v>0.240281</v>
+        <v>0.239394</v>
       </c>
       <c r="F133" t="n">
-        <v>0.450174</v>
+        <v>0.449868</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.276564</v>
+        <v>0.276057</v>
       </c>
       <c r="C134" t="n">
-        <v>0.625956</v>
+        <v>0.65699</v>
       </c>
       <c r="D134" t="n">
-        <v>0.59258</v>
+        <v>0.623049</v>
       </c>
       <c r="E134" t="n">
-        <v>0.225561</v>
+        <v>0.230714</v>
       </c>
       <c r="F134" t="n">
-        <v>0.449506</v>
+        <v>0.449217</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.264857</v>
+        <v>0.264426</v>
       </c>
       <c r="C135" t="n">
-        <v>0.624425</v>
+        <v>0.529343</v>
       </c>
       <c r="D135" t="n">
-        <v>0.659354</v>
+        <v>0.71587</v>
       </c>
       <c r="E135" t="n">
-        <v>0.239205</v>
+        <v>0.238971</v>
       </c>
       <c r="F135" t="n">
-        <v>0.448886</v>
+        <v>0.448074</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.251934</v>
+        <v>0.252718</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5210320000000001</v>
+        <v>0.513466</v>
       </c>
       <c r="D136" t="n">
-        <v>0.660097</v>
+        <v>0.705806</v>
       </c>
       <c r="E136" t="n">
-        <v>0.229618</v>
+        <v>0.238531</v>
       </c>
       <c r="F136" t="n">
-        <v>0.447839</v>
+        <v>0.44756</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.238948</v>
+        <v>0.238043</v>
       </c>
       <c r="C137" t="n">
-        <v>0.559858</v>
+        <v>0.641587</v>
       </c>
       <c r="D137" t="n">
-        <v>0.65584</v>
+        <v>0.704763</v>
       </c>
       <c r="E137" t="n">
-        <v>0.252014</v>
+        <v>0.252296</v>
       </c>
       <c r="F137" t="n">
-        <v>0.462406</v>
+        <v>0.462573</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.356813</v>
+        <v>0.357028</v>
       </c>
       <c r="C138" t="n">
-        <v>0.734198</v>
+        <v>0.777222</v>
       </c>
       <c r="D138" t="n">
-        <v>0.639257</v>
+        <v>0.687181</v>
       </c>
       <c r="E138" t="n">
-        <v>0.241235</v>
+        <v>0.243546</v>
       </c>
       <c r="F138" t="n">
-        <v>0.460563</v>
+        <v>0.460953</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.351956</v>
+        <v>0.351507</v>
       </c>
       <c r="C139" t="n">
-        <v>0.668407</v>
+        <v>0.6417310000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>0.638865</v>
+        <v>0.679156</v>
       </c>
       <c r="E139" t="n">
-        <v>0.238105</v>
+        <v>0.239525</v>
       </c>
       <c r="F139" t="n">
-        <v>0.458942</v>
+        <v>0.460167</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.345317</v>
+        <v>0.344722</v>
       </c>
       <c r="C140" t="n">
-        <v>0.603311</v>
+        <v>0.6033269999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.63256</v>
+        <v>0.682014</v>
       </c>
       <c r="E140" t="n">
-        <v>0.237434</v>
+        <v>0.237228</v>
       </c>
       <c r="F140" t="n">
-        <v>0.457526</v>
+        <v>0.457555</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.338395</v>
+        <v>0.338142</v>
       </c>
       <c r="C141" t="n">
-        <v>0.688037</v>
+        <v>0.7146439999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>0.634729</v>
+        <v>0.680872</v>
       </c>
       <c r="E141" t="n">
-        <v>0.236872</v>
+        <v>0.236889</v>
       </c>
       <c r="F141" t="n">
-        <v>0.456398</v>
+        <v>0.45669</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.331489</v>
+        <v>0.33125</v>
       </c>
       <c r="C142" t="n">
-        <v>0.625044</v>
+        <v>0.640864</v>
       </c>
       <c r="D142" t="n">
-        <v>0.63059</v>
+        <v>0.671207</v>
       </c>
       <c r="E142" t="n">
-        <v>0.235429</v>
+        <v>0.235515</v>
       </c>
       <c r="F142" t="n">
-        <v>0.454949</v>
+        <v>0.455073</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.323932</v>
+        <v>0.323447</v>
       </c>
       <c r="C143" t="n">
-        <v>0.749306</v>
+        <v>0.7867499999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.622016</v>
+        <v>0.664555</v>
       </c>
       <c r="E143" t="n">
-        <v>0.243165</v>
+        <v>0.2433</v>
       </c>
       <c r="F143" t="n">
-        <v>0.454021</v>
+        <v>0.454912</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.301884</v>
+        <v>0.302707</v>
       </c>
       <c r="C2" t="n">
-        <v>0.517061</v>
+        <v>0.51636</v>
       </c>
       <c r="D2" t="n">
-        <v>0.42465</v>
+        <v>0.424438</v>
       </c>
       <c r="E2" t="n">
-        <v>0.200363</v>
+        <v>0.201984</v>
       </c>
       <c r="F2" t="n">
-        <v>0.446515</v>
+        <v>0.442341</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.296432</v>
+        <v>0.295896</v>
       </c>
       <c r="C3" t="n">
-        <v>0.506149</v>
+        <v>0.513249</v>
       </c>
       <c r="D3" t="n">
-        <v>0.424355</v>
+        <v>0.422668</v>
       </c>
       <c r="E3" t="n">
-        <v>0.203646</v>
+        <v>0.203039</v>
       </c>
       <c r="F3" t="n">
-        <v>0.44587</v>
+        <v>0.437759</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.28639</v>
+        <v>0.286265</v>
       </c>
       <c r="C4" t="n">
-        <v>0.503202</v>
+        <v>0.497217</v>
       </c>
       <c r="D4" t="n">
-        <v>0.426876</v>
+        <v>0.425872</v>
       </c>
       <c r="E4" t="n">
-        <v>0.20577</v>
+        <v>0.203299</v>
       </c>
       <c r="F4" t="n">
-        <v>0.441702</v>
+        <v>0.440935</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.282908</v>
+        <v>0.278395</v>
       </c>
       <c r="C5" t="n">
-        <v>0.489983</v>
+        <v>0.493976</v>
       </c>
       <c r="D5" t="n">
-        <v>0.429581</v>
+        <v>0.428017</v>
       </c>
       <c r="E5" t="n">
-        <v>0.223369</v>
+        <v>0.206817</v>
       </c>
       <c r="F5" t="n">
-        <v>0.443775</v>
+        <v>0.438696</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2651</v>
+        <v>0.264884</v>
       </c>
       <c r="C6" t="n">
-        <v>0.475969</v>
+        <v>0.476718</v>
       </c>
       <c r="D6" t="n">
-        <v>0.428454</v>
+        <v>0.428833</v>
       </c>
       <c r="E6" t="n">
-        <v>0.207029</v>
+        <v>0.207649</v>
       </c>
       <c r="F6" t="n">
-        <v>0.442947</v>
+        <v>0.438541</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.254897</v>
+        <v>0.255399</v>
       </c>
       <c r="C7" t="n">
-        <v>0.46635</v>
+        <v>0.466185</v>
       </c>
       <c r="D7" t="n">
-        <v>0.424063</v>
+        <v>0.425731</v>
       </c>
       <c r="E7" t="n">
-        <v>0.210022</v>
+        <v>0.209776</v>
       </c>
       <c r="F7" t="n">
-        <v>0.44128</v>
+        <v>0.437297</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.239225</v>
+        <v>0.239786</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4531</v>
+        <v>0.453431</v>
       </c>
       <c r="D8" t="n">
-        <v>0.424679</v>
+        <v>0.425226</v>
       </c>
       <c r="E8" t="n">
-        <v>0.210151</v>
+        <v>0.211959</v>
       </c>
       <c r="F8" t="n">
-        <v>0.439978</v>
+        <v>0.436742</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.226085</v>
+        <v>0.227425</v>
       </c>
       <c r="C9" t="n">
-        <v>0.439259</v>
+        <v>0.439832</v>
       </c>
       <c r="D9" t="n">
-        <v>0.425461</v>
+        <v>0.427271</v>
       </c>
       <c r="E9" t="n">
-        <v>0.229301</v>
+        <v>0.228607</v>
       </c>
       <c r="F9" t="n">
-        <v>0.456153</v>
+        <v>0.452526</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.350693</v>
+        <v>0.350906</v>
       </c>
       <c r="C10" t="n">
-        <v>0.563797</v>
+        <v>0.564663</v>
       </c>
       <c r="D10" t="n">
-        <v>0.425348</v>
+        <v>0.425382</v>
       </c>
       <c r="E10" t="n">
-        <v>0.227417</v>
+        <v>0.242922</v>
       </c>
       <c r="F10" t="n">
-        <v>0.456007</v>
+        <v>0.452659</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.345528</v>
+        <v>0.345166</v>
       </c>
       <c r="C11" t="n">
-        <v>0.548942</v>
+        <v>0.560636</v>
       </c>
       <c r="D11" t="n">
-        <v>0.426219</v>
+        <v>0.426648</v>
       </c>
       <c r="E11" t="n">
-        <v>0.231731</v>
+        <v>0.225656</v>
       </c>
       <c r="F11" t="n">
-        <v>0.455116</v>
+        <v>0.45284</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.339651</v>
+        <v>0.340221</v>
       </c>
       <c r="C12" t="n">
-        <v>0.556037</v>
+        <v>0.555959</v>
       </c>
       <c r="D12" t="n">
-        <v>0.42452</v>
+        <v>0.427211</v>
       </c>
       <c r="E12" t="n">
-        <v>0.225569</v>
+        <v>0.225264</v>
       </c>
       <c r="F12" t="n">
-        <v>0.455561</v>
+        <v>0.450356</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.334696</v>
+        <v>0.334189</v>
       </c>
       <c r="C13" t="n">
-        <v>0.548984</v>
+        <v>0.54593</v>
       </c>
       <c r="D13" t="n">
-        <v>0.427273</v>
+        <v>0.426721</v>
       </c>
       <c r="E13" t="n">
-        <v>0.239653</v>
+        <v>0.225113</v>
       </c>
       <c r="F13" t="n">
-        <v>0.452823</v>
+        <v>0.448354</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.326999</v>
+        <v>0.326577</v>
       </c>
       <c r="C14" t="n">
-        <v>0.540839</v>
+        <v>0.542422</v>
       </c>
       <c r="D14" t="n">
-        <v>0.43013</v>
+        <v>0.430144</v>
       </c>
       <c r="E14" t="n">
-        <v>0.224858</v>
+        <v>0.225207</v>
       </c>
       <c r="F14" t="n">
-        <v>0.450609</v>
+        <v>0.446348</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.320159</v>
+        <v>0.320982</v>
       </c>
       <c r="C15" t="n">
-        <v>0.532091</v>
+        <v>0.532601</v>
       </c>
       <c r="D15" t="n">
-        <v>0.430359</v>
+        <v>0.431018</v>
       </c>
       <c r="E15" t="n">
-        <v>0.224019</v>
+        <v>0.224375</v>
       </c>
       <c r="F15" t="n">
-        <v>0.449765</v>
+        <v>0.446495</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.312323</v>
+        <v>0.312449</v>
       </c>
       <c r="C16" t="n">
-        <v>0.524305</v>
+        <v>0.524006</v>
       </c>
       <c r="D16" t="n">
-        <v>0.433256</v>
+        <v>0.432551</v>
       </c>
       <c r="E16" t="n">
-        <v>0.224055</v>
+        <v>0.223681</v>
       </c>
       <c r="F16" t="n">
-        <v>0.448659</v>
+        <v>0.44534</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.303003</v>
+        <v>0.30335</v>
       </c>
       <c r="C17" t="n">
-        <v>0.522436</v>
+        <v>0.522385</v>
       </c>
       <c r="D17" t="n">
-        <v>0.432546</v>
+        <v>0.433388</v>
       </c>
       <c r="E17" t="n">
-        <v>0.224084</v>
+        <v>0.224081</v>
       </c>
       <c r="F17" t="n">
-        <v>0.448284</v>
+        <v>0.445802</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.293288</v>
+        <v>0.29442</v>
       </c>
       <c r="C18" t="n">
-        <v>0.50456</v>
+        <v>0.5049169999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.434338</v>
+        <v>0.434814</v>
       </c>
       <c r="E18" t="n">
-        <v>0.22212</v>
+        <v>0.222296</v>
       </c>
       <c r="F18" t="n">
-        <v>0.447313</v>
+        <v>0.444462</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.284657</v>
+        <v>0.285763</v>
       </c>
       <c r="C19" t="n">
-        <v>0.500134</v>
+        <v>0.500437</v>
       </c>
       <c r="D19" t="n">
-        <v>0.436348</v>
+        <v>0.437057</v>
       </c>
       <c r="E19" t="n">
-        <v>0.222515</v>
+        <v>0.222665</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4457</v>
+        <v>0.442607</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.273236</v>
+        <v>0.273924</v>
       </c>
       <c r="C20" t="n">
-        <v>0.489556</v>
+        <v>0.490794</v>
       </c>
       <c r="D20" t="n">
-        <v>0.437198</v>
+        <v>0.436591</v>
       </c>
       <c r="E20" t="n">
-        <v>0.222193</v>
+        <v>0.222499</v>
       </c>
       <c r="F20" t="n">
-        <v>0.445956</v>
+        <v>0.442659</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.264281</v>
+        <v>0.263141</v>
       </c>
       <c r="C21" t="n">
-        <v>0.46945</v>
+        <v>0.469645</v>
       </c>
       <c r="D21" t="n">
-        <v>0.429305</v>
+        <v>0.430294</v>
       </c>
       <c r="E21" t="n">
-        <v>0.234833</v>
+        <v>0.221901</v>
       </c>
       <c r="F21" t="n">
-        <v>0.445394</v>
+        <v>0.441525</v>
       </c>
     </row>
     <row r="22">
@@ -5488,16 +5488,16 @@
         <v>0.249642</v>
       </c>
       <c r="C22" t="n">
-        <v>0.460991</v>
+        <v>0.460828</v>
       </c>
       <c r="D22" t="n">
-        <v>0.431002</v>
+        <v>0.428038</v>
       </c>
       <c r="E22" t="n">
-        <v>0.236309</v>
+        <v>0.222574</v>
       </c>
       <c r="F22" t="n">
-        <v>0.44451</v>
+        <v>0.44195</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.236352</v>
+        <v>0.236351</v>
       </c>
       <c r="C23" t="n">
-        <v>0.439099</v>
+        <v>0.439734</v>
       </c>
       <c r="D23" t="n">
-        <v>0.432812</v>
+        <v>0.434212</v>
       </c>
       <c r="E23" t="n">
-        <v>0.236887</v>
+        <v>0.248214</v>
       </c>
       <c r="F23" t="n">
-        <v>0.460546</v>
+        <v>0.457236</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.353123</v>
+        <v>0.353704</v>
       </c>
       <c r="C24" t="n">
-        <v>0.569319</v>
+        <v>0.569882</v>
       </c>
       <c r="D24" t="n">
-        <v>0.432903</v>
+        <v>0.432334</v>
       </c>
       <c r="E24" t="n">
-        <v>0.247688</v>
+        <v>0.248525</v>
       </c>
       <c r="F24" t="n">
-        <v>0.459368</v>
+        <v>0.45598</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.348129</v>
+        <v>0.34904</v>
       </c>
       <c r="C25" t="n">
-        <v>0.561744</v>
+        <v>0.5623</v>
       </c>
       <c r="D25" t="n">
-        <v>0.433315</v>
+        <v>0.434128</v>
       </c>
       <c r="E25" t="n">
-        <v>0.232508</v>
+        <v>0.233078</v>
       </c>
       <c r="F25" t="n">
-        <v>0.458072</v>
+        <v>0.454231</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.341623</v>
+        <v>0.342004</v>
       </c>
       <c r="C26" t="n">
-        <v>0.55646</v>
+        <v>0.55692</v>
       </c>
       <c r="D26" t="n">
-        <v>0.434307</v>
+        <v>0.434496</v>
       </c>
       <c r="E26" t="n">
-        <v>0.23156</v>
+        <v>0.231962</v>
       </c>
       <c r="F26" t="n">
-        <v>0.457119</v>
+        <v>0.453744</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.337823</v>
+        <v>0.340111</v>
       </c>
       <c r="C27" t="n">
-        <v>0.545173</v>
+        <v>0.545574</v>
       </c>
       <c r="D27" t="n">
-        <v>0.43498</v>
+        <v>0.435459</v>
       </c>
       <c r="E27" t="n">
-        <v>0.230274</v>
+        <v>0.230635</v>
       </c>
       <c r="F27" t="n">
-        <v>0.455573</v>
+        <v>0.451476</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.330448</v>
+        <v>0.331144</v>
       </c>
       <c r="C28" t="n">
-        <v>0.539642</v>
+        <v>0.539937</v>
       </c>
       <c r="D28" t="n">
-        <v>0.434673</v>
+        <v>0.435339</v>
       </c>
       <c r="E28" t="n">
-        <v>0.229344</v>
+        <v>0.229554</v>
       </c>
       <c r="F28" t="n">
-        <v>0.453536</v>
+        <v>0.450666</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.322777</v>
+        <v>0.323761</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5375180000000001</v>
+        <v>0.538106</v>
       </c>
       <c r="D29" t="n">
-        <v>0.435591</v>
+        <v>0.435724</v>
       </c>
       <c r="E29" t="n">
-        <v>0.228595</v>
+        <v>0.228533</v>
       </c>
       <c r="F29" t="n">
-        <v>0.452991</v>
+        <v>0.449413</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.314493</v>
+        <v>0.314451</v>
       </c>
       <c r="C30" t="n">
-        <v>0.528423</v>
+        <v>0.528976</v>
       </c>
       <c r="D30" t="n">
-        <v>0.435786</v>
+        <v>0.434381</v>
       </c>
       <c r="E30" t="n">
-        <v>0.237064</v>
+        <v>0.227272</v>
       </c>
       <c r="F30" t="n">
-        <v>0.452779</v>
+        <v>0.44876</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.305597</v>
+        <v>0.305548</v>
       </c>
       <c r="C31" t="n">
-        <v>0.512947</v>
+        <v>0.513556</v>
       </c>
       <c r="D31" t="n">
-        <v>0.43839</v>
+        <v>0.438778</v>
       </c>
       <c r="E31" t="n">
-        <v>0.226266</v>
+        <v>0.22652</v>
       </c>
       <c r="F31" t="n">
-        <v>0.451079</v>
+        <v>0.447375</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.29599</v>
+        <v>0.296113</v>
       </c>
       <c r="C32" t="n">
-        <v>0.507756</v>
+        <v>0.508328</v>
       </c>
       <c r="D32" t="n">
-        <v>0.438476</v>
+        <v>0.438766</v>
       </c>
       <c r="E32" t="n">
-        <v>0.225484</v>
+        <v>0.225734</v>
       </c>
       <c r="F32" t="n">
-        <v>0.449858</v>
+        <v>0.446349</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.287254</v>
+        <v>0.287841</v>
       </c>
       <c r="C33" t="n">
-        <v>0.502293</v>
+        <v>0.502869</v>
       </c>
       <c r="D33" t="n">
-        <v>0.439378</v>
+        <v>0.438979</v>
       </c>
       <c r="E33" t="n">
-        <v>0.225027</v>
+        <v>0.225222</v>
       </c>
       <c r="F33" t="n">
-        <v>0.448855</v>
+        <v>0.444878</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.276606</v>
+        <v>0.277011</v>
       </c>
       <c r="C34" t="n">
-        <v>0.484894</v>
+        <v>0.485355</v>
       </c>
       <c r="D34" t="n">
-        <v>0.441318</v>
+        <v>0.439128</v>
       </c>
       <c r="E34" t="n">
-        <v>0.231191</v>
+        <v>0.238605</v>
       </c>
       <c r="F34" t="n">
-        <v>0.448845</v>
+        <v>0.4448</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.266401</v>
+        <v>0.265925</v>
       </c>
       <c r="C35" t="n">
-        <v>0.469228</v>
+        <v>0.46969</v>
       </c>
       <c r="D35" t="n">
-        <v>0.43683</v>
+        <v>0.437045</v>
       </c>
       <c r="E35" t="n">
-        <v>0.23601</v>
+        <v>0.238878</v>
       </c>
       <c r="F35" t="n">
-        <v>0.447818</v>
+        <v>0.444021</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.253615</v>
+        <v>0.253849</v>
       </c>
       <c r="C36" t="n">
-        <v>0.464971</v>
+        <v>0.467478</v>
       </c>
       <c r="D36" t="n">
-        <v>0.435245</v>
+        <v>0.440831</v>
       </c>
       <c r="E36" t="n">
-        <v>0.225964</v>
+        <v>0.237852</v>
       </c>
       <c r="F36" t="n">
-        <v>0.447291</v>
+        <v>0.44275</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.239837</v>
+        <v>0.239971</v>
       </c>
       <c r="C37" t="n">
-        <v>0.454219</v>
+        <v>0.454746</v>
       </c>
       <c r="D37" t="n">
-        <v>0.437816</v>
+        <v>0.436607</v>
       </c>
       <c r="E37" t="n">
-        <v>0.242274</v>
+        <v>0.251013</v>
       </c>
       <c r="F37" t="n">
-        <v>0.461247</v>
+        <v>0.458384</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.357439</v>
+        <v>0.358009</v>
       </c>
       <c r="C38" t="n">
-        <v>0.558694</v>
+        <v>0.559113</v>
       </c>
       <c r="D38" t="n">
-        <v>0.437287</v>
+        <v>0.435736</v>
       </c>
       <c r="E38" t="n">
-        <v>0.235832</v>
+        <v>0.237559</v>
       </c>
       <c r="F38" t="n">
-        <v>0.459602</v>
+        <v>0.456507</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.35214</v>
+        <v>0.352475</v>
       </c>
       <c r="C39" t="n">
-        <v>0.554319</v>
+        <v>0.554449</v>
       </c>
       <c r="D39" t="n">
-        <v>0.436122</v>
+        <v>0.437114</v>
       </c>
       <c r="E39" t="n">
-        <v>0.232656</v>
+        <v>0.232958</v>
       </c>
       <c r="F39" t="n">
-        <v>0.457512</v>
+        <v>0.454043</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.34562</v>
+        <v>0.345774</v>
       </c>
       <c r="C40" t="n">
-        <v>0.548477</v>
+        <v>0.548702</v>
       </c>
       <c r="D40" t="n">
-        <v>0.43831</v>
+        <v>0.438364</v>
       </c>
       <c r="E40" t="n">
-        <v>0.232145</v>
+        <v>0.232087</v>
       </c>
       <c r="F40" t="n">
-        <v>0.457453</v>
+        <v>0.453613</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.339896</v>
+        <v>0.339998</v>
       </c>
       <c r="C41" t="n">
-        <v>0.543393</v>
+        <v>0.543817</v>
       </c>
       <c r="D41" t="n">
-        <v>0.439421</v>
+        <v>0.439445</v>
       </c>
       <c r="E41" t="n">
-        <v>0.231</v>
+        <v>0.231091</v>
       </c>
       <c r="F41" t="n">
-        <v>0.456012</v>
+        <v>0.45266</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.33238</v>
+        <v>0.332267</v>
       </c>
       <c r="C42" t="n">
-        <v>0.542205</v>
+        <v>0.542305</v>
       </c>
       <c r="D42" t="n">
-        <v>0.438707</v>
+        <v>0.438681</v>
       </c>
       <c r="E42" t="n">
-        <v>0.229794</v>
+        <v>0.229854</v>
       </c>
       <c r="F42" t="n">
-        <v>0.45406</v>
+        <v>0.451474</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.324933</v>
+        <v>0.325561</v>
       </c>
       <c r="C43" t="n">
-        <v>0.532199</v>
+        <v>0.53229</v>
       </c>
       <c r="D43" t="n">
-        <v>0.439487</v>
+        <v>0.439466</v>
       </c>
       <c r="E43" t="n">
-        <v>0.228478</v>
+        <v>0.228511</v>
       </c>
       <c r="F43" t="n">
-        <v>0.453066</v>
+        <v>0.449697</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.317661</v>
+        <v>0.31816</v>
       </c>
       <c r="C44" t="n">
-        <v>0.5285300000000001</v>
+        <v>0.528945</v>
       </c>
       <c r="D44" t="n">
-        <v>0.439927</v>
+        <v>0.441418</v>
       </c>
       <c r="E44" t="n">
-        <v>0.22776</v>
+        <v>0.227697</v>
       </c>
       <c r="F44" t="n">
-        <v>0.451912</v>
+        <v>0.448631</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.309004</v>
+        <v>0.309458</v>
       </c>
       <c r="C45" t="n">
-        <v>0.519937</v>
+        <v>0.520085</v>
       </c>
       <c r="D45" t="n">
-        <v>0.440692</v>
+        <v>0.439967</v>
       </c>
       <c r="E45" t="n">
-        <v>0.226942</v>
+        <v>0.226889</v>
       </c>
       <c r="F45" t="n">
-        <v>0.451252</v>
+        <v>0.447354</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.300411</v>
+        <v>0.300985</v>
       </c>
       <c r="C46" t="n">
-        <v>0.511863</v>
+        <v>0.5121599999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.442875</v>
+        <v>0.44134</v>
       </c>
       <c r="E46" t="n">
-        <v>0.22613</v>
+        <v>0.225976</v>
       </c>
       <c r="F46" t="n">
-        <v>0.450053</v>
+        <v>0.44672</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.290678</v>
+        <v>0.291611</v>
       </c>
       <c r="C47" t="n">
-        <v>0.509091</v>
+        <v>0.5092950000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.443372</v>
+        <v>0.442531</v>
       </c>
       <c r="E47" t="n">
-        <v>0.225451</v>
+        <v>0.225218</v>
       </c>
       <c r="F47" t="n">
-        <v>0.4497</v>
+        <v>0.445483</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.281797</v>
+        <v>0.281669</v>
       </c>
       <c r="C48" t="n">
-        <v>0.494617</v>
+        <v>0.496992</v>
       </c>
       <c r="D48" t="n">
-        <v>0.444733</v>
+        <v>0.446518</v>
       </c>
       <c r="E48" t="n">
-        <v>0.238955</v>
+        <v>0.238653</v>
       </c>
       <c r="F48" t="n">
-        <v>0.448572</v>
+        <v>0.444718</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.270454</v>
+        <v>0.271448</v>
       </c>
       <c r="C49" t="n">
-        <v>0.480129</v>
+        <v>0.480394</v>
       </c>
       <c r="D49" t="n">
-        <v>0.444691</v>
+        <v>0.445921</v>
       </c>
       <c r="E49" t="n">
-        <v>0.238848</v>
+        <v>0.224638</v>
       </c>
       <c r="F49" t="n">
-        <v>0.448385</v>
+        <v>0.444294</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.258402</v>
+        <v>0.258875</v>
       </c>
       <c r="C50" t="n">
-        <v>0.468052</v>
+        <v>0.470151</v>
       </c>
       <c r="D50" t="n">
-        <v>0.443411</v>
+        <v>0.442274</v>
       </c>
       <c r="E50" t="n">
-        <v>0.237887</v>
+        <v>0.231683</v>
       </c>
       <c r="F50" t="n">
-        <v>0.447588</v>
+        <v>0.443809</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.245218</v>
+        <v>0.246204</v>
       </c>
       <c r="C51" t="n">
-        <v>0.449784</v>
+        <v>0.449892</v>
       </c>
       <c r="D51" t="n">
-        <v>0.442236</v>
+        <v>0.443725</v>
       </c>
       <c r="E51" t="n">
-        <v>0.236964</v>
+        <v>0.240354</v>
       </c>
       <c r="F51" t="n">
-        <v>0.462114</v>
+        <v>0.458891</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.23081</v>
+        <v>0.231258</v>
       </c>
       <c r="C52" t="n">
-        <v>0.44164</v>
+        <v>0.443873</v>
       </c>
       <c r="D52" t="n">
-        <v>0.443759</v>
+        <v>0.446541</v>
       </c>
       <c r="E52" t="n">
-        <v>0.248236</v>
+        <v>0.244613</v>
       </c>
       <c r="F52" t="n">
-        <v>0.461059</v>
+        <v>0.457878</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.353951</v>
+        <v>0.35434</v>
       </c>
       <c r="C53" t="n">
-        <v>0.566811</v>
+        <v>0.570125</v>
       </c>
       <c r="D53" t="n">
-        <v>0.443977</v>
+        <v>0.447669</v>
       </c>
       <c r="E53" t="n">
-        <v>0.23324</v>
+        <v>0.233444</v>
       </c>
       <c r="F53" t="n">
-        <v>0.459253</v>
+        <v>0.456073</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.348525</v>
+        <v>0.348275</v>
       </c>
       <c r="C54" t="n">
-        <v>0.552601</v>
+        <v>0.552374</v>
       </c>
       <c r="D54" t="n">
-        <v>0.444898</v>
+        <v>0.446179</v>
       </c>
       <c r="E54" t="n">
-        <v>0.232368</v>
+        <v>0.232473</v>
       </c>
       <c r="F54" t="n">
-        <v>0.458658</v>
+        <v>0.457323</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.341997</v>
+        <v>0.34232</v>
       </c>
       <c r="C55" t="n">
-        <v>0.562345</v>
+        <v>0.565761</v>
       </c>
       <c r="D55" t="n">
-        <v>0.445756</v>
+        <v>0.450607</v>
       </c>
       <c r="E55" t="n">
-        <v>0.230979</v>
+        <v>0.231293</v>
       </c>
       <c r="F55" t="n">
-        <v>0.456763</v>
+        <v>0.45322</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.334473</v>
+        <v>0.334919</v>
       </c>
       <c r="C56" t="n">
-        <v>0.553872</v>
+        <v>0.553419</v>
       </c>
       <c r="D56" t="n">
-        <v>0.450936</v>
+        <v>0.449236</v>
       </c>
       <c r="E56" t="n">
-        <v>0.229772</v>
+        <v>0.230081</v>
       </c>
       <c r="F56" t="n">
-        <v>0.455448</v>
+        <v>0.451769</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.327171</v>
+        <v>0.327765</v>
       </c>
       <c r="C57" t="n">
-        <v>0.545485</v>
+        <v>0.544936</v>
       </c>
       <c r="D57" t="n">
-        <v>0.454704</v>
+        <v>0.451769</v>
       </c>
       <c r="E57" t="n">
-        <v>0.22863</v>
+        <v>0.228895</v>
       </c>
       <c r="F57" t="n">
-        <v>0.454777</v>
+        <v>0.451154</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.319967</v>
+        <v>0.320135</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5582510000000001</v>
+        <v>0.561824</v>
       </c>
       <c r="D58" t="n">
-        <v>0.454482</v>
+        <v>0.457671</v>
       </c>
       <c r="E58" t="n">
-        <v>0.22797</v>
+        <v>0.242918</v>
       </c>
       <c r="F58" t="n">
-        <v>0.45332</v>
+        <v>0.449588</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.311581</v>
+        <v>0.312729</v>
       </c>
       <c r="C59" t="n">
-        <v>0.527452</v>
+        <v>0.529772</v>
       </c>
       <c r="D59" t="n">
-        <v>0.456351</v>
+        <v>0.452216</v>
       </c>
       <c r="E59" t="n">
-        <v>0.227136</v>
+        <v>0.227404</v>
       </c>
       <c r="F59" t="n">
-        <v>0.452369</v>
+        <v>0.448536</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.303188</v>
+        <v>0.303686</v>
       </c>
       <c r="C60" t="n">
-        <v>0.544648</v>
+        <v>0.5451319999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.458167</v>
+        <v>0.454668</v>
       </c>
       <c r="E60" t="n">
-        <v>0.226396</v>
+        <v>0.226495</v>
       </c>
       <c r="F60" t="n">
-        <v>0.45163</v>
+        <v>0.447828</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.293854</v>
+        <v>0.294742</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5323369999999999</v>
+        <v>0.525098</v>
       </c>
       <c r="D61" t="n">
-        <v>0.464821</v>
+        <v>0.459984</v>
       </c>
       <c r="E61" t="n">
-        <v>0.240069</v>
+        <v>0.225715</v>
       </c>
       <c r="F61" t="n">
-        <v>0.450584</v>
+        <v>0.446624</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.284188</v>
+        <v>0.284481</v>
       </c>
       <c r="C62" t="n">
-        <v>0.530475</v>
+        <v>0.522424</v>
       </c>
       <c r="D62" t="n">
-        <v>0.467343</v>
+        <v>0.465306</v>
       </c>
       <c r="E62" t="n">
-        <v>0.224958</v>
+        <v>0.224942</v>
       </c>
       <c r="F62" t="n">
-        <v>0.44943</v>
+        <v>0.446229</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.273814</v>
+        <v>0.274309</v>
       </c>
       <c r="C63" t="n">
-        <v>0.497325</v>
+        <v>0.499133</v>
       </c>
       <c r="D63" t="n">
-        <v>0.471001</v>
+        <v>0.464351</v>
       </c>
       <c r="E63" t="n">
-        <v>0.238673</v>
+        <v>0.238848</v>
       </c>
       <c r="F63" t="n">
-        <v>0.448664</v>
+        <v>0.444797</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.261131</v>
+        <v>0.261411</v>
       </c>
       <c r="C64" t="n">
-        <v>0.491124</v>
+        <v>0.490342</v>
       </c>
       <c r="D64" t="n">
-        <v>0.509402</v>
+        <v>0.51251</v>
       </c>
       <c r="E64" t="n">
-        <v>0.238502</v>
+        <v>0.238676</v>
       </c>
       <c r="F64" t="n">
-        <v>0.44822</v>
+        <v>0.444617</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.248629</v>
+        <v>0.249173</v>
       </c>
       <c r="C65" t="n">
-        <v>0.496358</v>
+        <v>0.497653</v>
       </c>
       <c r="D65" t="n">
-        <v>0.512029</v>
+        <v>0.516101</v>
       </c>
       <c r="E65" t="n">
-        <v>0.223787</v>
+        <v>0.237947</v>
       </c>
       <c r="F65" t="n">
-        <v>0.447414</v>
+        <v>0.443214</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.234496</v>
+        <v>0.234738</v>
       </c>
       <c r="C66" t="n">
-        <v>0.479717</v>
+        <v>0.478821</v>
       </c>
       <c r="D66" t="n">
-        <v>0.522208</v>
+        <v>0.521269</v>
       </c>
       <c r="E66" t="n">
-        <v>0.244741</v>
+        <v>0.239992</v>
       </c>
       <c r="F66" t="n">
-        <v>0.461546</v>
+        <v>0.45794</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.355498</v>
+        <v>0.355805</v>
       </c>
       <c r="C67" t="n">
-        <v>0.64001</v>
+        <v>0.638466</v>
       </c>
       <c r="D67" t="n">
-        <v>0.532891</v>
+        <v>0.533934</v>
       </c>
       <c r="E67" t="n">
-        <v>0.256138</v>
+        <v>0.24051</v>
       </c>
       <c r="F67" t="n">
-        <v>0.460316</v>
+        <v>0.456816</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.349506</v>
+        <v>0.349768</v>
       </c>
       <c r="C68" t="n">
-        <v>0.666335</v>
+        <v>0.665457</v>
       </c>
       <c r="D68" t="n">
-        <v>0.543842</v>
+        <v>0.54031</v>
       </c>
       <c r="E68" t="n">
-        <v>0.240075</v>
+        <v>0.235244</v>
       </c>
       <c r="F68" t="n">
-        <v>0.459034</v>
+        <v>0.455999</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.343918</v>
+        <v>0.344249</v>
       </c>
       <c r="C69" t="n">
-        <v>0.623928</v>
+        <v>0.621348</v>
       </c>
       <c r="D69" t="n">
-        <v>0.552957</v>
+        <v>0.549133</v>
       </c>
       <c r="E69" t="n">
-        <v>0.237171</v>
+        <v>0.235418</v>
       </c>
       <c r="F69" t="n">
-        <v>0.457046</v>
+        <v>0.453377</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.336582</v>
+        <v>0.337191</v>
       </c>
       <c r="C70" t="n">
-        <v>0.696661</v>
+        <v>0.690828</v>
       </c>
       <c r="D70" t="n">
-        <v>0.558245</v>
+        <v>0.554393</v>
       </c>
       <c r="E70" t="n">
-        <v>0.23564</v>
+        <v>0.234327</v>
       </c>
       <c r="F70" t="n">
-        <v>0.455847</v>
+        <v>0.452261</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.329867</v>
+        <v>0.329922</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6678770000000001</v>
+        <v>0.666848</v>
       </c>
       <c r="D71" t="n">
-        <v>0.565437</v>
+        <v>0.557548</v>
       </c>
       <c r="E71" t="n">
-        <v>0.233779</v>
+        <v>0.231987</v>
       </c>
       <c r="F71" t="n">
-        <v>0.455191</v>
+        <v>0.451209</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.322116</v>
+        <v>0.322276</v>
       </c>
       <c r="C72" t="n">
-        <v>0.667418</v>
+        <v>0.667265</v>
       </c>
       <c r="D72" t="n">
-        <v>0.575452</v>
+        <v>0.569613</v>
       </c>
       <c r="E72" t="n">
-        <v>0.23112</v>
+        <v>0.229757</v>
       </c>
       <c r="F72" t="n">
-        <v>0.454127</v>
+        <v>0.450194</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.31452</v>
+        <v>0.314618</v>
       </c>
       <c r="C73" t="n">
-        <v>0.727069</v>
+        <v>0.720693</v>
       </c>
       <c r="D73" t="n">
-        <v>0.577067</v>
+        <v>0.571712</v>
       </c>
       <c r="E73" t="n">
-        <v>0.228781</v>
+        <v>0.228371</v>
       </c>
       <c r="F73" t="n">
-        <v>0.452933</v>
+        <v>0.449218</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.305492</v>
+        <v>0.306238</v>
       </c>
       <c r="C74" t="n">
-        <v>0.627715</v>
+        <v>0.625528</v>
       </c>
       <c r="D74" t="n">
-        <v>0.581599</v>
+        <v>0.5774319999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>0.227106</v>
+        <v>0.22683</v>
       </c>
       <c r="F74" t="n">
-        <v>0.452339</v>
+        <v>0.448223</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.296585</v>
+        <v>0.296972</v>
       </c>
       <c r="C75" t="n">
-        <v>0.609425</v>
+        <v>0.608129</v>
       </c>
       <c r="D75" t="n">
-        <v>0.584136</v>
+        <v>0.578711</v>
       </c>
       <c r="E75" t="n">
-        <v>0.22649</v>
+        <v>0.240433</v>
       </c>
       <c r="F75" t="n">
-        <v>0.45148</v>
+        <v>0.447284</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.287019</v>
+        <v>0.287138</v>
       </c>
       <c r="C76" t="n">
-        <v>0.599011</v>
+        <v>0.59549</v>
       </c>
       <c r="D76" t="n">
-        <v>0.580913</v>
+        <v>0.577191</v>
       </c>
       <c r="E76" t="n">
-        <v>0.239632</v>
+        <v>0.230884</v>
       </c>
       <c r="F76" t="n">
-        <v>0.450033</v>
+        <v>0.446162</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.276589</v>
+        <v>0.277016</v>
       </c>
       <c r="C77" t="n">
-        <v>0.600281</v>
+        <v>0.595754</v>
       </c>
       <c r="D77" t="n">
-        <v>0.581342</v>
+        <v>0.578754</v>
       </c>
       <c r="E77" t="n">
-        <v>0.225887</v>
+        <v>0.238927</v>
       </c>
       <c r="F77" t="n">
-        <v>0.449428</v>
+        <v>0.445206</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.264518</v>
+        <v>0.264769</v>
       </c>
       <c r="C78" t="n">
-        <v>0.647265</v>
+        <v>0.637783</v>
       </c>
       <c r="D78" t="n">
-        <v>0.677468</v>
+        <v>0.664496</v>
       </c>
       <c r="E78" t="n">
-        <v>0.22473</v>
+        <v>0.224415</v>
       </c>
       <c r="F78" t="n">
-        <v>0.448385</v>
+        <v>0.444917</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.251965</v>
+        <v>0.252677</v>
       </c>
       <c r="C79" t="n">
-        <v>0.593123</v>
+        <v>0.590058</v>
       </c>
       <c r="D79" t="n">
-        <v>0.684079</v>
+        <v>0.673754</v>
       </c>
       <c r="E79" t="n">
-        <v>0.238251</v>
+        <v>0.234386</v>
       </c>
       <c r="F79" t="n">
-        <v>0.44808</v>
+        <v>0.443947</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.238675</v>
+        <v>0.238629</v>
       </c>
       <c r="C80" t="n">
-        <v>0.600124</v>
+        <v>0.596959</v>
       </c>
       <c r="D80" t="n">
-        <v>0.681756</v>
+        <v>0.672068</v>
       </c>
       <c r="E80" t="n">
-        <v>0.239632</v>
+        <v>0.238783</v>
       </c>
       <c r="F80" t="n">
-        <v>0.46286</v>
+        <v>0.458867</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.357799</v>
+        <v>0.358234</v>
       </c>
       <c r="C81" t="n">
-        <v>0.776192</v>
+        <v>0.7716730000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.678814</v>
+        <v>0.669513</v>
       </c>
       <c r="E81" t="n">
-        <v>0.236626</v>
+        <v>0.236195</v>
       </c>
       <c r="F81" t="n">
-        <v>0.461015</v>
+        <v>0.45749</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.351957</v>
+        <v>0.352197</v>
       </c>
       <c r="C82" t="n">
-        <v>0.730172</v>
+        <v>0.752044</v>
       </c>
       <c r="D82" t="n">
-        <v>0.676225</v>
+        <v>0.666944</v>
       </c>
       <c r="E82" t="n">
-        <v>0.234361</v>
+        <v>0.234128</v>
       </c>
       <c r="F82" t="n">
-        <v>0.459338</v>
+        <v>0.455821</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.345693</v>
+        <v>0.345745</v>
       </c>
       <c r="C83" t="n">
-        <v>0.755101</v>
+        <v>0.729237</v>
       </c>
       <c r="D83" t="n">
-        <v>0.673224</v>
+        <v>0.6651</v>
       </c>
       <c r="E83" t="n">
-        <v>0.232842</v>
+        <v>0.232515</v>
       </c>
       <c r="F83" t="n">
-        <v>0.457881</v>
+        <v>0.454528</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.338714</v>
+        <v>0.339071</v>
       </c>
       <c r="C84" t="n">
-        <v>0.632348</v>
+        <v>0.633016</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6638579999999999</v>
+        <v>0.656354</v>
       </c>
       <c r="E84" t="n">
-        <v>0.246225</v>
+        <v>0.24611</v>
       </c>
       <c r="F84" t="n">
-        <v>0.456734</v>
+        <v>0.454092</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.331394</v>
+        <v>0.332338</v>
       </c>
       <c r="C85" t="n">
-        <v>0.709966</v>
+        <v>0.704161</v>
       </c>
       <c r="D85" t="n">
-        <v>0.657381</v>
+        <v>0.655702</v>
       </c>
       <c r="E85" t="n">
-        <v>0.23029</v>
+        <v>0.230056</v>
       </c>
       <c r="F85" t="n">
-        <v>0.455432</v>
+        <v>0.451887</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.324071</v>
+        <v>0.325096</v>
       </c>
       <c r="C86" t="n">
-        <v>0.810218</v>
+        <v>0.800668</v>
       </c>
       <c r="D86" t="n">
-        <v>0.6527579999999999</v>
+        <v>0.648571</v>
       </c>
       <c r="E86" t="n">
-        <v>0.243538</v>
+        <v>0.236043</v>
       </c>
       <c r="F86" t="n">
-        <v>0.454438</v>
+        <v>0.450643</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.316239</v>
+        <v>0.316518</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6934360000000001</v>
+        <v>0.695421</v>
       </c>
       <c r="D87" t="n">
-        <v>0.650516</v>
+        <v>0.644962</v>
       </c>
       <c r="E87" t="n">
-        <v>0.228059</v>
+        <v>0.227919</v>
       </c>
       <c r="F87" t="n">
-        <v>0.453172</v>
+        <v>0.449427</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.308048</v>
+        <v>0.308487</v>
       </c>
       <c r="C88" t="n">
-        <v>0.649141</v>
+        <v>0.6455</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6440360000000001</v>
+        <v>0.638201</v>
       </c>
       <c r="E88" t="n">
-        <v>0.22721</v>
+        <v>0.227191</v>
       </c>
       <c r="F88" t="n">
-        <v>0.452435</v>
+        <v>0.450166</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.298968</v>
+        <v>0.299744</v>
       </c>
       <c r="C89" t="n">
-        <v>0.688287</v>
+        <v>0.6806179999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.640253</v>
+        <v>0.635089</v>
       </c>
       <c r="E89" t="n">
-        <v>0.241337</v>
+        <v>0.241351</v>
       </c>
       <c r="F89" t="n">
-        <v>0.45074</v>
+        <v>0.447701</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.289549</v>
+        <v>0.289885</v>
       </c>
       <c r="C90" t="n">
-        <v>0.673503</v>
+        <v>0.6687110000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>0.634701</v>
+        <v>0.6299630000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>0.240099</v>
+        <v>0.228675</v>
       </c>
       <c r="F90" t="n">
-        <v>0.450616</v>
+        <v>0.44681</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.279661</v>
+        <v>0.279999</v>
       </c>
       <c r="C91" t="n">
-        <v>0.612537</v>
+        <v>0.608665</v>
       </c>
       <c r="D91" t="n">
-        <v>0.630016</v>
+        <v>0.626627</v>
       </c>
       <c r="E91" t="n">
-        <v>0.22528</v>
+        <v>0.240878</v>
       </c>
       <c r="F91" t="n">
-        <v>0.44967</v>
+        <v>0.447998</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.268224</v>
+        <v>0.268694</v>
       </c>
       <c r="C92" t="n">
-        <v>0.568091</v>
+        <v>0.56459</v>
       </c>
       <c r="D92" t="n">
-        <v>0.67389</v>
+        <v>0.656142</v>
       </c>
       <c r="E92" t="n">
-        <v>0.239449</v>
+        <v>0.227478</v>
       </c>
       <c r="F92" t="n">
-        <v>0.448896</v>
+        <v>0.447838</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.256271</v>
+        <v>0.256194</v>
       </c>
       <c r="C93" t="n">
-        <v>0.653112</v>
+        <v>0.645671</v>
       </c>
       <c r="D93" t="n">
-        <v>0.685715</v>
+        <v>0.668952</v>
       </c>
       <c r="E93" t="n">
-        <v>0.23861</v>
+        <v>0.239198</v>
       </c>
       <c r="F93" t="n">
-        <v>0.448277</v>
+        <v>0.444511</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.241637</v>
+        <v>0.242021</v>
       </c>
       <c r="C94" t="n">
-        <v>0.647752</v>
+        <v>0.635321</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6828379999999999</v>
+        <v>0.667281</v>
       </c>
       <c r="E94" t="n">
-        <v>0.240301</v>
+        <v>0.239601</v>
       </c>
       <c r="F94" t="n">
-        <v>0.462565</v>
+        <v>0.459172</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.3584</v>
+        <v>0.359051</v>
       </c>
       <c r="C95" t="n">
-        <v>0.71738</v>
+        <v>0.712121</v>
       </c>
       <c r="D95" t="n">
-        <v>0.676845</v>
+        <v>0.661781</v>
       </c>
       <c r="E95" t="n">
-        <v>0.251654</v>
+        <v>0.251283</v>
       </c>
       <c r="F95" t="n">
-        <v>0.460953</v>
+        <v>0.457406</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.35346</v>
+        <v>0.353563</v>
       </c>
       <c r="C96" t="n">
-        <v>0.67497</v>
+        <v>0.675038</v>
       </c>
       <c r="D96" t="n">
-        <v>0.673493</v>
+        <v>0.655651</v>
       </c>
       <c r="E96" t="n">
-        <v>0.235355</v>
+        <v>0.234974</v>
       </c>
       <c r="F96" t="n">
-        <v>0.459772</v>
+        <v>0.455762</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.346838</v>
+        <v>0.347565</v>
       </c>
       <c r="C97" t="n">
-        <v>0.716177</v>
+        <v>0.713639</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6693789999999999</v>
+        <v>0.650714</v>
       </c>
       <c r="E97" t="n">
-        <v>0.23379</v>
+        <v>0.233344</v>
       </c>
       <c r="F97" t="n">
-        <v>0.458364</v>
+        <v>0.455153</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.340198</v>
+        <v>0.340568</v>
       </c>
       <c r="C98" t="n">
-        <v>0.744507</v>
+        <v>0.73515</v>
       </c>
       <c r="D98" t="n">
-        <v>0.661914</v>
+        <v>0.646269</v>
       </c>
       <c r="E98" t="n">
-        <v>0.232206</v>
+        <v>0.232091</v>
       </c>
       <c r="F98" t="n">
-        <v>0.457074</v>
+        <v>0.453625</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.333002</v>
+        <v>0.333656</v>
       </c>
       <c r="C99" t="n">
-        <v>0.720684</v>
+        <v>0.712051</v>
       </c>
       <c r="D99" t="n">
-        <v>0.658018</v>
+        <v>0.644299</v>
       </c>
       <c r="E99" t="n">
-        <v>0.230897</v>
+        <v>0.230657</v>
       </c>
       <c r="F99" t="n">
-        <v>0.455843</v>
+        <v>0.452319</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.326109</v>
+        <v>0.326317</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7209950000000001</v>
+        <v>0.741488</v>
       </c>
       <c r="D100" t="n">
-        <v>0.6549</v>
+        <v>0.632333</v>
       </c>
       <c r="E100" t="n">
-        <v>0.229464</v>
+        <v>0.229538</v>
       </c>
       <c r="F100" t="n">
-        <v>0.454443</v>
+        <v>0.451005</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.31807</v>
+        <v>0.31825</v>
       </c>
       <c r="C101" t="n">
-        <v>0.719299</v>
+        <v>0.710512</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6462</v>
+        <v>0.632134</v>
       </c>
       <c r="E101" t="n">
-        <v>0.228483</v>
+        <v>0.228244</v>
       </c>
       <c r="F101" t="n">
-        <v>0.453207</v>
+        <v>0.450045</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.310153</v>
+        <v>0.310183</v>
       </c>
       <c r="C102" t="n">
-        <v>0.641398</v>
+        <v>0.632054</v>
       </c>
       <c r="D102" t="n">
-        <v>0.639449</v>
+        <v>0.625181</v>
       </c>
       <c r="E102" t="n">
-        <v>0.227721</v>
+        <v>0.2276</v>
       </c>
       <c r="F102" t="n">
-        <v>0.452633</v>
+        <v>0.448395</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.301667</v>
+        <v>0.3016</v>
       </c>
       <c r="C103" t="n">
-        <v>0.670048</v>
+        <v>0.663551</v>
       </c>
       <c r="D103" t="n">
-        <v>0.63248</v>
+        <v>0.61977</v>
       </c>
       <c r="E103" t="n">
-        <v>0.22685</v>
+        <v>0.226599</v>
       </c>
       <c r="F103" t="n">
-        <v>0.451413</v>
+        <v>0.447784</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.292501</v>
+        <v>0.292051</v>
       </c>
       <c r="C104" t="n">
-        <v>0.616439</v>
+        <v>0.6115699999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.628157</v>
+        <v>0.613827</v>
       </c>
       <c r="E104" t="n">
-        <v>0.226083</v>
+        <v>0.22596</v>
       </c>
       <c r="F104" t="n">
-        <v>0.450604</v>
+        <v>0.446878</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.282463</v>
+        <v>0.281769</v>
       </c>
       <c r="C105" t="n">
-        <v>0.536041</v>
+        <v>0.5354910000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.626911</v>
+        <v>0.611574</v>
       </c>
       <c r="E105" t="n">
-        <v>0.240408</v>
+        <v>0.240411</v>
       </c>
       <c r="F105" t="n">
-        <v>0.449982</v>
+        <v>0.445918</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.271039</v>
+        <v>0.27121</v>
       </c>
       <c r="C106" t="n">
-        <v>0.672611</v>
+        <v>0.663978</v>
       </c>
       <c r="D106" t="n">
-        <v>0.621071</v>
+        <v>0.606267</v>
       </c>
       <c r="E106" t="n">
-        <v>0.235461</v>
+        <v>0.24904</v>
       </c>
       <c r="F106" t="n">
-        <v>0.448853</v>
+        <v>0.446053</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.258459</v>
+        <v>0.258668</v>
       </c>
       <c r="C107" t="n">
-        <v>0.581655</v>
+        <v>0.577009</v>
       </c>
       <c r="D107" t="n">
-        <v>0.679288</v>
+        <v>0.666089</v>
       </c>
       <c r="E107" t="n">
-        <v>0.234853</v>
+        <v>0.239926</v>
       </c>
       <c r="F107" t="n">
-        <v>0.448402</v>
+        <v>0.444527</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.24509</v>
+        <v>0.245577</v>
       </c>
       <c r="C108" t="n">
-        <v>0.575451</v>
+        <v>0.566033</v>
       </c>
       <c r="D108" t="n">
-        <v>0.680449</v>
+        <v>0.66782</v>
       </c>
       <c r="E108" t="n">
-        <v>0.240133</v>
+        <v>0.253242</v>
       </c>
       <c r="F108" t="n">
-        <v>0.463123</v>
+        <v>0.459534</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.229988</v>
+        <v>0.23013</v>
       </c>
       <c r="C109" t="n">
-        <v>0.476833</v>
+        <v>0.475777</v>
       </c>
       <c r="D109" t="n">
-        <v>0.659911</v>
+        <v>0.6468699999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>0.239147</v>
+        <v>0.238144</v>
       </c>
       <c r="F109" t="n">
-        <v>0.461511</v>
+        <v>0.460413</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.354264</v>
+        <v>0.354589</v>
       </c>
       <c r="C110" t="n">
-        <v>0.620223</v>
+        <v>0.642949</v>
       </c>
       <c r="D110" t="n">
-        <v>0.656981</v>
+        <v>0.6454299999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>0.23584</v>
+        <v>0.235541</v>
       </c>
       <c r="F110" t="n">
-        <v>0.460176</v>
+        <v>0.458325</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.348273</v>
+        <v>0.348857</v>
       </c>
       <c r="C111" t="n">
-        <v>0.726452</v>
+        <v>0.703921</v>
       </c>
       <c r="D111" t="n">
-        <v>0.6520089999999999</v>
+        <v>0.640251</v>
       </c>
       <c r="E111" t="n">
-        <v>0.233719</v>
+        <v>0.233869</v>
       </c>
       <c r="F111" t="n">
-        <v>0.458491</v>
+        <v>0.45585</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342023</v>
+        <v>0.342386</v>
       </c>
       <c r="C112" t="n">
-        <v>0.616004</v>
+        <v>0.602873</v>
       </c>
       <c r="D112" t="n">
-        <v>0.648853</v>
+        <v>0.637347</v>
       </c>
       <c r="E112" t="n">
-        <v>0.232912</v>
+        <v>0.232515</v>
       </c>
       <c r="F112" t="n">
-        <v>0.457024</v>
+        <v>0.455277</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.334939</v>
+        <v>0.334949</v>
       </c>
       <c r="C113" t="n">
-        <v>0.77233</v>
+        <v>0.761462</v>
       </c>
       <c r="D113" t="n">
-        <v>0.6543949999999999</v>
+        <v>0.642888</v>
       </c>
       <c r="E113" t="n">
-        <v>0.231887</v>
+        <v>0.231316</v>
       </c>
       <c r="F113" t="n">
-        <v>0.455804</v>
+        <v>0.454776</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.327739</v>
+        <v>0.327612</v>
       </c>
       <c r="C114" t="n">
-        <v>0.664648</v>
+        <v>0.657349</v>
       </c>
       <c r="D114" t="n">
-        <v>0.6477579999999999</v>
+        <v>0.636558</v>
       </c>
       <c r="E114" t="n">
-        <v>0.243999</v>
+        <v>0.243623</v>
       </c>
       <c r="F114" t="n">
-        <v>0.454673</v>
+        <v>0.451323</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.320194</v>
+        <v>0.320045</v>
       </c>
       <c r="C115" t="n">
-        <v>0.723133</v>
+        <v>0.721793</v>
       </c>
       <c r="D115" t="n">
-        <v>0.635902</v>
+        <v>0.624298</v>
       </c>
       <c r="E115" t="n">
-        <v>0.228836</v>
+        <v>0.229383</v>
       </c>
       <c r="F115" t="n">
-        <v>0.453651</v>
+        <v>0.454831</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.312291</v>
+        <v>0.312204</v>
       </c>
       <c r="C116" t="n">
-        <v>0.7048219999999999</v>
+        <v>0.696526</v>
       </c>
       <c r="D116" t="n">
-        <v>0.635578</v>
+        <v>0.622727</v>
       </c>
       <c r="E116" t="n">
-        <v>0.228492</v>
+        <v>0.229159</v>
       </c>
       <c r="F116" t="n">
-        <v>0.452751</v>
+        <v>0.452615</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.30323</v>
+        <v>0.303066</v>
       </c>
       <c r="C117" t="n">
-        <v>0.69443</v>
+        <v>0.672671</v>
       </c>
       <c r="D117" t="n">
-        <v>0.629673</v>
+        <v>0.616195</v>
       </c>
       <c r="E117" t="n">
-        <v>0.227577</v>
+        <v>0.227166</v>
       </c>
       <c r="F117" t="n">
-        <v>0.45162</v>
+        <v>0.451313</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.293992</v>
+        <v>0.294304</v>
       </c>
       <c r="C118" t="n">
-        <v>0.693483</v>
+        <v>0.683046</v>
       </c>
       <c r="D118" t="n">
-        <v>0.621812</v>
+        <v>0.611626</v>
       </c>
       <c r="E118" t="n">
-        <v>0.240633</v>
+        <v>0.240262</v>
       </c>
       <c r="F118" t="n">
-        <v>0.450678</v>
+        <v>0.4474</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.284633</v>
+        <v>0.284732</v>
       </c>
       <c r="C119" t="n">
-        <v>0.661974</v>
+        <v>0.658215</v>
       </c>
       <c r="D119" t="n">
-        <v>0.616924</v>
+        <v>0.607012</v>
       </c>
       <c r="E119" t="n">
-        <v>0.225573</v>
+        <v>0.226627</v>
       </c>
       <c r="F119" t="n">
-        <v>0.449777</v>
+        <v>0.446647</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.273251</v>
+        <v>0.27442</v>
       </c>
       <c r="C120" t="n">
-        <v>0.664306</v>
+        <v>0.642382</v>
       </c>
       <c r="D120" t="n">
-        <v>0.613569</v>
+        <v>0.601958</v>
       </c>
       <c r="E120" t="n">
-        <v>0.239688</v>
+        <v>0.239786</v>
       </c>
       <c r="F120" t="n">
-        <v>0.449235</v>
+        <v>0.448468</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.261658</v>
+        <v>0.261983</v>
       </c>
       <c r="C121" t="n">
-        <v>0.645029</v>
+        <v>0.644272</v>
       </c>
       <c r="D121" t="n">
-        <v>0.685203</v>
+        <v>0.667701</v>
       </c>
       <c r="E121" t="n">
-        <v>0.239323</v>
+        <v>0.239162</v>
       </c>
       <c r="F121" t="n">
-        <v>0.447973</v>
+        <v>0.445708</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.249075</v>
+        <v>0.249132</v>
       </c>
       <c r="C122" t="n">
-        <v>0.586076</v>
+        <v>0.58402</v>
       </c>
       <c r="D122" t="n">
-        <v>0.683173</v>
+        <v>0.663686</v>
       </c>
       <c r="E122" t="n">
-        <v>0.238981</v>
+        <v>0.226229</v>
       </c>
       <c r="F122" t="n">
-        <v>0.448027</v>
+        <v>0.44743</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.234044</v>
+        <v>0.235106</v>
       </c>
       <c r="C123" t="n">
-        <v>0.635783</v>
+        <v>0.630713</v>
       </c>
       <c r="D123" t="n">
-        <v>0.695021</v>
+        <v>0.676364</v>
       </c>
       <c r="E123" t="n">
-        <v>0.251478</v>
+        <v>0.250231</v>
       </c>
       <c r="F123" t="n">
-        <v>0.462384</v>
+        <v>0.458827</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.355624</v>
+        <v>0.356084</v>
       </c>
       <c r="C124" t="n">
-        <v>0.70524</v>
+        <v>0.699786</v>
       </c>
       <c r="D124" t="n">
-        <v>0.690518</v>
+        <v>0.675052</v>
       </c>
       <c r="E124" t="n">
-        <v>0.240594</v>
+        <v>0.239147</v>
       </c>
       <c r="F124" t="n">
-        <v>0.461036</v>
+        <v>0.457516</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.349744</v>
+        <v>0.350444</v>
       </c>
       <c r="C125" t="n">
-        <v>0.834732</v>
+        <v>0.821541</v>
       </c>
       <c r="D125" t="n">
-        <v>0.684376</v>
+        <v>0.665426</v>
       </c>
       <c r="E125" t="n">
-        <v>0.237917</v>
+        <v>0.236357</v>
       </c>
       <c r="F125" t="n">
-        <v>0.45885</v>
+        <v>0.457007</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.343393</v>
+        <v>0.344024</v>
       </c>
       <c r="C126" t="n">
-        <v>0.729015</v>
+        <v>0.752715</v>
       </c>
       <c r="D126" t="n">
-        <v>0.678176</v>
+        <v>0.663324</v>
       </c>
       <c r="E126" t="n">
-        <v>0.235926</v>
+        <v>0.235775</v>
       </c>
       <c r="F126" t="n">
-        <v>0.45749</v>
+        <v>0.454297</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.336723</v>
+        <v>0.337389</v>
       </c>
       <c r="C127" t="n">
-        <v>0.676061</v>
+        <v>0.6701549999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.661874</v>
+        <v>0.645533</v>
       </c>
       <c r="E127" t="n">
-        <v>0.23458</v>
+        <v>0.233664</v>
       </c>
       <c r="F127" t="n">
-        <v>0.457082</v>
+        <v>0.453477</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.329137</v>
+        <v>0.330167</v>
       </c>
       <c r="C128" t="n">
-        <v>0.606093</v>
+        <v>0.610135</v>
       </c>
       <c r="D128" t="n">
-        <v>0.665909</v>
+        <v>0.649339</v>
       </c>
       <c r="E128" t="n">
-        <v>0.232979</v>
+        <v>0.233659</v>
       </c>
       <c r="F128" t="n">
-        <v>0.454824</v>
+        <v>0.451577</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.321729</v>
+        <v>0.32232</v>
       </c>
       <c r="C129" t="n">
-        <v>0.724122</v>
+        <v>0.73098</v>
       </c>
       <c r="D129" t="n">
-        <v>0.653321</v>
+        <v>0.63732</v>
       </c>
       <c r="E129" t="n">
-        <v>0.232637</v>
+        <v>0.231508</v>
       </c>
       <c r="F129" t="n">
-        <v>0.453713</v>
+        <v>0.451285</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.313856</v>
+        <v>0.314551</v>
       </c>
       <c r="C130" t="n">
-        <v>0.560266</v>
+        <v>0.559434</v>
       </c>
       <c r="D130" t="n">
-        <v>0.652261</v>
+        <v>0.636314</v>
       </c>
       <c r="E130" t="n">
-        <v>0.230951</v>
+        <v>0.230873</v>
       </c>
       <c r="F130" t="n">
-        <v>0.45263</v>
+        <v>0.449247</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.305157</v>
+        <v>0.305532</v>
       </c>
       <c r="C131" t="n">
-        <v>0.657908</v>
+        <v>0.643221</v>
       </c>
       <c r="D131" t="n">
-        <v>0.640751</v>
+        <v>0.625741</v>
       </c>
       <c r="E131" t="n">
-        <v>0.232201</v>
+        <v>0.22988</v>
       </c>
       <c r="F131" t="n">
-        <v>0.451762</v>
+        <v>0.449157</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.296253</v>
+        <v>0.296941</v>
       </c>
       <c r="C132" t="n">
-        <v>0.547285</v>
+        <v>0.546655</v>
       </c>
       <c r="D132" t="n">
-        <v>0.63745</v>
+        <v>0.623049</v>
       </c>
       <c r="E132" t="n">
-        <v>0.240286</v>
+        <v>0.240482</v>
       </c>
       <c r="F132" t="n">
-        <v>0.450662</v>
+        <v>0.448388</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.287109</v>
+        <v>0.287306</v>
       </c>
       <c r="C133" t="n">
-        <v>0.698753</v>
+        <v>0.689069</v>
       </c>
       <c r="D133" t="n">
-        <v>0.628708</v>
+        <v>0.6152069999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>0.239394</v>
+        <v>0.240171</v>
       </c>
       <c r="F133" t="n">
-        <v>0.449868</v>
+        <v>0.447639</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.276057</v>
+        <v>0.277167</v>
       </c>
       <c r="C134" t="n">
-        <v>0.65699</v>
+        <v>0.64734</v>
       </c>
       <c r="D134" t="n">
-        <v>0.623049</v>
+        <v>0.6086240000000001</v>
       </c>
       <c r="E134" t="n">
-        <v>0.230714</v>
+        <v>0.239589</v>
       </c>
       <c r="F134" t="n">
-        <v>0.449217</v>
+        <v>0.447824</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.264426</v>
+        <v>0.265427</v>
       </c>
       <c r="C135" t="n">
-        <v>0.529343</v>
+        <v>0.518242</v>
       </c>
       <c r="D135" t="n">
-        <v>0.71587</v>
+        <v>0.695166</v>
       </c>
       <c r="E135" t="n">
-        <v>0.238971</v>
+        <v>0.239209</v>
       </c>
       <c r="F135" t="n">
-        <v>0.448074</v>
+        <v>0.446109</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.252718</v>
+        <v>0.254137</v>
       </c>
       <c r="C136" t="n">
-        <v>0.513466</v>
+        <v>0.510321</v>
       </c>
       <c r="D136" t="n">
-        <v>0.705806</v>
+        <v>0.686298</v>
       </c>
       <c r="E136" t="n">
-        <v>0.238531</v>
+        <v>0.239158</v>
       </c>
       <c r="F136" t="n">
-        <v>0.44756</v>
+        <v>0.446654</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.238043</v>
+        <v>0.238295</v>
       </c>
       <c r="C137" t="n">
-        <v>0.641587</v>
+        <v>0.640777</v>
       </c>
       <c r="D137" t="n">
-        <v>0.704763</v>
+        <v>0.685619</v>
       </c>
       <c r="E137" t="n">
-        <v>0.252296</v>
+        <v>0.252295</v>
       </c>
       <c r="F137" t="n">
-        <v>0.462573</v>
+        <v>0.459759</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.357028</v>
+        <v>0.357282</v>
       </c>
       <c r="C138" t="n">
-        <v>0.777222</v>
+        <v>0.757173</v>
       </c>
       <c r="D138" t="n">
-        <v>0.687181</v>
+        <v>0.667113</v>
       </c>
       <c r="E138" t="n">
-        <v>0.243546</v>
+        <v>0.241254</v>
       </c>
       <c r="F138" t="n">
-        <v>0.460953</v>
+        <v>0.459212</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.351507</v>
+        <v>0.351683</v>
       </c>
       <c r="C139" t="n">
-        <v>0.6417310000000001</v>
+        <v>0.666815</v>
       </c>
       <c r="D139" t="n">
-        <v>0.679156</v>
+        <v>0.6664330000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>0.239525</v>
+        <v>0.240438</v>
       </c>
       <c r="F139" t="n">
-        <v>0.460167</v>
+        <v>0.458857</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.344722</v>
+        <v>0.345653</v>
       </c>
       <c r="C140" t="n">
-        <v>0.6033269999999999</v>
+        <v>0.60664</v>
       </c>
       <c r="D140" t="n">
-        <v>0.682014</v>
+        <v>0.661515</v>
       </c>
       <c r="E140" t="n">
-        <v>0.237228</v>
+        <v>0.239821</v>
       </c>
       <c r="F140" t="n">
-        <v>0.457555</v>
+        <v>0.456592</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.338142</v>
+        <v>0.338896</v>
       </c>
       <c r="C141" t="n">
-        <v>0.7146439999999999</v>
+        <v>0.705878</v>
       </c>
       <c r="D141" t="n">
-        <v>0.680872</v>
+        <v>0.660265</v>
       </c>
       <c r="E141" t="n">
-        <v>0.236889</v>
+        <v>0.237979</v>
       </c>
       <c r="F141" t="n">
-        <v>0.45669</v>
+        <v>0.454909</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.33125</v>
+        <v>0.331673</v>
       </c>
       <c r="C142" t="n">
-        <v>0.640864</v>
+        <v>0.636138</v>
       </c>
       <c r="D142" t="n">
-        <v>0.671207</v>
+        <v>0.651595</v>
       </c>
       <c r="E142" t="n">
-        <v>0.235515</v>
+        <v>0.236743</v>
       </c>
       <c r="F142" t="n">
-        <v>0.455073</v>
+        <v>0.452352</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.323447</v>
+        <v>0.324631</v>
       </c>
       <c r="C143" t="n">
-        <v>0.7867499999999999</v>
+        <v>0.774336</v>
       </c>
       <c r="D143" t="n">
-        <v>0.664555</v>
+        <v>0.648389</v>
       </c>
       <c r="E143" t="n">
-        <v>0.2433</v>
+        <v>0.243601</v>
       </c>
       <c r="F143" t="n">
-        <v>0.454912</v>
+        <v>0.450587</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.300151</v>
+        <v>0.299786</v>
       </c>
       <c r="C2" t="n">
-        <v>0.517141</v>
+        <v>0.515705</v>
       </c>
       <c r="D2" t="n">
-        <v>0.45204</v>
+        <v>0.422004</v>
       </c>
       <c r="E2" t="n">
-        <v>0.195993</v>
+        <v>0.21819</v>
       </c>
       <c r="F2" t="n">
-        <v>0.449757</v>
+        <v>0.441869</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.294956</v>
+        <v>0.297185</v>
       </c>
       <c r="C3" t="n">
-        <v>0.512087</v>
+        <v>0.504987</v>
       </c>
       <c r="D3" t="n">
-        <v>0.455085</v>
+        <v>0.422724</v>
       </c>
       <c r="E3" t="n">
-        <v>0.198493</v>
+        <v>0.202973</v>
       </c>
       <c r="F3" t="n">
-        <v>0.444376</v>
+        <v>0.44112</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.28624</v>
+        <v>0.287545</v>
       </c>
       <c r="C4" t="n">
-        <v>0.498668</v>
+        <v>0.504836</v>
       </c>
       <c r="D4" t="n">
-        <v>0.457086</v>
+        <v>0.425957</v>
       </c>
       <c r="E4" t="n">
-        <v>0.201096</v>
+        <v>0.205021</v>
       </c>
       <c r="F4" t="n">
-        <v>0.448004</v>
+        <v>0.438574</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.280997</v>
+        <v>0.28036</v>
       </c>
       <c r="C5" t="n">
-        <v>0.487559</v>
+        <v>0.490712</v>
       </c>
       <c r="D5" t="n">
-        <v>0.460421</v>
+        <v>0.428645</v>
       </c>
       <c r="E5" t="n">
-        <v>0.201794</v>
+        <v>0.213279</v>
       </c>
       <c r="F5" t="n">
-        <v>0.447643</v>
+        <v>0.438878</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.265359</v>
+        <v>0.268116</v>
       </c>
       <c r="C6" t="n">
-        <v>0.481876</v>
+        <v>0.477014</v>
       </c>
       <c r="D6" t="n">
-        <v>0.466052</v>
+        <v>0.429047</v>
       </c>
       <c r="E6" t="n">
-        <v>0.203642</v>
+        <v>0.208205</v>
       </c>
       <c r="F6" t="n">
-        <v>0.446656</v>
+        <v>0.43885</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.253444</v>
+        <v>0.259408</v>
       </c>
       <c r="C7" t="n">
-        <v>0.471665</v>
+        <v>0.466424</v>
       </c>
       <c r="D7" t="n">
-        <v>0.441958</v>
+        <v>0.425136</v>
       </c>
       <c r="E7" t="n">
-        <v>0.204526</v>
+        <v>0.21049</v>
       </c>
       <c r="F7" t="n">
-        <v>0.443161</v>
+        <v>0.436767</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.239742</v>
+        <v>0.244642</v>
       </c>
       <c r="C8" t="n">
-        <v>0.453804</v>
+        <v>0.453825</v>
       </c>
       <c r="D8" t="n">
-        <v>0.444663</v>
+        <v>0.426305</v>
       </c>
       <c r="E8" t="n">
-        <v>0.20479</v>
+        <v>0.21085</v>
       </c>
       <c r="F8" t="n">
-        <v>0.44306</v>
+        <v>0.436059</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.226427</v>
+        <v>0.232677</v>
       </c>
       <c r="C9" t="n">
-        <v>0.439951</v>
+        <v>0.440792</v>
       </c>
       <c r="D9" t="n">
-        <v>0.445818</v>
+        <v>0.427082</v>
       </c>
       <c r="E9" t="n">
-        <v>0.229194</v>
+        <v>0.22935</v>
       </c>
       <c r="F9" t="n">
-        <v>0.458975</v>
+        <v>0.452316</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.349709</v>
+        <v>0.349761</v>
       </c>
       <c r="C10" t="n">
-        <v>0.564652</v>
+        <v>0.564151</v>
       </c>
       <c r="D10" t="n">
-        <v>0.447635</v>
+        <v>0.425963</v>
       </c>
       <c r="E10" t="n">
-        <v>0.222194</v>
+        <v>0.236348</v>
       </c>
       <c r="F10" t="n">
-        <v>0.459672</v>
+        <v>0.452449</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.344839</v>
+        <v>0.344787</v>
       </c>
       <c r="C11" t="n">
-        <v>0.54833</v>
+        <v>0.560782</v>
       </c>
       <c r="D11" t="n">
-        <v>0.449154</v>
+        <v>0.426443</v>
       </c>
       <c r="E11" t="n">
-        <v>0.220639</v>
+        <v>0.245158</v>
       </c>
       <c r="F11" t="n">
-        <v>0.457058</v>
+        <v>0.451758</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.340245</v>
+        <v>0.338911</v>
       </c>
       <c r="C12" t="n">
-        <v>0.556073</v>
+        <v>0.556018</v>
       </c>
       <c r="D12" t="n">
-        <v>0.450903</v>
+        <v>0.426815</v>
       </c>
       <c r="E12" t="n">
-        <v>0.219949</v>
+        <v>0.224798</v>
       </c>
       <c r="F12" t="n">
-        <v>0.457684</v>
+        <v>0.451274</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.334485</v>
+        <v>0.333871</v>
       </c>
       <c r="C13" t="n">
-        <v>0.549171</v>
+        <v>0.5462360000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.451197</v>
+        <v>0.426694</v>
       </c>
       <c r="E13" t="n">
-        <v>0.219738</v>
+        <v>0.224843</v>
       </c>
       <c r="F13" t="n">
-        <v>0.455577</v>
+        <v>0.44816</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.327977</v>
+        <v>0.326963</v>
       </c>
       <c r="C14" t="n">
-        <v>0.542654</v>
+        <v>0.5407729999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.454698</v>
+        <v>0.429442</v>
       </c>
       <c r="E14" t="n">
-        <v>0.219577</v>
+        <v>0.224691</v>
       </c>
       <c r="F14" t="n">
-        <v>0.453102</v>
+        <v>0.446322</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.320921</v>
+        <v>0.32056</v>
       </c>
       <c r="C15" t="n">
-        <v>0.534755</v>
+        <v>0.533909</v>
       </c>
       <c r="D15" t="n">
-        <v>0.456909</v>
+        <v>0.430512</v>
       </c>
       <c r="E15" t="n">
-        <v>0.219027</v>
+        <v>0.223683</v>
       </c>
       <c r="F15" t="n">
-        <v>0.454298</v>
+        <v>0.446214</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.314201</v>
+        <v>0.312419</v>
       </c>
       <c r="C16" t="n">
-        <v>0.524312</v>
+        <v>0.523726</v>
       </c>
       <c r="D16" t="n">
-        <v>0.459766</v>
+        <v>0.432721</v>
       </c>
       <c r="E16" t="n">
-        <v>0.218833</v>
+        <v>0.223987</v>
       </c>
       <c r="F16" t="n">
-        <v>0.452142</v>
+        <v>0.445244</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.303666</v>
+        <v>0.303659</v>
       </c>
       <c r="C17" t="n">
-        <v>0.522477</v>
+        <v>0.522248</v>
       </c>
       <c r="D17" t="n">
-        <v>0.463034</v>
+        <v>0.432885</v>
       </c>
       <c r="E17" t="n">
-        <v>0.21816</v>
+        <v>0.223962</v>
       </c>
       <c r="F17" t="n">
-        <v>0.451514</v>
+        <v>0.444932</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.293573</v>
+        <v>0.294168</v>
       </c>
       <c r="C18" t="n">
-        <v>0.504672</v>
+        <v>0.5046389999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.466573</v>
+        <v>0.434856</v>
       </c>
       <c r="E18" t="n">
-        <v>0.217128</v>
+        <v>0.221994</v>
       </c>
       <c r="F18" t="n">
-        <v>0.450336</v>
+        <v>0.444016</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.285226</v>
+        <v>0.28523</v>
       </c>
       <c r="C19" t="n">
-        <v>0.500081</v>
+        <v>0.5002490000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.471134</v>
+        <v>0.435851</v>
       </c>
       <c r="E19" t="n">
-        <v>0.217458</v>
+        <v>0.22217</v>
       </c>
       <c r="F19" t="n">
-        <v>0.450871</v>
+        <v>0.442056</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.273103</v>
+        <v>0.273768</v>
       </c>
       <c r="C20" t="n">
-        <v>0.489931</v>
+        <v>0.49072</v>
       </c>
       <c r="D20" t="n">
-        <v>0.470132</v>
+        <v>0.43591</v>
       </c>
       <c r="E20" t="n">
-        <v>0.217391</v>
+        <v>0.221738</v>
       </c>
       <c r="F20" t="n">
-        <v>0.450413</v>
+        <v>0.442281</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.263316</v>
+        <v>0.262927</v>
       </c>
       <c r="C21" t="n">
-        <v>0.469355</v>
+        <v>0.469975</v>
       </c>
       <c r="D21" t="n">
-        <v>0.449618</v>
+        <v>0.430609</v>
       </c>
       <c r="E21" t="n">
-        <v>0.224629</v>
+        <v>0.221464</v>
       </c>
       <c r="F21" t="n">
-        <v>0.447793</v>
+        <v>0.440931</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.249078</v>
+        <v>0.249546</v>
       </c>
       <c r="C22" t="n">
-        <v>0.460788</v>
+        <v>0.461366</v>
       </c>
       <c r="D22" t="n">
-        <v>0.450195</v>
+        <v>0.429917</v>
       </c>
       <c r="E22" t="n">
-        <v>0.226746</v>
+        <v>0.221611</v>
       </c>
       <c r="F22" t="n">
-        <v>0.447891</v>
+        <v>0.441629</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.235181</v>
+        <v>0.236321</v>
       </c>
       <c r="C23" t="n">
-        <v>0.439393</v>
+        <v>0.439778</v>
       </c>
       <c r="D23" t="n">
-        <v>0.452412</v>
+        <v>0.432632</v>
       </c>
       <c r="E23" t="n">
-        <v>0.230579</v>
+        <v>0.238645</v>
       </c>
       <c r="F23" t="n">
-        <v>0.463827</v>
+        <v>0.456898</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.354287</v>
+        <v>0.352813</v>
       </c>
       <c r="C24" t="n">
-        <v>0.569591</v>
+        <v>0.570004</v>
       </c>
       <c r="D24" t="n">
-        <v>0.453817</v>
+        <v>0.434607</v>
       </c>
       <c r="E24" t="n">
-        <v>0.228092</v>
+        <v>0.234674</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4622</v>
+        <v>0.455538</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.34874</v>
+        <v>0.348103</v>
       </c>
       <c r="C25" t="n">
-        <v>0.561947</v>
+        <v>0.562506</v>
       </c>
       <c r="D25" t="n">
-        <v>0.454974</v>
+        <v>0.43382</v>
       </c>
       <c r="E25" t="n">
-        <v>0.227039</v>
+        <v>0.233008</v>
       </c>
       <c r="F25" t="n">
-        <v>0.460418</v>
+        <v>0.45387</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.342081</v>
+        <v>0.341556</v>
       </c>
       <c r="C26" t="n">
-        <v>0.556242</v>
+        <v>0.556873</v>
       </c>
       <c r="D26" t="n">
-        <v>0.455786</v>
+        <v>0.431599</v>
       </c>
       <c r="E26" t="n">
-        <v>0.22642</v>
+        <v>0.232073</v>
       </c>
       <c r="F26" t="n">
-        <v>0.460605</v>
+        <v>0.45345</v>
       </c>
     </row>
     <row r="27">
@@ -5585,19 +5585,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.337999</v>
+        <v>0.337552</v>
       </c>
       <c r="C27" t="n">
-        <v>0.546489</v>
+        <v>0.545974</v>
       </c>
       <c r="D27" t="n">
-        <v>0.457484</v>
+        <v>0.434214</v>
       </c>
       <c r="E27" t="n">
-        <v>0.225492</v>
+        <v>0.230417</v>
       </c>
       <c r="F27" t="n">
-        <v>0.458471</v>
+        <v>0.451952</v>
       </c>
     </row>
     <row r="28">
@@ -5605,19 +5605,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.332001</v>
+        <v>0.330721</v>
       </c>
       <c r="C28" t="n">
-        <v>0.541863</v>
+        <v>0.540168</v>
       </c>
       <c r="D28" t="n">
-        <v>0.459446</v>
+        <v>0.433898</v>
       </c>
       <c r="E28" t="n">
-        <v>0.224339</v>
+        <v>0.229597</v>
       </c>
       <c r="F28" t="n">
-        <v>0.458319</v>
+        <v>0.451075</v>
       </c>
     </row>
     <row r="29">
@@ -5625,19 +5625,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.323296</v>
+        <v>0.323916</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5374139999999999</v>
+        <v>0.538033</v>
       </c>
       <c r="D29" t="n">
-        <v>0.460866</v>
+        <v>0.437704</v>
       </c>
       <c r="E29" t="n">
-        <v>0.223744</v>
+        <v>0.228325</v>
       </c>
       <c r="F29" t="n">
-        <v>0.456572</v>
+        <v>0.449438</v>
       </c>
     </row>
     <row r="30">
@@ -5645,19 +5645,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.314685</v>
+        <v>0.316063</v>
       </c>
       <c r="C30" t="n">
-        <v>0.528583</v>
+        <v>0.529258</v>
       </c>
       <c r="D30" t="n">
-        <v>0.463799</v>
+        <v>0.434679</v>
       </c>
       <c r="E30" t="n">
-        <v>0.222548</v>
+        <v>0.227369</v>
       </c>
       <c r="F30" t="n">
-        <v>0.456311</v>
+        <v>0.449295</v>
       </c>
     </row>
     <row r="31">
@@ -5665,19 +5665,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.305589</v>
+        <v>0.306271</v>
       </c>
       <c r="C31" t="n">
-        <v>0.513483</v>
+        <v>0.513748</v>
       </c>
       <c r="D31" t="n">
-        <v>0.464995</v>
+        <v>0.439262</v>
       </c>
       <c r="E31" t="n">
-        <v>0.221526</v>
+        <v>0.226157</v>
       </c>
       <c r="F31" t="n">
-        <v>0.455346</v>
+        <v>0.447539</v>
       </c>
     </row>
     <row r="32">
@@ -5685,19 +5685,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.297686</v>
+        <v>0.296838</v>
       </c>
       <c r="C32" t="n">
-        <v>0.508715</v>
+        <v>0.508451</v>
       </c>
       <c r="D32" t="n">
-        <v>0.469452</v>
+        <v>0.437355</v>
       </c>
       <c r="E32" t="n">
-        <v>0.220762</v>
+        <v>0.225699</v>
       </c>
       <c r="F32" t="n">
-        <v>0.455191</v>
+        <v>0.446242</v>
       </c>
     </row>
     <row r="33">
@@ -5705,19 +5705,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.291767</v>
+        <v>0.288145</v>
       </c>
       <c r="C33" t="n">
-        <v>0.502355</v>
+        <v>0.502839</v>
       </c>
       <c r="D33" t="n">
-        <v>0.470569</v>
+        <v>0.439876</v>
       </c>
       <c r="E33" t="n">
-        <v>0.220221</v>
+        <v>0.224895</v>
       </c>
       <c r="F33" t="n">
-        <v>0.452026</v>
+        <v>0.444733</v>
       </c>
     </row>
     <row r="34">
@@ -5725,19 +5725,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.277474</v>
+        <v>0.277631</v>
       </c>
       <c r="C34" t="n">
-        <v>0.484736</v>
+        <v>0.485261</v>
       </c>
       <c r="D34" t="n">
-        <v>0.473679</v>
+        <v>0.441598</v>
       </c>
       <c r="E34" t="n">
-        <v>0.229874</v>
+        <v>0.229059</v>
       </c>
       <c r="F34" t="n">
-        <v>0.451679</v>
+        <v>0.444474</v>
       </c>
     </row>
     <row r="35">
@@ -5745,19 +5745,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.264971</v>
+        <v>0.267289</v>
       </c>
       <c r="C35" t="n">
-        <v>0.469708</v>
+        <v>0.469785</v>
       </c>
       <c r="D35" t="n">
-        <v>0.45413</v>
+        <v>0.436494</v>
       </c>
       <c r="E35" t="n">
-        <v>0.218959</v>
+        <v>0.224317</v>
       </c>
       <c r="F35" t="n">
-        <v>0.450737</v>
+        <v>0.443435</v>
       </c>
     </row>
     <row r="36">
@@ -5765,19 +5765,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.253992</v>
+        <v>0.255449</v>
       </c>
       <c r="C36" t="n">
-        <v>0.46816</v>
+        <v>0.46539</v>
       </c>
       <c r="D36" t="n">
-        <v>0.457359</v>
+        <v>0.435845</v>
       </c>
       <c r="E36" t="n">
-        <v>0.22827</v>
+        <v>0.22338</v>
       </c>
       <c r="F36" t="n">
-        <v>0.451809</v>
+        <v>0.442612</v>
       </c>
     </row>
     <row r="37">
@@ -5785,19 +5785,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.24068</v>
+        <v>0.240343</v>
       </c>
       <c r="C37" t="n">
-        <v>0.454391</v>
+        <v>0.454856</v>
       </c>
       <c r="D37" t="n">
-        <v>0.457245</v>
+        <v>0.436733</v>
       </c>
       <c r="E37" t="n">
-        <v>0.24217</v>
+        <v>0.237007</v>
       </c>
       <c r="F37" t="n">
-        <v>0.465059</v>
+        <v>0.458072</v>
       </c>
     </row>
     <row r="38">
@@ -5805,19 +5805,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.357296</v>
+        <v>0.358033</v>
       </c>
       <c r="C38" t="n">
-        <v>0.559187</v>
+        <v>0.559294</v>
       </c>
       <c r="D38" t="n">
-        <v>0.458653</v>
+        <v>0.438291</v>
       </c>
       <c r="E38" t="n">
-        <v>0.230104</v>
+        <v>0.248841</v>
       </c>
       <c r="F38" t="n">
-        <v>0.463232</v>
+        <v>0.456283</v>
       </c>
     </row>
     <row r="39">
@@ -5825,19 +5825,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.351806</v>
+        <v>0.352369</v>
       </c>
       <c r="C39" t="n">
-        <v>0.554295</v>
+        <v>0.554642</v>
       </c>
       <c r="D39" t="n">
-        <v>0.458854</v>
+        <v>0.436625</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2276</v>
+        <v>0.232741</v>
       </c>
       <c r="F39" t="n">
-        <v>0.46217</v>
+        <v>0.454009</v>
       </c>
     </row>
     <row r="40">
@@ -5845,19 +5845,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.345779</v>
+        <v>0.345569</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5482669999999999</v>
+        <v>0.548724</v>
       </c>
       <c r="D40" t="n">
-        <v>0.460333</v>
+        <v>0.437488</v>
       </c>
       <c r="E40" t="n">
-        <v>0.226856</v>
+        <v>0.232055</v>
       </c>
       <c r="F40" t="n">
-        <v>0.460949</v>
+        <v>0.453763</v>
       </c>
     </row>
     <row r="41">
@@ -5865,19 +5865,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.339442</v>
+        <v>0.339944</v>
       </c>
       <c r="C41" t="n">
-        <v>0.543548</v>
+        <v>0.544114</v>
       </c>
       <c r="D41" t="n">
-        <v>0.464962</v>
+        <v>0.439775</v>
       </c>
       <c r="E41" t="n">
-        <v>0.225871</v>
+        <v>0.23089</v>
       </c>
       <c r="F41" t="n">
-        <v>0.463312</v>
+        <v>0.452714</v>
       </c>
     </row>
     <row r="42">
@@ -5885,19 +5885,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.33199</v>
+        <v>0.332626</v>
       </c>
       <c r="C42" t="n">
-        <v>0.547687</v>
+        <v>0.542842</v>
       </c>
       <c r="D42" t="n">
-        <v>0.466987</v>
+        <v>0.440964</v>
       </c>
       <c r="E42" t="n">
-        <v>0.224727</v>
+        <v>0.22983</v>
       </c>
       <c r="F42" t="n">
-        <v>0.461401</v>
+        <v>0.451395</v>
       </c>
     </row>
     <row r="43">
@@ -5905,19 +5905,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.324921</v>
+        <v>0.325429</v>
       </c>
       <c r="C43" t="n">
-        <v>0.538124</v>
+        <v>0.532636</v>
       </c>
       <c r="D43" t="n">
-        <v>0.468938</v>
+        <v>0.440551</v>
       </c>
       <c r="E43" t="n">
-        <v>0.223484</v>
+        <v>0.228498</v>
       </c>
       <c r="F43" t="n">
-        <v>0.459659</v>
+        <v>0.44977</v>
       </c>
     </row>
     <row r="44">
@@ -5925,19 +5925,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.317605</v>
+        <v>0.318909</v>
       </c>
       <c r="C44" t="n">
-        <v>0.534371</v>
+        <v>0.529159</v>
       </c>
       <c r="D44" t="n">
-        <v>0.470796</v>
+        <v>0.439931</v>
       </c>
       <c r="E44" t="n">
-        <v>0.222841</v>
+        <v>0.227588</v>
       </c>
       <c r="F44" t="n">
-        <v>0.458547</v>
+        <v>0.448554</v>
       </c>
     </row>
     <row r="45">
@@ -5945,19 +5945,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.308717</v>
+        <v>0.309326</v>
       </c>
       <c r="C45" t="n">
-        <v>0.526344</v>
+        <v>0.520464</v>
       </c>
       <c r="D45" t="n">
-        <v>0.473756</v>
+        <v>0.441781</v>
       </c>
       <c r="E45" t="n">
-        <v>0.221863</v>
+        <v>0.226828</v>
       </c>
       <c r="F45" t="n">
-        <v>0.457364</v>
+        <v>0.447115</v>
       </c>
     </row>
     <row r="46">
@@ -5965,19 +5965,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.300025</v>
+        <v>0.300956</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5183410000000001</v>
+        <v>0.5124030000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.475202</v>
+        <v>0.442103</v>
       </c>
       <c r="E46" t="n">
-        <v>0.221073</v>
+        <v>0.225908</v>
       </c>
       <c r="F46" t="n">
-        <v>0.456699</v>
+        <v>0.446591</v>
       </c>
     </row>
     <row r="47">
@@ -5985,19 +5985,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.291148</v>
+        <v>0.291427</v>
       </c>
       <c r="C47" t="n">
-        <v>0.515663</v>
+        <v>0.509611</v>
       </c>
       <c r="D47" t="n">
-        <v>0.477197</v>
+        <v>0.44381</v>
       </c>
       <c r="E47" t="n">
-        <v>0.220242</v>
+        <v>0.225198</v>
       </c>
       <c r="F47" t="n">
-        <v>0.4562</v>
+        <v>0.445467</v>
       </c>
     </row>
     <row r="48">
@@ -6005,19 +6005,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.281233</v>
+        <v>0.28335</v>
       </c>
       <c r="C48" t="n">
-        <v>0.501515</v>
+        <v>0.495037</v>
       </c>
       <c r="D48" t="n">
-        <v>0.482105</v>
+        <v>0.444016</v>
       </c>
       <c r="E48" t="n">
-        <v>0.230154</v>
+        <v>0.238756</v>
       </c>
       <c r="F48" t="n">
-        <v>0.454228</v>
+        <v>0.444512</v>
       </c>
     </row>
     <row r="49">
@@ -6025,19 +6025,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.270793</v>
+        <v>0.270868</v>
       </c>
       <c r="C49" t="n">
-        <v>0.48742</v>
+        <v>0.480467</v>
       </c>
       <c r="D49" t="n">
-        <v>0.484278</v>
+        <v>0.446593</v>
       </c>
       <c r="E49" t="n">
-        <v>0.219246</v>
+        <v>0.226545</v>
       </c>
       <c r="F49" t="n">
-        <v>0.453838</v>
+        <v>0.444193</v>
       </c>
     </row>
     <row r="50">
@@ -6045,19 +6045,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.258241</v>
+        <v>0.258857</v>
       </c>
       <c r="C50" t="n">
-        <v>0.478509</v>
+        <v>0.471793</v>
       </c>
       <c r="D50" t="n">
-        <v>0.469612</v>
+        <v>0.442295</v>
       </c>
       <c r="E50" t="n">
-        <v>0.228688</v>
+        <v>0.223876</v>
       </c>
       <c r="F50" t="n">
-        <v>0.453238</v>
+        <v>0.443731</v>
       </c>
     </row>
     <row r="51">
@@ -6065,19 +6065,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.244977</v>
+        <v>0.245479</v>
       </c>
       <c r="C51" t="n">
-        <v>0.456894</v>
+        <v>0.449768</v>
       </c>
       <c r="D51" t="n">
-        <v>0.467111</v>
+        <v>0.444659</v>
       </c>
       <c r="E51" t="n">
-        <v>0.242415</v>
+        <v>0.250858</v>
       </c>
       <c r="F51" t="n">
-        <v>0.469328</v>
+        <v>0.458535</v>
       </c>
     </row>
     <row r="52">
@@ -6085,19 +6085,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.230632</v>
+        <v>0.231135</v>
       </c>
       <c r="C52" t="n">
-        <v>0.450305</v>
+        <v>0.445644</v>
       </c>
       <c r="D52" t="n">
-        <v>0.469723</v>
+        <v>0.446286</v>
       </c>
       <c r="E52" t="n">
-        <v>0.24081</v>
+        <v>0.249024</v>
       </c>
       <c r="F52" t="n">
-        <v>0.468604</v>
+        <v>0.457729</v>
       </c>
     </row>
     <row r="53">
@@ -6105,19 +6105,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.353701</v>
+        <v>0.354021</v>
       </c>
       <c r="C53" t="n">
-        <v>0.571209</v>
+        <v>0.568095</v>
       </c>
       <c r="D53" t="n">
-        <v>0.469501</v>
+        <v>0.444752</v>
       </c>
       <c r="E53" t="n">
-        <v>0.228333</v>
+        <v>0.23333</v>
       </c>
       <c r="F53" t="n">
-        <v>0.465733</v>
+        <v>0.455659</v>
       </c>
     </row>
     <row r="54">
@@ -6125,19 +6125,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.347902</v>
+        <v>0.348222</v>
       </c>
       <c r="C54" t="n">
-        <v>0.557122</v>
+        <v>0.552355</v>
       </c>
       <c r="D54" t="n">
-        <v>0.469784</v>
+        <v>0.442472</v>
       </c>
       <c r="E54" t="n">
-        <v>0.227419</v>
+        <v>0.232288</v>
       </c>
       <c r="F54" t="n">
-        <v>0.464992</v>
+        <v>0.454829</v>
       </c>
     </row>
     <row r="55">
@@ -6145,19 +6145,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.341494</v>
+        <v>0.341985</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5665519999999999</v>
+        <v>0.562709</v>
       </c>
       <c r="D55" t="n">
-        <v>0.47185</v>
+        <v>0.445079</v>
       </c>
       <c r="E55" t="n">
-        <v>0.225936</v>
+        <v>0.23101</v>
       </c>
       <c r="F55" t="n">
-        <v>0.463046</v>
+        <v>0.453194</v>
       </c>
     </row>
     <row r="56">
@@ -6165,19 +6165,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.334745</v>
+        <v>0.334832</v>
       </c>
       <c r="C56" t="n">
-        <v>0.559687</v>
+        <v>0.55059</v>
       </c>
       <c r="D56" t="n">
-        <v>0.478122</v>
+        <v>0.446342</v>
       </c>
       <c r="E56" t="n">
-        <v>0.224766</v>
+        <v>0.244184</v>
       </c>
       <c r="F56" t="n">
-        <v>0.463252</v>
+        <v>0.451823</v>
       </c>
     </row>
     <row r="57">
@@ -6185,19 +6185,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.327709</v>
+        <v>0.32727</v>
       </c>
       <c r="C57" t="n">
-        <v>0.549942</v>
+        <v>0.543834</v>
       </c>
       <c r="D57" t="n">
-        <v>0.479524</v>
+        <v>0.449146</v>
       </c>
       <c r="E57" t="n">
-        <v>0.234405</v>
+        <v>0.237291</v>
       </c>
       <c r="F57" t="n">
-        <v>0.460965</v>
+        <v>0.451486</v>
       </c>
     </row>
     <row r="58">
@@ -6205,19 +6205,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.319994</v>
+        <v>0.319659</v>
       </c>
       <c r="C58" t="n">
-        <v>0.555508</v>
+        <v>0.560172</v>
       </c>
       <c r="D58" t="n">
-        <v>0.483496</v>
+        <v>0.450303</v>
       </c>
       <c r="E58" t="n">
-        <v>0.222989</v>
+        <v>0.228007</v>
       </c>
       <c r="F58" t="n">
-        <v>0.46075</v>
+        <v>0.449624</v>
       </c>
     </row>
     <row r="59">
@@ -6225,19 +6225,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.312011</v>
+        <v>0.311676</v>
       </c>
       <c r="C59" t="n">
-        <v>0.531549</v>
+        <v>0.528215</v>
       </c>
       <c r="D59" t="n">
-        <v>0.484994</v>
+        <v>0.450069</v>
       </c>
       <c r="E59" t="n">
-        <v>0.222438</v>
+        <v>0.227232</v>
       </c>
       <c r="F59" t="n">
-        <v>0.459524</v>
+        <v>0.448596</v>
       </c>
     </row>
     <row r="60">
@@ -6245,19 +6245,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.303506</v>
+        <v>0.303175</v>
       </c>
       <c r="C60" t="n">
-        <v>0.546742</v>
+        <v>0.547086</v>
       </c>
       <c r="D60" t="n">
-        <v>0.489352</v>
+        <v>0.455791</v>
       </c>
       <c r="E60" t="n">
-        <v>0.221591</v>
+        <v>0.226409</v>
       </c>
       <c r="F60" t="n">
-        <v>0.458926</v>
+        <v>0.450375</v>
       </c>
     </row>
     <row r="61">
@@ -6265,19 +6265,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.294156</v>
+        <v>0.294115</v>
       </c>
       <c r="C61" t="n">
-        <v>0.535646</v>
+        <v>0.53129</v>
       </c>
       <c r="D61" t="n">
-        <v>0.4915</v>
+        <v>0.462962</v>
       </c>
       <c r="E61" t="n">
-        <v>0.220801</v>
+        <v>0.225757</v>
       </c>
       <c r="F61" t="n">
-        <v>0.45666</v>
+        <v>0.446687</v>
       </c>
     </row>
     <row r="62">
@@ -6285,19 +6285,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.28399</v>
+        <v>0.284442</v>
       </c>
       <c r="C62" t="n">
-        <v>0.530901</v>
+        <v>0.530101</v>
       </c>
       <c r="D62" t="n">
-        <v>0.497891</v>
+        <v>0.466266</v>
       </c>
       <c r="E62" t="n">
-        <v>0.219991</v>
+        <v>0.225083</v>
       </c>
       <c r="F62" t="n">
-        <v>0.45523</v>
+        <v>0.445411</v>
       </c>
     </row>
     <row r="63">
@@ -6305,19 +6305,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.273638</v>
+        <v>0.274116</v>
       </c>
       <c r="C63" t="n">
-        <v>0.500755</v>
+        <v>0.49894</v>
       </c>
       <c r="D63" t="n">
-        <v>0.500451</v>
+        <v>0.46629</v>
       </c>
       <c r="E63" t="n">
-        <v>0.229627</v>
+        <v>0.239415</v>
       </c>
       <c r="F63" t="n">
-        <v>0.45635</v>
+        <v>0.444925</v>
       </c>
     </row>
     <row r="64">
@@ -6325,19 +6325,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.261372</v>
+        <v>0.261547</v>
       </c>
       <c r="C64" t="n">
-        <v>0.492578</v>
+        <v>0.491431</v>
       </c>
       <c r="D64" t="n">
-        <v>0.521974</v>
+        <v>0.513919</v>
       </c>
       <c r="E64" t="n">
-        <v>0.228961</v>
+        <v>0.238691</v>
       </c>
       <c r="F64" t="n">
-        <v>0.45371</v>
+        <v>0.444543</v>
       </c>
     </row>
     <row r="65">
@@ -6345,19 +6345,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.248098</v>
+        <v>0.248827</v>
       </c>
       <c r="C65" t="n">
-        <v>0.495365</v>
+        <v>0.498622</v>
       </c>
       <c r="D65" t="n">
-        <v>0.527213</v>
+        <v>0.511499</v>
       </c>
       <c r="E65" t="n">
-        <v>0.228325</v>
+        <v>0.238018</v>
       </c>
       <c r="F65" t="n">
-        <v>0.452671</v>
+        <v>0.443203</v>
       </c>
     </row>
     <row r="66">
@@ -6365,19 +6365,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.233907</v>
+        <v>0.234401</v>
       </c>
       <c r="C66" t="n">
-        <v>0.478629</v>
+        <v>0.479122</v>
       </c>
       <c r="D66" t="n">
-        <v>0.532593</v>
+        <v>0.523358</v>
       </c>
       <c r="E66" t="n">
-        <v>0.237924</v>
+        <v>0.240834</v>
       </c>
       <c r="F66" t="n">
-        <v>0.468749</v>
+        <v>0.458121</v>
       </c>
     </row>
     <row r="67">
@@ -6385,19 +6385,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.35589</v>
+        <v>0.355624</v>
       </c>
       <c r="C67" t="n">
-        <v>0.627006</v>
+        <v>0.640791</v>
       </c>
       <c r="D67" t="n">
-        <v>0.543974</v>
+        <v>0.529</v>
       </c>
       <c r="E67" t="n">
-        <v>0.246277</v>
+        <v>0.24287</v>
       </c>
       <c r="F67" t="n">
-        <v>0.463976</v>
+        <v>0.457028</v>
       </c>
     </row>
     <row r="68">
@@ -6405,19 +6405,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.349281</v>
+        <v>0.349577</v>
       </c>
       <c r="C68" t="n">
-        <v>0.651667</v>
+        <v>0.66851</v>
       </c>
       <c r="D68" t="n">
-        <v>0.551636</v>
+        <v>0.537372</v>
       </c>
       <c r="E68" t="n">
-        <v>0.232745</v>
+        <v>0.237845</v>
       </c>
       <c r="F68" t="n">
-        <v>0.462755</v>
+        <v>0.455304</v>
       </c>
     </row>
     <row r="69">
@@ -6425,19 +6425,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.343709</v>
+        <v>0.343992</v>
       </c>
       <c r="C69" t="n">
-        <v>0.613008</v>
+        <v>0.6244729999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.562492</v>
+        <v>0.545548</v>
       </c>
       <c r="E69" t="n">
-        <v>0.230759</v>
+        <v>0.236295</v>
       </c>
       <c r="F69" t="n">
-        <v>0.460618</v>
+        <v>0.453637</v>
       </c>
     </row>
     <row r="70">
@@ -6445,19 +6445,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.336467</v>
+        <v>0.337162</v>
       </c>
       <c r="C70" t="n">
-        <v>0.674681</v>
+        <v>0.696977</v>
       </c>
       <c r="D70" t="n">
-        <v>0.563219</v>
+        <v>0.552422</v>
       </c>
       <c r="E70" t="n">
-        <v>0.22852</v>
+        <v>0.234295</v>
       </c>
       <c r="F70" t="n">
-        <v>0.460723</v>
+        <v>0.452444</v>
       </c>
     </row>
     <row r="71">
@@ -6465,19 +6465,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.329774</v>
+        <v>0.329672</v>
       </c>
       <c r="C71" t="n">
-        <v>0.652455</v>
+        <v>0.669052</v>
       </c>
       <c r="D71" t="n">
-        <v>0.579438</v>
+        <v>0.557275</v>
       </c>
       <c r="E71" t="n">
-        <v>0.227204</v>
+        <v>0.231855</v>
       </c>
       <c r="F71" t="n">
-        <v>0.458757</v>
+        <v>0.451506</v>
       </c>
     </row>
     <row r="72">
@@ -6485,19 +6485,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.322242</v>
+        <v>0.322008</v>
       </c>
       <c r="C72" t="n">
-        <v>0.650926</v>
+        <v>0.667465</v>
       </c>
       <c r="D72" t="n">
-        <v>0.577449</v>
+        <v>0.569318</v>
       </c>
       <c r="E72" t="n">
-        <v>0.22541</v>
+        <v>0.230516</v>
       </c>
       <c r="F72" t="n">
-        <v>0.457427</v>
+        <v>0.451042</v>
       </c>
     </row>
     <row r="73">
@@ -6505,19 +6505,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.314159</v>
+        <v>0.314261</v>
       </c>
       <c r="C73" t="n">
-        <v>0.638586</v>
+        <v>0.722015</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5848989999999999</v>
+        <v>0.571807</v>
       </c>
       <c r="E73" t="n">
-        <v>0.223383</v>
+        <v>0.228541</v>
       </c>
       <c r="F73" t="n">
-        <v>0.45757</v>
+        <v>0.449317</v>
       </c>
     </row>
     <row r="74">
@@ -6525,19 +6525,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.305833</v>
+        <v>0.305854</v>
       </c>
       <c r="C74" t="n">
-        <v>0.612287</v>
+        <v>0.626268</v>
       </c>
       <c r="D74" t="n">
-        <v>0.588018</v>
+        <v>0.57628</v>
       </c>
       <c r="E74" t="n">
-        <v>0.222196</v>
+        <v>0.227091</v>
       </c>
       <c r="F74" t="n">
-        <v>0.45525</v>
+        <v>0.448272</v>
       </c>
     </row>
     <row r="75">
@@ -6545,19 +6545,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.296629</v>
+        <v>0.296942</v>
       </c>
       <c r="C75" t="n">
-        <v>0.598622</v>
+        <v>0.6087089999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5882270000000001</v>
+        <v>0.581056</v>
       </c>
       <c r="E75" t="n">
-        <v>0.224756</v>
+        <v>0.239167</v>
       </c>
       <c r="F75" t="n">
-        <v>0.454468</v>
+        <v>0.44729</v>
       </c>
     </row>
     <row r="76">
@@ -6565,19 +6565,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.286661</v>
+        <v>0.288253</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5832079999999999</v>
+        <v>0.596631</v>
       </c>
       <c r="D76" t="n">
-        <v>0.59177</v>
+        <v>0.579681</v>
       </c>
       <c r="E76" t="n">
-        <v>0.231079</v>
+        <v>0.226811</v>
       </c>
       <c r="F76" t="n">
-        <v>0.453467</v>
+        <v>0.446312</v>
       </c>
     </row>
     <row r="77">
@@ -6585,19 +6585,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.276091</v>
+        <v>0.276687</v>
       </c>
       <c r="C77" t="n">
-        <v>0.581525</v>
+        <v>0.597502</v>
       </c>
       <c r="D77" t="n">
-        <v>0.593932</v>
+        <v>0.57905</v>
       </c>
       <c r="E77" t="n">
-        <v>0.219756</v>
+        <v>0.239121</v>
       </c>
       <c r="F77" t="n">
-        <v>0.452839</v>
+        <v>0.445346</v>
       </c>
     </row>
     <row r="78">
@@ -6605,19 +6605,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.264633</v>
+        <v>0.265117</v>
       </c>
       <c r="C78" t="n">
-        <v>0.617078</v>
+        <v>0.639019</v>
       </c>
       <c r="D78" t="n">
-        <v>0.664621</v>
+        <v>0.6669040000000001</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2196</v>
+        <v>0.237488</v>
       </c>
       <c r="F78" t="n">
-        <v>0.451426</v>
+        <v>0.444568</v>
       </c>
     </row>
     <row r="79">
@@ -6625,19 +6625,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.251898</v>
+        <v>0.252285</v>
       </c>
       <c r="C79" t="n">
-        <v>0.581551</v>
+        <v>0.591018</v>
       </c>
       <c r="D79" t="n">
-        <v>0.65632</v>
+        <v>0.673146</v>
       </c>
       <c r="E79" t="n">
-        <v>0.227588</v>
+        <v>0.228304</v>
       </c>
       <c r="F79" t="n">
-        <v>0.450756</v>
+        <v>0.444215</v>
       </c>
     </row>
     <row r="80">
@@ -6645,19 +6645,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.238317</v>
+        <v>0.239244</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5794240000000001</v>
+        <v>0.597296</v>
       </c>
       <c r="D80" t="n">
-        <v>0.668726</v>
+        <v>0.67213</v>
       </c>
       <c r="E80" t="n">
-        <v>0.233155</v>
+        <v>0.239263</v>
       </c>
       <c r="F80" t="n">
-        <v>0.46591</v>
+        <v>0.458836</v>
       </c>
     </row>
     <row r="81">
@@ -6665,19 +6665,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.358014</v>
+        <v>0.357856</v>
       </c>
       <c r="C81" t="n">
-        <v>0.747725</v>
+        <v>0.774667</v>
       </c>
       <c r="D81" t="n">
-        <v>0.662781</v>
+        <v>0.670212</v>
       </c>
       <c r="E81" t="n">
-        <v>0.230505</v>
+        <v>0.236774</v>
       </c>
       <c r="F81" t="n">
-        <v>0.464252</v>
+        <v>0.457455</v>
       </c>
     </row>
     <row r="82">
@@ -6685,19 +6685,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.352173</v>
+        <v>0.351927</v>
       </c>
       <c r="C82" t="n">
-        <v>0.734049</v>
+        <v>0.752259</v>
       </c>
       <c r="D82" t="n">
-        <v>0.661717</v>
+        <v>0.669732</v>
       </c>
       <c r="E82" t="n">
-        <v>0.228633</v>
+        <v>0.23437</v>
       </c>
       <c r="F82" t="n">
-        <v>0.462584</v>
+        <v>0.455866</v>
       </c>
     </row>
     <row r="83">
@@ -6705,19 +6705,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.345514</v>
+        <v>0.346268</v>
       </c>
       <c r="C83" t="n">
-        <v>0.702076</v>
+        <v>0.7406740000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.660878</v>
+        <v>0.666635</v>
       </c>
       <c r="E83" t="n">
-        <v>0.227226</v>
+        <v>0.23268</v>
       </c>
       <c r="F83" t="n">
-        <v>0.46104</v>
+        <v>0.454616</v>
       </c>
     </row>
     <row r="84">
@@ -6725,19 +6725,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.339107</v>
+        <v>0.339227</v>
       </c>
       <c r="C84" t="n">
-        <v>0.62109</v>
+        <v>0.63331</v>
       </c>
       <c r="D84" t="n">
-        <v>0.655536</v>
+        <v>0.658135</v>
       </c>
       <c r="E84" t="n">
-        <v>0.237243</v>
+        <v>0.246509</v>
       </c>
       <c r="F84" t="n">
-        <v>0.459916</v>
+        <v>0.453208</v>
       </c>
     </row>
     <row r="85">
@@ -6745,19 +6745,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.331694</v>
+        <v>0.332247</v>
       </c>
       <c r="C85" t="n">
-        <v>0.685138</v>
+        <v>0.707744</v>
       </c>
       <c r="D85" t="n">
-        <v>0.656097</v>
+        <v>0.65713</v>
       </c>
       <c r="E85" t="n">
-        <v>0.224858</v>
+        <v>0.230414</v>
       </c>
       <c r="F85" t="n">
-        <v>0.45861</v>
+        <v>0.451761</v>
       </c>
     </row>
     <row r="86">
@@ -6765,19 +6765,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.324447</v>
+        <v>0.325087</v>
       </c>
       <c r="C86" t="n">
-        <v>0.770241</v>
+        <v>0.805808</v>
       </c>
       <c r="D86" t="n">
-        <v>0.651118</v>
+        <v>0.650674</v>
       </c>
       <c r="E86" t="n">
-        <v>0.224072</v>
+        <v>0.243581</v>
       </c>
       <c r="F86" t="n">
-        <v>0.457916</v>
+        <v>0.450747</v>
       </c>
     </row>
     <row r="87">
@@ -6785,19 +6785,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.316279</v>
+        <v>0.316943</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6792</v>
+        <v>0.695278</v>
       </c>
       <c r="D87" t="n">
-        <v>0.6492019999999999</v>
+        <v>0.6454530000000001</v>
       </c>
       <c r="E87" t="n">
-        <v>0.222744</v>
+        <v>0.228109</v>
       </c>
       <c r="F87" t="n">
-        <v>0.456679</v>
+        <v>0.449465</v>
       </c>
     </row>
     <row r="88">
@@ -6805,19 +6805,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.307923</v>
+        <v>0.3082</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6260790000000001</v>
+        <v>0.648853</v>
       </c>
       <c r="D88" t="n">
-        <v>0.643024</v>
+        <v>0.640032</v>
       </c>
       <c r="E88" t="n">
-        <v>0.221897</v>
+        <v>0.227216</v>
       </c>
       <c r="F88" t="n">
-        <v>0.455442</v>
+        <v>0.452368</v>
       </c>
     </row>
     <row r="89">
@@ -6825,19 +6825,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.299031</v>
+        <v>0.29917</v>
       </c>
       <c r="C89" t="n">
-        <v>0.65871</v>
+        <v>0.685647</v>
       </c>
       <c r="D89" t="n">
-        <v>0.642771</v>
+        <v>0.636928</v>
       </c>
       <c r="E89" t="n">
-        <v>0.221543</v>
+        <v>0.240999</v>
       </c>
       <c r="F89" t="n">
-        <v>0.454121</v>
+        <v>0.450251</v>
       </c>
     </row>
     <row r="90">
@@ -6845,19 +6845,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.289369</v>
+        <v>0.289939</v>
       </c>
       <c r="C90" t="n">
-        <v>0.645877</v>
+        <v>0.672323</v>
       </c>
       <c r="D90" t="n">
-        <v>0.638919</v>
+        <v>0.632167</v>
       </c>
       <c r="E90" t="n">
-        <v>0.22093</v>
+        <v>0.240608</v>
       </c>
       <c r="F90" t="n">
-        <v>0.453472</v>
+        <v>0.449596</v>
       </c>
     </row>
     <row r="91">
@@ -6865,19 +6865,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.279406</v>
+        <v>0.279623</v>
       </c>
       <c r="C91" t="n">
-        <v>0.591656</v>
+        <v>0.612086</v>
       </c>
       <c r="D91" t="n">
-        <v>0.635554</v>
+        <v>0.628663</v>
       </c>
       <c r="E91" t="n">
-        <v>0.226717</v>
+        <v>0.225491</v>
       </c>
       <c r="F91" t="n">
-        <v>0.453561</v>
+        <v>0.446107</v>
       </c>
     </row>
     <row r="92">
@@ -6885,19 +6885,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.267707</v>
+        <v>0.268114</v>
       </c>
       <c r="C92" t="n">
-        <v>0.552041</v>
+        <v>0.567893</v>
       </c>
       <c r="D92" t="n">
-        <v>0.648307</v>
+        <v>0.669063</v>
       </c>
       <c r="E92" t="n">
-        <v>0.229827</v>
+        <v>0.227562</v>
       </c>
       <c r="F92" t="n">
-        <v>0.451455</v>
+        <v>0.445512</v>
       </c>
     </row>
     <row r="93">
@@ -6905,19 +6905,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.255169</v>
+        <v>0.256168</v>
       </c>
       <c r="C93" t="n">
-        <v>0.622217</v>
+        <v>0.651644</v>
       </c>
       <c r="D93" t="n">
-        <v>0.659567</v>
+        <v>0.678828</v>
       </c>
       <c r="E93" t="n">
-        <v>0.229084</v>
+        <v>0.239445</v>
       </c>
       <c r="F93" t="n">
-        <v>0.450645</v>
+        <v>0.444346</v>
       </c>
     </row>
     <row r="94">
@@ -6925,19 +6925,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.241469</v>
+        <v>0.241944</v>
       </c>
       <c r="C94" t="n">
-        <v>0.612804</v>
+        <v>0.642016</v>
       </c>
       <c r="D94" t="n">
-        <v>0.66108</v>
+        <v>0.673284</v>
       </c>
       <c r="E94" t="n">
-        <v>0.233991</v>
+        <v>0.240123</v>
       </c>
       <c r="F94" t="n">
-        <v>0.46613</v>
+        <v>0.459367</v>
       </c>
     </row>
     <row r="95">
@@ -6945,19 +6945,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.358948</v>
+        <v>0.358892</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6943780000000001</v>
+        <v>0.716095</v>
       </c>
       <c r="D95" t="n">
-        <v>0.655641</v>
+        <v>0.669401</v>
       </c>
       <c r="E95" t="n">
-        <v>0.231969</v>
+        <v>0.251579</v>
       </c>
       <c r="F95" t="n">
-        <v>0.465968</v>
+        <v>0.457769</v>
       </c>
     </row>
     <row r="96">
@@ -6965,19 +6965,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.353219</v>
+        <v>0.353441</v>
       </c>
       <c r="C96" t="n">
-        <v>0.660386</v>
+        <v>0.676812</v>
       </c>
       <c r="D96" t="n">
-        <v>0.652259</v>
+        <v>0.666938</v>
       </c>
       <c r="E96" t="n">
-        <v>0.229603</v>
+        <v>0.235538</v>
       </c>
       <c r="F96" t="n">
-        <v>0.464383</v>
+        <v>0.456504</v>
       </c>
     </row>
     <row r="97">
@@ -6985,19 +6985,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.347401</v>
+        <v>0.346921</v>
       </c>
       <c r="C97" t="n">
-        <v>0.6951270000000001</v>
+        <v>0.717262</v>
       </c>
       <c r="D97" t="n">
-        <v>0.647715</v>
+        <v>0.659488</v>
       </c>
       <c r="E97" t="n">
-        <v>0.228185</v>
+        <v>0.233636</v>
       </c>
       <c r="F97" t="n">
-        <v>0.462743</v>
+        <v>0.454775</v>
       </c>
     </row>
     <row r="98">
@@ -7005,19 +7005,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.340665</v>
+        <v>0.340709</v>
       </c>
       <c r="C98" t="n">
-        <v>0.713843</v>
+        <v>0.742552</v>
       </c>
       <c r="D98" t="n">
-        <v>0.644615</v>
+        <v>0.6534489999999999</v>
       </c>
       <c r="E98" t="n">
-        <v>0.226671</v>
+        <v>0.232277</v>
       </c>
       <c r="F98" t="n">
-        <v>0.462021</v>
+        <v>0.454025</v>
       </c>
     </row>
     <row r="99">
@@ -7025,19 +7025,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.333785</v>
+        <v>0.333638</v>
       </c>
       <c r="C99" t="n">
-        <v>0.6893319999999999</v>
+        <v>0.719596</v>
       </c>
       <c r="D99" t="n">
-        <v>0.638424</v>
+        <v>0.651204</v>
       </c>
       <c r="E99" t="n">
-        <v>0.225373</v>
+        <v>0.231165</v>
       </c>
       <c r="F99" t="n">
-        <v>0.459284</v>
+        <v>0.452042</v>
       </c>
     </row>
     <row r="100">
@@ -7045,19 +7045,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.326183</v>
+        <v>0.326408</v>
       </c>
       <c r="C100" t="n">
-        <v>0.683745</v>
+        <v>0.719772</v>
       </c>
       <c r="D100" t="n">
-        <v>0.638917</v>
+        <v>0.648245</v>
       </c>
       <c r="E100" t="n">
-        <v>0.224304</v>
+        <v>0.229937</v>
       </c>
       <c r="F100" t="n">
-        <v>0.459713</v>
+        <v>0.450577</v>
       </c>
     </row>
     <row r="101">
@@ -7065,19 +7065,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.317861</v>
+        <v>0.318237</v>
       </c>
       <c r="C101" t="n">
-        <v>0.689306</v>
+        <v>0.71855</v>
       </c>
       <c r="D101" t="n">
-        <v>0.638537</v>
+        <v>0.636525</v>
       </c>
       <c r="E101" t="n">
-        <v>0.223088</v>
+        <v>0.228604</v>
       </c>
       <c r="F101" t="n">
-        <v>0.456825</v>
+        <v>0.450192</v>
       </c>
     </row>
     <row r="102">
@@ -7085,19 +7085,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.310129</v>
+        <v>0.310141</v>
       </c>
       <c r="C102" t="n">
-        <v>0.619045</v>
+        <v>0.642543</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6297</v>
+        <v>0.634362</v>
       </c>
       <c r="E102" t="n">
-        <v>0.222325</v>
+        <v>0.227635</v>
       </c>
       <c r="F102" t="n">
-        <v>0.457574</v>
+        <v>0.448514</v>
       </c>
     </row>
     <row r="103">
@@ -7105,19 +7105,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.300828</v>
+        <v>0.301953</v>
       </c>
       <c r="C103" t="n">
-        <v>0.64275</v>
+        <v>0.670586</v>
       </c>
       <c r="D103" t="n">
-        <v>0.628568</v>
+        <v>0.629325</v>
       </c>
       <c r="E103" t="n">
-        <v>0.221408</v>
+        <v>0.226852</v>
       </c>
       <c r="F103" t="n">
-        <v>0.454608</v>
+        <v>0.447999</v>
       </c>
     </row>
     <row r="104">
@@ -7125,19 +7125,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.291666</v>
+        <v>0.291782</v>
       </c>
       <c r="C104" t="n">
-        <v>0.599125</v>
+        <v>0.6159</v>
       </c>
       <c r="D104" t="n">
-        <v>0.624221</v>
+        <v>0.617804</v>
       </c>
       <c r="E104" t="n">
-        <v>0.220746</v>
+        <v>0.226046</v>
       </c>
       <c r="F104" t="n">
-        <v>0.453929</v>
+        <v>0.447165</v>
       </c>
     </row>
     <row r="105">
@@ -7145,19 +7145,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.28145</v>
+        <v>0.282203</v>
       </c>
       <c r="C105" t="n">
-        <v>0.529558</v>
+        <v>0.536605</v>
       </c>
       <c r="D105" t="n">
-        <v>0.622748</v>
+        <v>0.621707</v>
       </c>
       <c r="E105" t="n">
-        <v>0.230912</v>
+        <v>0.240509</v>
       </c>
       <c r="F105" t="n">
-        <v>0.453457</v>
+        <v>0.446625</v>
       </c>
     </row>
     <row r="106">
@@ -7165,19 +7165,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.270329</v>
+        <v>0.271189</v>
       </c>
       <c r="C106" t="n">
-        <v>0.646016</v>
+        <v>0.67227</v>
       </c>
       <c r="D106" t="n">
-        <v>0.622129</v>
+        <v>0.618116</v>
       </c>
       <c r="E106" t="n">
-        <v>0.230464</v>
+        <v>0.232166</v>
       </c>
       <c r="F106" t="n">
-        <v>0.457094</v>
+        <v>0.445718</v>
       </c>
     </row>
     <row r="107">
@@ -7185,19 +7185,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.258326</v>
+        <v>0.258875</v>
       </c>
       <c r="C107" t="n">
-        <v>0.5679110000000001</v>
+        <v>0.581508</v>
       </c>
       <c r="D107" t="n">
-        <v>0.6594179999999999</v>
+        <v>0.6745640000000001</v>
       </c>
       <c r="E107" t="n">
-        <v>0.22933</v>
+        <v>0.239623</v>
       </c>
       <c r="F107" t="n">
-        <v>0.454122</v>
+        <v>0.44529</v>
       </c>
     </row>
     <row r="108">
@@ -7205,19 +7205,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.244855</v>
+        <v>0.245301</v>
       </c>
       <c r="C108" t="n">
-        <v>0.557642</v>
+        <v>0.574778</v>
       </c>
       <c r="D108" t="n">
-        <v>0.661346</v>
+        <v>0.674847</v>
       </c>
       <c r="E108" t="n">
-        <v>0.245077</v>
+        <v>0.254649</v>
       </c>
       <c r="F108" t="n">
-        <v>0.470114</v>
+        <v>0.460148</v>
       </c>
     </row>
     <row r="109">
@@ -7225,19 +7225,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.22938</v>
+        <v>0.230155</v>
       </c>
       <c r="C109" t="n">
-        <v>0.479478</v>
+        <v>0.476857</v>
       </c>
       <c r="D109" t="n">
-        <v>0.647054</v>
+        <v>0.6580780000000001</v>
       </c>
       <c r="E109" t="n">
-        <v>0.232418</v>
+        <v>0.238492</v>
       </c>
       <c r="F109" t="n">
-        <v>0.468289</v>
+        <v>0.458052</v>
       </c>
     </row>
     <row r="110">
@@ -7245,19 +7245,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.354591</v>
+        <v>0.35481</v>
       </c>
       <c r="C110" t="n">
-        <v>0.638692</v>
+        <v>0.637935</v>
       </c>
       <c r="D110" t="n">
-        <v>0.648025</v>
+        <v>0.657018</v>
       </c>
       <c r="E110" t="n">
-        <v>0.230614</v>
+        <v>0.23577</v>
       </c>
       <c r="F110" t="n">
-        <v>0.466841</v>
+        <v>0.456749</v>
       </c>
     </row>
     <row r="111">
@@ -7265,19 +7265,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.348176</v>
+        <v>0.34868</v>
       </c>
       <c r="C111" t="n">
-        <v>0.689214</v>
+        <v>0.7245549999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.640873</v>
+        <v>0.651254</v>
       </c>
       <c r="E111" t="n">
-        <v>0.228716</v>
+        <v>0.23439</v>
       </c>
       <c r="F111" t="n">
-        <v>0.465112</v>
+        <v>0.45584</v>
       </c>
     </row>
     <row r="112">
@@ -7285,19 +7285,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.342143</v>
+        <v>0.342078</v>
       </c>
       <c r="C112" t="n">
-        <v>0.601015</v>
+        <v>0.613401</v>
       </c>
       <c r="D112" t="n">
-        <v>0.640173</v>
+        <v>0.648804</v>
       </c>
       <c r="E112" t="n">
-        <v>0.227555</v>
+        <v>0.232895</v>
       </c>
       <c r="F112" t="n">
-        <v>0.464479</v>
+        <v>0.453785</v>
       </c>
     </row>
     <row r="113">
@@ -7305,19 +7305,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.334499</v>
+        <v>0.33495</v>
       </c>
       <c r="C113" t="n">
-        <v>0.742835</v>
+        <v>0.7721519999999999</v>
       </c>
       <c r="D113" t="n">
-        <v>0.64545</v>
+        <v>0.654957</v>
       </c>
       <c r="E113" t="n">
-        <v>0.225715</v>
+        <v>0.231267</v>
       </c>
       <c r="F113" t="n">
-        <v>0.463398</v>
+        <v>0.454037</v>
       </c>
     </row>
     <row r="114">
@@ -7325,19 +7325,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.327593</v>
+        <v>0.328092</v>
       </c>
       <c r="C114" t="n">
-        <v>0.6505069999999999</v>
+        <v>0.662705</v>
       </c>
       <c r="D114" t="n">
-        <v>0.640679</v>
+        <v>0.644086</v>
       </c>
       <c r="E114" t="n">
-        <v>0.23482</v>
+        <v>0.243922</v>
       </c>
       <c r="F114" t="n">
-        <v>0.461326</v>
+        <v>0.451779</v>
       </c>
     </row>
     <row r="115">
@@ -7345,19 +7345,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.319561</v>
+        <v>0.320049</v>
       </c>
       <c r="C115" t="n">
-        <v>0.7060419999999999</v>
+        <v>0.72332</v>
       </c>
       <c r="D115" t="n">
-        <v>0.6334880000000001</v>
+        <v>0.636118</v>
       </c>
       <c r="E115" t="n">
-        <v>0.223566</v>
+        <v>0.22919</v>
       </c>
       <c r="F115" t="n">
-        <v>0.460673</v>
+        <v>0.450433</v>
       </c>
     </row>
     <row r="116">
@@ -7365,19 +7365,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.311463</v>
+        <v>0.312368</v>
       </c>
       <c r="C116" t="n">
-        <v>0.6817220000000001</v>
+        <v>0.705599</v>
       </c>
       <c r="D116" t="n">
-        <v>0.632027</v>
+        <v>0.635643</v>
       </c>
       <c r="E116" t="n">
-        <v>0.222938</v>
+        <v>0.228096</v>
       </c>
       <c r="F116" t="n">
-        <v>0.459523</v>
+        <v>0.449727</v>
       </c>
     </row>
     <row r="117">
@@ -7385,19 +7385,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.302806</v>
+        <v>0.303025</v>
       </c>
       <c r="C117" t="n">
-        <v>0.657245</v>
+        <v>0.694367</v>
       </c>
       <c r="D117" t="n">
-        <v>0.629132</v>
+        <v>0.6278629999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>0.22181</v>
+        <v>0.228069</v>
       </c>
       <c r="F117" t="n">
-        <v>0.458546</v>
+        <v>0.447797</v>
       </c>
     </row>
     <row r="118">
@@ -7405,19 +7405,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.293739</v>
+        <v>0.294633</v>
       </c>
       <c r="C118" t="n">
-        <v>0.667119</v>
+        <v>0.6940809999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>0.623522</v>
+        <v>0.623124</v>
       </c>
       <c r="E118" t="n">
-        <v>0.23162</v>
+        <v>0.240866</v>
       </c>
       <c r="F118" t="n">
-        <v>0.458014</v>
+        <v>0.447249</v>
       </c>
     </row>
     <row r="119">
@@ -7425,19 +7425,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.283275</v>
+        <v>0.284702</v>
       </c>
       <c r="C119" t="n">
-        <v>0.645034</v>
+        <v>0.662653</v>
       </c>
       <c r="D119" t="n">
-        <v>0.620679</v>
+        <v>0.610442</v>
       </c>
       <c r="E119" t="n">
-        <v>0.230944</v>
+        <v>0.227121</v>
       </c>
       <c r="F119" t="n">
-        <v>0.456894</v>
+        <v>0.447757</v>
       </c>
     </row>
     <row r="120">
@@ -7445,19 +7445,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.272951</v>
+        <v>0.273365</v>
       </c>
       <c r="C120" t="n">
-        <v>0.6444569999999999</v>
+        <v>0.6639620000000001</v>
       </c>
       <c r="D120" t="n">
-        <v>0.62219</v>
+        <v>0.613222</v>
       </c>
       <c r="E120" t="n">
-        <v>0.227532</v>
+        <v>0.240245</v>
       </c>
       <c r="F120" t="n">
-        <v>0.455078</v>
+        <v>0.447242</v>
       </c>
     </row>
     <row r="121">
@@ -7465,19 +7465,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.264782</v>
+        <v>0.262003</v>
       </c>
       <c r="C121" t="n">
-        <v>0.629132</v>
+        <v>0.646942</v>
       </c>
       <c r="D121" t="n">
-        <v>0.678798</v>
+        <v>0.6889960000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>0.229524</v>
+        <v>0.232096</v>
       </c>
       <c r="F121" t="n">
-        <v>0.455747</v>
+        <v>0.445856</v>
       </c>
     </row>
     <row r="122">
@@ -7485,19 +7485,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.248222</v>
+        <v>0.248565</v>
       </c>
       <c r="C122" t="n">
-        <v>0.576081</v>
+        <v>0.587121</v>
       </c>
       <c r="D122" t="n">
-        <v>0.66176</v>
+        <v>0.683592</v>
       </c>
       <c r="E122" t="n">
-        <v>0.228581</v>
+        <v>0.236231</v>
       </c>
       <c r="F122" t="n">
-        <v>0.453734</v>
+        <v>0.447894</v>
       </c>
     </row>
     <row r="123">
@@ -7505,19 +7505,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.233781</v>
+        <v>0.23429</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6146430000000001</v>
+        <v>0.636679</v>
       </c>
       <c r="D123" t="n">
-        <v>0.672697</v>
+        <v>0.696993</v>
       </c>
       <c r="E123" t="n">
-        <v>0.243678</v>
+        <v>0.247793</v>
       </c>
       <c r="F123" t="n">
-        <v>0.468971</v>
+        <v>0.458091</v>
       </c>
     </row>
     <row r="124">
@@ -7525,19 +7525,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.355857</v>
+        <v>0.355968</v>
       </c>
       <c r="C124" t="n">
-        <v>0.689406</v>
+        <v>0.7072040000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.670898</v>
+        <v>0.693393</v>
       </c>
       <c r="E124" t="n">
-        <v>0.233012</v>
+        <v>0.238886</v>
       </c>
       <c r="F124" t="n">
-        <v>0.467571</v>
+        <v>0.456925</v>
       </c>
     </row>
     <row r="125">
@@ -7545,19 +7545,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.349557</v>
+        <v>0.349745</v>
       </c>
       <c r="C125" t="n">
-        <v>0.800996</v>
+        <v>0.83799</v>
       </c>
       <c r="D125" t="n">
-        <v>0.666324</v>
+        <v>0.684703</v>
       </c>
       <c r="E125" t="n">
-        <v>0.230825</v>
+        <v>0.236135</v>
       </c>
       <c r="F125" t="n">
-        <v>0.465166</v>
+        <v>0.455441</v>
       </c>
     </row>
     <row r="126">
@@ -7565,19 +7565,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.343733</v>
+        <v>0.343846</v>
       </c>
       <c r="C126" t="n">
-        <v>0.733322</v>
+        <v>0.729217</v>
       </c>
       <c r="D126" t="n">
-        <v>0.661498</v>
+        <v>0.68351</v>
       </c>
       <c r="E126" t="n">
-        <v>0.228746</v>
+        <v>0.234391</v>
       </c>
       <c r="F126" t="n">
-        <v>0.462016</v>
+        <v>0.453883</v>
       </c>
     </row>
     <row r="127">
@@ -7585,19 +7585,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.336824</v>
+        <v>0.33699</v>
       </c>
       <c r="C127" t="n">
-        <v>0.65487</v>
+        <v>0.677607</v>
       </c>
       <c r="D127" t="n">
-        <v>0.646072</v>
+        <v>0.663563</v>
       </c>
       <c r="E127" t="n">
-        <v>0.227035</v>
+        <v>0.233871</v>
       </c>
       <c r="F127" t="n">
-        <v>0.461182</v>
+        <v>0.453113</v>
       </c>
     </row>
     <row r="128">
@@ -7605,19 +7605,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.329194</v>
+        <v>0.329493</v>
       </c>
       <c r="C128" t="n">
-        <v>0.600352</v>
+        <v>0.607112</v>
       </c>
       <c r="D128" t="n">
-        <v>0.650527</v>
+        <v>0.662748</v>
       </c>
       <c r="E128" t="n">
-        <v>0.226213</v>
+        <v>0.233491</v>
       </c>
       <c r="F128" t="n">
-        <v>0.458343</v>
+        <v>0.452267</v>
       </c>
     </row>
     <row r="129">
@@ -7625,19 +7625,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.321776</v>
+        <v>0.32199</v>
       </c>
       <c r="C129" t="n">
-        <v>0.710274</v>
+        <v>0.724685</v>
       </c>
       <c r="D129" t="n">
-        <v>0.6402870000000001</v>
+        <v>0.6548349999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>0.225132</v>
+        <v>0.231683</v>
       </c>
       <c r="F129" t="n">
-        <v>0.457457</v>
+        <v>0.451501</v>
       </c>
     </row>
     <row r="130">
@@ -7645,19 +7645,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.313568</v>
+        <v>0.315052</v>
       </c>
       <c r="C130" t="n">
-        <v>0.551878</v>
+        <v>0.561227</v>
       </c>
       <c r="D130" t="n">
-        <v>0.6421</v>
+        <v>0.6483100000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>0.223457</v>
+        <v>0.231167</v>
       </c>
       <c r="F130" t="n">
-        <v>0.455986</v>
+        <v>0.45173</v>
       </c>
     </row>
     <row r="131">
@@ -7665,19 +7665,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.30536</v>
+        <v>0.305841</v>
       </c>
       <c r="C131" t="n">
-        <v>0.617772</v>
+        <v>0.658918</v>
       </c>
       <c r="D131" t="n">
-        <v>0.634814</v>
+        <v>0.643302</v>
       </c>
       <c r="E131" t="n">
-        <v>0.222885</v>
+        <v>0.229692</v>
       </c>
       <c r="F131" t="n">
-        <v>0.455098</v>
+        <v>0.453978</v>
       </c>
     </row>
     <row r="132">
@@ -7685,19 +7685,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.295859</v>
+        <v>0.297537</v>
       </c>
       <c r="C132" t="n">
-        <v>0.542039</v>
+        <v>0.548044</v>
       </c>
       <c r="D132" t="n">
-        <v>0.632204</v>
+        <v>0.634275</v>
       </c>
       <c r="E132" t="n">
-        <v>0.231615</v>
+        <v>0.240895</v>
       </c>
       <c r="F132" t="n">
-        <v>0.453852</v>
+        <v>0.447963</v>
       </c>
     </row>
     <row r="133">
@@ -7705,19 +7705,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.286051</v>
+        <v>0.286766</v>
       </c>
       <c r="C133" t="n">
-        <v>0.667268</v>
+        <v>0.700617</v>
       </c>
       <c r="D133" t="n">
-        <v>0.6275770000000001</v>
+        <v>0.629402</v>
       </c>
       <c r="E133" t="n">
-        <v>0.230883</v>
+        <v>0.240143</v>
       </c>
       <c r="F133" t="n">
-        <v>0.452827</v>
+        <v>0.448053</v>
       </c>
     </row>
     <row r="134">
@@ -7725,19 +7725,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.275768</v>
+        <v>0.276527</v>
       </c>
       <c r="C134" t="n">
-        <v>0.6266620000000001</v>
+        <v>0.664364</v>
       </c>
       <c r="D134" t="n">
-        <v>0.625394</v>
+        <v>0.629154</v>
       </c>
       <c r="E134" t="n">
-        <v>0.230331</v>
+        <v>0.240042</v>
       </c>
       <c r="F134" t="n">
-        <v>0.453096</v>
+        <v>0.454876</v>
       </c>
     </row>
     <row r="135">
@@ -7745,19 +7745,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.263955</v>
+        <v>0.264493</v>
       </c>
       <c r="C135" t="n">
-        <v>0.625403</v>
+        <v>0.536564</v>
       </c>
       <c r="D135" t="n">
-        <v>0.682718</v>
+        <v>0.719673</v>
       </c>
       <c r="E135" t="n">
-        <v>0.229432</v>
+        <v>0.239701</v>
       </c>
       <c r="F135" t="n">
-        <v>0.451419</v>
+        <v>0.45895</v>
       </c>
     </row>
     <row r="136">
@@ -7765,19 +7765,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.250776</v>
+        <v>0.25265</v>
       </c>
       <c r="C136" t="n">
-        <v>0.522325</v>
+        <v>0.52067</v>
       </c>
       <c r="D136" t="n">
-        <v>0.685088</v>
+        <v>0.71267</v>
       </c>
       <c r="E136" t="n">
-        <v>0.221648</v>
+        <v>0.237669</v>
       </c>
       <c r="F136" t="n">
-        <v>0.450912</v>
+        <v>0.449293</v>
       </c>
     </row>
     <row r="137">
@@ -7785,19 +7785,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.238397</v>
+        <v>0.238446</v>
       </c>
       <c r="C137" t="n">
-        <v>0.560812</v>
+        <v>0.64354</v>
       </c>
       <c r="D137" t="n">
-        <v>0.678495</v>
+        <v>0.708474</v>
       </c>
       <c r="E137" t="n">
-        <v>0.243935</v>
+        <v>0.252371</v>
       </c>
       <c r="F137" t="n">
-        <v>0.46565</v>
+        <v>0.46162</v>
       </c>
     </row>
     <row r="138">
@@ -7805,19 +7805,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.357198</v>
+        <v>0.357405</v>
       </c>
       <c r="C138" t="n">
-        <v>0.735796</v>
+        <v>0.781009</v>
       </c>
       <c r="D138" t="n">
-        <v>0.661811</v>
+        <v>0.687686</v>
       </c>
       <c r="E138" t="n">
-        <v>0.234934</v>
+        <v>0.243869</v>
       </c>
       <c r="F138" t="n">
-        <v>0.463789</v>
+        <v>0.458041</v>
       </c>
     </row>
     <row r="139">
@@ -7825,19 +7825,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.351014</v>
+        <v>0.351169</v>
       </c>
       <c r="C139" t="n">
-        <v>0.67023</v>
+        <v>0.642824</v>
       </c>
       <c r="D139" t="n">
-        <v>0.658326</v>
+        <v>0.681813</v>
       </c>
       <c r="E139" t="n">
-        <v>0.232762</v>
+        <v>0.237934</v>
       </c>
       <c r="F139" t="n">
-        <v>0.46225</v>
+        <v>0.456536</v>
       </c>
     </row>
     <row r="140">
@@ -7845,19 +7845,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.345043</v>
+        <v>0.345286</v>
       </c>
       <c r="C140" t="n">
-        <v>0.603407</v>
+        <v>0.604497</v>
       </c>
       <c r="D140" t="n">
-        <v>0.656417</v>
+        <v>0.678625</v>
       </c>
       <c r="E140" t="n">
-        <v>0.23197</v>
+        <v>0.23924</v>
       </c>
       <c r="F140" t="n">
-        <v>0.46021</v>
+        <v>0.456904</v>
       </c>
     </row>
     <row r="141">
@@ -7865,19 +7865,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.338216</v>
+        <v>0.338713</v>
       </c>
       <c r="C141" t="n">
-        <v>0.6886060000000001</v>
+        <v>0.716404</v>
       </c>
       <c r="D141" t="n">
-        <v>0.660247</v>
+        <v>0.681056</v>
       </c>
       <c r="E141" t="n">
-        <v>0.228597</v>
+        <v>0.236506</v>
       </c>
       <c r="F141" t="n">
-        <v>0.459785</v>
+        <v>0.456776</v>
       </c>
     </row>
     <row r="142">
@@ -7885,19 +7885,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.331673</v>
+        <v>0.331583</v>
       </c>
       <c r="C142" t="n">
-        <v>0.625679</v>
+        <v>0.642064</v>
       </c>
       <c r="D142" t="n">
-        <v>0.657528</v>
+        <v>0.673565</v>
       </c>
       <c r="E142" t="n">
-        <v>0.229054</v>
+        <v>0.232967</v>
       </c>
       <c r="F142" t="n">
-        <v>0.459204</v>
+        <v>0.456189</v>
       </c>
     </row>
     <row r="143">
@@ -7905,19 +7905,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.323621</v>
+        <v>0.323639</v>
       </c>
       <c r="C143" t="n">
-        <v>0.749908</v>
+        <v>0.7935950000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>0.652196</v>
+        <v>0.664653</v>
       </c>
       <c r="E143" t="n">
-        <v>0.234449</v>
+        <v>0.242792</v>
       </c>
       <c r="F143" t="n">
-        <v>0.456809</v>
+        <v>0.453676</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Running erasure.xlsx
+++ b/gcc-x86/Running erasure.xlsx
@@ -5085,19 +5085,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.299786</v>
+        <v>0.314269</v>
       </c>
       <c r="C2" t="n">
-        <v>0.515705</v>
+        <v>0.5231130000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>0.422004</v>
+        <v>0.418431</v>
       </c>
       <c r="E2" t="n">
-        <v>0.21819</v>
+        <v>0.215984</v>
       </c>
       <c r="F2" t="n">
-        <v>0.441869</v>
+        <v>0.435001</v>
       </c>
     </row>
     <row r="3">
@@ -5105,19 +5105,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.297185</v>
+        <v>0.303695</v>
       </c>
       <c r="C3" t="n">
-        <v>0.504987</v>
+        <v>0.513845</v>
       </c>
       <c r="D3" t="n">
-        <v>0.422724</v>
+        <v>0.418814</v>
       </c>
       <c r="E3" t="n">
-        <v>0.202973</v>
+        <v>0.218631</v>
       </c>
       <c r="F3" t="n">
-        <v>0.44112</v>
+        <v>0.4323</v>
       </c>
     </row>
     <row r="4">
@@ -5125,19 +5125,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.287545</v>
+        <v>0.295174</v>
       </c>
       <c r="C4" t="n">
-        <v>0.504836</v>
+        <v>0.504183</v>
       </c>
       <c r="D4" t="n">
-        <v>0.425957</v>
+        <v>0.420936</v>
       </c>
       <c r="E4" t="n">
-        <v>0.205021</v>
+        <v>0.217513</v>
       </c>
       <c r="F4" t="n">
-        <v>0.438574</v>
+        <v>0.433398</v>
       </c>
     </row>
     <row r="5">
@@ -5145,19 +5145,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.28036</v>
+        <v>0.287935</v>
       </c>
       <c r="C5" t="n">
-        <v>0.490712</v>
+        <v>0.496317</v>
       </c>
       <c r="D5" t="n">
-        <v>0.428645</v>
+        <v>0.426546</v>
       </c>
       <c r="E5" t="n">
-        <v>0.213279</v>
+        <v>0.218642</v>
       </c>
       <c r="F5" t="n">
-        <v>0.438878</v>
+        <v>0.433215</v>
       </c>
     </row>
     <row r="6">
@@ -5165,19 +5165,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.268116</v>
+        <v>0.271927</v>
       </c>
       <c r="C6" t="n">
-        <v>0.477014</v>
+        <v>0.484543</v>
       </c>
       <c r="D6" t="n">
-        <v>0.429047</v>
+        <v>0.426263</v>
       </c>
       <c r="E6" t="n">
-        <v>0.208205</v>
+        <v>0.216501</v>
       </c>
       <c r="F6" t="n">
-        <v>0.43885</v>
+        <v>0.431761</v>
       </c>
     </row>
     <row r="7">
@@ -5185,19 +5185,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.259408</v>
+        <v>0.261201</v>
       </c>
       <c r="C7" t="n">
-        <v>0.466424</v>
+        <v>0.47329</v>
       </c>
       <c r="D7" t="n">
-        <v>0.425136</v>
+        <v>0.421716</v>
       </c>
       <c r="E7" t="n">
-        <v>0.21049</v>
+        <v>0.216077</v>
       </c>
       <c r="F7" t="n">
-        <v>0.436767</v>
+        <v>0.429701</v>
       </c>
     </row>
     <row r="8">
@@ -5205,19 +5205,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.244642</v>
+        <v>0.246434</v>
       </c>
       <c r="C8" t="n">
-        <v>0.453825</v>
+        <v>0.459432</v>
       </c>
       <c r="D8" t="n">
-        <v>0.426305</v>
+        <v>0.421821</v>
       </c>
       <c r="E8" t="n">
-        <v>0.21085</v>
+        <v>0.214666</v>
       </c>
       <c r="F8" t="n">
-        <v>0.436059</v>
+        <v>0.42891</v>
       </c>
     </row>
     <row r="9">
@@ -5225,19 +5225,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.232677</v>
+        <v>0.232581</v>
       </c>
       <c r="C9" t="n">
-        <v>0.440792</v>
+        <v>0.446002</v>
       </c>
       <c r="D9" t="n">
-        <v>0.427082</v>
+        <v>0.421575</v>
       </c>
       <c r="E9" t="n">
-        <v>0.22935</v>
+        <v>0.242449</v>
       </c>
       <c r="F9" t="n">
-        <v>0.452316</v>
+        <v>0.444852</v>
       </c>
     </row>
     <row r="10">
@@ -5245,19 +5245,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.349761</v>
+        <v>0.360093</v>
       </c>
       <c r="C10" t="n">
-        <v>0.564151</v>
+        <v>0.571789</v>
       </c>
       <c r="D10" t="n">
-        <v>0.425963</v>
+        <v>0.422802</v>
       </c>
       <c r="E10" t="n">
-        <v>0.236348</v>
+        <v>0.241191</v>
       </c>
       <c r="F10" t="n">
-        <v>0.452449</v>
+        <v>0.444641</v>
       </c>
     </row>
     <row r="11">
@@ -5265,19 +5265,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.344787</v>
+        <v>0.355248</v>
       </c>
       <c r="C11" t="n">
-        <v>0.560782</v>
+        <v>0.558751</v>
       </c>
       <c r="D11" t="n">
-        <v>0.426443</v>
+        <v>0.422011</v>
       </c>
       <c r="E11" t="n">
-        <v>0.245158</v>
+        <v>0.239962</v>
       </c>
       <c r="F11" t="n">
-        <v>0.451758</v>
+        <v>0.442417</v>
       </c>
     </row>
     <row r="12">
@@ -5285,19 +5285,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.338911</v>
+        <v>0.349941</v>
       </c>
       <c r="C12" t="n">
-        <v>0.556018</v>
+        <v>0.564528</v>
       </c>
       <c r="D12" t="n">
-        <v>0.426815</v>
+        <v>0.422168</v>
       </c>
       <c r="E12" t="n">
-        <v>0.224798</v>
+        <v>0.23813</v>
       </c>
       <c r="F12" t="n">
-        <v>0.451274</v>
+        <v>0.442614</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.333871</v>
+        <v>0.343468</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5462360000000001</v>
+        <v>0.555051</v>
       </c>
       <c r="D13" t="n">
-        <v>0.426694</v>
+        <v>0.423818</v>
       </c>
       <c r="E13" t="n">
-        <v>0.224843</v>
+        <v>0.23852</v>
       </c>
       <c r="F13" t="n">
-        <v>0.44816</v>
+        <v>0.441166</v>
       </c>
     </row>
     <row r="14">
@@ -5325,19 +5325,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.326963</v>
+        <v>0.335851</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5407729999999999</v>
+        <v>0.5487109999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.429442</v>
+        <v>0.425881</v>
       </c>
       <c r="E14" t="n">
-        <v>0.224691</v>
+        <v>0.23796</v>
       </c>
       <c r="F14" t="n">
-        <v>0.446322</v>
+        <v>0.438957</v>
       </c>
     </row>
     <row r="15">
@@ -5345,19 +5345,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.32056</v>
+        <v>0.329039</v>
       </c>
       <c r="C15" t="n">
-        <v>0.533909</v>
+        <v>0.539452</v>
       </c>
       <c r="D15" t="n">
-        <v>0.430512</v>
+        <v>0.426253</v>
       </c>
       <c r="E15" t="n">
-        <v>0.223683</v>
+        <v>0.237136</v>
       </c>
       <c r="F15" t="n">
-        <v>0.446214</v>
+        <v>0.438711</v>
       </c>
     </row>
     <row r="16">
@@ -5365,19 +5365,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.312419</v>
+        <v>0.32035</v>
       </c>
       <c r="C16" t="n">
-        <v>0.523726</v>
+        <v>0.53065</v>
       </c>
       <c r="D16" t="n">
-        <v>0.432721</v>
+        <v>0.42819</v>
       </c>
       <c r="E16" t="n">
-        <v>0.223987</v>
+        <v>0.235432</v>
       </c>
       <c r="F16" t="n">
-        <v>0.445244</v>
+        <v>0.437898</v>
       </c>
     </row>
     <row r="17">
@@ -5385,19 +5385,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.303659</v>
+        <v>0.311443</v>
       </c>
       <c r="C17" t="n">
-        <v>0.522248</v>
+        <v>0.528881</v>
       </c>
       <c r="D17" t="n">
-        <v>0.432885</v>
+        <v>0.428228</v>
       </c>
       <c r="E17" t="n">
-        <v>0.223962</v>
+        <v>0.233822</v>
       </c>
       <c r="F17" t="n">
-        <v>0.444932</v>
+        <v>0.438111</v>
       </c>
     </row>
     <row r="18">
@@ -5405,19 +5405,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.294168</v>
+        <v>0.301844</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5046389999999999</v>
+        <v>0.512135</v>
       </c>
       <c r="D18" t="n">
-        <v>0.434856</v>
+        <v>0.430292</v>
       </c>
       <c r="E18" t="n">
-        <v>0.221994</v>
+        <v>0.233086</v>
       </c>
       <c r="F18" t="n">
-        <v>0.444016</v>
+        <v>0.436713</v>
       </c>
     </row>
     <row r="19">
@@ -5425,19 +5425,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.28523</v>
+        <v>0.292357</v>
       </c>
       <c r="C19" t="n">
-        <v>0.5002490000000001</v>
+        <v>0.507789</v>
       </c>
       <c r="D19" t="n">
-        <v>0.435851</v>
+        <v>0.433138</v>
       </c>
       <c r="E19" t="n">
-        <v>0.22217</v>
+        <v>0.23127</v>
       </c>
       <c r="F19" t="n">
-        <v>0.442056</v>
+        <v>0.435877</v>
       </c>
     </row>
     <row r="20">
@@ -5445,19 +5445,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.273768</v>
+        <v>0.280935</v>
       </c>
       <c r="C20" t="n">
-        <v>0.49072</v>
+        <v>0.495985</v>
       </c>
       <c r="D20" t="n">
-        <v>0.43591</v>
+        <v>0.432689</v>
       </c>
       <c r="E20" t="n">
-        <v>0.221738</v>
+        <v>0.229725</v>
       </c>
       <c r="F20" t="n">
-        <v>0.442281</v>
+        <v>0.434726</v>
       </c>
     </row>
     <row r="21">
@@ -5465,19 +5465,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.262927</v>
+        <v>0.270693</v>
       </c>
       <c r="C21" t="n">
-        <v>0.469975</v>
+        <v>0.477726</v>
       </c>
       <c r="D21" t="n">
-        <v>0.430609</v>
+        <v>0.426195</v>
       </c>
       <c r="E21" t="n">
-        <v>0.221464</v>
+        <v>0.226954</v>
       </c>
       <c r="F21" t="n">
-        <v>0.440931</v>
+        <v>0.434603</v>
       </c>
     </row>
     <row r="22">
@@ -5485,19 +5485,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.249546</v>
+        <v>0.255978</v>
       </c>
       <c r="C22" t="n">
-        <v>0.461366</v>
+        <v>0.471289</v>
       </c>
       <c r="D22" t="n">
-        <v>0.429917</v>
+        <v>0.426564</v>
       </c>
       <c r="E22" t="n">
-        <v>0.221611</v>
+        <v>0.224869</v>
       </c>
       <c r="F22" t="n">
-        <v>0.441629</v>
+        <v>0.434014</v>
       </c>
     </row>
     <row r="23">
@@ -5505,19 +5505,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.236321</v>
+        <v>0.242164</v>
       </c>
       <c r="C23" t="n">
-        <v>0.439778</v>
+        <v>0.448846</v>
       </c>
       <c r="D23" t="n">
-        <v>0.432632</v>
+        <v>0.428727</v>
       </c>
       <c r="E23" t="n">
-        <v>0.238645</v>
+        <v>0.25888</v>
       </c>
       <c r="F23" t="n">
-        <v>0.456898</v>
+        <v>0.448247</v>
       </c>
     </row>
     <row r="24">
@@ -5525,19 +5525,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.352813</v>
+        <v>0.363483</v>
       </c>
       <c r="C24" t="n">
-        <v>0.570004</v>
+        <v>0.5782119999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.434607</v>
+        <v>0.42965</v>
       </c>
       <c r="E24" t="n">
-        <v>0.234674</v>
+        <v>0.247513</v>
       </c>
       <c r="F24" t="n">
-        <v>0.455538</v>
+        <v>0.447198</v>
       </c>
     </row>
     <row r="25">
@@ -5545,19 +5545,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.348103</v>
+        <v>0.358243</v>
       </c>
       <c r="C25" t="n">
-        <v>0.562506</v>
+        <v>0.5702469999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.43382</v>
+        <v>0.429823</v>
       </c>
       <c r="E25" t="n">
-        <v>0.233008</v>
+        <v>0.247127</v>
       </c>
       <c r="F25" t="n">
-        <v>0.45387</v>
+        <v>0.446026</v>
       </c>
     </row>
     <row r="26">
@@ -5565,19 +5565,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.341556</v>
+        <v>0.351394</v>